--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Maracuyá.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Maracuyá.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T30"/>
+  <dimension ref="A1:T32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44403</v>
+        <v>44424</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N4" t="n">
-        <v>33000</v>
+        <v>32000</v>
       </c>
       <c r="O4" t="n">
-        <v>33000</v>
+        <v>32000</v>
       </c>
       <c r="P4" t="n">
-        <v>33000</v>
+        <v>32000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1833</v>
+        <v>1778</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="N5" t="n">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="O5" t="n">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="P5" t="n">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1667</v>
+        <v>1833</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="N6" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="O6" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="P6" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1556</v>
+        <v>1667</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44396</v>
+        <v>44403</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="N7" t="n">
-        <v>37000</v>
+        <v>28000</v>
       </c>
       <c r="O7" t="n">
-        <v>37000</v>
+        <v>28000</v>
       </c>
       <c r="P7" t="n">
-        <v>37000</v>
+        <v>28000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>2056</v>
+        <v>1556</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="N8" t="n">
-        <v>34000</v>
+        <v>37000</v>
       </c>
       <c r="O8" t="n">
-        <v>34000</v>
+        <v>37000</v>
       </c>
       <c r="P8" t="n">
-        <v>34000</v>
+        <v>37000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1889</v>
+        <v>2056</v>
       </c>
       <c r="T8" t="n">
         <v>18</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44340</v>
+        <v>44396</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="N9" t="n">
-        <v>37000</v>
+        <v>34000</v>
       </c>
       <c r="O9" t="n">
-        <v>37000</v>
+        <v>34000</v>
       </c>
       <c r="P9" t="n">
-        <v>37000</v>
+        <v>34000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>2056</v>
+        <v>1889</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>
@@ -1160,20 +1160,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="N10" t="n">
-        <v>35000</v>
+        <v>37000</v>
       </c>
       <c r="O10" t="n">
-        <v>35000</v>
+        <v>37000</v>
       </c>
       <c r="P10" t="n">
-        <v>35000</v>
+        <v>37000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1944</v>
+        <v>2056</v>
       </c>
       <c r="T10" t="n">
         <v>18</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44354</v>
+        <v>44340</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1240,20 +1240,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="N11" t="n">
-        <v>38000</v>
+        <v>35000</v>
       </c>
       <c r="O11" t="n">
-        <v>38000</v>
+        <v>35000</v>
       </c>
       <c r="P11" t="n">
-        <v>38000</v>
+        <v>35000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>2111</v>
+        <v>1944</v>
       </c>
       <c r="T11" t="n">
         <v>18</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44410</v>
+        <v>44354</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="N12" t="n">
-        <v>32000</v>
+        <v>38000</v>
       </c>
       <c r="O12" t="n">
-        <v>32000</v>
+        <v>38000</v>
       </c>
       <c r="P12" t="n">
-        <v>32000</v>
+        <v>38000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1778</v>
+        <v>2111</v>
       </c>
       <c r="T12" t="n">
         <v>18</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N13" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="O13" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="P13" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1667</v>
+        <v>1778</v>
       </c>
       <c r="T13" t="n">
         <v>18</v>
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="N14" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="O14" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="P14" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1556</v>
+        <v>1667</v>
       </c>
       <c r="T14" t="n">
         <v>18</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44389</v>
+        <v>44410</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="N15" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="O15" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="P15" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1611</v>
+        <v>1556</v>
       </c>
       <c r="T15" t="n">
         <v>18</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="N16" t="n">
-        <v>27000</v>
+        <v>29000</v>
       </c>
       <c r="O16" t="n">
-        <v>27000</v>
+        <v>29000</v>
       </c>
       <c r="P16" t="n">
-        <v>27000</v>
+        <v>29000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1500</v>
+        <v>1611</v>
       </c>
       <c r="T16" t="n">
         <v>18</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44305</v>
+        <v>44389</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N17" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="O17" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="P17" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1667</v>
+        <v>1500</v>
       </c>
       <c r="T17" t="n">
         <v>18</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44333</v>
+        <v>44305</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N18" t="n">
-        <v>38000</v>
+        <v>30000</v>
       </c>
       <c r="O18" t="n">
-        <v>38000</v>
+        <v>30000</v>
       </c>
       <c r="P18" t="n">
-        <v>38000</v>
+        <v>30000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>2111</v>
+        <v>1667</v>
       </c>
       <c r="T18" t="n">
         <v>18</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44333</v>
+        <v>44417</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N19" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="O19" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="P19" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1944</v>
+        <v>1556</v>
       </c>
       <c r="T19" t="n">
         <v>18</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44277</v>
+        <v>44333</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="N20" t="n">
-        <v>30000</v>
+        <v>38000</v>
       </c>
       <c r="O20" t="n">
-        <v>30000</v>
+        <v>38000</v>
       </c>
       <c r="P20" t="n">
-        <v>30000</v>
+        <v>38000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1667</v>
+        <v>2111</v>
       </c>
       <c r="T20" t="n">
         <v>18</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44277</v>
+        <v>44333</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="N21" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="O21" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="P21" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1556</v>
+        <v>1944</v>
       </c>
       <c r="T21" t="n">
         <v>18</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44319</v>
+        <v>44277</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="N22" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="O22" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="P22" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1500</v>
+        <v>1667</v>
       </c>
       <c r="T22" t="n">
         <v>18</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44326</v>
+        <v>44277</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2200,20 +2200,20 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="N23" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="O23" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="P23" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1944</v>
+        <v>1556</v>
       </c>
       <c r="T23" t="n">
         <v>18</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44326</v>
+        <v>44319</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>25</v>
+        <v>140</v>
       </c>
       <c r="N24" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="O24" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="P24" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1667</v>
+        <v>1500</v>
       </c>
       <c r="T24" t="n">
         <v>18</v>
@@ -2360,20 +2360,20 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N25" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="O25" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="P25" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1556</v>
+        <v>1944</v>
       </c>
       <c r="T25" t="n">
         <v>18</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44382</v>
+        <v>44326</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2440,20 +2440,20 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N26" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="O26" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="P26" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1944</v>
+        <v>1667</v>
       </c>
       <c r="T26" t="n">
         <v>18</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44382</v>
+        <v>44326</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2520,20 +2520,20 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N27" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="O27" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="P27" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1778</v>
+        <v>1556</v>
       </c>
       <c r="T27" t="n">
         <v>18</v>
@@ -2600,20 +2600,20 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N28" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="O28" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="P28" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1667</v>
+        <v>1944</v>
       </c>
       <c r="T28" t="n">
         <v>18</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44270</v>
+        <v>44382</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2680,20 +2680,20 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="N29" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="O29" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="P29" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>2111</v>
+        <v>1778</v>
       </c>
       <c r="T29" t="n">
         <v>18</v>
@@ -2727,68 +2727,228 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
+        <v>44382</v>
+      </c>
+      <c r="E30" t="n">
+        <v>13</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>100108003</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Maracuyá</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M30" t="n">
+        <v>15</v>
+      </c>
+      <c r="N30" t="n">
+        <v>30000</v>
+      </c>
+      <c r="O30" t="n">
+        <v>30000</v>
+      </c>
+      <c r="P30" t="n">
+        <v>30000</v>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="S30" t="n">
+        <v>1667</v>
+      </c>
+      <c r="T30" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>9</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="n">
+        <v>44270</v>
+      </c>
+      <c r="E31" t="n">
+        <v>13</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>100108003</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Maracuyá</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M31" t="n">
+        <v>70</v>
+      </c>
+      <c r="N31" t="n">
+        <v>38000</v>
+      </c>
+      <c r="O31" t="n">
+        <v>38000</v>
+      </c>
+      <c r="P31" t="n">
+        <v>38000</v>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="S31" t="n">
+        <v>2111</v>
+      </c>
+      <c r="T31" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>9</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="n">
         <v>44284</v>
       </c>
-      <c r="E30" t="n">
-        <v>13</v>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G30" t="n">
-        <v>100108</v>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Tropicales y subtropicales</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
-        <v>100108003</v>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>Maracuyá</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
+      <c r="E32" t="n">
+        <v>13</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>100108003</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Maracuyá</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M30" t="n">
+      <c r="M32" t="n">
         <v>120</v>
       </c>
-      <c r="N30" t="n">
+      <c r="N32" t="n">
         <v>23000</v>
       </c>
-      <c r="O30" t="n">
+      <c r="O32" t="n">
         <v>23000</v>
       </c>
-      <c r="P30" t="n">
+      <c r="P32" t="n">
         <v>23000</v>
       </c>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>$/caja 18 kilos</t>
-        </is>
-      </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>Perú</t>
-        </is>
-      </c>
-      <c r="S30" t="n">
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="S32" t="n">
         <v>1278</v>
       </c>
-      <c r="T30" t="n">
+      <c r="T32" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Maracuyá.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Maracuyá.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T32"/>
+  <dimension ref="A1:T34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44389</v>
+        <v>44435</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N16" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="O16" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="P16" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1611</v>
+        <v>1778</v>
       </c>
       <c r="T16" t="n">
         <v>18</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44389</v>
+        <v>44431</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N17" t="n">
-        <v>27000</v>
+        <v>32000</v>
       </c>
       <c r="O17" t="n">
-        <v>27000</v>
+        <v>32000</v>
       </c>
       <c r="P17" t="n">
-        <v>27000</v>
+        <v>32000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1500</v>
+        <v>1778</v>
       </c>
       <c r="T17" t="n">
         <v>18</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44305</v>
+        <v>44389</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="N18" t="n">
-        <v>30000</v>
+        <v>29000</v>
       </c>
       <c r="O18" t="n">
-        <v>30000</v>
+        <v>29000</v>
       </c>
       <c r="P18" t="n">
-        <v>30000</v>
+        <v>29000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1667</v>
+        <v>1611</v>
       </c>
       <c r="T18" t="n">
         <v>18</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44417</v>
+        <v>44389</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N19" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="O19" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="P19" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1556</v>
+        <v>1500</v>
       </c>
       <c r="T19" t="n">
         <v>18</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44333</v>
+        <v>44305</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N20" t="n">
-        <v>38000</v>
+        <v>30000</v>
       </c>
       <c r="O20" t="n">
-        <v>38000</v>
+        <v>30000</v>
       </c>
       <c r="P20" t="n">
-        <v>38000</v>
+        <v>30000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>2111</v>
+        <v>1667</v>
       </c>
       <c r="T20" t="n">
         <v>18</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44333</v>
+        <v>44417</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2040,20 +2040,20 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N21" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="O21" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="P21" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1944</v>
+        <v>1556</v>
       </c>
       <c r="T21" t="n">
         <v>18</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44277</v>
+        <v>44333</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="N22" t="n">
-        <v>30000</v>
+        <v>38000</v>
       </c>
       <c r="O22" t="n">
-        <v>30000</v>
+        <v>38000</v>
       </c>
       <c r="P22" t="n">
-        <v>30000</v>
+        <v>38000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1667</v>
+        <v>2111</v>
       </c>
       <c r="T22" t="n">
         <v>18</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44277</v>
+        <v>44333</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2204,16 +2204,16 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="N23" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="O23" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="P23" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1556</v>
+        <v>1944</v>
       </c>
       <c r="T23" t="n">
         <v>18</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44319</v>
+        <v>44277</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="N24" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="O24" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="P24" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1500</v>
+        <v>1667</v>
       </c>
       <c r="T24" t="n">
         <v>18</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44326</v>
+        <v>44277</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2360,20 +2360,20 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="N25" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="O25" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="P25" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1944</v>
+        <v>1556</v>
       </c>
       <c r="T25" t="n">
         <v>18</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44326</v>
+        <v>44319</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>25</v>
+        <v>140</v>
       </c>
       <c r="N26" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="O26" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="P26" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1667</v>
+        <v>1500</v>
       </c>
       <c r="T26" t="n">
         <v>18</v>
@@ -2520,20 +2520,20 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N27" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="O27" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="P27" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1556</v>
+        <v>1944</v>
       </c>
       <c r="T27" t="n">
         <v>18</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44382</v>
+        <v>44326</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2600,20 +2600,20 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N28" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="O28" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="P28" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1944</v>
+        <v>1667</v>
       </c>
       <c r="T28" t="n">
         <v>18</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44382</v>
+        <v>44326</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2680,20 +2680,20 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N29" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="O29" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="P29" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1778</v>
+        <v>1556</v>
       </c>
       <c r="T29" t="n">
         <v>18</v>
@@ -2760,20 +2760,20 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N30" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="O30" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="P30" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1667</v>
+        <v>1944</v>
       </c>
       <c r="T30" t="n">
         <v>18</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44270</v>
+        <v>44382</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2840,20 +2840,20 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="N31" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="O31" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="P31" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>2111</v>
+        <v>1778</v>
       </c>
       <c r="T31" t="n">
         <v>18</v>
@@ -2887,68 +2887,228 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
+        <v>44382</v>
+      </c>
+      <c r="E32" t="n">
+        <v>13</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>100108003</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Maracuyá</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M32" t="n">
+        <v>15</v>
+      </c>
+      <c r="N32" t="n">
+        <v>30000</v>
+      </c>
+      <c r="O32" t="n">
+        <v>30000</v>
+      </c>
+      <c r="P32" t="n">
+        <v>30000</v>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="S32" t="n">
+        <v>1667</v>
+      </c>
+      <c r="T32" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>9</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="n">
+        <v>44270</v>
+      </c>
+      <c r="E33" t="n">
+        <v>13</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>100108003</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Maracuyá</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
+        <v>70</v>
+      </c>
+      <c r="N33" t="n">
+        <v>38000</v>
+      </c>
+      <c r="O33" t="n">
+        <v>38000</v>
+      </c>
+      <c r="P33" t="n">
+        <v>38000</v>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="S33" t="n">
+        <v>2111</v>
+      </c>
+      <c r="T33" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>9</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="n">
         <v>44284</v>
       </c>
-      <c r="E32" t="n">
-        <v>13</v>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G32" t="n">
-        <v>100108</v>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>Tropicales y subtropicales</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
-        <v>100108003</v>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>Maracuyá</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
+      <c r="E34" t="n">
+        <v>13</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>100108003</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Maracuyá</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M32" t="n">
+      <c r="M34" t="n">
         <v>120</v>
       </c>
-      <c r="N32" t="n">
+      <c r="N34" t="n">
         <v>23000</v>
       </c>
-      <c r="O32" t="n">
+      <c r="O34" t="n">
         <v>23000</v>
       </c>
-      <c r="P32" t="n">
+      <c r="P34" t="n">
         <v>23000</v>
       </c>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t>$/caja 18 kilos</t>
-        </is>
-      </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>Perú</t>
-        </is>
-      </c>
-      <c r="S32" t="n">
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="S34" t="n">
         <v>1278</v>
       </c>
-      <c r="T32" t="n">
+      <c r="T34" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Maracuyá.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Maracuyá.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T34"/>
+  <dimension ref="A1:T35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44389</v>
+        <v>44438</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N18" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="O18" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="P18" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1611</v>
+        <v>1778</v>
       </c>
       <c r="T18" t="n">
         <v>18</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="N19" t="n">
-        <v>27000</v>
+        <v>29000</v>
       </c>
       <c r="O19" t="n">
-        <v>27000</v>
+        <v>29000</v>
       </c>
       <c r="P19" t="n">
-        <v>27000</v>
+        <v>29000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1500</v>
+        <v>1611</v>
       </c>
       <c r="T19" t="n">
         <v>18</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44305</v>
+        <v>44389</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1960,20 +1960,20 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N20" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="O20" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="P20" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1667</v>
+        <v>1500</v>
       </c>
       <c r="T20" t="n">
         <v>18</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44417</v>
+        <v>44305</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N21" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="O21" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="P21" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1556</v>
+        <v>1667</v>
       </c>
       <c r="T21" t="n">
         <v>18</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44333</v>
+        <v>44417</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N22" t="n">
-        <v>38000</v>
+        <v>28000</v>
       </c>
       <c r="O22" t="n">
-        <v>38000</v>
+        <v>28000</v>
       </c>
       <c r="P22" t="n">
-        <v>38000</v>
+        <v>28000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>2111</v>
+        <v>1556</v>
       </c>
       <c r="T22" t="n">
         <v>18</v>
@@ -2200,20 +2200,20 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N23" t="n">
-        <v>35000</v>
+        <v>38000</v>
       </c>
       <c r="O23" t="n">
-        <v>35000</v>
+        <v>38000</v>
       </c>
       <c r="P23" t="n">
-        <v>35000</v>
+        <v>38000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1944</v>
+        <v>2111</v>
       </c>
       <c r="T23" t="n">
         <v>18</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44277</v>
+        <v>44333</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2280,20 +2280,20 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="N24" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="O24" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="P24" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1667</v>
+        <v>1944</v>
       </c>
       <c r="T24" t="n">
         <v>18</v>
@@ -2360,20 +2360,20 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N25" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="O25" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="P25" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1556</v>
+        <v>1667</v>
       </c>
       <c r="T25" t="n">
         <v>18</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44319</v>
+        <v>44277</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2440,20 +2440,20 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="N26" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="O26" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="P26" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1500</v>
+        <v>1556</v>
       </c>
       <c r="T26" t="n">
         <v>18</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44326</v>
+        <v>44319</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2520,20 +2520,20 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>16</v>
+        <v>140</v>
       </c>
       <c r="N27" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="O27" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="P27" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1944</v>
+        <v>1500</v>
       </c>
       <c r="T27" t="n">
         <v>18</v>
@@ -2600,20 +2600,20 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="N28" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="O28" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="P28" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1667</v>
+        <v>1944</v>
       </c>
       <c r="T28" t="n">
         <v>18</v>
@@ -2680,20 +2680,20 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N29" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="O29" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="P29" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1556</v>
+        <v>1667</v>
       </c>
       <c r="T29" t="n">
         <v>18</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44382</v>
+        <v>44326</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2760,20 +2760,20 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M30" t="n">
         <v>20</v>
       </c>
       <c r="N30" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="O30" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="P30" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1944</v>
+        <v>1556</v>
       </c>
       <c r="T30" t="n">
         <v>18</v>
@@ -2840,20 +2840,20 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N31" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="O31" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="P31" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1778</v>
+        <v>1944</v>
       </c>
       <c r="T31" t="n">
         <v>18</v>
@@ -2920,20 +2920,20 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N32" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="O32" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="P32" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1667</v>
+        <v>1778</v>
       </c>
       <c r="T32" t="n">
         <v>18</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44270</v>
+        <v>44382</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3000,20 +3000,20 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="N33" t="n">
-        <v>38000</v>
+        <v>30000</v>
       </c>
       <c r="O33" t="n">
-        <v>38000</v>
+        <v>30000</v>
       </c>
       <c r="P33" t="n">
-        <v>38000</v>
+        <v>30000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>2111</v>
+        <v>1667</v>
       </c>
       <c r="T33" t="n">
         <v>18</v>
@@ -3047,68 +3047,148 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
+        <v>44270</v>
+      </c>
+      <c r="E34" t="n">
+        <v>13</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>100108003</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Maracuyá</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M34" t="n">
+        <v>70</v>
+      </c>
+      <c r="N34" t="n">
+        <v>38000</v>
+      </c>
+      <c r="O34" t="n">
+        <v>38000</v>
+      </c>
+      <c r="P34" t="n">
+        <v>38000</v>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="S34" t="n">
+        <v>2111</v>
+      </c>
+      <c r="T34" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>9</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="n">
         <v>44284</v>
       </c>
-      <c r="E34" t="n">
-        <v>13</v>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G34" t="n">
-        <v>100108</v>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>Tropicales y subtropicales</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
-        <v>100108003</v>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>Maracuyá</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
+      <c r="E35" t="n">
+        <v>13</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>100108003</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Maracuyá</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M34" t="n">
+      <c r="M35" t="n">
         <v>120</v>
       </c>
-      <c r="N34" t="n">
+      <c r="N35" t="n">
         <v>23000</v>
       </c>
-      <c r="O34" t="n">
+      <c r="O35" t="n">
         <v>23000</v>
       </c>
-      <c r="P34" t="n">
+      <c r="P35" t="n">
         <v>23000</v>
       </c>
-      <c r="Q34" t="inlineStr">
-        <is>
-          <t>$/caja 18 kilos</t>
-        </is>
-      </c>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>Perú</t>
-        </is>
-      </c>
-      <c r="S34" t="n">
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="S35" t="n">
         <v>1278</v>
       </c>
-      <c r="T34" t="n">
+      <c r="T35" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Maracuyá.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Maracuyá.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T35"/>
+  <dimension ref="A1:T36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44291</v>
+        <v>44424</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -527,13 +527,13 @@
         <v>30</v>
       </c>
       <c r="N2" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="O2" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="P2" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1389</v>
+        <v>1778</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44312</v>
+        <v>44305</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>160</v>
+        <v>25</v>
       </c>
       <c r="N3" t="n">
-        <v>26000</v>
+        <v>30000</v>
       </c>
       <c r="O3" t="n">
-        <v>26000</v>
+        <v>30000</v>
       </c>
       <c r="P3" t="n">
-        <v>26000</v>
+        <v>30000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1444</v>
+        <v>1667</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44424</v>
+        <v>44326</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="N4" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="O4" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="P4" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1778</v>
+        <v>1944</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44403</v>
+        <v>44326</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
         <v>25</v>
       </c>
       <c r="N5" t="n">
-        <v>33000</v>
+        <v>30000</v>
       </c>
       <c r="O5" t="n">
-        <v>33000</v>
+        <v>30000</v>
       </c>
       <c r="P5" t="n">
-        <v>33000</v>
+        <v>30000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1833</v>
+        <v>1667</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44403</v>
+        <v>44326</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="N6" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="O6" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="P6" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1667</v>
+        <v>1556</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44403</v>
+        <v>44270</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="N7" t="n">
-        <v>28000</v>
+        <v>38000</v>
       </c>
       <c r="O7" t="n">
-        <v>28000</v>
+        <v>38000</v>
       </c>
       <c r="P7" t="n">
-        <v>28000</v>
+        <v>38000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1556</v>
+        <v>2111</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44396</v>
+        <v>44389</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1007,13 +1007,13 @@
         <v>35</v>
       </c>
       <c r="N8" t="n">
-        <v>37000</v>
+        <v>29000</v>
       </c>
       <c r="O8" t="n">
-        <v>37000</v>
+        <v>29000</v>
       </c>
       <c r="P8" t="n">
-        <v>37000</v>
+        <v>29000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>2056</v>
+        <v>1611</v>
       </c>
       <c r="T8" t="n">
         <v>18</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44396</v>
+        <v>44389</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N9" t="n">
-        <v>34000</v>
+        <v>27000</v>
       </c>
       <c r="O9" t="n">
-        <v>34000</v>
+        <v>27000</v>
       </c>
       <c r="P9" t="n">
-        <v>34000</v>
+        <v>27000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1889</v>
+        <v>1500</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44340</v>
+        <v>44382</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1160,20 +1160,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="N10" t="n">
-        <v>37000</v>
+        <v>35000</v>
       </c>
       <c r="O10" t="n">
-        <v>37000</v>
+        <v>35000</v>
       </c>
       <c r="P10" t="n">
-        <v>37000</v>
+        <v>35000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>2056</v>
+        <v>1944</v>
       </c>
       <c r="T10" t="n">
         <v>18</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44340</v>
+        <v>44382</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1240,20 +1240,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N11" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="O11" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="P11" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1944</v>
+        <v>1778</v>
       </c>
       <c r="T11" t="n">
         <v>18</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44354</v>
+        <v>44382</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="N12" t="n">
-        <v>38000</v>
+        <v>30000</v>
       </c>
       <c r="O12" t="n">
-        <v>38000</v>
+        <v>30000</v>
       </c>
       <c r="P12" t="n">
-        <v>38000</v>
+        <v>30000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>2111</v>
+        <v>1667</v>
       </c>
       <c r="T12" t="n">
         <v>18</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44410</v>
+        <v>44445</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1400,11 +1400,11 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N13" t="n">
         <v>32000</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44410</v>
+        <v>44403</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M14" t="n">
         <v>25</v>
       </c>
       <c r="N14" t="n">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="O14" t="n">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="P14" t="n">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1667</v>
+        <v>1833</v>
       </c>
       <c r="T14" t="n">
         <v>18</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44410</v>
+        <v>44403</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="N15" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="O15" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="P15" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1556</v>
+        <v>1667</v>
       </c>
       <c r="T15" t="n">
         <v>18</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44435</v>
+        <v>44403</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N16" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="O16" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="P16" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1778</v>
+        <v>1556</v>
       </c>
       <c r="T16" t="n">
         <v>18</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44431</v>
+        <v>44354</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N17" t="n">
-        <v>32000</v>
+        <v>38000</v>
       </c>
       <c r="O17" t="n">
-        <v>32000</v>
+        <v>38000</v>
       </c>
       <c r="P17" t="n">
-        <v>32000</v>
+        <v>38000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1778</v>
+        <v>2111</v>
       </c>
       <c r="T17" t="n">
         <v>18</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44438</v>
+        <v>44333</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1807,13 +1807,13 @@
         <v>30</v>
       </c>
       <c r="N18" t="n">
-        <v>32000</v>
+        <v>38000</v>
       </c>
       <c r="O18" t="n">
-        <v>32000</v>
+        <v>38000</v>
       </c>
       <c r="P18" t="n">
-        <v>32000</v>
+        <v>38000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1778</v>
+        <v>2111</v>
       </c>
       <c r="T18" t="n">
         <v>18</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44389</v>
+        <v>44333</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="N19" t="n">
-        <v>29000</v>
+        <v>35000</v>
       </c>
       <c r="O19" t="n">
-        <v>29000</v>
+        <v>35000</v>
       </c>
       <c r="P19" t="n">
-        <v>29000</v>
+        <v>35000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1611</v>
+        <v>1944</v>
       </c>
       <c r="T19" t="n">
         <v>18</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44389</v>
+        <v>44431</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1960,20 +1960,20 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N20" t="n">
-        <v>27000</v>
+        <v>32000</v>
       </c>
       <c r="O20" t="n">
-        <v>27000</v>
+        <v>32000</v>
       </c>
       <c r="P20" t="n">
-        <v>27000</v>
+        <v>32000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1500</v>
+        <v>1778</v>
       </c>
       <c r="T20" t="n">
         <v>18</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44305</v>
+        <v>44312</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>25</v>
+        <v>160</v>
       </c>
       <c r="N21" t="n">
-        <v>30000</v>
+        <v>26000</v>
       </c>
       <c r="O21" t="n">
-        <v>30000</v>
+        <v>26000</v>
       </c>
       <c r="P21" t="n">
-        <v>30000</v>
+        <v>26000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1667</v>
+        <v>1444</v>
       </c>
       <c r="T21" t="n">
         <v>18</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44417</v>
+        <v>44410</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2120,20 +2120,20 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M22" t="n">
         <v>15</v>
       </c>
       <c r="N22" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="O22" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="P22" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1556</v>
+        <v>1778</v>
       </c>
       <c r="T22" t="n">
         <v>18</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44333</v>
+        <v>44410</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2204,16 +2204,16 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N23" t="n">
-        <v>38000</v>
+        <v>30000</v>
       </c>
       <c r="O23" t="n">
-        <v>38000</v>
+        <v>30000</v>
       </c>
       <c r="P23" t="n">
-        <v>38000</v>
+        <v>30000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>2111</v>
+        <v>1667</v>
       </c>
       <c r="T23" t="n">
         <v>18</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44333</v>
+        <v>44410</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="N24" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="O24" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="P24" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1944</v>
+        <v>1556</v>
       </c>
       <c r="T24" t="n">
         <v>18</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44277</v>
+        <v>44284</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N25" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="O25" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="P25" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1667</v>
+        <v>1278</v>
       </c>
       <c r="T25" t="n">
         <v>18</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44277</v>
+        <v>44396</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2440,20 +2440,20 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="N26" t="n">
-        <v>28000</v>
+        <v>37000</v>
       </c>
       <c r="O26" t="n">
-        <v>28000</v>
+        <v>37000</v>
       </c>
       <c r="P26" t="n">
-        <v>28000</v>
+        <v>37000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1556</v>
+        <v>2056</v>
       </c>
       <c r="T26" t="n">
         <v>18</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44319</v>
+        <v>44396</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2520,20 +2520,20 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>140</v>
+        <v>15</v>
       </c>
       <c r="N27" t="n">
-        <v>27000</v>
+        <v>34000</v>
       </c>
       <c r="O27" t="n">
-        <v>27000</v>
+        <v>34000</v>
       </c>
       <c r="P27" t="n">
-        <v>27000</v>
+        <v>34000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1500</v>
+        <v>1889</v>
       </c>
       <c r="T27" t="n">
         <v>18</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44326</v>
+        <v>44340</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2600,20 +2600,20 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="N28" t="n">
-        <v>35000</v>
+        <v>37000</v>
       </c>
       <c r="O28" t="n">
-        <v>35000</v>
+        <v>37000</v>
       </c>
       <c r="P28" t="n">
-        <v>35000</v>
+        <v>37000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1944</v>
+        <v>2056</v>
       </c>
       <c r="T28" t="n">
         <v>18</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44326</v>
+        <v>44340</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2680,20 +2680,20 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N29" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="O29" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="P29" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1667</v>
+        <v>1944</v>
       </c>
       <c r="T29" t="n">
         <v>18</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44326</v>
+        <v>44277</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2760,20 +2760,20 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="N30" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="O30" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="P30" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1556</v>
+        <v>1667</v>
       </c>
       <c r="T30" t="n">
         <v>18</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44382</v>
+        <v>44277</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2840,20 +2840,20 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="N31" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="O31" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="P31" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1944</v>
+        <v>1556</v>
       </c>
       <c r="T31" t="n">
         <v>18</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44382</v>
+        <v>44291</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2927,13 +2927,13 @@
         <v>30</v>
       </c>
       <c r="N32" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="O32" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="P32" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1778</v>
+        <v>1389</v>
       </c>
       <c r="T32" t="n">
         <v>18</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44382</v>
+        <v>44417</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3000,20 +3000,20 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M33" t="n">
         <v>15</v>
       </c>
       <c r="N33" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="O33" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="P33" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1667</v>
+        <v>1556</v>
       </c>
       <c r="T33" t="n">
         <v>18</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44270</v>
+        <v>44438</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3080,20 +3080,20 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="N34" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="O34" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="P34" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>2111</v>
+        <v>1778</v>
       </c>
       <c r="T34" t="n">
         <v>18</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44284</v>
+        <v>44435</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="N35" t="n">
-        <v>23000</v>
+        <v>32000</v>
       </c>
       <c r="O35" t="n">
-        <v>23000</v>
+        <v>32000</v>
       </c>
       <c r="P35" t="n">
-        <v>23000</v>
+        <v>32000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,9 +3186,89 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1278</v>
+        <v>1778</v>
       </c>
       <c r="T35" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>9</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="n">
+        <v>44319</v>
+      </c>
+      <c r="E36" t="n">
+        <v>13</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>100108003</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Maracuyá</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
+        <v>140</v>
+      </c>
+      <c r="N36" t="n">
+        <v>27000</v>
+      </c>
+      <c r="O36" t="n">
+        <v>27000</v>
+      </c>
+      <c r="P36" t="n">
+        <v>27000</v>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="S36" t="n">
+        <v>1500</v>
+      </c>
+      <c r="T36" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Maracuyá.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Maracuyá.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T36"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44291</v>
+        <v>44452</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2924,16 +2924,16 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N32" t="n">
-        <v>25000</v>
+        <v>36000</v>
       </c>
       <c r="O32" t="n">
-        <v>25000</v>
+        <v>36000</v>
       </c>
       <c r="P32" t="n">
-        <v>25000</v>
+        <v>36000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1389</v>
+        <v>2000</v>
       </c>
       <c r="T32" t="n">
         <v>18</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44417</v>
+        <v>44291</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3004,16 +3004,16 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N33" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="O33" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="P33" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1556</v>
+        <v>1389</v>
       </c>
       <c r="T33" t="n">
         <v>18</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44438</v>
+        <v>44417</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3084,16 +3084,16 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N34" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="O34" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="P34" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1778</v>
+        <v>1556</v>
       </c>
       <c r="T34" t="n">
         <v>18</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44435</v>
+        <v>44438</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3207,68 +3207,148 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
+        <v>44435</v>
+      </c>
+      <c r="E36" t="n">
+        <v>13</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>100108003</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Maracuyá</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
+        <v>30</v>
+      </c>
+      <c r="N36" t="n">
+        <v>32000</v>
+      </c>
+      <c r="O36" t="n">
+        <v>32000</v>
+      </c>
+      <c r="P36" t="n">
+        <v>32000</v>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="S36" t="n">
+        <v>1778</v>
+      </c>
+      <c r="T36" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>9</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="n">
         <v>44319</v>
       </c>
-      <c r="E36" t="n">
-        <v>13</v>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G36" t="n">
-        <v>100108</v>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>Tropicales y subtropicales</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
-        <v>100108003</v>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>Maracuyá</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
+      <c r="E37" t="n">
+        <v>13</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>100108003</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Maracuyá</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M36" t="n">
+      <c r="M37" t="n">
         <v>140</v>
       </c>
-      <c r="N36" t="n">
+      <c r="N37" t="n">
         <v>27000</v>
       </c>
-      <c r="O36" t="n">
+      <c r="O37" t="n">
         <v>27000</v>
       </c>
-      <c r="P36" t="n">
+      <c r="P37" t="n">
         <v>27000</v>
       </c>
-      <c r="Q36" t="inlineStr">
-        <is>
-          <t>$/caja 18 kilos</t>
-        </is>
-      </c>
-      <c r="R36" t="inlineStr">
-        <is>
-          <t>Perú</t>
-        </is>
-      </c>
-      <c r="S36" t="n">
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="S37" t="n">
         <v>1500</v>
       </c>
-      <c r="T36" t="n">
+      <c r="T37" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Maracuyá.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Maracuyá.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44424</v>
+        <v>44382</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N2" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="O2" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="P2" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1778</v>
+        <v>1944</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44305</v>
+        <v>44382</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N3" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="O3" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="P3" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1667</v>
+        <v>1778</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44326</v>
+        <v>44382</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N4" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="O4" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="P4" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1944</v>
+        <v>1667</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44326</v>
+        <v>44305</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44326</v>
+        <v>44403</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N6" t="n">
-        <v>28000</v>
+        <v>33000</v>
       </c>
       <c r="O6" t="n">
-        <v>28000</v>
+        <v>33000</v>
       </c>
       <c r="P6" t="n">
-        <v>28000</v>
+        <v>33000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1556</v>
+        <v>1833</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44270</v>
+        <v>44403</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="N7" t="n">
-        <v>38000</v>
+        <v>30000</v>
       </c>
       <c r="O7" t="n">
-        <v>38000</v>
+        <v>30000</v>
       </c>
       <c r="P7" t="n">
-        <v>38000</v>
+        <v>30000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>2111</v>
+        <v>1667</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44389</v>
+        <v>44403</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="N8" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="O8" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="P8" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1611</v>
+        <v>1556</v>
       </c>
       <c r="T8" t="n">
         <v>18</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44389</v>
+        <v>44326</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N9" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="O9" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="P9" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1500</v>
+        <v>1944</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44382</v>
+        <v>44326</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1160,20 +1160,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N10" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="O10" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="P10" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1944</v>
+        <v>1667</v>
       </c>
       <c r="T10" t="n">
         <v>18</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44382</v>
+        <v>44326</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1240,20 +1240,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N11" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="O11" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="P11" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1778</v>
+        <v>1556</v>
       </c>
       <c r="T11" t="n">
         <v>18</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44382</v>
+        <v>44424</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N12" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="O12" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="P12" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1667</v>
+        <v>1778</v>
       </c>
       <c r="T12" t="n">
         <v>18</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44445</v>
+        <v>44396</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N13" t="n">
-        <v>32000</v>
+        <v>37000</v>
       </c>
       <c r="O13" t="n">
-        <v>32000</v>
+        <v>37000</v>
       </c>
       <c r="P13" t="n">
-        <v>32000</v>
+        <v>37000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1778</v>
+        <v>2056</v>
       </c>
       <c r="T13" t="n">
         <v>18</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44403</v>
+        <v>44396</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N14" t="n">
-        <v>33000</v>
+        <v>34000</v>
       </c>
       <c r="O14" t="n">
-        <v>33000</v>
+        <v>34000</v>
       </c>
       <c r="P14" t="n">
-        <v>33000</v>
+        <v>34000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1833</v>
+        <v>1889</v>
       </c>
       <c r="T14" t="n">
         <v>18</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44403</v>
+        <v>44431</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N15" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="O15" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="P15" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1667</v>
+        <v>1778</v>
       </c>
       <c r="T15" t="n">
         <v>18</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44403</v>
+        <v>44435</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N16" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="O16" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="P16" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1556</v>
+        <v>1778</v>
       </c>
       <c r="T16" t="n">
         <v>18</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44354</v>
+        <v>44445</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N17" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="O17" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="P17" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>2111</v>
+        <v>1778</v>
       </c>
       <c r="T17" t="n">
         <v>18</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44333</v>
+        <v>44319</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>30</v>
+        <v>140</v>
       </c>
       <c r="N18" t="n">
-        <v>38000</v>
+        <v>27000</v>
       </c>
       <c r="O18" t="n">
-        <v>38000</v>
+        <v>27000</v>
       </c>
       <c r="P18" t="n">
-        <v>38000</v>
+        <v>27000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>2111</v>
+        <v>1500</v>
       </c>
       <c r="T18" t="n">
         <v>18</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N19" t="n">
-        <v>35000</v>
+        <v>38000</v>
       </c>
       <c r="O19" t="n">
-        <v>35000</v>
+        <v>38000</v>
       </c>
       <c r="P19" t="n">
-        <v>35000</v>
+        <v>38000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1944</v>
+        <v>2111</v>
       </c>
       <c r="T19" t="n">
         <v>18</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44431</v>
+        <v>44333</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1960,20 +1960,20 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N20" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="O20" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="P20" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1778</v>
+        <v>1944</v>
       </c>
       <c r="T20" t="n">
         <v>18</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44312</v>
+        <v>44284</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="N21" t="n">
-        <v>26000</v>
+        <v>23000</v>
       </c>
       <c r="O21" t="n">
-        <v>26000</v>
+        <v>23000</v>
       </c>
       <c r="P21" t="n">
-        <v>26000</v>
+        <v>23000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1444</v>
+        <v>1278</v>
       </c>
       <c r="T21" t="n">
         <v>18</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44410</v>
+        <v>44417</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2120,20 +2120,20 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M22" t="n">
         <v>15</v>
       </c>
       <c r="N22" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="O22" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="P22" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1778</v>
+        <v>1556</v>
       </c>
       <c r="T22" t="n">
         <v>18</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44410</v>
+        <v>44340</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2204,16 +2204,16 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="N23" t="n">
-        <v>30000</v>
+        <v>37000</v>
       </c>
       <c r="O23" t="n">
-        <v>30000</v>
+        <v>37000</v>
       </c>
       <c r="P23" t="n">
-        <v>30000</v>
+        <v>37000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1667</v>
+        <v>2056</v>
       </c>
       <c r="T23" t="n">
         <v>18</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44410</v>
+        <v>44340</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N24" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="O24" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="P24" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1556</v>
+        <v>1944</v>
       </c>
       <c r="T24" t="n">
         <v>18</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44284</v>
+        <v>44452</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="N25" t="n">
-        <v>23000</v>
+        <v>36000</v>
       </c>
       <c r="O25" t="n">
-        <v>23000</v>
+        <v>36000</v>
       </c>
       <c r="P25" t="n">
-        <v>23000</v>
+        <v>36000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1278</v>
+        <v>2000</v>
       </c>
       <c r="T25" t="n">
         <v>18</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44396</v>
+        <v>44354</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N26" t="n">
-        <v>37000</v>
+        <v>38000</v>
       </c>
       <c r="O26" t="n">
-        <v>37000</v>
+        <v>38000</v>
       </c>
       <c r="P26" t="n">
-        <v>37000</v>
+        <v>38000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>2056</v>
+        <v>2111</v>
       </c>
       <c r="T26" t="n">
         <v>18</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44396</v>
+        <v>44389</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2520,20 +2520,20 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="N27" t="n">
-        <v>34000</v>
+        <v>29000</v>
       </c>
       <c r="O27" t="n">
-        <v>34000</v>
+        <v>29000</v>
       </c>
       <c r="P27" t="n">
-        <v>34000</v>
+        <v>29000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1889</v>
+        <v>1611</v>
       </c>
       <c r="T27" t="n">
         <v>18</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44340</v>
+        <v>44389</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2600,20 +2600,20 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="N28" t="n">
-        <v>37000</v>
+        <v>27000</v>
       </c>
       <c r="O28" t="n">
-        <v>37000</v>
+        <v>27000</v>
       </c>
       <c r="P28" t="n">
-        <v>37000</v>
+        <v>27000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>2056</v>
+        <v>1500</v>
       </c>
       <c r="T28" t="n">
         <v>18</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44340</v>
+        <v>44270</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2680,20 +2680,20 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="N29" t="n">
-        <v>35000</v>
+        <v>38000</v>
       </c>
       <c r="O29" t="n">
-        <v>35000</v>
+        <v>38000</v>
       </c>
       <c r="P29" t="n">
-        <v>35000</v>
+        <v>38000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1944</v>
+        <v>2111</v>
       </c>
       <c r="T29" t="n">
         <v>18</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44277</v>
+        <v>44312</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2764,16 +2764,16 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="N30" t="n">
-        <v>30000</v>
+        <v>26000</v>
       </c>
       <c r="O30" t="n">
-        <v>30000</v>
+        <v>26000</v>
       </c>
       <c r="P30" t="n">
-        <v>30000</v>
+        <v>26000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1667</v>
+        <v>1444</v>
       </c>
       <c r="T30" t="n">
         <v>18</v>
@@ -2840,20 +2840,20 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N31" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="O31" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="P31" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1556</v>
+        <v>1667</v>
       </c>
       <c r="T31" t="n">
         <v>18</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44452</v>
+        <v>44277</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2920,20 +2920,20 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="N32" t="n">
-        <v>36000</v>
+        <v>28000</v>
       </c>
       <c r="O32" t="n">
-        <v>36000</v>
+        <v>28000</v>
       </c>
       <c r="P32" t="n">
-        <v>36000</v>
+        <v>28000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>2000</v>
+        <v>1556</v>
       </c>
       <c r="T32" t="n">
         <v>18</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44417</v>
+        <v>44438</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3084,16 +3084,16 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N34" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="O34" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="P34" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1556</v>
+        <v>1778</v>
       </c>
       <c r="T34" t="n">
         <v>18</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44438</v>
+        <v>44410</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3160,11 +3160,11 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N35" t="n">
         <v>32000</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44435</v>
+        <v>44410</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3244,16 +3244,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N36" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="O36" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="P36" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1778</v>
+        <v>1667</v>
       </c>
       <c r="T36" t="n">
         <v>18</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44319</v>
+        <v>44410</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3320,20 +3320,20 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="N37" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="O37" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="P37" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1500</v>
+        <v>1556</v>
       </c>
       <c r="T37" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Maracuyá.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Maracuyá.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44435</v>
+        <v>44459</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N16" t="n">
-        <v>32000</v>
+        <v>38000</v>
       </c>
       <c r="O16" t="n">
-        <v>32000</v>
+        <v>38000</v>
       </c>
       <c r="P16" t="n">
-        <v>32000</v>
+        <v>38000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1778</v>
+        <v>2111</v>
       </c>
       <c r="T16" t="n">
         <v>18</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44445</v>
+        <v>44435</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44319</v>
+        <v>44445</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>140</v>
+        <v>30</v>
       </c>
       <c r="N18" t="n">
-        <v>27000</v>
+        <v>32000</v>
       </c>
       <c r="O18" t="n">
-        <v>27000</v>
+        <v>32000</v>
       </c>
       <c r="P18" t="n">
-        <v>27000</v>
+        <v>32000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1500</v>
+        <v>1778</v>
       </c>
       <c r="T18" t="n">
         <v>18</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44333</v>
+        <v>44319</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>30</v>
+        <v>140</v>
       </c>
       <c r="N19" t="n">
-        <v>38000</v>
+        <v>27000</v>
       </c>
       <c r="O19" t="n">
-        <v>38000</v>
+        <v>27000</v>
       </c>
       <c r="P19" t="n">
-        <v>38000</v>
+        <v>27000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>2111</v>
+        <v>1500</v>
       </c>
       <c r="T19" t="n">
         <v>18</v>
@@ -1960,20 +1960,20 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N20" t="n">
-        <v>35000</v>
+        <v>38000</v>
       </c>
       <c r="O20" t="n">
-        <v>35000</v>
+        <v>38000</v>
       </c>
       <c r="P20" t="n">
-        <v>35000</v>
+        <v>38000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1944</v>
+        <v>2111</v>
       </c>
       <c r="T20" t="n">
         <v>18</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44284</v>
+        <v>44333</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2040,20 +2040,20 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>120</v>
+        <v>25</v>
       </c>
       <c r="N21" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="O21" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="P21" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1278</v>
+        <v>1944</v>
       </c>
       <c r="T21" t="n">
         <v>18</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44417</v>
+        <v>44284</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>15</v>
+        <v>120</v>
       </c>
       <c r="N22" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="O22" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="P22" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1556</v>
+        <v>1278</v>
       </c>
       <c r="T22" t="n">
         <v>18</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44340</v>
+        <v>44417</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2204,16 +2204,16 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="N23" t="n">
-        <v>37000</v>
+        <v>28000</v>
       </c>
       <c r="O23" t="n">
-        <v>37000</v>
+        <v>28000</v>
       </c>
       <c r="P23" t="n">
-        <v>37000</v>
+        <v>28000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>2056</v>
+        <v>1556</v>
       </c>
       <c r="T23" t="n">
         <v>18</v>
@@ -2280,20 +2280,20 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="N24" t="n">
-        <v>35000</v>
+        <v>37000</v>
       </c>
       <c r="O24" t="n">
-        <v>35000</v>
+        <v>37000</v>
       </c>
       <c r="P24" t="n">
-        <v>35000</v>
+        <v>37000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1944</v>
+        <v>2056</v>
       </c>
       <c r="T24" t="n">
         <v>18</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44452</v>
+        <v>44340</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2360,20 +2360,20 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M25" t="n">
         <v>20</v>
       </c>
       <c r="N25" t="n">
-        <v>36000</v>
+        <v>35000</v>
       </c>
       <c r="O25" t="n">
-        <v>36000</v>
+        <v>35000</v>
       </c>
       <c r="P25" t="n">
-        <v>36000</v>
+        <v>35000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>2000</v>
+        <v>1944</v>
       </c>
       <c r="T25" t="n">
         <v>18</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44354</v>
+        <v>44452</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="N26" t="n">
-        <v>38000</v>
+        <v>36000</v>
       </c>
       <c r="O26" t="n">
-        <v>38000</v>
+        <v>36000</v>
       </c>
       <c r="P26" t="n">
-        <v>38000</v>
+        <v>36000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>2111</v>
+        <v>2000</v>
       </c>
       <c r="T26" t="n">
         <v>18</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44389</v>
+        <v>44354</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2524,16 +2524,16 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N27" t="n">
-        <v>29000</v>
+        <v>38000</v>
       </c>
       <c r="O27" t="n">
-        <v>29000</v>
+        <v>38000</v>
       </c>
       <c r="P27" t="n">
-        <v>29000</v>
+        <v>38000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1611</v>
+        <v>2111</v>
       </c>
       <c r="T27" t="n">
         <v>18</v>
@@ -2600,20 +2600,20 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="N28" t="n">
-        <v>27000</v>
+        <v>29000</v>
       </c>
       <c r="O28" t="n">
-        <v>27000</v>
+        <v>29000</v>
       </c>
       <c r="P28" t="n">
-        <v>27000</v>
+        <v>29000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1500</v>
+        <v>1611</v>
       </c>
       <c r="T28" t="n">
         <v>18</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44270</v>
+        <v>44389</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2680,20 +2680,20 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="N29" t="n">
-        <v>38000</v>
+        <v>27000</v>
       </c>
       <c r="O29" t="n">
-        <v>38000</v>
+        <v>27000</v>
       </c>
       <c r="P29" t="n">
-        <v>38000</v>
+        <v>27000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>2111</v>
+        <v>1500</v>
       </c>
       <c r="T29" t="n">
         <v>18</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44312</v>
+        <v>44270</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2760,20 +2760,20 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="N30" t="n">
-        <v>26000</v>
+        <v>38000</v>
       </c>
       <c r="O30" t="n">
-        <v>26000</v>
+        <v>38000</v>
       </c>
       <c r="P30" t="n">
-        <v>26000</v>
+        <v>38000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1444</v>
+        <v>2111</v>
       </c>
       <c r="T30" t="n">
         <v>18</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44277</v>
+        <v>44312</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2844,16 +2844,16 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="N31" t="n">
-        <v>30000</v>
+        <v>26000</v>
       </c>
       <c r="O31" t="n">
-        <v>30000</v>
+        <v>26000</v>
       </c>
       <c r="P31" t="n">
-        <v>30000</v>
+        <v>26000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1667</v>
+        <v>1444</v>
       </c>
       <c r="T31" t="n">
         <v>18</v>
@@ -2920,20 +2920,20 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N32" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="O32" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="P32" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1556</v>
+        <v>1667</v>
       </c>
       <c r="T32" t="n">
         <v>18</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3000,20 +3000,20 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="N33" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="O33" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="P33" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1389</v>
+        <v>1556</v>
       </c>
       <c r="T33" t="n">
         <v>18</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44438</v>
+        <v>44291</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3087,13 +3087,13 @@
         <v>30</v>
       </c>
       <c r="N34" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="O34" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="P34" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1778</v>
+        <v>1389</v>
       </c>
       <c r="T34" t="n">
         <v>18</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44410</v>
+        <v>44438</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3160,11 +3160,11 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N35" t="n">
         <v>32000</v>
@@ -3240,20 +3240,20 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N36" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="O36" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="P36" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1667</v>
+        <v>1778</v>
       </c>
       <c r="T36" t="n">
         <v>18</v>
@@ -3320,35 +3320,115 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
+        <v>25</v>
+      </c>
+      <c r="N37" t="n">
+        <v>30000</v>
+      </c>
+      <c r="O37" t="n">
+        <v>30000</v>
+      </c>
+      <c r="P37" t="n">
+        <v>30000</v>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="S37" t="n">
+        <v>1667</v>
+      </c>
+      <c r="T37" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>9</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="n">
+        <v>44410</v>
+      </c>
+      <c r="E38" t="n">
+        <v>13</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>100108003</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Maracuyá</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M37" t="n">
+      <c r="M38" t="n">
         <v>10</v>
       </c>
-      <c r="N37" t="n">
+      <c r="N38" t="n">
         <v>28000</v>
       </c>
-      <c r="O37" t="n">
+      <c r="O38" t="n">
         <v>28000</v>
       </c>
-      <c r="P37" t="n">
+      <c r="P38" t="n">
         <v>28000</v>
       </c>
-      <c r="Q37" t="inlineStr">
-        <is>
-          <t>$/caja 18 kilos</t>
-        </is>
-      </c>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t>Perú</t>
-        </is>
-      </c>
-      <c r="S37" t="n">
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="S38" t="n">
         <v>1556</v>
       </c>
-      <c r="T37" t="n">
+      <c r="T38" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Maracuyá.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Maracuyá.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T38"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44396</v>
+        <v>44473</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="N13" t="n">
-        <v>37000</v>
+        <v>72000</v>
       </c>
       <c r="O13" t="n">
-        <v>37000</v>
+        <v>72000</v>
       </c>
       <c r="P13" t="n">
-        <v>37000</v>
+        <v>72000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>2056</v>
+        <v>4000</v>
       </c>
       <c r="T13" t="n">
         <v>18</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44396</v>
+        <v>44473</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="N14" t="n">
-        <v>34000</v>
+        <v>67000</v>
       </c>
       <c r="O14" t="n">
-        <v>34000</v>
+        <v>67000</v>
       </c>
       <c r="P14" t="n">
-        <v>34000</v>
+        <v>67000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1889</v>
+        <v>3722</v>
       </c>
       <c r="T14" t="n">
         <v>18</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44431</v>
+        <v>44396</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N15" t="n">
-        <v>32000</v>
+        <v>37000</v>
       </c>
       <c r="O15" t="n">
-        <v>32000</v>
+        <v>37000</v>
       </c>
       <c r="P15" t="n">
-        <v>32000</v>
+        <v>37000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1778</v>
+        <v>2056</v>
       </c>
       <c r="T15" t="n">
         <v>18</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44459</v>
+        <v>44396</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N16" t="n">
-        <v>38000</v>
+        <v>34000</v>
       </c>
       <c r="O16" t="n">
-        <v>38000</v>
+        <v>34000</v>
       </c>
       <c r="P16" t="n">
-        <v>38000</v>
+        <v>34000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>2111</v>
+        <v>1889</v>
       </c>
       <c r="T16" t="n">
         <v>18</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44435</v>
+        <v>44431</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44445</v>
+        <v>44459</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N18" t="n">
-        <v>32000</v>
+        <v>38000</v>
       </c>
       <c r="O18" t="n">
-        <v>32000</v>
+        <v>38000</v>
       </c>
       <c r="P18" t="n">
-        <v>32000</v>
+        <v>38000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1778</v>
+        <v>2111</v>
       </c>
       <c r="T18" t="n">
         <v>18</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>140</v>
+        <v>30</v>
       </c>
       <c r="N19" t="n">
-        <v>27000</v>
+        <v>32000</v>
       </c>
       <c r="O19" t="n">
-        <v>27000</v>
+        <v>32000</v>
       </c>
       <c r="P19" t="n">
-        <v>27000</v>
+        <v>32000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1500</v>
+        <v>1778</v>
       </c>
       <c r="T19" t="n">
         <v>18</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44333</v>
+        <v>44445</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1967,13 +1967,13 @@
         <v>30</v>
       </c>
       <c r="N20" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="O20" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="P20" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>2111</v>
+        <v>1778</v>
       </c>
       <c r="T20" t="n">
         <v>18</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44333</v>
+        <v>44319</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2040,20 +2040,20 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>25</v>
+        <v>140</v>
       </c>
       <c r="N21" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="O21" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="P21" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1944</v>
+        <v>1500</v>
       </c>
       <c r="T21" t="n">
         <v>18</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44284</v>
+        <v>44333</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="N22" t="n">
-        <v>23000</v>
+        <v>38000</v>
       </c>
       <c r="O22" t="n">
-        <v>23000</v>
+        <v>38000</v>
       </c>
       <c r="P22" t="n">
-        <v>23000</v>
+        <v>38000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1278</v>
+        <v>2111</v>
       </c>
       <c r="T22" t="n">
         <v>18</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44417</v>
+        <v>44333</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2200,20 +2200,20 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N23" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="O23" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="P23" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1556</v>
+        <v>1944</v>
       </c>
       <c r="T23" t="n">
         <v>18</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44340</v>
+        <v>44284</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="N24" t="n">
-        <v>37000</v>
+        <v>23000</v>
       </c>
       <c r="O24" t="n">
-        <v>37000</v>
+        <v>23000</v>
       </c>
       <c r="P24" t="n">
-        <v>37000</v>
+        <v>23000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>2056</v>
+        <v>1278</v>
       </c>
       <c r="T24" t="n">
         <v>18</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44340</v>
+        <v>44417</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2360,20 +2360,20 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N25" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="O25" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="P25" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1944</v>
+        <v>1556</v>
       </c>
       <c r="T25" t="n">
         <v>18</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44452</v>
+        <v>44340</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="N26" t="n">
-        <v>36000</v>
+        <v>37000</v>
       </c>
       <c r="O26" t="n">
-        <v>36000</v>
+        <v>37000</v>
       </c>
       <c r="P26" t="n">
-        <v>36000</v>
+        <v>37000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>2000</v>
+        <v>2056</v>
       </c>
       <c r="T26" t="n">
         <v>18</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44354</v>
+        <v>44340</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2520,20 +2520,20 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="N27" t="n">
-        <v>38000</v>
+        <v>35000</v>
       </c>
       <c r="O27" t="n">
-        <v>38000</v>
+        <v>35000</v>
       </c>
       <c r="P27" t="n">
-        <v>38000</v>
+        <v>35000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>2111</v>
+        <v>1944</v>
       </c>
       <c r="T27" t="n">
         <v>18</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44389</v>
+        <v>44452</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2604,16 +2604,16 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="N28" t="n">
-        <v>29000</v>
+        <v>36000</v>
       </c>
       <c r="O28" t="n">
-        <v>29000</v>
+        <v>36000</v>
       </c>
       <c r="P28" t="n">
-        <v>29000</v>
+        <v>36000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1611</v>
+        <v>2000</v>
       </c>
       <c r="T28" t="n">
         <v>18</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44389</v>
+        <v>44354</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2680,20 +2680,20 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="N29" t="n">
-        <v>27000</v>
+        <v>38000</v>
       </c>
       <c r="O29" t="n">
-        <v>27000</v>
+        <v>38000</v>
       </c>
       <c r="P29" t="n">
-        <v>27000</v>
+        <v>38000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1500</v>
+        <v>2111</v>
       </c>
       <c r="T29" t="n">
         <v>18</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2760,20 +2760,20 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="N30" t="n">
-        <v>38000</v>
+        <v>60000</v>
       </c>
       <c r="O30" t="n">
-        <v>38000</v>
+        <v>60000</v>
       </c>
       <c r="P30" t="n">
-        <v>38000</v>
+        <v>60000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>2111</v>
+        <v>3333</v>
       </c>
       <c r="T30" t="n">
         <v>18</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44312</v>
+        <v>44466</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2840,20 +2840,20 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="N31" t="n">
-        <v>26000</v>
+        <v>58000</v>
       </c>
       <c r="O31" t="n">
-        <v>26000</v>
+        <v>58000</v>
       </c>
       <c r="P31" t="n">
-        <v>26000</v>
+        <v>58000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1444</v>
+        <v>3222</v>
       </c>
       <c r="T31" t="n">
         <v>18</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44277</v>
+        <v>44389</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2924,16 +2924,16 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="N32" t="n">
-        <v>30000</v>
+        <v>29000</v>
       </c>
       <c r="O32" t="n">
-        <v>30000</v>
+        <v>29000</v>
       </c>
       <c r="P32" t="n">
-        <v>30000</v>
+        <v>29000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1667</v>
+        <v>1611</v>
       </c>
       <c r="T32" t="n">
         <v>18</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44277</v>
+        <v>44389</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3004,16 +3004,16 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="N33" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="O33" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="P33" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1556</v>
+        <v>1500</v>
       </c>
       <c r="T33" t="n">
         <v>18</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44291</v>
+        <v>44270</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3080,20 +3080,20 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="N34" t="n">
-        <v>25000</v>
+        <v>38000</v>
       </c>
       <c r="O34" t="n">
-        <v>25000</v>
+        <v>38000</v>
       </c>
       <c r="P34" t="n">
-        <v>25000</v>
+        <v>38000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1389</v>
+        <v>2111</v>
       </c>
       <c r="T34" t="n">
         <v>18</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44438</v>
+        <v>44312</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>30</v>
+        <v>160</v>
       </c>
       <c r="N35" t="n">
-        <v>32000</v>
+        <v>26000</v>
       </c>
       <c r="O35" t="n">
-        <v>32000</v>
+        <v>26000</v>
       </c>
       <c r="P35" t="n">
-        <v>32000</v>
+        <v>26000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1778</v>
+        <v>1444</v>
       </c>
       <c r="T35" t="n">
         <v>18</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44410</v>
+        <v>44277</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3240,20 +3240,20 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="N36" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="O36" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="P36" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1778</v>
+        <v>1667</v>
       </c>
       <c r="T36" t="n">
         <v>18</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44410</v>
+        <v>44277</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3320,20 +3320,20 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="N37" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="O37" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="P37" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1667</v>
+        <v>1556</v>
       </c>
       <c r="T37" t="n">
         <v>18</v>
@@ -3367,68 +3367,388 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
+        <v>44291</v>
+      </c>
+      <c r="E38" t="n">
+        <v>13</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>100108003</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Maracuyá</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
+        <v>30</v>
+      </c>
+      <c r="N38" t="n">
+        <v>25000</v>
+      </c>
+      <c r="O38" t="n">
+        <v>25000</v>
+      </c>
+      <c r="P38" t="n">
+        <v>25000</v>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="S38" t="n">
+        <v>1389</v>
+      </c>
+      <c r="T38" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>9</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="n">
+        <v>44438</v>
+      </c>
+      <c r="E39" t="n">
+        <v>13</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>100108003</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Maracuyá</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
+        <v>30</v>
+      </c>
+      <c r="N39" t="n">
+        <v>32000</v>
+      </c>
+      <c r="O39" t="n">
+        <v>32000</v>
+      </c>
+      <c r="P39" t="n">
+        <v>32000</v>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="S39" t="n">
+        <v>1778</v>
+      </c>
+      <c r="T39" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>9</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="n">
         <v>44410</v>
       </c>
-      <c r="E38" t="n">
-        <v>13</v>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G38" t="n">
-        <v>100108</v>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>Tropicales y subtropicales</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
-        <v>100108003</v>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>Maracuyá</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr">
+      <c r="E40" t="n">
+        <v>13</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>100108003</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Maracuyá</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
+        <v>15</v>
+      </c>
+      <c r="N40" t="n">
+        <v>32000</v>
+      </c>
+      <c r="O40" t="n">
+        <v>32000</v>
+      </c>
+      <c r="P40" t="n">
+        <v>32000</v>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="S40" t="n">
+        <v>1778</v>
+      </c>
+      <c r="T40" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>9</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="n">
+        <v>44410</v>
+      </c>
+      <c r="E41" t="n">
+        <v>13</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>100108003</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Maracuyá</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
+        <v>25</v>
+      </c>
+      <c r="N41" t="n">
+        <v>30000</v>
+      </c>
+      <c r="O41" t="n">
+        <v>30000</v>
+      </c>
+      <c r="P41" t="n">
+        <v>30000</v>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="S41" t="n">
+        <v>1667</v>
+      </c>
+      <c r="T41" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>9</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="n">
+        <v>44410</v>
+      </c>
+      <c r="E42" t="n">
+        <v>13</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>100108003</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Maracuyá</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M38" t="n">
+      <c r="M42" t="n">
         <v>10</v>
       </c>
-      <c r="N38" t="n">
+      <c r="N42" t="n">
         <v>28000</v>
       </c>
-      <c r="O38" t="n">
+      <c r="O42" t="n">
         <v>28000</v>
       </c>
-      <c r="P38" t="n">
+      <c r="P42" t="n">
         <v>28000</v>
       </c>
-      <c r="Q38" t="inlineStr">
-        <is>
-          <t>$/caja 18 kilos</t>
-        </is>
-      </c>
-      <c r="R38" t="inlineStr">
-        <is>
-          <t>Perú</t>
-        </is>
-      </c>
-      <c r="S38" t="n">
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="S42" t="n">
         <v>1556</v>
       </c>
-      <c r="T38" t="n">
+      <c r="T42" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Maracuyá.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Maracuyá.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44382</v>
+        <v>44305</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N2" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="O2" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="P2" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1944</v>
+        <v>1667</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44382</v>
+        <v>44396</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N3" t="n">
-        <v>32000</v>
+        <v>37000</v>
       </c>
       <c r="O3" t="n">
-        <v>32000</v>
+        <v>37000</v>
       </c>
       <c r="P3" t="n">
-        <v>32000</v>
+        <v>37000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1778</v>
+        <v>2056</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44382</v>
+        <v>44396</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -687,13 +687,13 @@
         <v>15</v>
       </c>
       <c r="N4" t="n">
-        <v>30000</v>
+        <v>34000</v>
       </c>
       <c r="O4" t="n">
-        <v>30000</v>
+        <v>34000</v>
       </c>
       <c r="P4" t="n">
-        <v>30000</v>
+        <v>34000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1667</v>
+        <v>1889</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44305</v>
+        <v>44277</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="N5" t="n">
         <v>30000</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44403</v>
+        <v>44277</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="N6" t="n">
-        <v>33000</v>
+        <v>28000</v>
       </c>
       <c r="O6" t="n">
-        <v>33000</v>
+        <v>28000</v>
       </c>
       <c r="P6" t="n">
-        <v>33000</v>
+        <v>28000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1833</v>
+        <v>1556</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44403</v>
+        <v>44354</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="N7" t="n">
-        <v>30000</v>
+        <v>38000</v>
       </c>
       <c r="O7" t="n">
-        <v>30000</v>
+        <v>38000</v>
       </c>
       <c r="P7" t="n">
-        <v>30000</v>
+        <v>38000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1667</v>
+        <v>2111</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44403</v>
+        <v>44459</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N8" t="n">
-        <v>28000</v>
+        <v>38000</v>
       </c>
       <c r="O8" t="n">
-        <v>28000</v>
+        <v>38000</v>
       </c>
       <c r="P8" t="n">
-        <v>28000</v>
+        <v>38000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1556</v>
+        <v>2111</v>
       </c>
       <c r="T8" t="n">
         <v>18</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44326</v>
+        <v>44431</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="N9" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="O9" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="P9" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1944</v>
+        <v>1778</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44326</v>
+        <v>44340</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="N10" t="n">
-        <v>30000</v>
+        <v>37000</v>
       </c>
       <c r="O10" t="n">
-        <v>30000</v>
+        <v>37000</v>
       </c>
       <c r="P10" t="n">
-        <v>30000</v>
+        <v>37000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1667</v>
+        <v>2056</v>
       </c>
       <c r="T10" t="n">
         <v>18</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44326</v>
+        <v>44340</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1247,13 +1247,13 @@
         <v>20</v>
       </c>
       <c r="N11" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="O11" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="P11" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1556</v>
+        <v>1944</v>
       </c>
       <c r="T11" t="n">
         <v>18</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44424</v>
+        <v>44417</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N12" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="O12" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="P12" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1778</v>
+        <v>1556</v>
       </c>
       <c r="T12" t="n">
         <v>18</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44473</v>
+        <v>44424</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N13" t="n">
-        <v>72000</v>
+        <v>32000</v>
       </c>
       <c r="O13" t="n">
-        <v>72000</v>
+        <v>32000</v>
       </c>
       <c r="P13" t="n">
-        <v>72000</v>
+        <v>32000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>4000</v>
+        <v>1778</v>
       </c>
       <c r="T13" t="n">
         <v>18</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44473</v>
+        <v>44382</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="N14" t="n">
-        <v>67000</v>
+        <v>35000</v>
       </c>
       <c r="O14" t="n">
-        <v>67000</v>
+        <v>35000</v>
       </c>
       <c r="P14" t="n">
-        <v>67000</v>
+        <v>35000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>3722</v>
+        <v>1944</v>
       </c>
       <c r="T14" t="n">
         <v>18</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44396</v>
+        <v>44382</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N15" t="n">
-        <v>37000</v>
+        <v>32000</v>
       </c>
       <c r="O15" t="n">
-        <v>37000</v>
+        <v>32000</v>
       </c>
       <c r="P15" t="n">
-        <v>37000</v>
+        <v>32000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>2056</v>
+        <v>1778</v>
       </c>
       <c r="T15" t="n">
         <v>18</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44396</v>
+        <v>44382</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1647,13 +1647,13 @@
         <v>15</v>
       </c>
       <c r="N16" t="n">
-        <v>34000</v>
+        <v>30000</v>
       </c>
       <c r="O16" t="n">
-        <v>34000</v>
+        <v>30000</v>
       </c>
       <c r="P16" t="n">
-        <v>34000</v>
+        <v>30000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1889</v>
+        <v>1667</v>
       </c>
       <c r="T16" t="n">
         <v>18</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44431</v>
+        <v>44284</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="N17" t="n">
-        <v>32000</v>
+        <v>23000</v>
       </c>
       <c r="O17" t="n">
-        <v>32000</v>
+        <v>23000</v>
       </c>
       <c r="P17" t="n">
-        <v>32000</v>
+        <v>23000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1778</v>
+        <v>1278</v>
       </c>
       <c r="T17" t="n">
         <v>18</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44459</v>
+        <v>44410</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1800,20 +1800,20 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N18" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="O18" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="P18" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>2111</v>
+        <v>1778</v>
       </c>
       <c r="T18" t="n">
         <v>18</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44435</v>
+        <v>44410</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N19" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="O19" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="P19" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1778</v>
+        <v>1667</v>
       </c>
       <c r="T19" t="n">
         <v>18</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44445</v>
+        <v>44410</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1960,20 +1960,20 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="N20" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="O20" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="P20" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1778</v>
+        <v>1556</v>
       </c>
       <c r="T20" t="n">
         <v>18</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44333</v>
+        <v>44473</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N22" t="n">
-        <v>38000</v>
+        <v>72000</v>
       </c>
       <c r="O22" t="n">
-        <v>38000</v>
+        <v>72000</v>
       </c>
       <c r="P22" t="n">
-        <v>38000</v>
+        <v>72000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>2111</v>
+        <v>4000</v>
       </c>
       <c r="T22" t="n">
         <v>18</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44333</v>
+        <v>44473</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2204,16 +2204,16 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="N23" t="n">
-        <v>35000</v>
+        <v>67000</v>
       </c>
       <c r="O23" t="n">
-        <v>35000</v>
+        <v>67000</v>
       </c>
       <c r="P23" t="n">
-        <v>35000</v>
+        <v>67000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1944</v>
+        <v>3722</v>
       </c>
       <c r="T23" t="n">
         <v>18</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44284</v>
+        <v>44403</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2280,20 +2280,20 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>120</v>
+        <v>25</v>
       </c>
       <c r="N24" t="n">
-        <v>23000</v>
+        <v>33000</v>
       </c>
       <c r="O24" t="n">
-        <v>23000</v>
+        <v>33000</v>
       </c>
       <c r="P24" t="n">
-        <v>23000</v>
+        <v>33000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1278</v>
+        <v>1833</v>
       </c>
       <c r="T24" t="n">
         <v>18</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44417</v>
+        <v>44403</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="N25" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="O25" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="P25" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1556</v>
+        <v>1667</v>
       </c>
       <c r="T25" t="n">
         <v>18</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44340</v>
+        <v>44403</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2440,20 +2440,20 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="N26" t="n">
-        <v>37000</v>
+        <v>28000</v>
       </c>
       <c r="O26" t="n">
-        <v>37000</v>
+        <v>28000</v>
       </c>
       <c r="P26" t="n">
-        <v>37000</v>
+        <v>28000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>2056</v>
+        <v>1556</v>
       </c>
       <c r="T26" t="n">
         <v>18</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44340</v>
+        <v>44291</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2520,20 +2520,20 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N27" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="O27" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="P27" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1944</v>
+        <v>1389</v>
       </c>
       <c r="T27" t="n">
         <v>18</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44452</v>
+        <v>44445</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2604,16 +2604,16 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N28" t="n">
-        <v>36000</v>
+        <v>32000</v>
       </c>
       <c r="O28" t="n">
-        <v>36000</v>
+        <v>32000</v>
       </c>
       <c r="P28" t="n">
-        <v>36000</v>
+        <v>32000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>2000</v>
+        <v>1778</v>
       </c>
       <c r="T28" t="n">
         <v>18</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44354</v>
+        <v>44452</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2684,16 +2684,16 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="N29" t="n">
-        <v>38000</v>
+        <v>36000</v>
       </c>
       <c r="O29" t="n">
-        <v>38000</v>
+        <v>36000</v>
       </c>
       <c r="P29" t="n">
-        <v>38000</v>
+        <v>36000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>2111</v>
+        <v>2000</v>
       </c>
       <c r="T29" t="n">
         <v>18</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44466</v>
+        <v>44435</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2764,16 +2764,16 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N30" t="n">
-        <v>60000</v>
+        <v>32000</v>
       </c>
       <c r="O30" t="n">
-        <v>60000</v>
+        <v>32000</v>
       </c>
       <c r="P30" t="n">
-        <v>60000</v>
+        <v>32000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>3333</v>
+        <v>1778</v>
       </c>
       <c r="T30" t="n">
         <v>18</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44466</v>
+        <v>44333</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2840,20 +2840,20 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="N31" t="n">
-        <v>58000</v>
+        <v>38000</v>
       </c>
       <c r="O31" t="n">
-        <v>58000</v>
+        <v>38000</v>
       </c>
       <c r="P31" t="n">
-        <v>58000</v>
+        <v>38000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>3222</v>
+        <v>2111</v>
       </c>
       <c r="T31" t="n">
         <v>18</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44389</v>
+        <v>44333</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2920,20 +2920,20 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="N32" t="n">
-        <v>29000</v>
+        <v>35000</v>
       </c>
       <c r="O32" t="n">
-        <v>29000</v>
+        <v>35000</v>
       </c>
       <c r="P32" t="n">
-        <v>29000</v>
+        <v>35000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1611</v>
+        <v>1944</v>
       </c>
       <c r="T32" t="n">
         <v>18</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44389</v>
+        <v>44466</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3000,20 +3000,20 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N33" t="n">
-        <v>27000</v>
+        <v>60000</v>
       </c>
       <c r="O33" t="n">
-        <v>27000</v>
+        <v>60000</v>
       </c>
       <c r="P33" t="n">
-        <v>27000</v>
+        <v>60000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1500</v>
+        <v>3333</v>
       </c>
       <c r="T33" t="n">
         <v>18</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3080,20 +3080,20 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="N34" t="n">
-        <v>38000</v>
+        <v>58000</v>
       </c>
       <c r="O34" t="n">
-        <v>38000</v>
+        <v>58000</v>
       </c>
       <c r="P34" t="n">
-        <v>38000</v>
+        <v>58000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>2111</v>
+        <v>3222</v>
       </c>
       <c r="T34" t="n">
         <v>18</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44312</v>
+        <v>44270</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3160,20 +3160,20 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="N35" t="n">
-        <v>26000</v>
+        <v>38000</v>
       </c>
       <c r="O35" t="n">
-        <v>26000</v>
+        <v>38000</v>
       </c>
       <c r="P35" t="n">
-        <v>26000</v>
+        <v>38000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1444</v>
+        <v>2111</v>
       </c>
       <c r="T35" t="n">
         <v>18</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44277</v>
+        <v>44438</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3244,16 +3244,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="N36" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="O36" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="P36" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1667</v>
+        <v>1778</v>
       </c>
       <c r="T36" t="n">
         <v>18</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44277</v>
+        <v>44389</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3320,20 +3320,20 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="N37" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="O37" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="P37" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1556</v>
+        <v>1611</v>
       </c>
       <c r="T37" t="n">
         <v>18</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44291</v>
+        <v>44389</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3400,20 +3400,20 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N38" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="O38" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="P38" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>1389</v>
+        <v>1500</v>
       </c>
       <c r="T38" t="n">
         <v>18</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44438</v>
+        <v>44312</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3484,16 +3484,16 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>30</v>
+        <v>160</v>
       </c>
       <c r="N39" t="n">
-        <v>32000</v>
+        <v>26000</v>
       </c>
       <c r="O39" t="n">
-        <v>32000</v>
+        <v>26000</v>
       </c>
       <c r="P39" t="n">
-        <v>32000</v>
+        <v>26000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1778</v>
+        <v>1444</v>
       </c>
       <c r="T39" t="n">
         <v>18</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44410</v>
+        <v>44326</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3564,16 +3564,16 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N40" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="O40" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="P40" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>1778</v>
+        <v>1944</v>
       </c>
       <c r="T40" t="n">
         <v>18</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44410</v>
+        <v>44326</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44410</v>
+        <v>44326</v>
       </c>
       <c r="E42" t="n">
         <v>13</v>
@@ -3724,7 +3724,7 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N42" t="n">
         <v>28000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Maracuyá.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Maracuyá.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44305</v>
+        <v>44312</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>25</v>
+        <v>160</v>
       </c>
       <c r="N2" t="n">
-        <v>30000</v>
+        <v>26000</v>
       </c>
       <c r="O2" t="n">
-        <v>30000</v>
+        <v>26000</v>
       </c>
       <c r="P2" t="n">
-        <v>30000</v>
+        <v>26000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1667</v>
+        <v>1444</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44396</v>
+        <v>44438</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N3" t="n">
-        <v>37000</v>
+        <v>32000</v>
       </c>
       <c r="O3" t="n">
-        <v>37000</v>
+        <v>32000</v>
       </c>
       <c r="P3" t="n">
-        <v>37000</v>
+        <v>32000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>2056</v>
+        <v>1778</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44396</v>
+        <v>44452</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N4" t="n">
-        <v>34000</v>
+        <v>36000</v>
       </c>
       <c r="O4" t="n">
-        <v>34000</v>
+        <v>36000</v>
       </c>
       <c r="P4" t="n">
-        <v>34000</v>
+        <v>36000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1889</v>
+        <v>2000</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44277</v>
+        <v>44424</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="N5" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="O5" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="P5" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1667</v>
+        <v>1778</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44277</v>
+        <v>44410</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="N6" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="O6" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="P6" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1556</v>
+        <v>1778</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44354</v>
+        <v>44410</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="N7" t="n">
-        <v>38000</v>
+        <v>30000</v>
       </c>
       <c r="O7" t="n">
-        <v>38000</v>
+        <v>30000</v>
       </c>
       <c r="P7" t="n">
-        <v>38000</v>
+        <v>30000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>2111</v>
+        <v>1667</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44459</v>
+        <v>44410</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="N8" t="n">
-        <v>38000</v>
+        <v>28000</v>
       </c>
       <c r="O8" t="n">
-        <v>38000</v>
+        <v>28000</v>
       </c>
       <c r="P8" t="n">
-        <v>38000</v>
+        <v>28000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>2111</v>
+        <v>1556</v>
       </c>
       <c r="T8" t="n">
         <v>18</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44340</v>
+        <v>44382</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1160,20 +1160,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="N10" t="n">
-        <v>37000</v>
+        <v>35000</v>
       </c>
       <c r="O10" t="n">
-        <v>37000</v>
+        <v>35000</v>
       </c>
       <c r="P10" t="n">
-        <v>37000</v>
+        <v>35000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>2056</v>
+        <v>1944</v>
       </c>
       <c r="T10" t="n">
         <v>18</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44340</v>
+        <v>44382</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1240,20 +1240,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N11" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="O11" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="P11" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1944</v>
+        <v>1778</v>
       </c>
       <c r="T11" t="n">
         <v>18</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44417</v>
+        <v>44382</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M12" t="n">
         <v>15</v>
       </c>
       <c r="N12" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="O12" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="P12" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1556</v>
+        <v>1667</v>
       </c>
       <c r="T12" t="n">
         <v>18</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44424</v>
+        <v>44435</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44382</v>
+        <v>44340</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="N14" t="n">
-        <v>35000</v>
+        <v>37000</v>
       </c>
       <c r="O14" t="n">
-        <v>35000</v>
+        <v>37000</v>
       </c>
       <c r="P14" t="n">
-        <v>35000</v>
+        <v>37000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1944</v>
+        <v>2056</v>
       </c>
       <c r="T14" t="n">
         <v>18</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44382</v>
+        <v>44340</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N15" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="O15" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="P15" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1778</v>
+        <v>1944</v>
       </c>
       <c r="T15" t="n">
         <v>18</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44382</v>
+        <v>44403</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N16" t="n">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="O16" t="n">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="P16" t="n">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1667</v>
+        <v>1833</v>
       </c>
       <c r="T16" t="n">
         <v>18</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44284</v>
+        <v>44403</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>120</v>
+        <v>45</v>
       </c>
       <c r="N17" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="O17" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="P17" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1278</v>
+        <v>1667</v>
       </c>
       <c r="T17" t="n">
         <v>18</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44410</v>
+        <v>44403</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1800,20 +1800,20 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M18" t="n">
         <v>15</v>
       </c>
       <c r="N18" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="O18" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="P18" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1778</v>
+        <v>1556</v>
       </c>
       <c r="T18" t="n">
         <v>18</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44410</v>
+        <v>44319</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>25</v>
+        <v>140</v>
       </c>
       <c r="N19" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="O19" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="P19" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1667</v>
+        <v>1500</v>
       </c>
       <c r="T19" t="n">
         <v>18</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44410</v>
+        <v>44459</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1960,20 +1960,20 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="N20" t="n">
-        <v>28000</v>
+        <v>38000</v>
       </c>
       <c r="O20" t="n">
-        <v>28000</v>
+        <v>38000</v>
       </c>
       <c r="P20" t="n">
-        <v>28000</v>
+        <v>38000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1556</v>
+        <v>2111</v>
       </c>
       <c r="T20" t="n">
         <v>18</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44319</v>
+        <v>44284</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="N21" t="n">
-        <v>27000</v>
+        <v>23000</v>
       </c>
       <c r="O21" t="n">
-        <v>27000</v>
+        <v>23000</v>
       </c>
       <c r="P21" t="n">
-        <v>27000</v>
+        <v>23000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1500</v>
+        <v>1278</v>
       </c>
       <c r="T21" t="n">
         <v>18</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44473</v>
+        <v>44305</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2127,13 +2127,13 @@
         <v>25</v>
       </c>
       <c r="N22" t="n">
-        <v>72000</v>
+        <v>30000</v>
       </c>
       <c r="O22" t="n">
-        <v>72000</v>
+        <v>30000</v>
       </c>
       <c r="P22" t="n">
-        <v>72000</v>
+        <v>30000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>4000</v>
+        <v>1667</v>
       </c>
       <c r="T22" t="n">
         <v>18</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44473</v>
+        <v>44354</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2200,20 +2200,20 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="N23" t="n">
-        <v>67000</v>
+        <v>38000</v>
       </c>
       <c r="O23" t="n">
-        <v>67000</v>
+        <v>38000</v>
       </c>
       <c r="P23" t="n">
-        <v>67000</v>
+        <v>38000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>3722</v>
+        <v>2111</v>
       </c>
       <c r="T23" t="n">
         <v>18</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44403</v>
+        <v>44417</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2280,20 +2280,20 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N24" t="n">
-        <v>33000</v>
+        <v>28000</v>
       </c>
       <c r="O24" t="n">
-        <v>33000</v>
+        <v>28000</v>
       </c>
       <c r="P24" t="n">
-        <v>33000</v>
+        <v>28000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1833</v>
+        <v>1556</v>
       </c>
       <c r="T24" t="n">
         <v>18</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44403</v>
+        <v>44291</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N25" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="O25" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="P25" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1667</v>
+        <v>1389</v>
       </c>
       <c r="T25" t="n">
         <v>18</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44403</v>
+        <v>44326</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2440,20 +2440,20 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N26" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="O26" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="P26" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1556</v>
+        <v>1944</v>
       </c>
       <c r="T26" t="n">
         <v>18</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44291</v>
+        <v>44326</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2524,16 +2524,16 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N27" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="O27" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="P27" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1389</v>
+        <v>1667</v>
       </c>
       <c r="T27" t="n">
         <v>18</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44445</v>
+        <v>44326</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2600,20 +2600,20 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N28" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="O28" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="P28" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1778</v>
+        <v>1556</v>
       </c>
       <c r="T28" t="n">
         <v>18</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44452</v>
+        <v>44396</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2684,16 +2684,16 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="N29" t="n">
-        <v>36000</v>
+        <v>37000</v>
       </c>
       <c r="O29" t="n">
-        <v>36000</v>
+        <v>37000</v>
       </c>
       <c r="P29" t="n">
-        <v>36000</v>
+        <v>37000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>2000</v>
+        <v>2056</v>
       </c>
       <c r="T29" t="n">
         <v>18</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44435</v>
+        <v>44396</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2760,20 +2760,20 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N30" t="n">
-        <v>32000</v>
+        <v>34000</v>
       </c>
       <c r="O30" t="n">
-        <v>32000</v>
+        <v>34000</v>
       </c>
       <c r="P30" t="n">
-        <v>32000</v>
+        <v>34000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1778</v>
+        <v>1889</v>
       </c>
       <c r="T30" t="n">
         <v>18</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44333</v>
+        <v>44466</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2844,16 +2844,16 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N31" t="n">
-        <v>38000</v>
+        <v>60000</v>
       </c>
       <c r="O31" t="n">
-        <v>38000</v>
+        <v>60000</v>
       </c>
       <c r="P31" t="n">
-        <v>38000</v>
+        <v>60000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>2111</v>
+        <v>3333</v>
       </c>
       <c r="T31" t="n">
         <v>18</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44333</v>
+        <v>44466</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2924,16 +2924,16 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="N32" t="n">
-        <v>35000</v>
+        <v>58000</v>
       </c>
       <c r="O32" t="n">
-        <v>35000</v>
+        <v>58000</v>
       </c>
       <c r="P32" t="n">
-        <v>35000</v>
+        <v>58000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1944</v>
+        <v>3222</v>
       </c>
       <c r="T32" t="n">
         <v>18</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44466</v>
+        <v>44389</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3004,16 +3004,16 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="N33" t="n">
-        <v>60000</v>
+        <v>29000</v>
       </c>
       <c r="O33" t="n">
-        <v>60000</v>
+        <v>29000</v>
       </c>
       <c r="P33" t="n">
-        <v>60000</v>
+        <v>29000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>3333</v>
+        <v>1611</v>
       </c>
       <c r="T33" t="n">
         <v>18</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44466</v>
+        <v>44389</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3084,16 +3084,16 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N34" t="n">
-        <v>58000</v>
+        <v>27000</v>
       </c>
       <c r="O34" t="n">
-        <v>58000</v>
+        <v>27000</v>
       </c>
       <c r="P34" t="n">
-        <v>58000</v>
+        <v>27000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>3222</v>
+        <v>1500</v>
       </c>
       <c r="T34" t="n">
         <v>18</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44270</v>
+        <v>44277</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3160,20 +3160,20 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="N35" t="n">
-        <v>38000</v>
+        <v>30000</v>
       </c>
       <c r="O35" t="n">
-        <v>38000</v>
+        <v>30000</v>
       </c>
       <c r="P35" t="n">
-        <v>38000</v>
+        <v>30000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>2111</v>
+        <v>1667</v>
       </c>
       <c r="T35" t="n">
         <v>18</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44438</v>
+        <v>44277</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3240,20 +3240,20 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="N36" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="O36" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="P36" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1778</v>
+        <v>1556</v>
       </c>
       <c r="T36" t="n">
         <v>18</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44389</v>
+        <v>44333</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3324,16 +3324,16 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N37" t="n">
-        <v>29000</v>
+        <v>38000</v>
       </c>
       <c r="O37" t="n">
-        <v>29000</v>
+        <v>38000</v>
       </c>
       <c r="P37" t="n">
-        <v>29000</v>
+        <v>38000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1611</v>
+        <v>2111</v>
       </c>
       <c r="T37" t="n">
         <v>18</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44389</v>
+        <v>44333</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3404,16 +3404,16 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N38" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="O38" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="P38" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>1500</v>
+        <v>1944</v>
       </c>
       <c r="T38" t="n">
         <v>18</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44312</v>
+        <v>44473</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3484,16 +3484,16 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>160</v>
+        <v>25</v>
       </c>
       <c r="N39" t="n">
-        <v>26000</v>
+        <v>72000</v>
       </c>
       <c r="O39" t="n">
-        <v>26000</v>
+        <v>72000</v>
       </c>
       <c r="P39" t="n">
-        <v>26000</v>
+        <v>72000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1444</v>
+        <v>4000</v>
       </c>
       <c r="T39" t="n">
         <v>18</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44326</v>
+        <v>44473</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3560,20 +3560,20 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="N40" t="n">
-        <v>35000</v>
+        <v>67000</v>
       </c>
       <c r="O40" t="n">
-        <v>35000</v>
+        <v>67000</v>
       </c>
       <c r="P40" t="n">
-        <v>35000</v>
+        <v>67000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>1944</v>
+        <v>3722</v>
       </c>
       <c r="T40" t="n">
         <v>18</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44326</v>
+        <v>44445</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3644,16 +3644,16 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N41" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="O41" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="P41" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>1667</v>
+        <v>1778</v>
       </c>
       <c r="T41" t="n">
         <v>18</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44326</v>
+        <v>44270</v>
       </c>
       <c r="E42" t="n">
         <v>13</v>
@@ -3720,20 +3720,20 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="N42" t="n">
-        <v>28000</v>
+        <v>38000</v>
       </c>
       <c r="O42" t="n">
-        <v>28000</v>
+        <v>38000</v>
       </c>
       <c r="P42" t="n">
-        <v>28000</v>
+        <v>38000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>1556</v>
+        <v>2111</v>
       </c>
       <c r="T42" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Maracuyá.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Maracuyá.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44312</v>
+        <v>44424</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>160</v>
+        <v>30</v>
       </c>
       <c r="N2" t="n">
-        <v>26000</v>
+        <v>32000</v>
       </c>
       <c r="O2" t="n">
-        <v>26000</v>
+        <v>32000</v>
       </c>
       <c r="P2" t="n">
-        <v>26000</v>
+        <v>32000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1444</v>
+        <v>1778</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44438</v>
+        <v>44410</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -600,11 +600,11 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N3" t="n">
         <v>32000</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44452</v>
+        <v>44410</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N4" t="n">
-        <v>36000</v>
+        <v>30000</v>
       </c>
       <c r="O4" t="n">
-        <v>36000</v>
+        <v>30000</v>
       </c>
       <c r="P4" t="n">
-        <v>36000</v>
+        <v>30000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>2000</v>
+        <v>1667</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44424</v>
+        <v>44410</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="N5" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="O5" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="P5" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1778</v>
+        <v>1556</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44410</v>
+        <v>44459</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N6" t="n">
-        <v>32000</v>
+        <v>38000</v>
       </c>
       <c r="O6" t="n">
-        <v>32000</v>
+        <v>38000</v>
       </c>
       <c r="P6" t="n">
-        <v>32000</v>
+        <v>38000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1778</v>
+        <v>2111</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44410</v>
+        <v>44319</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>25</v>
+        <v>140</v>
       </c>
       <c r="N7" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="O7" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="P7" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1667</v>
+        <v>1500</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44410</v>
+        <v>44466</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N8" t="n">
-        <v>28000</v>
+        <v>60000</v>
       </c>
       <c r="O8" t="n">
-        <v>28000</v>
+        <v>60000</v>
       </c>
       <c r="P8" t="n">
-        <v>28000</v>
+        <v>60000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1556</v>
+        <v>3333</v>
       </c>
       <c r="T8" t="n">
         <v>18</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44431</v>
+        <v>44466</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="N9" t="n">
-        <v>32000</v>
+        <v>58000</v>
       </c>
       <c r="O9" t="n">
-        <v>32000</v>
+        <v>58000</v>
       </c>
       <c r="P9" t="n">
-        <v>32000</v>
+        <v>58000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1778</v>
+        <v>3222</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44382</v>
+        <v>44354</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1160,20 +1160,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="N10" t="n">
-        <v>35000</v>
+        <v>38000</v>
       </c>
       <c r="O10" t="n">
-        <v>35000</v>
+        <v>38000</v>
       </c>
       <c r="P10" t="n">
-        <v>35000</v>
+        <v>38000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1944</v>
+        <v>2111</v>
       </c>
       <c r="T10" t="n">
         <v>18</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44382</v>
+        <v>44473</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N11" t="n">
-        <v>32000</v>
+        <v>72000</v>
       </c>
       <c r="O11" t="n">
-        <v>32000</v>
+        <v>72000</v>
       </c>
       <c r="P11" t="n">
-        <v>32000</v>
+        <v>72000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1778</v>
+        <v>4000</v>
       </c>
       <c r="T11" t="n">
         <v>18</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44382</v>
+        <v>44473</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="N12" t="n">
-        <v>30000</v>
+        <v>67000</v>
       </c>
       <c r="O12" t="n">
-        <v>30000</v>
+        <v>67000</v>
       </c>
       <c r="P12" t="n">
-        <v>30000</v>
+        <v>67000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1667</v>
+        <v>3722</v>
       </c>
       <c r="T12" t="n">
         <v>18</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44435</v>
+        <v>44438</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44340</v>
+        <v>44435</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N14" t="n">
-        <v>37000</v>
+        <v>32000</v>
       </c>
       <c r="O14" t="n">
-        <v>37000</v>
+        <v>32000</v>
       </c>
       <c r="P14" t="n">
-        <v>37000</v>
+        <v>32000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>2056</v>
+        <v>1778</v>
       </c>
       <c r="T14" t="n">
         <v>18</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44340</v>
+        <v>44277</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="N15" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="O15" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="P15" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1944</v>
+        <v>1667</v>
       </c>
       <c r="T15" t="n">
         <v>18</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44403</v>
+        <v>44277</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="N16" t="n">
-        <v>33000</v>
+        <v>28000</v>
       </c>
       <c r="O16" t="n">
-        <v>33000</v>
+        <v>28000</v>
       </c>
       <c r="P16" t="n">
-        <v>33000</v>
+        <v>28000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1833</v>
+        <v>1556</v>
       </c>
       <c r="T16" t="n">
         <v>18</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44403</v>
+        <v>44333</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N17" t="n">
-        <v>30000</v>
+        <v>38000</v>
       </c>
       <c r="O17" t="n">
-        <v>30000</v>
+        <v>38000</v>
       </c>
       <c r="P17" t="n">
-        <v>30000</v>
+        <v>38000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1667</v>
+        <v>2111</v>
       </c>
       <c r="T17" t="n">
         <v>18</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44403</v>
+        <v>44333</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N18" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="O18" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="P18" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1556</v>
+        <v>1944</v>
       </c>
       <c r="T18" t="n">
         <v>18</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44319</v>
+        <v>44291</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>140</v>
+        <v>30</v>
       </c>
       <c r="N19" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="O19" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="P19" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1500</v>
+        <v>1389</v>
       </c>
       <c r="T19" t="n">
         <v>18</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44459</v>
+        <v>44326</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1960,20 +1960,20 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="N20" t="n">
-        <v>38000</v>
+        <v>35000</v>
       </c>
       <c r="O20" t="n">
-        <v>38000</v>
+        <v>35000</v>
       </c>
       <c r="P20" t="n">
-        <v>38000</v>
+        <v>35000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>2111</v>
+        <v>1944</v>
       </c>
       <c r="T20" t="n">
         <v>18</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44284</v>
+        <v>44326</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>120</v>
+        <v>25</v>
       </c>
       <c r="N21" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="O21" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="P21" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1278</v>
+        <v>1667</v>
       </c>
       <c r="T21" t="n">
         <v>18</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44305</v>
+        <v>44326</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2120,20 +2120,20 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N22" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="O22" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="P22" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1667</v>
+        <v>1556</v>
       </c>
       <c r="T22" t="n">
         <v>18</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44354</v>
+        <v>44396</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2204,16 +2204,16 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="N23" t="n">
-        <v>38000</v>
+        <v>37000</v>
       </c>
       <c r="O23" t="n">
-        <v>38000</v>
+        <v>37000</v>
       </c>
       <c r="P23" t="n">
-        <v>38000</v>
+        <v>37000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>2111</v>
+        <v>2056</v>
       </c>
       <c r="T23" t="n">
         <v>18</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44417</v>
+        <v>44396</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2280,20 +2280,20 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M24" t="n">
         <v>15</v>
       </c>
       <c r="N24" t="n">
-        <v>28000</v>
+        <v>34000</v>
       </c>
       <c r="O24" t="n">
-        <v>28000</v>
+        <v>34000</v>
       </c>
       <c r="P24" t="n">
-        <v>28000</v>
+        <v>34000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1556</v>
+        <v>1889</v>
       </c>
       <c r="T24" t="n">
         <v>18</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44291</v>
+        <v>44452</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N25" t="n">
-        <v>25000</v>
+        <v>36000</v>
       </c>
       <c r="O25" t="n">
-        <v>25000</v>
+        <v>36000</v>
       </c>
       <c r="P25" t="n">
-        <v>25000</v>
+        <v>36000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1389</v>
+        <v>2000</v>
       </c>
       <c r="T25" t="n">
         <v>18</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44326</v>
+        <v>44417</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2440,20 +2440,20 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N26" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="O26" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="P26" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1944</v>
+        <v>1556</v>
       </c>
       <c r="T26" t="n">
         <v>18</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44326</v>
+        <v>44445</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2524,16 +2524,16 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N27" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="O27" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="P27" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1667</v>
+        <v>1778</v>
       </c>
       <c r="T27" t="n">
         <v>18</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44326</v>
+        <v>44270</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2600,20 +2600,20 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="N28" t="n">
-        <v>28000</v>
+        <v>38000</v>
       </c>
       <c r="O28" t="n">
-        <v>28000</v>
+        <v>38000</v>
       </c>
       <c r="P28" t="n">
-        <v>28000</v>
+        <v>38000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1556</v>
+        <v>2111</v>
       </c>
       <c r="T28" t="n">
         <v>18</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44396</v>
+        <v>44403</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2680,20 +2680,20 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="N29" t="n">
-        <v>37000</v>
+        <v>33000</v>
       </c>
       <c r="O29" t="n">
-        <v>37000</v>
+        <v>33000</v>
       </c>
       <c r="P29" t="n">
-        <v>37000</v>
+        <v>33000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>2056</v>
+        <v>1833</v>
       </c>
       <c r="T29" t="n">
         <v>18</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44396</v>
+        <v>44403</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2760,20 +2760,20 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="N30" t="n">
-        <v>34000</v>
+        <v>30000</v>
       </c>
       <c r="O30" t="n">
-        <v>34000</v>
+        <v>30000</v>
       </c>
       <c r="P30" t="n">
-        <v>34000</v>
+        <v>30000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1889</v>
+        <v>1667</v>
       </c>
       <c r="T30" t="n">
         <v>18</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44466</v>
+        <v>44403</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2840,20 +2840,20 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M31" t="n">
         <v>15</v>
       </c>
       <c r="N31" t="n">
-        <v>60000</v>
+        <v>28000</v>
       </c>
       <c r="O31" t="n">
-        <v>60000</v>
+        <v>28000</v>
       </c>
       <c r="P31" t="n">
-        <v>60000</v>
+        <v>28000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>3333</v>
+        <v>1556</v>
       </c>
       <c r="T31" t="n">
         <v>18</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44466</v>
+        <v>44431</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2920,20 +2920,20 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="N32" t="n">
-        <v>58000</v>
+        <v>32000</v>
       </c>
       <c r="O32" t="n">
-        <v>58000</v>
+        <v>32000</v>
       </c>
       <c r="P32" t="n">
-        <v>58000</v>
+        <v>32000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>3222</v>
+        <v>1778</v>
       </c>
       <c r="T32" t="n">
         <v>18</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44389</v>
+        <v>44284</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3004,16 +3004,16 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="N33" t="n">
-        <v>29000</v>
+        <v>23000</v>
       </c>
       <c r="O33" t="n">
-        <v>29000</v>
+        <v>23000</v>
       </c>
       <c r="P33" t="n">
-        <v>29000</v>
+        <v>23000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1611</v>
+        <v>1278</v>
       </c>
       <c r="T33" t="n">
         <v>18</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44389</v>
+        <v>44312</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3080,20 +3080,20 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="N34" t="n">
-        <v>27000</v>
+        <v>26000</v>
       </c>
       <c r="O34" t="n">
-        <v>27000</v>
+        <v>26000</v>
       </c>
       <c r="P34" t="n">
-        <v>27000</v>
+        <v>26000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1500</v>
+        <v>1444</v>
       </c>
       <c r="T34" t="n">
         <v>18</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44277</v>
+        <v>44382</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3160,20 +3160,20 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="N35" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="O35" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="P35" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1667</v>
+        <v>1944</v>
       </c>
       <c r="T35" t="n">
         <v>18</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44277</v>
+        <v>44382</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3240,20 +3240,20 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="N36" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="O36" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="P36" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1556</v>
+        <v>1778</v>
       </c>
       <c r="T36" t="n">
         <v>18</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44333</v>
+        <v>44382</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3320,20 +3320,20 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N37" t="n">
-        <v>38000</v>
+        <v>30000</v>
       </c>
       <c r="O37" t="n">
-        <v>38000</v>
+        <v>30000</v>
       </c>
       <c r="P37" t="n">
-        <v>38000</v>
+        <v>30000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>2111</v>
+        <v>1667</v>
       </c>
       <c r="T37" t="n">
         <v>18</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44333</v>
+        <v>44305</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3400,20 +3400,20 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M38" t="n">
         <v>25</v>
       </c>
       <c r="N38" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="O38" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="P38" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>1944</v>
+        <v>1667</v>
       </c>
       <c r="T38" t="n">
         <v>18</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44473</v>
+        <v>44389</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3484,16 +3484,16 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="N39" t="n">
-        <v>72000</v>
+        <v>29000</v>
       </c>
       <c r="O39" t="n">
-        <v>72000</v>
+        <v>29000</v>
       </c>
       <c r="P39" t="n">
-        <v>72000</v>
+        <v>29000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>4000</v>
+        <v>1611</v>
       </c>
       <c r="T39" t="n">
         <v>18</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44473</v>
+        <v>44389</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3564,16 +3564,16 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="N40" t="n">
-        <v>67000</v>
+        <v>27000</v>
       </c>
       <c r="O40" t="n">
-        <v>67000</v>
+        <v>27000</v>
       </c>
       <c r="P40" t="n">
-        <v>67000</v>
+        <v>27000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>3722</v>
+        <v>1500</v>
       </c>
       <c r="T40" t="n">
         <v>18</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44445</v>
+        <v>44340</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3644,16 +3644,16 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N41" t="n">
-        <v>32000</v>
+        <v>37000</v>
       </c>
       <c r="O41" t="n">
-        <v>32000</v>
+        <v>37000</v>
       </c>
       <c r="P41" t="n">
-        <v>32000</v>
+        <v>37000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>1778</v>
+        <v>2056</v>
       </c>
       <c r="T41" t="n">
         <v>18</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44270</v>
+        <v>44340</v>
       </c>
       <c r="E42" t="n">
         <v>13</v>
@@ -3720,20 +3720,20 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="N42" t="n">
-        <v>38000</v>
+        <v>35000</v>
       </c>
       <c r="O42" t="n">
-        <v>38000</v>
+        <v>35000</v>
       </c>
       <c r="P42" t="n">
-        <v>38000</v>
+        <v>35000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>2111</v>
+        <v>1944</v>
       </c>
       <c r="T42" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Maracuyá.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Maracuyá.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T42"/>
+  <dimension ref="A1:T45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1240,20 +1240,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="N11" t="n">
-        <v>72000</v>
+        <v>75000</v>
       </c>
       <c r="O11" t="n">
-        <v>72000</v>
+        <v>75000</v>
       </c>
       <c r="P11" t="n">
-        <v>72000</v>
+        <v>75000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>4000</v>
+        <v>4167</v>
       </c>
       <c r="T11" t="n">
         <v>18</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="N12" t="n">
-        <v>67000</v>
+        <v>72000</v>
       </c>
       <c r="O12" t="n">
-        <v>67000</v>
+        <v>72000</v>
       </c>
       <c r="P12" t="n">
-        <v>67000</v>
+        <v>72000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>3722</v>
+        <v>4000</v>
       </c>
       <c r="T12" t="n">
         <v>18</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44438</v>
+        <v>44473</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="N13" t="n">
-        <v>32000</v>
+        <v>67000</v>
       </c>
       <c r="O13" t="n">
-        <v>32000</v>
+        <v>67000</v>
       </c>
       <c r="P13" t="n">
-        <v>32000</v>
+        <v>67000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1778</v>
+        <v>3722</v>
       </c>
       <c r="T13" t="n">
         <v>18</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44435</v>
+        <v>44438</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44277</v>
+        <v>44435</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="N15" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="O15" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="P15" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1667</v>
+        <v>1778</v>
       </c>
       <c r="T15" t="n">
         <v>18</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N16" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="O16" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="P16" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1556</v>
+        <v>1667</v>
       </c>
       <c r="T16" t="n">
         <v>18</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44333</v>
+        <v>44277</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="N17" t="n">
-        <v>38000</v>
+        <v>28000</v>
       </c>
       <c r="O17" t="n">
-        <v>38000</v>
+        <v>28000</v>
       </c>
       <c r="P17" t="n">
-        <v>38000</v>
+        <v>28000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>2111</v>
+        <v>1556</v>
       </c>
       <c r="T17" t="n">
         <v>18</v>
@@ -1800,20 +1800,20 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N18" t="n">
-        <v>35000</v>
+        <v>38000</v>
       </c>
       <c r="O18" t="n">
-        <v>35000</v>
+        <v>38000</v>
       </c>
       <c r="P18" t="n">
-        <v>35000</v>
+        <v>38000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1944</v>
+        <v>2111</v>
       </c>
       <c r="T18" t="n">
         <v>18</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44291</v>
+        <v>44333</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N19" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="O19" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="P19" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1389</v>
+        <v>1944</v>
       </c>
       <c r="T19" t="n">
         <v>18</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44326</v>
+        <v>44291</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1960,20 +1960,20 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="N20" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="O20" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="P20" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1944</v>
+        <v>1389</v>
       </c>
       <c r="T20" t="n">
         <v>18</v>
@@ -2040,20 +2040,20 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="N21" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="O21" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="P21" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1667</v>
+        <v>1944</v>
       </c>
       <c r="T21" t="n">
         <v>18</v>
@@ -2120,20 +2120,20 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N22" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="O22" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="P22" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1556</v>
+        <v>1667</v>
       </c>
       <c r="T22" t="n">
         <v>18</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44396</v>
+        <v>44326</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2200,20 +2200,20 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="N23" t="n">
-        <v>37000</v>
+        <v>28000</v>
       </c>
       <c r="O23" t="n">
-        <v>37000</v>
+        <v>28000</v>
       </c>
       <c r="P23" t="n">
-        <v>37000</v>
+        <v>28000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>2056</v>
+        <v>1556</v>
       </c>
       <c r="T23" t="n">
         <v>18</v>
@@ -2280,20 +2280,20 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="N24" t="n">
-        <v>34000</v>
+        <v>37000</v>
       </c>
       <c r="O24" t="n">
-        <v>34000</v>
+        <v>37000</v>
       </c>
       <c r="P24" t="n">
-        <v>34000</v>
+        <v>37000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1889</v>
+        <v>2056</v>
       </c>
       <c r="T24" t="n">
         <v>18</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44452</v>
+        <v>44396</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2360,20 +2360,20 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N25" t="n">
-        <v>36000</v>
+        <v>34000</v>
       </c>
       <c r="O25" t="n">
-        <v>36000</v>
+        <v>34000</v>
       </c>
       <c r="P25" t="n">
-        <v>36000</v>
+        <v>34000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>2000</v>
+        <v>1889</v>
       </c>
       <c r="T25" t="n">
         <v>18</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44417</v>
+        <v>44452</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N26" t="n">
-        <v>28000</v>
+        <v>36000</v>
       </c>
       <c r="O26" t="n">
-        <v>28000</v>
+        <v>36000</v>
       </c>
       <c r="P26" t="n">
-        <v>28000</v>
+        <v>36000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1556</v>
+        <v>2000</v>
       </c>
       <c r="T26" t="n">
         <v>18</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44445</v>
+        <v>44417</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2524,16 +2524,16 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N27" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="O27" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="P27" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1778</v>
+        <v>1556</v>
       </c>
       <c r="T27" t="n">
         <v>18</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44270</v>
+        <v>44445</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2600,20 +2600,20 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="N28" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="O28" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="P28" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>2111</v>
+        <v>1778</v>
       </c>
       <c r="T28" t="n">
         <v>18</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44403</v>
+        <v>44270</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2684,16 +2684,16 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="N29" t="n">
-        <v>33000</v>
+        <v>38000</v>
       </c>
       <c r="O29" t="n">
-        <v>33000</v>
+        <v>38000</v>
       </c>
       <c r="P29" t="n">
-        <v>33000</v>
+        <v>38000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1833</v>
+        <v>2111</v>
       </c>
       <c r="T29" t="n">
         <v>18</v>
@@ -2760,20 +2760,20 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="N30" t="n">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="O30" t="n">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="P30" t="n">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1667</v>
+        <v>1833</v>
       </c>
       <c r="T30" t="n">
         <v>18</v>
@@ -2840,20 +2840,20 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="N31" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="O31" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="P31" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1556</v>
+        <v>1667</v>
       </c>
       <c r="T31" t="n">
         <v>18</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44431</v>
+        <v>44403</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2920,20 +2920,20 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N32" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="O32" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="P32" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1778</v>
+        <v>1556</v>
       </c>
       <c r="T32" t="n">
         <v>18</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44284</v>
+        <v>44431</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3004,16 +3004,16 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="N33" t="n">
-        <v>23000</v>
+        <v>32000</v>
       </c>
       <c r="O33" t="n">
-        <v>23000</v>
+        <v>32000</v>
       </c>
       <c r="P33" t="n">
-        <v>23000</v>
+        <v>32000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1278</v>
+        <v>1778</v>
       </c>
       <c r="T33" t="n">
         <v>18</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44312</v>
+        <v>44284</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3084,16 +3084,16 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="N34" t="n">
-        <v>26000</v>
+        <v>23000</v>
       </c>
       <c r="O34" t="n">
-        <v>26000</v>
+        <v>23000</v>
       </c>
       <c r="P34" t="n">
-        <v>26000</v>
+        <v>23000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1444</v>
+        <v>1278</v>
       </c>
       <c r="T34" t="n">
         <v>18</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44382</v>
+        <v>44312</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3160,20 +3160,20 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="N35" t="n">
-        <v>35000</v>
+        <v>26000</v>
       </c>
       <c r="O35" t="n">
-        <v>35000</v>
+        <v>26000</v>
       </c>
       <c r="P35" t="n">
-        <v>35000</v>
+        <v>26000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1944</v>
+        <v>1444</v>
       </c>
       <c r="T35" t="n">
         <v>18</v>
@@ -3240,20 +3240,20 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N36" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="O36" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="P36" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1778</v>
+        <v>1944</v>
       </c>
       <c r="T36" t="n">
         <v>18</v>
@@ -3320,20 +3320,20 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N37" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="O37" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="P37" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1667</v>
+        <v>1778</v>
       </c>
       <c r="T37" t="n">
         <v>18</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44305</v>
+        <v>44382</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3400,11 +3400,11 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N38" t="n">
         <v>30000</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44389</v>
+        <v>44522</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3484,16 +3484,16 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="N39" t="n">
-        <v>29000</v>
+        <v>60000</v>
       </c>
       <c r="O39" t="n">
-        <v>29000</v>
+        <v>60000</v>
       </c>
       <c r="P39" t="n">
-        <v>29000</v>
+        <v>60000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3502,11 +3502,11 @@
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1611</v>
+        <v>3333</v>
       </c>
       <c r="T39" t="n">
         <v>18</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44389</v>
+        <v>44522</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3567,13 +3567,13 @@
         <v>20</v>
       </c>
       <c r="N40" t="n">
-        <v>27000</v>
+        <v>56000</v>
       </c>
       <c r="O40" t="n">
-        <v>27000</v>
+        <v>56000</v>
       </c>
       <c r="P40" t="n">
-        <v>27000</v>
+        <v>56000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3582,11 +3582,11 @@
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="S40" t="n">
-        <v>1500</v>
+        <v>3111</v>
       </c>
       <c r="T40" t="n">
         <v>18</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44340</v>
+        <v>44305</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3644,16 +3644,16 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="N41" t="n">
-        <v>37000</v>
+        <v>30000</v>
       </c>
       <c r="O41" t="n">
-        <v>37000</v>
+        <v>30000</v>
       </c>
       <c r="P41" t="n">
-        <v>37000</v>
+        <v>30000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>2056</v>
+        <v>1667</v>
       </c>
       <c r="T41" t="n">
         <v>18</v>
@@ -3687,68 +3687,308 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
+        <v>44389</v>
+      </c>
+      <c r="E42" t="n">
+        <v>13</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>100108003</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Maracuyá</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
+        <v>35</v>
+      </c>
+      <c r="N42" t="n">
+        <v>29000</v>
+      </c>
+      <c r="O42" t="n">
+        <v>29000</v>
+      </c>
+      <c r="P42" t="n">
+        <v>29000</v>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="S42" t="n">
+        <v>1611</v>
+      </c>
+      <c r="T42" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>9</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="n">
+        <v>44389</v>
+      </c>
+      <c r="E43" t="n">
+        <v>13</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>100108003</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Maracuyá</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
+        <v>20</v>
+      </c>
+      <c r="N43" t="n">
+        <v>27000</v>
+      </c>
+      <c r="O43" t="n">
+        <v>27000</v>
+      </c>
+      <c r="P43" t="n">
+        <v>27000</v>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="S43" t="n">
+        <v>1500</v>
+      </c>
+      <c r="T43" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>9</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D44" s="2" t="n">
         <v>44340</v>
       </c>
-      <c r="E42" t="n">
-        <v>13</v>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G42" t="n">
-        <v>100108</v>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>Tropicales y subtropicales</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
-        <v>100108003</v>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>Maracuyá</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr">
+      <c r="E44" t="n">
+        <v>13</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>100108003</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Maracuyá</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
+        <v>35</v>
+      </c>
+      <c r="N44" t="n">
+        <v>37000</v>
+      </c>
+      <c r="O44" t="n">
+        <v>37000</v>
+      </c>
+      <c r="P44" t="n">
+        <v>37000</v>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="S44" t="n">
+        <v>2056</v>
+      </c>
+      <c r="T44" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>9</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D45" s="2" t="n">
+        <v>44340</v>
+      </c>
+      <c r="E45" t="n">
+        <v>13</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>100108003</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Maracuyá</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M42" t="n">
+      <c r="M45" t="n">
         <v>20</v>
       </c>
-      <c r="N42" t="n">
+      <c r="N45" t="n">
         <v>35000</v>
       </c>
-      <c r="O42" t="n">
+      <c r="O45" t="n">
         <v>35000</v>
       </c>
-      <c r="P42" t="n">
+      <c r="P45" t="n">
         <v>35000</v>
       </c>
-      <c r="Q42" t="inlineStr">
-        <is>
-          <t>$/caja 18 kilos</t>
-        </is>
-      </c>
-      <c r="R42" t="inlineStr">
-        <is>
-          <t>Perú</t>
-        </is>
-      </c>
-      <c r="S42" t="n">
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="S45" t="n">
         <v>1944</v>
       </c>
-      <c r="T42" t="n">
+      <c r="T45" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Maracuyá.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Maracuyá.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T45"/>
+  <dimension ref="A1:T47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44417</v>
+        <v>44529</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2520,20 +2520,20 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N27" t="n">
-        <v>28000</v>
+        <v>60000</v>
       </c>
       <c r="O27" t="n">
-        <v>28000</v>
+        <v>60000</v>
       </c>
       <c r="P27" t="n">
-        <v>28000</v>
+        <v>60000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1556</v>
+        <v>3333</v>
       </c>
       <c r="T27" t="n">
         <v>18</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44445</v>
+        <v>44529</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2604,16 +2604,16 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N28" t="n">
-        <v>32000</v>
+        <v>58000</v>
       </c>
       <c r="O28" t="n">
-        <v>32000</v>
+        <v>58000</v>
       </c>
       <c r="P28" t="n">
-        <v>32000</v>
+        <v>58000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1778</v>
+        <v>3222</v>
       </c>
       <c r="T28" t="n">
         <v>18</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44270</v>
+        <v>44417</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2680,20 +2680,20 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="N29" t="n">
-        <v>38000</v>
+        <v>28000</v>
       </c>
       <c r="O29" t="n">
-        <v>38000</v>
+        <v>28000</v>
       </c>
       <c r="P29" t="n">
-        <v>38000</v>
+        <v>28000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>2111</v>
+        <v>1556</v>
       </c>
       <c r="T29" t="n">
         <v>18</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44403</v>
+        <v>44445</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2760,20 +2760,20 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N30" t="n">
-        <v>33000</v>
+        <v>32000</v>
       </c>
       <c r="O30" t="n">
-        <v>33000</v>
+        <v>32000</v>
       </c>
       <c r="P30" t="n">
-        <v>33000</v>
+        <v>32000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1833</v>
+        <v>1778</v>
       </c>
       <c r="T30" t="n">
         <v>18</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44403</v>
+        <v>44270</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2840,20 +2840,20 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="N31" t="n">
-        <v>30000</v>
+        <v>38000</v>
       </c>
       <c r="O31" t="n">
-        <v>30000</v>
+        <v>38000</v>
       </c>
       <c r="P31" t="n">
-        <v>30000</v>
+        <v>38000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1667</v>
+        <v>2111</v>
       </c>
       <c r="T31" t="n">
         <v>18</v>
@@ -2920,20 +2920,20 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N32" t="n">
-        <v>28000</v>
+        <v>33000</v>
       </c>
       <c r="O32" t="n">
-        <v>28000</v>
+        <v>33000</v>
       </c>
       <c r="P32" t="n">
-        <v>28000</v>
+        <v>33000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1556</v>
+        <v>1833</v>
       </c>
       <c r="T32" t="n">
         <v>18</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44431</v>
+        <v>44403</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3004,16 +3004,16 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N33" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="O33" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="P33" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1778</v>
+        <v>1667</v>
       </c>
       <c r="T33" t="n">
         <v>18</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44284</v>
+        <v>44403</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3080,20 +3080,20 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="N34" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="O34" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="P34" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1278</v>
+        <v>1556</v>
       </c>
       <c r="T34" t="n">
         <v>18</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44312</v>
+        <v>44431</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>160</v>
+        <v>30</v>
       </c>
       <c r="N35" t="n">
-        <v>26000</v>
+        <v>32000</v>
       </c>
       <c r="O35" t="n">
-        <v>26000</v>
+        <v>32000</v>
       </c>
       <c r="P35" t="n">
-        <v>26000</v>
+        <v>32000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1444</v>
+        <v>1778</v>
       </c>
       <c r="T35" t="n">
         <v>18</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44382</v>
+        <v>44284</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3240,20 +3240,20 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="N36" t="n">
-        <v>35000</v>
+        <v>23000</v>
       </c>
       <c r="O36" t="n">
-        <v>35000</v>
+        <v>23000</v>
       </c>
       <c r="P36" t="n">
-        <v>35000</v>
+        <v>23000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1944</v>
+        <v>1278</v>
       </c>
       <c r="T36" t="n">
         <v>18</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44382</v>
+        <v>44312</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3324,16 +3324,16 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>30</v>
+        <v>160</v>
       </c>
       <c r="N37" t="n">
-        <v>32000</v>
+        <v>26000</v>
       </c>
       <c r="O37" t="n">
-        <v>32000</v>
+        <v>26000</v>
       </c>
       <c r="P37" t="n">
-        <v>32000</v>
+        <v>26000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1778</v>
+        <v>1444</v>
       </c>
       <c r="T37" t="n">
         <v>18</v>
@@ -3400,20 +3400,20 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N38" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="O38" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="P38" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>1667</v>
+        <v>1944</v>
       </c>
       <c r="T38" t="n">
         <v>18</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44522</v>
+        <v>44382</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3484,16 +3484,16 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N39" t="n">
-        <v>60000</v>
+        <v>32000</v>
       </c>
       <c r="O39" t="n">
-        <v>60000</v>
+        <v>32000</v>
       </c>
       <c r="P39" t="n">
-        <v>60000</v>
+        <v>32000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3502,11 +3502,11 @@
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S39" t="n">
-        <v>3333</v>
+        <v>1778</v>
       </c>
       <c r="T39" t="n">
         <v>18</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44522</v>
+        <v>44382</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3564,16 +3564,16 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N40" t="n">
-        <v>56000</v>
+        <v>30000</v>
       </c>
       <c r="O40" t="n">
-        <v>56000</v>
+        <v>30000</v>
       </c>
       <c r="P40" t="n">
-        <v>56000</v>
+        <v>30000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3582,11 +3582,11 @@
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S40" t="n">
-        <v>3111</v>
+        <v>1667</v>
       </c>
       <c r="T40" t="n">
         <v>18</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44305</v>
+        <v>44522</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3647,13 +3647,13 @@
         <v>25</v>
       </c>
       <c r="N41" t="n">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="O41" t="n">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="P41" t="n">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3662,11 +3662,11 @@
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="S41" t="n">
-        <v>1667</v>
+        <v>3333</v>
       </c>
       <c r="T41" t="n">
         <v>18</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44389</v>
+        <v>44522</v>
       </c>
       <c r="E42" t="n">
         <v>13</v>
@@ -3720,20 +3720,20 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="N42" t="n">
-        <v>29000</v>
+        <v>56000</v>
       </c>
       <c r="O42" t="n">
-        <v>29000</v>
+        <v>56000</v>
       </c>
       <c r="P42" t="n">
-        <v>29000</v>
+        <v>56000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3742,11 +3742,11 @@
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="S42" t="n">
-        <v>1611</v>
+        <v>3111</v>
       </c>
       <c r="T42" t="n">
         <v>18</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44389</v>
+        <v>44305</v>
       </c>
       <c r="E43" t="n">
         <v>13</v>
@@ -3800,20 +3800,20 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N43" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="O43" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="P43" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>1500</v>
+        <v>1667</v>
       </c>
       <c r="T43" t="n">
         <v>18</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44340</v>
+        <v>44389</v>
       </c>
       <c r="E44" t="n">
         <v>13</v>
@@ -3887,13 +3887,13 @@
         <v>35</v>
       </c>
       <c r="N44" t="n">
-        <v>37000</v>
+        <v>29000</v>
       </c>
       <c r="O44" t="n">
-        <v>37000</v>
+        <v>29000</v>
       </c>
       <c r="P44" t="n">
-        <v>37000</v>
+        <v>29000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>2056</v>
+        <v>1611</v>
       </c>
       <c r="T44" t="n">
         <v>18</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44340</v>
+        <v>44389</v>
       </c>
       <c r="E45" t="n">
         <v>13</v>
@@ -3967,28 +3967,188 @@
         <v>20</v>
       </c>
       <c r="N45" t="n">
+        <v>27000</v>
+      </c>
+      <c r="O45" t="n">
+        <v>27000</v>
+      </c>
+      <c r="P45" t="n">
+        <v>27000</v>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="S45" t="n">
+        <v>1500</v>
+      </c>
+      <c r="T45" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>9</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="n">
+        <v>44340</v>
+      </c>
+      <c r="E46" t="n">
+        <v>13</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>100108003</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Maracuyá</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
+        <v>35</v>
+      </c>
+      <c r="N46" t="n">
+        <v>37000</v>
+      </c>
+      <c r="O46" t="n">
+        <v>37000</v>
+      </c>
+      <c r="P46" t="n">
+        <v>37000</v>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="S46" t="n">
+        <v>2056</v>
+      </c>
+      <c r="T46" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>9</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="n">
+        <v>44340</v>
+      </c>
+      <c r="E47" t="n">
+        <v>13</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>100108003</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Maracuyá</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
+        <v>20</v>
+      </c>
+      <c r="N47" t="n">
         <v>35000</v>
       </c>
-      <c r="O45" t="n">
+      <c r="O47" t="n">
         <v>35000</v>
       </c>
-      <c r="P45" t="n">
+      <c r="P47" t="n">
         <v>35000</v>
       </c>
-      <c r="Q45" t="inlineStr">
-        <is>
-          <t>$/caja 18 kilos</t>
-        </is>
-      </c>
-      <c r="R45" t="inlineStr">
-        <is>
-          <t>Perú</t>
-        </is>
-      </c>
-      <c r="S45" t="n">
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="S47" t="n">
         <v>1944</v>
       </c>
-      <c r="T45" t="n">
+      <c r="T47" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Maracuyá.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Maracuyá.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44424</v>
+        <v>44319</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>30</v>
+        <v>140</v>
       </c>
       <c r="N2" t="n">
-        <v>32000</v>
+        <v>27000</v>
       </c>
       <c r="O2" t="n">
-        <v>32000</v>
+        <v>27000</v>
       </c>
       <c r="P2" t="n">
-        <v>32000</v>
+        <v>27000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1778</v>
+        <v>1500</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44410</v>
+        <v>44452</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N3" t="n">
-        <v>32000</v>
+        <v>36000</v>
       </c>
       <c r="O3" t="n">
-        <v>32000</v>
+        <v>36000</v>
       </c>
       <c r="P3" t="n">
-        <v>32000</v>
+        <v>36000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1778</v>
+        <v>2000</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44410</v>
+        <v>44333</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N4" t="n">
-        <v>30000</v>
+        <v>38000</v>
       </c>
       <c r="O4" t="n">
-        <v>30000</v>
+        <v>38000</v>
       </c>
       <c r="P4" t="n">
-        <v>30000</v>
+        <v>38000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1667</v>
+        <v>2111</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44410</v>
+        <v>44333</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="N5" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="O5" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="P5" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1556</v>
+        <v>1944</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44459</v>
+        <v>44466</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N6" t="n">
-        <v>38000</v>
+        <v>60000</v>
       </c>
       <c r="O6" t="n">
-        <v>38000</v>
+        <v>60000</v>
       </c>
       <c r="P6" t="n">
-        <v>38000</v>
+        <v>60000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>2111</v>
+        <v>3333</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44319</v>
+        <v>44466</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="N7" t="n">
-        <v>27000</v>
+        <v>58000</v>
       </c>
       <c r="O7" t="n">
-        <v>27000</v>
+        <v>58000</v>
       </c>
       <c r="P7" t="n">
-        <v>27000</v>
+        <v>58000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1500</v>
+        <v>3222</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44466</v>
+        <v>44382</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N8" t="n">
-        <v>60000</v>
+        <v>35000</v>
       </c>
       <c r="O8" t="n">
-        <v>60000</v>
+        <v>35000</v>
       </c>
       <c r="P8" t="n">
-        <v>60000</v>
+        <v>35000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>3333</v>
+        <v>1944</v>
       </c>
       <c r="T8" t="n">
         <v>18</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44466</v>
+        <v>44382</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="N9" t="n">
-        <v>58000</v>
+        <v>32000</v>
       </c>
       <c r="O9" t="n">
-        <v>58000</v>
+        <v>32000</v>
       </c>
       <c r="P9" t="n">
-        <v>58000</v>
+        <v>32000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>3222</v>
+        <v>1778</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44354</v>
+        <v>44382</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1160,20 +1160,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="N10" t="n">
-        <v>38000</v>
+        <v>30000</v>
       </c>
       <c r="O10" t="n">
-        <v>38000</v>
+        <v>30000</v>
       </c>
       <c r="P10" t="n">
-        <v>38000</v>
+        <v>30000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>2111</v>
+        <v>1667</v>
       </c>
       <c r="T10" t="n">
         <v>18</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44473</v>
+        <v>44459</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1240,20 +1240,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="N11" t="n">
-        <v>75000</v>
+        <v>38000</v>
       </c>
       <c r="O11" t="n">
-        <v>75000</v>
+        <v>38000</v>
       </c>
       <c r="P11" t="n">
-        <v>75000</v>
+        <v>38000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>4167</v>
+        <v>2111</v>
       </c>
       <c r="T11" t="n">
         <v>18</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44473</v>
+        <v>44410</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N12" t="n">
-        <v>72000</v>
+        <v>32000</v>
       </c>
       <c r="O12" t="n">
-        <v>72000</v>
+        <v>32000</v>
       </c>
       <c r="P12" t="n">
-        <v>72000</v>
+        <v>32000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>4000</v>
+        <v>1778</v>
       </c>
       <c r="T12" t="n">
         <v>18</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44473</v>
+        <v>44410</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="N13" t="n">
-        <v>67000</v>
+        <v>30000</v>
       </c>
       <c r="O13" t="n">
-        <v>67000</v>
+        <v>30000</v>
       </c>
       <c r="P13" t="n">
-        <v>67000</v>
+        <v>30000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>3722</v>
+        <v>1667</v>
       </c>
       <c r="T13" t="n">
         <v>18</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44438</v>
+        <v>44410</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="N14" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="O14" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="P14" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1778</v>
+        <v>1556</v>
       </c>
       <c r="T14" t="n">
         <v>18</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44435</v>
+        <v>44389</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N15" t="n">
-        <v>32000</v>
+        <v>29000</v>
       </c>
       <c r="O15" t="n">
-        <v>32000</v>
+        <v>29000</v>
       </c>
       <c r="P15" t="n">
-        <v>32000</v>
+        <v>29000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1778</v>
+        <v>1611</v>
       </c>
       <c r="T15" t="n">
         <v>18</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44277</v>
+        <v>44389</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="N16" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="O16" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="P16" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1667</v>
+        <v>1500</v>
       </c>
       <c r="T16" t="n">
         <v>18</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44277</v>
+        <v>44291</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="N17" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="O17" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="P17" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1556</v>
+        <v>1389</v>
       </c>
       <c r="T17" t="n">
         <v>18</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44333</v>
+        <v>44312</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>30</v>
+        <v>160</v>
       </c>
       <c r="N18" t="n">
-        <v>38000</v>
+        <v>26000</v>
       </c>
       <c r="O18" t="n">
-        <v>38000</v>
+        <v>26000</v>
       </c>
       <c r="P18" t="n">
-        <v>38000</v>
+        <v>26000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>2111</v>
+        <v>1444</v>
       </c>
       <c r="T18" t="n">
         <v>18</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44333</v>
+        <v>44305</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M19" t="n">
         <v>25</v>
       </c>
       <c r="N19" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="O19" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="P19" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1944</v>
+        <v>1667</v>
       </c>
       <c r="T19" t="n">
         <v>18</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44291</v>
+        <v>44431</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1967,13 +1967,13 @@
         <v>30</v>
       </c>
       <c r="N20" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="O20" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="P20" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1389</v>
+        <v>1778</v>
       </c>
       <c r="T20" t="n">
         <v>18</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44396</v>
+        <v>44354</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N24" t="n">
-        <v>37000</v>
+        <v>38000</v>
       </c>
       <c r="O24" t="n">
-        <v>37000</v>
+        <v>38000</v>
       </c>
       <c r="P24" t="n">
-        <v>37000</v>
+        <v>38000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>2056</v>
+        <v>2111</v>
       </c>
       <c r="T24" t="n">
         <v>18</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44396</v>
+        <v>44438</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2360,20 +2360,20 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N25" t="n">
-        <v>34000</v>
+        <v>32000</v>
       </c>
       <c r="O25" t="n">
-        <v>34000</v>
+        <v>32000</v>
       </c>
       <c r="P25" t="n">
-        <v>34000</v>
+        <v>32000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1889</v>
+        <v>1778</v>
       </c>
       <c r="T25" t="n">
         <v>18</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44452</v>
+        <v>44277</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="N26" t="n">
-        <v>36000</v>
+        <v>30000</v>
       </c>
       <c r="O26" t="n">
-        <v>36000</v>
+        <v>30000</v>
       </c>
       <c r="P26" t="n">
-        <v>36000</v>
+        <v>30000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>2000</v>
+        <v>1667</v>
       </c>
       <c r="T26" t="n">
         <v>18</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44529</v>
+        <v>44277</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2520,20 +2520,20 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="N27" t="n">
-        <v>60000</v>
+        <v>28000</v>
       </c>
       <c r="O27" t="n">
-        <v>60000</v>
+        <v>28000</v>
       </c>
       <c r="P27" t="n">
-        <v>60000</v>
+        <v>28000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>3333</v>
+        <v>1556</v>
       </c>
       <c r="T27" t="n">
         <v>18</v>
@@ -2600,20 +2600,20 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="N28" t="n">
-        <v>58000</v>
+        <v>60000</v>
       </c>
       <c r="O28" t="n">
-        <v>58000</v>
+        <v>60000</v>
       </c>
       <c r="P28" t="n">
-        <v>58000</v>
+        <v>60000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>3222</v>
+        <v>3333</v>
       </c>
       <c r="T28" t="n">
         <v>18</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44417</v>
+        <v>44529</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2684,16 +2684,16 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="N29" t="n">
-        <v>28000</v>
+        <v>58000</v>
       </c>
       <c r="O29" t="n">
-        <v>28000</v>
+        <v>58000</v>
       </c>
       <c r="P29" t="n">
-        <v>28000</v>
+        <v>58000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1556</v>
+        <v>3222</v>
       </c>
       <c r="T29" t="n">
         <v>18</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44445</v>
+        <v>44417</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2764,16 +2764,16 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N30" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="O30" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="P30" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1778</v>
+        <v>1556</v>
       </c>
       <c r="T30" t="n">
         <v>18</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44270</v>
+        <v>44403</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2844,16 +2844,16 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="N31" t="n">
-        <v>38000</v>
+        <v>33000</v>
       </c>
       <c r="O31" t="n">
-        <v>38000</v>
+        <v>33000</v>
       </c>
       <c r="P31" t="n">
-        <v>38000</v>
+        <v>33000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>2111</v>
+        <v>1833</v>
       </c>
       <c r="T31" t="n">
         <v>18</v>
@@ -2920,20 +2920,20 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="N32" t="n">
-        <v>33000</v>
+        <v>30000</v>
       </c>
       <c r="O32" t="n">
-        <v>33000</v>
+        <v>30000</v>
       </c>
       <c r="P32" t="n">
-        <v>33000</v>
+        <v>30000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1833</v>
+        <v>1667</v>
       </c>
       <c r="T32" t="n">
         <v>18</v>
@@ -3000,20 +3000,20 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="N33" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="O33" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="P33" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1667</v>
+        <v>1556</v>
       </c>
       <c r="T33" t="n">
         <v>18</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44403</v>
+        <v>44284</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3080,20 +3080,20 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>15</v>
+        <v>120</v>
       </c>
       <c r="N34" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="O34" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="P34" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1556</v>
+        <v>1278</v>
       </c>
       <c r="T34" t="n">
         <v>18</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44431</v>
+        <v>44435</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44284</v>
+        <v>44473</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3240,20 +3240,20 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="N36" t="n">
-        <v>23000</v>
+        <v>75000</v>
       </c>
       <c r="O36" t="n">
-        <v>23000</v>
+        <v>75000</v>
       </c>
       <c r="P36" t="n">
-        <v>23000</v>
+        <v>75000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1278</v>
+        <v>4167</v>
       </c>
       <c r="T36" t="n">
         <v>18</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44312</v>
+        <v>44473</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3324,16 +3324,16 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>160</v>
+        <v>25</v>
       </c>
       <c r="N37" t="n">
-        <v>26000</v>
+        <v>72000</v>
       </c>
       <c r="O37" t="n">
-        <v>26000</v>
+        <v>72000</v>
       </c>
       <c r="P37" t="n">
-        <v>26000</v>
+        <v>72000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1444</v>
+        <v>4000</v>
       </c>
       <c r="T37" t="n">
         <v>18</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44382</v>
+        <v>44473</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3400,20 +3400,20 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="N38" t="n">
-        <v>35000</v>
+        <v>67000</v>
       </c>
       <c r="O38" t="n">
-        <v>35000</v>
+        <v>67000</v>
       </c>
       <c r="P38" t="n">
-        <v>35000</v>
+        <v>67000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>1944</v>
+        <v>3722</v>
       </c>
       <c r="T38" t="n">
         <v>18</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44382</v>
+        <v>44445</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44382</v>
+        <v>44522</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3560,20 +3560,20 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N40" t="n">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="O40" t="n">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="P40" t="n">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3582,11 +3582,11 @@
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="S40" t="n">
-        <v>1667</v>
+        <v>3333</v>
       </c>
       <c r="T40" t="n">
         <v>18</v>
@@ -3640,20 +3640,20 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N41" t="n">
-        <v>60000</v>
+        <v>56000</v>
       </c>
       <c r="O41" t="n">
-        <v>60000</v>
+        <v>56000</v>
       </c>
       <c r="P41" t="n">
-        <v>60000</v>
+        <v>56000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>3333</v>
+        <v>3111</v>
       </c>
       <c r="T41" t="n">
         <v>18</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44522</v>
+        <v>44396</v>
       </c>
       <c r="E42" t="n">
         <v>13</v>
@@ -3720,20 +3720,20 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="N42" t="n">
-        <v>56000</v>
+        <v>37000</v>
       </c>
       <c r="O42" t="n">
-        <v>56000</v>
+        <v>37000</v>
       </c>
       <c r="P42" t="n">
-        <v>56000</v>
+        <v>37000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3742,11 +3742,11 @@
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S42" t="n">
-        <v>3111</v>
+        <v>2056</v>
       </c>
       <c r="T42" t="n">
         <v>18</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44305</v>
+        <v>44396</v>
       </c>
       <c r="E43" t="n">
         <v>13</v>
@@ -3800,20 +3800,20 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N43" t="n">
-        <v>30000</v>
+        <v>34000</v>
       </c>
       <c r="O43" t="n">
-        <v>30000</v>
+        <v>34000</v>
       </c>
       <c r="P43" t="n">
-        <v>30000</v>
+        <v>34000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>1667</v>
+        <v>1889</v>
       </c>
       <c r="T43" t="n">
         <v>18</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44389</v>
+        <v>44340</v>
       </c>
       <c r="E44" t="n">
         <v>13</v>
@@ -3887,13 +3887,13 @@
         <v>35</v>
       </c>
       <c r="N44" t="n">
-        <v>29000</v>
+        <v>37000</v>
       </c>
       <c r="O44" t="n">
-        <v>29000</v>
+        <v>37000</v>
       </c>
       <c r="P44" t="n">
-        <v>29000</v>
+        <v>37000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>1611</v>
+        <v>2056</v>
       </c>
       <c r="T44" t="n">
         <v>18</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44389</v>
+        <v>44340</v>
       </c>
       <c r="E45" t="n">
         <v>13</v>
@@ -3967,13 +3967,13 @@
         <v>20</v>
       </c>
       <c r="N45" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="O45" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="P45" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>1500</v>
+        <v>1944</v>
       </c>
       <c r="T45" t="n">
         <v>18</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44340</v>
+        <v>44270</v>
       </c>
       <c r="E46" t="n">
         <v>13</v>
@@ -4040,20 +4040,20 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="N46" t="n">
-        <v>37000</v>
+        <v>38000</v>
       </c>
       <c r="O46" t="n">
-        <v>37000</v>
+        <v>38000</v>
       </c>
       <c r="P46" t="n">
-        <v>37000</v>
+        <v>38000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>2056</v>
+        <v>2111</v>
       </c>
       <c r="T46" t="n">
         <v>18</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44340</v>
+        <v>44424</v>
       </c>
       <c r="E47" t="n">
         <v>13</v>
@@ -4120,20 +4120,20 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N47" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="O47" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="P47" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>1944</v>
+        <v>1778</v>
       </c>
       <c r="T47" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Maracuyá.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Maracuyá.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44319</v>
+        <v>44522</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>140</v>
+        <v>25</v>
       </c>
       <c r="N2" t="n">
-        <v>27000</v>
+        <v>60000</v>
       </c>
       <c r="O2" t="n">
-        <v>27000</v>
+        <v>60000</v>
       </c>
       <c r="P2" t="n">
-        <v>27000</v>
+        <v>60000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1500</v>
+        <v>3333</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44452</v>
+        <v>44522</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M3" t="n">
         <v>20</v>
       </c>
       <c r="N3" t="n">
-        <v>36000</v>
+        <v>56000</v>
       </c>
       <c r="O3" t="n">
-        <v>36000</v>
+        <v>56000</v>
       </c>
       <c r="P3" t="n">
-        <v>36000</v>
+        <v>56000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>2000</v>
+        <v>3111</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44333</v>
+        <v>44466</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N4" t="n">
-        <v>38000</v>
+        <v>60000</v>
       </c>
       <c r="O4" t="n">
-        <v>38000</v>
+        <v>60000</v>
       </c>
       <c r="P4" t="n">
-        <v>38000</v>
+        <v>60000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>2111</v>
+        <v>3333</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44333</v>
+        <v>44466</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="N5" t="n">
-        <v>35000</v>
+        <v>58000</v>
       </c>
       <c r="O5" t="n">
-        <v>35000</v>
+        <v>58000</v>
       </c>
       <c r="P5" t="n">
-        <v>35000</v>
+        <v>58000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1944</v>
+        <v>3222</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44466</v>
+        <v>44417</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -847,13 +847,13 @@
         <v>15</v>
       </c>
       <c r="N6" t="n">
-        <v>60000</v>
+        <v>28000</v>
       </c>
       <c r="O6" t="n">
-        <v>60000</v>
+        <v>28000</v>
       </c>
       <c r="P6" t="n">
-        <v>60000</v>
+        <v>28000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>3333</v>
+        <v>1556</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44466</v>
+        <v>44305</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="N7" t="n">
-        <v>58000</v>
+        <v>30000</v>
       </c>
       <c r="O7" t="n">
-        <v>58000</v>
+        <v>30000</v>
       </c>
       <c r="P7" t="n">
-        <v>58000</v>
+        <v>30000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>3222</v>
+        <v>1667</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44382</v>
+        <v>44435</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N8" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="O8" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="P8" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1944</v>
+        <v>1778</v>
       </c>
       <c r="T8" t="n">
         <v>18</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44382</v>
+        <v>44445</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44382</v>
+        <v>44438</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1160,20 +1160,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N10" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="O10" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="P10" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1667</v>
+        <v>1778</v>
       </c>
       <c r="T10" t="n">
         <v>18</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44459</v>
+        <v>44333</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,7 +1244,7 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N11" t="n">
         <v>38000</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44410</v>
+        <v>44333</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N12" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="O12" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="P12" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1778</v>
+        <v>1944</v>
       </c>
       <c r="T12" t="n">
         <v>18</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N13" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="O13" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="P13" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1667</v>
+        <v>1778</v>
       </c>
       <c r="T13" t="n">
         <v>18</v>
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="N14" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="O14" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="P14" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1556</v>
+        <v>1667</v>
       </c>
       <c r="T14" t="n">
         <v>18</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44389</v>
+        <v>44410</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="N15" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="O15" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="P15" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1611</v>
+        <v>1556</v>
       </c>
       <c r="T15" t="n">
         <v>18</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44389</v>
+        <v>44319</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1640,11 +1640,11 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="N16" t="n">
         <v>27000</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44291</v>
+        <v>44284</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="N17" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="O17" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="P17" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1389</v>
+        <v>1278</v>
       </c>
       <c r="T17" t="n">
         <v>18</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44312</v>
+        <v>44382</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1800,20 +1800,20 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="N18" t="n">
-        <v>26000</v>
+        <v>35000</v>
       </c>
       <c r="O18" t="n">
-        <v>26000</v>
+        <v>35000</v>
       </c>
       <c r="P18" t="n">
-        <v>26000</v>
+        <v>35000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1444</v>
+        <v>1944</v>
       </c>
       <c r="T18" t="n">
         <v>18</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44305</v>
+        <v>44382</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N19" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="O19" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="P19" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1667</v>
+        <v>1778</v>
       </c>
       <c r="T19" t="n">
         <v>18</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44431</v>
+        <v>44382</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1960,20 +1960,20 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N20" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="O20" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="P20" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1778</v>
+        <v>1667</v>
       </c>
       <c r="T20" t="n">
         <v>18</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44326</v>
+        <v>44431</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2040,20 +2040,20 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="N21" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="O21" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="P21" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1944</v>
+        <v>1778</v>
       </c>
       <c r="T21" t="n">
         <v>18</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44326</v>
+        <v>44424</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N22" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="O22" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="P22" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1667</v>
+        <v>1778</v>
       </c>
       <c r="T22" t="n">
         <v>18</v>
@@ -2200,20 +2200,20 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N23" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="O23" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="P23" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1556</v>
+        <v>1944</v>
       </c>
       <c r="T23" t="n">
         <v>18</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44354</v>
+        <v>44326</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="N24" t="n">
-        <v>38000</v>
+        <v>30000</v>
       </c>
       <c r="O24" t="n">
-        <v>38000</v>
+        <v>30000</v>
       </c>
       <c r="P24" t="n">
-        <v>38000</v>
+        <v>30000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>2111</v>
+        <v>1667</v>
       </c>
       <c r="T24" t="n">
         <v>18</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44438</v>
+        <v>44326</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2360,20 +2360,20 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N25" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="O25" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="P25" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1778</v>
+        <v>1556</v>
       </c>
       <c r="T25" t="n">
         <v>18</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44277</v>
+        <v>44354</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="N26" t="n">
-        <v>30000</v>
+        <v>38000</v>
       </c>
       <c r="O26" t="n">
-        <v>30000</v>
+        <v>38000</v>
       </c>
       <c r="P26" t="n">
-        <v>30000</v>
+        <v>38000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1667</v>
+        <v>2111</v>
       </c>
       <c r="T26" t="n">
         <v>18</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44277</v>
+        <v>44312</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2520,20 +2520,20 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="N27" t="n">
-        <v>28000</v>
+        <v>26000</v>
       </c>
       <c r="O27" t="n">
-        <v>28000</v>
+        <v>26000</v>
       </c>
       <c r="P27" t="n">
-        <v>28000</v>
+        <v>26000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1556</v>
+        <v>1444</v>
       </c>
       <c r="T27" t="n">
         <v>18</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44529</v>
+        <v>44277</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2600,20 +2600,20 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="N28" t="n">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="O28" t="n">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="P28" t="n">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>3333</v>
+        <v>1667</v>
       </c>
       <c r="T28" t="n">
         <v>18</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44529</v>
+        <v>44277</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2680,20 +2680,20 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N29" t="n">
-        <v>58000</v>
+        <v>28000</v>
       </c>
       <c r="O29" t="n">
-        <v>58000</v>
+        <v>28000</v>
       </c>
       <c r="P29" t="n">
-        <v>58000</v>
+        <v>28000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>3222</v>
+        <v>1556</v>
       </c>
       <c r="T29" t="n">
         <v>18</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44417</v>
+        <v>44403</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2760,20 +2760,20 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N30" t="n">
-        <v>28000</v>
+        <v>33000</v>
       </c>
       <c r="O30" t="n">
-        <v>28000</v>
+        <v>33000</v>
       </c>
       <c r="P30" t="n">
-        <v>28000</v>
+        <v>33000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1556</v>
+        <v>1833</v>
       </c>
       <c r="T30" t="n">
         <v>18</v>
@@ -2840,20 +2840,20 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="N31" t="n">
-        <v>33000</v>
+        <v>30000</v>
       </c>
       <c r="O31" t="n">
-        <v>33000</v>
+        <v>30000</v>
       </c>
       <c r="P31" t="n">
-        <v>33000</v>
+        <v>30000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1833</v>
+        <v>1667</v>
       </c>
       <c r="T31" t="n">
         <v>18</v>
@@ -2920,20 +2920,20 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="N32" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="O32" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="P32" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1667</v>
+        <v>1556</v>
       </c>
       <c r="T32" t="n">
         <v>18</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44403</v>
+        <v>44291</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3000,20 +3000,20 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N33" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="O33" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="P33" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1556</v>
+        <v>1389</v>
       </c>
       <c r="T33" t="n">
         <v>18</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44284</v>
+        <v>44389</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3084,16 +3084,16 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>120</v>
+        <v>35</v>
       </c>
       <c r="N34" t="n">
-        <v>23000</v>
+        <v>29000</v>
       </c>
       <c r="O34" t="n">
-        <v>23000</v>
+        <v>29000</v>
       </c>
       <c r="P34" t="n">
-        <v>23000</v>
+        <v>29000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1278</v>
+        <v>1611</v>
       </c>
       <c r="T34" t="n">
         <v>18</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44435</v>
+        <v>44389</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3160,20 +3160,20 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N35" t="n">
-        <v>32000</v>
+        <v>27000</v>
       </c>
       <c r="O35" t="n">
-        <v>32000</v>
+        <v>27000</v>
       </c>
       <c r="P35" t="n">
-        <v>32000</v>
+        <v>27000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1778</v>
+        <v>1500</v>
       </c>
       <c r="T35" t="n">
         <v>18</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44473</v>
+        <v>44396</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3240,20 +3240,20 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="N36" t="n">
-        <v>75000</v>
+        <v>37000</v>
       </c>
       <c r="O36" t="n">
-        <v>75000</v>
+        <v>37000</v>
       </c>
       <c r="P36" t="n">
-        <v>75000</v>
+        <v>37000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>4167</v>
+        <v>2056</v>
       </c>
       <c r="T36" t="n">
         <v>18</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44473</v>
+        <v>44396</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3320,20 +3320,20 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N37" t="n">
-        <v>72000</v>
+        <v>34000</v>
       </c>
       <c r="O37" t="n">
-        <v>72000</v>
+        <v>34000</v>
       </c>
       <c r="P37" t="n">
-        <v>72000</v>
+        <v>34000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>4000</v>
+        <v>1889</v>
       </c>
       <c r="T37" t="n">
         <v>18</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44473</v>
+        <v>44529</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3400,20 +3400,20 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="N38" t="n">
-        <v>67000</v>
+        <v>60000</v>
       </c>
       <c r="O38" t="n">
-        <v>67000</v>
+        <v>60000</v>
       </c>
       <c r="P38" t="n">
-        <v>67000</v>
+        <v>60000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>3722</v>
+        <v>3333</v>
       </c>
       <c r="T38" t="n">
         <v>18</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44445</v>
+        <v>44529</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3484,16 +3484,16 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N39" t="n">
-        <v>32000</v>
+        <v>58000</v>
       </c>
       <c r="O39" t="n">
-        <v>32000</v>
+        <v>58000</v>
       </c>
       <c r="P39" t="n">
-        <v>32000</v>
+        <v>58000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1778</v>
+        <v>3222</v>
       </c>
       <c r="T39" t="n">
         <v>18</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44522</v>
+        <v>44459</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3567,13 +3567,13 @@
         <v>25</v>
       </c>
       <c r="N40" t="n">
-        <v>60000</v>
+        <v>38000</v>
       </c>
       <c r="O40" t="n">
-        <v>60000</v>
+        <v>38000</v>
       </c>
       <c r="P40" t="n">
-        <v>60000</v>
+        <v>38000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3582,11 +3582,11 @@
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S40" t="n">
-        <v>3333</v>
+        <v>2111</v>
       </c>
       <c r="T40" t="n">
         <v>18</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44522</v>
+        <v>44340</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3640,20 +3640,20 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="N41" t="n">
-        <v>56000</v>
+        <v>37000</v>
       </c>
       <c r="O41" t="n">
-        <v>56000</v>
+        <v>37000</v>
       </c>
       <c r="P41" t="n">
-        <v>56000</v>
+        <v>37000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3662,11 +3662,11 @@
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S41" t="n">
-        <v>3111</v>
+        <v>2056</v>
       </c>
       <c r="T41" t="n">
         <v>18</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44396</v>
+        <v>44340</v>
       </c>
       <c r="E42" t="n">
         <v>13</v>
@@ -3720,20 +3720,20 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="N42" t="n">
-        <v>37000</v>
+        <v>35000</v>
       </c>
       <c r="O42" t="n">
-        <v>37000</v>
+        <v>35000</v>
       </c>
       <c r="P42" t="n">
-        <v>37000</v>
+        <v>35000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>2056</v>
+        <v>1944</v>
       </c>
       <c r="T42" t="n">
         <v>18</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44396</v>
+        <v>44452</v>
       </c>
       <c r="E43" t="n">
         <v>13</v>
@@ -3800,20 +3800,20 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N43" t="n">
-        <v>34000</v>
+        <v>36000</v>
       </c>
       <c r="O43" t="n">
-        <v>34000</v>
+        <v>36000</v>
       </c>
       <c r="P43" t="n">
-        <v>34000</v>
+        <v>36000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>1889</v>
+        <v>2000</v>
       </c>
       <c r="T43" t="n">
         <v>18</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44340</v>
+        <v>44270</v>
       </c>
       <c r="E44" t="n">
         <v>13</v>
@@ -3880,20 +3880,20 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="N44" t="n">
-        <v>37000</v>
+        <v>38000</v>
       </c>
       <c r="O44" t="n">
-        <v>37000</v>
+        <v>38000</v>
       </c>
       <c r="P44" t="n">
-        <v>37000</v>
+        <v>38000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>2056</v>
+        <v>2111</v>
       </c>
       <c r="T44" t="n">
         <v>18</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44340</v>
+        <v>44473</v>
       </c>
       <c r="E45" t="n">
         <v>13</v>
@@ -3960,20 +3960,20 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N45" t="n">
-        <v>35000</v>
+        <v>75000</v>
       </c>
       <c r="O45" t="n">
-        <v>35000</v>
+        <v>75000</v>
       </c>
       <c r="P45" t="n">
-        <v>35000</v>
+        <v>75000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>1944</v>
+        <v>4167</v>
       </c>
       <c r="T45" t="n">
         <v>18</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44270</v>
+        <v>44473</v>
       </c>
       <c r="E46" t="n">
         <v>13</v>
@@ -4040,20 +4040,20 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="N46" t="n">
-        <v>38000</v>
+        <v>72000</v>
       </c>
       <c r="O46" t="n">
-        <v>38000</v>
+        <v>72000</v>
       </c>
       <c r="P46" t="n">
-        <v>38000</v>
+        <v>72000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>2111</v>
+        <v>4000</v>
       </c>
       <c r="T46" t="n">
         <v>18</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44424</v>
+        <v>44473</v>
       </c>
       <c r="E47" t="n">
         <v>13</v>
@@ -4120,20 +4120,20 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="N47" t="n">
-        <v>32000</v>
+        <v>67000</v>
       </c>
       <c r="O47" t="n">
-        <v>32000</v>
+        <v>67000</v>
       </c>
       <c r="P47" t="n">
-        <v>32000</v>
+        <v>67000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>1778</v>
+        <v>3722</v>
       </c>
       <c r="T47" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Maracuyá.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Maracuyá.xlsx
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44466</v>
+        <v>44396</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="N4" t="n">
-        <v>60000</v>
+        <v>37000</v>
       </c>
       <c r="O4" t="n">
-        <v>60000</v>
+        <v>37000</v>
       </c>
       <c r="P4" t="n">
-        <v>60000</v>
+        <v>37000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>3333</v>
+        <v>2056</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44466</v>
+        <v>44396</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N5" t="n">
-        <v>58000</v>
+        <v>34000</v>
       </c>
       <c r="O5" t="n">
-        <v>58000</v>
+        <v>34000</v>
       </c>
       <c r="P5" t="n">
-        <v>58000</v>
+        <v>34000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>3222</v>
+        <v>1889</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44417</v>
+        <v>44326</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N6" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="O6" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="P6" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1556</v>
+        <v>1944</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44305</v>
+        <v>44326</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44435</v>
+        <v>44326</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N8" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="O8" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="P8" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1778</v>
+        <v>1556</v>
       </c>
       <c r="T8" t="n">
         <v>18</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44445</v>
+        <v>44270</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="N9" t="n">
-        <v>32000</v>
+        <v>38000</v>
       </c>
       <c r="O9" t="n">
-        <v>32000</v>
+        <v>38000</v>
       </c>
       <c r="P9" t="n">
-        <v>32000</v>
+        <v>38000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1778</v>
+        <v>2111</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44438</v>
+        <v>44382</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1160,20 +1160,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N10" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="O10" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="P10" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1778</v>
+        <v>1944</v>
       </c>
       <c r="T10" t="n">
         <v>18</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44333</v>
+        <v>44382</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1247,13 +1247,13 @@
         <v>30</v>
       </c>
       <c r="N11" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="O11" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="P11" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>2111</v>
+        <v>1778</v>
       </c>
       <c r="T11" t="n">
         <v>18</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44333</v>
+        <v>44382</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N12" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="O12" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="P12" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1944</v>
+        <v>1667</v>
       </c>
       <c r="T12" t="n">
         <v>18</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44410</v>
+        <v>44459</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N13" t="n">
-        <v>32000</v>
+        <v>38000</v>
       </c>
       <c r="O13" t="n">
-        <v>32000</v>
+        <v>38000</v>
       </c>
       <c r="P13" t="n">
-        <v>32000</v>
+        <v>38000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1778</v>
+        <v>2111</v>
       </c>
       <c r="T13" t="n">
         <v>18</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44410</v>
+        <v>44403</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M14" t="n">
         <v>25</v>
       </c>
       <c r="N14" t="n">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="O14" t="n">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="P14" t="n">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1667</v>
+        <v>1833</v>
       </c>
       <c r="T14" t="n">
         <v>18</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44410</v>
+        <v>44403</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="N15" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="O15" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="P15" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1556</v>
+        <v>1667</v>
       </c>
       <c r="T15" t="n">
         <v>18</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44319</v>
+        <v>44403</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>140</v>
+        <v>15</v>
       </c>
       <c r="N16" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="O16" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="P16" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1500</v>
+        <v>1556</v>
       </c>
       <c r="T16" t="n">
         <v>18</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44284</v>
+        <v>44410</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="N17" t="n">
-        <v>23000</v>
+        <v>32000</v>
       </c>
       <c r="O17" t="n">
-        <v>23000</v>
+        <v>32000</v>
       </c>
       <c r="P17" t="n">
-        <v>23000</v>
+        <v>32000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1278</v>
+        <v>1778</v>
       </c>
       <c r="T17" t="n">
         <v>18</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44382</v>
+        <v>44410</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1800,20 +1800,20 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N18" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="O18" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="P18" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1944</v>
+        <v>1667</v>
       </c>
       <c r="T18" t="n">
         <v>18</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44382</v>
+        <v>44410</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="N19" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="O19" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="P19" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1778</v>
+        <v>1556</v>
       </c>
       <c r="T19" t="n">
         <v>18</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44382</v>
+        <v>44333</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1960,20 +1960,20 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N20" t="n">
-        <v>30000</v>
+        <v>38000</v>
       </c>
       <c r="O20" t="n">
-        <v>30000</v>
+        <v>38000</v>
       </c>
       <c r="P20" t="n">
-        <v>30000</v>
+        <v>38000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1667</v>
+        <v>2111</v>
       </c>
       <c r="T20" t="n">
         <v>18</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44431</v>
+        <v>44333</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2040,20 +2040,20 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N21" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="O21" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="P21" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1778</v>
+        <v>1944</v>
       </c>
       <c r="T21" t="n">
         <v>18</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44424</v>
+        <v>44340</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N22" t="n">
-        <v>32000</v>
+        <v>37000</v>
       </c>
       <c r="O22" t="n">
-        <v>32000</v>
+        <v>37000</v>
       </c>
       <c r="P22" t="n">
-        <v>32000</v>
+        <v>37000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1778</v>
+        <v>2056</v>
       </c>
       <c r="T22" t="n">
         <v>18</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44326</v>
+        <v>44340</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2200,11 +2200,11 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N23" t="n">
         <v>35000</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44326</v>
+        <v>44291</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N24" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="O24" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="P24" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1667</v>
+        <v>1389</v>
       </c>
       <c r="T24" t="n">
         <v>18</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44326</v>
+        <v>44435</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2360,20 +2360,20 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N25" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="O25" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="P25" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1556</v>
+        <v>1778</v>
       </c>
       <c r="T25" t="n">
         <v>18</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44354</v>
+        <v>44284</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="N26" t="n">
-        <v>38000</v>
+        <v>23000</v>
       </c>
       <c r="O26" t="n">
-        <v>38000</v>
+        <v>23000</v>
       </c>
       <c r="P26" t="n">
-        <v>38000</v>
+        <v>23000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>2111</v>
+        <v>1278</v>
       </c>
       <c r="T26" t="n">
         <v>18</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44312</v>
+        <v>44424</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2524,16 +2524,16 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>160</v>
+        <v>30</v>
       </c>
       <c r="N27" t="n">
-        <v>26000</v>
+        <v>32000</v>
       </c>
       <c r="O27" t="n">
-        <v>26000</v>
+        <v>32000</v>
       </c>
       <c r="P27" t="n">
-        <v>26000</v>
+        <v>32000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1444</v>
+        <v>1778</v>
       </c>
       <c r="T27" t="n">
         <v>18</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44277</v>
+        <v>44417</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2604,16 +2604,16 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="N28" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="O28" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="P28" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1667</v>
+        <v>1556</v>
       </c>
       <c r="T28" t="n">
         <v>18</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44277</v>
+        <v>44529</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2680,20 +2680,20 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="N29" t="n">
-        <v>28000</v>
+        <v>60000</v>
       </c>
       <c r="O29" t="n">
-        <v>28000</v>
+        <v>60000</v>
       </c>
       <c r="P29" t="n">
-        <v>28000</v>
+        <v>60000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1556</v>
+        <v>3333</v>
       </c>
       <c r="T29" t="n">
         <v>18</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44403</v>
+        <v>44529</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2760,20 +2760,20 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N30" t="n">
-        <v>33000</v>
+        <v>58000</v>
       </c>
       <c r="O30" t="n">
-        <v>33000</v>
+        <v>58000</v>
       </c>
       <c r="P30" t="n">
-        <v>33000</v>
+        <v>58000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1833</v>
+        <v>3222</v>
       </c>
       <c r="T30" t="n">
         <v>18</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44403</v>
+        <v>44319</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2844,16 +2844,16 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>45</v>
+        <v>140</v>
       </c>
       <c r="N31" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="O31" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="P31" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1667</v>
+        <v>1500</v>
       </c>
       <c r="T31" t="n">
         <v>18</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44403</v>
+        <v>44438</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2920,20 +2920,20 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N32" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="O32" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="P32" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1556</v>
+        <v>1778</v>
       </c>
       <c r="T32" t="n">
         <v>18</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44291</v>
+        <v>44431</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3007,13 +3007,13 @@
         <v>30</v>
       </c>
       <c r="N33" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="O33" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="P33" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1389</v>
+        <v>1778</v>
       </c>
       <c r="T33" t="n">
         <v>18</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44396</v>
+        <v>44452</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3244,16 +3244,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="N36" t="n">
-        <v>37000</v>
+        <v>36000</v>
       </c>
       <c r="O36" t="n">
-        <v>37000</v>
+        <v>36000</v>
       </c>
       <c r="P36" t="n">
-        <v>37000</v>
+        <v>36000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>2056</v>
+        <v>2000</v>
       </c>
       <c r="T36" t="n">
         <v>18</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44396</v>
+        <v>44473</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3320,20 +3320,20 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N37" t="n">
-        <v>34000</v>
+        <v>75000</v>
       </c>
       <c r="O37" t="n">
-        <v>34000</v>
+        <v>75000</v>
       </c>
       <c r="P37" t="n">
-        <v>34000</v>
+        <v>75000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1889</v>
+        <v>4167</v>
       </c>
       <c r="T37" t="n">
         <v>18</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44529</v>
+        <v>44473</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3400,20 +3400,20 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N38" t="n">
-        <v>60000</v>
+        <v>72000</v>
       </c>
       <c r="O38" t="n">
-        <v>60000</v>
+        <v>72000</v>
       </c>
       <c r="P38" t="n">
-        <v>60000</v>
+        <v>72000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>3333</v>
+        <v>4000</v>
       </c>
       <c r="T38" t="n">
         <v>18</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44529</v>
+        <v>44473</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3480,20 +3480,20 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="N39" t="n">
-        <v>58000</v>
+        <v>67000</v>
       </c>
       <c r="O39" t="n">
-        <v>58000</v>
+        <v>67000</v>
       </c>
       <c r="P39" t="n">
-        <v>58000</v>
+        <v>67000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>3222</v>
+        <v>3722</v>
       </c>
       <c r="T39" t="n">
         <v>18</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44459</v>
+        <v>44305</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3567,13 +3567,13 @@
         <v>25</v>
       </c>
       <c r="N40" t="n">
-        <v>38000</v>
+        <v>30000</v>
       </c>
       <c r="O40" t="n">
-        <v>38000</v>
+        <v>30000</v>
       </c>
       <c r="P40" t="n">
-        <v>38000</v>
+        <v>30000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>2111</v>
+        <v>1667</v>
       </c>
       <c r="T40" t="n">
         <v>18</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44340</v>
+        <v>44445</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3644,16 +3644,16 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N41" t="n">
-        <v>37000</v>
+        <v>32000</v>
       </c>
       <c r="O41" t="n">
-        <v>37000</v>
+        <v>32000</v>
       </c>
       <c r="P41" t="n">
-        <v>37000</v>
+        <v>32000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>2056</v>
+        <v>1778</v>
       </c>
       <c r="T41" t="n">
         <v>18</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44340</v>
+        <v>44466</v>
       </c>
       <c r="E42" t="n">
         <v>13</v>
@@ -3720,20 +3720,20 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N42" t="n">
-        <v>35000</v>
+        <v>60000</v>
       </c>
       <c r="O42" t="n">
-        <v>35000</v>
+        <v>60000</v>
       </c>
       <c r="P42" t="n">
-        <v>35000</v>
+        <v>60000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>1944</v>
+        <v>3333</v>
       </c>
       <c r="T42" t="n">
         <v>18</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44452</v>
+        <v>44466</v>
       </c>
       <c r="E43" t="n">
         <v>13</v>
@@ -3800,20 +3800,20 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N43" t="n">
-        <v>36000</v>
+        <v>58000</v>
       </c>
       <c r="O43" t="n">
-        <v>36000</v>
+        <v>58000</v>
       </c>
       <c r="P43" t="n">
-        <v>36000</v>
+        <v>58000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>2000</v>
+        <v>3222</v>
       </c>
       <c r="T43" t="n">
         <v>18</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44270</v>
+        <v>44277</v>
       </c>
       <c r="E44" t="n">
         <v>13</v>
@@ -3880,20 +3880,20 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="N44" t="n">
-        <v>38000</v>
+        <v>30000</v>
       </c>
       <c r="O44" t="n">
-        <v>38000</v>
+        <v>30000</v>
       </c>
       <c r="P44" t="n">
-        <v>38000</v>
+        <v>30000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>2111</v>
+        <v>1667</v>
       </c>
       <c r="T44" t="n">
         <v>18</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44473</v>
+        <v>44277</v>
       </c>
       <c r="E45" t="n">
         <v>13</v>
@@ -3960,20 +3960,20 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="N45" t="n">
-        <v>75000</v>
+        <v>28000</v>
       </c>
       <c r="O45" t="n">
-        <v>75000</v>
+        <v>28000</v>
       </c>
       <c r="P45" t="n">
-        <v>75000</v>
+        <v>28000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>4167</v>
+        <v>1556</v>
       </c>
       <c r="T45" t="n">
         <v>18</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44473</v>
+        <v>44354</v>
       </c>
       <c r="E46" t="n">
         <v>13</v>
@@ -4044,16 +4044,16 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="N46" t="n">
-        <v>72000</v>
+        <v>38000</v>
       </c>
       <c r="O46" t="n">
-        <v>72000</v>
+        <v>38000</v>
       </c>
       <c r="P46" t="n">
-        <v>72000</v>
+        <v>38000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>4000</v>
+        <v>2111</v>
       </c>
       <c r="T46" t="n">
         <v>18</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44473</v>
+        <v>44312</v>
       </c>
       <c r="E47" t="n">
         <v>13</v>
@@ -4120,20 +4120,20 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>5</v>
+        <v>160</v>
       </c>
       <c r="N47" t="n">
-        <v>67000</v>
+        <v>26000</v>
       </c>
       <c r="O47" t="n">
-        <v>67000</v>
+        <v>26000</v>
       </c>
       <c r="P47" t="n">
-        <v>67000</v>
+        <v>26000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>3722</v>
+        <v>1444</v>
       </c>
       <c r="T47" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Maracuyá.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Maracuyá.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44522</v>
+        <v>44340</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="N2" t="n">
-        <v>60000</v>
+        <v>37000</v>
       </c>
       <c r="O2" t="n">
-        <v>60000</v>
+        <v>37000</v>
       </c>
       <c r="P2" t="n">
-        <v>60000</v>
+        <v>37000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>3333</v>
+        <v>2056</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44522</v>
+        <v>44340</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -607,13 +607,13 @@
         <v>20</v>
       </c>
       <c r="N3" t="n">
-        <v>56000</v>
+        <v>35000</v>
       </c>
       <c r="O3" t="n">
-        <v>56000</v>
+        <v>35000</v>
       </c>
       <c r="P3" t="n">
-        <v>56000</v>
+        <v>35000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>3111</v>
+        <v>1944</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44396</v>
+        <v>44389</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -687,13 +687,13 @@
         <v>35</v>
       </c>
       <c r="N4" t="n">
-        <v>37000</v>
+        <v>29000</v>
       </c>
       <c r="O4" t="n">
-        <v>37000</v>
+        <v>29000</v>
       </c>
       <c r="P4" t="n">
-        <v>37000</v>
+        <v>29000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>2056</v>
+        <v>1611</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44396</v>
+        <v>44389</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N5" t="n">
-        <v>34000</v>
+        <v>27000</v>
       </c>
       <c r="O5" t="n">
-        <v>34000</v>
+        <v>27000</v>
       </c>
       <c r="P5" t="n">
-        <v>34000</v>
+        <v>27000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1889</v>
+        <v>1500</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44326</v>
+        <v>44424</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="N6" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="O6" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="P6" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1944</v>
+        <v>1778</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44326</v>
+        <v>44270</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="N7" t="n">
-        <v>30000</v>
+        <v>38000</v>
       </c>
       <c r="O7" t="n">
-        <v>30000</v>
+        <v>38000</v>
       </c>
       <c r="P7" t="n">
-        <v>30000</v>
+        <v>38000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1667</v>
+        <v>2111</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44326</v>
+        <v>44459</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N8" t="n">
-        <v>28000</v>
+        <v>38000</v>
       </c>
       <c r="O8" t="n">
-        <v>28000</v>
+        <v>38000</v>
       </c>
       <c r="P8" t="n">
-        <v>28000</v>
+        <v>38000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1556</v>
+        <v>2111</v>
       </c>
       <c r="T8" t="n">
         <v>18</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44270</v>
+        <v>44333</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1080,11 +1080,11 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="N9" t="n">
         <v>38000</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44382</v>
+        <v>44333</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1160,11 +1160,11 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N10" t="n">
         <v>35000</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44382</v>
+        <v>44473</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1240,20 +1240,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="N11" t="n">
-        <v>32000</v>
+        <v>75000</v>
       </c>
       <c r="O11" t="n">
-        <v>32000</v>
+        <v>75000</v>
       </c>
       <c r="P11" t="n">
-        <v>32000</v>
+        <v>75000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1778</v>
+        <v>4167</v>
       </c>
       <c r="T11" t="n">
         <v>18</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44382</v>
+        <v>44473</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N12" t="n">
-        <v>30000</v>
+        <v>72000</v>
       </c>
       <c r="O12" t="n">
-        <v>30000</v>
+        <v>72000</v>
       </c>
       <c r="P12" t="n">
-        <v>30000</v>
+        <v>72000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1667</v>
+        <v>4000</v>
       </c>
       <c r="T12" t="n">
         <v>18</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44459</v>
+        <v>44473</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="N13" t="n">
-        <v>38000</v>
+        <v>67000</v>
       </c>
       <c r="O13" t="n">
-        <v>38000</v>
+        <v>67000</v>
       </c>
       <c r="P13" t="n">
-        <v>38000</v>
+        <v>67000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>2111</v>
+        <v>3722</v>
       </c>
       <c r="T13" t="n">
         <v>18</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44403</v>
+        <v>44291</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N14" t="n">
-        <v>33000</v>
+        <v>25000</v>
       </c>
       <c r="O14" t="n">
-        <v>33000</v>
+        <v>25000</v>
       </c>
       <c r="P14" t="n">
-        <v>33000</v>
+        <v>25000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1833</v>
+        <v>1389</v>
       </c>
       <c r="T14" t="n">
         <v>18</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44403</v>
+        <v>44305</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,7 +1564,7 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="N15" t="n">
         <v>30000</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44403</v>
+        <v>44522</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N16" t="n">
-        <v>28000</v>
+        <v>60000</v>
       </c>
       <c r="O16" t="n">
-        <v>28000</v>
+        <v>60000</v>
       </c>
       <c r="P16" t="n">
-        <v>28000</v>
+        <v>60000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1662,11 +1662,11 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1556</v>
+        <v>3333</v>
       </c>
       <c r="T16" t="n">
         <v>18</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44410</v>
+        <v>44522</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N17" t="n">
-        <v>32000</v>
+        <v>56000</v>
       </c>
       <c r="O17" t="n">
-        <v>32000</v>
+        <v>56000</v>
       </c>
       <c r="P17" t="n">
-        <v>32000</v>
+        <v>56000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1742,11 +1742,11 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1778</v>
+        <v>3111</v>
       </c>
       <c r="T17" t="n">
         <v>18</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44410</v>
+        <v>44326</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1800,20 +1800,20 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="N18" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="O18" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="P18" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1667</v>
+        <v>1944</v>
       </c>
       <c r="T18" t="n">
         <v>18</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44410</v>
+        <v>44326</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="N19" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="O19" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="P19" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1556</v>
+        <v>1667</v>
       </c>
       <c r="T19" t="n">
         <v>18</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44333</v>
+        <v>44326</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1960,20 +1960,20 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N20" t="n">
-        <v>38000</v>
+        <v>28000</v>
       </c>
       <c r="O20" t="n">
-        <v>38000</v>
+        <v>28000</v>
       </c>
       <c r="P20" t="n">
-        <v>38000</v>
+        <v>28000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>2111</v>
+        <v>1556</v>
       </c>
       <c r="T20" t="n">
         <v>18</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44333</v>
+        <v>44435</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2040,20 +2040,20 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N21" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="O21" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="P21" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1944</v>
+        <v>1778</v>
       </c>
       <c r="T21" t="n">
         <v>18</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44340</v>
+        <v>44319</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>35</v>
+        <v>140</v>
       </c>
       <c r="N22" t="n">
-        <v>37000</v>
+        <v>27000</v>
       </c>
       <c r="O22" t="n">
-        <v>37000</v>
+        <v>27000</v>
       </c>
       <c r="P22" t="n">
-        <v>37000</v>
+        <v>27000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>2056</v>
+        <v>1500</v>
       </c>
       <c r="T22" t="n">
         <v>18</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44340</v>
+        <v>44417</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2200,20 +2200,20 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N23" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="O23" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="P23" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1944</v>
+        <v>1556</v>
       </c>
       <c r="T23" t="n">
         <v>18</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44291</v>
+        <v>44410</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2280,20 +2280,20 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N24" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="O24" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="P24" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1389</v>
+        <v>1778</v>
       </c>
       <c r="T24" t="n">
         <v>18</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44435</v>
+        <v>44410</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N25" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="O25" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="P25" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1778</v>
+        <v>1667</v>
       </c>
       <c r="T25" t="n">
         <v>18</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44284</v>
+        <v>44410</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2440,20 +2440,20 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="N26" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="O26" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="P26" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1278</v>
+        <v>1556</v>
       </c>
       <c r="T26" t="n">
         <v>18</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44424</v>
+        <v>44466</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2524,16 +2524,16 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N27" t="n">
-        <v>32000</v>
+        <v>60000</v>
       </c>
       <c r="O27" t="n">
-        <v>32000</v>
+        <v>60000</v>
       </c>
       <c r="P27" t="n">
-        <v>32000</v>
+        <v>60000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1778</v>
+        <v>3333</v>
       </c>
       <c r="T27" t="n">
         <v>18</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44417</v>
+        <v>44466</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2600,20 +2600,20 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N28" t="n">
-        <v>28000</v>
+        <v>58000</v>
       </c>
       <c r="O28" t="n">
-        <v>28000</v>
+        <v>58000</v>
       </c>
       <c r="P28" t="n">
-        <v>28000</v>
+        <v>58000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1556</v>
+        <v>3222</v>
       </c>
       <c r="T28" t="n">
         <v>18</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44529</v>
+        <v>44284</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2680,20 +2680,20 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="N29" t="n">
-        <v>60000</v>
+        <v>23000</v>
       </c>
       <c r="O29" t="n">
-        <v>60000</v>
+        <v>23000</v>
       </c>
       <c r="P29" t="n">
-        <v>60000</v>
+        <v>23000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>3333</v>
+        <v>1278</v>
       </c>
       <c r="T29" t="n">
         <v>18</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44529</v>
+        <v>44452</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2764,16 +2764,16 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="N30" t="n">
-        <v>58000</v>
+        <v>36000</v>
       </c>
       <c r="O30" t="n">
-        <v>58000</v>
+        <v>36000</v>
       </c>
       <c r="P30" t="n">
-        <v>58000</v>
+        <v>36000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>3222</v>
+        <v>2000</v>
       </c>
       <c r="T30" t="n">
         <v>18</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44319</v>
+        <v>44431</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2844,16 +2844,16 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>140</v>
+        <v>30</v>
       </c>
       <c r="N31" t="n">
-        <v>27000</v>
+        <v>32000</v>
       </c>
       <c r="O31" t="n">
-        <v>27000</v>
+        <v>32000</v>
       </c>
       <c r="P31" t="n">
-        <v>27000</v>
+        <v>32000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1500</v>
+        <v>1778</v>
       </c>
       <c r="T31" t="n">
         <v>18</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44438</v>
+        <v>44403</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2920,20 +2920,20 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N32" t="n">
-        <v>32000</v>
+        <v>33000</v>
       </c>
       <c r="O32" t="n">
-        <v>32000</v>
+        <v>33000</v>
       </c>
       <c r="P32" t="n">
-        <v>32000</v>
+        <v>33000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1778</v>
+        <v>1833</v>
       </c>
       <c r="T32" t="n">
         <v>18</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44431</v>
+        <v>44403</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3004,16 +3004,16 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N33" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="O33" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="P33" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1778</v>
+        <v>1667</v>
       </c>
       <c r="T33" t="n">
         <v>18</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44389</v>
+        <v>44403</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3080,20 +3080,20 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="N34" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="O34" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="P34" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1611</v>
+        <v>1556</v>
       </c>
       <c r="T34" t="n">
         <v>18</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44389</v>
+        <v>44277</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3160,20 +3160,20 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="N35" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="O35" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="P35" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1500</v>
+        <v>1667</v>
       </c>
       <c r="T35" t="n">
         <v>18</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44452</v>
+        <v>44277</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3240,20 +3240,20 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="N36" t="n">
-        <v>36000</v>
+        <v>28000</v>
       </c>
       <c r="O36" t="n">
-        <v>36000</v>
+        <v>28000</v>
       </c>
       <c r="P36" t="n">
-        <v>36000</v>
+        <v>28000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>2000</v>
+        <v>1556</v>
       </c>
       <c r="T36" t="n">
         <v>18</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44473</v>
+        <v>44445</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3320,20 +3320,20 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="N37" t="n">
-        <v>75000</v>
+        <v>32000</v>
       </c>
       <c r="O37" t="n">
-        <v>75000</v>
+        <v>32000</v>
       </c>
       <c r="P37" t="n">
-        <v>75000</v>
+        <v>32000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>4167</v>
+        <v>1778</v>
       </c>
       <c r="T37" t="n">
         <v>18</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44473</v>
+        <v>44396</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3404,16 +3404,16 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="N38" t="n">
-        <v>72000</v>
+        <v>37000</v>
       </c>
       <c r="O38" t="n">
-        <v>72000</v>
+        <v>37000</v>
       </c>
       <c r="P38" t="n">
-        <v>72000</v>
+        <v>37000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>4000</v>
+        <v>2056</v>
       </c>
       <c r="T38" t="n">
         <v>18</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44473</v>
+        <v>44396</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3484,16 +3484,16 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="N39" t="n">
-        <v>67000</v>
+        <v>34000</v>
       </c>
       <c r="O39" t="n">
-        <v>67000</v>
+        <v>34000</v>
       </c>
       <c r="P39" t="n">
-        <v>67000</v>
+        <v>34000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>3722</v>
+        <v>1889</v>
       </c>
       <c r="T39" t="n">
         <v>18</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44305</v>
+        <v>44354</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3564,16 +3564,16 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="N40" t="n">
-        <v>30000</v>
+        <v>38000</v>
       </c>
       <c r="O40" t="n">
-        <v>30000</v>
+        <v>38000</v>
       </c>
       <c r="P40" t="n">
-        <v>30000</v>
+        <v>38000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>1667</v>
+        <v>2111</v>
       </c>
       <c r="T40" t="n">
         <v>18</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44445</v>
+        <v>44382</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3640,20 +3640,20 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N41" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="O41" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="P41" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>1778</v>
+        <v>1944</v>
       </c>
       <c r="T41" t="n">
         <v>18</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44466</v>
+        <v>44382</v>
       </c>
       <c r="E42" t="n">
         <v>13</v>
@@ -3724,16 +3724,16 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N42" t="n">
-        <v>60000</v>
+        <v>32000</v>
       </c>
       <c r="O42" t="n">
-        <v>60000</v>
+        <v>32000</v>
       </c>
       <c r="P42" t="n">
-        <v>60000</v>
+        <v>32000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>3333</v>
+        <v>1778</v>
       </c>
       <c r="T42" t="n">
         <v>18</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44466</v>
+        <v>44382</v>
       </c>
       <c r="E43" t="n">
         <v>13</v>
@@ -3804,16 +3804,16 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N43" t="n">
-        <v>58000</v>
+        <v>30000</v>
       </c>
       <c r="O43" t="n">
-        <v>58000</v>
+        <v>30000</v>
       </c>
       <c r="P43" t="n">
-        <v>58000</v>
+        <v>30000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>3222</v>
+        <v>1667</v>
       </c>
       <c r="T43" t="n">
         <v>18</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44277</v>
+        <v>44438</v>
       </c>
       <c r="E44" t="n">
         <v>13</v>
@@ -3884,16 +3884,16 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="N44" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="O44" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="P44" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>1667</v>
+        <v>1778</v>
       </c>
       <c r="T44" t="n">
         <v>18</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44277</v>
+        <v>44312</v>
       </c>
       <c r="E45" t="n">
         <v>13</v>
@@ -3960,20 +3960,20 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="N45" t="n">
-        <v>28000</v>
+        <v>26000</v>
       </c>
       <c r="O45" t="n">
-        <v>28000</v>
+        <v>26000</v>
       </c>
       <c r="P45" t="n">
-        <v>28000</v>
+        <v>26000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>1556</v>
+        <v>1444</v>
       </c>
       <c r="T45" t="n">
         <v>18</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44354</v>
+        <v>44529</v>
       </c>
       <c r="E46" t="n">
         <v>13</v>
@@ -4040,20 +4040,20 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="N46" t="n">
-        <v>38000</v>
+        <v>60000</v>
       </c>
       <c r="O46" t="n">
-        <v>38000</v>
+        <v>60000</v>
       </c>
       <c r="P46" t="n">
-        <v>38000</v>
+        <v>60000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>2111</v>
+        <v>3333</v>
       </c>
       <c r="T46" t="n">
         <v>18</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44312</v>
+        <v>44529</v>
       </c>
       <c r="E47" t="n">
         <v>13</v>
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="N47" t="n">
-        <v>26000</v>
+        <v>58000</v>
       </c>
       <c r="O47" t="n">
-        <v>26000</v>
+        <v>58000</v>
       </c>
       <c r="P47" t="n">
-        <v>26000</v>
+        <v>58000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>1444</v>
+        <v>3222</v>
       </c>
       <c r="T47" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Maracuyá.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Maracuyá.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44340</v>
+        <v>44459</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="N2" t="n">
-        <v>37000</v>
+        <v>38000</v>
       </c>
       <c r="O2" t="n">
-        <v>37000</v>
+        <v>38000</v>
       </c>
       <c r="P2" t="n">
-        <v>37000</v>
+        <v>38000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>2056</v>
+        <v>2111</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44340</v>
+        <v>44284</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="N3" t="n">
-        <v>35000</v>
+        <v>23000</v>
       </c>
       <c r="O3" t="n">
-        <v>35000</v>
+        <v>23000</v>
       </c>
       <c r="P3" t="n">
-        <v>35000</v>
+        <v>23000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1944</v>
+        <v>1278</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44424</v>
+        <v>44410</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -840,11 +840,11 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N6" t="n">
         <v>32000</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44270</v>
+        <v>44410</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="N7" t="n">
-        <v>38000</v>
+        <v>30000</v>
       </c>
       <c r="O7" t="n">
-        <v>38000</v>
+        <v>30000</v>
       </c>
       <c r="P7" t="n">
-        <v>38000</v>
+        <v>30000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>2111</v>
+        <v>1667</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44459</v>
+        <v>44410</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="N8" t="n">
-        <v>38000</v>
+        <v>28000</v>
       </c>
       <c r="O8" t="n">
-        <v>38000</v>
+        <v>28000</v>
       </c>
       <c r="P8" t="n">
-        <v>38000</v>
+        <v>28000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>2111</v>
+        <v>1556</v>
       </c>
       <c r="T8" t="n">
         <v>18</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44333</v>
+        <v>44340</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N9" t="n">
-        <v>38000</v>
+        <v>37000</v>
       </c>
       <c r="O9" t="n">
-        <v>38000</v>
+        <v>37000</v>
       </c>
       <c r="P9" t="n">
-        <v>38000</v>
+        <v>37000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>2111</v>
+        <v>2056</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44333</v>
+        <v>44340</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N10" t="n">
         <v>35000</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44473</v>
+        <v>44270</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="N11" t="n">
-        <v>75000</v>
+        <v>38000</v>
       </c>
       <c r="O11" t="n">
-        <v>75000</v>
+        <v>38000</v>
       </c>
       <c r="P11" t="n">
-        <v>75000</v>
+        <v>38000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>4167</v>
+        <v>2111</v>
       </c>
       <c r="T11" t="n">
         <v>18</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44473</v>
+        <v>44417</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N12" t="n">
-        <v>72000</v>
+        <v>28000</v>
       </c>
       <c r="O12" t="n">
-        <v>72000</v>
+        <v>28000</v>
       </c>
       <c r="P12" t="n">
-        <v>72000</v>
+        <v>28000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>4000</v>
+        <v>1556</v>
       </c>
       <c r="T12" t="n">
         <v>18</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44473</v>
+        <v>44424</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="N13" t="n">
-        <v>67000</v>
+        <v>32000</v>
       </c>
       <c r="O13" t="n">
-        <v>67000</v>
+        <v>32000</v>
       </c>
       <c r="P13" t="n">
-        <v>67000</v>
+        <v>32000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>3722</v>
+        <v>1778</v>
       </c>
       <c r="T13" t="n">
         <v>18</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44291</v>
+        <v>44435</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1487,13 +1487,13 @@
         <v>30</v>
       </c>
       <c r="N14" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="O14" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="P14" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1389</v>
+        <v>1778</v>
       </c>
       <c r="T14" t="n">
         <v>18</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44305</v>
+        <v>44354</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="N15" t="n">
-        <v>30000</v>
+        <v>38000</v>
       </c>
       <c r="O15" t="n">
-        <v>30000</v>
+        <v>38000</v>
       </c>
       <c r="P15" t="n">
-        <v>30000</v>
+        <v>38000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1667</v>
+        <v>2111</v>
       </c>
       <c r="T15" t="n">
         <v>18</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44522</v>
+        <v>44305</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1647,13 +1647,13 @@
         <v>25</v>
       </c>
       <c r="N16" t="n">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="O16" t="n">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="P16" t="n">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1662,11 +1662,11 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>3333</v>
+        <v>1667</v>
       </c>
       <c r="T16" t="n">
         <v>18</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44522</v>
+        <v>44529</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M17" t="n">
         <v>20</v>
       </c>
       <c r="N17" t="n">
-        <v>56000</v>
+        <v>60000</v>
       </c>
       <c r="O17" t="n">
-        <v>56000</v>
+        <v>60000</v>
       </c>
       <c r="P17" t="n">
-        <v>56000</v>
+        <v>60000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1742,11 +1742,11 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S17" t="n">
-        <v>3111</v>
+        <v>3333</v>
       </c>
       <c r="T17" t="n">
         <v>18</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44326</v>
+        <v>44529</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1800,20 +1800,20 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="N18" t="n">
-        <v>35000</v>
+        <v>58000</v>
       </c>
       <c r="O18" t="n">
-        <v>35000</v>
+        <v>58000</v>
       </c>
       <c r="P18" t="n">
-        <v>35000</v>
+        <v>58000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1944</v>
+        <v>3222</v>
       </c>
       <c r="T18" t="n">
         <v>18</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44326</v>
+        <v>44382</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N19" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="O19" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="P19" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1667</v>
+        <v>1944</v>
       </c>
       <c r="T19" t="n">
         <v>18</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44326</v>
+        <v>44382</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1960,20 +1960,20 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N20" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="O20" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="P20" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1556</v>
+        <v>1778</v>
       </c>
       <c r="T20" t="n">
         <v>18</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44435</v>
+        <v>44382</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2040,20 +2040,20 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N21" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="O21" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="P21" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1778</v>
+        <v>1667</v>
       </c>
       <c r="T21" t="n">
         <v>18</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44319</v>
+        <v>44466</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>140</v>
+        <v>15</v>
       </c>
       <c r="N22" t="n">
-        <v>27000</v>
+        <v>60000</v>
       </c>
       <c r="O22" t="n">
-        <v>27000</v>
+        <v>60000</v>
       </c>
       <c r="P22" t="n">
-        <v>27000</v>
+        <v>60000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1500</v>
+        <v>3333</v>
       </c>
       <c r="T22" t="n">
         <v>18</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44417</v>
+        <v>44466</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2200,20 +2200,20 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N23" t="n">
-        <v>28000</v>
+        <v>58000</v>
       </c>
       <c r="O23" t="n">
-        <v>28000</v>
+        <v>58000</v>
       </c>
       <c r="P23" t="n">
-        <v>28000</v>
+        <v>58000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1556</v>
+        <v>3222</v>
       </c>
       <c r="T23" t="n">
         <v>18</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44410</v>
+        <v>44452</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2280,20 +2280,20 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N24" t="n">
-        <v>32000</v>
+        <v>36000</v>
       </c>
       <c r="O24" t="n">
-        <v>32000</v>
+        <v>36000</v>
       </c>
       <c r="P24" t="n">
-        <v>32000</v>
+        <v>36000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1778</v>
+        <v>2000</v>
       </c>
       <c r="T24" t="n">
         <v>18</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44410</v>
+        <v>44333</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N25" t="n">
-        <v>30000</v>
+        <v>38000</v>
       </c>
       <c r="O25" t="n">
-        <v>30000</v>
+        <v>38000</v>
       </c>
       <c r="P25" t="n">
-        <v>30000</v>
+        <v>38000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1667</v>
+        <v>2111</v>
       </c>
       <c r="T25" t="n">
         <v>18</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44410</v>
+        <v>44333</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="N26" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="O26" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="P26" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1556</v>
+        <v>1944</v>
       </c>
       <c r="T26" t="n">
         <v>18</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44466</v>
+        <v>44291</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2524,16 +2524,16 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N27" t="n">
-        <v>60000</v>
+        <v>25000</v>
       </c>
       <c r="O27" t="n">
-        <v>60000</v>
+        <v>25000</v>
       </c>
       <c r="P27" t="n">
-        <v>60000</v>
+        <v>25000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>3333</v>
+        <v>1389</v>
       </c>
       <c r="T27" t="n">
         <v>18</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44466</v>
+        <v>44326</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2600,20 +2600,20 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="N28" t="n">
-        <v>58000</v>
+        <v>35000</v>
       </c>
       <c r="O28" t="n">
-        <v>58000</v>
+        <v>35000</v>
       </c>
       <c r="P28" t="n">
-        <v>58000</v>
+        <v>35000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>3222</v>
+        <v>1944</v>
       </c>
       <c r="T28" t="n">
         <v>18</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44284</v>
+        <v>44326</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2684,16 +2684,16 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>120</v>
+        <v>25</v>
       </c>
       <c r="N29" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="O29" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="P29" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1278</v>
+        <v>1667</v>
       </c>
       <c r="T29" t="n">
         <v>18</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44452</v>
+        <v>44326</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2760,20 +2760,20 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M30" t="n">
         <v>20</v>
       </c>
       <c r="N30" t="n">
-        <v>36000</v>
+        <v>28000</v>
       </c>
       <c r="O30" t="n">
-        <v>36000</v>
+        <v>28000</v>
       </c>
       <c r="P30" t="n">
-        <v>36000</v>
+        <v>28000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>2000</v>
+        <v>1556</v>
       </c>
       <c r="T30" t="n">
         <v>18</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44431</v>
+        <v>44438</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44277</v>
+        <v>44319</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="N35" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="O35" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="P35" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1667</v>
+        <v>1500</v>
       </c>
       <c r="T35" t="n">
         <v>18</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44277</v>
+        <v>44431</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3240,20 +3240,20 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="N36" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="O36" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="P36" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1556</v>
+        <v>1778</v>
       </c>
       <c r="T36" t="n">
         <v>18</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44445</v>
+        <v>44473</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3320,20 +3320,20 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="N37" t="n">
-        <v>32000</v>
+        <v>75000</v>
       </c>
       <c r="O37" t="n">
-        <v>32000</v>
+        <v>75000</v>
       </c>
       <c r="P37" t="n">
-        <v>32000</v>
+        <v>75000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1778</v>
+        <v>4167</v>
       </c>
       <c r="T37" t="n">
         <v>18</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44396</v>
+        <v>44473</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3404,16 +3404,16 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="N38" t="n">
-        <v>37000</v>
+        <v>72000</v>
       </c>
       <c r="O38" t="n">
-        <v>37000</v>
+        <v>72000</v>
       </c>
       <c r="P38" t="n">
-        <v>37000</v>
+        <v>72000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>2056</v>
+        <v>4000</v>
       </c>
       <c r="T38" t="n">
         <v>18</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44396</v>
+        <v>44473</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3484,16 +3484,16 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="N39" t="n">
-        <v>34000</v>
+        <v>67000</v>
       </c>
       <c r="O39" t="n">
-        <v>34000</v>
+        <v>67000</v>
       </c>
       <c r="P39" t="n">
-        <v>34000</v>
+        <v>67000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1889</v>
+        <v>3722</v>
       </c>
       <c r="T39" t="n">
         <v>18</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44354</v>
+        <v>44445</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3564,16 +3564,16 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N40" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="O40" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="P40" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>2111</v>
+        <v>1778</v>
       </c>
       <c r="T40" t="n">
         <v>18</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44382</v>
+        <v>44396</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3640,20 +3640,20 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="N41" t="n">
-        <v>35000</v>
+        <v>37000</v>
       </c>
       <c r="O41" t="n">
-        <v>35000</v>
+        <v>37000</v>
       </c>
       <c r="P41" t="n">
-        <v>35000</v>
+        <v>37000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>1944</v>
+        <v>2056</v>
       </c>
       <c r="T41" t="n">
         <v>18</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44382</v>
+        <v>44396</v>
       </c>
       <c r="E42" t="n">
         <v>13</v>
@@ -3720,20 +3720,20 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N42" t="n">
-        <v>32000</v>
+        <v>34000</v>
       </c>
       <c r="O42" t="n">
-        <v>32000</v>
+        <v>34000</v>
       </c>
       <c r="P42" t="n">
-        <v>32000</v>
+        <v>34000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>1778</v>
+        <v>1889</v>
       </c>
       <c r="T42" t="n">
         <v>18</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44382</v>
+        <v>44312</v>
       </c>
       <c r="E43" t="n">
         <v>13</v>
@@ -3800,20 +3800,20 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>15</v>
+        <v>160</v>
       </c>
       <c r="N43" t="n">
-        <v>30000</v>
+        <v>26000</v>
       </c>
       <c r="O43" t="n">
-        <v>30000</v>
+        <v>26000</v>
       </c>
       <c r="P43" t="n">
-        <v>30000</v>
+        <v>26000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>1667</v>
+        <v>1444</v>
       </c>
       <c r="T43" t="n">
         <v>18</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44438</v>
+        <v>44522</v>
       </c>
       <c r="E44" t="n">
         <v>13</v>
@@ -3884,16 +3884,16 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N44" t="n">
-        <v>32000</v>
+        <v>60000</v>
       </c>
       <c r="O44" t="n">
-        <v>32000</v>
+        <v>60000</v>
       </c>
       <c r="P44" t="n">
-        <v>32000</v>
+        <v>60000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3902,11 +3902,11 @@
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="S44" t="n">
-        <v>1778</v>
+        <v>3333</v>
       </c>
       <c r="T44" t="n">
         <v>18</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44312</v>
+        <v>44522</v>
       </c>
       <c r="E45" t="n">
         <v>13</v>
@@ -3960,20 +3960,20 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="N45" t="n">
-        <v>26000</v>
+        <v>56000</v>
       </c>
       <c r="O45" t="n">
-        <v>26000</v>
+        <v>56000</v>
       </c>
       <c r="P45" t="n">
-        <v>26000</v>
+        <v>56000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3982,11 +3982,11 @@
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="S45" t="n">
-        <v>1444</v>
+        <v>3111</v>
       </c>
       <c r="T45" t="n">
         <v>18</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44529</v>
+        <v>44277</v>
       </c>
       <c r="E46" t="n">
         <v>13</v>
@@ -4040,20 +4040,20 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="N46" t="n">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="O46" t="n">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="P46" t="n">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>3333</v>
+        <v>1667</v>
       </c>
       <c r="T46" t="n">
         <v>18</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44529</v>
+        <v>44277</v>
       </c>
       <c r="E47" t="n">
         <v>13</v>
@@ -4120,20 +4120,20 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N47" t="n">
-        <v>58000</v>
+        <v>28000</v>
       </c>
       <c r="O47" t="n">
-        <v>58000</v>
+        <v>28000</v>
       </c>
       <c r="P47" t="n">
-        <v>58000</v>
+        <v>28000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>3222</v>
+        <v>1556</v>
       </c>
       <c r="T47" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Maracuyá.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Maracuyá.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44459</v>
+        <v>44396</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="N2" t="n">
-        <v>38000</v>
+        <v>37000</v>
       </c>
       <c r="O2" t="n">
-        <v>38000</v>
+        <v>37000</v>
       </c>
       <c r="P2" t="n">
-        <v>38000</v>
+        <v>37000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>2111</v>
+        <v>2056</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44284</v>
+        <v>44396</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="N3" t="n">
-        <v>23000</v>
+        <v>34000</v>
       </c>
       <c r="O3" t="n">
-        <v>23000</v>
+        <v>34000</v>
       </c>
       <c r="P3" t="n">
-        <v>23000</v>
+        <v>34000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1278</v>
+        <v>1889</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44389</v>
+        <v>44326</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="N4" t="n">
-        <v>29000</v>
+        <v>35000</v>
       </c>
       <c r="O4" t="n">
-        <v>29000</v>
+        <v>35000</v>
       </c>
       <c r="P4" t="n">
-        <v>29000</v>
+        <v>35000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1611</v>
+        <v>1944</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44389</v>
+        <v>44326</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N5" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="O5" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="P5" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1500</v>
+        <v>1667</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44410</v>
+        <v>44326</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N6" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="O6" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="P6" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1778</v>
+        <v>1556</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44410</v>
+        <v>44424</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N7" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="O7" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="P7" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1667</v>
+        <v>1778</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44410</v>
+        <v>44438</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="N8" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="O8" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="P8" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1556</v>
+        <v>1778</v>
       </c>
       <c r="T8" t="n">
         <v>18</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44340</v>
+        <v>44389</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1087,13 +1087,13 @@
         <v>35</v>
       </c>
       <c r="N9" t="n">
-        <v>37000</v>
+        <v>29000</v>
       </c>
       <c r="O9" t="n">
-        <v>37000</v>
+        <v>29000</v>
       </c>
       <c r="P9" t="n">
-        <v>37000</v>
+        <v>29000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>2056</v>
+        <v>1611</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44340</v>
+        <v>44389</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1167,13 +1167,13 @@
         <v>20</v>
       </c>
       <c r="N10" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="O10" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="P10" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1944</v>
+        <v>1500</v>
       </c>
       <c r="T10" t="n">
         <v>18</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44270</v>
+        <v>44417</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1240,20 +1240,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="N11" t="n">
-        <v>38000</v>
+        <v>28000</v>
       </c>
       <c r="O11" t="n">
-        <v>38000</v>
+        <v>28000</v>
       </c>
       <c r="P11" t="n">
-        <v>38000</v>
+        <v>28000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>2111</v>
+        <v>1556</v>
       </c>
       <c r="T11" t="n">
         <v>18</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44417</v>
+        <v>44522</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N12" t="n">
-        <v>28000</v>
+        <v>60000</v>
       </c>
       <c r="O12" t="n">
-        <v>28000</v>
+        <v>60000</v>
       </c>
       <c r="P12" t="n">
-        <v>28000</v>
+        <v>60000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1342,11 +1342,11 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1556</v>
+        <v>3333</v>
       </c>
       <c r="T12" t="n">
         <v>18</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44424</v>
+        <v>44522</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N13" t="n">
-        <v>32000</v>
+        <v>56000</v>
       </c>
       <c r="O13" t="n">
-        <v>32000</v>
+        <v>56000</v>
       </c>
       <c r="P13" t="n">
-        <v>32000</v>
+        <v>56000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1422,11 +1422,11 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1778</v>
+        <v>3111</v>
       </c>
       <c r="T13" t="n">
         <v>18</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44435</v>
+        <v>44459</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N14" t="n">
-        <v>32000</v>
+        <v>38000</v>
       </c>
       <c r="O14" t="n">
-        <v>32000</v>
+        <v>38000</v>
       </c>
       <c r="P14" t="n">
-        <v>32000</v>
+        <v>38000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1778</v>
+        <v>2111</v>
       </c>
       <c r="T14" t="n">
         <v>18</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44354</v>
+        <v>44410</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="N15" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="O15" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="P15" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>2111</v>
+        <v>1778</v>
       </c>
       <c r="T15" t="n">
         <v>18</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44305</v>
+        <v>44410</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44529</v>
+        <v>44410</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N17" t="n">
-        <v>60000</v>
+        <v>28000</v>
       </c>
       <c r="O17" t="n">
-        <v>60000</v>
+        <v>28000</v>
       </c>
       <c r="P17" t="n">
-        <v>60000</v>
+        <v>28000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>3333</v>
+        <v>1556</v>
       </c>
       <c r="T17" t="n">
         <v>18</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44529</v>
+        <v>44403</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1800,20 +1800,20 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N18" t="n">
-        <v>58000</v>
+        <v>33000</v>
       </c>
       <c r="O18" t="n">
-        <v>58000</v>
+        <v>33000</v>
       </c>
       <c r="P18" t="n">
-        <v>58000</v>
+        <v>33000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>3222</v>
+        <v>1833</v>
       </c>
       <c r="T18" t="n">
         <v>18</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44382</v>
+        <v>44403</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="N19" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="O19" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="P19" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1944</v>
+        <v>1667</v>
       </c>
       <c r="T19" t="n">
         <v>18</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44382</v>
+        <v>44403</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1960,20 +1960,20 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N20" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="O20" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="P20" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1778</v>
+        <v>1556</v>
       </c>
       <c r="T20" t="n">
         <v>18</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44382</v>
+        <v>44452</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2040,20 +2040,20 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N21" t="n">
-        <v>30000</v>
+        <v>36000</v>
       </c>
       <c r="O21" t="n">
-        <v>30000</v>
+        <v>36000</v>
       </c>
       <c r="P21" t="n">
-        <v>30000</v>
+        <v>36000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1667</v>
+        <v>2000</v>
       </c>
       <c r="T21" t="n">
         <v>18</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44466</v>
+        <v>44431</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N22" t="n">
-        <v>60000</v>
+        <v>32000</v>
       </c>
       <c r="O22" t="n">
-        <v>60000</v>
+        <v>32000</v>
       </c>
       <c r="P22" t="n">
-        <v>60000</v>
+        <v>32000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>3333</v>
+        <v>1778</v>
       </c>
       <c r="T22" t="n">
         <v>18</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44466</v>
+        <v>44284</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2200,20 +2200,20 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="N23" t="n">
-        <v>58000</v>
+        <v>23000</v>
       </c>
       <c r="O23" t="n">
-        <v>58000</v>
+        <v>23000</v>
       </c>
       <c r="P23" t="n">
-        <v>58000</v>
+        <v>23000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>3222</v>
+        <v>1278</v>
       </c>
       <c r="T23" t="n">
         <v>18</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44452</v>
+        <v>44435</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N24" t="n">
-        <v>36000</v>
+        <v>32000</v>
       </c>
       <c r="O24" t="n">
-        <v>36000</v>
+        <v>32000</v>
       </c>
       <c r="P24" t="n">
-        <v>36000</v>
+        <v>32000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>2000</v>
+        <v>1778</v>
       </c>
       <c r="T24" t="n">
         <v>18</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44291</v>
+        <v>44466</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2524,16 +2524,16 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N27" t="n">
-        <v>25000</v>
+        <v>60000</v>
       </c>
       <c r="O27" t="n">
-        <v>25000</v>
+        <v>60000</v>
       </c>
       <c r="P27" t="n">
-        <v>25000</v>
+        <v>60000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1389</v>
+        <v>3333</v>
       </c>
       <c r="T27" t="n">
         <v>18</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44326</v>
+        <v>44466</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2600,20 +2600,20 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="N28" t="n">
-        <v>35000</v>
+        <v>58000</v>
       </c>
       <c r="O28" t="n">
-        <v>35000</v>
+        <v>58000</v>
       </c>
       <c r="P28" t="n">
-        <v>35000</v>
+        <v>58000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1944</v>
+        <v>3222</v>
       </c>
       <c r="T28" t="n">
         <v>18</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44326</v>
+        <v>44291</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2684,16 +2684,16 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N29" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="O29" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="P29" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1667</v>
+        <v>1389</v>
       </c>
       <c r="T29" t="n">
         <v>18</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44326</v>
+        <v>44340</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2760,20 +2760,20 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="N30" t="n">
-        <v>28000</v>
+        <v>37000</v>
       </c>
       <c r="O30" t="n">
-        <v>28000</v>
+        <v>37000</v>
       </c>
       <c r="P30" t="n">
-        <v>28000</v>
+        <v>37000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1556</v>
+        <v>2056</v>
       </c>
       <c r="T30" t="n">
         <v>18</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44438</v>
+        <v>44340</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2840,20 +2840,20 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N31" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="O31" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="P31" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1778</v>
+        <v>1944</v>
       </c>
       <c r="T31" t="n">
         <v>18</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44403</v>
+        <v>44319</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2920,20 +2920,20 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>25</v>
+        <v>140</v>
       </c>
       <c r="N32" t="n">
-        <v>33000</v>
+        <v>27000</v>
       </c>
       <c r="O32" t="n">
-        <v>33000</v>
+        <v>27000</v>
       </c>
       <c r="P32" t="n">
-        <v>33000</v>
+        <v>27000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1833</v>
+        <v>1500</v>
       </c>
       <c r="T32" t="n">
         <v>18</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44403</v>
+        <v>44277</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3004,7 +3004,7 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="N33" t="n">
         <v>30000</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44403</v>
+        <v>44277</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3084,7 +3084,7 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="N34" t="n">
         <v>28000</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44319</v>
+        <v>44305</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>140</v>
+        <v>25</v>
       </c>
       <c r="N35" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="O35" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="P35" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1500</v>
+        <v>1667</v>
       </c>
       <c r="T35" t="n">
         <v>18</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44431</v>
+        <v>44529</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3240,20 +3240,20 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N36" t="n">
-        <v>32000</v>
+        <v>60000</v>
       </c>
       <c r="O36" t="n">
-        <v>32000</v>
+        <v>60000</v>
       </c>
       <c r="P36" t="n">
-        <v>32000</v>
+        <v>60000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1778</v>
+        <v>3333</v>
       </c>
       <c r="T36" t="n">
         <v>18</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44473</v>
+        <v>44529</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3320,20 +3320,20 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="N37" t="n">
-        <v>75000</v>
+        <v>58000</v>
       </c>
       <c r="O37" t="n">
-        <v>75000</v>
+        <v>58000</v>
       </c>
       <c r="P37" t="n">
-        <v>75000</v>
+        <v>58000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>4167</v>
+        <v>3222</v>
       </c>
       <c r="T37" t="n">
         <v>18</v>
@@ -3400,20 +3400,20 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="N38" t="n">
-        <v>72000</v>
+        <v>75000</v>
       </c>
       <c r="O38" t="n">
-        <v>72000</v>
+        <v>75000</v>
       </c>
       <c r="P38" t="n">
-        <v>72000</v>
+        <v>75000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>4000</v>
+        <v>4167</v>
       </c>
       <c r="T38" t="n">
         <v>18</v>
@@ -3480,20 +3480,20 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="N39" t="n">
-        <v>67000</v>
+        <v>72000</v>
       </c>
       <c r="O39" t="n">
-        <v>67000</v>
+        <v>72000</v>
       </c>
       <c r="P39" t="n">
-        <v>67000</v>
+        <v>72000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>3722</v>
+        <v>4000</v>
       </c>
       <c r="T39" t="n">
         <v>18</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44445</v>
+        <v>44473</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3560,20 +3560,20 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="N40" t="n">
-        <v>32000</v>
+        <v>67000</v>
       </c>
       <c r="O40" t="n">
-        <v>32000</v>
+        <v>67000</v>
       </c>
       <c r="P40" t="n">
-        <v>32000</v>
+        <v>67000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>1778</v>
+        <v>3722</v>
       </c>
       <c r="T40" t="n">
         <v>18</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44396</v>
+        <v>44382</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3640,20 +3640,20 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="N41" t="n">
-        <v>37000</v>
+        <v>35000</v>
       </c>
       <c r="O41" t="n">
-        <v>37000</v>
+        <v>35000</v>
       </c>
       <c r="P41" t="n">
-        <v>37000</v>
+        <v>35000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>2056</v>
+        <v>1944</v>
       </c>
       <c r="T41" t="n">
         <v>18</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44396</v>
+        <v>44382</v>
       </c>
       <c r="E42" t="n">
         <v>13</v>
@@ -3720,20 +3720,20 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N42" t="n">
-        <v>34000</v>
+        <v>32000</v>
       </c>
       <c r="O42" t="n">
-        <v>34000</v>
+        <v>32000</v>
       </c>
       <c r="P42" t="n">
-        <v>34000</v>
+        <v>32000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>1889</v>
+        <v>1778</v>
       </c>
       <c r="T42" t="n">
         <v>18</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44312</v>
+        <v>44382</v>
       </c>
       <c r="E43" t="n">
         <v>13</v>
@@ -3800,20 +3800,20 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>160</v>
+        <v>15</v>
       </c>
       <c r="N43" t="n">
-        <v>26000</v>
+        <v>30000</v>
       </c>
       <c r="O43" t="n">
-        <v>26000</v>
+        <v>30000</v>
       </c>
       <c r="P43" t="n">
-        <v>26000</v>
+        <v>30000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>1444</v>
+        <v>1667</v>
       </c>
       <c r="T43" t="n">
         <v>18</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44522</v>
+        <v>44270</v>
       </c>
       <c r="E44" t="n">
         <v>13</v>
@@ -3880,20 +3880,20 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="N44" t="n">
-        <v>60000</v>
+        <v>38000</v>
       </c>
       <c r="O44" t="n">
-        <v>60000</v>
+        <v>38000</v>
       </c>
       <c r="P44" t="n">
-        <v>60000</v>
+        <v>38000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3902,11 +3902,11 @@
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S44" t="n">
-        <v>3333</v>
+        <v>2111</v>
       </c>
       <c r="T44" t="n">
         <v>18</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44522</v>
+        <v>44354</v>
       </c>
       <c r="E45" t="n">
         <v>13</v>
@@ -3960,20 +3960,20 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="N45" t="n">
-        <v>56000</v>
+        <v>38000</v>
       </c>
       <c r="O45" t="n">
-        <v>56000</v>
+        <v>38000</v>
       </c>
       <c r="P45" t="n">
-        <v>56000</v>
+        <v>38000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3982,11 +3982,11 @@
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S45" t="n">
-        <v>3111</v>
+        <v>2111</v>
       </c>
       <c r="T45" t="n">
         <v>18</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44277</v>
+        <v>44445</v>
       </c>
       <c r="E46" t="n">
         <v>13</v>
@@ -4044,16 +4044,16 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="N46" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="O46" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="P46" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>1667</v>
+        <v>1778</v>
       </c>
       <c r="T46" t="n">
         <v>18</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44277</v>
+        <v>44312</v>
       </c>
       <c r="E47" t="n">
         <v>13</v>
@@ -4120,20 +4120,20 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="N47" t="n">
-        <v>28000</v>
+        <v>26000</v>
       </c>
       <c r="O47" t="n">
-        <v>28000</v>
+        <v>26000</v>
       </c>
       <c r="P47" t="n">
-        <v>28000</v>
+        <v>26000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>1556</v>
+        <v>1444</v>
       </c>
       <c r="T47" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Maracuyá.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Maracuyá.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44396</v>
+        <v>44459</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="N2" t="n">
-        <v>37000</v>
+        <v>38000</v>
       </c>
       <c r="O2" t="n">
-        <v>37000</v>
+        <v>38000</v>
       </c>
       <c r="P2" t="n">
-        <v>37000</v>
+        <v>38000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>2056</v>
+        <v>2111</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44396</v>
+        <v>44431</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N3" t="n">
-        <v>34000</v>
+        <v>32000</v>
       </c>
       <c r="O3" t="n">
-        <v>34000</v>
+        <v>32000</v>
       </c>
       <c r="P3" t="n">
-        <v>34000</v>
+        <v>32000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1889</v>
+        <v>1778</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44326</v>
+        <v>44529</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N4" t="n">
-        <v>35000</v>
+        <v>60000</v>
       </c>
       <c r="O4" t="n">
-        <v>35000</v>
+        <v>60000</v>
       </c>
       <c r="P4" t="n">
-        <v>35000</v>
+        <v>60000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1944</v>
+        <v>3333</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44326</v>
+        <v>44529</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N5" t="n">
-        <v>30000</v>
+        <v>58000</v>
       </c>
       <c r="O5" t="n">
-        <v>30000</v>
+        <v>58000</v>
       </c>
       <c r="P5" t="n">
-        <v>30000</v>
+        <v>58000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1667</v>
+        <v>3222</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44326</v>
+        <v>44354</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="N6" t="n">
-        <v>28000</v>
+        <v>38000</v>
       </c>
       <c r="O6" t="n">
-        <v>28000</v>
+        <v>38000</v>
       </c>
       <c r="P6" t="n">
-        <v>28000</v>
+        <v>38000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1556</v>
+        <v>2111</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44424</v>
+        <v>44417</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N7" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="O7" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="P7" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1778</v>
+        <v>1556</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44438</v>
+        <v>44277</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="N8" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="O8" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="P8" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1778</v>
+        <v>1667</v>
       </c>
       <c r="T8" t="n">
         <v>18</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44389</v>
+        <v>44277</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="N9" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="O9" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="P9" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1611</v>
+        <v>1556</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44389</v>
+        <v>44291</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1160,20 +1160,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N10" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="O10" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="P10" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1500</v>
+        <v>1389</v>
       </c>
       <c r="T10" t="n">
         <v>18</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44417</v>
+        <v>44270</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1240,20 +1240,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="N11" t="n">
-        <v>28000</v>
+        <v>38000</v>
       </c>
       <c r="O11" t="n">
-        <v>28000</v>
+        <v>38000</v>
       </c>
       <c r="P11" t="n">
-        <v>28000</v>
+        <v>38000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1556</v>
+        <v>2111</v>
       </c>
       <c r="T11" t="n">
         <v>18</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44522</v>
+        <v>44382</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N12" t="n">
-        <v>60000</v>
+        <v>35000</v>
       </c>
       <c r="O12" t="n">
-        <v>60000</v>
+        <v>35000</v>
       </c>
       <c r="P12" t="n">
-        <v>60000</v>
+        <v>35000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1342,11 +1342,11 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>3333</v>
+        <v>1944</v>
       </c>
       <c r="T12" t="n">
         <v>18</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44522</v>
+        <v>44382</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N13" t="n">
-        <v>56000</v>
+        <v>32000</v>
       </c>
       <c r="O13" t="n">
-        <v>56000</v>
+        <v>32000</v>
       </c>
       <c r="P13" t="n">
-        <v>56000</v>
+        <v>32000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1422,11 +1422,11 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>3111</v>
+        <v>1778</v>
       </c>
       <c r="T13" t="n">
         <v>18</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44459</v>
+        <v>44382</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N14" t="n">
-        <v>38000</v>
+        <v>30000</v>
       </c>
       <c r="O14" t="n">
-        <v>38000</v>
+        <v>30000</v>
       </c>
       <c r="P14" t="n">
-        <v>38000</v>
+        <v>30000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>2111</v>
+        <v>1667</v>
       </c>
       <c r="T14" t="n">
         <v>18</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44410</v>
+        <v>44319</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>15</v>
+        <v>140</v>
       </c>
       <c r="N15" t="n">
-        <v>32000</v>
+        <v>27000</v>
       </c>
       <c r="O15" t="n">
-        <v>32000</v>
+        <v>27000</v>
       </c>
       <c r="P15" t="n">
-        <v>32000</v>
+        <v>27000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1778</v>
+        <v>1500</v>
       </c>
       <c r="T15" t="n">
         <v>18</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44410</v>
+        <v>44445</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N16" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="O16" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="P16" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1667</v>
+        <v>1778</v>
       </c>
       <c r="T16" t="n">
         <v>18</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44410</v>
+        <v>44333</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="N17" t="n">
-        <v>28000</v>
+        <v>38000</v>
       </c>
       <c r="O17" t="n">
-        <v>28000</v>
+        <v>38000</v>
       </c>
       <c r="P17" t="n">
-        <v>28000</v>
+        <v>38000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1556</v>
+        <v>2111</v>
       </c>
       <c r="T17" t="n">
         <v>18</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44403</v>
+        <v>44333</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1800,20 +1800,20 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M18" t="n">
         <v>25</v>
       </c>
       <c r="N18" t="n">
-        <v>33000</v>
+        <v>35000</v>
       </c>
       <c r="O18" t="n">
-        <v>33000</v>
+        <v>35000</v>
       </c>
       <c r="P18" t="n">
-        <v>33000</v>
+        <v>35000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1833</v>
+        <v>1944</v>
       </c>
       <c r="T18" t="n">
         <v>18</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44403</v>
+        <v>44340</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="N19" t="n">
-        <v>30000</v>
+        <v>37000</v>
       </c>
       <c r="O19" t="n">
-        <v>30000</v>
+        <v>37000</v>
       </c>
       <c r="P19" t="n">
-        <v>30000</v>
+        <v>37000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1667</v>
+        <v>2056</v>
       </c>
       <c r="T19" t="n">
         <v>18</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44403</v>
+        <v>44340</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N20" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="O20" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="P20" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1556</v>
+        <v>1944</v>
       </c>
       <c r="T20" t="n">
         <v>18</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44452</v>
+        <v>44424</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N21" t="n">
-        <v>36000</v>
+        <v>32000</v>
       </c>
       <c r="O21" t="n">
-        <v>36000</v>
+        <v>32000</v>
       </c>
       <c r="P21" t="n">
-        <v>36000</v>
+        <v>32000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>2000</v>
+        <v>1778</v>
       </c>
       <c r="T21" t="n">
         <v>18</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44431</v>
+        <v>44403</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2120,20 +2120,20 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N22" t="n">
-        <v>32000</v>
+        <v>33000</v>
       </c>
       <c r="O22" t="n">
-        <v>32000</v>
+        <v>33000</v>
       </c>
       <c r="P22" t="n">
-        <v>32000</v>
+        <v>33000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1778</v>
+        <v>1833</v>
       </c>
       <c r="T22" t="n">
         <v>18</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44284</v>
+        <v>44403</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2204,16 +2204,16 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>120</v>
+        <v>45</v>
       </c>
       <c r="N23" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="O23" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="P23" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1278</v>
+        <v>1667</v>
       </c>
       <c r="T23" t="n">
         <v>18</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44435</v>
+        <v>44403</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2280,20 +2280,20 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N24" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="O24" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="P24" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1778</v>
+        <v>1556</v>
       </c>
       <c r="T24" t="n">
         <v>18</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44333</v>
+        <v>44312</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>30</v>
+        <v>160</v>
       </c>
       <c r="N25" t="n">
-        <v>38000</v>
+        <v>26000</v>
       </c>
       <c r="O25" t="n">
-        <v>38000</v>
+        <v>26000</v>
       </c>
       <c r="P25" t="n">
-        <v>38000</v>
+        <v>26000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>2111</v>
+        <v>1444</v>
       </c>
       <c r="T25" t="n">
         <v>18</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44333</v>
+        <v>44305</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2440,20 +2440,20 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M26" t="n">
         <v>25</v>
       </c>
       <c r="N26" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="O26" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="P26" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1944</v>
+        <v>1667</v>
       </c>
       <c r="T26" t="n">
         <v>18</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44466</v>
+        <v>44522</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2524,7 +2524,7 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N27" t="n">
         <v>60000</v>
@@ -2542,7 +2542,7 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="S27" t="n">
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44466</v>
+        <v>44522</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2604,16 +2604,16 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N28" t="n">
-        <v>58000</v>
+        <v>56000</v>
       </c>
       <c r="O28" t="n">
-        <v>58000</v>
+        <v>56000</v>
       </c>
       <c r="P28" t="n">
-        <v>58000</v>
+        <v>56000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2622,11 +2622,11 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="S28" t="n">
-        <v>3222</v>
+        <v>3111</v>
       </c>
       <c r="T28" t="n">
         <v>18</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44291</v>
+        <v>44452</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2684,16 +2684,16 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N29" t="n">
-        <v>25000</v>
+        <v>36000</v>
       </c>
       <c r="O29" t="n">
-        <v>25000</v>
+        <v>36000</v>
       </c>
       <c r="P29" t="n">
-        <v>25000</v>
+        <v>36000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1389</v>
+        <v>2000</v>
       </c>
       <c r="T29" t="n">
         <v>18</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44340</v>
+        <v>44284</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2764,16 +2764,16 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="N30" t="n">
-        <v>37000</v>
+        <v>23000</v>
       </c>
       <c r="O30" t="n">
-        <v>37000</v>
+        <v>23000</v>
       </c>
       <c r="P30" t="n">
-        <v>37000</v>
+        <v>23000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>2056</v>
+        <v>1278</v>
       </c>
       <c r="T30" t="n">
         <v>18</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44340</v>
+        <v>44326</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2840,11 +2840,11 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N31" t="n">
         <v>35000</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44319</v>
+        <v>44326</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2924,16 +2924,16 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>140</v>
+        <v>25</v>
       </c>
       <c r="N32" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="O32" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="P32" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1500</v>
+        <v>1667</v>
       </c>
       <c r="T32" t="n">
         <v>18</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44277</v>
+        <v>44326</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3000,20 +3000,20 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="N33" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="O33" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="P33" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1667</v>
+        <v>1556</v>
       </c>
       <c r="T33" t="n">
         <v>18</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44277</v>
+        <v>44473</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3080,20 +3080,20 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="N34" t="n">
-        <v>28000</v>
+        <v>75000</v>
       </c>
       <c r="O34" t="n">
-        <v>28000</v>
+        <v>75000</v>
       </c>
       <c r="P34" t="n">
-        <v>28000</v>
+        <v>75000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1556</v>
+        <v>4167</v>
       </c>
       <c r="T34" t="n">
         <v>18</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44305</v>
+        <v>44473</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3167,13 +3167,13 @@
         <v>25</v>
       </c>
       <c r="N35" t="n">
-        <v>30000</v>
+        <v>72000</v>
       </c>
       <c r="O35" t="n">
-        <v>30000</v>
+        <v>72000</v>
       </c>
       <c r="P35" t="n">
-        <v>30000</v>
+        <v>72000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1667</v>
+        <v>4000</v>
       </c>
       <c r="T35" t="n">
         <v>18</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44529</v>
+        <v>44473</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3240,20 +3240,20 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="N36" t="n">
-        <v>60000</v>
+        <v>67000</v>
       </c>
       <c r="O36" t="n">
-        <v>60000</v>
+        <v>67000</v>
       </c>
       <c r="P36" t="n">
-        <v>60000</v>
+        <v>67000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>3333</v>
+        <v>3722</v>
       </c>
       <c r="T36" t="n">
         <v>18</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44529</v>
+        <v>44389</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3324,16 +3324,16 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="N37" t="n">
-        <v>58000</v>
+        <v>29000</v>
       </c>
       <c r="O37" t="n">
-        <v>58000</v>
+        <v>29000</v>
       </c>
       <c r="P37" t="n">
-        <v>58000</v>
+        <v>29000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>3222</v>
+        <v>1611</v>
       </c>
       <c r="T37" t="n">
         <v>18</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44473</v>
+        <v>44389</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3400,20 +3400,20 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N38" t="n">
-        <v>75000</v>
+        <v>27000</v>
       </c>
       <c r="O38" t="n">
-        <v>75000</v>
+        <v>27000</v>
       </c>
       <c r="P38" t="n">
-        <v>75000</v>
+        <v>27000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>4167</v>
+        <v>1500</v>
       </c>
       <c r="T38" t="n">
         <v>18</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44473</v>
+        <v>44410</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3480,20 +3480,20 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N39" t="n">
-        <v>72000</v>
+        <v>32000</v>
       </c>
       <c r="O39" t="n">
-        <v>72000</v>
+        <v>32000</v>
       </c>
       <c r="P39" t="n">
-        <v>72000</v>
+        <v>32000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>4000</v>
+        <v>1778</v>
       </c>
       <c r="T39" t="n">
         <v>18</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44473</v>
+        <v>44410</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3560,20 +3560,20 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="N40" t="n">
-        <v>67000</v>
+        <v>30000</v>
       </c>
       <c r="O40" t="n">
-        <v>67000</v>
+        <v>30000</v>
       </c>
       <c r="P40" t="n">
-        <v>67000</v>
+        <v>30000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>3722</v>
+        <v>1667</v>
       </c>
       <c r="T40" t="n">
         <v>18</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44382</v>
+        <v>44410</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3640,20 +3640,20 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N41" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="O41" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="P41" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>1944</v>
+        <v>1556</v>
       </c>
       <c r="T41" t="n">
         <v>18</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44382</v>
+        <v>44396</v>
       </c>
       <c r="E42" t="n">
         <v>13</v>
@@ -3724,16 +3724,16 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N42" t="n">
-        <v>32000</v>
+        <v>37000</v>
       </c>
       <c r="O42" t="n">
-        <v>32000</v>
+        <v>37000</v>
       </c>
       <c r="P42" t="n">
-        <v>32000</v>
+        <v>37000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>1778</v>
+        <v>2056</v>
       </c>
       <c r="T42" t="n">
         <v>18</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44382</v>
+        <v>44396</v>
       </c>
       <c r="E43" t="n">
         <v>13</v>
@@ -3807,13 +3807,13 @@
         <v>15</v>
       </c>
       <c r="N43" t="n">
-        <v>30000</v>
+        <v>34000</v>
       </c>
       <c r="O43" t="n">
-        <v>30000</v>
+        <v>34000</v>
       </c>
       <c r="P43" t="n">
-        <v>30000</v>
+        <v>34000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>1667</v>
+        <v>1889</v>
       </c>
       <c r="T43" t="n">
         <v>18</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44270</v>
+        <v>44438</v>
       </c>
       <c r="E44" t="n">
         <v>13</v>
@@ -3880,20 +3880,20 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="N44" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="O44" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="P44" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>2111</v>
+        <v>1778</v>
       </c>
       <c r="T44" t="n">
         <v>18</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44354</v>
+        <v>44435</v>
       </c>
       <c r="E45" t="n">
         <v>13</v>
@@ -3964,16 +3964,16 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N45" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="O45" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="P45" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>2111</v>
+        <v>1778</v>
       </c>
       <c r="T45" t="n">
         <v>18</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44445</v>
+        <v>44466</v>
       </c>
       <c r="E46" t="n">
         <v>13</v>
@@ -4044,16 +4044,16 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N46" t="n">
-        <v>32000</v>
+        <v>60000</v>
       </c>
       <c r="O46" t="n">
-        <v>32000</v>
+        <v>60000</v>
       </c>
       <c r="P46" t="n">
-        <v>32000</v>
+        <v>60000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>1778</v>
+        <v>3333</v>
       </c>
       <c r="T46" t="n">
         <v>18</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44312</v>
+        <v>44466</v>
       </c>
       <c r="E47" t="n">
         <v>13</v>
@@ -4120,20 +4120,20 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="N47" t="n">
-        <v>26000</v>
+        <v>58000</v>
       </c>
       <c r="O47" t="n">
-        <v>26000</v>
+        <v>58000</v>
       </c>
       <c r="P47" t="n">
-        <v>26000</v>
+        <v>58000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>1444</v>
+        <v>3222</v>
       </c>
       <c r="T47" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Maracuyá.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Maracuyá.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44459</v>
+        <v>44354</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="N2" t="n">
         <v>38000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44431</v>
+        <v>44459</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N3" t="n">
-        <v>32000</v>
+        <v>38000</v>
       </c>
       <c r="O3" t="n">
-        <v>32000</v>
+        <v>38000</v>
       </c>
       <c r="P3" t="n">
-        <v>32000</v>
+        <v>38000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1778</v>
+        <v>2111</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44529</v>
+        <v>44389</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="N4" t="n">
-        <v>60000</v>
+        <v>29000</v>
       </c>
       <c r="O4" t="n">
-        <v>60000</v>
+        <v>29000</v>
       </c>
       <c r="P4" t="n">
-        <v>60000</v>
+        <v>29000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>3333</v>
+        <v>1611</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44529</v>
+        <v>44389</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="N5" t="n">
-        <v>58000</v>
+        <v>27000</v>
       </c>
       <c r="O5" t="n">
-        <v>58000</v>
+        <v>27000</v>
       </c>
       <c r="P5" t="n">
-        <v>58000</v>
+        <v>27000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>3222</v>
+        <v>1500</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44354</v>
+        <v>44438</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N6" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="O6" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="P6" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>2111</v>
+        <v>1778</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44417</v>
+        <v>44305</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N7" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="O7" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="P7" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1556</v>
+        <v>1667</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44277</v>
+        <v>44312</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="N8" t="n">
-        <v>30000</v>
+        <v>26000</v>
       </c>
       <c r="O8" t="n">
-        <v>30000</v>
+        <v>26000</v>
       </c>
       <c r="P8" t="n">
-        <v>30000</v>
+        <v>26000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1667</v>
+        <v>1444</v>
       </c>
       <c r="T8" t="n">
         <v>18</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44277</v>
+        <v>44403</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="N9" t="n">
-        <v>28000</v>
+        <v>33000</v>
       </c>
       <c r="O9" t="n">
-        <v>28000</v>
+        <v>33000</v>
       </c>
       <c r="P9" t="n">
-        <v>28000</v>
+        <v>33000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1556</v>
+        <v>1833</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44291</v>
+        <v>44403</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N10" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="O10" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="P10" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1389</v>
+        <v>1667</v>
       </c>
       <c r="T10" t="n">
         <v>18</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44270</v>
+        <v>44403</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1240,20 +1240,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="N11" t="n">
-        <v>38000</v>
+        <v>28000</v>
       </c>
       <c r="O11" t="n">
-        <v>38000</v>
+        <v>28000</v>
       </c>
       <c r="P11" t="n">
-        <v>38000</v>
+        <v>28000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>2111</v>
+        <v>1556</v>
       </c>
       <c r="T11" t="n">
         <v>18</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44382</v>
+        <v>44396</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="N12" t="n">
-        <v>35000</v>
+        <v>37000</v>
       </c>
       <c r="O12" t="n">
-        <v>35000</v>
+        <v>37000</v>
       </c>
       <c r="P12" t="n">
-        <v>35000</v>
+        <v>37000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1944</v>
+        <v>2056</v>
       </c>
       <c r="T12" t="n">
         <v>18</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44382</v>
+        <v>44396</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N13" t="n">
-        <v>32000</v>
+        <v>34000</v>
       </c>
       <c r="O13" t="n">
-        <v>32000</v>
+        <v>34000</v>
       </c>
       <c r="P13" t="n">
-        <v>32000</v>
+        <v>34000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1778</v>
+        <v>1889</v>
       </c>
       <c r="T13" t="n">
         <v>18</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44382</v>
+        <v>44270</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="N14" t="n">
-        <v>30000</v>
+        <v>38000</v>
       </c>
       <c r="O14" t="n">
-        <v>30000</v>
+        <v>38000</v>
       </c>
       <c r="P14" t="n">
-        <v>30000</v>
+        <v>38000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1667</v>
+        <v>2111</v>
       </c>
       <c r="T14" t="n">
         <v>18</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44319</v>
+        <v>44340</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>140</v>
+        <v>35</v>
       </c>
       <c r="N15" t="n">
-        <v>27000</v>
+        <v>37000</v>
       </c>
       <c r="O15" t="n">
-        <v>27000</v>
+        <v>37000</v>
       </c>
       <c r="P15" t="n">
-        <v>27000</v>
+        <v>37000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1500</v>
+        <v>2056</v>
       </c>
       <c r="T15" t="n">
         <v>18</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44445</v>
+        <v>44340</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N16" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="O16" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="P16" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1778</v>
+        <v>1944</v>
       </c>
       <c r="T16" t="n">
         <v>18</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44333</v>
+        <v>44452</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N17" t="n">
-        <v>38000</v>
+        <v>36000</v>
       </c>
       <c r="O17" t="n">
-        <v>38000</v>
+        <v>36000</v>
       </c>
       <c r="P17" t="n">
-        <v>38000</v>
+        <v>36000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>2111</v>
+        <v>2000</v>
       </c>
       <c r="T17" t="n">
         <v>18</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44333</v>
+        <v>44277</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1800,20 +1800,20 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="N18" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="O18" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="P18" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1944</v>
+        <v>1667</v>
       </c>
       <c r="T18" t="n">
         <v>18</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44340</v>
+        <v>44277</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="N19" t="n">
-        <v>37000</v>
+        <v>28000</v>
       </c>
       <c r="O19" t="n">
-        <v>37000</v>
+        <v>28000</v>
       </c>
       <c r="P19" t="n">
-        <v>37000</v>
+        <v>28000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>2056</v>
+        <v>1556</v>
       </c>
       <c r="T19" t="n">
         <v>18</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44340</v>
+        <v>44319</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1960,20 +1960,20 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="N20" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="O20" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="P20" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1944</v>
+        <v>1500</v>
       </c>
       <c r="T20" t="n">
         <v>18</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44424</v>
+        <v>44326</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2040,20 +2040,20 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="N21" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="O21" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="P21" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1778</v>
+        <v>1944</v>
       </c>
       <c r="T21" t="n">
         <v>18</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44403</v>
+        <v>44326</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2120,20 +2120,20 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M22" t="n">
         <v>25</v>
       </c>
       <c r="N22" t="n">
-        <v>33000</v>
+        <v>30000</v>
       </c>
       <c r="O22" t="n">
-        <v>33000</v>
+        <v>30000</v>
       </c>
       <c r="P22" t="n">
-        <v>33000</v>
+        <v>30000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1833</v>
+        <v>1667</v>
       </c>
       <c r="T22" t="n">
         <v>18</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44403</v>
+        <v>44326</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2200,20 +2200,20 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="N23" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="O23" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="P23" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1667</v>
+        <v>1556</v>
       </c>
       <c r="T23" t="n">
         <v>18</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44403</v>
+        <v>44333</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2280,20 +2280,20 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N24" t="n">
-        <v>28000</v>
+        <v>38000</v>
       </c>
       <c r="O24" t="n">
-        <v>28000</v>
+        <v>38000</v>
       </c>
       <c r="P24" t="n">
-        <v>28000</v>
+        <v>38000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1556</v>
+        <v>2111</v>
       </c>
       <c r="T24" t="n">
         <v>18</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44312</v>
+        <v>44333</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2360,20 +2360,20 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>160</v>
+        <v>25</v>
       </c>
       <c r="N25" t="n">
-        <v>26000</v>
+        <v>35000</v>
       </c>
       <c r="O25" t="n">
-        <v>26000</v>
+        <v>35000</v>
       </c>
       <c r="P25" t="n">
-        <v>26000</v>
+        <v>35000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1444</v>
+        <v>1944</v>
       </c>
       <c r="T25" t="n">
         <v>18</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44305</v>
+        <v>44417</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N26" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="O26" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="P26" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1667</v>
+        <v>1556</v>
       </c>
       <c r="T26" t="n">
         <v>18</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44522</v>
+        <v>44382</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2520,20 +2520,20 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N27" t="n">
-        <v>60000</v>
+        <v>35000</v>
       </c>
       <c r="O27" t="n">
-        <v>60000</v>
+        <v>35000</v>
       </c>
       <c r="P27" t="n">
-        <v>60000</v>
+        <v>35000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2542,11 +2542,11 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S27" t="n">
-        <v>3333</v>
+        <v>1944</v>
       </c>
       <c r="T27" t="n">
         <v>18</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44522</v>
+        <v>44382</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2600,20 +2600,20 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N28" t="n">
-        <v>56000</v>
+        <v>32000</v>
       </c>
       <c r="O28" t="n">
-        <v>56000</v>
+        <v>32000</v>
       </c>
       <c r="P28" t="n">
-        <v>56000</v>
+        <v>32000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2622,11 +2622,11 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S28" t="n">
-        <v>3111</v>
+        <v>1778</v>
       </c>
       <c r="T28" t="n">
         <v>18</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44452</v>
+        <v>44382</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2680,20 +2680,20 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N29" t="n">
-        <v>36000</v>
+        <v>30000</v>
       </c>
       <c r="O29" t="n">
-        <v>36000</v>
+        <v>30000</v>
       </c>
       <c r="P29" t="n">
-        <v>36000</v>
+        <v>30000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>2000</v>
+        <v>1667</v>
       </c>
       <c r="T29" t="n">
         <v>18</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44284</v>
+        <v>44522</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2764,16 +2764,16 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>120</v>
+        <v>25</v>
       </c>
       <c r="N30" t="n">
-        <v>23000</v>
+        <v>60000</v>
       </c>
       <c r="O30" t="n">
-        <v>23000</v>
+        <v>60000</v>
       </c>
       <c r="P30" t="n">
-        <v>23000</v>
+        <v>60000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2782,11 +2782,11 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1278</v>
+        <v>3333</v>
       </c>
       <c r="T30" t="n">
         <v>18</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44326</v>
+        <v>44522</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2840,20 +2840,20 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N31" t="n">
-        <v>35000</v>
+        <v>56000</v>
       </c>
       <c r="O31" t="n">
-        <v>35000</v>
+        <v>56000</v>
       </c>
       <c r="P31" t="n">
-        <v>35000</v>
+        <v>56000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2862,11 +2862,11 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1944</v>
+        <v>3111</v>
       </c>
       <c r="T31" t="n">
         <v>18</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44326</v>
+        <v>44466</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2924,16 +2924,16 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N32" t="n">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="O32" t="n">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="P32" t="n">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1667</v>
+        <v>3333</v>
       </c>
       <c r="T32" t="n">
         <v>18</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44326</v>
+        <v>44466</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3004,16 +3004,16 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N33" t="n">
-        <v>28000</v>
+        <v>58000</v>
       </c>
       <c r="O33" t="n">
-        <v>28000</v>
+        <v>58000</v>
       </c>
       <c r="P33" t="n">
-        <v>28000</v>
+        <v>58000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1556</v>
+        <v>3222</v>
       </c>
       <c r="T33" t="n">
         <v>18</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44473</v>
+        <v>44424</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3080,20 +3080,20 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="N34" t="n">
-        <v>75000</v>
+        <v>32000</v>
       </c>
       <c r="O34" t="n">
-        <v>75000</v>
+        <v>32000</v>
       </c>
       <c r="P34" t="n">
-        <v>75000</v>
+        <v>32000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>4167</v>
+        <v>1778</v>
       </c>
       <c r="T34" t="n">
         <v>18</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44473</v>
+        <v>44291</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N35" t="n">
-        <v>72000</v>
+        <v>25000</v>
       </c>
       <c r="O35" t="n">
-        <v>72000</v>
+        <v>25000</v>
       </c>
       <c r="P35" t="n">
-        <v>72000</v>
+        <v>25000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>4000</v>
+        <v>1389</v>
       </c>
       <c r="T35" t="n">
         <v>18</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44473</v>
+        <v>44435</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3240,20 +3240,20 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="N36" t="n">
-        <v>67000</v>
+        <v>32000</v>
       </c>
       <c r="O36" t="n">
-        <v>67000</v>
+        <v>32000</v>
       </c>
       <c r="P36" t="n">
-        <v>67000</v>
+        <v>32000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>3722</v>
+        <v>1778</v>
       </c>
       <c r="T36" t="n">
         <v>18</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44389</v>
+        <v>44445</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3324,16 +3324,16 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N37" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="O37" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="P37" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1611</v>
+        <v>1778</v>
       </c>
       <c r="T37" t="n">
         <v>18</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44389</v>
+        <v>44529</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3400,20 +3400,20 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M38" t="n">
         <v>20</v>
       </c>
       <c r="N38" t="n">
-        <v>27000</v>
+        <v>60000</v>
       </c>
       <c r="O38" t="n">
-        <v>27000</v>
+        <v>60000</v>
       </c>
       <c r="P38" t="n">
-        <v>27000</v>
+        <v>60000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>1500</v>
+        <v>3333</v>
       </c>
       <c r="T38" t="n">
         <v>18</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44410</v>
+        <v>44529</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3480,20 +3480,20 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="N39" t="n">
-        <v>32000</v>
+        <v>58000</v>
       </c>
       <c r="O39" t="n">
-        <v>32000</v>
+        <v>58000</v>
       </c>
       <c r="P39" t="n">
-        <v>32000</v>
+        <v>58000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1778</v>
+        <v>3222</v>
       </c>
       <c r="T39" t="n">
         <v>18</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44410</v>
+        <v>44284</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3564,16 +3564,16 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="N40" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="O40" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="P40" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>1667</v>
+        <v>1278</v>
       </c>
       <c r="T40" t="n">
         <v>18</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44410</v>
+        <v>44431</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3640,20 +3640,20 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="N41" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="O41" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="P41" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>1556</v>
+        <v>1778</v>
       </c>
       <c r="T41" t="n">
         <v>18</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44396</v>
+        <v>44473</v>
       </c>
       <c r="E42" t="n">
         <v>13</v>
@@ -3720,20 +3720,20 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="N42" t="n">
-        <v>37000</v>
+        <v>75000</v>
       </c>
       <c r="O42" t="n">
-        <v>37000</v>
+        <v>75000</v>
       </c>
       <c r="P42" t="n">
-        <v>37000</v>
+        <v>75000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>2056</v>
+        <v>4167</v>
       </c>
       <c r="T42" t="n">
         <v>18</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44396</v>
+        <v>44473</v>
       </c>
       <c r="E43" t="n">
         <v>13</v>
@@ -3800,20 +3800,20 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N43" t="n">
-        <v>34000</v>
+        <v>72000</v>
       </c>
       <c r="O43" t="n">
-        <v>34000</v>
+        <v>72000</v>
       </c>
       <c r="P43" t="n">
-        <v>34000</v>
+        <v>72000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>1889</v>
+        <v>4000</v>
       </c>
       <c r="T43" t="n">
         <v>18</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44438</v>
+        <v>44473</v>
       </c>
       <c r="E44" t="n">
         <v>13</v>
@@ -3880,20 +3880,20 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="N44" t="n">
-        <v>32000</v>
+        <v>67000</v>
       </c>
       <c r="O44" t="n">
-        <v>32000</v>
+        <v>67000</v>
       </c>
       <c r="P44" t="n">
-        <v>32000</v>
+        <v>67000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>1778</v>
+        <v>3722</v>
       </c>
       <c r="T44" t="n">
         <v>18</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44435</v>
+        <v>44410</v>
       </c>
       <c r="E45" t="n">
         <v>13</v>
@@ -3960,11 +3960,11 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N45" t="n">
         <v>32000</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44466</v>
+        <v>44410</v>
       </c>
       <c r="E46" t="n">
         <v>13</v>
@@ -4044,16 +4044,16 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N46" t="n">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="O46" t="n">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="P46" t="n">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>3333</v>
+        <v>1667</v>
       </c>
       <c r="T46" t="n">
         <v>18</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44466</v>
+        <v>44410</v>
       </c>
       <c r="E47" t="n">
         <v>13</v>
@@ -4127,13 +4127,13 @@
         <v>10</v>
       </c>
       <c r="N47" t="n">
-        <v>58000</v>
+        <v>28000</v>
       </c>
       <c r="O47" t="n">
-        <v>58000</v>
+        <v>28000</v>
       </c>
       <c r="P47" t="n">
-        <v>58000</v>
+        <v>28000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>3222</v>
+        <v>1556</v>
       </c>
       <c r="T47" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Maracuyá.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Maracuyá.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44354</v>
+        <v>44466</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="N2" t="n">
-        <v>38000</v>
+        <v>60000</v>
       </c>
       <c r="O2" t="n">
-        <v>38000</v>
+        <v>60000</v>
       </c>
       <c r="P2" t="n">
-        <v>38000</v>
+        <v>60000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>2111</v>
+        <v>3333</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44459</v>
+        <v>44466</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="N3" t="n">
-        <v>38000</v>
+        <v>58000</v>
       </c>
       <c r="O3" t="n">
-        <v>38000</v>
+        <v>58000</v>
       </c>
       <c r="P3" t="n">
-        <v>38000</v>
+        <v>58000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>2111</v>
+        <v>3222</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44389</v>
+        <v>44445</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N4" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="O4" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="P4" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1611</v>
+        <v>1778</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44389</v>
+        <v>44452</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
         <v>20</v>
       </c>
       <c r="N5" t="n">
-        <v>27000</v>
+        <v>36000</v>
       </c>
       <c r="O5" t="n">
-        <v>27000</v>
+        <v>36000</v>
       </c>
       <c r="P5" t="n">
-        <v>27000</v>
+        <v>36000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44438</v>
+        <v>44435</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44305</v>
+        <v>44270</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="N7" t="n">
-        <v>30000</v>
+        <v>38000</v>
       </c>
       <c r="O7" t="n">
-        <v>30000</v>
+        <v>38000</v>
       </c>
       <c r="P7" t="n">
-        <v>30000</v>
+        <v>38000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1667</v>
+        <v>2111</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44312</v>
+        <v>44354</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="N8" t="n">
-        <v>26000</v>
+        <v>38000</v>
       </c>
       <c r="O8" t="n">
-        <v>26000</v>
+        <v>38000</v>
       </c>
       <c r="P8" t="n">
-        <v>26000</v>
+        <v>38000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1444</v>
+        <v>2111</v>
       </c>
       <c r="T8" t="n">
         <v>18</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44403</v>
+        <v>44438</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N9" t="n">
-        <v>33000</v>
+        <v>32000</v>
       </c>
       <c r="O9" t="n">
-        <v>33000</v>
+        <v>32000</v>
       </c>
       <c r="P9" t="n">
-        <v>33000</v>
+        <v>32000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1833</v>
+        <v>1778</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44403</v>
+        <v>44410</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1160,20 +1160,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="N10" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="O10" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="P10" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1667</v>
+        <v>1778</v>
       </c>
       <c r="T10" t="n">
         <v>18</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44403</v>
+        <v>44410</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1240,20 +1240,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N11" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="O11" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="P11" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1556</v>
+        <v>1667</v>
       </c>
       <c r="T11" t="n">
         <v>18</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44396</v>
+        <v>44410</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="N12" t="n">
-        <v>37000</v>
+        <v>28000</v>
       </c>
       <c r="O12" t="n">
-        <v>37000</v>
+        <v>28000</v>
       </c>
       <c r="P12" t="n">
-        <v>37000</v>
+        <v>28000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>2056</v>
+        <v>1556</v>
       </c>
       <c r="T12" t="n">
         <v>18</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44396</v>
+        <v>44417</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M13" t="n">
         <v>15</v>
       </c>
       <c r="N13" t="n">
-        <v>34000</v>
+        <v>28000</v>
       </c>
       <c r="O13" t="n">
-        <v>34000</v>
+        <v>28000</v>
       </c>
       <c r="P13" t="n">
-        <v>34000</v>
+        <v>28000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1889</v>
+        <v>1556</v>
       </c>
       <c r="T13" t="n">
         <v>18</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44270</v>
+        <v>44522</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="N14" t="n">
-        <v>38000</v>
+        <v>60000</v>
       </c>
       <c r="O14" t="n">
-        <v>38000</v>
+        <v>60000</v>
       </c>
       <c r="P14" t="n">
-        <v>38000</v>
+        <v>60000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1502,11 +1502,11 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>2111</v>
+        <v>3333</v>
       </c>
       <c r="T14" t="n">
         <v>18</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44340</v>
+        <v>44522</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="N15" t="n">
-        <v>37000</v>
+        <v>56000</v>
       </c>
       <c r="O15" t="n">
-        <v>37000</v>
+        <v>56000</v>
       </c>
       <c r="P15" t="n">
-        <v>37000</v>
+        <v>56000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1582,11 +1582,11 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>2056</v>
+        <v>3111</v>
       </c>
       <c r="T15" t="n">
         <v>18</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44340</v>
+        <v>44333</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N16" t="n">
-        <v>35000</v>
+        <v>38000</v>
       </c>
       <c r="O16" t="n">
-        <v>35000</v>
+        <v>38000</v>
       </c>
       <c r="P16" t="n">
-        <v>35000</v>
+        <v>38000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1944</v>
+        <v>2111</v>
       </c>
       <c r="T16" t="n">
         <v>18</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44452</v>
+        <v>44333</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N17" t="n">
-        <v>36000</v>
+        <v>35000</v>
       </c>
       <c r="O17" t="n">
-        <v>36000</v>
+        <v>35000</v>
       </c>
       <c r="P17" t="n">
-        <v>36000</v>
+        <v>35000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>2000</v>
+        <v>1944</v>
       </c>
       <c r="T17" t="n">
         <v>18</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44319</v>
+        <v>44326</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1960,20 +1960,20 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>140</v>
+        <v>16</v>
       </c>
       <c r="N20" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="O20" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="P20" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1500</v>
+        <v>1944</v>
       </c>
       <c r="T20" t="n">
         <v>18</v>
@@ -2040,20 +2040,20 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="N21" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="O21" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="P21" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1944</v>
+        <v>1667</v>
       </c>
       <c r="T21" t="n">
         <v>18</v>
@@ -2120,20 +2120,20 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N22" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="O22" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="P22" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1667</v>
+        <v>1556</v>
       </c>
       <c r="T22" t="n">
         <v>18</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44326</v>
+        <v>44340</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2200,20 +2200,20 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="N23" t="n">
-        <v>28000</v>
+        <v>37000</v>
       </c>
       <c r="O23" t="n">
-        <v>28000</v>
+        <v>37000</v>
       </c>
       <c r="P23" t="n">
-        <v>28000</v>
+        <v>37000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1556</v>
+        <v>2056</v>
       </c>
       <c r="T23" t="n">
         <v>18</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44333</v>
+        <v>44340</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2280,20 +2280,20 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N24" t="n">
-        <v>38000</v>
+        <v>35000</v>
       </c>
       <c r="O24" t="n">
-        <v>38000</v>
+        <v>35000</v>
       </c>
       <c r="P24" t="n">
-        <v>38000</v>
+        <v>35000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>2111</v>
+        <v>1944</v>
       </c>
       <c r="T24" t="n">
         <v>18</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44333</v>
+        <v>44459</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2360,20 +2360,20 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M25" t="n">
         <v>25</v>
       </c>
       <c r="N25" t="n">
-        <v>35000</v>
+        <v>38000</v>
       </c>
       <c r="O25" t="n">
-        <v>35000</v>
+        <v>38000</v>
       </c>
       <c r="P25" t="n">
-        <v>35000</v>
+        <v>38000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1944</v>
+        <v>2111</v>
       </c>
       <c r="T25" t="n">
         <v>18</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44417</v>
+        <v>44312</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>15</v>
+        <v>160</v>
       </c>
       <c r="N26" t="n">
-        <v>28000</v>
+        <v>26000</v>
       </c>
       <c r="O26" t="n">
-        <v>28000</v>
+        <v>26000</v>
       </c>
       <c r="P26" t="n">
-        <v>28000</v>
+        <v>26000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1556</v>
+        <v>1444</v>
       </c>
       <c r="T26" t="n">
         <v>18</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44382</v>
+        <v>44319</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2520,20 +2520,20 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="N27" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="O27" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="P27" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1944</v>
+        <v>1500</v>
       </c>
       <c r="T27" t="n">
         <v>18</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44382</v>
+        <v>44291</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2607,13 +2607,13 @@
         <v>30</v>
       </c>
       <c r="N28" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="O28" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="P28" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1778</v>
+        <v>1389</v>
       </c>
       <c r="T28" t="n">
         <v>18</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44382</v>
+        <v>44424</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2680,20 +2680,20 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N29" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="O29" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="P29" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1667</v>
+        <v>1778</v>
       </c>
       <c r="T29" t="n">
         <v>18</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44522</v>
+        <v>44396</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2764,16 +2764,16 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="N30" t="n">
-        <v>60000</v>
+        <v>37000</v>
       </c>
       <c r="O30" t="n">
-        <v>60000</v>
+        <v>37000</v>
       </c>
       <c r="P30" t="n">
-        <v>60000</v>
+        <v>37000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2782,11 +2782,11 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S30" t="n">
-        <v>3333</v>
+        <v>2056</v>
       </c>
       <c r="T30" t="n">
         <v>18</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44522</v>
+        <v>44396</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2844,16 +2844,16 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N31" t="n">
-        <v>56000</v>
+        <v>34000</v>
       </c>
       <c r="O31" t="n">
-        <v>56000</v>
+        <v>34000</v>
       </c>
       <c r="P31" t="n">
-        <v>56000</v>
+        <v>34000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2862,11 +2862,11 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S31" t="n">
-        <v>3111</v>
+        <v>1889</v>
       </c>
       <c r="T31" t="n">
         <v>18</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44466</v>
+        <v>44473</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2920,20 +2920,20 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N32" t="n">
-        <v>60000</v>
+        <v>75000</v>
       </c>
       <c r="O32" t="n">
-        <v>60000</v>
+        <v>75000</v>
       </c>
       <c r="P32" t="n">
-        <v>60000</v>
+        <v>75000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>3333</v>
+        <v>4167</v>
       </c>
       <c r="T32" t="n">
         <v>18</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44466</v>
+        <v>44473</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3000,20 +3000,20 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="N33" t="n">
-        <v>58000</v>
+        <v>72000</v>
       </c>
       <c r="O33" t="n">
-        <v>58000</v>
+        <v>72000</v>
       </c>
       <c r="P33" t="n">
-        <v>58000</v>
+        <v>72000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>3222</v>
+        <v>4000</v>
       </c>
       <c r="T33" t="n">
         <v>18</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44424</v>
+        <v>44473</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3080,20 +3080,20 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="N34" t="n">
-        <v>32000</v>
+        <v>67000</v>
       </c>
       <c r="O34" t="n">
-        <v>32000</v>
+        <v>67000</v>
       </c>
       <c r="P34" t="n">
-        <v>32000</v>
+        <v>67000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1778</v>
+        <v>3722</v>
       </c>
       <c r="T34" t="n">
         <v>18</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44291</v>
+        <v>44389</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N35" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="O35" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="P35" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1389</v>
+        <v>1611</v>
       </c>
       <c r="T35" t="n">
         <v>18</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44435</v>
+        <v>44389</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3240,20 +3240,20 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N36" t="n">
-        <v>32000</v>
+        <v>27000</v>
       </c>
       <c r="O36" t="n">
-        <v>32000</v>
+        <v>27000</v>
       </c>
       <c r="P36" t="n">
-        <v>32000</v>
+        <v>27000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1778</v>
+        <v>1500</v>
       </c>
       <c r="T36" t="n">
         <v>18</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44445</v>
+        <v>44431</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44529</v>
+        <v>44382</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3407,13 +3407,13 @@
         <v>20</v>
       </c>
       <c r="N38" t="n">
-        <v>60000</v>
+        <v>35000</v>
       </c>
       <c r="O38" t="n">
-        <v>60000</v>
+        <v>35000</v>
       </c>
       <c r="P38" t="n">
-        <v>60000</v>
+        <v>35000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>3333</v>
+        <v>1944</v>
       </c>
       <c r="T38" t="n">
         <v>18</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44529</v>
+        <v>44382</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3484,16 +3484,16 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N39" t="n">
-        <v>58000</v>
+        <v>32000</v>
       </c>
       <c r="O39" t="n">
-        <v>58000</v>
+        <v>32000</v>
       </c>
       <c r="P39" t="n">
-        <v>58000</v>
+        <v>32000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>3222</v>
+        <v>1778</v>
       </c>
       <c r="T39" t="n">
         <v>18</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44284</v>
+        <v>44382</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3560,20 +3560,20 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="N40" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="O40" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="P40" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>1278</v>
+        <v>1667</v>
       </c>
       <c r="T40" t="n">
         <v>18</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44431</v>
+        <v>44529</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3640,20 +3640,20 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N41" t="n">
-        <v>32000</v>
+        <v>60000</v>
       </c>
       <c r="O41" t="n">
-        <v>32000</v>
+        <v>60000</v>
       </c>
       <c r="P41" t="n">
-        <v>32000</v>
+        <v>60000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>1778</v>
+        <v>3333</v>
       </c>
       <c r="T41" t="n">
         <v>18</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44473</v>
+        <v>44529</v>
       </c>
       <c r="E42" t="n">
         <v>13</v>
@@ -3720,20 +3720,20 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="N42" t="n">
-        <v>75000</v>
+        <v>58000</v>
       </c>
       <c r="O42" t="n">
-        <v>75000</v>
+        <v>58000</v>
       </c>
       <c r="P42" t="n">
-        <v>75000</v>
+        <v>58000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>4167</v>
+        <v>3222</v>
       </c>
       <c r="T42" t="n">
         <v>18</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44473</v>
+        <v>44284</v>
       </c>
       <c r="E43" t="n">
         <v>13</v>
@@ -3804,16 +3804,16 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="N43" t="n">
-        <v>72000</v>
+        <v>23000</v>
       </c>
       <c r="O43" t="n">
-        <v>72000</v>
+        <v>23000</v>
       </c>
       <c r="P43" t="n">
-        <v>72000</v>
+        <v>23000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>4000</v>
+        <v>1278</v>
       </c>
       <c r="T43" t="n">
         <v>18</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44473</v>
+        <v>44403</v>
       </c>
       <c r="E44" t="n">
         <v>13</v>
@@ -3880,20 +3880,20 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="N44" t="n">
-        <v>67000</v>
+        <v>33000</v>
       </c>
       <c r="O44" t="n">
-        <v>67000</v>
+        <v>33000</v>
       </c>
       <c r="P44" t="n">
-        <v>67000</v>
+        <v>33000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>3722</v>
+        <v>1833</v>
       </c>
       <c r="T44" t="n">
         <v>18</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44410</v>
+        <v>44403</v>
       </c>
       <c r="E45" t="n">
         <v>13</v>
@@ -3960,20 +3960,20 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="N45" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="O45" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="P45" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>1778</v>
+        <v>1667</v>
       </c>
       <c r="T45" t="n">
         <v>18</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44410</v>
+        <v>44403</v>
       </c>
       <c r="E46" t="n">
         <v>13</v>
@@ -4040,20 +4040,20 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N46" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="O46" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="P46" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>1667</v>
+        <v>1556</v>
       </c>
       <c r="T46" t="n">
         <v>18</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44410</v>
+        <v>44305</v>
       </c>
       <c r="E47" t="n">
         <v>13</v>
@@ -4120,20 +4120,20 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="N47" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="O47" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="P47" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>1556</v>
+        <v>1667</v>
       </c>
       <c r="T47" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Maracuyá.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Maracuyá.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44466</v>
+        <v>44291</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N2" t="n">
-        <v>60000</v>
+        <v>25000</v>
       </c>
       <c r="O2" t="n">
-        <v>60000</v>
+        <v>25000</v>
       </c>
       <c r="P2" t="n">
-        <v>60000</v>
+        <v>25000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>3333</v>
+        <v>1389</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44466</v>
+        <v>44435</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="N3" t="n">
-        <v>58000</v>
+        <v>32000</v>
       </c>
       <c r="O3" t="n">
-        <v>58000</v>
+        <v>32000</v>
       </c>
       <c r="P3" t="n">
-        <v>58000</v>
+        <v>32000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>3222</v>
+        <v>1778</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44445</v>
+        <v>44522</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N4" t="n">
-        <v>32000</v>
+        <v>60000</v>
       </c>
       <c r="O4" t="n">
-        <v>32000</v>
+        <v>60000</v>
       </c>
       <c r="P4" t="n">
-        <v>32000</v>
+        <v>60000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1778</v>
+        <v>3333</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44452</v>
+        <v>44522</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M5" t="n">
         <v>20</v>
       </c>
       <c r="N5" t="n">
-        <v>36000</v>
+        <v>56000</v>
       </c>
       <c r="O5" t="n">
-        <v>36000</v>
+        <v>56000</v>
       </c>
       <c r="P5" t="n">
-        <v>36000</v>
+        <v>56000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -782,11 +782,11 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>2000</v>
+        <v>3111</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44435</v>
+        <v>44473</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="N6" t="n">
-        <v>32000</v>
+        <v>75000</v>
       </c>
       <c r="O6" t="n">
-        <v>32000</v>
+        <v>75000</v>
       </c>
       <c r="P6" t="n">
-        <v>32000</v>
+        <v>75000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1778</v>
+        <v>4167</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44270</v>
+        <v>44473</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="N7" t="n">
-        <v>38000</v>
+        <v>72000</v>
       </c>
       <c r="O7" t="n">
-        <v>38000</v>
+        <v>72000</v>
       </c>
       <c r="P7" t="n">
-        <v>38000</v>
+        <v>72000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>2111</v>
+        <v>4000</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44354</v>
+        <v>44473</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="N8" t="n">
-        <v>38000</v>
+        <v>67000</v>
       </c>
       <c r="O8" t="n">
-        <v>38000</v>
+        <v>67000</v>
       </c>
       <c r="P8" t="n">
-        <v>38000</v>
+        <v>67000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>2111</v>
+        <v>3722</v>
       </c>
       <c r="T8" t="n">
         <v>18</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44438</v>
+        <v>44305</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N9" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="O9" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="P9" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1778</v>
+        <v>1667</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44410</v>
+        <v>44284</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1160,20 +1160,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>15</v>
+        <v>120</v>
       </c>
       <c r="N10" t="n">
-        <v>32000</v>
+        <v>23000</v>
       </c>
       <c r="O10" t="n">
-        <v>32000</v>
+        <v>23000</v>
       </c>
       <c r="P10" t="n">
-        <v>32000</v>
+        <v>23000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1778</v>
+        <v>1278</v>
       </c>
       <c r="T10" t="n">
         <v>18</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44410</v>
+        <v>44319</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>25</v>
+        <v>140</v>
       </c>
       <c r="N11" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="O11" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="P11" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1667</v>
+        <v>1500</v>
       </c>
       <c r="T11" t="n">
         <v>18</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44410</v>
+        <v>44438</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="N12" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="O12" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="P12" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1556</v>
+        <v>1778</v>
       </c>
       <c r="T12" t="n">
         <v>18</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44417</v>
+        <v>44466</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1407,13 +1407,13 @@
         <v>15</v>
       </c>
       <c r="N13" t="n">
-        <v>28000</v>
+        <v>60000</v>
       </c>
       <c r="O13" t="n">
-        <v>28000</v>
+        <v>60000</v>
       </c>
       <c r="P13" t="n">
-        <v>28000</v>
+        <v>60000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1556</v>
+        <v>3333</v>
       </c>
       <c r="T13" t="n">
         <v>18</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44522</v>
+        <v>44466</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="N14" t="n">
-        <v>60000</v>
+        <v>58000</v>
       </c>
       <c r="O14" t="n">
-        <v>60000</v>
+        <v>58000</v>
       </c>
       <c r="P14" t="n">
-        <v>60000</v>
+        <v>58000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1502,11 +1502,11 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>3333</v>
+        <v>3222</v>
       </c>
       <c r="T14" t="n">
         <v>18</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44522</v>
+        <v>44312</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="N15" t="n">
-        <v>56000</v>
+        <v>26000</v>
       </c>
       <c r="O15" t="n">
-        <v>56000</v>
+        <v>26000</v>
       </c>
       <c r="P15" t="n">
-        <v>56000</v>
+        <v>26000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1582,11 +1582,11 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>3111</v>
+        <v>1444</v>
       </c>
       <c r="T15" t="n">
         <v>18</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44333</v>
+        <v>44529</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N16" t="n">
-        <v>38000</v>
+        <v>60000</v>
       </c>
       <c r="O16" t="n">
-        <v>38000</v>
+        <v>60000</v>
       </c>
       <c r="P16" t="n">
-        <v>38000</v>
+        <v>60000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>2111</v>
+        <v>3333</v>
       </c>
       <c r="T16" t="n">
         <v>18</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44333</v>
+        <v>44529</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N17" t="n">
-        <v>35000</v>
+        <v>58000</v>
       </c>
       <c r="O17" t="n">
-        <v>35000</v>
+        <v>58000</v>
       </c>
       <c r="P17" t="n">
-        <v>35000</v>
+        <v>58000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1944</v>
+        <v>3222</v>
       </c>
       <c r="T17" t="n">
         <v>18</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44277</v>
+        <v>44403</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1800,20 +1800,20 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="N18" t="n">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="O18" t="n">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="P18" t="n">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1667</v>
+        <v>1833</v>
       </c>
       <c r="T18" t="n">
         <v>18</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44277</v>
+        <v>44403</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="N19" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="O19" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="P19" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1556</v>
+        <v>1667</v>
       </c>
       <c r="T19" t="n">
         <v>18</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44326</v>
+        <v>44403</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1960,20 +1960,20 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N20" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="O20" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="P20" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1944</v>
+        <v>1556</v>
       </c>
       <c r="T20" t="n">
         <v>18</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44326</v>
+        <v>44431</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N21" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="O21" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="P21" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1667</v>
+        <v>1778</v>
       </c>
       <c r="T21" t="n">
         <v>18</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44326</v>
+        <v>44340</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2120,20 +2120,20 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="N22" t="n">
-        <v>28000</v>
+        <v>37000</v>
       </c>
       <c r="O22" t="n">
-        <v>28000</v>
+        <v>37000</v>
       </c>
       <c r="P22" t="n">
-        <v>28000</v>
+        <v>37000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1556</v>
+        <v>2056</v>
       </c>
       <c r="T22" t="n">
         <v>18</v>
@@ -2200,20 +2200,20 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="N23" t="n">
-        <v>37000</v>
+        <v>35000</v>
       </c>
       <c r="O23" t="n">
-        <v>37000</v>
+        <v>35000</v>
       </c>
       <c r="P23" t="n">
-        <v>37000</v>
+        <v>35000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>2056</v>
+        <v>1944</v>
       </c>
       <c r="T23" t="n">
         <v>18</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44340</v>
+        <v>44452</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2280,20 +2280,20 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M24" t="n">
         <v>20</v>
       </c>
       <c r="N24" t="n">
-        <v>35000</v>
+        <v>36000</v>
       </c>
       <c r="O24" t="n">
-        <v>35000</v>
+        <v>36000</v>
       </c>
       <c r="P24" t="n">
-        <v>35000</v>
+        <v>36000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1944</v>
+        <v>2000</v>
       </c>
       <c r="T24" t="n">
         <v>18</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44459</v>
+        <v>44270</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2360,11 +2360,11 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="N25" t="n">
         <v>38000</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44312</v>
+        <v>44396</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>160</v>
+        <v>35</v>
       </c>
       <c r="N26" t="n">
-        <v>26000</v>
+        <v>37000</v>
       </c>
       <c r="O26" t="n">
-        <v>26000</v>
+        <v>37000</v>
       </c>
       <c r="P26" t="n">
-        <v>26000</v>
+        <v>37000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1444</v>
+        <v>2056</v>
       </c>
       <c r="T26" t="n">
         <v>18</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44319</v>
+        <v>44396</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2520,20 +2520,20 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>140</v>
+        <v>15</v>
       </c>
       <c r="N27" t="n">
-        <v>27000</v>
+        <v>34000</v>
       </c>
       <c r="O27" t="n">
-        <v>27000</v>
+        <v>34000</v>
       </c>
       <c r="P27" t="n">
-        <v>27000</v>
+        <v>34000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1500</v>
+        <v>1889</v>
       </c>
       <c r="T27" t="n">
         <v>18</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44291</v>
+        <v>44424</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2607,13 +2607,13 @@
         <v>30</v>
       </c>
       <c r="N28" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="O28" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="P28" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1389</v>
+        <v>1778</v>
       </c>
       <c r="T28" t="n">
         <v>18</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44424</v>
+        <v>44277</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2684,16 +2684,16 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="N29" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="O29" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="P29" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1778</v>
+        <v>1667</v>
       </c>
       <c r="T29" t="n">
         <v>18</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44396</v>
+        <v>44277</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2760,20 +2760,20 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="N30" t="n">
-        <v>37000</v>
+        <v>28000</v>
       </c>
       <c r="O30" t="n">
-        <v>37000</v>
+        <v>28000</v>
       </c>
       <c r="P30" t="n">
-        <v>37000</v>
+        <v>28000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>2056</v>
+        <v>1556</v>
       </c>
       <c r="T30" t="n">
         <v>18</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44396</v>
+        <v>44410</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2840,20 +2840,20 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M31" t="n">
         <v>15</v>
       </c>
       <c r="N31" t="n">
-        <v>34000</v>
+        <v>32000</v>
       </c>
       <c r="O31" t="n">
-        <v>34000</v>
+        <v>32000</v>
       </c>
       <c r="P31" t="n">
-        <v>34000</v>
+        <v>32000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1889</v>
+        <v>1778</v>
       </c>
       <c r="T31" t="n">
         <v>18</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44473</v>
+        <v>44410</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2920,20 +2920,20 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="N32" t="n">
-        <v>75000</v>
+        <v>30000</v>
       </c>
       <c r="O32" t="n">
-        <v>75000</v>
+        <v>30000</v>
       </c>
       <c r="P32" t="n">
-        <v>75000</v>
+        <v>30000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>4167</v>
+        <v>1667</v>
       </c>
       <c r="T32" t="n">
         <v>18</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44473</v>
+        <v>44410</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3000,20 +3000,20 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="N33" t="n">
-        <v>72000</v>
+        <v>28000</v>
       </c>
       <c r="O33" t="n">
-        <v>72000</v>
+        <v>28000</v>
       </c>
       <c r="P33" t="n">
-        <v>72000</v>
+        <v>28000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>4000</v>
+        <v>1556</v>
       </c>
       <c r="T33" t="n">
         <v>18</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44473</v>
+        <v>44389</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3080,20 +3080,20 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="N34" t="n">
-        <v>67000</v>
+        <v>29000</v>
       </c>
       <c r="O34" t="n">
-        <v>67000</v>
+        <v>29000</v>
       </c>
       <c r="P34" t="n">
-        <v>67000</v>
+        <v>29000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>3722</v>
+        <v>1611</v>
       </c>
       <c r="T34" t="n">
         <v>18</v>
@@ -3160,20 +3160,20 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="N35" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="O35" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="P35" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1611</v>
+        <v>1500</v>
       </c>
       <c r="T35" t="n">
         <v>18</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44389</v>
+        <v>44333</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3240,20 +3240,20 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N36" t="n">
-        <v>27000</v>
+        <v>38000</v>
       </c>
       <c r="O36" t="n">
-        <v>27000</v>
+        <v>38000</v>
       </c>
       <c r="P36" t="n">
-        <v>27000</v>
+        <v>38000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1500</v>
+        <v>2111</v>
       </c>
       <c r="T36" t="n">
         <v>18</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44431</v>
+        <v>44333</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3320,20 +3320,20 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N37" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="O37" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="P37" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1778</v>
+        <v>1944</v>
       </c>
       <c r="T37" t="n">
         <v>18</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44382</v>
+        <v>44354</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3400,20 +3400,20 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="N38" t="n">
-        <v>35000</v>
+        <v>38000</v>
       </c>
       <c r="O38" t="n">
-        <v>35000</v>
+        <v>38000</v>
       </c>
       <c r="P38" t="n">
-        <v>35000</v>
+        <v>38000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>1944</v>
+        <v>2111</v>
       </c>
       <c r="T38" t="n">
         <v>18</v>
@@ -3480,20 +3480,20 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N39" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="O39" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="P39" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1778</v>
+        <v>1944</v>
       </c>
       <c r="T39" t="n">
         <v>18</v>
@@ -3560,20 +3560,20 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N40" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="O40" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="P40" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>1667</v>
+        <v>1778</v>
       </c>
       <c r="T40" t="n">
         <v>18</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44529</v>
+        <v>44382</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3640,20 +3640,20 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N41" t="n">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="O41" t="n">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="P41" t="n">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>3333</v>
+        <v>1667</v>
       </c>
       <c r="T41" t="n">
         <v>18</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44529</v>
+        <v>44459</v>
       </c>
       <c r="E42" t="n">
         <v>13</v>
@@ -3724,16 +3724,16 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N42" t="n">
-        <v>58000</v>
+        <v>38000</v>
       </c>
       <c r="O42" t="n">
-        <v>58000</v>
+        <v>38000</v>
       </c>
       <c r="P42" t="n">
-        <v>58000</v>
+        <v>38000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>3222</v>
+        <v>2111</v>
       </c>
       <c r="T42" t="n">
         <v>18</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44284</v>
+        <v>44445</v>
       </c>
       <c r="E43" t="n">
         <v>13</v>
@@ -3804,16 +3804,16 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="N43" t="n">
-        <v>23000</v>
+        <v>32000</v>
       </c>
       <c r="O43" t="n">
-        <v>23000</v>
+        <v>32000</v>
       </c>
       <c r="P43" t="n">
-        <v>23000</v>
+        <v>32000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>1278</v>
+        <v>1778</v>
       </c>
       <c r="T43" t="n">
         <v>18</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44403</v>
+        <v>44417</v>
       </c>
       <c r="E44" t="n">
         <v>13</v>
@@ -3880,20 +3880,20 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N44" t="n">
-        <v>33000</v>
+        <v>28000</v>
       </c>
       <c r="O44" t="n">
-        <v>33000</v>
+        <v>28000</v>
       </c>
       <c r="P44" t="n">
-        <v>33000</v>
+        <v>28000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>1833</v>
+        <v>1556</v>
       </c>
       <c r="T44" t="n">
         <v>18</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44403</v>
+        <v>44326</v>
       </c>
       <c r="E45" t="n">
         <v>13</v>
@@ -3960,20 +3960,20 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="N45" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="O45" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="P45" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>1667</v>
+        <v>1944</v>
       </c>
       <c r="T45" t="n">
         <v>18</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44403</v>
+        <v>44326</v>
       </c>
       <c r="E46" t="n">
         <v>13</v>
@@ -4040,20 +4040,20 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N46" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="O46" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="P46" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>1556</v>
+        <v>1667</v>
       </c>
       <c r="T46" t="n">
         <v>18</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44305</v>
+        <v>44326</v>
       </c>
       <c r="E47" t="n">
         <v>13</v>
@@ -4120,20 +4120,20 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N47" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="O47" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="P47" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>1667</v>
+        <v>1556</v>
       </c>
       <c r="T47" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Maracuyá.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Maracuyá.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44291</v>
+        <v>44438</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -527,13 +527,13 @@
         <v>30</v>
       </c>
       <c r="N2" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="O2" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="P2" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1389</v>
+        <v>1778</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44435</v>
+        <v>44312</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>30</v>
+        <v>160</v>
       </c>
       <c r="N3" t="n">
-        <v>32000</v>
+        <v>26000</v>
       </c>
       <c r="O3" t="n">
-        <v>32000</v>
+        <v>26000</v>
       </c>
       <c r="P3" t="n">
-        <v>32000</v>
+        <v>26000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1778</v>
+        <v>1444</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44522</v>
+        <v>44305</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -687,13 +687,13 @@
         <v>25</v>
       </c>
       <c r="N4" t="n">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="O4" t="n">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="P4" t="n">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>3333</v>
+        <v>1667</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44522</v>
+        <v>44382</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M5" t="n">
         <v>20</v>
       </c>
       <c r="N5" t="n">
-        <v>56000</v>
+        <v>35000</v>
       </c>
       <c r="O5" t="n">
-        <v>56000</v>
+        <v>35000</v>
       </c>
       <c r="P5" t="n">
-        <v>56000</v>
+        <v>35000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -782,11 +782,11 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>3111</v>
+        <v>1944</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44473</v>
+        <v>44382</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="N6" t="n">
-        <v>75000</v>
+        <v>32000</v>
       </c>
       <c r="O6" t="n">
-        <v>75000</v>
+        <v>32000</v>
       </c>
       <c r="P6" t="n">
-        <v>75000</v>
+        <v>32000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>4167</v>
+        <v>1778</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44473</v>
+        <v>44382</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N7" t="n">
-        <v>72000</v>
+        <v>30000</v>
       </c>
       <c r="O7" t="n">
-        <v>72000</v>
+        <v>30000</v>
       </c>
       <c r="P7" t="n">
-        <v>72000</v>
+        <v>30000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>4000</v>
+        <v>1667</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44473</v>
+        <v>44270</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="N8" t="n">
-        <v>67000</v>
+        <v>38000</v>
       </c>
       <c r="O8" t="n">
-        <v>67000</v>
+        <v>38000</v>
       </c>
       <c r="P8" t="n">
-        <v>67000</v>
+        <v>38000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>3722</v>
+        <v>2111</v>
       </c>
       <c r="T8" t="n">
         <v>18</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44305</v>
+        <v>44333</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N9" t="n">
-        <v>30000</v>
+        <v>38000</v>
       </c>
       <c r="O9" t="n">
-        <v>30000</v>
+        <v>38000</v>
       </c>
       <c r="P9" t="n">
-        <v>30000</v>
+        <v>38000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1667</v>
+        <v>2111</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44284</v>
+        <v>44333</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1160,20 +1160,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>120</v>
+        <v>25</v>
       </c>
       <c r="N10" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="O10" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="P10" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1278</v>
+        <v>1944</v>
       </c>
       <c r="T10" t="n">
         <v>18</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44319</v>
+        <v>44389</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>140</v>
+        <v>35</v>
       </c>
       <c r="N11" t="n">
-        <v>27000</v>
+        <v>29000</v>
       </c>
       <c r="O11" t="n">
-        <v>27000</v>
+        <v>29000</v>
       </c>
       <c r="P11" t="n">
-        <v>27000</v>
+        <v>29000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1500</v>
+        <v>1611</v>
       </c>
       <c r="T11" t="n">
         <v>18</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44438</v>
+        <v>44389</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N12" t="n">
-        <v>32000</v>
+        <v>27000</v>
       </c>
       <c r="O12" t="n">
-        <v>32000</v>
+        <v>27000</v>
       </c>
       <c r="P12" t="n">
-        <v>32000</v>
+        <v>27000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1778</v>
+        <v>1500</v>
       </c>
       <c r="T12" t="n">
         <v>18</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44466</v>
+        <v>44473</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N13" t="n">
-        <v>60000</v>
+        <v>75000</v>
       </c>
       <c r="O13" t="n">
-        <v>60000</v>
+        <v>75000</v>
       </c>
       <c r="P13" t="n">
-        <v>60000</v>
+        <v>75000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>3333</v>
+        <v>4167</v>
       </c>
       <c r="T13" t="n">
         <v>18</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44466</v>
+        <v>44473</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="N14" t="n">
-        <v>58000</v>
+        <v>72000</v>
       </c>
       <c r="O14" t="n">
-        <v>58000</v>
+        <v>72000</v>
       </c>
       <c r="P14" t="n">
-        <v>58000</v>
+        <v>72000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>3222</v>
+        <v>4000</v>
       </c>
       <c r="T14" t="n">
         <v>18</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44312</v>
+        <v>44473</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>160</v>
+        <v>5</v>
       </c>
       <c r="N15" t="n">
-        <v>26000</v>
+        <v>67000</v>
       </c>
       <c r="O15" t="n">
-        <v>26000</v>
+        <v>67000</v>
       </c>
       <c r="P15" t="n">
-        <v>26000</v>
+        <v>67000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1444</v>
+        <v>3722</v>
       </c>
       <c r="T15" t="n">
         <v>18</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44529</v>
+        <v>44445</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N16" t="n">
-        <v>60000</v>
+        <v>32000</v>
       </c>
       <c r="O16" t="n">
-        <v>60000</v>
+        <v>32000</v>
       </c>
       <c r="P16" t="n">
-        <v>60000</v>
+        <v>32000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>3333</v>
+        <v>1778</v>
       </c>
       <c r="T16" t="n">
         <v>18</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44529</v>
+        <v>44319</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="N17" t="n">
-        <v>58000</v>
+        <v>27000</v>
       </c>
       <c r="O17" t="n">
-        <v>58000</v>
+        <v>27000</v>
       </c>
       <c r="P17" t="n">
-        <v>58000</v>
+        <v>27000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>3222</v>
+        <v>1500</v>
       </c>
       <c r="T17" t="n">
         <v>18</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44403</v>
+        <v>44459</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1800,20 +1800,20 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M18" t="n">
         <v>25</v>
       </c>
       <c r="N18" t="n">
-        <v>33000</v>
+        <v>38000</v>
       </c>
       <c r="O18" t="n">
-        <v>33000</v>
+        <v>38000</v>
       </c>
       <c r="P18" t="n">
-        <v>33000</v>
+        <v>38000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1833</v>
+        <v>2111</v>
       </c>
       <c r="T18" t="n">
         <v>18</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44403</v>
+        <v>44466</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="N19" t="n">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="O19" t="n">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="P19" t="n">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1667</v>
+        <v>3333</v>
       </c>
       <c r="T19" t="n">
         <v>18</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44403</v>
+        <v>44466</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N20" t="n">
-        <v>28000</v>
+        <v>58000</v>
       </c>
       <c r="O20" t="n">
-        <v>28000</v>
+        <v>58000</v>
       </c>
       <c r="P20" t="n">
-        <v>28000</v>
+        <v>58000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1556</v>
+        <v>3222</v>
       </c>
       <c r="T20" t="n">
         <v>18</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44431</v>
+        <v>44326</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2040,20 +2040,20 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="N21" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="O21" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="P21" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1778</v>
+        <v>1944</v>
       </c>
       <c r="T21" t="n">
         <v>18</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44340</v>
+        <v>44326</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="N22" t="n">
-        <v>37000</v>
+        <v>30000</v>
       </c>
       <c r="O22" t="n">
-        <v>37000</v>
+        <v>30000</v>
       </c>
       <c r="P22" t="n">
-        <v>37000</v>
+        <v>30000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>2056</v>
+        <v>1667</v>
       </c>
       <c r="T22" t="n">
         <v>18</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44340</v>
+        <v>44326</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2207,13 +2207,13 @@
         <v>20</v>
       </c>
       <c r="N23" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="O23" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="P23" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1944</v>
+        <v>1556</v>
       </c>
       <c r="T23" t="n">
         <v>18</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44452</v>
+        <v>44340</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="N24" t="n">
-        <v>36000</v>
+        <v>37000</v>
       </c>
       <c r="O24" t="n">
-        <v>36000</v>
+        <v>37000</v>
       </c>
       <c r="P24" t="n">
-        <v>36000</v>
+        <v>37000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>2000</v>
+        <v>2056</v>
       </c>
       <c r="T24" t="n">
         <v>18</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44270</v>
+        <v>44340</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2360,20 +2360,20 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="N25" t="n">
-        <v>38000</v>
+        <v>35000</v>
       </c>
       <c r="O25" t="n">
-        <v>38000</v>
+        <v>35000</v>
       </c>
       <c r="P25" t="n">
-        <v>38000</v>
+        <v>35000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>2111</v>
+        <v>1944</v>
       </c>
       <c r="T25" t="n">
         <v>18</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44396</v>
+        <v>44452</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="N26" t="n">
-        <v>37000</v>
+        <v>36000</v>
       </c>
       <c r="O26" t="n">
-        <v>37000</v>
+        <v>36000</v>
       </c>
       <c r="P26" t="n">
-        <v>37000</v>
+        <v>36000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>2056</v>
+        <v>2000</v>
       </c>
       <c r="T26" t="n">
         <v>18</v>
@@ -2520,20 +2520,20 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="N27" t="n">
-        <v>34000</v>
+        <v>37000</v>
       </c>
       <c r="O27" t="n">
-        <v>34000</v>
+        <v>37000</v>
       </c>
       <c r="P27" t="n">
-        <v>34000</v>
+        <v>37000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1889</v>
+        <v>2056</v>
       </c>
       <c r="T27" t="n">
         <v>18</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44424</v>
+        <v>44396</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2600,20 +2600,20 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N28" t="n">
-        <v>32000</v>
+        <v>34000</v>
       </c>
       <c r="O28" t="n">
-        <v>32000</v>
+        <v>34000</v>
       </c>
       <c r="P28" t="n">
-        <v>32000</v>
+        <v>34000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1778</v>
+        <v>1889</v>
       </c>
       <c r="T28" t="n">
         <v>18</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44277</v>
+        <v>44435</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2684,16 +2684,16 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="N29" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="O29" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="P29" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1667</v>
+        <v>1778</v>
       </c>
       <c r="T29" t="n">
         <v>18</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44277</v>
+        <v>44410</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2760,20 +2760,20 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="N30" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="O30" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="P30" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1556</v>
+        <v>1778</v>
       </c>
       <c r="T30" t="n">
         <v>18</v>
@@ -2840,20 +2840,20 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N31" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="O31" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="P31" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1778</v>
+        <v>1667</v>
       </c>
       <c r="T31" t="n">
         <v>18</v>
@@ -2920,20 +2920,20 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="N32" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="O32" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="P32" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1667</v>
+        <v>1556</v>
       </c>
       <c r="T32" t="n">
         <v>18</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44410</v>
+        <v>44284</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3000,20 +3000,20 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="N33" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="O33" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="P33" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1556</v>
+        <v>1278</v>
       </c>
       <c r="T33" t="n">
         <v>18</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44389</v>
+        <v>44424</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3084,16 +3084,16 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N34" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="O34" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="P34" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1611</v>
+        <v>1778</v>
       </c>
       <c r="T34" t="n">
         <v>18</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44389</v>
+        <v>44417</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3160,20 +3160,20 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N35" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="O35" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="P35" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1500</v>
+        <v>1556</v>
       </c>
       <c r="T35" t="n">
         <v>18</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44333</v>
+        <v>44529</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3240,20 +3240,20 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N36" t="n">
-        <v>38000</v>
+        <v>60000</v>
       </c>
       <c r="O36" t="n">
-        <v>38000</v>
+        <v>60000</v>
       </c>
       <c r="P36" t="n">
-        <v>38000</v>
+        <v>60000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>2111</v>
+        <v>3333</v>
       </c>
       <c r="T36" t="n">
         <v>18</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44333</v>
+        <v>44529</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3320,20 +3320,20 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N37" t="n">
-        <v>35000</v>
+        <v>58000</v>
       </c>
       <c r="O37" t="n">
-        <v>35000</v>
+        <v>58000</v>
       </c>
       <c r="P37" t="n">
-        <v>35000</v>
+        <v>58000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1944</v>
+        <v>3222</v>
       </c>
       <c r="T37" t="n">
         <v>18</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44354</v>
+        <v>44277</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3404,16 +3404,16 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="N38" t="n">
-        <v>38000</v>
+        <v>30000</v>
       </c>
       <c r="O38" t="n">
-        <v>38000</v>
+        <v>30000</v>
       </c>
       <c r="P38" t="n">
-        <v>38000</v>
+        <v>30000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>2111</v>
+        <v>1667</v>
       </c>
       <c r="T38" t="n">
         <v>18</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44382</v>
+        <v>44277</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3480,20 +3480,20 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="N39" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="O39" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="P39" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1944</v>
+        <v>1556</v>
       </c>
       <c r="T39" t="n">
         <v>18</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44382</v>
+        <v>44354</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3564,16 +3564,16 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N40" t="n">
-        <v>32000</v>
+        <v>38000</v>
       </c>
       <c r="O40" t="n">
-        <v>32000</v>
+        <v>38000</v>
       </c>
       <c r="P40" t="n">
-        <v>32000</v>
+        <v>38000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>1778</v>
+        <v>2111</v>
       </c>
       <c r="T40" t="n">
         <v>18</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44382</v>
+        <v>44431</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3640,20 +3640,20 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N41" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="O41" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="P41" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>1667</v>
+        <v>1778</v>
       </c>
       <c r="T41" t="n">
         <v>18</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44459</v>
+        <v>44522</v>
       </c>
       <c r="E42" t="n">
         <v>13</v>
@@ -3727,13 +3727,13 @@
         <v>25</v>
       </c>
       <c r="N42" t="n">
-        <v>38000</v>
+        <v>60000</v>
       </c>
       <c r="O42" t="n">
-        <v>38000</v>
+        <v>60000</v>
       </c>
       <c r="P42" t="n">
-        <v>38000</v>
+        <v>60000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3742,11 +3742,11 @@
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="S42" t="n">
-        <v>2111</v>
+        <v>3333</v>
       </c>
       <c r="T42" t="n">
         <v>18</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44445</v>
+        <v>44522</v>
       </c>
       <c r="E43" t="n">
         <v>13</v>
@@ -3800,20 +3800,20 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N43" t="n">
-        <v>32000</v>
+        <v>56000</v>
       </c>
       <c r="O43" t="n">
-        <v>32000</v>
+        <v>56000</v>
       </c>
       <c r="P43" t="n">
-        <v>32000</v>
+        <v>56000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3822,11 +3822,11 @@
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="S43" t="n">
-        <v>1778</v>
+        <v>3111</v>
       </c>
       <c r="T43" t="n">
         <v>18</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44417</v>
+        <v>44291</v>
       </c>
       <c r="E44" t="n">
         <v>13</v>
@@ -3884,16 +3884,16 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N44" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="O44" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="P44" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>1556</v>
+        <v>1389</v>
       </c>
       <c r="T44" t="n">
         <v>18</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44326</v>
+        <v>44403</v>
       </c>
       <c r="E45" t="n">
         <v>13</v>
@@ -3964,16 +3964,16 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="N45" t="n">
-        <v>35000</v>
+        <v>33000</v>
       </c>
       <c r="O45" t="n">
-        <v>35000</v>
+        <v>33000</v>
       </c>
       <c r="P45" t="n">
-        <v>35000</v>
+        <v>33000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>1944</v>
+        <v>1833</v>
       </c>
       <c r="T45" t="n">
         <v>18</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44326</v>
+        <v>44403</v>
       </c>
       <c r="E46" t="n">
         <v>13</v>
@@ -4044,7 +4044,7 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="N46" t="n">
         <v>30000</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44326</v>
+        <v>44403</v>
       </c>
       <c r="E47" t="n">
         <v>13</v>
@@ -4124,7 +4124,7 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N47" t="n">
         <v>28000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Maracuyá.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Maracuyá.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44438</v>
+        <v>44354</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N2" t="n">
-        <v>32000</v>
+        <v>38000</v>
       </c>
       <c r="O2" t="n">
-        <v>32000</v>
+        <v>38000</v>
       </c>
       <c r="P2" t="n">
-        <v>32000</v>
+        <v>38000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1778</v>
+        <v>2111</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44312</v>
+        <v>44284</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="N3" t="n">
-        <v>26000</v>
+        <v>23000</v>
       </c>
       <c r="O3" t="n">
-        <v>26000</v>
+        <v>23000</v>
       </c>
       <c r="P3" t="n">
-        <v>26000</v>
+        <v>23000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1444</v>
+        <v>1278</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44305</v>
+        <v>44403</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M4" t="n">
         <v>25</v>
       </c>
       <c r="N4" t="n">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="O4" t="n">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="P4" t="n">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1667</v>
+        <v>1833</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44382</v>
+        <v>44403</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="N5" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="O5" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="P5" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1944</v>
+        <v>1667</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44382</v>
+        <v>44403</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N6" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="O6" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="P6" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1778</v>
+        <v>1556</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44382</v>
+        <v>44277</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -920,11 +920,11 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="N7" t="n">
         <v>30000</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44270</v>
+        <v>44277</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N8" t="n">
-        <v>38000</v>
+        <v>28000</v>
       </c>
       <c r="O8" t="n">
-        <v>38000</v>
+        <v>28000</v>
       </c>
       <c r="P8" t="n">
-        <v>38000</v>
+        <v>28000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>2111</v>
+        <v>1556</v>
       </c>
       <c r="T8" t="n">
         <v>18</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44333</v>
+        <v>44438</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1087,13 +1087,13 @@
         <v>30</v>
       </c>
       <c r="N9" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="O9" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="P9" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>2111</v>
+        <v>1778</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44333</v>
+        <v>44459</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1160,20 +1160,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M10" t="n">
         <v>25</v>
       </c>
       <c r="N10" t="n">
-        <v>35000</v>
+        <v>38000</v>
       </c>
       <c r="O10" t="n">
-        <v>35000</v>
+        <v>38000</v>
       </c>
       <c r="P10" t="n">
-        <v>35000</v>
+        <v>38000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1944</v>
+        <v>2111</v>
       </c>
       <c r="T10" t="n">
         <v>18</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44389</v>
+        <v>44291</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N11" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="O11" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="P11" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1611</v>
+        <v>1389</v>
       </c>
       <c r="T11" t="n">
         <v>18</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44389</v>
+        <v>44326</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N12" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="O12" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="P12" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1500</v>
+        <v>1944</v>
       </c>
       <c r="T12" t="n">
         <v>18</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44473</v>
+        <v>44326</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="N13" t="n">
-        <v>75000</v>
+        <v>30000</v>
       </c>
       <c r="O13" t="n">
-        <v>75000</v>
+        <v>30000</v>
       </c>
       <c r="P13" t="n">
-        <v>75000</v>
+        <v>30000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>4167</v>
+        <v>1667</v>
       </c>
       <c r="T13" t="n">
         <v>18</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44473</v>
+        <v>44326</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N14" t="n">
-        <v>72000</v>
+        <v>28000</v>
       </c>
       <c r="O14" t="n">
-        <v>72000</v>
+        <v>28000</v>
       </c>
       <c r="P14" t="n">
-        <v>72000</v>
+        <v>28000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>4000</v>
+        <v>1556</v>
       </c>
       <c r="T14" t="n">
         <v>18</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44473</v>
+        <v>44424</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="N15" t="n">
-        <v>67000</v>
+        <v>32000</v>
       </c>
       <c r="O15" t="n">
-        <v>67000</v>
+        <v>32000</v>
       </c>
       <c r="P15" t="n">
-        <v>67000</v>
+        <v>32000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>3722</v>
+        <v>1778</v>
       </c>
       <c r="T15" t="n">
         <v>18</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44445</v>
+        <v>44431</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44319</v>
+        <v>44445</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>140</v>
+        <v>30</v>
       </c>
       <c r="N17" t="n">
-        <v>27000</v>
+        <v>32000</v>
       </c>
       <c r="O17" t="n">
-        <v>27000</v>
+        <v>32000</v>
       </c>
       <c r="P17" t="n">
-        <v>27000</v>
+        <v>32000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1500</v>
+        <v>1778</v>
       </c>
       <c r="T17" t="n">
         <v>18</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44459</v>
+        <v>44270</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1800,11 +1800,11 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="N18" t="n">
         <v>38000</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44466</v>
+        <v>44319</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>15</v>
+        <v>140</v>
       </c>
       <c r="N19" t="n">
-        <v>60000</v>
+        <v>27000</v>
       </c>
       <c r="O19" t="n">
-        <v>60000</v>
+        <v>27000</v>
       </c>
       <c r="P19" t="n">
-        <v>60000</v>
+        <v>27000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>3333</v>
+        <v>1500</v>
       </c>
       <c r="T19" t="n">
         <v>18</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44466</v>
+        <v>44312</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1960,20 +1960,20 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="N20" t="n">
-        <v>58000</v>
+        <v>26000</v>
       </c>
       <c r="O20" t="n">
-        <v>58000</v>
+        <v>26000</v>
       </c>
       <c r="P20" t="n">
-        <v>58000</v>
+        <v>26000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>3222</v>
+        <v>1444</v>
       </c>
       <c r="T20" t="n">
         <v>18</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44326</v>
+        <v>44466</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2040,20 +2040,20 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N21" t="n">
-        <v>35000</v>
+        <v>60000</v>
       </c>
       <c r="O21" t="n">
-        <v>35000</v>
+        <v>60000</v>
       </c>
       <c r="P21" t="n">
-        <v>35000</v>
+        <v>60000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1944</v>
+        <v>3333</v>
       </c>
       <c r="T21" t="n">
         <v>18</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44326</v>
+        <v>44466</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2120,20 +2120,20 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="N22" t="n">
-        <v>30000</v>
+        <v>58000</v>
       </c>
       <c r="O22" t="n">
-        <v>30000</v>
+        <v>58000</v>
       </c>
       <c r="P22" t="n">
-        <v>30000</v>
+        <v>58000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1667</v>
+        <v>3222</v>
       </c>
       <c r="T22" t="n">
         <v>18</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44326</v>
+        <v>44333</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2200,20 +2200,20 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N23" t="n">
-        <v>28000</v>
+        <v>38000</v>
       </c>
       <c r="O23" t="n">
-        <v>28000</v>
+        <v>38000</v>
       </c>
       <c r="P23" t="n">
-        <v>28000</v>
+        <v>38000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1556</v>
+        <v>2111</v>
       </c>
       <c r="T23" t="n">
         <v>18</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44340</v>
+        <v>44333</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2280,20 +2280,20 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="N24" t="n">
-        <v>37000</v>
+        <v>35000</v>
       </c>
       <c r="O24" t="n">
-        <v>37000</v>
+        <v>35000</v>
       </c>
       <c r="P24" t="n">
-        <v>37000</v>
+        <v>35000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>2056</v>
+        <v>1944</v>
       </c>
       <c r="T24" t="n">
         <v>18</v>
@@ -2360,20 +2360,20 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="N25" t="n">
-        <v>35000</v>
+        <v>37000</v>
       </c>
       <c r="O25" t="n">
-        <v>35000</v>
+        <v>37000</v>
       </c>
       <c r="P25" t="n">
-        <v>35000</v>
+        <v>37000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1944</v>
+        <v>2056</v>
       </c>
       <c r="T25" t="n">
         <v>18</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44452</v>
+        <v>44340</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2440,20 +2440,20 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M26" t="n">
         <v>20</v>
       </c>
       <c r="N26" t="n">
-        <v>36000</v>
+        <v>35000</v>
       </c>
       <c r="O26" t="n">
-        <v>36000</v>
+        <v>35000</v>
       </c>
       <c r="P26" t="n">
-        <v>36000</v>
+        <v>35000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>2000</v>
+        <v>1944</v>
       </c>
       <c r="T26" t="n">
         <v>18</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44396</v>
+        <v>44417</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2524,16 +2524,16 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="N27" t="n">
-        <v>37000</v>
+        <v>28000</v>
       </c>
       <c r="O27" t="n">
-        <v>37000</v>
+        <v>28000</v>
       </c>
       <c r="P27" t="n">
-        <v>37000</v>
+        <v>28000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>2056</v>
+        <v>1556</v>
       </c>
       <c r="T27" t="n">
         <v>18</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44396</v>
+        <v>44410</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2600,20 +2600,20 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M28" t="n">
         <v>15</v>
       </c>
       <c r="N28" t="n">
-        <v>34000</v>
+        <v>32000</v>
       </c>
       <c r="O28" t="n">
-        <v>34000</v>
+        <v>32000</v>
       </c>
       <c r="P28" t="n">
-        <v>34000</v>
+        <v>32000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1889</v>
+        <v>1778</v>
       </c>
       <c r="T28" t="n">
         <v>18</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44435</v>
+        <v>44410</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2684,16 +2684,16 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N29" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="O29" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="P29" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1778</v>
+        <v>1667</v>
       </c>
       <c r="T29" t="n">
         <v>18</v>
@@ -2760,20 +2760,20 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N30" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="O30" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="P30" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1778</v>
+        <v>1556</v>
       </c>
       <c r="T30" t="n">
         <v>18</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44410</v>
+        <v>44382</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2840,20 +2840,20 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N31" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="O31" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="P31" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1667</v>
+        <v>1944</v>
       </c>
       <c r="T31" t="n">
         <v>18</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44410</v>
+        <v>44382</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2920,20 +2920,20 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="N32" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="O32" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="P32" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1556</v>
+        <v>1778</v>
       </c>
       <c r="T32" t="n">
         <v>18</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44284</v>
+        <v>44382</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3000,20 +3000,20 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="N33" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="O33" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="P33" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1278</v>
+        <v>1667</v>
       </c>
       <c r="T33" t="n">
         <v>18</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44424</v>
+        <v>44435</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44417</v>
+        <v>44529</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3160,20 +3160,20 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N35" t="n">
-        <v>28000</v>
+        <v>60000</v>
       </c>
       <c r="O35" t="n">
-        <v>28000</v>
+        <v>60000</v>
       </c>
       <c r="P35" t="n">
-        <v>28000</v>
+        <v>60000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1556</v>
+        <v>3333</v>
       </c>
       <c r="T35" t="n">
         <v>18</v>
@@ -3240,20 +3240,20 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="N36" t="n">
-        <v>60000</v>
+        <v>58000</v>
       </c>
       <c r="O36" t="n">
-        <v>60000</v>
+        <v>58000</v>
       </c>
       <c r="P36" t="n">
-        <v>60000</v>
+        <v>58000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>3333</v>
+        <v>3222</v>
       </c>
       <c r="T36" t="n">
         <v>18</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44529</v>
+        <v>44389</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3324,16 +3324,16 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="N37" t="n">
-        <v>58000</v>
+        <v>29000</v>
       </c>
       <c r="O37" t="n">
-        <v>58000</v>
+        <v>29000</v>
       </c>
       <c r="P37" t="n">
-        <v>58000</v>
+        <v>29000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>3222</v>
+        <v>1611</v>
       </c>
       <c r="T37" t="n">
         <v>18</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44277</v>
+        <v>44389</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3400,20 +3400,20 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="N38" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="O38" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="P38" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>1667</v>
+        <v>1500</v>
       </c>
       <c r="T38" t="n">
         <v>18</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44277</v>
+        <v>44452</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3480,20 +3480,20 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="N39" t="n">
-        <v>28000</v>
+        <v>36000</v>
       </c>
       <c r="O39" t="n">
-        <v>28000</v>
+        <v>36000</v>
       </c>
       <c r="P39" t="n">
-        <v>28000</v>
+        <v>36000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1556</v>
+        <v>2000</v>
       </c>
       <c r="T39" t="n">
         <v>18</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44354</v>
+        <v>44473</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3560,20 +3560,20 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="N40" t="n">
-        <v>38000</v>
+        <v>75000</v>
       </c>
       <c r="O40" t="n">
-        <v>38000</v>
+        <v>75000</v>
       </c>
       <c r="P40" t="n">
-        <v>38000</v>
+        <v>75000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>2111</v>
+        <v>4167</v>
       </c>
       <c r="T40" t="n">
         <v>18</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44431</v>
+        <v>44473</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3644,16 +3644,16 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N41" t="n">
-        <v>32000</v>
+        <v>72000</v>
       </c>
       <c r="O41" t="n">
-        <v>32000</v>
+        <v>72000</v>
       </c>
       <c r="P41" t="n">
-        <v>32000</v>
+        <v>72000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>1778</v>
+        <v>4000</v>
       </c>
       <c r="T41" t="n">
         <v>18</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44522</v>
+        <v>44473</v>
       </c>
       <c r="E42" t="n">
         <v>13</v>
@@ -3720,20 +3720,20 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="N42" t="n">
-        <v>60000</v>
+        <v>67000</v>
       </c>
       <c r="O42" t="n">
-        <v>60000</v>
+        <v>67000</v>
       </c>
       <c r="P42" t="n">
-        <v>60000</v>
+        <v>67000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3742,11 +3742,11 @@
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S42" t="n">
-        <v>3333</v>
+        <v>3722</v>
       </c>
       <c r="T42" t="n">
         <v>18</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44522</v>
+        <v>44305</v>
       </c>
       <c r="E43" t="n">
         <v>13</v>
@@ -3800,20 +3800,20 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N43" t="n">
-        <v>56000</v>
+        <v>30000</v>
       </c>
       <c r="O43" t="n">
-        <v>56000</v>
+        <v>30000</v>
       </c>
       <c r="P43" t="n">
-        <v>56000</v>
+        <v>30000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3822,11 +3822,11 @@
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S43" t="n">
-        <v>3111</v>
+        <v>1667</v>
       </c>
       <c r="T43" t="n">
         <v>18</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44291</v>
+        <v>44396</v>
       </c>
       <c r="E44" t="n">
         <v>13</v>
@@ -3884,16 +3884,16 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N44" t="n">
-        <v>25000</v>
+        <v>37000</v>
       </c>
       <c r="O44" t="n">
-        <v>25000</v>
+        <v>37000</v>
       </c>
       <c r="P44" t="n">
-        <v>25000</v>
+        <v>37000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>1389</v>
+        <v>2056</v>
       </c>
       <c r="T44" t="n">
         <v>18</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44403</v>
+        <v>44396</v>
       </c>
       <c r="E45" t="n">
         <v>13</v>
@@ -3960,20 +3960,20 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N45" t="n">
-        <v>33000</v>
+        <v>34000</v>
       </c>
       <c r="O45" t="n">
-        <v>33000</v>
+        <v>34000</v>
       </c>
       <c r="P45" t="n">
-        <v>33000</v>
+        <v>34000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>1833</v>
+        <v>1889</v>
       </c>
       <c r="T45" t="n">
         <v>18</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44403</v>
+        <v>44522</v>
       </c>
       <c r="E46" t="n">
         <v>13</v>
@@ -4044,16 +4044,16 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="N46" t="n">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="O46" t="n">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="P46" t="n">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4062,11 +4062,11 @@
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="S46" t="n">
-        <v>1667</v>
+        <v>3333</v>
       </c>
       <c r="T46" t="n">
         <v>18</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44403</v>
+        <v>44522</v>
       </c>
       <c r="E47" t="n">
         <v>13</v>
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N47" t="n">
-        <v>28000</v>
+        <v>56000</v>
       </c>
       <c r="O47" t="n">
-        <v>28000</v>
+        <v>56000</v>
       </c>
       <c r="P47" t="n">
-        <v>28000</v>
+        <v>56000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4142,11 +4142,11 @@
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="S47" t="n">
-        <v>1556</v>
+        <v>3111</v>
       </c>
       <c r="T47" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Maracuyá.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Maracuyá.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44354</v>
+        <v>44522</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="N2" t="n">
-        <v>38000</v>
+        <v>60000</v>
       </c>
       <c r="O2" t="n">
-        <v>38000</v>
+        <v>60000</v>
       </c>
       <c r="P2" t="n">
-        <v>38000</v>
+        <v>60000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>2111</v>
+        <v>3333</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44284</v>
+        <v>44522</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="N3" t="n">
-        <v>23000</v>
+        <v>56000</v>
       </c>
       <c r="O3" t="n">
-        <v>23000</v>
+        <v>56000</v>
       </c>
       <c r="P3" t="n">
-        <v>23000</v>
+        <v>56000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1278</v>
+        <v>3111</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44403</v>
+        <v>44410</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N4" t="n">
-        <v>33000</v>
+        <v>32000</v>
       </c>
       <c r="O4" t="n">
-        <v>33000</v>
+        <v>32000</v>
       </c>
       <c r="P4" t="n">
-        <v>33000</v>
+        <v>32000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1833</v>
+        <v>1778</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44403</v>
+        <v>44410</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="N5" t="n">
         <v>30000</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44403</v>
+        <v>44410</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N6" t="n">
         <v>28000</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44277</v>
+        <v>44424</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="N7" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="O7" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="P7" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1667</v>
+        <v>1778</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44277</v>
+        <v>44417</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1000,11 +1000,11 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="N8" t="n">
         <v>28000</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44438</v>
+        <v>44529</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N9" t="n">
-        <v>32000</v>
+        <v>60000</v>
       </c>
       <c r="O9" t="n">
-        <v>32000</v>
+        <v>60000</v>
       </c>
       <c r="P9" t="n">
-        <v>32000</v>
+        <v>60000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1778</v>
+        <v>3333</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44459</v>
+        <v>44529</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N10" t="n">
-        <v>38000</v>
+        <v>58000</v>
       </c>
       <c r="O10" t="n">
-        <v>38000</v>
+        <v>58000</v>
       </c>
       <c r="P10" t="n">
-        <v>38000</v>
+        <v>58000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>2111</v>
+        <v>3222</v>
       </c>
       <c r="T10" t="n">
         <v>18</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44291</v>
+        <v>44354</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N11" t="n">
-        <v>25000</v>
+        <v>38000</v>
       </c>
       <c r="O11" t="n">
-        <v>25000</v>
+        <v>38000</v>
       </c>
       <c r="P11" t="n">
-        <v>25000</v>
+        <v>38000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1389</v>
+        <v>2111</v>
       </c>
       <c r="T11" t="n">
         <v>18</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44326</v>
+        <v>44333</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="N12" t="n">
-        <v>35000</v>
+        <v>38000</v>
       </c>
       <c r="O12" t="n">
-        <v>35000</v>
+        <v>38000</v>
       </c>
       <c r="P12" t="n">
-        <v>35000</v>
+        <v>38000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1944</v>
+        <v>2111</v>
       </c>
       <c r="T12" t="n">
         <v>18</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44326</v>
+        <v>44333</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M13" t="n">
         <v>25</v>
       </c>
       <c r="N13" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="O13" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="P13" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1667</v>
+        <v>1944</v>
       </c>
       <c r="T13" t="n">
         <v>18</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44326</v>
+        <v>44305</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N14" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="O14" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="P14" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1556</v>
+        <v>1667</v>
       </c>
       <c r="T14" t="n">
         <v>18</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44424</v>
+        <v>44459</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N15" t="n">
-        <v>32000</v>
+        <v>38000</v>
       </c>
       <c r="O15" t="n">
-        <v>32000</v>
+        <v>38000</v>
       </c>
       <c r="P15" t="n">
-        <v>32000</v>
+        <v>38000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1778</v>
+        <v>2111</v>
       </c>
       <c r="T15" t="n">
         <v>18</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44431</v>
+        <v>44445</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44445</v>
+        <v>44312</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>30</v>
+        <v>160</v>
       </c>
       <c r="N17" t="n">
-        <v>32000</v>
+        <v>26000</v>
       </c>
       <c r="O17" t="n">
-        <v>32000</v>
+        <v>26000</v>
       </c>
       <c r="P17" t="n">
-        <v>32000</v>
+        <v>26000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1778</v>
+        <v>1444</v>
       </c>
       <c r="T17" t="n">
         <v>18</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44270</v>
+        <v>44431</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1800,20 +1800,20 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="N18" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="O18" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="P18" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>2111</v>
+        <v>1778</v>
       </c>
       <c r="T18" t="n">
         <v>18</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44319</v>
+        <v>44403</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>140</v>
+        <v>25</v>
       </c>
       <c r="N19" t="n">
-        <v>27000</v>
+        <v>33000</v>
       </c>
       <c r="O19" t="n">
-        <v>27000</v>
+        <v>33000</v>
       </c>
       <c r="P19" t="n">
-        <v>27000</v>
+        <v>33000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1500</v>
+        <v>1833</v>
       </c>
       <c r="T19" t="n">
         <v>18</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44312</v>
+        <v>44403</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>160</v>
+        <v>45</v>
       </c>
       <c r="N20" t="n">
-        <v>26000</v>
+        <v>30000</v>
       </c>
       <c r="O20" t="n">
-        <v>26000</v>
+        <v>30000</v>
       </c>
       <c r="P20" t="n">
-        <v>26000</v>
+        <v>30000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1444</v>
+        <v>1667</v>
       </c>
       <c r="T20" t="n">
         <v>18</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44466</v>
+        <v>44403</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2040,20 +2040,20 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M21" t="n">
         <v>15</v>
       </c>
       <c r="N21" t="n">
-        <v>60000</v>
+        <v>28000</v>
       </c>
       <c r="O21" t="n">
-        <v>60000</v>
+        <v>28000</v>
       </c>
       <c r="P21" t="n">
-        <v>60000</v>
+        <v>28000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>3333</v>
+        <v>1556</v>
       </c>
       <c r="T21" t="n">
         <v>18</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44466</v>
+        <v>44438</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2120,20 +2120,20 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="N22" t="n">
-        <v>58000</v>
+        <v>32000</v>
       </c>
       <c r="O22" t="n">
-        <v>58000</v>
+        <v>32000</v>
       </c>
       <c r="P22" t="n">
-        <v>58000</v>
+        <v>32000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>3222</v>
+        <v>1778</v>
       </c>
       <c r="T22" t="n">
         <v>18</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44333</v>
+        <v>44466</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2204,16 +2204,16 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N23" t="n">
-        <v>38000</v>
+        <v>60000</v>
       </c>
       <c r="O23" t="n">
-        <v>38000</v>
+        <v>60000</v>
       </c>
       <c r="P23" t="n">
-        <v>38000</v>
+        <v>60000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>2111</v>
+        <v>3333</v>
       </c>
       <c r="T23" t="n">
         <v>18</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44333</v>
+        <v>44466</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="N24" t="n">
-        <v>35000</v>
+        <v>58000</v>
       </c>
       <c r="O24" t="n">
-        <v>35000</v>
+        <v>58000</v>
       </c>
       <c r="P24" t="n">
-        <v>35000</v>
+        <v>58000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1944</v>
+        <v>3222</v>
       </c>
       <c r="T24" t="n">
         <v>18</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44340</v>
+        <v>44277</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="N25" t="n">
-        <v>37000</v>
+        <v>30000</v>
       </c>
       <c r="O25" t="n">
-        <v>37000</v>
+        <v>30000</v>
       </c>
       <c r="P25" t="n">
-        <v>37000</v>
+        <v>30000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>2056</v>
+        <v>1667</v>
       </c>
       <c r="T25" t="n">
         <v>18</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44340</v>
+        <v>44277</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="N26" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="O26" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="P26" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1944</v>
+        <v>1556</v>
       </c>
       <c r="T26" t="n">
         <v>18</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44417</v>
+        <v>44396</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2524,16 +2524,16 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="N27" t="n">
-        <v>28000</v>
+        <v>37000</v>
       </c>
       <c r="O27" t="n">
-        <v>28000</v>
+        <v>37000</v>
       </c>
       <c r="P27" t="n">
-        <v>28000</v>
+        <v>37000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1556</v>
+        <v>2056</v>
       </c>
       <c r="T27" t="n">
         <v>18</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44410</v>
+        <v>44396</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2600,20 +2600,20 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M28" t="n">
         <v>15</v>
       </c>
       <c r="N28" t="n">
-        <v>32000</v>
+        <v>34000</v>
       </c>
       <c r="O28" t="n">
-        <v>32000</v>
+        <v>34000</v>
       </c>
       <c r="P28" t="n">
-        <v>32000</v>
+        <v>34000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1778</v>
+        <v>1889</v>
       </c>
       <c r="T28" t="n">
         <v>18</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44410</v>
+        <v>44389</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2684,16 +2684,16 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="N29" t="n">
-        <v>30000</v>
+        <v>29000</v>
       </c>
       <c r="O29" t="n">
-        <v>30000</v>
+        <v>29000</v>
       </c>
       <c r="P29" t="n">
-        <v>30000</v>
+        <v>29000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1667</v>
+        <v>1611</v>
       </c>
       <c r="T29" t="n">
         <v>18</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44410</v>
+        <v>44389</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2764,16 +2764,16 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N30" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="O30" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="P30" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1556</v>
+        <v>1500</v>
       </c>
       <c r="T30" t="n">
         <v>18</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44382</v>
+        <v>44340</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2840,20 +2840,20 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="N31" t="n">
-        <v>35000</v>
+        <v>37000</v>
       </c>
       <c r="O31" t="n">
-        <v>35000</v>
+        <v>37000</v>
       </c>
       <c r="P31" t="n">
-        <v>35000</v>
+        <v>37000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1944</v>
+        <v>2056</v>
       </c>
       <c r="T31" t="n">
         <v>18</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44382</v>
+        <v>44340</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2920,20 +2920,20 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N32" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="O32" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="P32" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1778</v>
+        <v>1944</v>
       </c>
       <c r="T32" t="n">
         <v>18</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44382</v>
+        <v>44452</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3000,20 +3000,20 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N33" t="n">
-        <v>30000</v>
+        <v>36000</v>
       </c>
       <c r="O33" t="n">
-        <v>30000</v>
+        <v>36000</v>
       </c>
       <c r="P33" t="n">
-        <v>30000</v>
+        <v>36000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1667</v>
+        <v>2000</v>
       </c>
       <c r="T33" t="n">
         <v>18</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44435</v>
+        <v>44382</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3080,20 +3080,20 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N34" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="O34" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="P34" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1778</v>
+        <v>1944</v>
       </c>
       <c r="T34" t="n">
         <v>18</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44529</v>
+        <v>44382</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3160,20 +3160,20 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N35" t="n">
-        <v>60000</v>
+        <v>32000</v>
       </c>
       <c r="O35" t="n">
-        <v>60000</v>
+        <v>32000</v>
       </c>
       <c r="P35" t="n">
-        <v>60000</v>
+        <v>32000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>3333</v>
+        <v>1778</v>
       </c>
       <c r="T35" t="n">
         <v>18</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44529</v>
+        <v>44382</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3240,20 +3240,20 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="N36" t="n">
-        <v>58000</v>
+        <v>30000</v>
       </c>
       <c r="O36" t="n">
-        <v>58000</v>
+        <v>30000</v>
       </c>
       <c r="P36" t="n">
-        <v>58000</v>
+        <v>30000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>3222</v>
+        <v>1667</v>
       </c>
       <c r="T36" t="n">
         <v>18</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44389</v>
+        <v>44435</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3324,16 +3324,16 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N37" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="O37" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="P37" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1611</v>
+        <v>1778</v>
       </c>
       <c r="T37" t="n">
         <v>18</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44389</v>
+        <v>44319</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3400,11 +3400,11 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="N38" t="n">
         <v>27000</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44452</v>
+        <v>44284</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3484,16 +3484,16 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="N39" t="n">
-        <v>36000</v>
+        <v>23000</v>
       </c>
       <c r="O39" t="n">
-        <v>36000</v>
+        <v>23000</v>
       </c>
       <c r="P39" t="n">
-        <v>36000</v>
+        <v>23000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>2000</v>
+        <v>1278</v>
       </c>
       <c r="T39" t="n">
         <v>18</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44305</v>
+        <v>44270</v>
       </c>
       <c r="E43" t="n">
         <v>13</v>
@@ -3800,20 +3800,20 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="N43" t="n">
-        <v>30000</v>
+        <v>38000</v>
       </c>
       <c r="O43" t="n">
-        <v>30000</v>
+        <v>38000</v>
       </c>
       <c r="P43" t="n">
-        <v>30000</v>
+        <v>38000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>1667</v>
+        <v>2111</v>
       </c>
       <c r="T43" t="n">
         <v>18</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44396</v>
+        <v>44326</v>
       </c>
       <c r="E44" t="n">
         <v>13</v>
@@ -3880,20 +3880,20 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="N44" t="n">
-        <v>37000</v>
+        <v>35000</v>
       </c>
       <c r="O44" t="n">
-        <v>37000</v>
+        <v>35000</v>
       </c>
       <c r="P44" t="n">
-        <v>37000</v>
+        <v>35000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>2056</v>
+        <v>1944</v>
       </c>
       <c r="T44" t="n">
         <v>18</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44396</v>
+        <v>44326</v>
       </c>
       <c r="E45" t="n">
         <v>13</v>
@@ -3960,20 +3960,20 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N45" t="n">
-        <v>34000</v>
+        <v>30000</v>
       </c>
       <c r="O45" t="n">
-        <v>34000</v>
+        <v>30000</v>
       </c>
       <c r="P45" t="n">
-        <v>34000</v>
+        <v>30000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>1889</v>
+        <v>1667</v>
       </c>
       <c r="T45" t="n">
         <v>18</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44522</v>
+        <v>44326</v>
       </c>
       <c r="E46" t="n">
         <v>13</v>
@@ -4040,20 +4040,20 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N46" t="n">
-        <v>60000</v>
+        <v>28000</v>
       </c>
       <c r="O46" t="n">
-        <v>60000</v>
+        <v>28000</v>
       </c>
       <c r="P46" t="n">
-        <v>60000</v>
+        <v>28000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4062,11 +4062,11 @@
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S46" t="n">
-        <v>3333</v>
+        <v>1556</v>
       </c>
       <c r="T46" t="n">
         <v>18</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44522</v>
+        <v>44291</v>
       </c>
       <c r="E47" t="n">
         <v>13</v>
@@ -4120,20 +4120,20 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N47" t="n">
-        <v>56000</v>
+        <v>25000</v>
       </c>
       <c r="O47" t="n">
-        <v>56000</v>
+        <v>25000</v>
       </c>
       <c r="P47" t="n">
-        <v>56000</v>
+        <v>25000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4142,11 +4142,11 @@
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S47" t="n">
-        <v>3111</v>
+        <v>1389</v>
       </c>
       <c r="T47" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Maracuyá.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Maracuyá.xlsx
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44410</v>
+        <v>44333</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N4" t="n">
-        <v>32000</v>
+        <v>38000</v>
       </c>
       <c r="O4" t="n">
-        <v>32000</v>
+        <v>38000</v>
       </c>
       <c r="P4" t="n">
-        <v>32000</v>
+        <v>38000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1778</v>
+        <v>2111</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44410</v>
+        <v>44333</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M5" t="n">
         <v>25</v>
       </c>
       <c r="N5" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="O5" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="P5" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1667</v>
+        <v>1944</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44410</v>
+        <v>44424</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="N6" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="O6" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="P6" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1556</v>
+        <v>1778</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44424</v>
+        <v>44277</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="N7" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="O7" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="P7" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1778</v>
+        <v>1667</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44417</v>
+        <v>44277</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1000,11 +1000,11 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="N8" t="n">
         <v>28000</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44529</v>
+        <v>44284</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="N9" t="n">
-        <v>60000</v>
+        <v>23000</v>
       </c>
       <c r="O9" t="n">
-        <v>60000</v>
+        <v>23000</v>
       </c>
       <c r="P9" t="n">
-        <v>60000</v>
+        <v>23000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>3333</v>
+        <v>1278</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44529</v>
+        <v>44270</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1160,20 +1160,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="N10" t="n">
-        <v>58000</v>
+        <v>38000</v>
       </c>
       <c r="O10" t="n">
-        <v>58000</v>
+        <v>38000</v>
       </c>
       <c r="P10" t="n">
-        <v>58000</v>
+        <v>38000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>3222</v>
+        <v>2111</v>
       </c>
       <c r="T10" t="n">
         <v>18</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44354</v>
+        <v>44452</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="N11" t="n">
-        <v>38000</v>
+        <v>36000</v>
       </c>
       <c r="O11" t="n">
-        <v>38000</v>
+        <v>36000</v>
       </c>
       <c r="P11" t="n">
-        <v>38000</v>
+        <v>36000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>2111</v>
+        <v>2000</v>
       </c>
       <c r="T11" t="n">
         <v>18</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44333</v>
+        <v>44291</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1327,13 +1327,13 @@
         <v>30</v>
       </c>
       <c r="N12" t="n">
-        <v>38000</v>
+        <v>25000</v>
       </c>
       <c r="O12" t="n">
-        <v>38000</v>
+        <v>25000</v>
       </c>
       <c r="P12" t="n">
-        <v>38000</v>
+        <v>25000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>2111</v>
+        <v>1389</v>
       </c>
       <c r="T12" t="n">
         <v>18</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44333</v>
+        <v>44305</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M13" t="n">
         <v>25</v>
       </c>
       <c r="N13" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="O13" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="P13" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1944</v>
+        <v>1667</v>
       </c>
       <c r="T13" t="n">
         <v>18</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44305</v>
+        <v>44403</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M14" t="n">
         <v>25</v>
       </c>
       <c r="N14" t="n">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="O14" t="n">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="P14" t="n">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1667</v>
+        <v>1833</v>
       </c>
       <c r="T14" t="n">
         <v>18</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44459</v>
+        <v>44403</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="N15" t="n">
-        <v>38000</v>
+        <v>30000</v>
       </c>
       <c r="O15" t="n">
-        <v>38000</v>
+        <v>30000</v>
       </c>
       <c r="P15" t="n">
-        <v>38000</v>
+        <v>30000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>2111</v>
+        <v>1667</v>
       </c>
       <c r="T15" t="n">
         <v>18</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44445</v>
+        <v>44403</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N16" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="O16" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="P16" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1778</v>
+        <v>1556</v>
       </c>
       <c r="T16" t="n">
         <v>18</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44312</v>
+        <v>44529</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="N17" t="n">
-        <v>26000</v>
+        <v>60000</v>
       </c>
       <c r="O17" t="n">
-        <v>26000</v>
+        <v>60000</v>
       </c>
       <c r="P17" t="n">
-        <v>26000</v>
+        <v>60000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1444</v>
+        <v>3333</v>
       </c>
       <c r="T17" t="n">
         <v>18</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44431</v>
+        <v>44529</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N18" t="n">
-        <v>32000</v>
+        <v>58000</v>
       </c>
       <c r="O18" t="n">
-        <v>32000</v>
+        <v>58000</v>
       </c>
       <c r="P18" t="n">
-        <v>32000</v>
+        <v>58000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1778</v>
+        <v>3222</v>
       </c>
       <c r="T18" t="n">
         <v>18</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44403</v>
+        <v>44319</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>25</v>
+        <v>140</v>
       </c>
       <c r="N19" t="n">
-        <v>33000</v>
+        <v>27000</v>
       </c>
       <c r="O19" t="n">
-        <v>33000</v>
+        <v>27000</v>
       </c>
       <c r="P19" t="n">
-        <v>33000</v>
+        <v>27000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1833</v>
+        <v>1500</v>
       </c>
       <c r="T19" t="n">
         <v>18</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44403</v>
+        <v>44410</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1960,20 +1960,20 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="N20" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="O20" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="P20" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1667</v>
+        <v>1778</v>
       </c>
       <c r="T20" t="n">
         <v>18</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44403</v>
+        <v>44410</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2040,20 +2040,20 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N21" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="O21" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="P21" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1556</v>
+        <v>1667</v>
       </c>
       <c r="T21" t="n">
         <v>18</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44438</v>
+        <v>44410</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2120,20 +2120,20 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="N22" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="O22" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="P22" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1778</v>
+        <v>1556</v>
       </c>
       <c r="T22" t="n">
         <v>18</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44466</v>
+        <v>44459</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2204,16 +2204,16 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N23" t="n">
-        <v>60000</v>
+        <v>38000</v>
       </c>
       <c r="O23" t="n">
-        <v>60000</v>
+        <v>38000</v>
       </c>
       <c r="P23" t="n">
-        <v>60000</v>
+        <v>38000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>3333</v>
+        <v>2111</v>
       </c>
       <c r="T23" t="n">
         <v>18</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44466</v>
+        <v>44438</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2280,20 +2280,20 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="N24" t="n">
-        <v>58000</v>
+        <v>32000</v>
       </c>
       <c r="O24" t="n">
-        <v>58000</v>
+        <v>32000</v>
       </c>
       <c r="P24" t="n">
-        <v>58000</v>
+        <v>32000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>3222</v>
+        <v>1778</v>
       </c>
       <c r="T24" t="n">
         <v>18</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44277</v>
+        <v>44435</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="N25" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="O25" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="P25" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1667</v>
+        <v>1778</v>
       </c>
       <c r="T25" t="n">
         <v>18</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44277</v>
+        <v>44312</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2440,20 +2440,20 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="N26" t="n">
-        <v>28000</v>
+        <v>26000</v>
       </c>
       <c r="O26" t="n">
-        <v>28000</v>
+        <v>26000</v>
       </c>
       <c r="P26" t="n">
-        <v>28000</v>
+        <v>26000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1556</v>
+        <v>1444</v>
       </c>
       <c r="T26" t="n">
         <v>18</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44396</v>
+        <v>44417</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2524,16 +2524,16 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="N27" t="n">
-        <v>37000</v>
+        <v>28000</v>
       </c>
       <c r="O27" t="n">
-        <v>37000</v>
+        <v>28000</v>
       </c>
       <c r="P27" t="n">
-        <v>37000</v>
+        <v>28000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>2056</v>
+        <v>1556</v>
       </c>
       <c r="T27" t="n">
         <v>18</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44396</v>
+        <v>44382</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2600,20 +2600,20 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N28" t="n">
-        <v>34000</v>
+        <v>35000</v>
       </c>
       <c r="O28" t="n">
-        <v>34000</v>
+        <v>35000</v>
       </c>
       <c r="P28" t="n">
-        <v>34000</v>
+        <v>35000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1889</v>
+        <v>1944</v>
       </c>
       <c r="T28" t="n">
         <v>18</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44389</v>
+        <v>44382</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2684,16 +2684,16 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N29" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="O29" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="P29" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1611</v>
+        <v>1778</v>
       </c>
       <c r="T29" t="n">
         <v>18</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44389</v>
+        <v>44382</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2764,16 +2764,16 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N30" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="O30" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="P30" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1500</v>
+        <v>1667</v>
       </c>
       <c r="T30" t="n">
         <v>18</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44340</v>
+        <v>44431</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2844,16 +2844,16 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N31" t="n">
-        <v>37000</v>
+        <v>32000</v>
       </c>
       <c r="O31" t="n">
-        <v>37000</v>
+        <v>32000</v>
       </c>
       <c r="P31" t="n">
-        <v>37000</v>
+        <v>32000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>2056</v>
+        <v>1778</v>
       </c>
       <c r="T31" t="n">
         <v>18</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44340</v>
+        <v>44389</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2920,20 +2920,20 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="N32" t="n">
-        <v>35000</v>
+        <v>29000</v>
       </c>
       <c r="O32" t="n">
-        <v>35000</v>
+        <v>29000</v>
       </c>
       <c r="P32" t="n">
-        <v>35000</v>
+        <v>29000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1944</v>
+        <v>1611</v>
       </c>
       <c r="T32" t="n">
         <v>18</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44452</v>
+        <v>44389</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3000,20 +3000,20 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M33" t="n">
         <v>20</v>
       </c>
       <c r="N33" t="n">
-        <v>36000</v>
+        <v>27000</v>
       </c>
       <c r="O33" t="n">
-        <v>36000</v>
+        <v>27000</v>
       </c>
       <c r="P33" t="n">
-        <v>36000</v>
+        <v>27000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="T33" t="n">
         <v>18</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44382</v>
+        <v>44354</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3080,20 +3080,20 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="N34" t="n">
-        <v>35000</v>
+        <v>38000</v>
       </c>
       <c r="O34" t="n">
-        <v>35000</v>
+        <v>38000</v>
       </c>
       <c r="P34" t="n">
-        <v>35000</v>
+        <v>38000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1944</v>
+        <v>2111</v>
       </c>
       <c r="T34" t="n">
         <v>18</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44382</v>
+        <v>44466</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N35" t="n">
-        <v>32000</v>
+        <v>60000</v>
       </c>
       <c r="O35" t="n">
-        <v>32000</v>
+        <v>60000</v>
       </c>
       <c r="P35" t="n">
-        <v>32000</v>
+        <v>60000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1778</v>
+        <v>3333</v>
       </c>
       <c r="T35" t="n">
         <v>18</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44382</v>
+        <v>44466</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3244,16 +3244,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N36" t="n">
-        <v>30000</v>
+        <v>58000</v>
       </c>
       <c r="O36" t="n">
-        <v>30000</v>
+        <v>58000</v>
       </c>
       <c r="P36" t="n">
-        <v>30000</v>
+        <v>58000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1667</v>
+        <v>3222</v>
       </c>
       <c r="T36" t="n">
         <v>18</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44435</v>
+        <v>44396</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3324,16 +3324,16 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N37" t="n">
-        <v>32000</v>
+        <v>37000</v>
       </c>
       <c r="O37" t="n">
-        <v>32000</v>
+        <v>37000</v>
       </c>
       <c r="P37" t="n">
-        <v>32000</v>
+        <v>37000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1778</v>
+        <v>2056</v>
       </c>
       <c r="T37" t="n">
         <v>18</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44319</v>
+        <v>44396</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3400,20 +3400,20 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>140</v>
+        <v>15</v>
       </c>
       <c r="N38" t="n">
-        <v>27000</v>
+        <v>34000</v>
       </c>
       <c r="O38" t="n">
-        <v>27000</v>
+        <v>34000</v>
       </c>
       <c r="P38" t="n">
-        <v>27000</v>
+        <v>34000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>1500</v>
+        <v>1889</v>
       </c>
       <c r="T38" t="n">
         <v>18</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44284</v>
+        <v>44445</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3484,16 +3484,16 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="N39" t="n">
-        <v>23000</v>
+        <v>32000</v>
       </c>
       <c r="O39" t="n">
-        <v>23000</v>
+        <v>32000</v>
       </c>
       <c r="P39" t="n">
-        <v>23000</v>
+        <v>32000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1278</v>
+        <v>1778</v>
       </c>
       <c r="T39" t="n">
         <v>18</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44270</v>
+        <v>44340</v>
       </c>
       <c r="E43" t="n">
         <v>13</v>
@@ -3800,20 +3800,20 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="N43" t="n">
-        <v>38000</v>
+        <v>37000</v>
       </c>
       <c r="O43" t="n">
-        <v>38000</v>
+        <v>37000</v>
       </c>
       <c r="P43" t="n">
-        <v>38000</v>
+        <v>37000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>2111</v>
+        <v>2056</v>
       </c>
       <c r="T43" t="n">
         <v>18</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44326</v>
+        <v>44340</v>
       </c>
       <c r="E44" t="n">
         <v>13</v>
@@ -3880,11 +3880,11 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N44" t="n">
         <v>35000</v>
@@ -3960,20 +3960,20 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="N45" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="O45" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="P45" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>1667</v>
+        <v>1944</v>
       </c>
       <c r="T45" t="n">
         <v>18</v>
@@ -4040,20 +4040,20 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N46" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="O46" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="P46" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>1556</v>
+        <v>1667</v>
       </c>
       <c r="T46" t="n">
         <v>18</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44291</v>
+        <v>44326</v>
       </c>
       <c r="E47" t="n">
         <v>13</v>
@@ -4120,20 +4120,20 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N47" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="O47" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="P47" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>1389</v>
+        <v>1556</v>
       </c>
       <c r="T47" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Maracuyá.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Maracuyá.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44522</v>
+        <v>44410</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N2" t="n">
-        <v>60000</v>
+        <v>32000</v>
       </c>
       <c r="O2" t="n">
-        <v>60000</v>
+        <v>32000</v>
       </c>
       <c r="P2" t="n">
-        <v>60000</v>
+        <v>32000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>3333</v>
+        <v>1778</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44522</v>
+        <v>44410</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N3" t="n">
-        <v>56000</v>
+        <v>30000</v>
       </c>
       <c r="O3" t="n">
-        <v>56000</v>
+        <v>30000</v>
       </c>
       <c r="P3" t="n">
-        <v>56000</v>
+        <v>30000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>3111</v>
+        <v>1667</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44333</v>
+        <v>44410</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="N4" t="n">
-        <v>38000</v>
+        <v>28000</v>
       </c>
       <c r="O4" t="n">
-        <v>38000</v>
+        <v>28000</v>
       </c>
       <c r="P4" t="n">
-        <v>38000</v>
+        <v>28000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>2111</v>
+        <v>1556</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44333</v>
+        <v>44522</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
         <v>25</v>
       </c>
       <c r="N5" t="n">
-        <v>35000</v>
+        <v>60000</v>
       </c>
       <c r="O5" t="n">
-        <v>35000</v>
+        <v>60000</v>
       </c>
       <c r="P5" t="n">
-        <v>35000</v>
+        <v>60000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -782,11 +782,11 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1944</v>
+        <v>3333</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44424</v>
+        <v>44522</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N6" t="n">
-        <v>32000</v>
+        <v>56000</v>
       </c>
       <c r="O6" t="n">
-        <v>32000</v>
+        <v>56000</v>
       </c>
       <c r="P6" t="n">
-        <v>32000</v>
+        <v>56000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -862,11 +862,11 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1778</v>
+        <v>3111</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44277</v>
+        <v>44305</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="N7" t="n">
         <v>30000</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44277</v>
+        <v>44473</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="N8" t="n">
-        <v>28000</v>
+        <v>75000</v>
       </c>
       <c r="O8" t="n">
-        <v>28000</v>
+        <v>75000</v>
       </c>
       <c r="P8" t="n">
-        <v>28000</v>
+        <v>75000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1556</v>
+        <v>4167</v>
       </c>
       <c r="T8" t="n">
         <v>18</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44284</v>
+        <v>44473</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>120</v>
+        <v>25</v>
       </c>
       <c r="N9" t="n">
-        <v>23000</v>
+        <v>72000</v>
       </c>
       <c r="O9" t="n">
-        <v>23000</v>
+        <v>72000</v>
       </c>
       <c r="P9" t="n">
-        <v>23000</v>
+        <v>72000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1278</v>
+        <v>4000</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44270</v>
+        <v>44473</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1160,20 +1160,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="N10" t="n">
-        <v>38000</v>
+        <v>67000</v>
       </c>
       <c r="O10" t="n">
-        <v>38000</v>
+        <v>67000</v>
       </c>
       <c r="P10" t="n">
-        <v>38000</v>
+        <v>67000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>2111</v>
+        <v>3722</v>
       </c>
       <c r="T10" t="n">
         <v>18</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44452</v>
+        <v>44326</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1240,20 +1240,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N11" t="n">
-        <v>36000</v>
+        <v>35000</v>
       </c>
       <c r="O11" t="n">
-        <v>36000</v>
+        <v>35000</v>
       </c>
       <c r="P11" t="n">
-        <v>36000</v>
+        <v>35000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>2000</v>
+        <v>1944</v>
       </c>
       <c r="T11" t="n">
         <v>18</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44291</v>
+        <v>44326</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N12" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="O12" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="P12" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1389</v>
+        <v>1667</v>
       </c>
       <c r="T12" t="n">
         <v>18</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44305</v>
+        <v>44326</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N13" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="O13" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="P13" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1667</v>
+        <v>1556</v>
       </c>
       <c r="T13" t="n">
         <v>18</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44403</v>
+        <v>44277</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="N14" t="n">
-        <v>33000</v>
+        <v>30000</v>
       </c>
       <c r="O14" t="n">
-        <v>33000</v>
+        <v>30000</v>
       </c>
       <c r="P14" t="n">
-        <v>33000</v>
+        <v>30000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1833</v>
+        <v>1667</v>
       </c>
       <c r="T14" t="n">
         <v>18</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44403</v>
+        <v>44277</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="N15" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="O15" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="P15" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1667</v>
+        <v>1556</v>
       </c>
       <c r="T15" t="n">
         <v>18</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44403</v>
+        <v>44319</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>15</v>
+        <v>140</v>
       </c>
       <c r="N16" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="O16" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="P16" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1556</v>
+        <v>1500</v>
       </c>
       <c r="T16" t="n">
         <v>18</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44529</v>
+        <v>44466</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1720,11 +1720,11 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N17" t="n">
         <v>60000</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44529</v>
+        <v>44466</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1800,11 +1800,11 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="N18" t="n">
         <v>58000</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44319</v>
+        <v>44270</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="N19" t="n">
-        <v>27000</v>
+        <v>38000</v>
       </c>
       <c r="O19" t="n">
-        <v>27000</v>
+        <v>38000</v>
       </c>
       <c r="P19" t="n">
-        <v>27000</v>
+        <v>38000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1500</v>
+        <v>2111</v>
       </c>
       <c r="T19" t="n">
         <v>18</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44410</v>
+        <v>44445</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1960,11 +1960,11 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N20" t="n">
         <v>32000</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44410</v>
+        <v>44284</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="N21" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="O21" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="P21" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1667</v>
+        <v>1278</v>
       </c>
       <c r="T21" t="n">
         <v>18</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44410</v>
+        <v>44291</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2120,20 +2120,20 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="N22" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="O22" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="P22" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1556</v>
+        <v>1389</v>
       </c>
       <c r="T22" t="n">
         <v>18</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44459</v>
+        <v>44312</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2204,16 +2204,16 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>25</v>
+        <v>160</v>
       </c>
       <c r="N23" t="n">
-        <v>38000</v>
+        <v>26000</v>
       </c>
       <c r="O23" t="n">
-        <v>38000</v>
+        <v>26000</v>
       </c>
       <c r="P23" t="n">
-        <v>38000</v>
+        <v>26000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>2111</v>
+        <v>1444</v>
       </c>
       <c r="T23" t="n">
         <v>18</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44438</v>
+        <v>44396</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N24" t="n">
-        <v>32000</v>
+        <v>37000</v>
       </c>
       <c r="O24" t="n">
-        <v>32000</v>
+        <v>37000</v>
       </c>
       <c r="P24" t="n">
-        <v>32000</v>
+        <v>37000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1778</v>
+        <v>2056</v>
       </c>
       <c r="T24" t="n">
         <v>18</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44435</v>
+        <v>44396</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2360,20 +2360,20 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N25" t="n">
-        <v>32000</v>
+        <v>34000</v>
       </c>
       <c r="O25" t="n">
-        <v>32000</v>
+        <v>34000</v>
       </c>
       <c r="P25" t="n">
-        <v>32000</v>
+        <v>34000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1778</v>
+        <v>1889</v>
       </c>
       <c r="T25" t="n">
         <v>18</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44312</v>
+        <v>44435</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>160</v>
+        <v>30</v>
       </c>
       <c r="N26" t="n">
-        <v>26000</v>
+        <v>32000</v>
       </c>
       <c r="O26" t="n">
-        <v>26000</v>
+        <v>32000</v>
       </c>
       <c r="P26" t="n">
-        <v>26000</v>
+        <v>32000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1444</v>
+        <v>1778</v>
       </c>
       <c r="T26" t="n">
         <v>18</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44417</v>
+        <v>44459</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2524,16 +2524,16 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N27" t="n">
-        <v>28000</v>
+        <v>38000</v>
       </c>
       <c r="O27" t="n">
-        <v>28000</v>
+        <v>38000</v>
       </c>
       <c r="P27" t="n">
-        <v>28000</v>
+        <v>38000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1556</v>
+        <v>2111</v>
       </c>
       <c r="T27" t="n">
         <v>18</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44382</v>
+        <v>44333</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2600,20 +2600,20 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N28" t="n">
-        <v>35000</v>
+        <v>38000</v>
       </c>
       <c r="O28" t="n">
-        <v>35000</v>
+        <v>38000</v>
       </c>
       <c r="P28" t="n">
-        <v>35000</v>
+        <v>38000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1944</v>
+        <v>2111</v>
       </c>
       <c r="T28" t="n">
         <v>18</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44382</v>
+        <v>44333</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2680,20 +2680,20 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N29" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="O29" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="P29" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1778</v>
+        <v>1944</v>
       </c>
       <c r="T29" t="n">
         <v>18</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44382</v>
+        <v>44529</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2760,20 +2760,20 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N30" t="n">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="O30" t="n">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="P30" t="n">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1667</v>
+        <v>3333</v>
       </c>
       <c r="T30" t="n">
         <v>18</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44431</v>
+        <v>44529</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2844,16 +2844,16 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N31" t="n">
-        <v>32000</v>
+        <v>58000</v>
       </c>
       <c r="O31" t="n">
-        <v>32000</v>
+        <v>58000</v>
       </c>
       <c r="P31" t="n">
-        <v>32000</v>
+        <v>58000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1778</v>
+        <v>3222</v>
       </c>
       <c r="T31" t="n">
         <v>18</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44389</v>
+        <v>44431</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2924,16 +2924,16 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N32" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="O32" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="P32" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1611</v>
+        <v>1778</v>
       </c>
       <c r="T32" t="n">
         <v>18</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44389</v>
+        <v>44403</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3000,20 +3000,20 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N33" t="n">
-        <v>27000</v>
+        <v>33000</v>
       </c>
       <c r="O33" t="n">
-        <v>27000</v>
+        <v>33000</v>
       </c>
       <c r="P33" t="n">
-        <v>27000</v>
+        <v>33000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1500</v>
+        <v>1833</v>
       </c>
       <c r="T33" t="n">
         <v>18</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44354</v>
+        <v>44403</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3084,16 +3084,16 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="N34" t="n">
-        <v>38000</v>
+        <v>30000</v>
       </c>
       <c r="O34" t="n">
-        <v>38000</v>
+        <v>30000</v>
       </c>
       <c r="P34" t="n">
-        <v>38000</v>
+        <v>30000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>2111</v>
+        <v>1667</v>
       </c>
       <c r="T34" t="n">
         <v>18</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44466</v>
+        <v>44403</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3160,20 +3160,20 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M35" t="n">
         <v>15</v>
       </c>
       <c r="N35" t="n">
-        <v>60000</v>
+        <v>28000</v>
       </c>
       <c r="O35" t="n">
-        <v>60000</v>
+        <v>28000</v>
       </c>
       <c r="P35" t="n">
-        <v>60000</v>
+        <v>28000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>3333</v>
+        <v>1556</v>
       </c>
       <c r="T35" t="n">
         <v>18</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44466</v>
+        <v>44382</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3240,20 +3240,20 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N36" t="n">
-        <v>58000</v>
+        <v>35000</v>
       </c>
       <c r="O36" t="n">
-        <v>58000</v>
+        <v>35000</v>
       </c>
       <c r="P36" t="n">
-        <v>58000</v>
+        <v>35000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>3222</v>
+        <v>1944</v>
       </c>
       <c r="T36" t="n">
         <v>18</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44396</v>
+        <v>44382</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3324,16 +3324,16 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N37" t="n">
-        <v>37000</v>
+        <v>32000</v>
       </c>
       <c r="O37" t="n">
-        <v>37000</v>
+        <v>32000</v>
       </c>
       <c r="P37" t="n">
-        <v>37000</v>
+        <v>32000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>2056</v>
+        <v>1778</v>
       </c>
       <c r="T37" t="n">
         <v>18</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44396</v>
+        <v>44382</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3407,13 +3407,13 @@
         <v>15</v>
       </c>
       <c r="N38" t="n">
-        <v>34000</v>
+        <v>30000</v>
       </c>
       <c r="O38" t="n">
-        <v>34000</v>
+        <v>30000</v>
       </c>
       <c r="P38" t="n">
-        <v>34000</v>
+        <v>30000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>1889</v>
+        <v>1667</v>
       </c>
       <c r="T38" t="n">
         <v>18</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44445</v>
+        <v>44452</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3484,16 +3484,16 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N39" t="n">
-        <v>32000</v>
+        <v>36000</v>
       </c>
       <c r="O39" t="n">
-        <v>32000</v>
+        <v>36000</v>
       </c>
       <c r="P39" t="n">
-        <v>32000</v>
+        <v>36000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1778</v>
+        <v>2000</v>
       </c>
       <c r="T39" t="n">
         <v>18</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44473</v>
+        <v>44389</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3560,20 +3560,20 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="N40" t="n">
-        <v>75000</v>
+        <v>29000</v>
       </c>
       <c r="O40" t="n">
-        <v>75000</v>
+        <v>29000</v>
       </c>
       <c r="P40" t="n">
-        <v>75000</v>
+        <v>29000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>4167</v>
+        <v>1611</v>
       </c>
       <c r="T40" t="n">
         <v>18</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44473</v>
+        <v>44389</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3640,20 +3640,20 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N41" t="n">
-        <v>72000</v>
+        <v>27000</v>
       </c>
       <c r="O41" t="n">
-        <v>72000</v>
+        <v>27000</v>
       </c>
       <c r="P41" t="n">
-        <v>72000</v>
+        <v>27000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="T41" t="n">
         <v>18</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44473</v>
+        <v>44417</v>
       </c>
       <c r="E42" t="n">
         <v>13</v>
@@ -3720,20 +3720,20 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="N42" t="n">
-        <v>67000</v>
+        <v>28000</v>
       </c>
       <c r="O42" t="n">
-        <v>67000</v>
+        <v>28000</v>
       </c>
       <c r="P42" t="n">
-        <v>67000</v>
+        <v>28000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>3722</v>
+        <v>1556</v>
       </c>
       <c r="T42" t="n">
         <v>18</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44340</v>
+        <v>44354</v>
       </c>
       <c r="E43" t="n">
         <v>13</v>
@@ -3804,16 +3804,16 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N43" t="n">
-        <v>37000</v>
+        <v>38000</v>
       </c>
       <c r="O43" t="n">
-        <v>37000</v>
+        <v>38000</v>
       </c>
       <c r="P43" t="n">
-        <v>37000</v>
+        <v>38000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>2056</v>
+        <v>2111</v>
       </c>
       <c r="T43" t="n">
         <v>18</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44340</v>
+        <v>44424</v>
       </c>
       <c r="E44" t="n">
         <v>13</v>
@@ -3880,20 +3880,20 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N44" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="O44" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="P44" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>1944</v>
+        <v>1778</v>
       </c>
       <c r="T44" t="n">
         <v>18</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44326</v>
+        <v>44340</v>
       </c>
       <c r="E45" t="n">
         <v>13</v>
@@ -3960,20 +3960,20 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="N45" t="n">
-        <v>35000</v>
+        <v>37000</v>
       </c>
       <c r="O45" t="n">
-        <v>35000</v>
+        <v>37000</v>
       </c>
       <c r="P45" t="n">
-        <v>35000</v>
+        <v>37000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>1944</v>
+        <v>2056</v>
       </c>
       <c r="T45" t="n">
         <v>18</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44326</v>
+        <v>44340</v>
       </c>
       <c r="E46" t="n">
         <v>13</v>
@@ -4040,20 +4040,20 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N46" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="O46" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="P46" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>1667</v>
+        <v>1944</v>
       </c>
       <c r="T46" t="n">
         <v>18</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44326</v>
+        <v>44438</v>
       </c>
       <c r="E47" t="n">
         <v>13</v>
@@ -4120,20 +4120,20 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N47" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="O47" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="P47" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>1556</v>
+        <v>1778</v>
       </c>
       <c r="T47" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Maracuyá.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Maracuyá.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44410</v>
+        <v>44396</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="N2" t="n">
-        <v>32000</v>
+        <v>37000</v>
       </c>
       <c r="O2" t="n">
-        <v>32000</v>
+        <v>37000</v>
       </c>
       <c r="P2" t="n">
-        <v>32000</v>
+        <v>37000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1778</v>
+        <v>2056</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44410</v>
+        <v>44396</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N3" t="n">
-        <v>30000</v>
+        <v>34000</v>
       </c>
       <c r="O3" t="n">
-        <v>30000</v>
+        <v>34000</v>
       </c>
       <c r="P3" t="n">
-        <v>30000</v>
+        <v>34000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1667</v>
+        <v>1889</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44410</v>
+        <v>44522</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="N4" t="n">
-        <v>28000</v>
+        <v>60000</v>
       </c>
       <c r="O4" t="n">
-        <v>28000</v>
+        <v>60000</v>
       </c>
       <c r="P4" t="n">
-        <v>28000</v>
+        <v>60000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1556</v>
+        <v>3333</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N5" t="n">
-        <v>60000</v>
+        <v>56000</v>
       </c>
       <c r="O5" t="n">
-        <v>60000</v>
+        <v>56000</v>
       </c>
       <c r="P5" t="n">
-        <v>60000</v>
+        <v>56000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>3333</v>
+        <v>3111</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44522</v>
+        <v>44277</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="N6" t="n">
-        <v>56000</v>
+        <v>30000</v>
       </c>
       <c r="O6" t="n">
-        <v>56000</v>
+        <v>30000</v>
       </c>
       <c r="P6" t="n">
-        <v>56000</v>
+        <v>30000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -862,11 +862,11 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>3111</v>
+        <v>1667</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44305</v>
+        <v>44277</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="N7" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="O7" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="P7" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1667</v>
+        <v>1556</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44473</v>
+        <v>44333</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="N8" t="n">
-        <v>75000</v>
+        <v>38000</v>
       </c>
       <c r="O8" t="n">
-        <v>75000</v>
+        <v>38000</v>
       </c>
       <c r="P8" t="n">
-        <v>75000</v>
+        <v>38000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>4167</v>
+        <v>2111</v>
       </c>
       <c r="T8" t="n">
         <v>18</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44473</v>
+        <v>44333</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M9" t="n">
         <v>25</v>
       </c>
       <c r="N9" t="n">
-        <v>72000</v>
+        <v>35000</v>
       </c>
       <c r="O9" t="n">
-        <v>72000</v>
+        <v>35000</v>
       </c>
       <c r="P9" t="n">
-        <v>72000</v>
+        <v>35000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>4000</v>
+        <v>1944</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44473</v>
+        <v>44305</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1160,20 +1160,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="N10" t="n">
-        <v>67000</v>
+        <v>30000</v>
       </c>
       <c r="O10" t="n">
-        <v>67000</v>
+        <v>30000</v>
       </c>
       <c r="P10" t="n">
-        <v>67000</v>
+        <v>30000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>3722</v>
+        <v>1667</v>
       </c>
       <c r="T10" t="n">
         <v>18</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44326</v>
+        <v>44438</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1240,20 +1240,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="N11" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="O11" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="P11" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1944</v>
+        <v>1778</v>
       </c>
       <c r="T11" t="n">
         <v>18</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44326</v>
+        <v>44417</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N12" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="O12" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="P12" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1667</v>
+        <v>1556</v>
       </c>
       <c r="T12" t="n">
         <v>18</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44326</v>
+        <v>44389</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="N13" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="O13" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="P13" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1556</v>
+        <v>1611</v>
       </c>
       <c r="T13" t="n">
         <v>18</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44277</v>
+        <v>44389</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="N14" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="O14" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="P14" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1667</v>
+        <v>1500</v>
       </c>
       <c r="T14" t="n">
         <v>18</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44277</v>
+        <v>44284</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N15" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="O15" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="P15" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1556</v>
+        <v>1278</v>
       </c>
       <c r="T15" t="n">
         <v>18</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44319</v>
+        <v>44445</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>140</v>
+        <v>30</v>
       </c>
       <c r="N16" t="n">
-        <v>27000</v>
+        <v>32000</v>
       </c>
       <c r="O16" t="n">
-        <v>27000</v>
+        <v>32000</v>
       </c>
       <c r="P16" t="n">
-        <v>27000</v>
+        <v>32000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1500</v>
+        <v>1778</v>
       </c>
       <c r="T16" t="n">
         <v>18</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44466</v>
+        <v>44312</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>15</v>
+        <v>160</v>
       </c>
       <c r="N17" t="n">
-        <v>60000</v>
+        <v>26000</v>
       </c>
       <c r="O17" t="n">
-        <v>60000</v>
+        <v>26000</v>
       </c>
       <c r="P17" t="n">
-        <v>60000</v>
+        <v>26000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>3333</v>
+        <v>1444</v>
       </c>
       <c r="T17" t="n">
         <v>18</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44466</v>
+        <v>44424</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1800,20 +1800,20 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="N18" t="n">
-        <v>58000</v>
+        <v>32000</v>
       </c>
       <c r="O18" t="n">
-        <v>58000</v>
+        <v>32000</v>
       </c>
       <c r="P18" t="n">
-        <v>58000</v>
+        <v>32000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>3222</v>
+        <v>1778</v>
       </c>
       <c r="T18" t="n">
         <v>18</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44270</v>
+        <v>44473</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="N19" t="n">
-        <v>38000</v>
+        <v>75000</v>
       </c>
       <c r="O19" t="n">
-        <v>38000</v>
+        <v>75000</v>
       </c>
       <c r="P19" t="n">
-        <v>38000</v>
+        <v>75000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>2111</v>
+        <v>4167</v>
       </c>
       <c r="T19" t="n">
         <v>18</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44445</v>
+        <v>44473</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N20" t="n">
-        <v>32000</v>
+        <v>72000</v>
       </c>
       <c r="O20" t="n">
-        <v>32000</v>
+        <v>72000</v>
       </c>
       <c r="P20" t="n">
-        <v>32000</v>
+        <v>72000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1778</v>
+        <v>4000</v>
       </c>
       <c r="T20" t="n">
         <v>18</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44284</v>
+        <v>44473</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2040,20 +2040,20 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>120</v>
+        <v>5</v>
       </c>
       <c r="N21" t="n">
-        <v>23000</v>
+        <v>67000</v>
       </c>
       <c r="O21" t="n">
-        <v>23000</v>
+        <v>67000</v>
       </c>
       <c r="P21" t="n">
-        <v>23000</v>
+        <v>67000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1278</v>
+        <v>3722</v>
       </c>
       <c r="T21" t="n">
         <v>18</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44291</v>
+        <v>44340</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N22" t="n">
-        <v>25000</v>
+        <v>37000</v>
       </c>
       <c r="O22" t="n">
-        <v>25000</v>
+        <v>37000</v>
       </c>
       <c r="P22" t="n">
-        <v>25000</v>
+        <v>37000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1389</v>
+        <v>2056</v>
       </c>
       <c r="T22" t="n">
         <v>18</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44312</v>
+        <v>44340</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2200,20 +2200,20 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="N23" t="n">
-        <v>26000</v>
+        <v>35000</v>
       </c>
       <c r="O23" t="n">
-        <v>26000</v>
+        <v>35000</v>
       </c>
       <c r="P23" t="n">
-        <v>26000</v>
+        <v>35000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1444</v>
+        <v>1944</v>
       </c>
       <c r="T23" t="n">
         <v>18</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44396</v>
+        <v>44403</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2280,20 +2280,20 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="N24" t="n">
-        <v>37000</v>
+        <v>33000</v>
       </c>
       <c r="O24" t="n">
-        <v>37000</v>
+        <v>33000</v>
       </c>
       <c r="P24" t="n">
-        <v>37000</v>
+        <v>33000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>2056</v>
+        <v>1833</v>
       </c>
       <c r="T24" t="n">
         <v>18</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44396</v>
+        <v>44403</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2360,20 +2360,20 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="N25" t="n">
-        <v>34000</v>
+        <v>30000</v>
       </c>
       <c r="O25" t="n">
-        <v>34000</v>
+        <v>30000</v>
       </c>
       <c r="P25" t="n">
-        <v>34000</v>
+        <v>30000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1889</v>
+        <v>1667</v>
       </c>
       <c r="T25" t="n">
         <v>18</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44435</v>
+        <v>44403</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2440,20 +2440,20 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N26" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="O26" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="P26" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1778</v>
+        <v>1556</v>
       </c>
       <c r="T26" t="n">
         <v>18</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44459</v>
+        <v>44529</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2520,20 +2520,20 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N27" t="n">
-        <v>38000</v>
+        <v>60000</v>
       </c>
       <c r="O27" t="n">
-        <v>38000</v>
+        <v>60000</v>
       </c>
       <c r="P27" t="n">
-        <v>38000</v>
+        <v>60000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>2111</v>
+        <v>3333</v>
       </c>
       <c r="T27" t="n">
         <v>18</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44333</v>
+        <v>44529</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2604,16 +2604,16 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N28" t="n">
-        <v>38000</v>
+        <v>58000</v>
       </c>
       <c r="O28" t="n">
-        <v>38000</v>
+        <v>58000</v>
       </c>
       <c r="P28" t="n">
-        <v>38000</v>
+        <v>58000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>2111</v>
+        <v>3222</v>
       </c>
       <c r="T28" t="n">
         <v>18</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44333</v>
+        <v>44354</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2680,20 +2680,20 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="N29" t="n">
-        <v>35000</v>
+        <v>38000</v>
       </c>
       <c r="O29" t="n">
-        <v>35000</v>
+        <v>38000</v>
       </c>
       <c r="P29" t="n">
-        <v>35000</v>
+        <v>38000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1944</v>
+        <v>2111</v>
       </c>
       <c r="T29" t="n">
         <v>18</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44529</v>
+        <v>44466</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2760,11 +2760,11 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N30" t="n">
         <v>60000</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44529</v>
+        <v>44466</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2840,11 +2840,11 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="N31" t="n">
         <v>58000</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44431</v>
+        <v>44410</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2920,11 +2920,11 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N32" t="n">
         <v>32000</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44403</v>
+        <v>44410</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3000,20 +3000,20 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M33" t="n">
         <v>25</v>
       </c>
       <c r="N33" t="n">
-        <v>33000</v>
+        <v>30000</v>
       </c>
       <c r="O33" t="n">
-        <v>33000</v>
+        <v>30000</v>
       </c>
       <c r="P33" t="n">
-        <v>33000</v>
+        <v>30000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1833</v>
+        <v>1667</v>
       </c>
       <c r="T33" t="n">
         <v>18</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44403</v>
+        <v>44410</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3080,20 +3080,20 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="N34" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="O34" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="P34" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1667</v>
+        <v>1556</v>
       </c>
       <c r="T34" t="n">
         <v>18</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44403</v>
+        <v>44326</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3160,20 +3160,20 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N35" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="O35" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="P35" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1556</v>
+        <v>1944</v>
       </c>
       <c r="T35" t="n">
         <v>18</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44382</v>
+        <v>44326</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3240,20 +3240,20 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N36" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="O36" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="P36" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1944</v>
+        <v>1667</v>
       </c>
       <c r="T36" t="n">
         <v>18</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44382</v>
+        <v>44326</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3320,20 +3320,20 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N37" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="O37" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="P37" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1778</v>
+        <v>1556</v>
       </c>
       <c r="T37" t="n">
         <v>18</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44382</v>
+        <v>44270</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3400,20 +3400,20 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="N38" t="n">
-        <v>30000</v>
+        <v>38000</v>
       </c>
       <c r="O38" t="n">
-        <v>30000</v>
+        <v>38000</v>
       </c>
       <c r="P38" t="n">
-        <v>30000</v>
+        <v>38000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>1667</v>
+        <v>2111</v>
       </c>
       <c r="T38" t="n">
         <v>18</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44452</v>
+        <v>44459</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3484,16 +3484,16 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N39" t="n">
-        <v>36000</v>
+        <v>38000</v>
       </c>
       <c r="O39" t="n">
-        <v>36000</v>
+        <v>38000</v>
       </c>
       <c r="P39" t="n">
-        <v>36000</v>
+        <v>38000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>2000</v>
+        <v>2111</v>
       </c>
       <c r="T39" t="n">
         <v>18</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44389</v>
+        <v>44431</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3564,16 +3564,16 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N40" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="O40" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="P40" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>1611</v>
+        <v>1778</v>
       </c>
       <c r="T40" t="n">
         <v>18</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44389</v>
+        <v>44291</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3640,20 +3640,20 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N41" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="O41" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="P41" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>1500</v>
+        <v>1389</v>
       </c>
       <c r="T41" t="n">
         <v>18</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44417</v>
+        <v>44435</v>
       </c>
       <c r="E42" t="n">
         <v>13</v>
@@ -3724,16 +3724,16 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N42" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="O42" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="P42" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>1556</v>
+        <v>1778</v>
       </c>
       <c r="T42" t="n">
         <v>18</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44354</v>
+        <v>44319</v>
       </c>
       <c r="E43" t="n">
         <v>13</v>
@@ -3804,16 +3804,16 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="N43" t="n">
-        <v>38000</v>
+        <v>27000</v>
       </c>
       <c r="O43" t="n">
-        <v>38000</v>
+        <v>27000</v>
       </c>
       <c r="P43" t="n">
-        <v>38000</v>
+        <v>27000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>2111</v>
+        <v>1500</v>
       </c>
       <c r="T43" t="n">
         <v>18</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44424</v>
+        <v>44452</v>
       </c>
       <c r="E44" t="n">
         <v>13</v>
@@ -3884,16 +3884,16 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N44" t="n">
-        <v>32000</v>
+        <v>36000</v>
       </c>
       <c r="O44" t="n">
-        <v>32000</v>
+        <v>36000</v>
       </c>
       <c r="P44" t="n">
-        <v>32000</v>
+        <v>36000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>1778</v>
+        <v>2000</v>
       </c>
       <c r="T44" t="n">
         <v>18</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44340</v>
+        <v>44382</v>
       </c>
       <c r="E45" t="n">
         <v>13</v>
@@ -3960,20 +3960,20 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="N45" t="n">
-        <v>37000</v>
+        <v>35000</v>
       </c>
       <c r="O45" t="n">
-        <v>37000</v>
+        <v>35000</v>
       </c>
       <c r="P45" t="n">
-        <v>37000</v>
+        <v>35000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>2056</v>
+        <v>1944</v>
       </c>
       <c r="T45" t="n">
         <v>18</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44340</v>
+        <v>44382</v>
       </c>
       <c r="E46" t="n">
         <v>13</v>
@@ -4040,20 +4040,20 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N46" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="O46" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="P46" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>1944</v>
+        <v>1778</v>
       </c>
       <c r="T46" t="n">
         <v>18</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44438</v>
+        <v>44382</v>
       </c>
       <c r="E47" t="n">
         <v>13</v>
@@ -4120,20 +4120,20 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N47" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="O47" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="P47" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>1778</v>
+        <v>1667</v>
       </c>
       <c r="T47" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Maracuyá.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Maracuyá.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44396</v>
+        <v>44333</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N2" t="n">
-        <v>37000</v>
+        <v>38000</v>
       </c>
       <c r="O2" t="n">
-        <v>37000</v>
+        <v>38000</v>
       </c>
       <c r="P2" t="n">
-        <v>37000</v>
+        <v>38000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>2056</v>
+        <v>2111</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44396</v>
+        <v>44333</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N3" t="n">
-        <v>34000</v>
+        <v>35000</v>
       </c>
       <c r="O3" t="n">
-        <v>34000</v>
+        <v>35000</v>
       </c>
       <c r="P3" t="n">
-        <v>34000</v>
+        <v>35000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1889</v>
+        <v>1944</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44522</v>
+        <v>44284</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="N4" t="n">
-        <v>60000</v>
+        <v>23000</v>
       </c>
       <c r="O4" t="n">
-        <v>60000</v>
+        <v>23000</v>
       </c>
       <c r="P4" t="n">
-        <v>60000</v>
+        <v>23000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>3333</v>
+        <v>1278</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44522</v>
+        <v>44431</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N5" t="n">
-        <v>56000</v>
+        <v>32000</v>
       </c>
       <c r="O5" t="n">
-        <v>56000</v>
+        <v>32000</v>
       </c>
       <c r="P5" t="n">
-        <v>56000</v>
+        <v>32000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -782,11 +782,11 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>3111</v>
+        <v>1778</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44277</v>
+        <v>44452</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="N6" t="n">
-        <v>30000</v>
+        <v>36000</v>
       </c>
       <c r="O6" t="n">
-        <v>30000</v>
+        <v>36000</v>
       </c>
       <c r="P6" t="n">
-        <v>30000</v>
+        <v>36000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1667</v>
+        <v>2000</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44277</v>
+        <v>44312</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="N7" t="n">
-        <v>28000</v>
+        <v>26000</v>
       </c>
       <c r="O7" t="n">
-        <v>28000</v>
+        <v>26000</v>
       </c>
       <c r="P7" t="n">
-        <v>28000</v>
+        <v>26000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1556</v>
+        <v>1444</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44333</v>
+        <v>44340</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N8" t="n">
-        <v>38000</v>
+        <v>37000</v>
       </c>
       <c r="O8" t="n">
-        <v>38000</v>
+        <v>37000</v>
       </c>
       <c r="P8" t="n">
-        <v>38000</v>
+        <v>37000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>2111</v>
+        <v>2056</v>
       </c>
       <c r="T8" t="n">
         <v>18</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44333</v>
+        <v>44340</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N9" t="n">
         <v>35000</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44305</v>
+        <v>44354</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="N10" t="n">
-        <v>30000</v>
+        <v>38000</v>
       </c>
       <c r="O10" t="n">
-        <v>30000</v>
+        <v>38000</v>
       </c>
       <c r="P10" t="n">
-        <v>30000</v>
+        <v>38000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1667</v>
+        <v>2111</v>
       </c>
       <c r="T10" t="n">
         <v>18</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44438</v>
+        <v>44445</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44417</v>
+        <v>44389</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="N12" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="O12" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="P12" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1556</v>
+        <v>1611</v>
       </c>
       <c r="T12" t="n">
         <v>18</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="N13" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="O13" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="P13" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1611</v>
+        <v>1500</v>
       </c>
       <c r="T13" t="n">
         <v>18</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44389</v>
+        <v>44291</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N14" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="O14" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="P14" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1500</v>
+        <v>1389</v>
       </c>
       <c r="T14" t="n">
         <v>18</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44284</v>
+        <v>44424</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="N15" t="n">
-        <v>23000</v>
+        <v>32000</v>
       </c>
       <c r="O15" t="n">
-        <v>23000</v>
+        <v>32000</v>
       </c>
       <c r="P15" t="n">
-        <v>23000</v>
+        <v>32000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1278</v>
+        <v>1778</v>
       </c>
       <c r="T15" t="n">
         <v>18</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44445</v>
+        <v>44270</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="N16" t="n">
-        <v>32000</v>
+        <v>38000</v>
       </c>
       <c r="O16" t="n">
-        <v>32000</v>
+        <v>38000</v>
       </c>
       <c r="P16" t="n">
-        <v>32000</v>
+        <v>38000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1778</v>
+        <v>2111</v>
       </c>
       <c r="T16" t="n">
         <v>18</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44312</v>
+        <v>44305</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>160</v>
+        <v>25</v>
       </c>
       <c r="N17" t="n">
-        <v>26000</v>
+        <v>30000</v>
       </c>
       <c r="O17" t="n">
-        <v>26000</v>
+        <v>30000</v>
       </c>
       <c r="P17" t="n">
-        <v>26000</v>
+        <v>30000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1444</v>
+        <v>1667</v>
       </c>
       <c r="T17" t="n">
         <v>18</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44424</v>
+        <v>44473</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1800,20 +1800,20 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="N18" t="n">
-        <v>32000</v>
+        <v>75000</v>
       </c>
       <c r="O18" t="n">
-        <v>32000</v>
+        <v>75000</v>
       </c>
       <c r="P18" t="n">
-        <v>32000</v>
+        <v>75000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1778</v>
+        <v>4167</v>
       </c>
       <c r="T18" t="n">
         <v>18</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="N19" t="n">
-        <v>75000</v>
+        <v>72000</v>
       </c>
       <c r="O19" t="n">
-        <v>75000</v>
+        <v>72000</v>
       </c>
       <c r="P19" t="n">
-        <v>75000</v>
+        <v>72000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>4167</v>
+        <v>4000</v>
       </c>
       <c r="T19" t="n">
         <v>18</v>
@@ -1960,20 +1960,20 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="N20" t="n">
-        <v>72000</v>
+        <v>67000</v>
       </c>
       <c r="O20" t="n">
-        <v>72000</v>
+        <v>67000</v>
       </c>
       <c r="P20" t="n">
-        <v>72000</v>
+        <v>67000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>4000</v>
+        <v>3722</v>
       </c>
       <c r="T20" t="n">
         <v>18</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44473</v>
+        <v>44277</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2040,20 +2040,20 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="N21" t="n">
-        <v>67000</v>
+        <v>30000</v>
       </c>
       <c r="O21" t="n">
-        <v>67000</v>
+        <v>30000</v>
       </c>
       <c r="P21" t="n">
-        <v>67000</v>
+        <v>30000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>3722</v>
+        <v>1667</v>
       </c>
       <c r="T21" t="n">
         <v>18</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44340</v>
+        <v>44277</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2120,20 +2120,20 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="N22" t="n">
-        <v>37000</v>
+        <v>28000</v>
       </c>
       <c r="O22" t="n">
-        <v>37000</v>
+        <v>28000</v>
       </c>
       <c r="P22" t="n">
-        <v>37000</v>
+        <v>28000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>2056</v>
+        <v>1556</v>
       </c>
       <c r="T22" t="n">
         <v>18</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44340</v>
+        <v>44459</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2200,20 +2200,20 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N23" t="n">
-        <v>35000</v>
+        <v>38000</v>
       </c>
       <c r="O23" t="n">
-        <v>35000</v>
+        <v>38000</v>
       </c>
       <c r="P23" t="n">
-        <v>35000</v>
+        <v>38000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1944</v>
+        <v>2111</v>
       </c>
       <c r="T23" t="n">
         <v>18</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44403</v>
+        <v>44326</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="N24" t="n">
-        <v>33000</v>
+        <v>35000</v>
       </c>
       <c r="O24" t="n">
-        <v>33000</v>
+        <v>35000</v>
       </c>
       <c r="P24" t="n">
-        <v>33000</v>
+        <v>35000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1833</v>
+        <v>1944</v>
       </c>
       <c r="T24" t="n">
         <v>18</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44403</v>
+        <v>44326</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2364,7 +2364,7 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="N25" t="n">
         <v>30000</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44403</v>
+        <v>44326</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2444,7 +2444,7 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N26" t="n">
         <v>28000</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44529</v>
+        <v>44403</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2524,16 +2524,16 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N27" t="n">
-        <v>60000</v>
+        <v>33000</v>
       </c>
       <c r="O27" t="n">
-        <v>60000</v>
+        <v>33000</v>
       </c>
       <c r="P27" t="n">
-        <v>60000</v>
+        <v>33000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>3333</v>
+        <v>1833</v>
       </c>
       <c r="T27" t="n">
         <v>18</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44529</v>
+        <v>44403</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2604,16 +2604,16 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="N28" t="n">
-        <v>58000</v>
+        <v>30000</v>
       </c>
       <c r="O28" t="n">
-        <v>58000</v>
+        <v>30000</v>
       </c>
       <c r="P28" t="n">
-        <v>58000</v>
+        <v>30000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>3222</v>
+        <v>1667</v>
       </c>
       <c r="T28" t="n">
         <v>18</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44354</v>
+        <v>44403</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2680,20 +2680,20 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="N29" t="n">
-        <v>38000</v>
+        <v>28000</v>
       </c>
       <c r="O29" t="n">
-        <v>38000</v>
+        <v>28000</v>
       </c>
       <c r="P29" t="n">
-        <v>38000</v>
+        <v>28000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>2111</v>
+        <v>1556</v>
       </c>
       <c r="T29" t="n">
         <v>18</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44466</v>
+        <v>44396</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2764,16 +2764,16 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="N30" t="n">
-        <v>60000</v>
+        <v>37000</v>
       </c>
       <c r="O30" t="n">
-        <v>60000</v>
+        <v>37000</v>
       </c>
       <c r="P30" t="n">
-        <v>60000</v>
+        <v>37000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>3333</v>
+        <v>2056</v>
       </c>
       <c r="T30" t="n">
         <v>18</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44466</v>
+        <v>44396</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2844,16 +2844,16 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N31" t="n">
-        <v>58000</v>
+        <v>34000</v>
       </c>
       <c r="O31" t="n">
-        <v>58000</v>
+        <v>34000</v>
       </c>
       <c r="P31" t="n">
-        <v>58000</v>
+        <v>34000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>3222</v>
+        <v>1889</v>
       </c>
       <c r="T31" t="n">
         <v>18</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44410</v>
+        <v>44417</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2920,20 +2920,20 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M32" t="n">
         <v>15</v>
       </c>
       <c r="N32" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="O32" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="P32" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1778</v>
+        <v>1556</v>
       </c>
       <c r="T32" t="n">
         <v>18</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44410</v>
+        <v>44435</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3004,16 +3004,16 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N33" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="O33" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="P33" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1667</v>
+        <v>1778</v>
       </c>
       <c r="T33" t="n">
         <v>18</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44410</v>
+        <v>44438</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3080,20 +3080,20 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="N34" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="O34" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="P34" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1556</v>
+        <v>1778</v>
       </c>
       <c r="T34" t="n">
         <v>18</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44326</v>
+        <v>44319</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3160,20 +3160,20 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>16</v>
+        <v>140</v>
       </c>
       <c r="N35" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="O35" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="P35" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1944</v>
+        <v>1500</v>
       </c>
       <c r="T35" t="n">
         <v>18</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44326</v>
+        <v>44466</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3244,16 +3244,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N36" t="n">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="O36" t="n">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="P36" t="n">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1667</v>
+        <v>3333</v>
       </c>
       <c r="T36" t="n">
         <v>18</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44326</v>
+        <v>44466</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3324,16 +3324,16 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N37" t="n">
-        <v>28000</v>
+        <v>58000</v>
       </c>
       <c r="O37" t="n">
-        <v>28000</v>
+        <v>58000</v>
       </c>
       <c r="P37" t="n">
-        <v>28000</v>
+        <v>58000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1556</v>
+        <v>3222</v>
       </c>
       <c r="T37" t="n">
         <v>18</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44270</v>
+        <v>44382</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3404,16 +3404,16 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="N38" t="n">
-        <v>38000</v>
+        <v>35000</v>
       </c>
       <c r="O38" t="n">
-        <v>38000</v>
+        <v>35000</v>
       </c>
       <c r="P38" t="n">
-        <v>38000</v>
+        <v>35000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>2111</v>
+        <v>1944</v>
       </c>
       <c r="T38" t="n">
         <v>18</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44459</v>
+        <v>44382</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3484,16 +3484,16 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N39" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="O39" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="P39" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>2111</v>
+        <v>1778</v>
       </c>
       <c r="T39" t="n">
         <v>18</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44431</v>
+        <v>44382</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3560,20 +3560,20 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N40" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="O40" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="P40" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>1778</v>
+        <v>1667</v>
       </c>
       <c r="T40" t="n">
         <v>18</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44291</v>
+        <v>44529</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3640,20 +3640,20 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N41" t="n">
-        <v>25000</v>
+        <v>60000</v>
       </c>
       <c r="O41" t="n">
-        <v>25000</v>
+        <v>60000</v>
       </c>
       <c r="P41" t="n">
-        <v>25000</v>
+        <v>60000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>1389</v>
+        <v>3333</v>
       </c>
       <c r="T41" t="n">
         <v>18</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44435</v>
+        <v>44529</v>
       </c>
       <c r="E42" t="n">
         <v>13</v>
@@ -3724,16 +3724,16 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N42" t="n">
-        <v>32000</v>
+        <v>58000</v>
       </c>
       <c r="O42" t="n">
-        <v>32000</v>
+        <v>58000</v>
       </c>
       <c r="P42" t="n">
-        <v>32000</v>
+        <v>58000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>1778</v>
+        <v>3222</v>
       </c>
       <c r="T42" t="n">
         <v>18</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44319</v>
+        <v>44522</v>
       </c>
       <c r="E43" t="n">
         <v>13</v>
@@ -3804,16 +3804,16 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>140</v>
+        <v>25</v>
       </c>
       <c r="N43" t="n">
-        <v>27000</v>
+        <v>60000</v>
       </c>
       <c r="O43" t="n">
-        <v>27000</v>
+        <v>60000</v>
       </c>
       <c r="P43" t="n">
-        <v>27000</v>
+        <v>60000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3822,11 +3822,11 @@
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="S43" t="n">
-        <v>1500</v>
+        <v>3333</v>
       </c>
       <c r="T43" t="n">
         <v>18</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44452</v>
+        <v>44522</v>
       </c>
       <c r="E44" t="n">
         <v>13</v>
@@ -3880,20 +3880,20 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M44" t="n">
         <v>20</v>
       </c>
       <c r="N44" t="n">
-        <v>36000</v>
+        <v>56000</v>
       </c>
       <c r="O44" t="n">
-        <v>36000</v>
+        <v>56000</v>
       </c>
       <c r="P44" t="n">
-        <v>36000</v>
+        <v>56000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3902,11 +3902,11 @@
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="S44" t="n">
-        <v>2000</v>
+        <v>3111</v>
       </c>
       <c r="T44" t="n">
         <v>18</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44382</v>
+        <v>44410</v>
       </c>
       <c r="E45" t="n">
         <v>13</v>
@@ -3964,16 +3964,16 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N45" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="O45" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="P45" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>1944</v>
+        <v>1778</v>
       </c>
       <c r="T45" t="n">
         <v>18</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44382</v>
+        <v>44410</v>
       </c>
       <c r="E46" t="n">
         <v>13</v>
@@ -4044,16 +4044,16 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N46" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="O46" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="P46" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>1778</v>
+        <v>1667</v>
       </c>
       <c r="T46" t="n">
         <v>18</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44382</v>
+        <v>44410</v>
       </c>
       <c r="E47" t="n">
         <v>13</v>
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N47" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="O47" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="P47" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>1667</v>
+        <v>1556</v>
       </c>
       <c r="T47" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Maracuyá.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Maracuyá.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44333</v>
+        <v>44424</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -527,13 +527,13 @@
         <v>30</v>
       </c>
       <c r="N2" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="O2" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="P2" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>2111</v>
+        <v>1778</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N3" t="n">
-        <v>35000</v>
+        <v>38000</v>
       </c>
       <c r="O3" t="n">
-        <v>35000</v>
+        <v>38000</v>
       </c>
       <c r="P3" t="n">
-        <v>35000</v>
+        <v>38000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1944</v>
+        <v>2111</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44284</v>
+        <v>44333</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>120</v>
+        <v>25</v>
       </c>
       <c r="N4" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="O4" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="P4" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1278</v>
+        <v>1944</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44452</v>
+        <v>44459</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N6" t="n">
-        <v>36000</v>
+        <v>38000</v>
       </c>
       <c r="O6" t="n">
-        <v>36000</v>
+        <v>38000</v>
       </c>
       <c r="P6" t="n">
-        <v>36000</v>
+        <v>38000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>2000</v>
+        <v>2111</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44312</v>
+        <v>44319</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="N7" t="n">
-        <v>26000</v>
+        <v>27000</v>
       </c>
       <c r="O7" t="n">
-        <v>26000</v>
+        <v>27000</v>
       </c>
       <c r="P7" t="n">
-        <v>26000</v>
+        <v>27000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1444</v>
+        <v>1500</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44340</v>
+        <v>44466</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="N8" t="n">
-        <v>37000</v>
+        <v>60000</v>
       </c>
       <c r="O8" t="n">
-        <v>37000</v>
+        <v>60000</v>
       </c>
       <c r="P8" t="n">
-        <v>37000</v>
+        <v>60000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>2056</v>
+        <v>3333</v>
       </c>
       <c r="T8" t="n">
         <v>18</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44340</v>
+        <v>44466</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N9" t="n">
-        <v>35000</v>
+        <v>58000</v>
       </c>
       <c r="O9" t="n">
-        <v>35000</v>
+        <v>58000</v>
       </c>
       <c r="P9" t="n">
-        <v>35000</v>
+        <v>58000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1944</v>
+        <v>3222</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44354</v>
+        <v>44270</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1160,11 +1160,11 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="N10" t="n">
         <v>38000</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44445</v>
+        <v>44410</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1240,11 +1240,11 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N11" t="n">
         <v>32000</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44389</v>
+        <v>44410</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="N12" t="n">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="O12" t="n">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="P12" t="n">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1611</v>
+        <v>1667</v>
       </c>
       <c r="T12" t="n">
         <v>18</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44389</v>
+        <v>44410</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N13" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="O13" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="P13" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1500</v>
+        <v>1556</v>
       </c>
       <c r="T13" t="n">
         <v>18</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44291</v>
+        <v>44312</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>30</v>
+        <v>160</v>
       </c>
       <c r="N14" t="n">
-        <v>25000</v>
+        <v>26000</v>
       </c>
       <c r="O14" t="n">
-        <v>25000</v>
+        <v>26000</v>
       </c>
       <c r="P14" t="n">
-        <v>25000</v>
+        <v>26000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1389</v>
+        <v>1444</v>
       </c>
       <c r="T14" t="n">
         <v>18</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44424</v>
+        <v>44305</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N15" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="O15" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="P15" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1778</v>
+        <v>1667</v>
       </c>
       <c r="T15" t="n">
         <v>18</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44270</v>
+        <v>44340</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="N16" t="n">
-        <v>38000</v>
+        <v>37000</v>
       </c>
       <c r="O16" t="n">
-        <v>38000</v>
+        <v>37000</v>
       </c>
       <c r="P16" t="n">
-        <v>38000</v>
+        <v>37000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>2111</v>
+        <v>2056</v>
       </c>
       <c r="T16" t="n">
         <v>18</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44305</v>
+        <v>44340</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N17" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="O17" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="P17" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1667</v>
+        <v>1944</v>
       </c>
       <c r="T17" t="n">
         <v>18</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44473</v>
+        <v>44417</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1800,20 +1800,20 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N18" t="n">
-        <v>75000</v>
+        <v>28000</v>
       </c>
       <c r="O18" t="n">
-        <v>75000</v>
+        <v>28000</v>
       </c>
       <c r="P18" t="n">
-        <v>75000</v>
+        <v>28000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>4167</v>
+        <v>1556</v>
       </c>
       <c r="T18" t="n">
         <v>18</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44473</v>
+        <v>44445</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N19" t="n">
-        <v>72000</v>
+        <v>32000</v>
       </c>
       <c r="O19" t="n">
-        <v>72000</v>
+        <v>32000</v>
       </c>
       <c r="P19" t="n">
-        <v>72000</v>
+        <v>32000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>4000</v>
+        <v>1778</v>
       </c>
       <c r="T19" t="n">
         <v>18</v>
@@ -1960,20 +1960,20 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N20" t="n">
-        <v>67000</v>
+        <v>75000</v>
       </c>
       <c r="O20" t="n">
-        <v>67000</v>
+        <v>75000</v>
       </c>
       <c r="P20" t="n">
-        <v>67000</v>
+        <v>75000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>3722</v>
+        <v>4167</v>
       </c>
       <c r="T20" t="n">
         <v>18</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44277</v>
+        <v>44473</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="N21" t="n">
-        <v>30000</v>
+        <v>72000</v>
       </c>
       <c r="O21" t="n">
-        <v>30000</v>
+        <v>72000</v>
       </c>
       <c r="P21" t="n">
-        <v>30000</v>
+        <v>72000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1667</v>
+        <v>4000</v>
       </c>
       <c r="T21" t="n">
         <v>18</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44277</v>
+        <v>44473</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="N22" t="n">
-        <v>28000</v>
+        <v>67000</v>
       </c>
       <c r="O22" t="n">
-        <v>28000</v>
+        <v>67000</v>
       </c>
       <c r="P22" t="n">
-        <v>28000</v>
+        <v>67000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1556</v>
+        <v>3722</v>
       </c>
       <c r="T22" t="n">
         <v>18</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44459</v>
+        <v>44354</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2204,7 +2204,7 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="N23" t="n">
         <v>38000</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44326</v>
+        <v>44438</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2280,20 +2280,20 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="N24" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="O24" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="P24" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1944</v>
+        <v>1778</v>
       </c>
       <c r="T24" t="n">
         <v>18</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44326</v>
+        <v>44291</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N25" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="O25" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="P25" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1667</v>
+        <v>1389</v>
       </c>
       <c r="T25" t="n">
         <v>18</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44326</v>
+        <v>44277</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2440,20 +2440,20 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="N26" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="O26" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="P26" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1556</v>
+        <v>1667</v>
       </c>
       <c r="T26" t="n">
         <v>18</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44403</v>
+        <v>44277</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2520,20 +2520,20 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="N27" t="n">
-        <v>33000</v>
+        <v>28000</v>
       </c>
       <c r="O27" t="n">
-        <v>33000</v>
+        <v>28000</v>
       </c>
       <c r="P27" t="n">
-        <v>33000</v>
+        <v>28000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1833</v>
+        <v>1556</v>
       </c>
       <c r="T27" t="n">
         <v>18</v>
@@ -2600,20 +2600,20 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="N28" t="n">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="O28" t="n">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="P28" t="n">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1667</v>
+        <v>1833</v>
       </c>
       <c r="T28" t="n">
         <v>18</v>
@@ -2680,20 +2680,20 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="N29" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="O29" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="P29" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1556</v>
+        <v>1667</v>
       </c>
       <c r="T29" t="n">
         <v>18</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44396</v>
+        <v>44403</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2760,20 +2760,20 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="N30" t="n">
-        <v>37000</v>
+        <v>28000</v>
       </c>
       <c r="O30" t="n">
-        <v>37000</v>
+        <v>28000</v>
       </c>
       <c r="P30" t="n">
-        <v>37000</v>
+        <v>28000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>2056</v>
+        <v>1556</v>
       </c>
       <c r="T30" t="n">
         <v>18</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44396</v>
+        <v>44326</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2840,20 +2840,20 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N31" t="n">
-        <v>34000</v>
+        <v>35000</v>
       </c>
       <c r="O31" t="n">
-        <v>34000</v>
+        <v>35000</v>
       </c>
       <c r="P31" t="n">
-        <v>34000</v>
+        <v>35000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1889</v>
+        <v>1944</v>
       </c>
       <c r="T31" t="n">
         <v>18</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44417</v>
+        <v>44326</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2924,16 +2924,16 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N32" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="O32" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="P32" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1556</v>
+        <v>1667</v>
       </c>
       <c r="T32" t="n">
         <v>18</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44435</v>
+        <v>44326</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3000,20 +3000,20 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N33" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="O33" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="P33" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1778</v>
+        <v>1556</v>
       </c>
       <c r="T33" t="n">
         <v>18</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44438</v>
+        <v>44529</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3080,20 +3080,20 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N34" t="n">
-        <v>32000</v>
+        <v>60000</v>
       </c>
       <c r="O34" t="n">
-        <v>32000</v>
+        <v>60000</v>
       </c>
       <c r="P34" t="n">
-        <v>32000</v>
+        <v>60000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1778</v>
+        <v>3333</v>
       </c>
       <c r="T34" t="n">
         <v>18</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44319</v>
+        <v>44529</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="N35" t="n">
-        <v>27000</v>
+        <v>58000</v>
       </c>
       <c r="O35" t="n">
-        <v>27000</v>
+        <v>58000</v>
       </c>
       <c r="P35" t="n">
-        <v>27000</v>
+        <v>58000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1500</v>
+        <v>3222</v>
       </c>
       <c r="T35" t="n">
         <v>18</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44466</v>
+        <v>44452</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3244,16 +3244,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N36" t="n">
-        <v>60000</v>
+        <v>36000</v>
       </c>
       <c r="O36" t="n">
-        <v>60000</v>
+        <v>36000</v>
       </c>
       <c r="P36" t="n">
-        <v>60000</v>
+        <v>36000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>3333</v>
+        <v>2000</v>
       </c>
       <c r="T36" t="n">
         <v>18</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44466</v>
+        <v>44435</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3320,20 +3320,20 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="N37" t="n">
-        <v>58000</v>
+        <v>32000</v>
       </c>
       <c r="O37" t="n">
-        <v>58000</v>
+        <v>32000</v>
       </c>
       <c r="P37" t="n">
-        <v>58000</v>
+        <v>32000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>3222</v>
+        <v>1778</v>
       </c>
       <c r="T37" t="n">
         <v>18</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44382</v>
+        <v>44522</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3400,20 +3400,20 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N38" t="n">
-        <v>35000</v>
+        <v>60000</v>
       </c>
       <c r="O38" t="n">
-        <v>35000</v>
+        <v>60000</v>
       </c>
       <c r="P38" t="n">
-        <v>35000</v>
+        <v>60000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3422,11 +3422,11 @@
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="S38" t="n">
-        <v>1944</v>
+        <v>3333</v>
       </c>
       <c r="T38" t="n">
         <v>18</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44382</v>
+        <v>44522</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3480,20 +3480,20 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N39" t="n">
-        <v>32000</v>
+        <v>56000</v>
       </c>
       <c r="O39" t="n">
-        <v>32000</v>
+        <v>56000</v>
       </c>
       <c r="P39" t="n">
-        <v>32000</v>
+        <v>56000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3502,11 +3502,11 @@
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1778</v>
+        <v>3111</v>
       </c>
       <c r="T39" t="n">
         <v>18</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44382</v>
+        <v>44389</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3560,20 +3560,20 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="N40" t="n">
-        <v>30000</v>
+        <v>29000</v>
       </c>
       <c r="O40" t="n">
-        <v>30000</v>
+        <v>29000</v>
       </c>
       <c r="P40" t="n">
-        <v>30000</v>
+        <v>29000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>1667</v>
+        <v>1611</v>
       </c>
       <c r="T40" t="n">
         <v>18</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44529</v>
+        <v>44389</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3640,20 +3640,20 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M41" t="n">
         <v>20</v>
       </c>
       <c r="N41" t="n">
-        <v>60000</v>
+        <v>27000</v>
       </c>
       <c r="O41" t="n">
-        <v>60000</v>
+        <v>27000</v>
       </c>
       <c r="P41" t="n">
-        <v>60000</v>
+        <v>27000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>3333</v>
+        <v>1500</v>
       </c>
       <c r="T41" t="n">
         <v>18</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44529</v>
+        <v>44382</v>
       </c>
       <c r="E42" t="n">
         <v>13</v>
@@ -3720,20 +3720,20 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="N42" t="n">
-        <v>58000</v>
+        <v>35000</v>
       </c>
       <c r="O42" t="n">
-        <v>58000</v>
+        <v>35000</v>
       </c>
       <c r="P42" t="n">
-        <v>58000</v>
+        <v>35000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>3222</v>
+        <v>1944</v>
       </c>
       <c r="T42" t="n">
         <v>18</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44522</v>
+        <v>44382</v>
       </c>
       <c r="E43" t="n">
         <v>13</v>
@@ -3804,16 +3804,16 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N43" t="n">
-        <v>60000</v>
+        <v>32000</v>
       </c>
       <c r="O43" t="n">
-        <v>60000</v>
+        <v>32000</v>
       </c>
       <c r="P43" t="n">
-        <v>60000</v>
+        <v>32000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3822,11 +3822,11 @@
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S43" t="n">
-        <v>3333</v>
+        <v>1778</v>
       </c>
       <c r="T43" t="n">
         <v>18</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44522</v>
+        <v>44382</v>
       </c>
       <c r="E44" t="n">
         <v>13</v>
@@ -3884,16 +3884,16 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N44" t="n">
-        <v>56000</v>
+        <v>30000</v>
       </c>
       <c r="O44" t="n">
-        <v>56000</v>
+        <v>30000</v>
       </c>
       <c r="P44" t="n">
-        <v>56000</v>
+        <v>30000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3902,11 +3902,11 @@
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S44" t="n">
-        <v>3111</v>
+        <v>1667</v>
       </c>
       <c r="T44" t="n">
         <v>18</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44410</v>
+        <v>44396</v>
       </c>
       <c r="E45" t="n">
         <v>13</v>
@@ -3960,20 +3960,20 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="N45" t="n">
-        <v>32000</v>
+        <v>37000</v>
       </c>
       <c r="O45" t="n">
-        <v>32000</v>
+        <v>37000</v>
       </c>
       <c r="P45" t="n">
-        <v>32000</v>
+        <v>37000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>1778</v>
+        <v>2056</v>
       </c>
       <c r="T45" t="n">
         <v>18</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44410</v>
+        <v>44396</v>
       </c>
       <c r="E46" t="n">
         <v>13</v>
@@ -4040,20 +4040,20 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N46" t="n">
-        <v>30000</v>
+        <v>34000</v>
       </c>
       <c r="O46" t="n">
-        <v>30000</v>
+        <v>34000</v>
       </c>
       <c r="P46" t="n">
-        <v>30000</v>
+        <v>34000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>1667</v>
+        <v>1889</v>
       </c>
       <c r="T46" t="n">
         <v>18</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44410</v>
+        <v>44284</v>
       </c>
       <c r="E47" t="n">
         <v>13</v>
@@ -4120,20 +4120,20 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="N47" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="O47" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="P47" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>1556</v>
+        <v>1278</v>
       </c>
       <c r="T47" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Maracuyá.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Maracuyá.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44424</v>
+        <v>44277</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="N2" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="O2" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="P2" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1778</v>
+        <v>1667</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44333</v>
+        <v>44277</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="N3" t="n">
-        <v>38000</v>
+        <v>28000</v>
       </c>
       <c r="O3" t="n">
-        <v>38000</v>
+        <v>28000</v>
       </c>
       <c r="P3" t="n">
-        <v>38000</v>
+        <v>28000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>2111</v>
+        <v>1556</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44333</v>
+        <v>44529</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N4" t="n">
-        <v>35000</v>
+        <v>60000</v>
       </c>
       <c r="O4" t="n">
-        <v>35000</v>
+        <v>60000</v>
       </c>
       <c r="P4" t="n">
-        <v>35000</v>
+        <v>60000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1944</v>
+        <v>3333</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44431</v>
+        <v>44529</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N5" t="n">
-        <v>32000</v>
+        <v>58000</v>
       </c>
       <c r="O5" t="n">
-        <v>32000</v>
+        <v>58000</v>
       </c>
       <c r="P5" t="n">
-        <v>32000</v>
+        <v>58000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1778</v>
+        <v>3222</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44459</v>
+        <v>44435</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N6" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="O6" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="P6" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>2111</v>
+        <v>1778</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44319</v>
+        <v>44326</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>140</v>
+        <v>16</v>
       </c>
       <c r="N7" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="O7" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="P7" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1500</v>
+        <v>1944</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44466</v>
+        <v>44326</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N8" t="n">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="O8" t="n">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="P8" t="n">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>3333</v>
+        <v>1667</v>
       </c>
       <c r="T8" t="n">
         <v>18</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44466</v>
+        <v>44326</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N9" t="n">
-        <v>58000</v>
+        <v>28000</v>
       </c>
       <c r="O9" t="n">
-        <v>58000</v>
+        <v>28000</v>
       </c>
       <c r="P9" t="n">
-        <v>58000</v>
+        <v>28000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>3222</v>
+        <v>1556</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44270</v>
+        <v>44410</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="N10" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="O10" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="P10" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>2111</v>
+        <v>1778</v>
       </c>
       <c r="T10" t="n">
         <v>18</v>
@@ -1240,20 +1240,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N11" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="O11" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="P11" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1778</v>
+        <v>1667</v>
       </c>
       <c r="T11" t="n">
         <v>18</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="N12" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="O12" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="P12" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1667</v>
+        <v>1556</v>
       </c>
       <c r="T12" t="n">
         <v>18</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44410</v>
+        <v>44270</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="N13" t="n">
-        <v>28000</v>
+        <v>38000</v>
       </c>
       <c r="O13" t="n">
-        <v>28000</v>
+        <v>38000</v>
       </c>
       <c r="P13" t="n">
-        <v>28000</v>
+        <v>38000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1556</v>
+        <v>2111</v>
       </c>
       <c r="T13" t="n">
         <v>18</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44312</v>
+        <v>44354</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="N14" t="n">
-        <v>26000</v>
+        <v>38000</v>
       </c>
       <c r="O14" t="n">
-        <v>26000</v>
+        <v>38000</v>
       </c>
       <c r="P14" t="n">
-        <v>26000</v>
+        <v>38000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1444</v>
+        <v>2111</v>
       </c>
       <c r="T14" t="n">
         <v>18</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44305</v>
+        <v>44396</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="N15" t="n">
-        <v>30000</v>
+        <v>37000</v>
       </c>
       <c r="O15" t="n">
-        <v>30000</v>
+        <v>37000</v>
       </c>
       <c r="P15" t="n">
-        <v>30000</v>
+        <v>37000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1667</v>
+        <v>2056</v>
       </c>
       <c r="T15" t="n">
         <v>18</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44340</v>
+        <v>44396</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="N16" t="n">
-        <v>37000</v>
+        <v>34000</v>
       </c>
       <c r="O16" t="n">
-        <v>37000</v>
+        <v>34000</v>
       </c>
       <c r="P16" t="n">
-        <v>37000</v>
+        <v>34000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>2056</v>
+        <v>1889</v>
       </c>
       <c r="T16" t="n">
         <v>18</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44340</v>
+        <v>44319</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="N17" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="O17" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="P17" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1944</v>
+        <v>1500</v>
       </c>
       <c r="T17" t="n">
         <v>18</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44417</v>
+        <v>44438</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N18" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="O18" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="P18" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1556</v>
+        <v>1778</v>
       </c>
       <c r="T18" t="n">
         <v>18</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44445</v>
+        <v>44452</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N19" t="n">
-        <v>32000</v>
+        <v>36000</v>
       </c>
       <c r="O19" t="n">
-        <v>32000</v>
+        <v>36000</v>
       </c>
       <c r="P19" t="n">
-        <v>32000</v>
+        <v>36000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1778</v>
+        <v>2000</v>
       </c>
       <c r="T19" t="n">
         <v>18</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44473</v>
+        <v>44424</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1960,20 +1960,20 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="N20" t="n">
-        <v>75000</v>
+        <v>32000</v>
       </c>
       <c r="O20" t="n">
-        <v>75000</v>
+        <v>32000</v>
       </c>
       <c r="P20" t="n">
-        <v>75000</v>
+        <v>32000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>4167</v>
+        <v>1778</v>
       </c>
       <c r="T20" t="n">
         <v>18</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44473</v>
+        <v>44403</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2040,20 +2040,20 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M21" t="n">
         <v>25</v>
       </c>
       <c r="N21" t="n">
-        <v>72000</v>
+        <v>33000</v>
       </c>
       <c r="O21" t="n">
-        <v>72000</v>
+        <v>33000</v>
       </c>
       <c r="P21" t="n">
-        <v>72000</v>
+        <v>33000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>4000</v>
+        <v>1833</v>
       </c>
       <c r="T21" t="n">
         <v>18</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44473</v>
+        <v>44403</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2120,20 +2120,20 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="N22" t="n">
-        <v>67000</v>
+        <v>30000</v>
       </c>
       <c r="O22" t="n">
-        <v>67000</v>
+        <v>30000</v>
       </c>
       <c r="P22" t="n">
-        <v>67000</v>
+        <v>30000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>3722</v>
+        <v>1667</v>
       </c>
       <c r="T22" t="n">
         <v>18</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44354</v>
+        <v>44403</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2200,20 +2200,20 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="N23" t="n">
-        <v>38000</v>
+        <v>28000</v>
       </c>
       <c r="O23" t="n">
-        <v>38000</v>
+        <v>28000</v>
       </c>
       <c r="P23" t="n">
-        <v>38000</v>
+        <v>28000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>2111</v>
+        <v>1556</v>
       </c>
       <c r="T23" t="n">
         <v>18</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44438</v>
+        <v>44312</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>30</v>
+        <v>160</v>
       </c>
       <c r="N24" t="n">
-        <v>32000</v>
+        <v>26000</v>
       </c>
       <c r="O24" t="n">
-        <v>32000</v>
+        <v>26000</v>
       </c>
       <c r="P24" t="n">
-        <v>32000</v>
+        <v>26000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1778</v>
+        <v>1444</v>
       </c>
       <c r="T24" t="n">
         <v>18</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44291</v>
+        <v>44389</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N25" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="O25" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="P25" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1389</v>
+        <v>1611</v>
       </c>
       <c r="T25" t="n">
         <v>18</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44277</v>
+        <v>44389</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2440,20 +2440,20 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="N26" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="O26" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="P26" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1667</v>
+        <v>1500</v>
       </c>
       <c r="T26" t="n">
         <v>18</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44277</v>
+        <v>44382</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2520,20 +2520,20 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="N27" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="O27" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="P27" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1556</v>
+        <v>1944</v>
       </c>
       <c r="T27" t="n">
         <v>18</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44403</v>
+        <v>44382</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2600,20 +2600,20 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N28" t="n">
-        <v>33000</v>
+        <v>32000</v>
       </c>
       <c r="O28" t="n">
-        <v>33000</v>
+        <v>32000</v>
       </c>
       <c r="P28" t="n">
-        <v>33000</v>
+        <v>32000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1833</v>
+        <v>1778</v>
       </c>
       <c r="T28" t="n">
         <v>18</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44403</v>
+        <v>44382</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2680,11 +2680,11 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="N29" t="n">
         <v>30000</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44403</v>
+        <v>44473</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2760,20 +2760,20 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N30" t="n">
-        <v>28000</v>
+        <v>75000</v>
       </c>
       <c r="O30" t="n">
-        <v>28000</v>
+        <v>75000</v>
       </c>
       <c r="P30" t="n">
-        <v>28000</v>
+        <v>75000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1556</v>
+        <v>4167</v>
       </c>
       <c r="T30" t="n">
         <v>18</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44326</v>
+        <v>44473</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2840,20 +2840,20 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="N31" t="n">
-        <v>35000</v>
+        <v>72000</v>
       </c>
       <c r="O31" t="n">
-        <v>35000</v>
+        <v>72000</v>
       </c>
       <c r="P31" t="n">
-        <v>35000</v>
+        <v>72000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1944</v>
+        <v>4000</v>
       </c>
       <c r="T31" t="n">
         <v>18</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44326</v>
+        <v>44473</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2920,20 +2920,20 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="N32" t="n">
-        <v>30000</v>
+        <v>67000</v>
       </c>
       <c r="O32" t="n">
-        <v>30000</v>
+        <v>67000</v>
       </c>
       <c r="P32" t="n">
-        <v>30000</v>
+        <v>67000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1667</v>
+        <v>3722</v>
       </c>
       <c r="T32" t="n">
         <v>18</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44326</v>
+        <v>44284</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3000,20 +3000,20 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="N33" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="O33" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="P33" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1556</v>
+        <v>1278</v>
       </c>
       <c r="T33" t="n">
         <v>18</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44529</v>
+        <v>44459</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3080,20 +3080,20 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N34" t="n">
-        <v>60000</v>
+        <v>38000</v>
       </c>
       <c r="O34" t="n">
-        <v>60000</v>
+        <v>38000</v>
       </c>
       <c r="P34" t="n">
-        <v>60000</v>
+        <v>38000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>3333</v>
+        <v>2111</v>
       </c>
       <c r="T34" t="n">
         <v>18</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44529</v>
+        <v>44340</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="N35" t="n">
-        <v>58000</v>
+        <v>37000</v>
       </c>
       <c r="O35" t="n">
-        <v>58000</v>
+        <v>37000</v>
       </c>
       <c r="P35" t="n">
-        <v>58000</v>
+        <v>37000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>3222</v>
+        <v>2056</v>
       </c>
       <c r="T35" t="n">
         <v>18</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44452</v>
+        <v>44340</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3240,20 +3240,20 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M36" t="n">
         <v>20</v>
       </c>
       <c r="N36" t="n">
-        <v>36000</v>
+        <v>35000</v>
       </c>
       <c r="O36" t="n">
-        <v>36000</v>
+        <v>35000</v>
       </c>
       <c r="P36" t="n">
-        <v>36000</v>
+        <v>35000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>2000</v>
+        <v>1944</v>
       </c>
       <c r="T36" t="n">
         <v>18</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44435</v>
+        <v>44445</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44522</v>
+        <v>44333</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3404,16 +3404,16 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N38" t="n">
-        <v>60000</v>
+        <v>38000</v>
       </c>
       <c r="O38" t="n">
-        <v>60000</v>
+        <v>38000</v>
       </c>
       <c r="P38" t="n">
-        <v>60000</v>
+        <v>38000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3422,11 +3422,11 @@
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S38" t="n">
-        <v>3333</v>
+        <v>2111</v>
       </c>
       <c r="T38" t="n">
         <v>18</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44522</v>
+        <v>44333</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3484,16 +3484,16 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N39" t="n">
-        <v>56000</v>
+        <v>35000</v>
       </c>
       <c r="O39" t="n">
-        <v>56000</v>
+        <v>35000</v>
       </c>
       <c r="P39" t="n">
-        <v>56000</v>
+        <v>35000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3502,11 +3502,11 @@
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S39" t="n">
-        <v>3111</v>
+        <v>1944</v>
       </c>
       <c r="T39" t="n">
         <v>18</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44389</v>
+        <v>44305</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3564,16 +3564,16 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="N40" t="n">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="O40" t="n">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="P40" t="n">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>1611</v>
+        <v>1667</v>
       </c>
       <c r="T40" t="n">
         <v>18</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44389</v>
+        <v>44431</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3640,20 +3640,20 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N41" t="n">
-        <v>27000</v>
+        <v>32000</v>
       </c>
       <c r="O41" t="n">
-        <v>27000</v>
+        <v>32000</v>
       </c>
       <c r="P41" t="n">
-        <v>27000</v>
+        <v>32000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>1500</v>
+        <v>1778</v>
       </c>
       <c r="T41" t="n">
         <v>18</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44382</v>
+        <v>44466</v>
       </c>
       <c r="E42" t="n">
         <v>13</v>
@@ -3720,20 +3720,20 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N42" t="n">
-        <v>35000</v>
+        <v>60000</v>
       </c>
       <c r="O42" t="n">
-        <v>35000</v>
+        <v>60000</v>
       </c>
       <c r="P42" t="n">
-        <v>35000</v>
+        <v>60000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>1944</v>
+        <v>3333</v>
       </c>
       <c r="T42" t="n">
         <v>18</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44382</v>
+        <v>44466</v>
       </c>
       <c r="E43" t="n">
         <v>13</v>
@@ -3800,20 +3800,20 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="N43" t="n">
-        <v>32000</v>
+        <v>58000</v>
       </c>
       <c r="O43" t="n">
-        <v>32000</v>
+        <v>58000</v>
       </c>
       <c r="P43" t="n">
-        <v>32000</v>
+        <v>58000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>1778</v>
+        <v>3222</v>
       </c>
       <c r="T43" t="n">
         <v>18</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44382</v>
+        <v>44522</v>
       </c>
       <c r="E44" t="n">
         <v>13</v>
@@ -3880,20 +3880,20 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N44" t="n">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="O44" t="n">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="P44" t="n">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3902,11 +3902,11 @@
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="S44" t="n">
-        <v>1667</v>
+        <v>3333</v>
       </c>
       <c r="T44" t="n">
         <v>18</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44396</v>
+        <v>44522</v>
       </c>
       <c r="E45" t="n">
         <v>13</v>
@@ -3960,20 +3960,20 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="N45" t="n">
-        <v>37000</v>
+        <v>56000</v>
       </c>
       <c r="O45" t="n">
-        <v>37000</v>
+        <v>56000</v>
       </c>
       <c r="P45" t="n">
-        <v>37000</v>
+        <v>56000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3982,11 +3982,11 @@
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="S45" t="n">
-        <v>2056</v>
+        <v>3111</v>
       </c>
       <c r="T45" t="n">
         <v>18</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44396</v>
+        <v>44291</v>
       </c>
       <c r="E46" t="n">
         <v>13</v>
@@ -4040,20 +4040,20 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N46" t="n">
-        <v>34000</v>
+        <v>25000</v>
       </c>
       <c r="O46" t="n">
-        <v>34000</v>
+        <v>25000</v>
       </c>
       <c r="P46" t="n">
-        <v>34000</v>
+        <v>25000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>1889</v>
+        <v>1389</v>
       </c>
       <c r="T46" t="n">
         <v>18</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44284</v>
+        <v>44417</v>
       </c>
       <c r="E47" t="n">
         <v>13</v>
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="N47" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="O47" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="P47" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>1278</v>
+        <v>1556</v>
       </c>
       <c r="T47" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Maracuyá.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Maracuyá.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44277</v>
+        <v>44529</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="N2" t="n">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="O2" t="n">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="P2" t="n">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1667</v>
+        <v>3333</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44277</v>
+        <v>44529</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N3" t="n">
-        <v>28000</v>
+        <v>58000</v>
       </c>
       <c r="O3" t="n">
-        <v>28000</v>
+        <v>58000</v>
       </c>
       <c r="P3" t="n">
-        <v>28000</v>
+        <v>58000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1556</v>
+        <v>3222</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44529</v>
+        <v>44445</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N4" t="n">
-        <v>60000</v>
+        <v>32000</v>
       </c>
       <c r="O4" t="n">
-        <v>60000</v>
+        <v>32000</v>
       </c>
       <c r="P4" t="n">
-        <v>60000</v>
+        <v>32000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>3333</v>
+        <v>1778</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44529</v>
+        <v>44305</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N5" t="n">
-        <v>58000</v>
+        <v>30000</v>
       </c>
       <c r="O5" t="n">
-        <v>58000</v>
+        <v>30000</v>
       </c>
       <c r="P5" t="n">
-        <v>58000</v>
+        <v>30000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>3222</v>
+        <v>1667</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44435</v>
+        <v>44473</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="N6" t="n">
-        <v>32000</v>
+        <v>75000</v>
       </c>
       <c r="O6" t="n">
-        <v>32000</v>
+        <v>75000</v>
       </c>
       <c r="P6" t="n">
-        <v>32000</v>
+        <v>75000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1778</v>
+        <v>4167</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44326</v>
+        <v>44473</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="N7" t="n">
-        <v>35000</v>
+        <v>72000</v>
       </c>
       <c r="O7" t="n">
-        <v>35000</v>
+        <v>72000</v>
       </c>
       <c r="P7" t="n">
-        <v>35000</v>
+        <v>72000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1944</v>
+        <v>4000</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44326</v>
+        <v>44473</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="N8" t="n">
-        <v>30000</v>
+        <v>67000</v>
       </c>
       <c r="O8" t="n">
-        <v>30000</v>
+        <v>67000</v>
       </c>
       <c r="P8" t="n">
-        <v>30000</v>
+        <v>67000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1667</v>
+        <v>3722</v>
       </c>
       <c r="T8" t="n">
         <v>18</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44326</v>
+        <v>44270</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="N9" t="n">
-        <v>28000</v>
+        <v>38000</v>
       </c>
       <c r="O9" t="n">
-        <v>28000</v>
+        <v>38000</v>
       </c>
       <c r="P9" t="n">
-        <v>28000</v>
+        <v>38000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1556</v>
+        <v>2111</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44410</v>
+        <v>44431</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1160,11 +1160,11 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N10" t="n">
         <v>32000</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44410</v>
+        <v>44291</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N11" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="O11" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="P11" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1667</v>
+        <v>1389</v>
       </c>
       <c r="T11" t="n">
         <v>18</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44410</v>
+        <v>44382</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N12" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="O12" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="P12" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1556</v>
+        <v>1944</v>
       </c>
       <c r="T12" t="n">
         <v>18</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44270</v>
+        <v>44382</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="N13" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="O13" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="P13" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>2111</v>
+        <v>1778</v>
       </c>
       <c r="T13" t="n">
         <v>18</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44354</v>
+        <v>44382</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="N14" t="n">
-        <v>38000</v>
+        <v>30000</v>
       </c>
       <c r="O14" t="n">
-        <v>38000</v>
+        <v>30000</v>
       </c>
       <c r="P14" t="n">
-        <v>38000</v>
+        <v>30000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>2111</v>
+        <v>1667</v>
       </c>
       <c r="T14" t="n">
         <v>18</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44396</v>
+        <v>44333</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N15" t="n">
-        <v>37000</v>
+        <v>38000</v>
       </c>
       <c r="O15" t="n">
-        <v>37000</v>
+        <v>38000</v>
       </c>
       <c r="P15" t="n">
-        <v>37000</v>
+        <v>38000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>2056</v>
+        <v>2111</v>
       </c>
       <c r="T15" t="n">
         <v>18</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44396</v>
+        <v>44333</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N16" t="n">
-        <v>34000</v>
+        <v>35000</v>
       </c>
       <c r="O16" t="n">
-        <v>34000</v>
+        <v>35000</v>
       </c>
       <c r="P16" t="n">
-        <v>34000</v>
+        <v>35000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1889</v>
+        <v>1944</v>
       </c>
       <c r="T16" t="n">
         <v>18</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44319</v>
+        <v>44354</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="N17" t="n">
-        <v>27000</v>
+        <v>38000</v>
       </c>
       <c r="O17" t="n">
-        <v>27000</v>
+        <v>38000</v>
       </c>
       <c r="P17" t="n">
-        <v>27000</v>
+        <v>38000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1500</v>
+        <v>2111</v>
       </c>
       <c r="T17" t="n">
         <v>18</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44438</v>
+        <v>44466</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N18" t="n">
-        <v>32000</v>
+        <v>60000</v>
       </c>
       <c r="O18" t="n">
-        <v>32000</v>
+        <v>60000</v>
       </c>
       <c r="P18" t="n">
-        <v>32000</v>
+        <v>60000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1778</v>
+        <v>3333</v>
       </c>
       <c r="T18" t="n">
         <v>18</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44452</v>
+        <v>44466</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N19" t="n">
-        <v>36000</v>
+        <v>58000</v>
       </c>
       <c r="O19" t="n">
-        <v>36000</v>
+        <v>58000</v>
       </c>
       <c r="P19" t="n">
-        <v>36000</v>
+        <v>58000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>2000</v>
+        <v>3222</v>
       </c>
       <c r="T19" t="n">
         <v>18</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44424</v>
+        <v>44459</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N20" t="n">
-        <v>32000</v>
+        <v>38000</v>
       </c>
       <c r="O20" t="n">
-        <v>32000</v>
+        <v>38000</v>
       </c>
       <c r="P20" t="n">
-        <v>32000</v>
+        <v>38000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1778</v>
+        <v>2111</v>
       </c>
       <c r="T20" t="n">
         <v>18</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44403</v>
+        <v>44277</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2040,20 +2040,20 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="N21" t="n">
-        <v>33000</v>
+        <v>30000</v>
       </c>
       <c r="O21" t="n">
-        <v>33000</v>
+        <v>30000</v>
       </c>
       <c r="P21" t="n">
-        <v>33000</v>
+        <v>30000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1833</v>
+        <v>1667</v>
       </c>
       <c r="T21" t="n">
         <v>18</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44403</v>
+        <v>44277</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2120,20 +2120,20 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="N22" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="O22" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="P22" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1667</v>
+        <v>1556</v>
       </c>
       <c r="T22" t="n">
         <v>18</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44403</v>
+        <v>44410</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2200,20 +2200,20 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M23" t="n">
         <v>15</v>
       </c>
       <c r="N23" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="O23" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="P23" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1556</v>
+        <v>1778</v>
       </c>
       <c r="T23" t="n">
         <v>18</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44312</v>
+        <v>44410</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>160</v>
+        <v>25</v>
       </c>
       <c r="N24" t="n">
-        <v>26000</v>
+        <v>30000</v>
       </c>
       <c r="O24" t="n">
-        <v>26000</v>
+        <v>30000</v>
       </c>
       <c r="P24" t="n">
-        <v>26000</v>
+        <v>30000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1444</v>
+        <v>1667</v>
       </c>
       <c r="T24" t="n">
         <v>18</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44389</v>
+        <v>44410</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2360,20 +2360,20 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="N25" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="O25" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="P25" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1611</v>
+        <v>1556</v>
       </c>
       <c r="T25" t="n">
         <v>18</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44389</v>
+        <v>44435</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2440,20 +2440,20 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N26" t="n">
-        <v>27000</v>
+        <v>32000</v>
       </c>
       <c r="O26" t="n">
-        <v>27000</v>
+        <v>32000</v>
       </c>
       <c r="P26" t="n">
-        <v>27000</v>
+        <v>32000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1500</v>
+        <v>1778</v>
       </c>
       <c r="T26" t="n">
         <v>18</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44382</v>
+        <v>44340</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2520,20 +2520,20 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="N27" t="n">
-        <v>35000</v>
+        <v>37000</v>
       </c>
       <c r="O27" t="n">
-        <v>35000</v>
+        <v>37000</v>
       </c>
       <c r="P27" t="n">
-        <v>35000</v>
+        <v>37000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1944</v>
+        <v>2056</v>
       </c>
       <c r="T27" t="n">
         <v>18</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44382</v>
+        <v>44340</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2600,20 +2600,20 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N28" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="O28" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="P28" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1778</v>
+        <v>1944</v>
       </c>
       <c r="T28" t="n">
         <v>18</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44382</v>
+        <v>44424</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2680,20 +2680,20 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N29" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="O29" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="P29" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1667</v>
+        <v>1778</v>
       </c>
       <c r="T29" t="n">
         <v>18</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44473</v>
+        <v>44312</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2760,20 +2760,20 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="N30" t="n">
-        <v>75000</v>
+        <v>26000</v>
       </c>
       <c r="O30" t="n">
-        <v>75000</v>
+        <v>26000</v>
       </c>
       <c r="P30" t="n">
-        <v>75000</v>
+        <v>26000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>4167</v>
+        <v>1444</v>
       </c>
       <c r="T30" t="n">
         <v>18</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44473</v>
+        <v>44319</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2844,16 +2844,16 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>25</v>
+        <v>140</v>
       </c>
       <c r="N31" t="n">
-        <v>72000</v>
+        <v>27000</v>
       </c>
       <c r="O31" t="n">
-        <v>72000</v>
+        <v>27000</v>
       </c>
       <c r="P31" t="n">
-        <v>72000</v>
+        <v>27000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="T31" t="n">
         <v>18</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44473</v>
+        <v>44522</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2920,20 +2920,20 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="N32" t="n">
-        <v>67000</v>
+        <v>60000</v>
       </c>
       <c r="O32" t="n">
-        <v>67000</v>
+        <v>60000</v>
       </c>
       <c r="P32" t="n">
-        <v>67000</v>
+        <v>60000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2942,11 +2942,11 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="S32" t="n">
-        <v>3722</v>
+        <v>3333</v>
       </c>
       <c r="T32" t="n">
         <v>18</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44284</v>
+        <v>44522</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3000,20 +3000,20 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="N33" t="n">
-        <v>23000</v>
+        <v>56000</v>
       </c>
       <c r="O33" t="n">
-        <v>23000</v>
+        <v>56000</v>
       </c>
       <c r="P33" t="n">
-        <v>23000</v>
+        <v>56000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3022,11 +3022,11 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1278</v>
+        <v>3111</v>
       </c>
       <c r="T33" t="n">
         <v>18</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44459</v>
+        <v>44396</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3084,16 +3084,16 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="N34" t="n">
-        <v>38000</v>
+        <v>37000</v>
       </c>
       <c r="O34" t="n">
-        <v>38000</v>
+        <v>37000</v>
       </c>
       <c r="P34" t="n">
-        <v>38000</v>
+        <v>37000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>2111</v>
+        <v>2056</v>
       </c>
       <c r="T34" t="n">
         <v>18</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44340</v>
+        <v>44396</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3160,20 +3160,20 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="N35" t="n">
-        <v>37000</v>
+        <v>34000</v>
       </c>
       <c r="O35" t="n">
-        <v>37000</v>
+        <v>34000</v>
       </c>
       <c r="P35" t="n">
-        <v>37000</v>
+        <v>34000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>2056</v>
+        <v>1889</v>
       </c>
       <c r="T35" t="n">
         <v>18</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44340</v>
+        <v>44389</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3240,20 +3240,20 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="N36" t="n">
-        <v>35000</v>
+        <v>29000</v>
       </c>
       <c r="O36" t="n">
-        <v>35000</v>
+        <v>29000</v>
       </c>
       <c r="P36" t="n">
-        <v>35000</v>
+        <v>29000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1944</v>
+        <v>1611</v>
       </c>
       <c r="T36" t="n">
         <v>18</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44445</v>
+        <v>44389</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3320,20 +3320,20 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N37" t="n">
-        <v>32000</v>
+        <v>27000</v>
       </c>
       <c r="O37" t="n">
-        <v>32000</v>
+        <v>27000</v>
       </c>
       <c r="P37" t="n">
-        <v>32000</v>
+        <v>27000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1778</v>
+        <v>1500</v>
       </c>
       <c r="T37" t="n">
         <v>18</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44333</v>
+        <v>44403</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3400,20 +3400,20 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N38" t="n">
-        <v>38000</v>
+        <v>33000</v>
       </c>
       <c r="O38" t="n">
-        <v>38000</v>
+        <v>33000</v>
       </c>
       <c r="P38" t="n">
-        <v>38000</v>
+        <v>33000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>2111</v>
+        <v>1833</v>
       </c>
       <c r="T38" t="n">
         <v>18</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44333</v>
+        <v>44403</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3480,20 +3480,20 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="N39" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="O39" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="P39" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1944</v>
+        <v>1667</v>
       </c>
       <c r="T39" t="n">
         <v>18</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44305</v>
+        <v>44403</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3560,20 +3560,20 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N40" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="O40" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="P40" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>1667</v>
+        <v>1556</v>
       </c>
       <c r="T40" t="n">
         <v>18</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44431</v>
+        <v>44326</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3640,20 +3640,20 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="N41" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="O41" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="P41" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>1778</v>
+        <v>1944</v>
       </c>
       <c r="T41" t="n">
         <v>18</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44466</v>
+        <v>44326</v>
       </c>
       <c r="E42" t="n">
         <v>13</v>
@@ -3724,16 +3724,16 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N42" t="n">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="O42" t="n">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="P42" t="n">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>3333</v>
+        <v>1667</v>
       </c>
       <c r="T42" t="n">
         <v>18</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44466</v>
+        <v>44326</v>
       </c>
       <c r="E43" t="n">
         <v>13</v>
@@ -3804,16 +3804,16 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N43" t="n">
-        <v>58000</v>
+        <v>28000</v>
       </c>
       <c r="O43" t="n">
-        <v>58000</v>
+        <v>28000</v>
       </c>
       <c r="P43" t="n">
-        <v>58000</v>
+        <v>28000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>3222</v>
+        <v>1556</v>
       </c>
       <c r="T43" t="n">
         <v>18</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44522</v>
+        <v>44284</v>
       </c>
       <c r="E44" t="n">
         <v>13</v>
@@ -3884,16 +3884,16 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="N44" t="n">
-        <v>60000</v>
+        <v>23000</v>
       </c>
       <c r="O44" t="n">
-        <v>60000</v>
+        <v>23000</v>
       </c>
       <c r="P44" t="n">
-        <v>60000</v>
+        <v>23000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3902,11 +3902,11 @@
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S44" t="n">
-        <v>3333</v>
+        <v>1278</v>
       </c>
       <c r="T44" t="n">
         <v>18</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44522</v>
+        <v>44452</v>
       </c>
       <c r="E45" t="n">
         <v>13</v>
@@ -3960,20 +3960,20 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M45" t="n">
         <v>20</v>
       </c>
       <c r="N45" t="n">
-        <v>56000</v>
+        <v>36000</v>
       </c>
       <c r="O45" t="n">
-        <v>56000</v>
+        <v>36000</v>
       </c>
       <c r="P45" t="n">
-        <v>56000</v>
+        <v>36000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3982,11 +3982,11 @@
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S45" t="n">
-        <v>3111</v>
+        <v>2000</v>
       </c>
       <c r="T45" t="n">
         <v>18</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44291</v>
+        <v>44417</v>
       </c>
       <c r="E46" t="n">
         <v>13</v>
@@ -4044,16 +4044,16 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N46" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="O46" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="P46" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>1389</v>
+        <v>1556</v>
       </c>
       <c r="T46" t="n">
         <v>18</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44417</v>
+        <v>44438</v>
       </c>
       <c r="E47" t="n">
         <v>13</v>
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N47" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="O47" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="P47" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>1556</v>
+        <v>1778</v>
       </c>
       <c r="T47" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Maracuyá.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Maracuyá.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44529</v>
+        <v>44431</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N2" t="n">
-        <v>60000</v>
+        <v>32000</v>
       </c>
       <c r="O2" t="n">
-        <v>60000</v>
+        <v>32000</v>
       </c>
       <c r="P2" t="n">
-        <v>60000</v>
+        <v>32000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>3333</v>
+        <v>1778</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44529</v>
+        <v>44459</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N3" t="n">
-        <v>58000</v>
+        <v>38000</v>
       </c>
       <c r="O3" t="n">
-        <v>58000</v>
+        <v>38000</v>
       </c>
       <c r="P3" t="n">
-        <v>58000</v>
+        <v>38000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>3222</v>
+        <v>2111</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44445</v>
+        <v>44473</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="N4" t="n">
-        <v>32000</v>
+        <v>75000</v>
       </c>
       <c r="O4" t="n">
-        <v>32000</v>
+        <v>75000</v>
       </c>
       <c r="P4" t="n">
-        <v>32000</v>
+        <v>75000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1778</v>
+        <v>4167</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44305</v>
+        <v>44473</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -767,13 +767,13 @@
         <v>25</v>
       </c>
       <c r="N5" t="n">
-        <v>30000</v>
+        <v>72000</v>
       </c>
       <c r="O5" t="n">
-        <v>30000</v>
+        <v>72000</v>
       </c>
       <c r="P5" t="n">
-        <v>30000</v>
+        <v>72000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1667</v>
+        <v>4000</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N6" t="n">
-        <v>75000</v>
+        <v>67000</v>
       </c>
       <c r="O6" t="n">
-        <v>75000</v>
+        <v>67000</v>
       </c>
       <c r="P6" t="n">
-        <v>75000</v>
+        <v>67000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>4167</v>
+        <v>3722</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44473</v>
+        <v>44333</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N7" t="n">
-        <v>72000</v>
+        <v>38000</v>
       </c>
       <c r="O7" t="n">
-        <v>72000</v>
+        <v>38000</v>
       </c>
       <c r="P7" t="n">
-        <v>72000</v>
+        <v>38000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>4000</v>
+        <v>2111</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44473</v>
+        <v>44333</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="N8" t="n">
-        <v>67000</v>
+        <v>35000</v>
       </c>
       <c r="O8" t="n">
-        <v>67000</v>
+        <v>35000</v>
       </c>
       <c r="P8" t="n">
-        <v>67000</v>
+        <v>35000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>3722</v>
+        <v>1944</v>
       </c>
       <c r="T8" t="n">
         <v>18</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44270</v>
+        <v>44340</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="N9" t="n">
-        <v>38000</v>
+        <v>37000</v>
       </c>
       <c r="O9" t="n">
-        <v>38000</v>
+        <v>37000</v>
       </c>
       <c r="P9" t="n">
-        <v>38000</v>
+        <v>37000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>2111</v>
+        <v>2056</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44431</v>
+        <v>44340</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1160,20 +1160,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N10" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="O10" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="P10" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1778</v>
+        <v>1944</v>
       </c>
       <c r="T10" t="n">
         <v>18</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44291</v>
+        <v>44354</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N11" t="n">
-        <v>25000</v>
+        <v>38000</v>
       </c>
       <c r="O11" t="n">
-        <v>25000</v>
+        <v>38000</v>
       </c>
       <c r="P11" t="n">
-        <v>25000</v>
+        <v>38000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1389</v>
+        <v>2111</v>
       </c>
       <c r="T11" t="n">
         <v>18</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44382</v>
+        <v>44389</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="N12" t="n">
-        <v>35000</v>
+        <v>29000</v>
       </c>
       <c r="O12" t="n">
-        <v>35000</v>
+        <v>29000</v>
       </c>
       <c r="P12" t="n">
-        <v>35000</v>
+        <v>29000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1944</v>
+        <v>1611</v>
       </c>
       <c r="T12" t="n">
         <v>18</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44382</v>
+        <v>44389</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N13" t="n">
-        <v>32000</v>
+        <v>27000</v>
       </c>
       <c r="O13" t="n">
-        <v>32000</v>
+        <v>27000</v>
       </c>
       <c r="P13" t="n">
-        <v>32000</v>
+        <v>27000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1778</v>
+        <v>1500</v>
       </c>
       <c r="T13" t="n">
         <v>18</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44382</v>
+        <v>44312</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>15</v>
+        <v>160</v>
       </c>
       <c r="N14" t="n">
-        <v>30000</v>
+        <v>26000</v>
       </c>
       <c r="O14" t="n">
-        <v>30000</v>
+        <v>26000</v>
       </c>
       <c r="P14" t="n">
-        <v>30000</v>
+        <v>26000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1667</v>
+        <v>1444</v>
       </c>
       <c r="T14" t="n">
         <v>18</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44333</v>
+        <v>44435</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1567,13 +1567,13 @@
         <v>30</v>
       </c>
       <c r="N15" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="O15" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="P15" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>2111</v>
+        <v>1778</v>
       </c>
       <c r="T15" t="n">
         <v>18</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44333</v>
+        <v>44424</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N16" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="O16" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="P16" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1944</v>
+        <v>1778</v>
       </c>
       <c r="T16" t="n">
         <v>18</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44354</v>
+        <v>44326</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="N17" t="n">
-        <v>38000</v>
+        <v>35000</v>
       </c>
       <c r="O17" t="n">
-        <v>38000</v>
+        <v>35000</v>
       </c>
       <c r="P17" t="n">
-        <v>38000</v>
+        <v>35000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>2111</v>
+        <v>1944</v>
       </c>
       <c r="T17" t="n">
         <v>18</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44466</v>
+        <v>44326</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N18" t="n">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="O18" t="n">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="P18" t="n">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>3333</v>
+        <v>1667</v>
       </c>
       <c r="T18" t="n">
         <v>18</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44466</v>
+        <v>44326</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N19" t="n">
-        <v>58000</v>
+        <v>28000</v>
       </c>
       <c r="O19" t="n">
-        <v>58000</v>
+        <v>28000</v>
       </c>
       <c r="P19" t="n">
-        <v>58000</v>
+        <v>28000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>3222</v>
+        <v>1556</v>
       </c>
       <c r="T19" t="n">
         <v>18</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44459</v>
+        <v>44284</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="N20" t="n">
-        <v>38000</v>
+        <v>23000</v>
       </c>
       <c r="O20" t="n">
-        <v>38000</v>
+        <v>23000</v>
       </c>
       <c r="P20" t="n">
-        <v>38000</v>
+        <v>23000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>2111</v>
+        <v>1278</v>
       </c>
       <c r="T20" t="n">
         <v>18</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44277</v>
+        <v>44417</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="N21" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="O21" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="P21" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1667</v>
+        <v>1556</v>
       </c>
       <c r="T21" t="n">
         <v>18</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44277</v>
+        <v>44522</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2120,20 +2120,20 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="N22" t="n">
-        <v>28000</v>
+        <v>60000</v>
       </c>
       <c r="O22" t="n">
-        <v>28000</v>
+        <v>60000</v>
       </c>
       <c r="P22" t="n">
-        <v>28000</v>
+        <v>60000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2142,11 +2142,11 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1556</v>
+        <v>3333</v>
       </c>
       <c r="T22" t="n">
         <v>18</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44410</v>
+        <v>44522</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2200,20 +2200,20 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N23" t="n">
-        <v>32000</v>
+        <v>56000</v>
       </c>
       <c r="O23" t="n">
-        <v>32000</v>
+        <v>56000</v>
       </c>
       <c r="P23" t="n">
-        <v>32000</v>
+        <v>56000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2222,11 +2222,11 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1778</v>
+        <v>3111</v>
       </c>
       <c r="T23" t="n">
         <v>18</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44410</v>
+        <v>44277</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2284,7 +2284,7 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="N24" t="n">
         <v>30000</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44410</v>
+        <v>44277</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2364,7 +2364,7 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="N25" t="n">
         <v>28000</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44435</v>
+        <v>44403</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2440,20 +2440,20 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N26" t="n">
-        <v>32000</v>
+        <v>33000</v>
       </c>
       <c r="O26" t="n">
-        <v>32000</v>
+        <v>33000</v>
       </c>
       <c r="P26" t="n">
-        <v>32000</v>
+        <v>33000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1778</v>
+        <v>1833</v>
       </c>
       <c r="T26" t="n">
         <v>18</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44340</v>
+        <v>44403</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2524,16 +2524,16 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="N27" t="n">
-        <v>37000</v>
+        <v>30000</v>
       </c>
       <c r="O27" t="n">
-        <v>37000</v>
+        <v>30000</v>
       </c>
       <c r="P27" t="n">
-        <v>37000</v>
+        <v>30000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>2056</v>
+        <v>1667</v>
       </c>
       <c r="T27" t="n">
         <v>18</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44340</v>
+        <v>44403</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2604,16 +2604,16 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N28" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="O28" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="P28" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1944</v>
+        <v>1556</v>
       </c>
       <c r="T28" t="n">
         <v>18</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44424</v>
+        <v>44445</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44312</v>
+        <v>44410</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2760,20 +2760,20 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>160</v>
+        <v>15</v>
       </c>
       <c r="N30" t="n">
-        <v>26000</v>
+        <v>32000</v>
       </c>
       <c r="O30" t="n">
-        <v>26000</v>
+        <v>32000</v>
       </c>
       <c r="P30" t="n">
-        <v>26000</v>
+        <v>32000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1444</v>
+        <v>1778</v>
       </c>
       <c r="T30" t="n">
         <v>18</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44319</v>
+        <v>44410</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2844,16 +2844,16 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>140</v>
+        <v>25</v>
       </c>
       <c r="N31" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="O31" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="P31" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1500</v>
+        <v>1667</v>
       </c>
       <c r="T31" t="n">
         <v>18</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44522</v>
+        <v>44410</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2920,20 +2920,20 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="N32" t="n">
-        <v>60000</v>
+        <v>28000</v>
       </c>
       <c r="O32" t="n">
-        <v>60000</v>
+        <v>28000</v>
       </c>
       <c r="P32" t="n">
-        <v>60000</v>
+        <v>28000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2942,11 +2942,11 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S32" t="n">
-        <v>3333</v>
+        <v>1556</v>
       </c>
       <c r="T32" t="n">
         <v>18</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44522</v>
+        <v>44466</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3000,20 +3000,20 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N33" t="n">
-        <v>56000</v>
+        <v>60000</v>
       </c>
       <c r="O33" t="n">
-        <v>56000</v>
+        <v>60000</v>
       </c>
       <c r="P33" t="n">
-        <v>56000</v>
+        <v>60000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3022,11 +3022,11 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S33" t="n">
-        <v>3111</v>
+        <v>3333</v>
       </c>
       <c r="T33" t="n">
         <v>18</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44396</v>
+        <v>44466</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3080,20 +3080,20 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="N34" t="n">
-        <v>37000</v>
+        <v>58000</v>
       </c>
       <c r="O34" t="n">
-        <v>37000</v>
+        <v>58000</v>
       </c>
       <c r="P34" t="n">
-        <v>37000</v>
+        <v>58000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>2056</v>
+        <v>3222</v>
       </c>
       <c r="T34" t="n">
         <v>18</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44396</v>
+        <v>44529</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3160,20 +3160,20 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N35" t="n">
-        <v>34000</v>
+        <v>60000</v>
       </c>
       <c r="O35" t="n">
-        <v>34000</v>
+        <v>60000</v>
       </c>
       <c r="P35" t="n">
-        <v>34000</v>
+        <v>60000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1889</v>
+        <v>3333</v>
       </c>
       <c r="T35" t="n">
         <v>18</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44389</v>
+        <v>44529</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3244,16 +3244,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="N36" t="n">
-        <v>29000</v>
+        <v>58000</v>
       </c>
       <c r="O36" t="n">
-        <v>29000</v>
+        <v>58000</v>
       </c>
       <c r="P36" t="n">
-        <v>29000</v>
+        <v>58000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1611</v>
+        <v>3222</v>
       </c>
       <c r="T36" t="n">
         <v>18</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44389</v>
+        <v>44319</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3320,11 +3320,11 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="N37" t="n">
         <v>27000</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44403</v>
+        <v>44396</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3400,20 +3400,20 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="N38" t="n">
-        <v>33000</v>
+        <v>37000</v>
       </c>
       <c r="O38" t="n">
-        <v>33000</v>
+        <v>37000</v>
       </c>
       <c r="P38" t="n">
-        <v>33000</v>
+        <v>37000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>1833</v>
+        <v>2056</v>
       </c>
       <c r="T38" t="n">
         <v>18</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44403</v>
+        <v>44396</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3480,20 +3480,20 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="N39" t="n">
-        <v>30000</v>
+        <v>34000</v>
       </c>
       <c r="O39" t="n">
-        <v>30000</v>
+        <v>34000</v>
       </c>
       <c r="P39" t="n">
-        <v>30000</v>
+        <v>34000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1667</v>
+        <v>1889</v>
       </c>
       <c r="T39" t="n">
         <v>18</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44403</v>
+        <v>44438</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3560,20 +3560,20 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N40" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="O40" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="P40" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>1556</v>
+        <v>1778</v>
       </c>
       <c r="T40" t="n">
         <v>18</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44326</v>
+        <v>44270</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3644,16 +3644,16 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="N41" t="n">
-        <v>35000</v>
+        <v>38000</v>
       </c>
       <c r="O41" t="n">
-        <v>35000</v>
+        <v>38000</v>
       </c>
       <c r="P41" t="n">
-        <v>35000</v>
+        <v>38000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>1944</v>
+        <v>2111</v>
       </c>
       <c r="T41" t="n">
         <v>18</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44326</v>
+        <v>44452</v>
       </c>
       <c r="E42" t="n">
         <v>13</v>
@@ -3724,16 +3724,16 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N42" t="n">
-        <v>30000</v>
+        <v>36000</v>
       </c>
       <c r="O42" t="n">
-        <v>30000</v>
+        <v>36000</v>
       </c>
       <c r="P42" t="n">
-        <v>30000</v>
+        <v>36000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>1667</v>
+        <v>2000</v>
       </c>
       <c r="T42" t="n">
         <v>18</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44326</v>
+        <v>44305</v>
       </c>
       <c r="E43" t="n">
         <v>13</v>
@@ -3800,20 +3800,20 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N43" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="O43" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="P43" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>1556</v>
+        <v>1667</v>
       </c>
       <c r="T43" t="n">
         <v>18</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44284</v>
+        <v>44382</v>
       </c>
       <c r="E44" t="n">
         <v>13</v>
@@ -3880,20 +3880,20 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="N44" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="O44" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="P44" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>1278</v>
+        <v>1944</v>
       </c>
       <c r="T44" t="n">
         <v>18</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44452</v>
+        <v>44382</v>
       </c>
       <c r="E45" t="n">
         <v>13</v>
@@ -3964,16 +3964,16 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N45" t="n">
-        <v>36000</v>
+        <v>32000</v>
       </c>
       <c r="O45" t="n">
-        <v>36000</v>
+        <v>32000</v>
       </c>
       <c r="P45" t="n">
-        <v>36000</v>
+        <v>32000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>2000</v>
+        <v>1778</v>
       </c>
       <c r="T45" t="n">
         <v>18</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44417</v>
+        <v>44382</v>
       </c>
       <c r="E46" t="n">
         <v>13</v>
@@ -4040,20 +4040,20 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M46" t="n">
         <v>15</v>
       </c>
       <c r="N46" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="O46" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="P46" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>1556</v>
+        <v>1667</v>
       </c>
       <c r="T46" t="n">
         <v>18</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44438</v>
+        <v>44291</v>
       </c>
       <c r="E47" t="n">
         <v>13</v>
@@ -4127,13 +4127,13 @@
         <v>30</v>
       </c>
       <c r="N47" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="O47" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="P47" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>1778</v>
+        <v>1389</v>
       </c>
       <c r="T47" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Maracuyá.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Maracuyá.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44431</v>
+        <v>44333</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -527,13 +527,13 @@
         <v>30</v>
       </c>
       <c r="N2" t="n">
-        <v>32000</v>
+        <v>38000</v>
       </c>
       <c r="O2" t="n">
-        <v>32000</v>
+        <v>38000</v>
       </c>
       <c r="P2" t="n">
-        <v>32000</v>
+        <v>38000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1778</v>
+        <v>2111</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44459</v>
+        <v>44333</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M3" t="n">
         <v>25</v>
       </c>
       <c r="N3" t="n">
-        <v>38000</v>
+        <v>35000</v>
       </c>
       <c r="O3" t="n">
-        <v>38000</v>
+        <v>35000</v>
       </c>
       <c r="P3" t="n">
-        <v>38000</v>
+        <v>35000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>2111</v>
+        <v>1944</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44473</v>
+        <v>44435</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="N4" t="n">
-        <v>75000</v>
+        <v>32000</v>
       </c>
       <c r="O4" t="n">
-        <v>75000</v>
+        <v>32000</v>
       </c>
       <c r="P4" t="n">
-        <v>75000</v>
+        <v>32000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>4167</v>
+        <v>1778</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44473</v>
+        <v>44326</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="N5" t="n">
-        <v>72000</v>
+        <v>35000</v>
       </c>
       <c r="O5" t="n">
-        <v>72000</v>
+        <v>35000</v>
       </c>
       <c r="P5" t="n">
-        <v>72000</v>
+        <v>35000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>4000</v>
+        <v>1944</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44473</v>
+        <v>44326</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="N6" t="n">
-        <v>67000</v>
+        <v>30000</v>
       </c>
       <c r="O6" t="n">
-        <v>67000</v>
+        <v>30000</v>
       </c>
       <c r="P6" t="n">
-        <v>67000</v>
+        <v>30000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>3722</v>
+        <v>1667</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44333</v>
+        <v>44326</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N7" t="n">
-        <v>38000</v>
+        <v>28000</v>
       </c>
       <c r="O7" t="n">
-        <v>38000</v>
+        <v>28000</v>
       </c>
       <c r="P7" t="n">
-        <v>38000</v>
+        <v>28000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>2111</v>
+        <v>1556</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44333</v>
+        <v>44354</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="N8" t="n">
-        <v>35000</v>
+        <v>38000</v>
       </c>
       <c r="O8" t="n">
-        <v>35000</v>
+        <v>38000</v>
       </c>
       <c r="P8" t="n">
-        <v>35000</v>
+        <v>38000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1944</v>
+        <v>2111</v>
       </c>
       <c r="T8" t="n">
         <v>18</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44340</v>
+        <v>44389</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1087,13 +1087,13 @@
         <v>35</v>
       </c>
       <c r="N9" t="n">
-        <v>37000</v>
+        <v>29000</v>
       </c>
       <c r="O9" t="n">
-        <v>37000</v>
+        <v>29000</v>
       </c>
       <c r="P9" t="n">
-        <v>37000</v>
+        <v>29000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>2056</v>
+        <v>1611</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44340</v>
+        <v>44389</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1167,13 +1167,13 @@
         <v>20</v>
       </c>
       <c r="N10" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="O10" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="P10" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1944</v>
+        <v>1500</v>
       </c>
       <c r="T10" t="n">
         <v>18</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44354</v>
+        <v>44410</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1240,20 +1240,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="N11" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="O11" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="P11" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>2111</v>
+        <v>1778</v>
       </c>
       <c r="T11" t="n">
         <v>18</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44389</v>
+        <v>44410</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="N12" t="n">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="O12" t="n">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="P12" t="n">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1611</v>
+        <v>1667</v>
       </c>
       <c r="T12" t="n">
         <v>18</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44389</v>
+        <v>44410</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N13" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="O13" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="P13" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1500</v>
+        <v>1556</v>
       </c>
       <c r="T13" t="n">
         <v>18</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44312</v>
+        <v>44284</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="N14" t="n">
-        <v>26000</v>
+        <v>23000</v>
       </c>
       <c r="O14" t="n">
-        <v>26000</v>
+        <v>23000</v>
       </c>
       <c r="P14" t="n">
-        <v>26000</v>
+        <v>23000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1444</v>
+        <v>1278</v>
       </c>
       <c r="T14" t="n">
         <v>18</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44435</v>
+        <v>44431</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44424</v>
+        <v>44466</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N16" t="n">
-        <v>32000</v>
+        <v>60000</v>
       </c>
       <c r="O16" t="n">
-        <v>32000</v>
+        <v>60000</v>
       </c>
       <c r="P16" t="n">
-        <v>32000</v>
+        <v>60000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1778</v>
+        <v>3333</v>
       </c>
       <c r="T16" t="n">
         <v>18</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44326</v>
+        <v>44466</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="N17" t="n">
-        <v>35000</v>
+        <v>58000</v>
       </c>
       <c r="O17" t="n">
-        <v>35000</v>
+        <v>58000</v>
       </c>
       <c r="P17" t="n">
-        <v>35000</v>
+        <v>58000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1944</v>
+        <v>3222</v>
       </c>
       <c r="T17" t="n">
         <v>18</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44326</v>
+        <v>44417</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N18" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="O18" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="P18" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1667</v>
+        <v>1556</v>
       </c>
       <c r="T18" t="n">
         <v>18</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44326</v>
+        <v>44270</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="N19" t="n">
-        <v>28000</v>
+        <v>38000</v>
       </c>
       <c r="O19" t="n">
-        <v>28000</v>
+        <v>38000</v>
       </c>
       <c r="P19" t="n">
-        <v>28000</v>
+        <v>38000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1556</v>
+        <v>2111</v>
       </c>
       <c r="T19" t="n">
         <v>18</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44284</v>
+        <v>44438</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="N20" t="n">
-        <v>23000</v>
+        <v>32000</v>
       </c>
       <c r="O20" t="n">
-        <v>23000</v>
+        <v>32000</v>
       </c>
       <c r="P20" t="n">
-        <v>23000</v>
+        <v>32000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1278</v>
+        <v>1778</v>
       </c>
       <c r="T20" t="n">
         <v>18</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44417</v>
+        <v>44291</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N21" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="O21" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="P21" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1556</v>
+        <v>1389</v>
       </c>
       <c r="T21" t="n">
         <v>18</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44522</v>
+        <v>44529</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2120,11 +2120,11 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N22" t="n">
         <v>60000</v>
@@ -2142,7 +2142,7 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S22" t="n">
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44522</v>
+        <v>44529</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2200,20 +2200,20 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="N23" t="n">
-        <v>56000</v>
+        <v>58000</v>
       </c>
       <c r="O23" t="n">
-        <v>56000</v>
+        <v>58000</v>
       </c>
       <c r="P23" t="n">
-        <v>56000</v>
+        <v>58000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2222,11 +2222,11 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S23" t="n">
-        <v>3111</v>
+        <v>3222</v>
       </c>
       <c r="T23" t="n">
         <v>18</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44277</v>
+        <v>44522</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="N24" t="n">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="O24" t="n">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="P24" t="n">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2302,11 +2302,11 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1667</v>
+        <v>3333</v>
       </c>
       <c r="T24" t="n">
         <v>18</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44277</v>
+        <v>44522</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="N25" t="n">
-        <v>28000</v>
+        <v>56000</v>
       </c>
       <c r="O25" t="n">
-        <v>28000</v>
+        <v>56000</v>
       </c>
       <c r="P25" t="n">
-        <v>28000</v>
+        <v>56000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2382,11 +2382,11 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1556</v>
+        <v>3111</v>
       </c>
       <c r="T25" t="n">
         <v>18</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44403</v>
+        <v>44473</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="N26" t="n">
-        <v>33000</v>
+        <v>75000</v>
       </c>
       <c r="O26" t="n">
-        <v>33000</v>
+        <v>75000</v>
       </c>
       <c r="P26" t="n">
-        <v>33000</v>
+        <v>75000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1833</v>
+        <v>4167</v>
       </c>
       <c r="T26" t="n">
         <v>18</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44403</v>
+        <v>44473</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2524,16 +2524,16 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="N27" t="n">
-        <v>30000</v>
+        <v>72000</v>
       </c>
       <c r="O27" t="n">
-        <v>30000</v>
+        <v>72000</v>
       </c>
       <c r="P27" t="n">
-        <v>30000</v>
+        <v>72000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1667</v>
+        <v>4000</v>
       </c>
       <c r="T27" t="n">
         <v>18</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44403</v>
+        <v>44473</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2604,16 +2604,16 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="N28" t="n">
-        <v>28000</v>
+        <v>67000</v>
       </c>
       <c r="O28" t="n">
-        <v>28000</v>
+        <v>67000</v>
       </c>
       <c r="P28" t="n">
-        <v>28000</v>
+        <v>67000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1556</v>
+        <v>3722</v>
       </c>
       <c r="T28" t="n">
         <v>18</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44445</v>
+        <v>44312</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2684,16 +2684,16 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>30</v>
+        <v>160</v>
       </c>
       <c r="N29" t="n">
-        <v>32000</v>
+        <v>26000</v>
       </c>
       <c r="O29" t="n">
-        <v>32000</v>
+        <v>26000</v>
       </c>
       <c r="P29" t="n">
-        <v>32000</v>
+        <v>26000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1778</v>
+        <v>1444</v>
       </c>
       <c r="T29" t="n">
         <v>18</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44410</v>
+        <v>44424</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2760,11 +2760,11 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N30" t="n">
         <v>32000</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44410</v>
+        <v>44459</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2847,13 +2847,13 @@
         <v>25</v>
       </c>
       <c r="N31" t="n">
-        <v>30000</v>
+        <v>38000</v>
       </c>
       <c r="O31" t="n">
-        <v>30000</v>
+        <v>38000</v>
       </c>
       <c r="P31" t="n">
-        <v>30000</v>
+        <v>38000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1667</v>
+        <v>2111</v>
       </c>
       <c r="T31" t="n">
         <v>18</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44410</v>
+        <v>44319</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2920,20 +2920,20 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>10</v>
+        <v>140</v>
       </c>
       <c r="N32" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="O32" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="P32" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1556</v>
+        <v>1500</v>
       </c>
       <c r="T32" t="n">
         <v>18</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44466</v>
+        <v>44445</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3004,16 +3004,16 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N33" t="n">
-        <v>60000</v>
+        <v>32000</v>
       </c>
       <c r="O33" t="n">
-        <v>60000</v>
+        <v>32000</v>
       </c>
       <c r="P33" t="n">
-        <v>60000</v>
+        <v>32000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>3333</v>
+        <v>1778</v>
       </c>
       <c r="T33" t="n">
         <v>18</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44466</v>
+        <v>44396</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3080,20 +3080,20 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="N34" t="n">
-        <v>58000</v>
+        <v>37000</v>
       </c>
       <c r="O34" t="n">
-        <v>58000</v>
+        <v>37000</v>
       </c>
       <c r="P34" t="n">
-        <v>58000</v>
+        <v>37000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>3222</v>
+        <v>2056</v>
       </c>
       <c r="T34" t="n">
         <v>18</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44529</v>
+        <v>44396</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3160,20 +3160,20 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N35" t="n">
-        <v>60000</v>
+        <v>34000</v>
       </c>
       <c r="O35" t="n">
-        <v>60000</v>
+        <v>34000</v>
       </c>
       <c r="P35" t="n">
-        <v>60000</v>
+        <v>34000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>3333</v>
+        <v>1889</v>
       </c>
       <c r="T35" t="n">
         <v>18</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44529</v>
+        <v>44340</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3244,16 +3244,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="N36" t="n">
-        <v>58000</v>
+        <v>37000</v>
       </c>
       <c r="O36" t="n">
-        <v>58000</v>
+        <v>37000</v>
       </c>
       <c r="P36" t="n">
-        <v>58000</v>
+        <v>37000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>3222</v>
+        <v>2056</v>
       </c>
       <c r="T36" t="n">
         <v>18</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44319</v>
+        <v>44340</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3320,20 +3320,20 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="N37" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="O37" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="P37" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1500</v>
+        <v>1944</v>
       </c>
       <c r="T37" t="n">
         <v>18</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44396</v>
+        <v>44305</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3404,16 +3404,16 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="N38" t="n">
-        <v>37000</v>
+        <v>30000</v>
       </c>
       <c r="O38" t="n">
-        <v>37000</v>
+        <v>30000</v>
       </c>
       <c r="P38" t="n">
-        <v>37000</v>
+        <v>30000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>2056</v>
+        <v>1667</v>
       </c>
       <c r="T38" t="n">
         <v>18</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44396</v>
+        <v>44452</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3480,20 +3480,20 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N39" t="n">
-        <v>34000</v>
+        <v>36000</v>
       </c>
       <c r="O39" t="n">
-        <v>34000</v>
+        <v>36000</v>
       </c>
       <c r="P39" t="n">
-        <v>34000</v>
+        <v>36000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1889</v>
+        <v>2000</v>
       </c>
       <c r="T39" t="n">
         <v>18</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44438</v>
+        <v>44403</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3560,20 +3560,20 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N40" t="n">
-        <v>32000</v>
+        <v>33000</v>
       </c>
       <c r="O40" t="n">
-        <v>32000</v>
+        <v>33000</v>
       </c>
       <c r="P40" t="n">
-        <v>32000</v>
+        <v>33000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>1778</v>
+        <v>1833</v>
       </c>
       <c r="T40" t="n">
         <v>18</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44270</v>
+        <v>44403</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3640,20 +3640,20 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="N41" t="n">
-        <v>38000</v>
+        <v>30000</v>
       </c>
       <c r="O41" t="n">
-        <v>38000</v>
+        <v>30000</v>
       </c>
       <c r="P41" t="n">
-        <v>38000</v>
+        <v>30000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>2111</v>
+        <v>1667</v>
       </c>
       <c r="T41" t="n">
         <v>18</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44452</v>
+        <v>44403</v>
       </c>
       <c r="E42" t="n">
         <v>13</v>
@@ -3720,20 +3720,20 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N42" t="n">
-        <v>36000</v>
+        <v>28000</v>
       </c>
       <c r="O42" t="n">
-        <v>36000</v>
+        <v>28000</v>
       </c>
       <c r="P42" t="n">
-        <v>36000</v>
+        <v>28000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>2000</v>
+        <v>1556</v>
       </c>
       <c r="T42" t="n">
         <v>18</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44305</v>
+        <v>44277</v>
       </c>
       <c r="E43" t="n">
         <v>13</v>
@@ -3804,7 +3804,7 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="N43" t="n">
         <v>30000</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44382</v>
+        <v>44277</v>
       </c>
       <c r="E44" t="n">
         <v>13</v>
@@ -3880,20 +3880,20 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="N44" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="O44" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="P44" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>1944</v>
+        <v>1556</v>
       </c>
       <c r="T44" t="n">
         <v>18</v>
@@ -3960,20 +3960,20 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N45" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="O45" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="P45" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>1778</v>
+        <v>1944</v>
       </c>
       <c r="T45" t="n">
         <v>18</v>
@@ -4040,20 +4040,20 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N46" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="O46" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="P46" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>1667</v>
+        <v>1778</v>
       </c>
       <c r="T46" t="n">
         <v>18</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44291</v>
+        <v>44382</v>
       </c>
       <c r="E47" t="n">
         <v>13</v>
@@ -4120,20 +4120,20 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N47" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="O47" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="P47" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>1389</v>
+        <v>1667</v>
       </c>
       <c r="T47" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Maracuyá.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Maracuyá.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44333</v>
+        <v>44431</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -527,13 +527,13 @@
         <v>30</v>
       </c>
       <c r="N2" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="O2" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="P2" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>2111</v>
+        <v>1778</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44333</v>
+        <v>44459</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
         <v>25</v>
       </c>
       <c r="N3" t="n">
-        <v>35000</v>
+        <v>38000</v>
       </c>
       <c r="O3" t="n">
-        <v>35000</v>
+        <v>38000</v>
       </c>
       <c r="P3" t="n">
-        <v>35000</v>
+        <v>38000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1944</v>
+        <v>2111</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44435</v>
+        <v>44473</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="N4" t="n">
-        <v>32000</v>
+        <v>75000</v>
       </c>
       <c r="O4" t="n">
-        <v>32000</v>
+        <v>75000</v>
       </c>
       <c r="P4" t="n">
-        <v>32000</v>
+        <v>75000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1778</v>
+        <v>4167</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44326</v>
+        <v>44473</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="N5" t="n">
-        <v>35000</v>
+        <v>72000</v>
       </c>
       <c r="O5" t="n">
-        <v>35000</v>
+        <v>72000</v>
       </c>
       <c r="P5" t="n">
-        <v>35000</v>
+        <v>72000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1944</v>
+        <v>4000</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44326</v>
+        <v>44473</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="N6" t="n">
-        <v>30000</v>
+        <v>67000</v>
       </c>
       <c r="O6" t="n">
-        <v>30000</v>
+        <v>67000</v>
       </c>
       <c r="P6" t="n">
-        <v>30000</v>
+        <v>67000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1667</v>
+        <v>3722</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44326</v>
+        <v>44333</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N7" t="n">
-        <v>28000</v>
+        <v>38000</v>
       </c>
       <c r="O7" t="n">
-        <v>28000</v>
+        <v>38000</v>
       </c>
       <c r="P7" t="n">
-        <v>28000</v>
+        <v>38000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1556</v>
+        <v>2111</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44354</v>
+        <v>44333</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="N8" t="n">
-        <v>38000</v>
+        <v>35000</v>
       </c>
       <c r="O8" t="n">
-        <v>38000</v>
+        <v>35000</v>
       </c>
       <c r="P8" t="n">
-        <v>38000</v>
+        <v>35000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>2111</v>
+        <v>1944</v>
       </c>
       <c r="T8" t="n">
         <v>18</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44389</v>
+        <v>44340</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1087,13 +1087,13 @@
         <v>35</v>
       </c>
       <c r="N9" t="n">
-        <v>29000</v>
+        <v>37000</v>
       </c>
       <c r="O9" t="n">
-        <v>29000</v>
+        <v>37000</v>
       </c>
       <c r="P9" t="n">
-        <v>29000</v>
+        <v>37000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1611</v>
+        <v>2056</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44389</v>
+        <v>44340</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1167,13 +1167,13 @@
         <v>20</v>
       </c>
       <c r="N10" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="O10" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="P10" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1500</v>
+        <v>1944</v>
       </c>
       <c r="T10" t="n">
         <v>18</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44410</v>
+        <v>44354</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1240,20 +1240,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="N11" t="n">
-        <v>32000</v>
+        <v>38000</v>
       </c>
       <c r="O11" t="n">
-        <v>32000</v>
+        <v>38000</v>
       </c>
       <c r="P11" t="n">
-        <v>32000</v>
+        <v>38000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1778</v>
+        <v>2111</v>
       </c>
       <c r="T11" t="n">
         <v>18</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44410</v>
+        <v>44389</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="N12" t="n">
-        <v>30000</v>
+        <v>29000</v>
       </c>
       <c r="O12" t="n">
-        <v>30000</v>
+        <v>29000</v>
       </c>
       <c r="P12" t="n">
-        <v>30000</v>
+        <v>29000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1667</v>
+        <v>1611</v>
       </c>
       <c r="T12" t="n">
         <v>18</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44410</v>
+        <v>44389</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N13" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="O13" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="P13" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1556</v>
+        <v>1500</v>
       </c>
       <c r="T13" t="n">
         <v>18</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44284</v>
+        <v>44312</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="N14" t="n">
-        <v>23000</v>
+        <v>26000</v>
       </c>
       <c r="O14" t="n">
-        <v>23000</v>
+        <v>26000</v>
       </c>
       <c r="P14" t="n">
-        <v>23000</v>
+        <v>26000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1278</v>
+        <v>1444</v>
       </c>
       <c r="T14" t="n">
         <v>18</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44431</v>
+        <v>44435</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44466</v>
+        <v>44424</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N16" t="n">
-        <v>60000</v>
+        <v>32000</v>
       </c>
       <c r="O16" t="n">
-        <v>60000</v>
+        <v>32000</v>
       </c>
       <c r="P16" t="n">
-        <v>60000</v>
+        <v>32000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>3333</v>
+        <v>1778</v>
       </c>
       <c r="T16" t="n">
         <v>18</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44466</v>
+        <v>44326</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="N17" t="n">
-        <v>58000</v>
+        <v>35000</v>
       </c>
       <c r="O17" t="n">
-        <v>58000</v>
+        <v>35000</v>
       </c>
       <c r="P17" t="n">
-        <v>58000</v>
+        <v>35000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>3222</v>
+        <v>1944</v>
       </c>
       <c r="T17" t="n">
         <v>18</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44417</v>
+        <v>44326</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N18" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="O18" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="P18" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1556</v>
+        <v>1667</v>
       </c>
       <c r="T18" t="n">
         <v>18</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44270</v>
+        <v>44326</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="N19" t="n">
-        <v>38000</v>
+        <v>28000</v>
       </c>
       <c r="O19" t="n">
-        <v>38000</v>
+        <v>28000</v>
       </c>
       <c r="P19" t="n">
-        <v>38000</v>
+        <v>28000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>2111</v>
+        <v>1556</v>
       </c>
       <c r="T19" t="n">
         <v>18</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44438</v>
+        <v>44284</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="N20" t="n">
-        <v>32000</v>
+        <v>23000</v>
       </c>
       <c r="O20" t="n">
-        <v>32000</v>
+        <v>23000</v>
       </c>
       <c r="P20" t="n">
-        <v>32000</v>
+        <v>23000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1778</v>
+        <v>1278</v>
       </c>
       <c r="T20" t="n">
         <v>18</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44291</v>
+        <v>44417</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N21" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="O21" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="P21" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1389</v>
+        <v>1556</v>
       </c>
       <c r="T21" t="n">
         <v>18</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44529</v>
+        <v>44522</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2120,11 +2120,11 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N22" t="n">
         <v>60000</v>
@@ -2142,7 +2142,7 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="S22" t="n">
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44529</v>
+        <v>44522</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2200,20 +2200,20 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="N23" t="n">
-        <v>58000</v>
+        <v>56000</v>
       </c>
       <c r="O23" t="n">
-        <v>58000</v>
+        <v>56000</v>
       </c>
       <c r="P23" t="n">
-        <v>58000</v>
+        <v>56000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2222,11 +2222,11 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="S23" t="n">
-        <v>3222</v>
+        <v>3111</v>
       </c>
       <c r="T23" t="n">
         <v>18</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44522</v>
+        <v>44277</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="N24" t="n">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="O24" t="n">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="P24" t="n">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2302,11 +2302,11 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S24" t="n">
-        <v>3333</v>
+        <v>1667</v>
       </c>
       <c r="T24" t="n">
         <v>18</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44522</v>
+        <v>44277</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="N25" t="n">
-        <v>56000</v>
+        <v>28000</v>
       </c>
       <c r="O25" t="n">
-        <v>56000</v>
+        <v>28000</v>
       </c>
       <c r="P25" t="n">
-        <v>56000</v>
+        <v>28000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2382,11 +2382,11 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S25" t="n">
-        <v>3111</v>
+        <v>1556</v>
       </c>
       <c r="T25" t="n">
         <v>18</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44473</v>
+        <v>44403</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="N26" t="n">
-        <v>75000</v>
+        <v>33000</v>
       </c>
       <c r="O26" t="n">
-        <v>75000</v>
+        <v>33000</v>
       </c>
       <c r="P26" t="n">
-        <v>75000</v>
+        <v>33000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>4167</v>
+        <v>1833</v>
       </c>
       <c r="T26" t="n">
         <v>18</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44473</v>
+        <v>44403</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2524,16 +2524,16 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="N27" t="n">
-        <v>72000</v>
+        <v>30000</v>
       </c>
       <c r="O27" t="n">
-        <v>72000</v>
+        <v>30000</v>
       </c>
       <c r="P27" t="n">
-        <v>72000</v>
+        <v>30000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>4000</v>
+        <v>1667</v>
       </c>
       <c r="T27" t="n">
         <v>18</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44473</v>
+        <v>44403</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2604,16 +2604,16 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="N28" t="n">
-        <v>67000</v>
+        <v>28000</v>
       </c>
       <c r="O28" t="n">
-        <v>67000</v>
+        <v>28000</v>
       </c>
       <c r="P28" t="n">
-        <v>67000</v>
+        <v>28000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>3722</v>
+        <v>1556</v>
       </c>
       <c r="T28" t="n">
         <v>18</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44312</v>
+        <v>44445</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2684,16 +2684,16 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>160</v>
+        <v>30</v>
       </c>
       <c r="N29" t="n">
-        <v>26000</v>
+        <v>32000</v>
       </c>
       <c r="O29" t="n">
-        <v>26000</v>
+        <v>32000</v>
       </c>
       <c r="P29" t="n">
-        <v>26000</v>
+        <v>32000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1444</v>
+        <v>1778</v>
       </c>
       <c r="T29" t="n">
         <v>18</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44424</v>
+        <v>44410</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2760,11 +2760,11 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N30" t="n">
         <v>32000</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44459</v>
+        <v>44410</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2847,13 +2847,13 @@
         <v>25</v>
       </c>
       <c r="N31" t="n">
-        <v>38000</v>
+        <v>30000</v>
       </c>
       <c r="O31" t="n">
-        <v>38000</v>
+        <v>30000</v>
       </c>
       <c r="P31" t="n">
-        <v>38000</v>
+        <v>30000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>2111</v>
+        <v>1667</v>
       </c>
       <c r="T31" t="n">
         <v>18</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44319</v>
+        <v>44410</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2920,20 +2920,20 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="N32" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="O32" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="P32" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1500</v>
+        <v>1556</v>
       </c>
       <c r="T32" t="n">
         <v>18</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44445</v>
+        <v>44466</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3004,16 +3004,16 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N33" t="n">
-        <v>32000</v>
+        <v>60000</v>
       </c>
       <c r="O33" t="n">
-        <v>32000</v>
+        <v>60000</v>
       </c>
       <c r="P33" t="n">
-        <v>32000</v>
+        <v>60000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1778</v>
+        <v>3333</v>
       </c>
       <c r="T33" t="n">
         <v>18</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44396</v>
+        <v>44466</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3080,20 +3080,20 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="N34" t="n">
-        <v>37000</v>
+        <v>58000</v>
       </c>
       <c r="O34" t="n">
-        <v>37000</v>
+        <v>58000</v>
       </c>
       <c r="P34" t="n">
-        <v>37000</v>
+        <v>58000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>2056</v>
+        <v>3222</v>
       </c>
       <c r="T34" t="n">
         <v>18</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44396</v>
+        <v>44529</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3160,20 +3160,20 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N35" t="n">
-        <v>34000</v>
+        <v>60000</v>
       </c>
       <c r="O35" t="n">
-        <v>34000</v>
+        <v>60000</v>
       </c>
       <c r="P35" t="n">
-        <v>34000</v>
+        <v>60000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1889</v>
+        <v>3333</v>
       </c>
       <c r="T35" t="n">
         <v>18</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44340</v>
+        <v>44529</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3244,16 +3244,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="N36" t="n">
-        <v>37000</v>
+        <v>58000</v>
       </c>
       <c r="O36" t="n">
-        <v>37000</v>
+        <v>58000</v>
       </c>
       <c r="P36" t="n">
-        <v>37000</v>
+        <v>58000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>2056</v>
+        <v>3222</v>
       </c>
       <c r="T36" t="n">
         <v>18</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44340</v>
+        <v>44319</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3320,20 +3320,20 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="N37" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="O37" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="P37" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1944</v>
+        <v>1500</v>
       </c>
       <c r="T37" t="n">
         <v>18</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44305</v>
+        <v>44396</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3404,16 +3404,16 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="N38" t="n">
-        <v>30000</v>
+        <v>37000</v>
       </c>
       <c r="O38" t="n">
-        <v>30000</v>
+        <v>37000</v>
       </c>
       <c r="P38" t="n">
-        <v>30000</v>
+        <v>37000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>1667</v>
+        <v>2056</v>
       </c>
       <c r="T38" t="n">
         <v>18</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44452</v>
+        <v>44396</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3480,20 +3480,20 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N39" t="n">
-        <v>36000</v>
+        <v>34000</v>
       </c>
       <c r="O39" t="n">
-        <v>36000</v>
+        <v>34000</v>
       </c>
       <c r="P39" t="n">
-        <v>36000</v>
+        <v>34000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>2000</v>
+        <v>1889</v>
       </c>
       <c r="T39" t="n">
         <v>18</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44403</v>
+        <v>44438</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3560,20 +3560,20 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N40" t="n">
-        <v>33000</v>
+        <v>32000</v>
       </c>
       <c r="O40" t="n">
-        <v>33000</v>
+        <v>32000</v>
       </c>
       <c r="P40" t="n">
-        <v>33000</v>
+        <v>32000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>1833</v>
+        <v>1778</v>
       </c>
       <c r="T40" t="n">
         <v>18</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44403</v>
+        <v>44270</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3640,20 +3640,20 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="N41" t="n">
-        <v>30000</v>
+        <v>38000</v>
       </c>
       <c r="O41" t="n">
-        <v>30000</v>
+        <v>38000</v>
       </c>
       <c r="P41" t="n">
-        <v>30000</v>
+        <v>38000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>1667</v>
+        <v>2111</v>
       </c>
       <c r="T41" t="n">
         <v>18</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44403</v>
+        <v>44452</v>
       </c>
       <c r="E42" t="n">
         <v>13</v>
@@ -3720,20 +3720,20 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N42" t="n">
-        <v>28000</v>
+        <v>36000</v>
       </c>
       <c r="O42" t="n">
-        <v>28000</v>
+        <v>36000</v>
       </c>
       <c r="P42" t="n">
-        <v>28000</v>
+        <v>36000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>1556</v>
+        <v>2000</v>
       </c>
       <c r="T42" t="n">
         <v>18</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44277</v>
+        <v>44305</v>
       </c>
       <c r="E43" t="n">
         <v>13</v>
@@ -3804,7 +3804,7 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="N43" t="n">
         <v>30000</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44277</v>
+        <v>44382</v>
       </c>
       <c r="E44" t="n">
         <v>13</v>
@@ -3880,20 +3880,20 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="N44" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="O44" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="P44" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>1556</v>
+        <v>1944</v>
       </c>
       <c r="T44" t="n">
         <v>18</v>
@@ -3960,20 +3960,20 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N45" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="O45" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="P45" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>1944</v>
+        <v>1778</v>
       </c>
       <c r="T45" t="n">
         <v>18</v>
@@ -4040,20 +4040,20 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N46" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="O46" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="P46" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>1778</v>
+        <v>1667</v>
       </c>
       <c r="T46" t="n">
         <v>18</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44382</v>
+        <v>44291</v>
       </c>
       <c r="E47" t="n">
         <v>13</v>
@@ -4120,20 +4120,20 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N47" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="O47" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="P47" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>1667</v>
+        <v>1389</v>
       </c>
       <c r="T47" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Maracuyá.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Maracuyá.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44333</v>
+        <v>44410</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N2" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="O2" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="P2" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>2111</v>
+        <v>1778</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44333</v>
+        <v>44410</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
         <v>25</v>
       </c>
       <c r="N3" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="O3" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="P3" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1944</v>
+        <v>1667</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44435</v>
+        <v>44410</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="N4" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="O4" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="P4" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1778</v>
+        <v>1556</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44326</v>
+        <v>44305</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="N5" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="O5" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="P5" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1944</v>
+        <v>1667</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44326</v>
+        <v>44396</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="N6" t="n">
-        <v>30000</v>
+        <v>37000</v>
       </c>
       <c r="O6" t="n">
-        <v>30000</v>
+        <v>37000</v>
       </c>
       <c r="P6" t="n">
-        <v>30000</v>
+        <v>37000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1667</v>
+        <v>2056</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44326</v>
+        <v>44396</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N7" t="n">
-        <v>28000</v>
+        <v>34000</v>
       </c>
       <c r="O7" t="n">
-        <v>28000</v>
+        <v>34000</v>
       </c>
       <c r="P7" t="n">
-        <v>28000</v>
+        <v>34000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1556</v>
+        <v>1889</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44354</v>
+        <v>44270</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1000,11 +1000,11 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="N8" t="n">
         <v>38000</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44389</v>
+        <v>44382</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="N9" t="n">
-        <v>29000</v>
+        <v>35000</v>
       </c>
       <c r="O9" t="n">
-        <v>29000</v>
+        <v>35000</v>
       </c>
       <c r="P9" t="n">
-        <v>29000</v>
+        <v>35000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1611</v>
+        <v>1944</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44389</v>
+        <v>44382</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1160,20 +1160,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N10" t="n">
-        <v>27000</v>
+        <v>32000</v>
       </c>
       <c r="O10" t="n">
-        <v>27000</v>
+        <v>32000</v>
       </c>
       <c r="P10" t="n">
-        <v>27000</v>
+        <v>32000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1500</v>
+        <v>1778</v>
       </c>
       <c r="T10" t="n">
         <v>18</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44410</v>
+        <v>44382</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1240,20 +1240,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M11" t="n">
         <v>15</v>
       </c>
       <c r="N11" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="O11" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="P11" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1778</v>
+        <v>1667</v>
       </c>
       <c r="T11" t="n">
         <v>18</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44410</v>
+        <v>44312</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>25</v>
+        <v>160</v>
       </c>
       <c r="N12" t="n">
-        <v>30000</v>
+        <v>26000</v>
       </c>
       <c r="O12" t="n">
-        <v>30000</v>
+        <v>26000</v>
       </c>
       <c r="P12" t="n">
-        <v>30000</v>
+        <v>26000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1667</v>
+        <v>1444</v>
       </c>
       <c r="T12" t="n">
         <v>18</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44410</v>
+        <v>44319</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>10</v>
+        <v>140</v>
       </c>
       <c r="N13" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="O13" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="P13" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1556</v>
+        <v>1500</v>
       </c>
       <c r="T13" t="n">
         <v>18</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44284</v>
+        <v>44522</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>120</v>
+        <v>25</v>
       </c>
       <c r="N14" t="n">
-        <v>23000</v>
+        <v>60000</v>
       </c>
       <c r="O14" t="n">
-        <v>23000</v>
+        <v>60000</v>
       </c>
       <c r="P14" t="n">
-        <v>23000</v>
+        <v>60000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1502,11 +1502,11 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1278</v>
+        <v>3333</v>
       </c>
       <c r="T14" t="n">
         <v>18</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44431</v>
+        <v>44522</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N15" t="n">
-        <v>32000</v>
+        <v>56000</v>
       </c>
       <c r="O15" t="n">
-        <v>32000</v>
+        <v>56000</v>
       </c>
       <c r="P15" t="n">
-        <v>32000</v>
+        <v>56000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1582,11 +1582,11 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1778</v>
+        <v>3111</v>
       </c>
       <c r="T15" t="n">
         <v>18</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44466</v>
+        <v>44326</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N16" t="n">
-        <v>60000</v>
+        <v>35000</v>
       </c>
       <c r="O16" t="n">
-        <v>60000</v>
+        <v>35000</v>
       </c>
       <c r="P16" t="n">
-        <v>60000</v>
+        <v>35000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>3333</v>
+        <v>1944</v>
       </c>
       <c r="T16" t="n">
         <v>18</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44466</v>
+        <v>44326</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="N17" t="n">
-        <v>58000</v>
+        <v>30000</v>
       </c>
       <c r="O17" t="n">
-        <v>58000</v>
+        <v>30000</v>
       </c>
       <c r="P17" t="n">
-        <v>58000</v>
+        <v>30000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>3222</v>
+        <v>1667</v>
       </c>
       <c r="T17" t="n">
         <v>18</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44417</v>
+        <v>44326</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1800,11 +1800,11 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N18" t="n">
         <v>28000</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44270</v>
+        <v>44424</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="N19" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="O19" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="P19" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>2111</v>
+        <v>1778</v>
       </c>
       <c r="T19" t="n">
         <v>18</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44438</v>
+        <v>44435</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44291</v>
+        <v>44452</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N21" t="n">
-        <v>25000</v>
+        <v>36000</v>
       </c>
       <c r="O21" t="n">
-        <v>25000</v>
+        <v>36000</v>
       </c>
       <c r="P21" t="n">
-        <v>25000</v>
+        <v>36000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1389</v>
+        <v>2000</v>
       </c>
       <c r="T21" t="n">
         <v>18</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44529</v>
+        <v>44389</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2120,20 +2120,20 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="N22" t="n">
-        <v>60000</v>
+        <v>29000</v>
       </c>
       <c r="O22" t="n">
-        <v>60000</v>
+        <v>29000</v>
       </c>
       <c r="P22" t="n">
-        <v>60000</v>
+        <v>29000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>3333</v>
+        <v>1611</v>
       </c>
       <c r="T22" t="n">
         <v>18</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44529</v>
+        <v>44389</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2200,20 +2200,20 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="N23" t="n">
-        <v>58000</v>
+        <v>27000</v>
       </c>
       <c r="O23" t="n">
-        <v>58000</v>
+        <v>27000</v>
       </c>
       <c r="P23" t="n">
-        <v>58000</v>
+        <v>27000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>3222</v>
+        <v>1500</v>
       </c>
       <c r="T23" t="n">
         <v>18</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44522</v>
+        <v>44431</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N24" t="n">
-        <v>60000</v>
+        <v>32000</v>
       </c>
       <c r="O24" t="n">
-        <v>60000</v>
+        <v>32000</v>
       </c>
       <c r="P24" t="n">
-        <v>60000</v>
+        <v>32000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2302,11 +2302,11 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S24" t="n">
-        <v>3333</v>
+        <v>1778</v>
       </c>
       <c r="T24" t="n">
         <v>18</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44522</v>
+        <v>44417</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2360,20 +2360,20 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N25" t="n">
-        <v>56000</v>
+        <v>28000</v>
       </c>
       <c r="O25" t="n">
-        <v>56000</v>
+        <v>28000</v>
       </c>
       <c r="P25" t="n">
-        <v>56000</v>
+        <v>28000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2382,11 +2382,11 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S25" t="n">
-        <v>3111</v>
+        <v>1556</v>
       </c>
       <c r="T25" t="n">
         <v>18</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44473</v>
+        <v>44277</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2440,20 +2440,20 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="N26" t="n">
-        <v>75000</v>
+        <v>30000</v>
       </c>
       <c r="O26" t="n">
-        <v>75000</v>
+        <v>30000</v>
       </c>
       <c r="P26" t="n">
-        <v>75000</v>
+        <v>30000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>4167</v>
+        <v>1667</v>
       </c>
       <c r="T26" t="n">
         <v>18</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44473</v>
+        <v>44277</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2520,20 +2520,20 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="N27" t="n">
-        <v>72000</v>
+        <v>28000</v>
       </c>
       <c r="O27" t="n">
-        <v>72000</v>
+        <v>28000</v>
       </c>
       <c r="P27" t="n">
-        <v>72000</v>
+        <v>28000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>4000</v>
+        <v>1556</v>
       </c>
       <c r="T27" t="n">
         <v>18</v>
@@ -2600,20 +2600,20 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N28" t="n">
-        <v>67000</v>
+        <v>75000</v>
       </c>
       <c r="O28" t="n">
-        <v>67000</v>
+        <v>75000</v>
       </c>
       <c r="P28" t="n">
-        <v>67000</v>
+        <v>75000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>3722</v>
+        <v>4167</v>
       </c>
       <c r="T28" t="n">
         <v>18</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44312</v>
+        <v>44473</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2684,16 +2684,16 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>160</v>
+        <v>25</v>
       </c>
       <c r="N29" t="n">
-        <v>26000</v>
+        <v>72000</v>
       </c>
       <c r="O29" t="n">
-        <v>26000</v>
+        <v>72000</v>
       </c>
       <c r="P29" t="n">
-        <v>26000</v>
+        <v>72000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1444</v>
+        <v>4000</v>
       </c>
       <c r="T29" t="n">
         <v>18</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44424</v>
+        <v>44473</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2760,20 +2760,20 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="N30" t="n">
-        <v>32000</v>
+        <v>67000</v>
       </c>
       <c r="O30" t="n">
-        <v>32000</v>
+        <v>67000</v>
       </c>
       <c r="P30" t="n">
-        <v>32000</v>
+        <v>67000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1778</v>
+        <v>3722</v>
       </c>
       <c r="T30" t="n">
         <v>18</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44459</v>
+        <v>44284</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2844,16 +2844,16 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="N31" t="n">
-        <v>38000</v>
+        <v>23000</v>
       </c>
       <c r="O31" t="n">
-        <v>38000</v>
+        <v>23000</v>
       </c>
       <c r="P31" t="n">
-        <v>38000</v>
+        <v>23000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>2111</v>
+        <v>1278</v>
       </c>
       <c r="T31" t="n">
         <v>18</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44319</v>
+        <v>44459</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2924,16 +2924,16 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>140</v>
+        <v>25</v>
       </c>
       <c r="N32" t="n">
-        <v>27000</v>
+        <v>38000</v>
       </c>
       <c r="O32" t="n">
-        <v>27000</v>
+        <v>38000</v>
       </c>
       <c r="P32" t="n">
-        <v>27000</v>
+        <v>38000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1500</v>
+        <v>2111</v>
       </c>
       <c r="T32" t="n">
         <v>18</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44445</v>
+        <v>44354</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3004,16 +3004,16 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N33" t="n">
-        <v>32000</v>
+        <v>38000</v>
       </c>
       <c r="O33" t="n">
-        <v>32000</v>
+        <v>38000</v>
       </c>
       <c r="P33" t="n">
-        <v>32000</v>
+        <v>38000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1778</v>
+        <v>2111</v>
       </c>
       <c r="T33" t="n">
         <v>18</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44396</v>
+        <v>44438</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3084,16 +3084,16 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N34" t="n">
-        <v>37000</v>
+        <v>32000</v>
       </c>
       <c r="O34" t="n">
-        <v>37000</v>
+        <v>32000</v>
       </c>
       <c r="P34" t="n">
-        <v>37000</v>
+        <v>32000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>2056</v>
+        <v>1778</v>
       </c>
       <c r="T34" t="n">
         <v>18</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44396</v>
+        <v>44466</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3160,20 +3160,20 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M35" t="n">
         <v>15</v>
       </c>
       <c r="N35" t="n">
-        <v>34000</v>
+        <v>60000</v>
       </c>
       <c r="O35" t="n">
-        <v>34000</v>
+        <v>60000</v>
       </c>
       <c r="P35" t="n">
-        <v>34000</v>
+        <v>60000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1889</v>
+        <v>3333</v>
       </c>
       <c r="T35" t="n">
         <v>18</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44340</v>
+        <v>44466</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3240,20 +3240,20 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="N36" t="n">
-        <v>37000</v>
+        <v>58000</v>
       </c>
       <c r="O36" t="n">
-        <v>37000</v>
+        <v>58000</v>
       </c>
       <c r="P36" t="n">
-        <v>37000</v>
+        <v>58000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>2056</v>
+        <v>3222</v>
       </c>
       <c r="T36" t="n">
         <v>18</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44340</v>
+        <v>44403</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3320,20 +3320,20 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N37" t="n">
-        <v>35000</v>
+        <v>33000</v>
       </c>
       <c r="O37" t="n">
-        <v>35000</v>
+        <v>33000</v>
       </c>
       <c r="P37" t="n">
-        <v>35000</v>
+        <v>33000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1944</v>
+        <v>1833</v>
       </c>
       <c r="T37" t="n">
         <v>18</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44305</v>
+        <v>44403</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3404,7 +3404,7 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="N38" t="n">
         <v>30000</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44452</v>
+        <v>44403</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3480,20 +3480,20 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N39" t="n">
-        <v>36000</v>
+        <v>28000</v>
       </c>
       <c r="O39" t="n">
-        <v>36000</v>
+        <v>28000</v>
       </c>
       <c r="P39" t="n">
-        <v>36000</v>
+        <v>28000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>2000</v>
+        <v>1556</v>
       </c>
       <c r="T39" t="n">
         <v>18</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44403</v>
+        <v>44445</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3560,20 +3560,20 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N40" t="n">
-        <v>33000</v>
+        <v>32000</v>
       </c>
       <c r="O40" t="n">
-        <v>33000</v>
+        <v>32000</v>
       </c>
       <c r="P40" t="n">
-        <v>33000</v>
+        <v>32000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>1833</v>
+        <v>1778</v>
       </c>
       <c r="T40" t="n">
         <v>18</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44403</v>
+        <v>44291</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3644,16 +3644,16 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N41" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="O41" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="P41" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>1667</v>
+        <v>1389</v>
       </c>
       <c r="T41" t="n">
         <v>18</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44403</v>
+        <v>44529</v>
       </c>
       <c r="E42" t="n">
         <v>13</v>
@@ -3720,20 +3720,20 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N42" t="n">
-        <v>28000</v>
+        <v>60000</v>
       </c>
       <c r="O42" t="n">
-        <v>28000</v>
+        <v>60000</v>
       </c>
       <c r="P42" t="n">
-        <v>28000</v>
+        <v>60000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>1556</v>
+        <v>3333</v>
       </c>
       <c r="T42" t="n">
         <v>18</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44277</v>
+        <v>44529</v>
       </c>
       <c r="E43" t="n">
         <v>13</v>
@@ -3804,16 +3804,16 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N43" t="n">
-        <v>30000</v>
+        <v>58000</v>
       </c>
       <c r="O43" t="n">
-        <v>30000</v>
+        <v>58000</v>
       </c>
       <c r="P43" t="n">
-        <v>30000</v>
+        <v>58000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>1667</v>
+        <v>3222</v>
       </c>
       <c r="T43" t="n">
         <v>18</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44277</v>
+        <v>44340</v>
       </c>
       <c r="E44" t="n">
         <v>13</v>
@@ -3880,20 +3880,20 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="N44" t="n">
-        <v>28000</v>
+        <v>37000</v>
       </c>
       <c r="O44" t="n">
-        <v>28000</v>
+        <v>37000</v>
       </c>
       <c r="P44" t="n">
-        <v>28000</v>
+        <v>37000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>1556</v>
+        <v>2056</v>
       </c>
       <c r="T44" t="n">
         <v>18</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44382</v>
+        <v>44340</v>
       </c>
       <c r="E45" t="n">
         <v>13</v>
@@ -3960,7 +3960,7 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M45" t="n">
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44382</v>
+        <v>44333</v>
       </c>
       <c r="E46" t="n">
         <v>13</v>
@@ -4047,13 +4047,13 @@
         <v>30</v>
       </c>
       <c r="N46" t="n">
-        <v>32000</v>
+        <v>38000</v>
       </c>
       <c r="O46" t="n">
-        <v>32000</v>
+        <v>38000</v>
       </c>
       <c r="P46" t="n">
-        <v>32000</v>
+        <v>38000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>1778</v>
+        <v>2111</v>
       </c>
       <c r="T46" t="n">
         <v>18</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44382</v>
+        <v>44333</v>
       </c>
       <c r="E47" t="n">
         <v>13</v>
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N47" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="O47" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="P47" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>1667</v>
+        <v>1944</v>
       </c>
       <c r="T47" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Maracuyá.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Maracuyá.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44410</v>
+        <v>44431</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -520,11 +520,11 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N2" t="n">
         <v>32000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44410</v>
+        <v>44424</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N3" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="O3" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="P3" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1667</v>
+        <v>1778</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44410</v>
+        <v>44312</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="N4" t="n">
-        <v>28000</v>
+        <v>26000</v>
       </c>
       <c r="O4" t="n">
-        <v>28000</v>
+        <v>26000</v>
       </c>
       <c r="P4" t="n">
-        <v>28000</v>
+        <v>26000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1556</v>
+        <v>1444</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44305</v>
+        <v>44438</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N5" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="O5" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="P5" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1667</v>
+        <v>1778</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44396</v>
+        <v>44452</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="N6" t="n">
-        <v>37000</v>
+        <v>36000</v>
       </c>
       <c r="O6" t="n">
-        <v>37000</v>
+        <v>36000</v>
       </c>
       <c r="P6" t="n">
-        <v>37000</v>
+        <v>36000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>2056</v>
+        <v>2000</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44396</v>
+        <v>44284</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>15</v>
+        <v>120</v>
       </c>
       <c r="N7" t="n">
-        <v>34000</v>
+        <v>23000</v>
       </c>
       <c r="O7" t="n">
-        <v>34000</v>
+        <v>23000</v>
       </c>
       <c r="P7" t="n">
-        <v>34000</v>
+        <v>23000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1889</v>
+        <v>1278</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44270</v>
+        <v>44340</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="N8" t="n">
-        <v>38000</v>
+        <v>37000</v>
       </c>
       <c r="O8" t="n">
-        <v>38000</v>
+        <v>37000</v>
       </c>
       <c r="P8" t="n">
-        <v>38000</v>
+        <v>37000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>2111</v>
+        <v>2056</v>
       </c>
       <c r="T8" t="n">
         <v>18</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44382</v>
+        <v>44340</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1080,7 +1080,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M9" t="n">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44382</v>
+        <v>44277</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="N10" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="O10" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="P10" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1778</v>
+        <v>1667</v>
       </c>
       <c r="T10" t="n">
         <v>18</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44382</v>
+        <v>44277</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="N11" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="O11" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="P11" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1667</v>
+        <v>1556</v>
       </c>
       <c r="T11" t="n">
         <v>18</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44312</v>
+        <v>44435</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>160</v>
+        <v>30</v>
       </c>
       <c r="N12" t="n">
-        <v>26000</v>
+        <v>32000</v>
       </c>
       <c r="O12" t="n">
-        <v>26000</v>
+        <v>32000</v>
       </c>
       <c r="P12" t="n">
-        <v>26000</v>
+        <v>32000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1444</v>
+        <v>1778</v>
       </c>
       <c r="T12" t="n">
         <v>18</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44319</v>
+        <v>44354</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="N13" t="n">
-        <v>27000</v>
+        <v>38000</v>
       </c>
       <c r="O13" t="n">
-        <v>27000</v>
+        <v>38000</v>
       </c>
       <c r="P13" t="n">
-        <v>27000</v>
+        <v>38000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1500</v>
+        <v>2111</v>
       </c>
       <c r="T13" t="n">
         <v>18</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44522</v>
+        <v>44270</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="N14" t="n">
-        <v>60000</v>
+        <v>38000</v>
       </c>
       <c r="O14" t="n">
-        <v>60000</v>
+        <v>38000</v>
       </c>
       <c r="P14" t="n">
-        <v>60000</v>
+        <v>38000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1502,11 +1502,11 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>3333</v>
+        <v>2111</v>
       </c>
       <c r="T14" t="n">
         <v>18</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N15" t="n">
-        <v>56000</v>
+        <v>60000</v>
       </c>
       <c r="O15" t="n">
-        <v>56000</v>
+        <v>60000</v>
       </c>
       <c r="P15" t="n">
-        <v>56000</v>
+        <v>60000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>3111</v>
+        <v>3333</v>
       </c>
       <c r="T15" t="n">
         <v>18</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44326</v>
+        <v>44522</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N16" t="n">
-        <v>35000</v>
+        <v>56000</v>
       </c>
       <c r="O16" t="n">
-        <v>35000</v>
+        <v>56000</v>
       </c>
       <c r="P16" t="n">
-        <v>35000</v>
+        <v>56000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1662,11 +1662,11 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1944</v>
+        <v>3111</v>
       </c>
       <c r="T16" t="n">
         <v>18</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44326</v>
+        <v>44333</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N17" t="n">
-        <v>30000</v>
+        <v>38000</v>
       </c>
       <c r="O17" t="n">
-        <v>30000</v>
+        <v>38000</v>
       </c>
       <c r="P17" t="n">
-        <v>30000</v>
+        <v>38000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1667</v>
+        <v>2111</v>
       </c>
       <c r="T17" t="n">
         <v>18</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44326</v>
+        <v>44333</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N18" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="O18" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="P18" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1556</v>
+        <v>1944</v>
       </c>
       <c r="T18" t="n">
         <v>18</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44424</v>
+        <v>44473</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="N19" t="n">
-        <v>32000</v>
+        <v>75000</v>
       </c>
       <c r="O19" t="n">
-        <v>32000</v>
+        <v>75000</v>
       </c>
       <c r="P19" t="n">
-        <v>32000</v>
+        <v>75000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1778</v>
+        <v>4167</v>
       </c>
       <c r="T19" t="n">
         <v>18</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44435</v>
+        <v>44473</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N20" t="n">
-        <v>32000</v>
+        <v>72000</v>
       </c>
       <c r="O20" t="n">
-        <v>32000</v>
+        <v>72000</v>
       </c>
       <c r="P20" t="n">
-        <v>32000</v>
+        <v>72000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1778</v>
+        <v>4000</v>
       </c>
       <c r="T20" t="n">
         <v>18</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44452</v>
+        <v>44473</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2040,20 +2040,20 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="N21" t="n">
-        <v>36000</v>
+        <v>67000</v>
       </c>
       <c r="O21" t="n">
-        <v>36000</v>
+        <v>67000</v>
       </c>
       <c r="P21" t="n">
-        <v>36000</v>
+        <v>67000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>2000</v>
+        <v>3722</v>
       </c>
       <c r="T21" t="n">
         <v>18</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44389</v>
+        <v>44326</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2120,20 +2120,20 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="N22" t="n">
-        <v>29000</v>
+        <v>35000</v>
       </c>
       <c r="O22" t="n">
-        <v>29000</v>
+        <v>35000</v>
       </c>
       <c r="P22" t="n">
-        <v>29000</v>
+        <v>35000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1611</v>
+        <v>1944</v>
       </c>
       <c r="T22" t="n">
         <v>18</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44389</v>
+        <v>44326</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2200,20 +2200,20 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N23" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="O23" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="P23" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1500</v>
+        <v>1667</v>
       </c>
       <c r="T23" t="n">
         <v>18</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44431</v>
+        <v>44326</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2280,20 +2280,20 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N24" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="O24" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="P24" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1778</v>
+        <v>1556</v>
       </c>
       <c r="T24" t="n">
         <v>18</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44417</v>
+        <v>44459</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N25" t="n">
-        <v>28000</v>
+        <v>38000</v>
       </c>
       <c r="O25" t="n">
-        <v>28000</v>
+        <v>38000</v>
       </c>
       <c r="P25" t="n">
-        <v>28000</v>
+        <v>38000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1556</v>
+        <v>2111</v>
       </c>
       <c r="T25" t="n">
         <v>18</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44277</v>
+        <v>44410</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2440,20 +2440,20 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="N26" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="O26" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="P26" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1667</v>
+        <v>1778</v>
       </c>
       <c r="T26" t="n">
         <v>18</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44277</v>
+        <v>44410</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2520,20 +2520,20 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="N27" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="O27" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="P27" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1556</v>
+        <v>1667</v>
       </c>
       <c r="T27" t="n">
         <v>18</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44473</v>
+        <v>44410</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2600,20 +2600,20 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M28" t="n">
         <v>10</v>
       </c>
       <c r="N28" t="n">
-        <v>75000</v>
+        <v>28000</v>
       </c>
       <c r="O28" t="n">
-        <v>75000</v>
+        <v>28000</v>
       </c>
       <c r="P28" t="n">
-        <v>75000</v>
+        <v>28000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>4167</v>
+        <v>1556</v>
       </c>
       <c r="T28" t="n">
         <v>18</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44473</v>
+        <v>44529</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2680,20 +2680,20 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N29" t="n">
-        <v>72000</v>
+        <v>60000</v>
       </c>
       <c r="O29" t="n">
-        <v>72000</v>
+        <v>60000</v>
       </c>
       <c r="P29" t="n">
-        <v>72000</v>
+        <v>60000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>4000</v>
+        <v>3333</v>
       </c>
       <c r="T29" t="n">
         <v>18</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44473</v>
+        <v>44529</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2760,20 +2760,20 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="N30" t="n">
-        <v>67000</v>
+        <v>58000</v>
       </c>
       <c r="O30" t="n">
-        <v>67000</v>
+        <v>58000</v>
       </c>
       <c r="P30" t="n">
-        <v>67000</v>
+        <v>58000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>3722</v>
+        <v>3222</v>
       </c>
       <c r="T30" t="n">
         <v>18</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44284</v>
+        <v>44445</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2844,16 +2844,16 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="N31" t="n">
-        <v>23000</v>
+        <v>32000</v>
       </c>
       <c r="O31" t="n">
-        <v>23000</v>
+        <v>32000</v>
       </c>
       <c r="P31" t="n">
-        <v>23000</v>
+        <v>32000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1278</v>
+        <v>1778</v>
       </c>
       <c r="T31" t="n">
         <v>18</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44459</v>
+        <v>44305</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2927,13 +2927,13 @@
         <v>25</v>
       </c>
       <c r="N32" t="n">
-        <v>38000</v>
+        <v>30000</v>
       </c>
       <c r="O32" t="n">
-        <v>38000</v>
+        <v>30000</v>
       </c>
       <c r="P32" t="n">
-        <v>38000</v>
+        <v>30000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>2111</v>
+        <v>1667</v>
       </c>
       <c r="T32" t="n">
         <v>18</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44354</v>
+        <v>44319</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3004,16 +3004,16 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="N33" t="n">
-        <v>38000</v>
+        <v>27000</v>
       </c>
       <c r="O33" t="n">
-        <v>38000</v>
+        <v>27000</v>
       </c>
       <c r="P33" t="n">
-        <v>38000</v>
+        <v>27000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>2111</v>
+        <v>1500</v>
       </c>
       <c r="T33" t="n">
         <v>18</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44438</v>
+        <v>44403</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3080,20 +3080,20 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N34" t="n">
-        <v>32000</v>
+        <v>33000</v>
       </c>
       <c r="O34" t="n">
-        <v>32000</v>
+        <v>33000</v>
       </c>
       <c r="P34" t="n">
-        <v>32000</v>
+        <v>33000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1778</v>
+        <v>1833</v>
       </c>
       <c r="T34" t="n">
         <v>18</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44466</v>
+        <v>44403</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="N35" t="n">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="O35" t="n">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="P35" t="n">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>3333</v>
+        <v>1667</v>
       </c>
       <c r="T35" t="n">
         <v>18</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44466</v>
+        <v>44403</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3244,16 +3244,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N36" t="n">
-        <v>58000</v>
+        <v>28000</v>
       </c>
       <c r="O36" t="n">
-        <v>58000</v>
+        <v>28000</v>
       </c>
       <c r="P36" t="n">
-        <v>58000</v>
+        <v>28000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>3222</v>
+        <v>1556</v>
       </c>
       <c r="T36" t="n">
         <v>18</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44403</v>
+        <v>44382</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3324,16 +3324,16 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N37" t="n">
-        <v>33000</v>
+        <v>35000</v>
       </c>
       <c r="O37" t="n">
-        <v>33000</v>
+        <v>35000</v>
       </c>
       <c r="P37" t="n">
-        <v>33000</v>
+        <v>35000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1833</v>
+        <v>1944</v>
       </c>
       <c r="T37" t="n">
         <v>18</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44403</v>
+        <v>44382</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3404,16 +3404,16 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N38" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="O38" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="P38" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>1667</v>
+        <v>1778</v>
       </c>
       <c r="T38" t="n">
         <v>18</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44403</v>
+        <v>44382</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3487,13 +3487,13 @@
         <v>15</v>
       </c>
       <c r="N39" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="O39" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="P39" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1556</v>
+        <v>1667</v>
       </c>
       <c r="T39" t="n">
         <v>18</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44445</v>
+        <v>44417</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3564,16 +3564,16 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N40" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="O40" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="P40" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>1778</v>
+        <v>1556</v>
       </c>
       <c r="T40" t="n">
         <v>18</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44291</v>
+        <v>44466</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3644,16 +3644,16 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N41" t="n">
-        <v>25000</v>
+        <v>60000</v>
       </c>
       <c r="O41" t="n">
-        <v>25000</v>
+        <v>60000</v>
       </c>
       <c r="P41" t="n">
-        <v>25000</v>
+        <v>60000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>1389</v>
+        <v>3333</v>
       </c>
       <c r="T41" t="n">
         <v>18</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44529</v>
+        <v>44466</v>
       </c>
       <c r="E42" t="n">
         <v>13</v>
@@ -3720,20 +3720,20 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N42" t="n">
-        <v>60000</v>
+        <v>58000</v>
       </c>
       <c r="O42" t="n">
-        <v>60000</v>
+        <v>58000</v>
       </c>
       <c r="P42" t="n">
-        <v>60000</v>
+        <v>58000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>3333</v>
+        <v>3222</v>
       </c>
       <c r="T42" t="n">
         <v>18</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44529</v>
+        <v>44291</v>
       </c>
       <c r="E43" t="n">
         <v>13</v>
@@ -3804,16 +3804,16 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N43" t="n">
-        <v>58000</v>
+        <v>25000</v>
       </c>
       <c r="O43" t="n">
-        <v>58000</v>
+        <v>25000</v>
       </c>
       <c r="P43" t="n">
-        <v>58000</v>
+        <v>25000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>3222</v>
+        <v>1389</v>
       </c>
       <c r="T43" t="n">
         <v>18</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44340</v>
+        <v>44396</v>
       </c>
       <c r="E44" t="n">
         <v>13</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44340</v>
+        <v>44396</v>
       </c>
       <c r="E45" t="n">
         <v>13</v>
@@ -3964,16 +3964,16 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N45" t="n">
-        <v>35000</v>
+        <v>34000</v>
       </c>
       <c r="O45" t="n">
-        <v>35000</v>
+        <v>34000</v>
       </c>
       <c r="P45" t="n">
-        <v>35000</v>
+        <v>34000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>1944</v>
+        <v>1889</v>
       </c>
       <c r="T45" t="n">
         <v>18</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44333</v>
+        <v>44389</v>
       </c>
       <c r="E46" t="n">
         <v>13</v>
@@ -4044,16 +4044,16 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N46" t="n">
-        <v>38000</v>
+        <v>29000</v>
       </c>
       <c r="O46" t="n">
-        <v>38000</v>
+        <v>29000</v>
       </c>
       <c r="P46" t="n">
-        <v>38000</v>
+        <v>29000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>2111</v>
+        <v>1611</v>
       </c>
       <c r="T46" t="n">
         <v>18</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44333</v>
+        <v>44389</v>
       </c>
       <c r="E47" t="n">
         <v>13</v>
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N47" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="O47" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="P47" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>1944</v>
+        <v>1500</v>
       </c>
       <c r="T47" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Maracuyá.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Maracuyá.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44431</v>
+        <v>44354</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N2" t="n">
-        <v>32000</v>
+        <v>38000</v>
       </c>
       <c r="O2" t="n">
-        <v>32000</v>
+        <v>38000</v>
       </c>
       <c r="P2" t="n">
-        <v>32000</v>
+        <v>38000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1778</v>
+        <v>2111</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44424</v>
+        <v>44435</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44312</v>
+        <v>44340</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>160</v>
+        <v>35</v>
       </c>
       <c r="N4" t="n">
-        <v>26000</v>
+        <v>37000</v>
       </c>
       <c r="O4" t="n">
-        <v>26000</v>
+        <v>37000</v>
       </c>
       <c r="P4" t="n">
-        <v>26000</v>
+        <v>37000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1444</v>
+        <v>2056</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44438</v>
+        <v>44340</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N5" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="O5" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="P5" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1778</v>
+        <v>1944</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44452</v>
+        <v>44333</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N6" t="n">
-        <v>36000</v>
+        <v>38000</v>
       </c>
       <c r="O6" t="n">
-        <v>36000</v>
+        <v>38000</v>
       </c>
       <c r="P6" t="n">
-        <v>36000</v>
+        <v>38000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>2000</v>
+        <v>2111</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44284</v>
+        <v>44333</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>120</v>
+        <v>25</v>
       </c>
       <c r="N7" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="O7" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="P7" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1278</v>
+        <v>1944</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44340</v>
+        <v>44445</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N8" t="n">
-        <v>37000</v>
+        <v>32000</v>
       </c>
       <c r="O8" t="n">
-        <v>37000</v>
+        <v>32000</v>
       </c>
       <c r="P8" t="n">
-        <v>37000</v>
+        <v>32000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>2056</v>
+        <v>1778</v>
       </c>
       <c r="T8" t="n">
         <v>18</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44340</v>
+        <v>44417</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N9" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="O9" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="P9" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1944</v>
+        <v>1556</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44277</v>
+        <v>44389</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="N10" t="n">
-        <v>30000</v>
+        <v>29000</v>
       </c>
       <c r="O10" t="n">
-        <v>30000</v>
+        <v>29000</v>
       </c>
       <c r="P10" t="n">
-        <v>30000</v>
+        <v>29000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1667</v>
+        <v>1611</v>
       </c>
       <c r="T10" t="n">
         <v>18</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44277</v>
+        <v>44389</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="N11" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="O11" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="P11" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1556</v>
+        <v>1500</v>
       </c>
       <c r="T11" t="n">
         <v>18</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44435</v>
+        <v>44410</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1320,11 +1320,11 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N12" t="n">
         <v>32000</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44354</v>
+        <v>44410</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="N13" t="n">
-        <v>38000</v>
+        <v>30000</v>
       </c>
       <c r="O13" t="n">
-        <v>38000</v>
+        <v>30000</v>
       </c>
       <c r="P13" t="n">
-        <v>38000</v>
+        <v>30000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>2111</v>
+        <v>1667</v>
       </c>
       <c r="T13" t="n">
         <v>18</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44270</v>
+        <v>44410</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="N14" t="n">
-        <v>38000</v>
+        <v>28000</v>
       </c>
       <c r="O14" t="n">
-        <v>38000</v>
+        <v>28000</v>
       </c>
       <c r="P14" t="n">
-        <v>38000</v>
+        <v>28000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>2111</v>
+        <v>1556</v>
       </c>
       <c r="T14" t="n">
         <v>18</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44333</v>
+        <v>44459</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1724,7 +1724,7 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N17" t="n">
         <v>38000</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44333</v>
+        <v>44382</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1800,11 +1800,11 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N18" t="n">
         <v>35000</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44473</v>
+        <v>44382</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="N19" t="n">
-        <v>75000</v>
+        <v>32000</v>
       </c>
       <c r="O19" t="n">
-        <v>75000</v>
+        <v>32000</v>
       </c>
       <c r="P19" t="n">
-        <v>75000</v>
+        <v>32000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>4167</v>
+        <v>1778</v>
       </c>
       <c r="T19" t="n">
         <v>18</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44473</v>
+        <v>44382</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1960,20 +1960,20 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N20" t="n">
-        <v>72000</v>
+        <v>30000</v>
       </c>
       <c r="O20" t="n">
-        <v>72000</v>
+        <v>30000</v>
       </c>
       <c r="P20" t="n">
-        <v>72000</v>
+        <v>30000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>4000</v>
+        <v>1667</v>
       </c>
       <c r="T20" t="n">
         <v>18</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44473</v>
+        <v>44277</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2040,20 +2040,20 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="N21" t="n">
-        <v>67000</v>
+        <v>30000</v>
       </c>
       <c r="O21" t="n">
-        <v>67000</v>
+        <v>30000</v>
       </c>
       <c r="P21" t="n">
-        <v>67000</v>
+        <v>30000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>3722</v>
+        <v>1667</v>
       </c>
       <c r="T21" t="n">
         <v>18</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44326</v>
+        <v>44277</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2120,20 +2120,20 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="N22" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="O22" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="P22" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1944</v>
+        <v>1556</v>
       </c>
       <c r="T22" t="n">
         <v>18</v>
@@ -2200,20 +2200,20 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="N23" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="O23" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="P23" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1667</v>
+        <v>1944</v>
       </c>
       <c r="T23" t="n">
         <v>18</v>
@@ -2280,20 +2280,20 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N24" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="O24" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="P24" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1556</v>
+        <v>1667</v>
       </c>
       <c r="T24" t="n">
         <v>18</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44459</v>
+        <v>44326</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2360,20 +2360,20 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N25" t="n">
-        <v>38000</v>
+        <v>28000</v>
       </c>
       <c r="O25" t="n">
-        <v>38000</v>
+        <v>28000</v>
       </c>
       <c r="P25" t="n">
-        <v>38000</v>
+        <v>28000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>2111</v>
+        <v>1556</v>
       </c>
       <c r="T25" t="n">
         <v>18</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44410</v>
+        <v>44319</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2440,20 +2440,20 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>15</v>
+        <v>140</v>
       </c>
       <c r="N26" t="n">
-        <v>32000</v>
+        <v>27000</v>
       </c>
       <c r="O26" t="n">
-        <v>32000</v>
+        <v>27000</v>
       </c>
       <c r="P26" t="n">
-        <v>32000</v>
+        <v>27000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1778</v>
+        <v>1500</v>
       </c>
       <c r="T26" t="n">
         <v>18</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44410</v>
+        <v>44473</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2520,20 +2520,20 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="N27" t="n">
-        <v>30000</v>
+        <v>75000</v>
       </c>
       <c r="O27" t="n">
-        <v>30000</v>
+        <v>75000</v>
       </c>
       <c r="P27" t="n">
-        <v>30000</v>
+        <v>75000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1667</v>
+        <v>4167</v>
       </c>
       <c r="T27" t="n">
         <v>18</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44410</v>
+        <v>44473</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2600,20 +2600,20 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="N28" t="n">
-        <v>28000</v>
+        <v>72000</v>
       </c>
       <c r="O28" t="n">
-        <v>28000</v>
+        <v>72000</v>
       </c>
       <c r="P28" t="n">
-        <v>28000</v>
+        <v>72000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1556</v>
+        <v>4000</v>
       </c>
       <c r="T28" t="n">
         <v>18</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44529</v>
+        <v>44473</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2680,20 +2680,20 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="N29" t="n">
-        <v>60000</v>
+        <v>67000</v>
       </c>
       <c r="O29" t="n">
-        <v>60000</v>
+        <v>67000</v>
       </c>
       <c r="P29" t="n">
-        <v>60000</v>
+        <v>67000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>3333</v>
+        <v>3722</v>
       </c>
       <c r="T29" t="n">
         <v>18</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44529</v>
+        <v>44452</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2764,16 +2764,16 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="N30" t="n">
-        <v>58000</v>
+        <v>36000</v>
       </c>
       <c r="O30" t="n">
-        <v>58000</v>
+        <v>36000</v>
       </c>
       <c r="P30" t="n">
-        <v>58000</v>
+        <v>36000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>3222</v>
+        <v>2000</v>
       </c>
       <c r="T30" t="n">
         <v>18</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44445</v>
+        <v>44284</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2844,16 +2844,16 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="N31" t="n">
-        <v>32000</v>
+        <v>23000</v>
       </c>
       <c r="O31" t="n">
-        <v>32000</v>
+        <v>23000</v>
       </c>
       <c r="P31" t="n">
-        <v>32000</v>
+        <v>23000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1778</v>
+        <v>1278</v>
       </c>
       <c r="T31" t="n">
         <v>18</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44319</v>
+        <v>44312</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3004,16 +3004,16 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="N33" t="n">
-        <v>27000</v>
+        <v>26000</v>
       </c>
       <c r="O33" t="n">
-        <v>27000</v>
+        <v>26000</v>
       </c>
       <c r="P33" t="n">
-        <v>27000</v>
+        <v>26000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1500</v>
+        <v>1444</v>
       </c>
       <c r="T33" t="n">
         <v>18</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44403</v>
+        <v>44424</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3080,20 +3080,20 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N34" t="n">
-        <v>33000</v>
+        <v>32000</v>
       </c>
       <c r="O34" t="n">
-        <v>33000</v>
+        <v>32000</v>
       </c>
       <c r="P34" t="n">
-        <v>33000</v>
+        <v>32000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1833</v>
+        <v>1778</v>
       </c>
       <c r="T34" t="n">
         <v>18</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44403</v>
+        <v>44396</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="N35" t="n">
-        <v>30000</v>
+        <v>37000</v>
       </c>
       <c r="O35" t="n">
-        <v>30000</v>
+        <v>37000</v>
       </c>
       <c r="P35" t="n">
-        <v>30000</v>
+        <v>37000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1667</v>
+        <v>2056</v>
       </c>
       <c r="T35" t="n">
         <v>18</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44403</v>
+        <v>44396</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3247,13 +3247,13 @@
         <v>15</v>
       </c>
       <c r="N36" t="n">
-        <v>28000</v>
+        <v>34000</v>
       </c>
       <c r="O36" t="n">
-        <v>28000</v>
+        <v>34000</v>
       </c>
       <c r="P36" t="n">
-        <v>28000</v>
+        <v>34000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1556</v>
+        <v>1889</v>
       </c>
       <c r="T36" t="n">
         <v>18</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44382</v>
+        <v>44431</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3320,20 +3320,20 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N37" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="O37" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="P37" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1944</v>
+        <v>1778</v>
       </c>
       <c r="T37" t="n">
         <v>18</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44382</v>
+        <v>44403</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3400,20 +3400,20 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N38" t="n">
-        <v>32000</v>
+        <v>33000</v>
       </c>
       <c r="O38" t="n">
-        <v>32000</v>
+        <v>33000</v>
       </c>
       <c r="P38" t="n">
-        <v>32000</v>
+        <v>33000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>1778</v>
+        <v>1833</v>
       </c>
       <c r="T38" t="n">
         <v>18</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44382</v>
+        <v>44403</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3480,11 +3480,11 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="N39" t="n">
         <v>30000</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44417</v>
+        <v>44403</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3560,7 +3560,7 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M40" t="n">
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44396</v>
+        <v>44438</v>
       </c>
       <c r="E44" t="n">
         <v>13</v>
@@ -3884,16 +3884,16 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N44" t="n">
-        <v>37000</v>
+        <v>32000</v>
       </c>
       <c r="O44" t="n">
-        <v>37000</v>
+        <v>32000</v>
       </c>
       <c r="P44" t="n">
-        <v>37000</v>
+        <v>32000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>2056</v>
+        <v>1778</v>
       </c>
       <c r="T44" t="n">
         <v>18</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44396</v>
+        <v>44529</v>
       </c>
       <c r="E45" t="n">
         <v>13</v>
@@ -3960,20 +3960,20 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N45" t="n">
-        <v>34000</v>
+        <v>60000</v>
       </c>
       <c r="O45" t="n">
-        <v>34000</v>
+        <v>60000</v>
       </c>
       <c r="P45" t="n">
-        <v>34000</v>
+        <v>60000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>1889</v>
+        <v>3333</v>
       </c>
       <c r="T45" t="n">
         <v>18</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44389</v>
+        <v>44529</v>
       </c>
       <c r="E46" t="n">
         <v>13</v>
@@ -4044,16 +4044,16 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="N46" t="n">
-        <v>29000</v>
+        <v>58000</v>
       </c>
       <c r="O46" t="n">
-        <v>29000</v>
+        <v>58000</v>
       </c>
       <c r="P46" t="n">
-        <v>29000</v>
+        <v>58000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>1611</v>
+        <v>3222</v>
       </c>
       <c r="T46" t="n">
         <v>18</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44389</v>
+        <v>44270</v>
       </c>
       <c r="E47" t="n">
         <v>13</v>
@@ -4120,20 +4120,20 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="N47" t="n">
-        <v>27000</v>
+        <v>38000</v>
       </c>
       <c r="O47" t="n">
-        <v>27000</v>
+        <v>38000</v>
       </c>
       <c r="P47" t="n">
-        <v>27000</v>
+        <v>38000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>1500</v>
+        <v>2111</v>
       </c>
       <c r="T47" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Maracuyá.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Maracuyá.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44354</v>
+        <v>44438</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N2" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="O2" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="P2" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>2111</v>
+        <v>1778</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44435</v>
+        <v>44277</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="O3" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="P3" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1778</v>
+        <v>1667</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44340</v>
+        <v>44277</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="N4" t="n">
-        <v>37000</v>
+        <v>28000</v>
       </c>
       <c r="O4" t="n">
-        <v>37000</v>
+        <v>28000</v>
       </c>
       <c r="P4" t="n">
-        <v>37000</v>
+        <v>28000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>2056</v>
+        <v>1556</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44340</v>
+        <v>44452</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
         <v>20</v>
       </c>
       <c r="N5" t="n">
-        <v>35000</v>
+        <v>36000</v>
       </c>
       <c r="O5" t="n">
-        <v>35000</v>
+        <v>36000</v>
       </c>
       <c r="P5" t="n">
-        <v>35000</v>
+        <v>36000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1944</v>
+        <v>2000</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44333</v>
+        <v>44403</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N6" t="n">
-        <v>38000</v>
+        <v>33000</v>
       </c>
       <c r="O6" t="n">
-        <v>38000</v>
+        <v>33000</v>
       </c>
       <c r="P6" t="n">
-        <v>38000</v>
+        <v>33000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>2111</v>
+        <v>1833</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44333</v>
+        <v>44403</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="N7" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="O7" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="P7" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1944</v>
+        <v>1667</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44445</v>
+        <v>44403</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N8" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="O8" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="P8" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1778</v>
+        <v>1556</v>
       </c>
       <c r="T8" t="n">
         <v>18</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44417</v>
+        <v>44424</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N9" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="O9" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="P9" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1556</v>
+        <v>1778</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44389</v>
+        <v>44319</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>35</v>
+        <v>140</v>
       </c>
       <c r="N10" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="O10" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="P10" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1611</v>
+        <v>1500</v>
       </c>
       <c r="T10" t="n">
         <v>18</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44389</v>
+        <v>44522</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1240,20 +1240,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N11" t="n">
-        <v>27000</v>
+        <v>60000</v>
       </c>
       <c r="O11" t="n">
-        <v>27000</v>
+        <v>60000</v>
       </c>
       <c r="P11" t="n">
-        <v>27000</v>
+        <v>60000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1262,11 +1262,11 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1500</v>
+        <v>3333</v>
       </c>
       <c r="T11" t="n">
         <v>18</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44410</v>
+        <v>44522</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N12" t="n">
-        <v>32000</v>
+        <v>56000</v>
       </c>
       <c r="O12" t="n">
-        <v>32000</v>
+        <v>56000</v>
       </c>
       <c r="P12" t="n">
-        <v>32000</v>
+        <v>56000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1342,11 +1342,11 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1778</v>
+        <v>3111</v>
       </c>
       <c r="T12" t="n">
         <v>18</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44410</v>
+        <v>44340</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="N13" t="n">
-        <v>30000</v>
+        <v>37000</v>
       </c>
       <c r="O13" t="n">
-        <v>30000</v>
+        <v>37000</v>
       </c>
       <c r="P13" t="n">
-        <v>30000</v>
+        <v>37000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1667</v>
+        <v>2056</v>
       </c>
       <c r="T13" t="n">
         <v>18</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44410</v>
+        <v>44340</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N14" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="O14" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="P14" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1556</v>
+        <v>1944</v>
       </c>
       <c r="T14" t="n">
         <v>18</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44522</v>
+        <v>44284</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="N15" t="n">
-        <v>60000</v>
+        <v>23000</v>
       </c>
       <c r="O15" t="n">
-        <v>60000</v>
+        <v>23000</v>
       </c>
       <c r="P15" t="n">
-        <v>60000</v>
+        <v>23000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1582,11 +1582,11 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>3333</v>
+        <v>1278</v>
       </c>
       <c r="T15" t="n">
         <v>18</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44522</v>
+        <v>44382</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M16" t="n">
         <v>20</v>
       </c>
       <c r="N16" t="n">
-        <v>56000</v>
+        <v>35000</v>
       </c>
       <c r="O16" t="n">
-        <v>56000</v>
+        <v>35000</v>
       </c>
       <c r="P16" t="n">
-        <v>56000</v>
+        <v>35000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1662,11 +1662,11 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>3111</v>
+        <v>1944</v>
       </c>
       <c r="T16" t="n">
         <v>18</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44459</v>
+        <v>44382</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N17" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="O17" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="P17" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>2111</v>
+        <v>1778</v>
       </c>
       <c r="T17" t="n">
         <v>18</v>
@@ -1800,20 +1800,20 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N18" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="O18" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="P18" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1944</v>
+        <v>1667</v>
       </c>
       <c r="T18" t="n">
         <v>18</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44382</v>
+        <v>44459</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N19" t="n">
-        <v>32000</v>
+        <v>38000</v>
       </c>
       <c r="O19" t="n">
-        <v>32000</v>
+        <v>38000</v>
       </c>
       <c r="P19" t="n">
-        <v>32000</v>
+        <v>38000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1778</v>
+        <v>2111</v>
       </c>
       <c r="T19" t="n">
         <v>18</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44382</v>
+        <v>44354</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1960,20 +1960,20 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="N20" t="n">
-        <v>30000</v>
+        <v>38000</v>
       </c>
       <c r="O20" t="n">
-        <v>30000</v>
+        <v>38000</v>
       </c>
       <c r="P20" t="n">
-        <v>30000</v>
+        <v>38000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1667</v>
+        <v>2111</v>
       </c>
       <c r="T20" t="n">
         <v>18</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44277</v>
+        <v>44312</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="N21" t="n">
-        <v>30000</v>
+        <v>26000</v>
       </c>
       <c r="O21" t="n">
-        <v>30000</v>
+        <v>26000</v>
       </c>
       <c r="P21" t="n">
-        <v>30000</v>
+        <v>26000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1667</v>
+        <v>1444</v>
       </c>
       <c r="T21" t="n">
         <v>18</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44277</v>
+        <v>44466</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2120,20 +2120,20 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="N22" t="n">
-        <v>28000</v>
+        <v>60000</v>
       </c>
       <c r="O22" t="n">
-        <v>28000</v>
+        <v>60000</v>
       </c>
       <c r="P22" t="n">
-        <v>28000</v>
+        <v>60000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1556</v>
+        <v>3333</v>
       </c>
       <c r="T22" t="n">
         <v>18</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44326</v>
+        <v>44466</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2200,20 +2200,20 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="N23" t="n">
-        <v>35000</v>
+        <v>58000</v>
       </c>
       <c r="O23" t="n">
-        <v>35000</v>
+        <v>58000</v>
       </c>
       <c r="P23" t="n">
-        <v>35000</v>
+        <v>58000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1944</v>
+        <v>3222</v>
       </c>
       <c r="T23" t="n">
         <v>18</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44326</v>
+        <v>44333</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N24" t="n">
-        <v>30000</v>
+        <v>38000</v>
       </c>
       <c r="O24" t="n">
-        <v>30000</v>
+        <v>38000</v>
       </c>
       <c r="P24" t="n">
-        <v>30000</v>
+        <v>38000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1667</v>
+        <v>2111</v>
       </c>
       <c r="T24" t="n">
         <v>18</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44326</v>
+        <v>44333</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N25" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="O25" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="P25" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1556</v>
+        <v>1944</v>
       </c>
       <c r="T25" t="n">
         <v>18</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44319</v>
+        <v>44326</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2440,20 +2440,20 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>140</v>
+        <v>16</v>
       </c>
       <c r="N26" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="O26" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="P26" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1500</v>
+        <v>1944</v>
       </c>
       <c r="T26" t="n">
         <v>18</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44473</v>
+        <v>44326</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2520,20 +2520,20 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="N27" t="n">
-        <v>75000</v>
+        <v>30000</v>
       </c>
       <c r="O27" t="n">
-        <v>75000</v>
+        <v>30000</v>
       </c>
       <c r="P27" t="n">
-        <v>75000</v>
+        <v>30000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>4167</v>
+        <v>1667</v>
       </c>
       <c r="T27" t="n">
         <v>18</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44473</v>
+        <v>44326</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2600,20 +2600,20 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N28" t="n">
-        <v>72000</v>
+        <v>28000</v>
       </c>
       <c r="O28" t="n">
-        <v>72000</v>
+        <v>28000</v>
       </c>
       <c r="P28" t="n">
-        <v>72000</v>
+        <v>28000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>4000</v>
+        <v>1556</v>
       </c>
       <c r="T28" t="n">
         <v>18</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44473</v>
+        <v>44305</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2680,20 +2680,20 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="N29" t="n">
-        <v>67000</v>
+        <v>30000</v>
       </c>
       <c r="O29" t="n">
-        <v>67000</v>
+        <v>30000</v>
       </c>
       <c r="P29" t="n">
-        <v>67000</v>
+        <v>30000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>3722</v>
+        <v>1667</v>
       </c>
       <c r="T29" t="n">
         <v>18</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44452</v>
+        <v>44417</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2764,16 +2764,16 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N30" t="n">
-        <v>36000</v>
+        <v>28000</v>
       </c>
       <c r="O30" t="n">
-        <v>36000</v>
+        <v>28000</v>
       </c>
       <c r="P30" t="n">
-        <v>36000</v>
+        <v>28000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>2000</v>
+        <v>1556</v>
       </c>
       <c r="T30" t="n">
         <v>18</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44284</v>
+        <v>44396</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2844,16 +2844,16 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>120</v>
+        <v>35</v>
       </c>
       <c r="N31" t="n">
-        <v>23000</v>
+        <v>37000</v>
       </c>
       <c r="O31" t="n">
-        <v>23000</v>
+        <v>37000</v>
       </c>
       <c r="P31" t="n">
-        <v>23000</v>
+        <v>37000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1278</v>
+        <v>2056</v>
       </c>
       <c r="T31" t="n">
         <v>18</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44305</v>
+        <v>44396</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2920,20 +2920,20 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N32" t="n">
-        <v>30000</v>
+        <v>34000</v>
       </c>
       <c r="O32" t="n">
-        <v>30000</v>
+        <v>34000</v>
       </c>
       <c r="P32" t="n">
-        <v>30000</v>
+        <v>34000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1667</v>
+        <v>1889</v>
       </c>
       <c r="T32" t="n">
         <v>18</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44312</v>
+        <v>44270</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3000,20 +3000,20 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="N33" t="n">
-        <v>26000</v>
+        <v>38000</v>
       </c>
       <c r="O33" t="n">
-        <v>26000</v>
+        <v>38000</v>
       </c>
       <c r="P33" t="n">
-        <v>26000</v>
+        <v>38000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1444</v>
+        <v>2111</v>
       </c>
       <c r="T33" t="n">
         <v>18</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44424</v>
+        <v>44445</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44396</v>
+        <v>44410</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3160,20 +3160,20 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="N35" t="n">
-        <v>37000</v>
+        <v>32000</v>
       </c>
       <c r="O35" t="n">
-        <v>37000</v>
+        <v>32000</v>
       </c>
       <c r="P35" t="n">
-        <v>37000</v>
+        <v>32000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>2056</v>
+        <v>1778</v>
       </c>
       <c r="T35" t="n">
         <v>18</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44396</v>
+        <v>44410</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3240,20 +3240,20 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N36" t="n">
-        <v>34000</v>
+        <v>30000</v>
       </c>
       <c r="O36" t="n">
-        <v>34000</v>
+        <v>30000</v>
       </c>
       <c r="P36" t="n">
-        <v>34000</v>
+        <v>30000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1889</v>
+        <v>1667</v>
       </c>
       <c r="T36" t="n">
         <v>18</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44431</v>
+        <v>44410</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3320,20 +3320,20 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="N37" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="O37" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="P37" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1778</v>
+        <v>1556</v>
       </c>
       <c r="T37" t="n">
         <v>18</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44403</v>
+        <v>44431</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3400,20 +3400,20 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N38" t="n">
-        <v>33000</v>
+        <v>32000</v>
       </c>
       <c r="O38" t="n">
-        <v>33000</v>
+        <v>32000</v>
       </c>
       <c r="P38" t="n">
-        <v>33000</v>
+        <v>32000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>1833</v>
+        <v>1778</v>
       </c>
       <c r="T38" t="n">
         <v>18</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44403</v>
+        <v>44389</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3484,16 +3484,16 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="N39" t="n">
-        <v>30000</v>
+        <v>29000</v>
       </c>
       <c r="O39" t="n">
-        <v>30000</v>
+        <v>29000</v>
       </c>
       <c r="P39" t="n">
-        <v>30000</v>
+        <v>29000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1667</v>
+        <v>1611</v>
       </c>
       <c r="T39" t="n">
         <v>18</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44403</v>
+        <v>44389</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3564,16 +3564,16 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N40" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="O40" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="P40" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>1556</v>
+        <v>1500</v>
       </c>
       <c r="T40" t="n">
         <v>18</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44466</v>
+        <v>44435</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3644,16 +3644,16 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N41" t="n">
-        <v>60000</v>
+        <v>32000</v>
       </c>
       <c r="O41" t="n">
-        <v>60000</v>
+        <v>32000</v>
       </c>
       <c r="P41" t="n">
-        <v>60000</v>
+        <v>32000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>3333</v>
+        <v>1778</v>
       </c>
       <c r="T41" t="n">
         <v>18</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44466</v>
+        <v>44529</v>
       </c>
       <c r="E42" t="n">
         <v>13</v>
@@ -3720,20 +3720,20 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N42" t="n">
-        <v>58000</v>
+        <v>60000</v>
       </c>
       <c r="O42" t="n">
-        <v>58000</v>
+        <v>60000</v>
       </c>
       <c r="P42" t="n">
-        <v>58000</v>
+        <v>60000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>3222</v>
+        <v>3333</v>
       </c>
       <c r="T42" t="n">
         <v>18</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44291</v>
+        <v>44529</v>
       </c>
       <c r="E43" t="n">
         <v>13</v>
@@ -3804,16 +3804,16 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N43" t="n">
-        <v>25000</v>
+        <v>58000</v>
       </c>
       <c r="O43" t="n">
-        <v>25000</v>
+        <v>58000</v>
       </c>
       <c r="P43" t="n">
-        <v>25000</v>
+        <v>58000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>1389</v>
+        <v>3222</v>
       </c>
       <c r="T43" t="n">
         <v>18</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44438</v>
+        <v>44291</v>
       </c>
       <c r="E44" t="n">
         <v>13</v>
@@ -3887,13 +3887,13 @@
         <v>30</v>
       </c>
       <c r="N44" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="O44" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="P44" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>1778</v>
+        <v>1389</v>
       </c>
       <c r="T44" t="n">
         <v>18</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44529</v>
+        <v>44473</v>
       </c>
       <c r="E45" t="n">
         <v>13</v>
@@ -3964,16 +3964,16 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N45" t="n">
-        <v>60000</v>
+        <v>75000</v>
       </c>
       <c r="O45" t="n">
-        <v>60000</v>
+        <v>75000</v>
       </c>
       <c r="P45" t="n">
-        <v>60000</v>
+        <v>75000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>3333</v>
+        <v>4167</v>
       </c>
       <c r="T45" t="n">
         <v>18</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44529</v>
+        <v>44473</v>
       </c>
       <c r="E46" t="n">
         <v>13</v>
@@ -4044,16 +4044,16 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N46" t="n">
-        <v>58000</v>
+        <v>72000</v>
       </c>
       <c r="O46" t="n">
-        <v>58000</v>
+        <v>72000</v>
       </c>
       <c r="P46" t="n">
-        <v>58000</v>
+        <v>72000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>3222</v>
+        <v>4000</v>
       </c>
       <c r="T46" t="n">
         <v>18</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44270</v>
+        <v>44473</v>
       </c>
       <c r="E47" t="n">
         <v>13</v>
@@ -4120,20 +4120,20 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="N47" t="n">
-        <v>38000</v>
+        <v>67000</v>
       </c>
       <c r="O47" t="n">
-        <v>38000</v>
+        <v>67000</v>
       </c>
       <c r="P47" t="n">
-        <v>38000</v>
+        <v>67000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>2111</v>
+        <v>3722</v>
       </c>
       <c r="T47" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Maracuyá.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Maracuyá.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44438</v>
+        <v>44417</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N2" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="O2" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="P2" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1778</v>
+        <v>1556</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44277</v>
+        <v>44435</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="N3" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="O3" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="P3" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1667</v>
+        <v>1778</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44277</v>
+        <v>44305</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="N4" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="O4" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="P4" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1556</v>
+        <v>1667</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44452</v>
+        <v>44284</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="N5" t="n">
-        <v>36000</v>
+        <v>23000</v>
       </c>
       <c r="O5" t="n">
-        <v>36000</v>
+        <v>23000</v>
       </c>
       <c r="P5" t="n">
-        <v>36000</v>
+        <v>23000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>2000</v>
+        <v>1278</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44403</v>
+        <v>44431</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N6" t="n">
-        <v>33000</v>
+        <v>32000</v>
       </c>
       <c r="O6" t="n">
-        <v>33000</v>
+        <v>32000</v>
       </c>
       <c r="P6" t="n">
-        <v>33000</v>
+        <v>32000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1833</v>
+        <v>1778</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44403</v>
+        <v>44277</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="N7" t="n">
         <v>30000</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44403</v>
+        <v>44277</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="N8" t="n">
         <v>28000</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44424</v>
+        <v>44270</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="N9" t="n">
-        <v>32000</v>
+        <v>38000</v>
       </c>
       <c r="O9" t="n">
-        <v>32000</v>
+        <v>38000</v>
       </c>
       <c r="P9" t="n">
-        <v>32000</v>
+        <v>38000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1778</v>
+        <v>2111</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44319</v>
+        <v>44326</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1160,20 +1160,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>140</v>
+        <v>16</v>
       </c>
       <c r="N10" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="O10" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="P10" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1500</v>
+        <v>1944</v>
       </c>
       <c r="T10" t="n">
         <v>18</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44522</v>
+        <v>44326</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1247,13 +1247,13 @@
         <v>25</v>
       </c>
       <c r="N11" t="n">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="O11" t="n">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="P11" t="n">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1262,11 +1262,11 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>3333</v>
+        <v>1667</v>
       </c>
       <c r="T11" t="n">
         <v>18</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44522</v>
+        <v>44326</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1327,13 +1327,13 @@
         <v>20</v>
       </c>
       <c r="N12" t="n">
-        <v>56000</v>
+        <v>28000</v>
       </c>
       <c r="O12" t="n">
-        <v>56000</v>
+        <v>28000</v>
       </c>
       <c r="P12" t="n">
-        <v>56000</v>
+        <v>28000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1342,11 +1342,11 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>3111</v>
+        <v>1556</v>
       </c>
       <c r="T12" t="n">
         <v>18</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44340</v>
+        <v>44410</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="N13" t="n">
-        <v>37000</v>
+        <v>32000</v>
       </c>
       <c r="O13" t="n">
-        <v>37000</v>
+        <v>32000</v>
       </c>
       <c r="P13" t="n">
-        <v>37000</v>
+        <v>32000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>2056</v>
+        <v>1778</v>
       </c>
       <c r="T13" t="n">
         <v>18</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44340</v>
+        <v>44410</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N14" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="O14" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="P14" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1944</v>
+        <v>1667</v>
       </c>
       <c r="T14" t="n">
         <v>18</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44284</v>
+        <v>44410</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="N15" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="O15" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="P15" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1278</v>
+        <v>1556</v>
       </c>
       <c r="T15" t="n">
         <v>18</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44382</v>
+        <v>44403</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N16" t="n">
-        <v>35000</v>
+        <v>33000</v>
       </c>
       <c r="O16" t="n">
-        <v>35000</v>
+        <v>33000</v>
       </c>
       <c r="P16" t="n">
-        <v>35000</v>
+        <v>33000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1944</v>
+        <v>1833</v>
       </c>
       <c r="T16" t="n">
         <v>18</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44382</v>
+        <v>44403</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N17" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="O17" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="P17" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1778</v>
+        <v>1667</v>
       </c>
       <c r="T17" t="n">
         <v>18</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44382</v>
+        <v>44403</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1807,13 +1807,13 @@
         <v>15</v>
       </c>
       <c r="N18" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="O18" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="P18" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1667</v>
+        <v>1556</v>
       </c>
       <c r="T18" t="n">
         <v>18</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44459</v>
+        <v>44389</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="N19" t="n">
-        <v>38000</v>
+        <v>29000</v>
       </c>
       <c r="O19" t="n">
-        <v>38000</v>
+        <v>29000</v>
       </c>
       <c r="P19" t="n">
-        <v>38000</v>
+        <v>29000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>2111</v>
+        <v>1611</v>
       </c>
       <c r="T19" t="n">
         <v>18</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44354</v>
+        <v>44389</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1960,20 +1960,20 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="N20" t="n">
-        <v>38000</v>
+        <v>27000</v>
       </c>
       <c r="O20" t="n">
-        <v>38000</v>
+        <v>27000</v>
       </c>
       <c r="P20" t="n">
-        <v>38000</v>
+        <v>27000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>2111</v>
+        <v>1500</v>
       </c>
       <c r="T20" t="n">
         <v>18</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44312</v>
+        <v>44333</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>160</v>
+        <v>30</v>
       </c>
       <c r="N21" t="n">
-        <v>26000</v>
+        <v>38000</v>
       </c>
       <c r="O21" t="n">
-        <v>26000</v>
+        <v>38000</v>
       </c>
       <c r="P21" t="n">
-        <v>26000</v>
+        <v>38000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1444</v>
+        <v>2111</v>
       </c>
       <c r="T21" t="n">
         <v>18</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44466</v>
+        <v>44333</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2120,20 +2120,20 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N22" t="n">
-        <v>60000</v>
+        <v>35000</v>
       </c>
       <c r="O22" t="n">
-        <v>60000</v>
+        <v>35000</v>
       </c>
       <c r="P22" t="n">
-        <v>60000</v>
+        <v>35000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>3333</v>
+        <v>1944</v>
       </c>
       <c r="T22" t="n">
         <v>18</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44466</v>
+        <v>44459</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2200,20 +2200,20 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="N23" t="n">
-        <v>58000</v>
+        <v>38000</v>
       </c>
       <c r="O23" t="n">
-        <v>58000</v>
+        <v>38000</v>
       </c>
       <c r="P23" t="n">
-        <v>58000</v>
+        <v>38000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>3222</v>
+        <v>2111</v>
       </c>
       <c r="T23" t="n">
         <v>18</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44333</v>
+        <v>44438</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2287,13 +2287,13 @@
         <v>30</v>
       </c>
       <c r="N24" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="O24" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="P24" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>2111</v>
+        <v>1778</v>
       </c>
       <c r="T24" t="n">
         <v>18</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44333</v>
+        <v>44424</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2360,20 +2360,20 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N25" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="O25" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="P25" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1944</v>
+        <v>1778</v>
       </c>
       <c r="T25" t="n">
         <v>18</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44326</v>
+        <v>44291</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2440,20 +2440,20 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="N26" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="O26" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="P26" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1944</v>
+        <v>1389</v>
       </c>
       <c r="T26" t="n">
         <v>18</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44326</v>
+        <v>44466</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2524,16 +2524,16 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N27" t="n">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="O27" t="n">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="P27" t="n">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1667</v>
+        <v>3333</v>
       </c>
       <c r="T27" t="n">
         <v>18</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44326</v>
+        <v>44466</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2604,16 +2604,16 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N28" t="n">
-        <v>28000</v>
+        <v>58000</v>
       </c>
       <c r="O28" t="n">
-        <v>28000</v>
+        <v>58000</v>
       </c>
       <c r="P28" t="n">
-        <v>28000</v>
+        <v>58000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1556</v>
+        <v>3222</v>
       </c>
       <c r="T28" t="n">
         <v>18</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44305</v>
+        <v>44522</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2687,13 +2687,13 @@
         <v>25</v>
       </c>
       <c r="N29" t="n">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="O29" t="n">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="P29" t="n">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2702,11 +2702,11 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1667</v>
+        <v>3333</v>
       </c>
       <c r="T29" t="n">
         <v>18</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44417</v>
+        <v>44522</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2760,20 +2760,20 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N30" t="n">
-        <v>28000</v>
+        <v>56000</v>
       </c>
       <c r="O30" t="n">
-        <v>28000</v>
+        <v>56000</v>
       </c>
       <c r="P30" t="n">
-        <v>28000</v>
+        <v>56000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2782,11 +2782,11 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1556</v>
+        <v>3111</v>
       </c>
       <c r="T30" t="n">
         <v>18</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44396</v>
+        <v>44354</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2844,16 +2844,16 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N31" t="n">
-        <v>37000</v>
+        <v>38000</v>
       </c>
       <c r="O31" t="n">
-        <v>37000</v>
+        <v>38000</v>
       </c>
       <c r="P31" t="n">
-        <v>37000</v>
+        <v>38000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>2056</v>
+        <v>2111</v>
       </c>
       <c r="T31" t="n">
         <v>18</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44396</v>
+        <v>44529</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2920,20 +2920,20 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N32" t="n">
-        <v>34000</v>
+        <v>60000</v>
       </c>
       <c r="O32" t="n">
-        <v>34000</v>
+        <v>60000</v>
       </c>
       <c r="P32" t="n">
-        <v>34000</v>
+        <v>60000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1889</v>
+        <v>3333</v>
       </c>
       <c r="T32" t="n">
         <v>18</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44270</v>
+        <v>44529</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3000,20 +3000,20 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="N33" t="n">
-        <v>38000</v>
+        <v>58000</v>
       </c>
       <c r="O33" t="n">
-        <v>38000</v>
+        <v>58000</v>
       </c>
       <c r="P33" t="n">
-        <v>38000</v>
+        <v>58000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>2111</v>
+        <v>3222</v>
       </c>
       <c r="T33" t="n">
         <v>18</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44445</v>
+        <v>44452</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3084,16 +3084,16 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N34" t="n">
-        <v>32000</v>
+        <v>36000</v>
       </c>
       <c r="O34" t="n">
-        <v>32000</v>
+        <v>36000</v>
       </c>
       <c r="P34" t="n">
-        <v>32000</v>
+        <v>36000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1778</v>
+        <v>2000</v>
       </c>
       <c r="T34" t="n">
         <v>18</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44410</v>
+        <v>44382</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N35" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="O35" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="P35" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1778</v>
+        <v>1944</v>
       </c>
       <c r="T35" t="n">
         <v>18</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44410</v>
+        <v>44382</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3244,16 +3244,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N36" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="O36" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="P36" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1667</v>
+        <v>1778</v>
       </c>
       <c r="T36" t="n">
         <v>18</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44410</v>
+        <v>44382</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3324,16 +3324,16 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N37" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="O37" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="P37" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1556</v>
+        <v>1667</v>
       </c>
       <c r="T37" t="n">
         <v>18</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44431</v>
+        <v>44396</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3404,16 +3404,16 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N38" t="n">
-        <v>32000</v>
+        <v>37000</v>
       </c>
       <c r="O38" t="n">
-        <v>32000</v>
+        <v>37000</v>
       </c>
       <c r="P38" t="n">
-        <v>32000</v>
+        <v>37000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>1778</v>
+        <v>2056</v>
       </c>
       <c r="T38" t="n">
         <v>18</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44389</v>
+        <v>44396</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3480,20 +3480,20 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="N39" t="n">
-        <v>29000</v>
+        <v>34000</v>
       </c>
       <c r="O39" t="n">
-        <v>29000</v>
+        <v>34000</v>
       </c>
       <c r="P39" t="n">
-        <v>29000</v>
+        <v>34000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1611</v>
+        <v>1889</v>
       </c>
       <c r="T39" t="n">
         <v>18</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44389</v>
+        <v>44312</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3560,20 +3560,20 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="N40" t="n">
-        <v>27000</v>
+        <v>26000</v>
       </c>
       <c r="O40" t="n">
-        <v>27000</v>
+        <v>26000</v>
       </c>
       <c r="P40" t="n">
-        <v>27000</v>
+        <v>26000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>1500</v>
+        <v>1444</v>
       </c>
       <c r="T40" t="n">
         <v>18</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44435</v>
+        <v>44340</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3644,16 +3644,16 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N41" t="n">
-        <v>32000</v>
+        <v>37000</v>
       </c>
       <c r="O41" t="n">
-        <v>32000</v>
+        <v>37000</v>
       </c>
       <c r="P41" t="n">
-        <v>32000</v>
+        <v>37000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>1778</v>
+        <v>2056</v>
       </c>
       <c r="T41" t="n">
         <v>18</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44529</v>
+        <v>44340</v>
       </c>
       <c r="E42" t="n">
         <v>13</v>
@@ -3720,20 +3720,20 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M42" t="n">
         <v>20</v>
       </c>
       <c r="N42" t="n">
-        <v>60000</v>
+        <v>35000</v>
       </c>
       <c r="O42" t="n">
-        <v>60000</v>
+        <v>35000</v>
       </c>
       <c r="P42" t="n">
-        <v>60000</v>
+        <v>35000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>3333</v>
+        <v>1944</v>
       </c>
       <c r="T42" t="n">
         <v>18</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44529</v>
+        <v>44319</v>
       </c>
       <c r="E43" t="n">
         <v>13</v>
@@ -3804,16 +3804,16 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="N43" t="n">
-        <v>58000</v>
+        <v>27000</v>
       </c>
       <c r="O43" t="n">
-        <v>58000</v>
+        <v>27000</v>
       </c>
       <c r="P43" t="n">
-        <v>58000</v>
+        <v>27000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>3222</v>
+        <v>1500</v>
       </c>
       <c r="T43" t="n">
         <v>18</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44291</v>
+        <v>44445</v>
       </c>
       <c r="E44" t="n">
         <v>13</v>
@@ -3887,13 +3887,13 @@
         <v>30</v>
       </c>
       <c r="N44" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="O44" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="P44" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>1389</v>
+        <v>1778</v>
       </c>
       <c r="T44" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Maracuyá.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Maracuyá.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44417</v>
+        <v>44438</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N2" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="O2" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="P2" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1556</v>
+        <v>1778</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44435</v>
+        <v>44417</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N3" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="O3" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="P3" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1778</v>
+        <v>1556</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44305</v>
+        <v>44435</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N4" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="O4" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="P4" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1667</v>
+        <v>1778</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44284</v>
+        <v>44333</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="N5" t="n">
-        <v>23000</v>
+        <v>38000</v>
       </c>
       <c r="O5" t="n">
-        <v>23000</v>
+        <v>38000</v>
       </c>
       <c r="P5" t="n">
-        <v>23000</v>
+        <v>38000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1278</v>
+        <v>2111</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44431</v>
+        <v>44333</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N6" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="O6" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="P6" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1778</v>
+        <v>1944</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44277</v>
+        <v>44529</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="N7" t="n">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="O7" t="n">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="P7" t="n">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1667</v>
+        <v>3333</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44277</v>
+        <v>44529</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N8" t="n">
-        <v>28000</v>
+        <v>58000</v>
       </c>
       <c r="O8" t="n">
-        <v>28000</v>
+        <v>58000</v>
       </c>
       <c r="P8" t="n">
-        <v>28000</v>
+        <v>58000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1556</v>
+        <v>3222</v>
       </c>
       <c r="T8" t="n">
         <v>18</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44270</v>
+        <v>44522</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="N9" t="n">
-        <v>38000</v>
+        <v>60000</v>
       </c>
       <c r="O9" t="n">
-        <v>38000</v>
+        <v>60000</v>
       </c>
       <c r="P9" t="n">
-        <v>38000</v>
+        <v>60000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1102,11 +1102,11 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>2111</v>
+        <v>3333</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44326</v>
+        <v>44522</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1160,20 +1160,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N10" t="n">
-        <v>35000</v>
+        <v>56000</v>
       </c>
       <c r="O10" t="n">
-        <v>35000</v>
+        <v>56000</v>
       </c>
       <c r="P10" t="n">
-        <v>35000</v>
+        <v>56000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1182,11 +1182,11 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1944</v>
+        <v>3111</v>
       </c>
       <c r="T10" t="n">
         <v>18</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44326</v>
+        <v>44319</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>25</v>
+        <v>140</v>
       </c>
       <c r="N11" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="O11" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="P11" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1667</v>
+        <v>1500</v>
       </c>
       <c r="T11" t="n">
         <v>18</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44326</v>
+        <v>44396</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="N12" t="n">
-        <v>28000</v>
+        <v>37000</v>
       </c>
       <c r="O12" t="n">
-        <v>28000</v>
+        <v>37000</v>
       </c>
       <c r="P12" t="n">
-        <v>28000</v>
+        <v>37000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1556</v>
+        <v>2056</v>
       </c>
       <c r="T12" t="n">
         <v>18</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44410</v>
+        <v>44396</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M13" t="n">
         <v>15</v>
       </c>
       <c r="N13" t="n">
-        <v>32000</v>
+        <v>34000</v>
       </c>
       <c r="O13" t="n">
-        <v>32000</v>
+        <v>34000</v>
       </c>
       <c r="P13" t="n">
-        <v>32000</v>
+        <v>34000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1778</v>
+        <v>1889</v>
       </c>
       <c r="T13" t="n">
         <v>18</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44410</v>
+        <v>44312</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>25</v>
+        <v>160</v>
       </c>
       <c r="N14" t="n">
-        <v>30000</v>
+        <v>26000</v>
       </c>
       <c r="O14" t="n">
-        <v>30000</v>
+        <v>26000</v>
       </c>
       <c r="P14" t="n">
-        <v>30000</v>
+        <v>26000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1667</v>
+        <v>1444</v>
       </c>
       <c r="T14" t="n">
         <v>18</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44410</v>
+        <v>44403</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="N15" t="n">
-        <v>28000</v>
+        <v>33000</v>
       </c>
       <c r="O15" t="n">
-        <v>28000</v>
+        <v>33000</v>
       </c>
       <c r="P15" t="n">
-        <v>28000</v>
+        <v>33000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1556</v>
+        <v>1833</v>
       </c>
       <c r="T15" t="n">
         <v>18</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="N16" t="n">
-        <v>33000</v>
+        <v>30000</v>
       </c>
       <c r="O16" t="n">
-        <v>33000</v>
+        <v>30000</v>
       </c>
       <c r="P16" t="n">
-        <v>33000</v>
+        <v>30000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1833</v>
+        <v>1667</v>
       </c>
       <c r="T16" t="n">
         <v>18</v>
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="N17" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="O17" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="P17" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1667</v>
+        <v>1556</v>
       </c>
       <c r="T17" t="n">
         <v>18</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44403</v>
+        <v>44291</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1800,20 +1800,20 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N18" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="O18" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="P18" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1556</v>
+        <v>1389</v>
       </c>
       <c r="T18" t="n">
         <v>18</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44389</v>
+        <v>44424</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N19" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="O19" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="P19" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1611</v>
+        <v>1778</v>
       </c>
       <c r="T19" t="n">
         <v>18</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44389</v>
+        <v>44452</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1960,20 +1960,20 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M20" t="n">
         <v>20</v>
       </c>
       <c r="N20" t="n">
-        <v>27000</v>
+        <v>36000</v>
       </c>
       <c r="O20" t="n">
-        <v>27000</v>
+        <v>36000</v>
       </c>
       <c r="P20" t="n">
-        <v>27000</v>
+        <v>36000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="T20" t="n">
         <v>18</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44333</v>
+        <v>44410</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2040,20 +2040,20 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N21" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="O21" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="P21" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>2111</v>
+        <v>1778</v>
       </c>
       <c r="T21" t="n">
         <v>18</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44333</v>
+        <v>44410</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2120,20 +2120,20 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M22" t="n">
         <v>25</v>
       </c>
       <c r="N22" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="O22" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="P22" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1944</v>
+        <v>1667</v>
       </c>
       <c r="T22" t="n">
         <v>18</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44459</v>
+        <v>44410</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2200,20 +2200,20 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="N23" t="n">
-        <v>38000</v>
+        <v>28000</v>
       </c>
       <c r="O23" t="n">
-        <v>38000</v>
+        <v>28000</v>
       </c>
       <c r="P23" t="n">
-        <v>38000</v>
+        <v>28000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>2111</v>
+        <v>1556</v>
       </c>
       <c r="T23" t="n">
         <v>18</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2280,20 +2280,20 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="N24" t="n">
-        <v>32000</v>
+        <v>38000</v>
       </c>
       <c r="O24" t="n">
-        <v>32000</v>
+        <v>38000</v>
       </c>
       <c r="P24" t="n">
-        <v>32000</v>
+        <v>38000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1778</v>
+        <v>2111</v>
       </c>
       <c r="T24" t="n">
         <v>18</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44424</v>
+        <v>44431</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44291</v>
+        <v>44466</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N26" t="n">
-        <v>25000</v>
+        <v>60000</v>
       </c>
       <c r="O26" t="n">
-        <v>25000</v>
+        <v>60000</v>
       </c>
       <c r="P26" t="n">
-        <v>25000</v>
+        <v>60000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1389</v>
+        <v>3333</v>
       </c>
       <c r="T26" t="n">
         <v>18</v>
@@ -2520,20 +2520,20 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N27" t="n">
-        <v>60000</v>
+        <v>58000</v>
       </c>
       <c r="O27" t="n">
-        <v>60000</v>
+        <v>58000</v>
       </c>
       <c r="P27" t="n">
-        <v>60000</v>
+        <v>58000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>3333</v>
+        <v>3222</v>
       </c>
       <c r="T27" t="n">
         <v>18</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44466</v>
+        <v>44473</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2600,20 +2600,20 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M28" t="n">
         <v>10</v>
       </c>
       <c r="N28" t="n">
-        <v>58000</v>
+        <v>75000</v>
       </c>
       <c r="O28" t="n">
-        <v>58000</v>
+        <v>75000</v>
       </c>
       <c r="P28" t="n">
-        <v>58000</v>
+        <v>75000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>3222</v>
+        <v>4167</v>
       </c>
       <c r="T28" t="n">
         <v>18</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44522</v>
+        <v>44473</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2687,13 +2687,13 @@
         <v>25</v>
       </c>
       <c r="N29" t="n">
-        <v>60000</v>
+        <v>72000</v>
       </c>
       <c r="O29" t="n">
-        <v>60000</v>
+        <v>72000</v>
       </c>
       <c r="P29" t="n">
-        <v>60000</v>
+        <v>72000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2702,11 +2702,11 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S29" t="n">
-        <v>3333</v>
+        <v>4000</v>
       </c>
       <c r="T29" t="n">
         <v>18</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44522</v>
+        <v>44473</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2764,16 +2764,16 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="N30" t="n">
-        <v>56000</v>
+        <v>67000</v>
       </c>
       <c r="O30" t="n">
-        <v>56000</v>
+        <v>67000</v>
       </c>
       <c r="P30" t="n">
-        <v>56000</v>
+        <v>67000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2782,11 +2782,11 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S30" t="n">
-        <v>3111</v>
+        <v>3722</v>
       </c>
       <c r="T30" t="n">
         <v>18</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44354</v>
+        <v>44340</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2844,16 +2844,16 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="N31" t="n">
-        <v>38000</v>
+        <v>37000</v>
       </c>
       <c r="O31" t="n">
-        <v>38000</v>
+        <v>37000</v>
       </c>
       <c r="P31" t="n">
-        <v>38000</v>
+        <v>37000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>2111</v>
+        <v>2056</v>
       </c>
       <c r="T31" t="n">
         <v>18</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44529</v>
+        <v>44340</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2920,20 +2920,20 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M32" t="n">
         <v>20</v>
       </c>
       <c r="N32" t="n">
-        <v>60000</v>
+        <v>35000</v>
       </c>
       <c r="O32" t="n">
-        <v>60000</v>
+        <v>35000</v>
       </c>
       <c r="P32" t="n">
-        <v>60000</v>
+        <v>35000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>3333</v>
+        <v>1944</v>
       </c>
       <c r="T32" t="n">
         <v>18</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44529</v>
+        <v>44354</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3004,16 +3004,16 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N33" t="n">
-        <v>58000</v>
+        <v>38000</v>
       </c>
       <c r="O33" t="n">
-        <v>58000</v>
+        <v>38000</v>
       </c>
       <c r="P33" t="n">
-        <v>58000</v>
+        <v>38000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>3222</v>
+        <v>2111</v>
       </c>
       <c r="T33" t="n">
         <v>18</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44452</v>
+        <v>44305</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3084,16 +3084,16 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N34" t="n">
-        <v>36000</v>
+        <v>30000</v>
       </c>
       <c r="O34" t="n">
-        <v>36000</v>
+        <v>30000</v>
       </c>
       <c r="P34" t="n">
-        <v>36000</v>
+        <v>30000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>2000</v>
+        <v>1667</v>
       </c>
       <c r="T34" t="n">
         <v>18</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44382</v>
+        <v>44389</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3160,20 +3160,20 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="N35" t="n">
-        <v>35000</v>
+        <v>29000</v>
       </c>
       <c r="O35" t="n">
-        <v>35000</v>
+        <v>29000</v>
       </c>
       <c r="P35" t="n">
-        <v>35000</v>
+        <v>29000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1944</v>
+        <v>1611</v>
       </c>
       <c r="T35" t="n">
         <v>18</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44382</v>
+        <v>44389</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3240,20 +3240,20 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N36" t="n">
-        <v>32000</v>
+        <v>27000</v>
       </c>
       <c r="O36" t="n">
-        <v>32000</v>
+        <v>27000</v>
       </c>
       <c r="P36" t="n">
-        <v>32000</v>
+        <v>27000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1778</v>
+        <v>1500</v>
       </c>
       <c r="T36" t="n">
         <v>18</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44382</v>
+        <v>44445</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3320,20 +3320,20 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N37" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="O37" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="P37" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1667</v>
+        <v>1778</v>
       </c>
       <c r="T37" t="n">
         <v>18</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44396</v>
+        <v>44382</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3400,20 +3400,20 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="N38" t="n">
-        <v>37000</v>
+        <v>35000</v>
       </c>
       <c r="O38" t="n">
-        <v>37000</v>
+        <v>35000</v>
       </c>
       <c r="P38" t="n">
-        <v>37000</v>
+        <v>35000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>2056</v>
+        <v>1944</v>
       </c>
       <c r="T38" t="n">
         <v>18</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44396</v>
+        <v>44382</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3480,20 +3480,20 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N39" t="n">
-        <v>34000</v>
+        <v>32000</v>
       </c>
       <c r="O39" t="n">
-        <v>34000</v>
+        <v>32000</v>
       </c>
       <c r="P39" t="n">
-        <v>34000</v>
+        <v>32000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1889</v>
+        <v>1778</v>
       </c>
       <c r="T39" t="n">
         <v>18</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44312</v>
+        <v>44382</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3560,20 +3560,20 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>160</v>
+        <v>15</v>
       </c>
       <c r="N40" t="n">
-        <v>26000</v>
+        <v>30000</v>
       </c>
       <c r="O40" t="n">
-        <v>26000</v>
+        <v>30000</v>
       </c>
       <c r="P40" t="n">
-        <v>26000</v>
+        <v>30000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>1444</v>
+        <v>1667</v>
       </c>
       <c r="T40" t="n">
         <v>18</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44340</v>
+        <v>44326</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3640,20 +3640,20 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="N41" t="n">
-        <v>37000</v>
+        <v>35000</v>
       </c>
       <c r="O41" t="n">
-        <v>37000</v>
+        <v>35000</v>
       </c>
       <c r="P41" t="n">
-        <v>37000</v>
+        <v>35000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>2056</v>
+        <v>1944</v>
       </c>
       <c r="T41" t="n">
         <v>18</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44340</v>
+        <v>44326</v>
       </c>
       <c r="E42" t="n">
         <v>13</v>
@@ -3720,20 +3720,20 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N42" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="O42" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="P42" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>1944</v>
+        <v>1667</v>
       </c>
       <c r="T42" t="n">
         <v>18</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44319</v>
+        <v>44326</v>
       </c>
       <c r="E43" t="n">
         <v>13</v>
@@ -3800,20 +3800,20 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="N43" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="O43" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="P43" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>1500</v>
+        <v>1556</v>
       </c>
       <c r="T43" t="n">
         <v>18</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44445</v>
+        <v>44284</v>
       </c>
       <c r="E44" t="n">
         <v>13</v>
@@ -3884,16 +3884,16 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="N44" t="n">
-        <v>32000</v>
+        <v>23000</v>
       </c>
       <c r="O44" t="n">
-        <v>32000</v>
+        <v>23000</v>
       </c>
       <c r="P44" t="n">
-        <v>32000</v>
+        <v>23000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>1778</v>
+        <v>1278</v>
       </c>
       <c r="T44" t="n">
         <v>18</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44473</v>
+        <v>44459</v>
       </c>
       <c r="E45" t="n">
         <v>13</v>
@@ -3960,20 +3960,20 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="N45" t="n">
-        <v>75000</v>
+        <v>38000</v>
       </c>
       <c r="O45" t="n">
-        <v>75000</v>
+        <v>38000</v>
       </c>
       <c r="P45" t="n">
-        <v>75000</v>
+        <v>38000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>4167</v>
+        <v>2111</v>
       </c>
       <c r="T45" t="n">
         <v>18</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44473</v>
+        <v>44277</v>
       </c>
       <c r="E46" t="n">
         <v>13</v>
@@ -4044,16 +4044,16 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="N46" t="n">
-        <v>72000</v>
+        <v>30000</v>
       </c>
       <c r="O46" t="n">
-        <v>72000</v>
+        <v>30000</v>
       </c>
       <c r="P46" t="n">
-        <v>72000</v>
+        <v>30000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>4000</v>
+        <v>1667</v>
       </c>
       <c r="T46" t="n">
         <v>18</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44473</v>
+        <v>44277</v>
       </c>
       <c r="E47" t="n">
         <v>13</v>
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="N47" t="n">
-        <v>67000</v>
+        <v>28000</v>
       </c>
       <c r="O47" t="n">
-        <v>67000</v>
+        <v>28000</v>
       </c>
       <c r="P47" t="n">
-        <v>67000</v>
+        <v>28000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>3722</v>
+        <v>1556</v>
       </c>
       <c r="T47" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Maracuyá.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Maracuyá.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="N2" t="n">
-        <v>32000</v>
+        <v>38000</v>
       </c>
       <c r="O2" t="n">
-        <v>32000</v>
+        <v>38000</v>
       </c>
       <c r="P2" t="n">
-        <v>32000</v>
+        <v>38000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1778</v>
+        <v>2111</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44417</v>
+        <v>44305</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N3" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="O3" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="P3" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1556</v>
+        <v>1667</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44435</v>
+        <v>44431</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44333</v>
+        <v>44396</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N5" t="n">
-        <v>38000</v>
+        <v>37000</v>
       </c>
       <c r="O5" t="n">
-        <v>38000</v>
+        <v>37000</v>
       </c>
       <c r="P5" t="n">
-        <v>38000</v>
+        <v>37000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>2111</v>
+        <v>2056</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44333</v>
+        <v>44396</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N6" t="n">
-        <v>35000</v>
+        <v>34000</v>
       </c>
       <c r="O6" t="n">
-        <v>35000</v>
+        <v>34000</v>
       </c>
       <c r="P6" t="n">
-        <v>35000</v>
+        <v>34000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1944</v>
+        <v>1889</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44529</v>
+        <v>44382</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -927,13 +927,13 @@
         <v>20</v>
       </c>
       <c r="N7" t="n">
-        <v>60000</v>
+        <v>35000</v>
       </c>
       <c r="O7" t="n">
-        <v>60000</v>
+        <v>35000</v>
       </c>
       <c r="P7" t="n">
-        <v>60000</v>
+        <v>35000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>3333</v>
+        <v>1944</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44529</v>
+        <v>44382</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N8" t="n">
-        <v>58000</v>
+        <v>32000</v>
       </c>
       <c r="O8" t="n">
-        <v>58000</v>
+        <v>32000</v>
       </c>
       <c r="P8" t="n">
-        <v>58000</v>
+        <v>32000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>3222</v>
+        <v>1778</v>
       </c>
       <c r="T8" t="n">
         <v>18</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44522</v>
+        <v>44382</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N9" t="n">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="O9" t="n">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="P9" t="n">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1102,11 +1102,11 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>3333</v>
+        <v>1667</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>
@@ -1160,20 +1160,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N10" t="n">
-        <v>56000</v>
+        <v>60000</v>
       </c>
       <c r="O10" t="n">
-        <v>56000</v>
+        <v>60000</v>
       </c>
       <c r="P10" t="n">
-        <v>56000</v>
+        <v>60000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>3111</v>
+        <v>3333</v>
       </c>
       <c r="T10" t="n">
         <v>18</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44319</v>
+        <v>44522</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1240,20 +1240,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="N11" t="n">
-        <v>27000</v>
+        <v>56000</v>
       </c>
       <c r="O11" t="n">
-        <v>27000</v>
+        <v>56000</v>
       </c>
       <c r="P11" t="n">
-        <v>27000</v>
+        <v>56000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1262,11 +1262,11 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1500</v>
+        <v>3111</v>
       </c>
       <c r="T11" t="n">
         <v>18</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44396</v>
+        <v>44403</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="N12" t="n">
-        <v>37000</v>
+        <v>33000</v>
       </c>
       <c r="O12" t="n">
-        <v>37000</v>
+        <v>33000</v>
       </c>
       <c r="P12" t="n">
-        <v>37000</v>
+        <v>33000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>2056</v>
+        <v>1833</v>
       </c>
       <c r="T12" t="n">
         <v>18</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44396</v>
+        <v>44403</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="N13" t="n">
-        <v>34000</v>
+        <v>30000</v>
       </c>
       <c r="O13" t="n">
-        <v>34000</v>
+        <v>30000</v>
       </c>
       <c r="P13" t="n">
-        <v>34000</v>
+        <v>30000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1889</v>
+        <v>1667</v>
       </c>
       <c r="T13" t="n">
         <v>18</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44312</v>
+        <v>44403</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>160</v>
+        <v>15</v>
       </c>
       <c r="N14" t="n">
-        <v>26000</v>
+        <v>28000</v>
       </c>
       <c r="O14" t="n">
-        <v>26000</v>
+        <v>28000</v>
       </c>
       <c r="P14" t="n">
-        <v>26000</v>
+        <v>28000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1444</v>
+        <v>1556</v>
       </c>
       <c r="T14" t="n">
         <v>18</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44403</v>
+        <v>44326</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="N15" t="n">
-        <v>33000</v>
+        <v>35000</v>
       </c>
       <c r="O15" t="n">
-        <v>33000</v>
+        <v>35000</v>
       </c>
       <c r="P15" t="n">
-        <v>33000</v>
+        <v>35000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1833</v>
+        <v>1944</v>
       </c>
       <c r="T15" t="n">
         <v>18</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44403</v>
+        <v>44326</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1644,7 +1644,7 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="N16" t="n">
         <v>30000</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44403</v>
+        <v>44326</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1724,7 +1724,7 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N17" t="n">
         <v>28000</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44291</v>
+        <v>44435</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1807,13 +1807,13 @@
         <v>30</v>
       </c>
       <c r="N18" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="O18" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="P18" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1389</v>
+        <v>1778</v>
       </c>
       <c r="T18" t="n">
         <v>18</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44424</v>
+        <v>44466</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N19" t="n">
-        <v>32000</v>
+        <v>60000</v>
       </c>
       <c r="O19" t="n">
-        <v>32000</v>
+        <v>60000</v>
       </c>
       <c r="P19" t="n">
-        <v>32000</v>
+        <v>60000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1778</v>
+        <v>3333</v>
       </c>
       <c r="T19" t="n">
         <v>18</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44452</v>
+        <v>44466</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1960,20 +1960,20 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N20" t="n">
-        <v>36000</v>
+        <v>58000</v>
       </c>
       <c r="O20" t="n">
-        <v>36000</v>
+        <v>58000</v>
       </c>
       <c r="P20" t="n">
-        <v>36000</v>
+        <v>58000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>2000</v>
+        <v>3222</v>
       </c>
       <c r="T20" t="n">
         <v>18</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44410</v>
+        <v>44312</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2040,20 +2040,20 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>15</v>
+        <v>160</v>
       </c>
       <c r="N21" t="n">
-        <v>32000</v>
+        <v>26000</v>
       </c>
       <c r="O21" t="n">
-        <v>32000</v>
+        <v>26000</v>
       </c>
       <c r="P21" t="n">
-        <v>32000</v>
+        <v>26000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1778</v>
+        <v>1444</v>
       </c>
       <c r="T21" t="n">
         <v>18</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44410</v>
+        <v>44333</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N22" t="n">
-        <v>30000</v>
+        <v>38000</v>
       </c>
       <c r="O22" t="n">
-        <v>30000</v>
+        <v>38000</v>
       </c>
       <c r="P22" t="n">
-        <v>30000</v>
+        <v>38000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1667</v>
+        <v>2111</v>
       </c>
       <c r="T22" t="n">
         <v>18</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44410</v>
+        <v>44333</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2204,16 +2204,16 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="N23" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="O23" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="P23" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1556</v>
+        <v>1944</v>
       </c>
       <c r="T23" t="n">
         <v>18</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44270</v>
+        <v>44529</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="N24" t="n">
-        <v>38000</v>
+        <v>60000</v>
       </c>
       <c r="O24" t="n">
-        <v>38000</v>
+        <v>60000</v>
       </c>
       <c r="P24" t="n">
-        <v>38000</v>
+        <v>60000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>2111</v>
+        <v>3333</v>
       </c>
       <c r="T24" t="n">
         <v>18</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44431</v>
+        <v>44529</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N25" t="n">
-        <v>32000</v>
+        <v>58000</v>
       </c>
       <c r="O25" t="n">
-        <v>32000</v>
+        <v>58000</v>
       </c>
       <c r="P25" t="n">
-        <v>32000</v>
+        <v>58000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1778</v>
+        <v>3222</v>
       </c>
       <c r="T25" t="n">
         <v>18</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44466</v>
+        <v>44424</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N26" t="n">
-        <v>60000</v>
+        <v>32000</v>
       </c>
       <c r="O26" t="n">
-        <v>60000</v>
+        <v>32000</v>
       </c>
       <c r="P26" t="n">
-        <v>60000</v>
+        <v>32000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>3333</v>
+        <v>1778</v>
       </c>
       <c r="T26" t="n">
         <v>18</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44466</v>
+        <v>44438</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2520,20 +2520,20 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="N27" t="n">
-        <v>58000</v>
+        <v>32000</v>
       </c>
       <c r="O27" t="n">
-        <v>58000</v>
+        <v>32000</v>
       </c>
       <c r="P27" t="n">
-        <v>58000</v>
+        <v>32000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>3222</v>
+        <v>1778</v>
       </c>
       <c r="T27" t="n">
         <v>18</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44473</v>
+        <v>44319</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2600,20 +2600,20 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>10</v>
+        <v>140</v>
       </c>
       <c r="N28" t="n">
-        <v>75000</v>
+        <v>27000</v>
       </c>
       <c r="O28" t="n">
-        <v>75000</v>
+        <v>27000</v>
       </c>
       <c r="P28" t="n">
-        <v>75000</v>
+        <v>27000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>4167</v>
+        <v>1500</v>
       </c>
       <c r="T28" t="n">
         <v>18</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44473</v>
+        <v>44291</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2684,16 +2684,16 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N29" t="n">
-        <v>72000</v>
+        <v>25000</v>
       </c>
       <c r="O29" t="n">
-        <v>72000</v>
+        <v>25000</v>
       </c>
       <c r="P29" t="n">
-        <v>72000</v>
+        <v>25000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>4000</v>
+        <v>1389</v>
       </c>
       <c r="T29" t="n">
         <v>18</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44473</v>
+        <v>44284</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2760,20 +2760,20 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>5</v>
+        <v>120</v>
       </c>
       <c r="N30" t="n">
-        <v>67000</v>
+        <v>23000</v>
       </c>
       <c r="O30" t="n">
-        <v>67000</v>
+        <v>23000</v>
       </c>
       <c r="P30" t="n">
-        <v>67000</v>
+        <v>23000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>3722</v>
+        <v>1278</v>
       </c>
       <c r="T30" t="n">
         <v>18</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44340</v>
+        <v>44354</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2844,16 +2844,16 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N31" t="n">
-        <v>37000</v>
+        <v>38000</v>
       </c>
       <c r="O31" t="n">
-        <v>37000</v>
+        <v>38000</v>
       </c>
       <c r="P31" t="n">
-        <v>37000</v>
+        <v>38000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>2056</v>
+        <v>2111</v>
       </c>
       <c r="T31" t="n">
         <v>18</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44340</v>
+        <v>44452</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2920,20 +2920,20 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M32" t="n">
         <v>20</v>
       </c>
       <c r="N32" t="n">
-        <v>35000</v>
+        <v>36000</v>
       </c>
       <c r="O32" t="n">
-        <v>35000</v>
+        <v>36000</v>
       </c>
       <c r="P32" t="n">
-        <v>35000</v>
+        <v>36000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1944</v>
+        <v>2000</v>
       </c>
       <c r="T32" t="n">
         <v>18</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44354</v>
+        <v>44445</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3004,16 +3004,16 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N33" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="O33" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="P33" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>2111</v>
+        <v>1778</v>
       </c>
       <c r="T33" t="n">
         <v>18</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44305</v>
+        <v>44389</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3084,16 +3084,16 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="N34" t="n">
-        <v>30000</v>
+        <v>29000</v>
       </c>
       <c r="O34" t="n">
-        <v>30000</v>
+        <v>29000</v>
       </c>
       <c r="P34" t="n">
-        <v>30000</v>
+        <v>29000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1667</v>
+        <v>1611</v>
       </c>
       <c r="T34" t="n">
         <v>18</v>
@@ -3160,20 +3160,20 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="N35" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="O35" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="P35" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1611</v>
+        <v>1500</v>
       </c>
       <c r="T35" t="n">
         <v>18</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44389</v>
+        <v>44459</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3240,20 +3240,20 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N36" t="n">
-        <v>27000</v>
+        <v>38000</v>
       </c>
       <c r="O36" t="n">
-        <v>27000</v>
+        <v>38000</v>
       </c>
       <c r="P36" t="n">
-        <v>27000</v>
+        <v>38000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1500</v>
+        <v>2111</v>
       </c>
       <c r="T36" t="n">
         <v>18</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44445</v>
+        <v>44410</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3320,11 +3320,11 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N37" t="n">
         <v>32000</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44382</v>
+        <v>44410</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3400,20 +3400,20 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N38" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="O38" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="P38" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>1944</v>
+        <v>1667</v>
       </c>
       <c r="T38" t="n">
         <v>18</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44382</v>
+        <v>44410</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3480,20 +3480,20 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="N39" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="O39" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="P39" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1778</v>
+        <v>1556</v>
       </c>
       <c r="T39" t="n">
         <v>18</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44382</v>
+        <v>44277</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3560,11 +3560,11 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="N40" t="n">
         <v>30000</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44326</v>
+        <v>44277</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3640,20 +3640,20 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="N41" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="O41" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="P41" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>1944</v>
+        <v>1556</v>
       </c>
       <c r="T41" t="n">
         <v>18</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44326</v>
+        <v>44417</v>
       </c>
       <c r="E42" t="n">
         <v>13</v>
@@ -3724,16 +3724,16 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N42" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="O42" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="P42" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>1667</v>
+        <v>1556</v>
       </c>
       <c r="T42" t="n">
         <v>18</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44326</v>
+        <v>44340</v>
       </c>
       <c r="E43" t="n">
         <v>13</v>
@@ -3800,20 +3800,20 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="N43" t="n">
-        <v>28000</v>
+        <v>37000</v>
       </c>
       <c r="O43" t="n">
-        <v>28000</v>
+        <v>37000</v>
       </c>
       <c r="P43" t="n">
-        <v>28000</v>
+        <v>37000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>1556</v>
+        <v>2056</v>
       </c>
       <c r="T43" t="n">
         <v>18</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44284</v>
+        <v>44340</v>
       </c>
       <c r="E44" t="n">
         <v>13</v>
@@ -3880,20 +3880,20 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="N44" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="O44" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="P44" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>1278</v>
+        <v>1944</v>
       </c>
       <c r="T44" t="n">
         <v>18</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44459</v>
+        <v>44473</v>
       </c>
       <c r="E45" t="n">
         <v>13</v>
@@ -3960,20 +3960,20 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="N45" t="n">
-        <v>38000</v>
+        <v>75000</v>
       </c>
       <c r="O45" t="n">
-        <v>38000</v>
+        <v>75000</v>
       </c>
       <c r="P45" t="n">
-        <v>38000</v>
+        <v>75000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>2111</v>
+        <v>4167</v>
       </c>
       <c r="T45" t="n">
         <v>18</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44277</v>
+        <v>44473</v>
       </c>
       <c r="E46" t="n">
         <v>13</v>
@@ -4044,16 +4044,16 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="N46" t="n">
-        <v>30000</v>
+        <v>72000</v>
       </c>
       <c r="O46" t="n">
-        <v>30000</v>
+        <v>72000</v>
       </c>
       <c r="P46" t="n">
-        <v>30000</v>
+        <v>72000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>1667</v>
+        <v>4000</v>
       </c>
       <c r="T46" t="n">
         <v>18</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44277</v>
+        <v>44473</v>
       </c>
       <c r="E47" t="n">
         <v>13</v>
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="N47" t="n">
-        <v>28000</v>
+        <v>67000</v>
       </c>
       <c r="O47" t="n">
-        <v>28000</v>
+        <v>67000</v>
       </c>
       <c r="P47" t="n">
-        <v>28000</v>
+        <v>67000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>1556</v>
+        <v>3722</v>
       </c>
       <c r="T47" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Maracuyá.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Maracuyá.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44270</v>
+        <v>44435</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="N2" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="O2" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="P2" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>2111</v>
+        <v>1778</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44305</v>
+        <v>44389</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="N3" t="n">
-        <v>30000</v>
+        <v>29000</v>
       </c>
       <c r="O3" t="n">
-        <v>30000</v>
+        <v>29000</v>
       </c>
       <c r="P3" t="n">
-        <v>30000</v>
+        <v>29000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1667</v>
+        <v>1611</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44431</v>
+        <v>44389</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N4" t="n">
-        <v>32000</v>
+        <v>27000</v>
       </c>
       <c r="O4" t="n">
-        <v>32000</v>
+        <v>27000</v>
       </c>
       <c r="P4" t="n">
-        <v>32000</v>
+        <v>27000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1778</v>
+        <v>1500</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44396</v>
+        <v>44410</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="N5" t="n">
-        <v>37000</v>
+        <v>32000</v>
       </c>
       <c r="O5" t="n">
-        <v>37000</v>
+        <v>32000</v>
       </c>
       <c r="P5" t="n">
-        <v>37000</v>
+        <v>32000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>2056</v>
+        <v>1778</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44396</v>
+        <v>44410</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N6" t="n">
-        <v>34000</v>
+        <v>30000</v>
       </c>
       <c r="O6" t="n">
-        <v>34000</v>
+        <v>30000</v>
       </c>
       <c r="P6" t="n">
-        <v>34000</v>
+        <v>30000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1889</v>
+        <v>1667</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44382</v>
+        <v>44410</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N7" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="O7" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="P7" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1944</v>
+        <v>1556</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44382</v>
+        <v>44438</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44382</v>
+        <v>44277</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1080,11 +1080,11 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="N9" t="n">
         <v>30000</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44522</v>
+        <v>44277</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1160,20 +1160,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="N10" t="n">
-        <v>60000</v>
+        <v>28000</v>
       </c>
       <c r="O10" t="n">
-        <v>60000</v>
+        <v>28000</v>
       </c>
       <c r="P10" t="n">
-        <v>60000</v>
+        <v>28000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1182,11 +1182,11 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>3333</v>
+        <v>1556</v>
       </c>
       <c r="T10" t="n">
         <v>18</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44522</v>
+        <v>44466</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1240,20 +1240,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N11" t="n">
-        <v>56000</v>
+        <v>60000</v>
       </c>
       <c r="O11" t="n">
-        <v>56000</v>
+        <v>60000</v>
       </c>
       <c r="P11" t="n">
-        <v>56000</v>
+        <v>60000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1262,11 +1262,11 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>3111</v>
+        <v>3333</v>
       </c>
       <c r="T11" t="n">
         <v>18</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44403</v>
+        <v>44466</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="N12" t="n">
-        <v>33000</v>
+        <v>58000</v>
       </c>
       <c r="O12" t="n">
-        <v>33000</v>
+        <v>58000</v>
       </c>
       <c r="P12" t="n">
-        <v>33000</v>
+        <v>58000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1833</v>
+        <v>3222</v>
       </c>
       <c r="T12" t="n">
         <v>18</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44403</v>
+        <v>44431</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N13" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="O13" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="P13" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1667</v>
+        <v>1778</v>
       </c>
       <c r="T13" t="n">
         <v>18</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44403</v>
+        <v>44522</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N14" t="n">
-        <v>28000</v>
+        <v>60000</v>
       </c>
       <c r="O14" t="n">
-        <v>28000</v>
+        <v>60000</v>
       </c>
       <c r="P14" t="n">
-        <v>28000</v>
+        <v>60000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1502,11 +1502,11 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1556</v>
+        <v>3333</v>
       </c>
       <c r="T14" t="n">
         <v>18</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44326</v>
+        <v>44522</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N15" t="n">
-        <v>35000</v>
+        <v>56000</v>
       </c>
       <c r="O15" t="n">
-        <v>35000</v>
+        <v>56000</v>
       </c>
       <c r="P15" t="n">
-        <v>35000</v>
+        <v>56000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1582,11 +1582,11 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1944</v>
+        <v>3111</v>
       </c>
       <c r="T15" t="n">
         <v>18</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44326</v>
+        <v>44396</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="N16" t="n">
-        <v>30000</v>
+        <v>37000</v>
       </c>
       <c r="O16" t="n">
-        <v>30000</v>
+        <v>37000</v>
       </c>
       <c r="P16" t="n">
-        <v>30000</v>
+        <v>37000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1667</v>
+        <v>2056</v>
       </c>
       <c r="T16" t="n">
         <v>18</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44326</v>
+        <v>44396</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N17" t="n">
-        <v>28000</v>
+        <v>34000</v>
       </c>
       <c r="O17" t="n">
-        <v>28000</v>
+        <v>34000</v>
       </c>
       <c r="P17" t="n">
-        <v>28000</v>
+        <v>34000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1556</v>
+        <v>1889</v>
       </c>
       <c r="T17" t="n">
         <v>18</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44435</v>
+        <v>44473</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1800,20 +1800,20 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="N18" t="n">
-        <v>32000</v>
+        <v>75000</v>
       </c>
       <c r="O18" t="n">
-        <v>32000</v>
+        <v>75000</v>
       </c>
       <c r="P18" t="n">
-        <v>32000</v>
+        <v>75000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1778</v>
+        <v>4167</v>
       </c>
       <c r="T18" t="n">
         <v>18</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44466</v>
+        <v>44473</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N19" t="n">
-        <v>60000</v>
+        <v>72000</v>
       </c>
       <c r="O19" t="n">
-        <v>60000</v>
+        <v>72000</v>
       </c>
       <c r="P19" t="n">
-        <v>60000</v>
+        <v>72000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>3333</v>
+        <v>4000</v>
       </c>
       <c r="T19" t="n">
         <v>18</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44466</v>
+        <v>44473</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N20" t="n">
-        <v>58000</v>
+        <v>67000</v>
       </c>
       <c r="O20" t="n">
-        <v>58000</v>
+        <v>67000</v>
       </c>
       <c r="P20" t="n">
-        <v>58000</v>
+        <v>67000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>3222</v>
+        <v>3722</v>
       </c>
       <c r="T20" t="n">
         <v>18</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44312</v>
+        <v>44417</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>160</v>
+        <v>15</v>
       </c>
       <c r="N21" t="n">
-        <v>26000</v>
+        <v>28000</v>
       </c>
       <c r="O21" t="n">
-        <v>26000</v>
+        <v>28000</v>
       </c>
       <c r="P21" t="n">
-        <v>26000</v>
+        <v>28000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1444</v>
+        <v>1556</v>
       </c>
       <c r="T21" t="n">
         <v>18</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44333</v>
+        <v>44284</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="N22" t="n">
-        <v>38000</v>
+        <v>23000</v>
       </c>
       <c r="O22" t="n">
-        <v>38000</v>
+        <v>23000</v>
       </c>
       <c r="P22" t="n">
-        <v>38000</v>
+        <v>23000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>2111</v>
+        <v>1278</v>
       </c>
       <c r="T22" t="n">
         <v>18</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44333</v>
+        <v>44305</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2200,20 +2200,20 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M23" t="n">
         <v>25</v>
       </c>
       <c r="N23" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="O23" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="P23" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1944</v>
+        <v>1667</v>
       </c>
       <c r="T23" t="n">
         <v>18</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44529</v>
+        <v>44354</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2280,20 +2280,20 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="N24" t="n">
-        <v>60000</v>
+        <v>38000</v>
       </c>
       <c r="O24" t="n">
-        <v>60000</v>
+        <v>38000</v>
       </c>
       <c r="P24" t="n">
-        <v>60000</v>
+        <v>38000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>3333</v>
+        <v>2111</v>
       </c>
       <c r="T24" t="n">
         <v>18</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44529</v>
+        <v>44445</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N25" t="n">
-        <v>58000</v>
+        <v>32000</v>
       </c>
       <c r="O25" t="n">
-        <v>58000</v>
+        <v>32000</v>
       </c>
       <c r="P25" t="n">
-        <v>58000</v>
+        <v>32000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>3222</v>
+        <v>1778</v>
       </c>
       <c r="T25" t="n">
         <v>18</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44424</v>
+        <v>44312</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>30</v>
+        <v>160</v>
       </c>
       <c r="N26" t="n">
-        <v>32000</v>
+        <v>26000</v>
       </c>
       <c r="O26" t="n">
-        <v>32000</v>
+        <v>26000</v>
       </c>
       <c r="P26" t="n">
-        <v>32000</v>
+        <v>26000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1778</v>
+        <v>1444</v>
       </c>
       <c r="T26" t="n">
         <v>18</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44438</v>
+        <v>44382</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2520,20 +2520,20 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N27" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="O27" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="P27" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1778</v>
+        <v>1944</v>
       </c>
       <c r="T27" t="n">
         <v>18</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44319</v>
+        <v>44382</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2604,16 +2604,16 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>140</v>
+        <v>30</v>
       </c>
       <c r="N28" t="n">
-        <v>27000</v>
+        <v>32000</v>
       </c>
       <c r="O28" t="n">
-        <v>27000</v>
+        <v>32000</v>
       </c>
       <c r="P28" t="n">
-        <v>27000</v>
+        <v>32000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1500</v>
+        <v>1778</v>
       </c>
       <c r="T28" t="n">
         <v>18</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44291</v>
+        <v>44382</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2680,20 +2680,20 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N29" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="O29" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="P29" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1389</v>
+        <v>1667</v>
       </c>
       <c r="T29" t="n">
         <v>18</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44284</v>
+        <v>44326</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2760,20 +2760,20 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>120</v>
+        <v>16</v>
       </c>
       <c r="N30" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="O30" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="P30" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1278</v>
+        <v>1944</v>
       </c>
       <c r="T30" t="n">
         <v>18</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44354</v>
+        <v>44326</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2844,16 +2844,16 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="N31" t="n">
-        <v>38000</v>
+        <v>30000</v>
       </c>
       <c r="O31" t="n">
-        <v>38000</v>
+        <v>30000</v>
       </c>
       <c r="P31" t="n">
-        <v>38000</v>
+        <v>30000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>2111</v>
+        <v>1667</v>
       </c>
       <c r="T31" t="n">
         <v>18</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44452</v>
+        <v>44326</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2920,20 +2920,20 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M32" t="n">
         <v>20</v>
       </c>
       <c r="N32" t="n">
-        <v>36000</v>
+        <v>28000</v>
       </c>
       <c r="O32" t="n">
-        <v>36000</v>
+        <v>28000</v>
       </c>
       <c r="P32" t="n">
-        <v>36000</v>
+        <v>28000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>2000</v>
+        <v>1556</v>
       </c>
       <c r="T32" t="n">
         <v>18</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44445</v>
+        <v>44529</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3000,20 +3000,20 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N33" t="n">
-        <v>32000</v>
+        <v>60000</v>
       </c>
       <c r="O33" t="n">
-        <v>32000</v>
+        <v>60000</v>
       </c>
       <c r="P33" t="n">
-        <v>32000</v>
+        <v>60000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1778</v>
+        <v>3333</v>
       </c>
       <c r="T33" t="n">
         <v>18</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44389</v>
+        <v>44529</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3084,16 +3084,16 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="N34" t="n">
-        <v>29000</v>
+        <v>58000</v>
       </c>
       <c r="O34" t="n">
-        <v>29000</v>
+        <v>58000</v>
       </c>
       <c r="P34" t="n">
-        <v>29000</v>
+        <v>58000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1611</v>
+        <v>3222</v>
       </c>
       <c r="T34" t="n">
         <v>18</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44389</v>
+        <v>44452</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3160,20 +3160,20 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M35" t="n">
         <v>20</v>
       </c>
       <c r="N35" t="n">
-        <v>27000</v>
+        <v>36000</v>
       </c>
       <c r="O35" t="n">
-        <v>27000</v>
+        <v>36000</v>
       </c>
       <c r="P35" t="n">
-        <v>27000</v>
+        <v>36000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="T35" t="n">
         <v>18</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44459</v>
+        <v>44270</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3240,11 +3240,11 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="N36" t="n">
         <v>38000</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44410</v>
+        <v>44424</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3320,11 +3320,11 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N37" t="n">
         <v>32000</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44410</v>
+        <v>44291</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3404,16 +3404,16 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N38" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="O38" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="P38" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>1667</v>
+        <v>1389</v>
       </c>
       <c r="T38" t="n">
         <v>18</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44410</v>
+        <v>44403</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3480,20 +3480,20 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="N39" t="n">
-        <v>28000</v>
+        <v>33000</v>
       </c>
       <c r="O39" t="n">
-        <v>28000</v>
+        <v>33000</v>
       </c>
       <c r="P39" t="n">
-        <v>28000</v>
+        <v>33000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1556</v>
+        <v>1833</v>
       </c>
       <c r="T39" t="n">
         <v>18</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44277</v>
+        <v>44403</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3564,7 +3564,7 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="N40" t="n">
         <v>30000</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44277</v>
+        <v>44403</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3644,7 +3644,7 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="N41" t="n">
         <v>28000</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44417</v>
+        <v>44333</v>
       </c>
       <c r="E42" t="n">
         <v>13</v>
@@ -3724,16 +3724,16 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N42" t="n">
-        <v>28000</v>
+        <v>38000</v>
       </c>
       <c r="O42" t="n">
-        <v>28000</v>
+        <v>38000</v>
       </c>
       <c r="P42" t="n">
-        <v>28000</v>
+        <v>38000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>1556</v>
+        <v>2111</v>
       </c>
       <c r="T42" t="n">
         <v>18</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44340</v>
+        <v>44333</v>
       </c>
       <c r="E43" t="n">
         <v>13</v>
@@ -3800,20 +3800,20 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="N43" t="n">
-        <v>37000</v>
+        <v>35000</v>
       </c>
       <c r="O43" t="n">
-        <v>37000</v>
+        <v>35000</v>
       </c>
       <c r="P43" t="n">
-        <v>37000</v>
+        <v>35000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>2056</v>
+        <v>1944</v>
       </c>
       <c r="T43" t="n">
         <v>18</v>
@@ -3880,20 +3880,20 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="N44" t="n">
-        <v>35000</v>
+        <v>37000</v>
       </c>
       <c r="O44" t="n">
-        <v>35000</v>
+        <v>37000</v>
       </c>
       <c r="P44" t="n">
-        <v>35000</v>
+        <v>37000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>1944</v>
+        <v>2056</v>
       </c>
       <c r="T44" t="n">
         <v>18</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44473</v>
+        <v>44340</v>
       </c>
       <c r="E45" t="n">
         <v>13</v>
@@ -3960,20 +3960,20 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N45" t="n">
-        <v>75000</v>
+        <v>35000</v>
       </c>
       <c r="O45" t="n">
-        <v>75000</v>
+        <v>35000</v>
       </c>
       <c r="P45" t="n">
-        <v>75000</v>
+        <v>35000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>4167</v>
+        <v>1944</v>
       </c>
       <c r="T45" t="n">
         <v>18</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44473</v>
+        <v>44459</v>
       </c>
       <c r="E46" t="n">
         <v>13</v>
@@ -4047,13 +4047,13 @@
         <v>25</v>
       </c>
       <c r="N46" t="n">
-        <v>72000</v>
+        <v>38000</v>
       </c>
       <c r="O46" t="n">
-        <v>72000</v>
+        <v>38000</v>
       </c>
       <c r="P46" t="n">
-        <v>72000</v>
+        <v>38000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>4000</v>
+        <v>2111</v>
       </c>
       <c r="T46" t="n">
         <v>18</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44473</v>
+        <v>44319</v>
       </c>
       <c r="E47" t="n">
         <v>13</v>
@@ -4120,20 +4120,20 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>5</v>
+        <v>140</v>
       </c>
       <c r="N47" t="n">
-        <v>67000</v>
+        <v>27000</v>
       </c>
       <c r="O47" t="n">
-        <v>67000</v>
+        <v>27000</v>
       </c>
       <c r="P47" t="n">
-        <v>67000</v>
+        <v>27000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>3722</v>
+        <v>1500</v>
       </c>
       <c r="T47" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Maracuyá.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Maracuyá.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44435</v>
+        <v>44270</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="N2" t="n">
-        <v>32000</v>
+        <v>38000</v>
       </c>
       <c r="O2" t="n">
-        <v>32000</v>
+        <v>38000</v>
       </c>
       <c r="P2" t="n">
-        <v>32000</v>
+        <v>38000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1778</v>
+        <v>2111</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44389</v>
+        <v>44382</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="N3" t="n">
-        <v>29000</v>
+        <v>35000</v>
       </c>
       <c r="O3" t="n">
-        <v>29000</v>
+        <v>35000</v>
       </c>
       <c r="P3" t="n">
-        <v>29000</v>
+        <v>35000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1611</v>
+        <v>1944</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44389</v>
+        <v>44382</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N4" t="n">
-        <v>27000</v>
+        <v>32000</v>
       </c>
       <c r="O4" t="n">
-        <v>27000</v>
+        <v>32000</v>
       </c>
       <c r="P4" t="n">
-        <v>27000</v>
+        <v>32000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1500</v>
+        <v>1778</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44410</v>
+        <v>44382</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M5" t="n">
         <v>15</v>
       </c>
       <c r="N5" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="O5" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="P5" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1778</v>
+        <v>1667</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44410</v>
+        <v>44452</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N6" t="n">
-        <v>30000</v>
+        <v>36000</v>
       </c>
       <c r="O6" t="n">
-        <v>30000</v>
+        <v>36000</v>
       </c>
       <c r="P6" t="n">
-        <v>30000</v>
+        <v>36000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1667</v>
+        <v>2000</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44410</v>
+        <v>44354</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="N7" t="n">
-        <v>28000</v>
+        <v>38000</v>
       </c>
       <c r="O7" t="n">
-        <v>28000</v>
+        <v>38000</v>
       </c>
       <c r="P7" t="n">
-        <v>28000</v>
+        <v>38000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1556</v>
+        <v>2111</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44438</v>
+        <v>44389</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N8" t="n">
-        <v>32000</v>
+        <v>29000</v>
       </c>
       <c r="O8" t="n">
-        <v>32000</v>
+        <v>29000</v>
       </c>
       <c r="P8" t="n">
-        <v>32000</v>
+        <v>29000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1778</v>
+        <v>1611</v>
       </c>
       <c r="T8" t="n">
         <v>18</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44277</v>
+        <v>44389</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="N9" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="O9" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="P9" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1667</v>
+        <v>1500</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44277</v>
+        <v>44291</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1160,20 +1160,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="N10" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="O10" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="P10" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1556</v>
+        <v>1389</v>
       </c>
       <c r="T10" t="n">
         <v>18</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44466</v>
+        <v>44277</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="N11" t="n">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="O11" t="n">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="P11" t="n">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>3333</v>
+        <v>1667</v>
       </c>
       <c r="T11" t="n">
         <v>18</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44466</v>
+        <v>44277</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="N12" t="n">
-        <v>58000</v>
+        <v>28000</v>
       </c>
       <c r="O12" t="n">
-        <v>58000</v>
+        <v>28000</v>
       </c>
       <c r="P12" t="n">
-        <v>58000</v>
+        <v>28000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>3222</v>
+        <v>1556</v>
       </c>
       <c r="T12" t="n">
         <v>18</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44431</v>
+        <v>44466</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N13" t="n">
-        <v>32000</v>
+        <v>60000</v>
       </c>
       <c r="O13" t="n">
-        <v>32000</v>
+        <v>60000</v>
       </c>
       <c r="P13" t="n">
-        <v>32000</v>
+        <v>60000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1778</v>
+        <v>3333</v>
       </c>
       <c r="T13" t="n">
         <v>18</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44522</v>
+        <v>44466</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="N14" t="n">
-        <v>60000</v>
+        <v>58000</v>
       </c>
       <c r="O14" t="n">
-        <v>60000</v>
+        <v>58000</v>
       </c>
       <c r="P14" t="n">
-        <v>60000</v>
+        <v>58000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1502,11 +1502,11 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>3333</v>
+        <v>3222</v>
       </c>
       <c r="T14" t="n">
         <v>18</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44522</v>
+        <v>44445</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N15" t="n">
-        <v>56000</v>
+        <v>32000</v>
       </c>
       <c r="O15" t="n">
-        <v>56000</v>
+        <v>32000</v>
       </c>
       <c r="P15" t="n">
-        <v>56000</v>
+        <v>32000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1582,11 +1582,11 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>3111</v>
+        <v>1778</v>
       </c>
       <c r="T15" t="n">
         <v>18</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44396</v>
+        <v>44410</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="N16" t="n">
-        <v>37000</v>
+        <v>32000</v>
       </c>
       <c r="O16" t="n">
-        <v>37000</v>
+        <v>32000</v>
       </c>
       <c r="P16" t="n">
-        <v>37000</v>
+        <v>32000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>2056</v>
+        <v>1778</v>
       </c>
       <c r="T16" t="n">
         <v>18</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44396</v>
+        <v>44410</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N17" t="n">
-        <v>34000</v>
+        <v>30000</v>
       </c>
       <c r="O17" t="n">
-        <v>34000</v>
+        <v>30000</v>
       </c>
       <c r="P17" t="n">
-        <v>34000</v>
+        <v>30000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1889</v>
+        <v>1667</v>
       </c>
       <c r="T17" t="n">
         <v>18</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44473</v>
+        <v>44410</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1800,20 +1800,20 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M18" t="n">
         <v>10</v>
       </c>
       <c r="N18" t="n">
-        <v>75000</v>
+        <v>28000</v>
       </c>
       <c r="O18" t="n">
-        <v>75000</v>
+        <v>28000</v>
       </c>
       <c r="P18" t="n">
-        <v>75000</v>
+        <v>28000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>4167</v>
+        <v>1556</v>
       </c>
       <c r="T18" t="n">
         <v>18</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44473</v>
+        <v>44396</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="N19" t="n">
-        <v>72000</v>
+        <v>37000</v>
       </c>
       <c r="O19" t="n">
-        <v>72000</v>
+        <v>37000</v>
       </c>
       <c r="P19" t="n">
-        <v>72000</v>
+        <v>37000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>4000</v>
+        <v>2056</v>
       </c>
       <c r="T19" t="n">
         <v>18</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44473</v>
+        <v>44396</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="N20" t="n">
-        <v>67000</v>
+        <v>34000</v>
       </c>
       <c r="O20" t="n">
-        <v>67000</v>
+        <v>34000</v>
       </c>
       <c r="P20" t="n">
-        <v>67000</v>
+        <v>34000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>3722</v>
+        <v>1889</v>
       </c>
       <c r="T20" t="n">
         <v>18</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44417</v>
+        <v>44435</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N21" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="O21" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="P21" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1556</v>
+        <v>1778</v>
       </c>
       <c r="T21" t="n">
         <v>18</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44305</v>
+        <v>44326</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2200,20 +2200,20 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="N23" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="O23" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="P23" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1667</v>
+        <v>1944</v>
       </c>
       <c r="T23" t="n">
         <v>18</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44354</v>
+        <v>44326</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="N24" t="n">
-        <v>38000</v>
+        <v>30000</v>
       </c>
       <c r="O24" t="n">
-        <v>38000</v>
+        <v>30000</v>
       </c>
       <c r="P24" t="n">
-        <v>38000</v>
+        <v>30000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>2111</v>
+        <v>1667</v>
       </c>
       <c r="T24" t="n">
         <v>18</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44445</v>
+        <v>44326</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2360,20 +2360,20 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N25" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="O25" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="P25" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1778</v>
+        <v>1556</v>
       </c>
       <c r="T25" t="n">
         <v>18</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44312</v>
+        <v>44417</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>160</v>
+        <v>15</v>
       </c>
       <c r="N26" t="n">
-        <v>26000</v>
+        <v>28000</v>
       </c>
       <c r="O26" t="n">
-        <v>26000</v>
+        <v>28000</v>
       </c>
       <c r="P26" t="n">
-        <v>26000</v>
+        <v>28000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1444</v>
+        <v>1556</v>
       </c>
       <c r="T26" t="n">
         <v>18</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44382</v>
+        <v>44305</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2520,20 +2520,20 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N27" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="O27" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="P27" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1944</v>
+        <v>1667</v>
       </c>
       <c r="T27" t="n">
         <v>18</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44382</v>
+        <v>44312</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2604,16 +2604,16 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>30</v>
+        <v>160</v>
       </c>
       <c r="N28" t="n">
-        <v>32000</v>
+        <v>26000</v>
       </c>
       <c r="O28" t="n">
-        <v>32000</v>
+        <v>26000</v>
       </c>
       <c r="P28" t="n">
-        <v>32000</v>
+        <v>26000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1778</v>
+        <v>1444</v>
       </c>
       <c r="T28" t="n">
         <v>18</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44382</v>
+        <v>44438</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2680,20 +2680,20 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N29" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="O29" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="P29" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1667</v>
+        <v>1778</v>
       </c>
       <c r="T29" t="n">
         <v>18</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44326</v>
+        <v>44340</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2760,20 +2760,20 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="N30" t="n">
-        <v>35000</v>
+        <v>37000</v>
       </c>
       <c r="O30" t="n">
-        <v>35000</v>
+        <v>37000</v>
       </c>
       <c r="P30" t="n">
-        <v>35000</v>
+        <v>37000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1944</v>
+        <v>2056</v>
       </c>
       <c r="T30" t="n">
         <v>18</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44326</v>
+        <v>44340</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2840,20 +2840,20 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N31" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="O31" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="P31" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1667</v>
+        <v>1944</v>
       </c>
       <c r="T31" t="n">
         <v>18</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44326</v>
+        <v>44319</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2920,20 +2920,20 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="N32" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="O32" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="P32" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1556</v>
+        <v>1500</v>
       </c>
       <c r="T32" t="n">
         <v>18</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44529</v>
+        <v>44522</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3000,11 +3000,11 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N33" t="n">
         <v>60000</v>
@@ -3022,7 +3022,7 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="S33" t="n">
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44529</v>
+        <v>44522</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3080,20 +3080,20 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="N34" t="n">
-        <v>58000</v>
+        <v>56000</v>
       </c>
       <c r="O34" t="n">
-        <v>58000</v>
+        <v>56000</v>
       </c>
       <c r="P34" t="n">
-        <v>58000</v>
+        <v>56000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3102,11 +3102,11 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="S34" t="n">
-        <v>3222</v>
+        <v>3111</v>
       </c>
       <c r="T34" t="n">
         <v>18</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44452</v>
+        <v>44431</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N35" t="n">
-        <v>36000</v>
+        <v>32000</v>
       </c>
       <c r="O35" t="n">
-        <v>36000</v>
+        <v>32000</v>
       </c>
       <c r="P35" t="n">
-        <v>36000</v>
+        <v>32000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>2000</v>
+        <v>1778</v>
       </c>
       <c r="T35" t="n">
         <v>18</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44270</v>
+        <v>44529</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3244,16 +3244,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="N36" t="n">
-        <v>38000</v>
+        <v>60000</v>
       </c>
       <c r="O36" t="n">
-        <v>38000</v>
+        <v>60000</v>
       </c>
       <c r="P36" t="n">
-        <v>38000</v>
+        <v>60000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>2111</v>
+        <v>3333</v>
       </c>
       <c r="T36" t="n">
         <v>18</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44424</v>
+        <v>44529</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3324,16 +3324,16 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N37" t="n">
-        <v>32000</v>
+        <v>58000</v>
       </c>
       <c r="O37" t="n">
-        <v>32000</v>
+        <v>58000</v>
       </c>
       <c r="P37" t="n">
-        <v>32000</v>
+        <v>58000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1778</v>
+        <v>3222</v>
       </c>
       <c r="T37" t="n">
         <v>18</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44291</v>
+        <v>44459</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3404,16 +3404,16 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N38" t="n">
-        <v>25000</v>
+        <v>38000</v>
       </c>
       <c r="O38" t="n">
-        <v>25000</v>
+        <v>38000</v>
       </c>
       <c r="P38" t="n">
-        <v>25000</v>
+        <v>38000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>1389</v>
+        <v>2111</v>
       </c>
       <c r="T38" t="n">
         <v>18</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44333</v>
+        <v>44424</v>
       </c>
       <c r="E42" t="n">
         <v>13</v>
@@ -3727,13 +3727,13 @@
         <v>30</v>
       </c>
       <c r="N42" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="O42" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="P42" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>2111</v>
+        <v>1778</v>
       </c>
       <c r="T42" t="n">
         <v>18</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44333</v>
+        <v>44473</v>
       </c>
       <c r="E43" t="n">
         <v>13</v>
@@ -3800,20 +3800,20 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="N43" t="n">
-        <v>35000</v>
+        <v>75000</v>
       </c>
       <c r="O43" t="n">
-        <v>35000</v>
+        <v>75000</v>
       </c>
       <c r="P43" t="n">
-        <v>35000</v>
+        <v>75000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>1944</v>
+        <v>4167</v>
       </c>
       <c r="T43" t="n">
         <v>18</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44340</v>
+        <v>44473</v>
       </c>
       <c r="E44" t="n">
         <v>13</v>
@@ -3884,16 +3884,16 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="N44" t="n">
-        <v>37000</v>
+        <v>72000</v>
       </c>
       <c r="O44" t="n">
-        <v>37000</v>
+        <v>72000</v>
       </c>
       <c r="P44" t="n">
-        <v>37000</v>
+        <v>72000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>2056</v>
+        <v>4000</v>
       </c>
       <c r="T44" t="n">
         <v>18</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44340</v>
+        <v>44473</v>
       </c>
       <c r="E45" t="n">
         <v>13</v>
@@ -3964,16 +3964,16 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="N45" t="n">
-        <v>35000</v>
+        <v>67000</v>
       </c>
       <c r="O45" t="n">
-        <v>35000</v>
+        <v>67000</v>
       </c>
       <c r="P45" t="n">
-        <v>35000</v>
+        <v>67000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>1944</v>
+        <v>3722</v>
       </c>
       <c r="T45" t="n">
         <v>18</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44459</v>
+        <v>44333</v>
       </c>
       <c r="E46" t="n">
         <v>13</v>
@@ -4044,7 +4044,7 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N46" t="n">
         <v>38000</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44319</v>
+        <v>44333</v>
       </c>
       <c r="E47" t="n">
         <v>13</v>
@@ -4120,20 +4120,20 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>140</v>
+        <v>25</v>
       </c>
       <c r="N47" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="O47" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="P47" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>1500</v>
+        <v>1944</v>
       </c>
       <c r="T47" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Maracuyá.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Maracuyá.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44270</v>
+        <v>44435</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="N2" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="O2" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="P2" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>2111</v>
+        <v>1778</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44382</v>
+        <v>44389</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="N3" t="n">
-        <v>35000</v>
+        <v>29000</v>
       </c>
       <c r="O3" t="n">
-        <v>35000</v>
+        <v>29000</v>
       </c>
       <c r="P3" t="n">
-        <v>35000</v>
+        <v>29000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1944</v>
+        <v>1611</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44382</v>
+        <v>44389</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N4" t="n">
-        <v>32000</v>
+        <v>27000</v>
       </c>
       <c r="O4" t="n">
-        <v>32000</v>
+        <v>27000</v>
       </c>
       <c r="P4" t="n">
-        <v>32000</v>
+        <v>27000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1778</v>
+        <v>1500</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44382</v>
+        <v>44410</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M5" t="n">
         <v>15</v>
       </c>
       <c r="N5" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="O5" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="P5" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1667</v>
+        <v>1778</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44452</v>
+        <v>44410</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N6" t="n">
-        <v>36000</v>
+        <v>30000</v>
       </c>
       <c r="O6" t="n">
-        <v>36000</v>
+        <v>30000</v>
       </c>
       <c r="P6" t="n">
-        <v>36000</v>
+        <v>30000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>2000</v>
+        <v>1667</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44354</v>
+        <v>44410</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="N7" t="n">
-        <v>38000</v>
+        <v>28000</v>
       </c>
       <c r="O7" t="n">
-        <v>38000</v>
+        <v>28000</v>
       </c>
       <c r="P7" t="n">
-        <v>38000</v>
+        <v>28000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>2111</v>
+        <v>1556</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44389</v>
+        <v>44438</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N8" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="O8" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="P8" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1611</v>
+        <v>1778</v>
       </c>
       <c r="T8" t="n">
         <v>18</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44389</v>
+        <v>44277</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="N9" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="O9" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="P9" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1500</v>
+        <v>1667</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1160,20 +1160,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="N10" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="O10" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="P10" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1389</v>
+        <v>1556</v>
       </c>
       <c r="T10" t="n">
         <v>18</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44277</v>
+        <v>44466</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="N11" t="n">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="O11" t="n">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="P11" t="n">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1667</v>
+        <v>3333</v>
       </c>
       <c r="T11" t="n">
         <v>18</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44277</v>
+        <v>44466</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="N12" t="n">
-        <v>28000</v>
+        <v>58000</v>
       </c>
       <c r="O12" t="n">
-        <v>28000</v>
+        <v>58000</v>
       </c>
       <c r="P12" t="n">
-        <v>28000</v>
+        <v>58000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1556</v>
+        <v>3222</v>
       </c>
       <c r="T12" t="n">
         <v>18</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44466</v>
+        <v>44431</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N13" t="n">
-        <v>60000</v>
+        <v>32000</v>
       </c>
       <c r="O13" t="n">
-        <v>60000</v>
+        <v>32000</v>
       </c>
       <c r="P13" t="n">
-        <v>60000</v>
+        <v>32000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>3333</v>
+        <v>1778</v>
       </c>
       <c r="T13" t="n">
         <v>18</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44466</v>
+        <v>44522</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="N14" t="n">
-        <v>58000</v>
+        <v>60000</v>
       </c>
       <c r="O14" t="n">
-        <v>58000</v>
+        <v>60000</v>
       </c>
       <c r="P14" t="n">
-        <v>58000</v>
+        <v>60000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1502,11 +1502,11 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>3222</v>
+        <v>3333</v>
       </c>
       <c r="T14" t="n">
         <v>18</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44445</v>
+        <v>44522</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N15" t="n">
-        <v>32000</v>
+        <v>56000</v>
       </c>
       <c r="O15" t="n">
-        <v>32000</v>
+        <v>56000</v>
       </c>
       <c r="P15" t="n">
-        <v>32000</v>
+        <v>56000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1582,11 +1582,11 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1778</v>
+        <v>3111</v>
       </c>
       <c r="T15" t="n">
         <v>18</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44410</v>
+        <v>44396</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="N16" t="n">
-        <v>32000</v>
+        <v>37000</v>
       </c>
       <c r="O16" t="n">
-        <v>32000</v>
+        <v>37000</v>
       </c>
       <c r="P16" t="n">
-        <v>32000</v>
+        <v>37000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1778</v>
+        <v>2056</v>
       </c>
       <c r="T16" t="n">
         <v>18</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44410</v>
+        <v>44396</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N17" t="n">
-        <v>30000</v>
+        <v>34000</v>
       </c>
       <c r="O17" t="n">
-        <v>30000</v>
+        <v>34000</v>
       </c>
       <c r="P17" t="n">
-        <v>30000</v>
+        <v>34000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1667</v>
+        <v>1889</v>
       </c>
       <c r="T17" t="n">
         <v>18</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44410</v>
+        <v>44473</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1800,20 +1800,20 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M18" t="n">
         <v>10</v>
       </c>
       <c r="N18" t="n">
-        <v>28000</v>
+        <v>75000</v>
       </c>
       <c r="O18" t="n">
-        <v>28000</v>
+        <v>75000</v>
       </c>
       <c r="P18" t="n">
-        <v>28000</v>
+        <v>75000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1556</v>
+        <v>4167</v>
       </c>
       <c r="T18" t="n">
         <v>18</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44396</v>
+        <v>44473</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="N19" t="n">
-        <v>37000</v>
+        <v>72000</v>
       </c>
       <c r="O19" t="n">
-        <v>37000</v>
+        <v>72000</v>
       </c>
       <c r="P19" t="n">
-        <v>37000</v>
+        <v>72000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>2056</v>
+        <v>4000</v>
       </c>
       <c r="T19" t="n">
         <v>18</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44396</v>
+        <v>44473</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="N20" t="n">
-        <v>34000</v>
+        <v>67000</v>
       </c>
       <c r="O20" t="n">
-        <v>34000</v>
+        <v>67000</v>
       </c>
       <c r="P20" t="n">
-        <v>34000</v>
+        <v>67000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1889</v>
+        <v>3722</v>
       </c>
       <c r="T20" t="n">
         <v>18</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44435</v>
+        <v>44417</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N21" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="O21" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="P21" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1778</v>
+        <v>1556</v>
       </c>
       <c r="T21" t="n">
         <v>18</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44326</v>
+        <v>44305</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2200,20 +2200,20 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="N23" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="O23" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="P23" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1944</v>
+        <v>1667</v>
       </c>
       <c r="T23" t="n">
         <v>18</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44326</v>
+        <v>44354</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="N24" t="n">
-        <v>30000</v>
+        <v>38000</v>
       </c>
       <c r="O24" t="n">
-        <v>30000</v>
+        <v>38000</v>
       </c>
       <c r="P24" t="n">
-        <v>30000</v>
+        <v>38000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1667</v>
+        <v>2111</v>
       </c>
       <c r="T24" t="n">
         <v>18</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44326</v>
+        <v>44445</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2360,20 +2360,20 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N25" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="O25" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="P25" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1556</v>
+        <v>1778</v>
       </c>
       <c r="T25" t="n">
         <v>18</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44417</v>
+        <v>44312</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>15</v>
+        <v>160</v>
       </c>
       <c r="N26" t="n">
-        <v>28000</v>
+        <v>26000</v>
       </c>
       <c r="O26" t="n">
-        <v>28000</v>
+        <v>26000</v>
       </c>
       <c r="P26" t="n">
-        <v>28000</v>
+        <v>26000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1556</v>
+        <v>1444</v>
       </c>
       <c r="T26" t="n">
         <v>18</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44305</v>
+        <v>44382</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2520,20 +2520,20 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N27" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="O27" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="P27" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1667</v>
+        <v>1944</v>
       </c>
       <c r="T27" t="n">
         <v>18</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44312</v>
+        <v>44382</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2604,16 +2604,16 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>160</v>
+        <v>30</v>
       </c>
       <c r="N28" t="n">
-        <v>26000</v>
+        <v>32000</v>
       </c>
       <c r="O28" t="n">
-        <v>26000</v>
+        <v>32000</v>
       </c>
       <c r="P28" t="n">
-        <v>26000</v>
+        <v>32000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1444</v>
+        <v>1778</v>
       </c>
       <c r="T28" t="n">
         <v>18</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44438</v>
+        <v>44382</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2680,20 +2680,20 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N29" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="O29" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="P29" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1778</v>
+        <v>1667</v>
       </c>
       <c r="T29" t="n">
         <v>18</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44340</v>
+        <v>44326</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2760,20 +2760,20 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="N30" t="n">
-        <v>37000</v>
+        <v>35000</v>
       </c>
       <c r="O30" t="n">
-        <v>37000</v>
+        <v>35000</v>
       </c>
       <c r="P30" t="n">
-        <v>37000</v>
+        <v>35000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>2056</v>
+        <v>1944</v>
       </c>
       <c r="T30" t="n">
         <v>18</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44340</v>
+        <v>44326</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2840,20 +2840,20 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N31" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="O31" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="P31" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1944</v>
+        <v>1667</v>
       </c>
       <c r="T31" t="n">
         <v>18</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44319</v>
+        <v>44326</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2920,20 +2920,20 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="N32" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="O32" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="P32" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1500</v>
+        <v>1556</v>
       </c>
       <c r="T32" t="n">
         <v>18</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44522</v>
+        <v>44529</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3000,11 +3000,11 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N33" t="n">
         <v>60000</v>
@@ -3022,7 +3022,7 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S33" t="n">
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44522</v>
+        <v>44529</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3080,20 +3080,20 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="N34" t="n">
-        <v>56000</v>
+        <v>58000</v>
       </c>
       <c r="O34" t="n">
-        <v>56000</v>
+        <v>58000</v>
       </c>
       <c r="P34" t="n">
-        <v>56000</v>
+        <v>58000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3102,11 +3102,11 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S34" t="n">
-        <v>3111</v>
+        <v>3222</v>
       </c>
       <c r="T34" t="n">
         <v>18</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44431</v>
+        <v>44452</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N35" t="n">
-        <v>32000</v>
+        <v>36000</v>
       </c>
       <c r="O35" t="n">
-        <v>32000</v>
+        <v>36000</v>
       </c>
       <c r="P35" t="n">
-        <v>32000</v>
+        <v>36000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1778</v>
+        <v>2000</v>
       </c>
       <c r="T35" t="n">
         <v>18</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44529</v>
+        <v>44270</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3244,16 +3244,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="N36" t="n">
-        <v>60000</v>
+        <v>38000</v>
       </c>
       <c r="O36" t="n">
-        <v>60000</v>
+        <v>38000</v>
       </c>
       <c r="P36" t="n">
-        <v>60000</v>
+        <v>38000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>3333</v>
+        <v>2111</v>
       </c>
       <c r="T36" t="n">
         <v>18</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44529</v>
+        <v>44424</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3324,16 +3324,16 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N37" t="n">
-        <v>58000</v>
+        <v>32000</v>
       </c>
       <c r="O37" t="n">
-        <v>58000</v>
+        <v>32000</v>
       </c>
       <c r="P37" t="n">
-        <v>58000</v>
+        <v>32000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>3222</v>
+        <v>1778</v>
       </c>
       <c r="T37" t="n">
         <v>18</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44459</v>
+        <v>44291</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3404,16 +3404,16 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N38" t="n">
-        <v>38000</v>
+        <v>25000</v>
       </c>
       <c r="O38" t="n">
-        <v>38000</v>
+        <v>25000</v>
       </c>
       <c r="P38" t="n">
-        <v>38000</v>
+        <v>25000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>2111</v>
+        <v>1389</v>
       </c>
       <c r="T38" t="n">
         <v>18</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44424</v>
+        <v>44333</v>
       </c>
       <c r="E42" t="n">
         <v>13</v>
@@ -3727,13 +3727,13 @@
         <v>30</v>
       </c>
       <c r="N42" t="n">
-        <v>32000</v>
+        <v>38000</v>
       </c>
       <c r="O42" t="n">
-        <v>32000</v>
+        <v>38000</v>
       </c>
       <c r="P42" t="n">
-        <v>32000</v>
+        <v>38000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>1778</v>
+        <v>2111</v>
       </c>
       <c r="T42" t="n">
         <v>18</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44473</v>
+        <v>44333</v>
       </c>
       <c r="E43" t="n">
         <v>13</v>
@@ -3800,20 +3800,20 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="N43" t="n">
-        <v>75000</v>
+        <v>35000</v>
       </c>
       <c r="O43" t="n">
-        <v>75000</v>
+        <v>35000</v>
       </c>
       <c r="P43" t="n">
-        <v>75000</v>
+        <v>35000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>4167</v>
+        <v>1944</v>
       </c>
       <c r="T43" t="n">
         <v>18</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44473</v>
+        <v>44340</v>
       </c>
       <c r="E44" t="n">
         <v>13</v>
@@ -3884,16 +3884,16 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="N44" t="n">
-        <v>72000</v>
+        <v>37000</v>
       </c>
       <c r="O44" t="n">
-        <v>72000</v>
+        <v>37000</v>
       </c>
       <c r="P44" t="n">
-        <v>72000</v>
+        <v>37000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>4000</v>
+        <v>2056</v>
       </c>
       <c r="T44" t="n">
         <v>18</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44473</v>
+        <v>44340</v>
       </c>
       <c r="E45" t="n">
         <v>13</v>
@@ -3964,16 +3964,16 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="N45" t="n">
-        <v>67000</v>
+        <v>35000</v>
       </c>
       <c r="O45" t="n">
-        <v>67000</v>
+        <v>35000</v>
       </c>
       <c r="P45" t="n">
-        <v>67000</v>
+        <v>35000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>3722</v>
+        <v>1944</v>
       </c>
       <c r="T45" t="n">
         <v>18</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44333</v>
+        <v>44459</v>
       </c>
       <c r="E46" t="n">
         <v>13</v>
@@ -4044,7 +4044,7 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N46" t="n">
         <v>38000</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44333</v>
+        <v>44319</v>
       </c>
       <c r="E47" t="n">
         <v>13</v>
@@ -4120,20 +4120,20 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>25</v>
+        <v>140</v>
       </c>
       <c r="N47" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="O47" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="P47" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>1944</v>
+        <v>1500</v>
       </c>
       <c r="T47" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Maracuyá.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Maracuyá.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44270</v>
+        <v>44319</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="N2" t="n">
-        <v>38000</v>
+        <v>27000</v>
       </c>
       <c r="O2" t="n">
-        <v>38000</v>
+        <v>27000</v>
       </c>
       <c r="P2" t="n">
-        <v>38000</v>
+        <v>27000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>2111</v>
+        <v>1500</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44382</v>
+        <v>44438</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N3" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="O3" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="P3" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1944</v>
+        <v>1778</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44382</v>
+        <v>44277</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="N4" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="O4" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="P4" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1778</v>
+        <v>1667</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44382</v>
+        <v>44277</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="N5" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="O5" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="P5" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1667</v>
+        <v>1556</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44452</v>
+        <v>44326</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N6" t="n">
-        <v>36000</v>
+        <v>35000</v>
       </c>
       <c r="O6" t="n">
-        <v>36000</v>
+        <v>35000</v>
       </c>
       <c r="P6" t="n">
-        <v>36000</v>
+        <v>35000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>2000</v>
+        <v>1944</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44354</v>
+        <v>44326</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="N7" t="n">
-        <v>38000</v>
+        <v>30000</v>
       </c>
       <c r="O7" t="n">
-        <v>38000</v>
+        <v>30000</v>
       </c>
       <c r="P7" t="n">
-        <v>38000</v>
+        <v>30000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>2111</v>
+        <v>1667</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44389</v>
+        <v>44326</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="N8" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="O8" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="P8" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1611</v>
+        <v>1556</v>
       </c>
       <c r="T8" t="n">
         <v>18</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44389</v>
+        <v>44270</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="N9" t="n">
-        <v>27000</v>
+        <v>38000</v>
       </c>
       <c r="O9" t="n">
-        <v>27000</v>
+        <v>38000</v>
       </c>
       <c r="P9" t="n">
-        <v>27000</v>
+        <v>38000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1500</v>
+        <v>2111</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44291</v>
+        <v>44466</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N10" t="n">
-        <v>25000</v>
+        <v>60000</v>
       </c>
       <c r="O10" t="n">
-        <v>25000</v>
+        <v>60000</v>
       </c>
       <c r="P10" t="n">
-        <v>25000</v>
+        <v>60000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1389</v>
+        <v>3333</v>
       </c>
       <c r="T10" t="n">
         <v>18</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44277</v>
+        <v>44466</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1240,20 +1240,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="N11" t="n">
-        <v>30000</v>
+        <v>58000</v>
       </c>
       <c r="O11" t="n">
-        <v>30000</v>
+        <v>58000</v>
       </c>
       <c r="P11" t="n">
-        <v>30000</v>
+        <v>58000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1667</v>
+        <v>3222</v>
       </c>
       <c r="T11" t="n">
         <v>18</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44277</v>
+        <v>44312</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="N12" t="n">
-        <v>28000</v>
+        <v>26000</v>
       </c>
       <c r="O12" t="n">
-        <v>28000</v>
+        <v>26000</v>
       </c>
       <c r="P12" t="n">
-        <v>28000</v>
+        <v>26000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1556</v>
+        <v>1444</v>
       </c>
       <c r="T12" t="n">
         <v>18</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44466</v>
+        <v>44529</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1400,11 +1400,11 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N13" t="n">
         <v>60000</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44466</v>
+        <v>44529</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1480,11 +1480,11 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="N14" t="n">
         <v>58000</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44445</v>
+        <v>44459</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N15" t="n">
-        <v>32000</v>
+        <v>38000</v>
       </c>
       <c r="O15" t="n">
-        <v>32000</v>
+        <v>38000</v>
       </c>
       <c r="P15" t="n">
-        <v>32000</v>
+        <v>38000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1778</v>
+        <v>2111</v>
       </c>
       <c r="T15" t="n">
         <v>18</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44410</v>
+        <v>44396</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="N16" t="n">
-        <v>32000</v>
+        <v>37000</v>
       </c>
       <c r="O16" t="n">
-        <v>32000</v>
+        <v>37000</v>
       </c>
       <c r="P16" t="n">
-        <v>32000</v>
+        <v>37000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1778</v>
+        <v>2056</v>
       </c>
       <c r="T16" t="n">
         <v>18</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44410</v>
+        <v>44396</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N17" t="n">
-        <v>30000</v>
+        <v>34000</v>
       </c>
       <c r="O17" t="n">
-        <v>30000</v>
+        <v>34000</v>
       </c>
       <c r="P17" t="n">
-        <v>30000</v>
+        <v>34000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1667</v>
+        <v>1889</v>
       </c>
       <c r="T17" t="n">
         <v>18</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44410</v>
+        <v>44305</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1800,20 +1800,20 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="N18" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="O18" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="P18" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1556</v>
+        <v>1667</v>
       </c>
       <c r="T18" t="n">
         <v>18</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44396</v>
+        <v>44522</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="N19" t="n">
-        <v>37000</v>
+        <v>60000</v>
       </c>
       <c r="O19" t="n">
-        <v>37000</v>
+        <v>60000</v>
       </c>
       <c r="P19" t="n">
-        <v>37000</v>
+        <v>60000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1902,11 +1902,11 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="S19" t="n">
-        <v>2056</v>
+        <v>3333</v>
       </c>
       <c r="T19" t="n">
         <v>18</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44396</v>
+        <v>44522</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N20" t="n">
-        <v>34000</v>
+        <v>56000</v>
       </c>
       <c r="O20" t="n">
-        <v>34000</v>
+        <v>56000</v>
       </c>
       <c r="P20" t="n">
-        <v>34000</v>
+        <v>56000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1982,11 +1982,11 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1889</v>
+        <v>3111</v>
       </c>
       <c r="T20" t="n">
         <v>18</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44435</v>
+        <v>44424</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44284</v>
+        <v>44445</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="N22" t="n">
-        <v>23000</v>
+        <v>32000</v>
       </c>
       <c r="O22" t="n">
-        <v>23000</v>
+        <v>32000</v>
       </c>
       <c r="P22" t="n">
-        <v>23000</v>
+        <v>32000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1278</v>
+        <v>1778</v>
       </c>
       <c r="T22" t="n">
         <v>18</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44326</v>
+        <v>44452</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2200,20 +2200,20 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N23" t="n">
-        <v>35000</v>
+        <v>36000</v>
       </c>
       <c r="O23" t="n">
-        <v>35000</v>
+        <v>36000</v>
       </c>
       <c r="P23" t="n">
-        <v>35000</v>
+        <v>36000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1944</v>
+        <v>2000</v>
       </c>
       <c r="T23" t="n">
         <v>18</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44326</v>
+        <v>44435</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N24" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="O24" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="P24" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1667</v>
+        <v>1778</v>
       </c>
       <c r="T24" t="n">
         <v>18</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44326</v>
+        <v>44291</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2360,20 +2360,20 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N25" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="O25" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="P25" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1556</v>
+        <v>1389</v>
       </c>
       <c r="T25" t="n">
         <v>18</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44417</v>
+        <v>44354</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="N26" t="n">
-        <v>28000</v>
+        <v>38000</v>
       </c>
       <c r="O26" t="n">
-        <v>28000</v>
+        <v>38000</v>
       </c>
       <c r="P26" t="n">
-        <v>28000</v>
+        <v>38000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1556</v>
+        <v>2111</v>
       </c>
       <c r="T26" t="n">
         <v>18</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44305</v>
+        <v>44473</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2520,20 +2520,20 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="N27" t="n">
-        <v>30000</v>
+        <v>75000</v>
       </c>
       <c r="O27" t="n">
-        <v>30000</v>
+        <v>75000</v>
       </c>
       <c r="P27" t="n">
-        <v>30000</v>
+        <v>75000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1667</v>
+        <v>4167</v>
       </c>
       <c r="T27" t="n">
         <v>18</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44312</v>
+        <v>44473</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2604,16 +2604,16 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>160</v>
+        <v>25</v>
       </c>
       <c r="N28" t="n">
-        <v>26000</v>
+        <v>72000</v>
       </c>
       <c r="O28" t="n">
-        <v>26000</v>
+        <v>72000</v>
       </c>
       <c r="P28" t="n">
-        <v>26000</v>
+        <v>72000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1444</v>
+        <v>4000</v>
       </c>
       <c r="T28" t="n">
         <v>18</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44438</v>
+        <v>44473</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2680,20 +2680,20 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="N29" t="n">
-        <v>32000</v>
+        <v>67000</v>
       </c>
       <c r="O29" t="n">
-        <v>32000</v>
+        <v>67000</v>
       </c>
       <c r="P29" t="n">
-        <v>32000</v>
+        <v>67000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1778</v>
+        <v>3722</v>
       </c>
       <c r="T29" t="n">
         <v>18</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44340</v>
+        <v>44382</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2760,20 +2760,20 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="N30" t="n">
-        <v>37000</v>
+        <v>35000</v>
       </c>
       <c r="O30" t="n">
-        <v>37000</v>
+        <v>35000</v>
       </c>
       <c r="P30" t="n">
-        <v>37000</v>
+        <v>35000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>2056</v>
+        <v>1944</v>
       </c>
       <c r="T30" t="n">
         <v>18</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44340</v>
+        <v>44382</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2840,20 +2840,20 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N31" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="O31" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="P31" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1944</v>
+        <v>1778</v>
       </c>
       <c r="T31" t="n">
         <v>18</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44319</v>
+        <v>44382</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2920,20 +2920,20 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>140</v>
+        <v>15</v>
       </c>
       <c r="N32" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="O32" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="P32" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1500</v>
+        <v>1667</v>
       </c>
       <c r="T32" t="n">
         <v>18</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44522</v>
+        <v>44403</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3000,20 +3000,20 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M33" t="n">
         <v>25</v>
       </c>
       <c r="N33" t="n">
-        <v>60000</v>
+        <v>33000</v>
       </c>
       <c r="O33" t="n">
-        <v>60000</v>
+        <v>33000</v>
       </c>
       <c r="P33" t="n">
-        <v>60000</v>
+        <v>33000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3022,11 +3022,11 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S33" t="n">
-        <v>3333</v>
+        <v>1833</v>
       </c>
       <c r="T33" t="n">
         <v>18</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44522</v>
+        <v>44403</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3080,20 +3080,20 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="N34" t="n">
-        <v>56000</v>
+        <v>30000</v>
       </c>
       <c r="O34" t="n">
-        <v>56000</v>
+        <v>30000</v>
       </c>
       <c r="P34" t="n">
-        <v>56000</v>
+        <v>30000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3102,11 +3102,11 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S34" t="n">
-        <v>3111</v>
+        <v>1667</v>
       </c>
       <c r="T34" t="n">
         <v>18</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44431</v>
+        <v>44403</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3160,20 +3160,20 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N35" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="O35" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="P35" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1778</v>
+        <v>1556</v>
       </c>
       <c r="T35" t="n">
         <v>18</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44529</v>
+        <v>44340</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3240,20 +3240,20 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="N36" t="n">
-        <v>60000</v>
+        <v>37000</v>
       </c>
       <c r="O36" t="n">
-        <v>60000</v>
+        <v>37000</v>
       </c>
       <c r="P36" t="n">
-        <v>60000</v>
+        <v>37000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>3333</v>
+        <v>2056</v>
       </c>
       <c r="T36" t="n">
         <v>18</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44529</v>
+        <v>44340</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3320,20 +3320,20 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="N37" t="n">
-        <v>58000</v>
+        <v>35000</v>
       </c>
       <c r="O37" t="n">
-        <v>58000</v>
+        <v>35000</v>
       </c>
       <c r="P37" t="n">
-        <v>58000</v>
+        <v>35000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>3222</v>
+        <v>1944</v>
       </c>
       <c r="T37" t="n">
         <v>18</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44459</v>
+        <v>44389</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3404,16 +3404,16 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="N38" t="n">
-        <v>38000</v>
+        <v>29000</v>
       </c>
       <c r="O38" t="n">
-        <v>38000</v>
+        <v>29000</v>
       </c>
       <c r="P38" t="n">
-        <v>38000</v>
+        <v>29000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>2111</v>
+        <v>1611</v>
       </c>
       <c r="T38" t="n">
         <v>18</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44403</v>
+        <v>44389</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3480,20 +3480,20 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N39" t="n">
-        <v>33000</v>
+        <v>27000</v>
       </c>
       <c r="O39" t="n">
-        <v>33000</v>
+        <v>27000</v>
       </c>
       <c r="P39" t="n">
-        <v>33000</v>
+        <v>27000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1833</v>
+        <v>1500</v>
       </c>
       <c r="T39" t="n">
         <v>18</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44403</v>
+        <v>44284</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3564,16 +3564,16 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="N40" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="O40" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="P40" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>1667</v>
+        <v>1278</v>
       </c>
       <c r="T40" t="n">
         <v>18</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44403</v>
+        <v>44333</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3640,20 +3640,20 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N41" t="n">
-        <v>28000</v>
+        <v>38000</v>
       </c>
       <c r="O41" t="n">
-        <v>28000</v>
+        <v>38000</v>
       </c>
       <c r="P41" t="n">
-        <v>28000</v>
+        <v>38000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>1556</v>
+        <v>2111</v>
       </c>
       <c r="T41" t="n">
         <v>18</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44424</v>
+        <v>44333</v>
       </c>
       <c r="E42" t="n">
         <v>13</v>
@@ -3720,20 +3720,20 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N42" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="O42" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="P42" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>1778</v>
+        <v>1944</v>
       </c>
       <c r="T42" t="n">
         <v>18</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44473</v>
+        <v>44417</v>
       </c>
       <c r="E43" t="n">
         <v>13</v>
@@ -3800,20 +3800,20 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N43" t="n">
-        <v>75000</v>
+        <v>28000</v>
       </c>
       <c r="O43" t="n">
-        <v>75000</v>
+        <v>28000</v>
       </c>
       <c r="P43" t="n">
-        <v>75000</v>
+        <v>28000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>4167</v>
+        <v>1556</v>
       </c>
       <c r="T43" t="n">
         <v>18</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44473</v>
+        <v>44410</v>
       </c>
       <c r="E44" t="n">
         <v>13</v>
@@ -3880,20 +3880,20 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N44" t="n">
-        <v>72000</v>
+        <v>32000</v>
       </c>
       <c r="O44" t="n">
-        <v>72000</v>
+        <v>32000</v>
       </c>
       <c r="P44" t="n">
-        <v>72000</v>
+        <v>32000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>4000</v>
+        <v>1778</v>
       </c>
       <c r="T44" t="n">
         <v>18</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44473</v>
+        <v>44410</v>
       </c>
       <c r="E45" t="n">
         <v>13</v>
@@ -3960,20 +3960,20 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="N45" t="n">
-        <v>67000</v>
+        <v>30000</v>
       </c>
       <c r="O45" t="n">
-        <v>67000</v>
+        <v>30000</v>
       </c>
       <c r="P45" t="n">
-        <v>67000</v>
+        <v>30000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>3722</v>
+        <v>1667</v>
       </c>
       <c r="T45" t="n">
         <v>18</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44333</v>
+        <v>44410</v>
       </c>
       <c r="E46" t="n">
         <v>13</v>
@@ -4040,20 +4040,20 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="N46" t="n">
-        <v>38000</v>
+        <v>28000</v>
       </c>
       <c r="O46" t="n">
-        <v>38000</v>
+        <v>28000</v>
       </c>
       <c r="P46" t="n">
-        <v>38000</v>
+        <v>28000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>2111</v>
+        <v>1556</v>
       </c>
       <c r="T46" t="n">
         <v>18</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44333</v>
+        <v>44431</v>
       </c>
       <c r="E47" t="n">
         <v>13</v>
@@ -4120,20 +4120,20 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N47" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="O47" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="P47" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>1944</v>
+        <v>1778</v>
       </c>
       <c r="T47" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Maracuyá.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Maracuyá.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44319</v>
+        <v>44382</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="N2" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="O2" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="P2" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1500</v>
+        <v>1944</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44438</v>
+        <v>44382</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44277</v>
+        <v>44382</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -680,11 +680,11 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="N4" t="n">
         <v>30000</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44277</v>
+        <v>44438</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="N5" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="O5" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="P5" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1556</v>
+        <v>1778</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44326</v>
+        <v>44410</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N6" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="O6" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="P6" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1944</v>
+        <v>1778</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44326</v>
+        <v>44410</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44326</v>
+        <v>44410</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N8" t="n">
         <v>28000</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44270</v>
+        <v>44319</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="N9" t="n">
-        <v>38000</v>
+        <v>27000</v>
       </c>
       <c r="O9" t="n">
-        <v>38000</v>
+        <v>27000</v>
       </c>
       <c r="P9" t="n">
-        <v>38000</v>
+        <v>27000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>2111</v>
+        <v>1500</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44466</v>
+        <v>44340</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="N10" t="n">
-        <v>60000</v>
+        <v>37000</v>
       </c>
       <c r="O10" t="n">
-        <v>60000</v>
+        <v>37000</v>
       </c>
       <c r="P10" t="n">
-        <v>60000</v>
+        <v>37000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>3333</v>
+        <v>2056</v>
       </c>
       <c r="T10" t="n">
         <v>18</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44466</v>
+        <v>44340</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N11" t="n">
-        <v>58000</v>
+        <v>35000</v>
       </c>
       <c r="O11" t="n">
-        <v>58000</v>
+        <v>35000</v>
       </c>
       <c r="P11" t="n">
-        <v>58000</v>
+        <v>35000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>3222</v>
+        <v>1944</v>
       </c>
       <c r="T11" t="n">
         <v>18</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44312</v>
+        <v>44431</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>160</v>
+        <v>30</v>
       </c>
       <c r="N12" t="n">
-        <v>26000</v>
+        <v>32000</v>
       </c>
       <c r="O12" t="n">
-        <v>26000</v>
+        <v>32000</v>
       </c>
       <c r="P12" t="n">
-        <v>26000</v>
+        <v>32000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1444</v>
+        <v>1778</v>
       </c>
       <c r="T12" t="n">
         <v>18</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44529</v>
+        <v>44333</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N13" t="n">
-        <v>60000</v>
+        <v>38000</v>
       </c>
       <c r="O13" t="n">
-        <v>60000</v>
+        <v>38000</v>
       </c>
       <c r="P13" t="n">
-        <v>60000</v>
+        <v>38000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>3333</v>
+        <v>2111</v>
       </c>
       <c r="T13" t="n">
         <v>18</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44529</v>
+        <v>44333</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N14" t="n">
-        <v>58000</v>
+        <v>35000</v>
       </c>
       <c r="O14" t="n">
-        <v>58000</v>
+        <v>35000</v>
       </c>
       <c r="P14" t="n">
-        <v>58000</v>
+        <v>35000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>3222</v>
+        <v>1944</v>
       </c>
       <c r="T14" t="n">
         <v>18</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44459</v>
+        <v>44445</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N15" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="O15" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="P15" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>2111</v>
+        <v>1778</v>
       </c>
       <c r="T15" t="n">
         <v>18</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44396</v>
+        <v>44326</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="N16" t="n">
-        <v>37000</v>
+        <v>35000</v>
       </c>
       <c r="O16" t="n">
-        <v>37000</v>
+        <v>35000</v>
       </c>
       <c r="P16" t="n">
-        <v>37000</v>
+        <v>35000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>2056</v>
+        <v>1944</v>
       </c>
       <c r="T16" t="n">
         <v>18</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44396</v>
+        <v>44326</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N17" t="n">
-        <v>34000</v>
+        <v>30000</v>
       </c>
       <c r="O17" t="n">
-        <v>34000</v>
+        <v>30000</v>
       </c>
       <c r="P17" t="n">
-        <v>34000</v>
+        <v>30000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1889</v>
+        <v>1667</v>
       </c>
       <c r="T17" t="n">
         <v>18</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44305</v>
+        <v>44326</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1800,20 +1800,20 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N18" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="O18" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="P18" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1667</v>
+        <v>1556</v>
       </c>
       <c r="T18" t="n">
         <v>18</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44522</v>
+        <v>44417</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N19" t="n">
-        <v>60000</v>
+        <v>28000</v>
       </c>
       <c r="O19" t="n">
-        <v>60000</v>
+        <v>28000</v>
       </c>
       <c r="P19" t="n">
-        <v>60000</v>
+        <v>28000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1902,11 +1902,11 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S19" t="n">
-        <v>3333</v>
+        <v>1556</v>
       </c>
       <c r="T19" t="n">
         <v>18</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44522</v>
+        <v>44452</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1960,20 +1960,20 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M20" t="n">
         <v>20</v>
       </c>
       <c r="N20" t="n">
-        <v>56000</v>
+        <v>36000</v>
       </c>
       <c r="O20" t="n">
-        <v>56000</v>
+        <v>36000</v>
       </c>
       <c r="P20" t="n">
-        <v>56000</v>
+        <v>36000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1982,11 +1982,11 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S20" t="n">
-        <v>3111</v>
+        <v>2000</v>
       </c>
       <c r="T20" t="n">
         <v>18</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44424</v>
+        <v>44435</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44445</v>
+        <v>44312</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>30</v>
+        <v>160</v>
       </c>
       <c r="N22" t="n">
-        <v>32000</v>
+        <v>26000</v>
       </c>
       <c r="O22" t="n">
-        <v>32000</v>
+        <v>26000</v>
       </c>
       <c r="P22" t="n">
-        <v>32000</v>
+        <v>26000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1778</v>
+        <v>1444</v>
       </c>
       <c r="T22" t="n">
         <v>18</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44452</v>
+        <v>44389</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2204,16 +2204,16 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="N23" t="n">
-        <v>36000</v>
+        <v>29000</v>
       </c>
       <c r="O23" t="n">
-        <v>36000</v>
+        <v>29000</v>
       </c>
       <c r="P23" t="n">
-        <v>36000</v>
+        <v>29000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>2000</v>
+        <v>1611</v>
       </c>
       <c r="T23" t="n">
         <v>18</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44435</v>
+        <v>44389</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2280,20 +2280,20 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N24" t="n">
-        <v>32000</v>
+        <v>27000</v>
       </c>
       <c r="O24" t="n">
-        <v>32000</v>
+        <v>27000</v>
       </c>
       <c r="P24" t="n">
-        <v>32000</v>
+        <v>27000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1778</v>
+        <v>1500</v>
       </c>
       <c r="T24" t="n">
         <v>18</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44291</v>
+        <v>44396</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N25" t="n">
-        <v>25000</v>
+        <v>37000</v>
       </c>
       <c r="O25" t="n">
-        <v>25000</v>
+        <v>37000</v>
       </c>
       <c r="P25" t="n">
-        <v>25000</v>
+        <v>37000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1389</v>
+        <v>2056</v>
       </c>
       <c r="T25" t="n">
         <v>18</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44354</v>
+        <v>44396</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2440,20 +2440,20 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="N26" t="n">
-        <v>38000</v>
+        <v>34000</v>
       </c>
       <c r="O26" t="n">
-        <v>38000</v>
+        <v>34000</v>
       </c>
       <c r="P26" t="n">
-        <v>38000</v>
+        <v>34000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>2111</v>
+        <v>1889</v>
       </c>
       <c r="T26" t="n">
         <v>18</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44473</v>
+        <v>44277</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2520,20 +2520,20 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="N27" t="n">
-        <v>75000</v>
+        <v>30000</v>
       </c>
       <c r="O27" t="n">
-        <v>75000</v>
+        <v>30000</v>
       </c>
       <c r="P27" t="n">
-        <v>75000</v>
+        <v>30000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>4167</v>
+        <v>1667</v>
       </c>
       <c r="T27" t="n">
         <v>18</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44473</v>
+        <v>44277</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2600,20 +2600,20 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="N28" t="n">
-        <v>72000</v>
+        <v>28000</v>
       </c>
       <c r="O28" t="n">
-        <v>72000</v>
+        <v>28000</v>
       </c>
       <c r="P28" t="n">
-        <v>72000</v>
+        <v>28000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>4000</v>
+        <v>1556</v>
       </c>
       <c r="T28" t="n">
         <v>18</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44473</v>
+        <v>44522</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2680,20 +2680,20 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="N29" t="n">
-        <v>67000</v>
+        <v>60000</v>
       </c>
       <c r="O29" t="n">
-        <v>67000</v>
+        <v>60000</v>
       </c>
       <c r="P29" t="n">
-        <v>67000</v>
+        <v>60000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2702,11 +2702,11 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="S29" t="n">
-        <v>3722</v>
+        <v>3333</v>
       </c>
       <c r="T29" t="n">
         <v>18</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44382</v>
+        <v>44522</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2760,20 +2760,20 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M30" t="n">
         <v>20</v>
       </c>
       <c r="N30" t="n">
-        <v>35000</v>
+        <v>56000</v>
       </c>
       <c r="O30" t="n">
-        <v>35000</v>
+        <v>56000</v>
       </c>
       <c r="P30" t="n">
-        <v>35000</v>
+        <v>56000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2782,11 +2782,11 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1944</v>
+        <v>3111</v>
       </c>
       <c r="T30" t="n">
         <v>18</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44382</v>
+        <v>44270</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2840,20 +2840,20 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="N31" t="n">
-        <v>32000</v>
+        <v>38000</v>
       </c>
       <c r="O31" t="n">
-        <v>32000</v>
+        <v>38000</v>
       </c>
       <c r="P31" t="n">
-        <v>32000</v>
+        <v>38000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1778</v>
+        <v>2111</v>
       </c>
       <c r="T31" t="n">
         <v>18</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44382</v>
+        <v>44459</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2920,20 +2920,20 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N32" t="n">
-        <v>30000</v>
+        <v>38000</v>
       </c>
       <c r="O32" t="n">
-        <v>30000</v>
+        <v>38000</v>
       </c>
       <c r="P32" t="n">
-        <v>30000</v>
+        <v>38000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1667</v>
+        <v>2111</v>
       </c>
       <c r="T32" t="n">
         <v>18</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44403</v>
+        <v>44424</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3000,20 +3000,20 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N33" t="n">
-        <v>33000</v>
+        <v>32000</v>
       </c>
       <c r="O33" t="n">
-        <v>33000</v>
+        <v>32000</v>
       </c>
       <c r="P33" t="n">
-        <v>33000</v>
+        <v>32000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1833</v>
+        <v>1778</v>
       </c>
       <c r="T33" t="n">
         <v>18</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44403</v>
+        <v>44529</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3080,20 +3080,20 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="N34" t="n">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="O34" t="n">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="P34" t="n">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1667</v>
+        <v>3333</v>
       </c>
       <c r="T34" t="n">
         <v>18</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44403</v>
+        <v>44529</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3160,20 +3160,20 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="N35" t="n">
-        <v>28000</v>
+        <v>58000</v>
       </c>
       <c r="O35" t="n">
-        <v>28000</v>
+        <v>58000</v>
       </c>
       <c r="P35" t="n">
-        <v>28000</v>
+        <v>58000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1556</v>
+        <v>3222</v>
       </c>
       <c r="T35" t="n">
         <v>18</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44340</v>
+        <v>44466</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3244,16 +3244,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="N36" t="n">
-        <v>37000</v>
+        <v>60000</v>
       </c>
       <c r="O36" t="n">
-        <v>37000</v>
+        <v>60000</v>
       </c>
       <c r="P36" t="n">
-        <v>37000</v>
+        <v>60000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>2056</v>
+        <v>3333</v>
       </c>
       <c r="T36" t="n">
         <v>18</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44340</v>
+        <v>44466</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3324,16 +3324,16 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N37" t="n">
-        <v>35000</v>
+        <v>58000</v>
       </c>
       <c r="O37" t="n">
-        <v>35000</v>
+        <v>58000</v>
       </c>
       <c r="P37" t="n">
-        <v>35000</v>
+        <v>58000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1944</v>
+        <v>3222</v>
       </c>
       <c r="T37" t="n">
         <v>18</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44389</v>
+        <v>44473</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3400,20 +3400,20 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="N38" t="n">
-        <v>29000</v>
+        <v>75000</v>
       </c>
       <c r="O38" t="n">
-        <v>29000</v>
+        <v>75000</v>
       </c>
       <c r="P38" t="n">
-        <v>29000</v>
+        <v>75000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>1611</v>
+        <v>4167</v>
       </c>
       <c r="T38" t="n">
         <v>18</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44389</v>
+        <v>44473</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3480,20 +3480,20 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N39" t="n">
-        <v>27000</v>
+        <v>72000</v>
       </c>
       <c r="O39" t="n">
-        <v>27000</v>
+        <v>72000</v>
       </c>
       <c r="P39" t="n">
-        <v>27000</v>
+        <v>72000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1500</v>
+        <v>4000</v>
       </c>
       <c r="T39" t="n">
         <v>18</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44284</v>
+        <v>44473</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3560,20 +3560,20 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>120</v>
+        <v>5</v>
       </c>
       <c r="N40" t="n">
-        <v>23000</v>
+        <v>67000</v>
       </c>
       <c r="O40" t="n">
-        <v>23000</v>
+        <v>67000</v>
       </c>
       <c r="P40" t="n">
-        <v>23000</v>
+        <v>67000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>1278</v>
+        <v>3722</v>
       </c>
       <c r="T40" t="n">
         <v>18</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44333</v>
+        <v>44354</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3644,7 +3644,7 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N41" t="n">
         <v>38000</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44333</v>
+        <v>44403</v>
       </c>
       <c r="E42" t="n">
         <v>13</v>
@@ -3720,20 +3720,20 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M42" t="n">
         <v>25</v>
       </c>
       <c r="N42" t="n">
-        <v>35000</v>
+        <v>33000</v>
       </c>
       <c r="O42" t="n">
-        <v>35000</v>
+        <v>33000</v>
       </c>
       <c r="P42" t="n">
-        <v>35000</v>
+        <v>33000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>1944</v>
+        <v>1833</v>
       </c>
       <c r="T42" t="n">
         <v>18</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44417</v>
+        <v>44403</v>
       </c>
       <c r="E43" t="n">
         <v>13</v>
@@ -3804,16 +3804,16 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="N43" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="O43" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="P43" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>1556</v>
+        <v>1667</v>
       </c>
       <c r="T43" t="n">
         <v>18</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44410</v>
+        <v>44403</v>
       </c>
       <c r="E44" t="n">
         <v>13</v>
@@ -3880,20 +3880,20 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M44" t="n">
         <v>15</v>
       </c>
       <c r="N44" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="O44" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="P44" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>1778</v>
+        <v>1556</v>
       </c>
       <c r="T44" t="n">
         <v>18</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44410</v>
+        <v>44284</v>
       </c>
       <c r="E45" t="n">
         <v>13</v>
@@ -3964,16 +3964,16 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="N45" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="O45" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="P45" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>1667</v>
+        <v>1278</v>
       </c>
       <c r="T45" t="n">
         <v>18</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44410</v>
+        <v>44305</v>
       </c>
       <c r="E46" t="n">
         <v>13</v>
@@ -4040,20 +4040,20 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="N46" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="O46" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="P46" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>1556</v>
+        <v>1667</v>
       </c>
       <c r="T46" t="n">
         <v>18</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44431</v>
+        <v>44291</v>
       </c>
       <c r="E47" t="n">
         <v>13</v>
@@ -4127,13 +4127,13 @@
         <v>30</v>
       </c>
       <c r="N47" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="O47" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="P47" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>1778</v>
+        <v>1389</v>
       </c>
       <c r="T47" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Maracuyá.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Maracuyá.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44382</v>
+        <v>44284</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="N2" t="n">
-        <v>35000</v>
+        <v>23000</v>
       </c>
       <c r="O2" t="n">
-        <v>35000</v>
+        <v>23000</v>
       </c>
       <c r="P2" t="n">
-        <v>35000</v>
+        <v>23000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1944</v>
+        <v>1278</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44382</v>
+        <v>44340</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N3" t="n">
-        <v>32000</v>
+        <v>37000</v>
       </c>
       <c r="O3" t="n">
-        <v>32000</v>
+        <v>37000</v>
       </c>
       <c r="P3" t="n">
-        <v>32000</v>
+        <v>37000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1778</v>
+        <v>2056</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44382</v>
+        <v>44340</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N4" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="O4" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="P4" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1667</v>
+        <v>1944</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44438</v>
+        <v>44277</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="N5" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="O5" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="P5" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1778</v>
+        <v>1667</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44410</v>
+        <v>44277</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="N6" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="O6" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="P6" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1778</v>
+        <v>1556</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44410</v>
+        <v>44382</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N7" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="O7" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="P7" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1667</v>
+        <v>1944</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44410</v>
+        <v>44382</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="N8" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="O8" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="P8" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1556</v>
+        <v>1778</v>
       </c>
       <c r="T8" t="n">
         <v>18</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44319</v>
+        <v>44382</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>140</v>
+        <v>15</v>
       </c>
       <c r="N9" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="O9" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="P9" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1500</v>
+        <v>1667</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44340</v>
+        <v>44319</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>35</v>
+        <v>140</v>
       </c>
       <c r="N10" t="n">
-        <v>37000</v>
+        <v>27000</v>
       </c>
       <c r="O10" t="n">
-        <v>37000</v>
+        <v>27000</v>
       </c>
       <c r="P10" t="n">
-        <v>37000</v>
+        <v>27000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>2056</v>
+        <v>1500</v>
       </c>
       <c r="T10" t="n">
         <v>18</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44340</v>
+        <v>44529</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1240,20 +1240,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M11" t="n">
         <v>20</v>
       </c>
       <c r="N11" t="n">
-        <v>35000</v>
+        <v>60000</v>
       </c>
       <c r="O11" t="n">
-        <v>35000</v>
+        <v>60000</v>
       </c>
       <c r="P11" t="n">
-        <v>35000</v>
+        <v>60000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1944</v>
+        <v>3333</v>
       </c>
       <c r="T11" t="n">
         <v>18</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44431</v>
+        <v>44529</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N12" t="n">
-        <v>32000</v>
+        <v>58000</v>
       </c>
       <c r="O12" t="n">
-        <v>32000</v>
+        <v>58000</v>
       </c>
       <c r="P12" t="n">
-        <v>32000</v>
+        <v>58000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1778</v>
+        <v>3222</v>
       </c>
       <c r="T12" t="n">
         <v>18</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44333</v>
+        <v>44396</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N13" t="n">
-        <v>38000</v>
+        <v>37000</v>
       </c>
       <c r="O13" t="n">
-        <v>38000</v>
+        <v>37000</v>
       </c>
       <c r="P13" t="n">
-        <v>38000</v>
+        <v>37000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>2111</v>
+        <v>2056</v>
       </c>
       <c r="T13" t="n">
         <v>18</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44333</v>
+        <v>44396</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N14" t="n">
-        <v>35000</v>
+        <v>34000</v>
       </c>
       <c r="O14" t="n">
-        <v>35000</v>
+        <v>34000</v>
       </c>
       <c r="P14" t="n">
-        <v>35000</v>
+        <v>34000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1944</v>
+        <v>1889</v>
       </c>
       <c r="T14" t="n">
         <v>18</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44445</v>
+        <v>44522</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N15" t="n">
-        <v>32000</v>
+        <v>60000</v>
       </c>
       <c r="O15" t="n">
-        <v>32000</v>
+        <v>60000</v>
       </c>
       <c r="P15" t="n">
-        <v>32000</v>
+        <v>60000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1582,11 +1582,11 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1778</v>
+        <v>3333</v>
       </c>
       <c r="T15" t="n">
         <v>18</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44326</v>
+        <v>44522</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N16" t="n">
-        <v>35000</v>
+        <v>56000</v>
       </c>
       <c r="O16" t="n">
-        <v>35000</v>
+        <v>56000</v>
       </c>
       <c r="P16" t="n">
-        <v>35000</v>
+        <v>56000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1662,11 +1662,11 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1944</v>
+        <v>3111</v>
       </c>
       <c r="T16" t="n">
         <v>18</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44326</v>
+        <v>44291</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N17" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="O17" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="P17" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1667</v>
+        <v>1389</v>
       </c>
       <c r="T17" t="n">
         <v>18</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44326</v>
+        <v>44459</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1800,20 +1800,20 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N18" t="n">
-        <v>28000</v>
+        <v>38000</v>
       </c>
       <c r="O18" t="n">
-        <v>28000</v>
+        <v>38000</v>
       </c>
       <c r="P18" t="n">
-        <v>28000</v>
+        <v>38000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1556</v>
+        <v>2111</v>
       </c>
       <c r="T18" t="n">
         <v>18</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44417</v>
+        <v>44354</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="N19" t="n">
-        <v>28000</v>
+        <v>38000</v>
       </c>
       <c r="O19" t="n">
-        <v>28000</v>
+        <v>38000</v>
       </c>
       <c r="P19" t="n">
-        <v>28000</v>
+        <v>38000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1556</v>
+        <v>2111</v>
       </c>
       <c r="T19" t="n">
         <v>18</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44452</v>
+        <v>44305</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N20" t="n">
-        <v>36000</v>
+        <v>30000</v>
       </c>
       <c r="O20" t="n">
-        <v>36000</v>
+        <v>30000</v>
       </c>
       <c r="P20" t="n">
-        <v>36000</v>
+        <v>30000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>2000</v>
+        <v>1667</v>
       </c>
       <c r="T20" t="n">
         <v>18</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44435</v>
+        <v>44333</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2047,13 +2047,13 @@
         <v>30</v>
       </c>
       <c r="N21" t="n">
-        <v>32000</v>
+        <v>38000</v>
       </c>
       <c r="O21" t="n">
-        <v>32000</v>
+        <v>38000</v>
       </c>
       <c r="P21" t="n">
-        <v>32000</v>
+        <v>38000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1778</v>
+        <v>2111</v>
       </c>
       <c r="T21" t="n">
         <v>18</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44312</v>
+        <v>44333</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2120,20 +2120,20 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>160</v>
+        <v>25</v>
       </c>
       <c r="N22" t="n">
-        <v>26000</v>
+        <v>35000</v>
       </c>
       <c r="O22" t="n">
-        <v>26000</v>
+        <v>35000</v>
       </c>
       <c r="P22" t="n">
-        <v>26000</v>
+        <v>35000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1444</v>
+        <v>1944</v>
       </c>
       <c r="T22" t="n">
         <v>18</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44389</v>
+        <v>44403</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2200,20 +2200,20 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="N23" t="n">
-        <v>29000</v>
+        <v>33000</v>
       </c>
       <c r="O23" t="n">
-        <v>29000</v>
+        <v>33000</v>
       </c>
       <c r="P23" t="n">
-        <v>29000</v>
+        <v>33000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1611</v>
+        <v>1833</v>
       </c>
       <c r="T23" t="n">
         <v>18</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44389</v>
+        <v>44403</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2280,20 +2280,20 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="N24" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="O24" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="P24" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1500</v>
+        <v>1667</v>
       </c>
       <c r="T24" t="n">
         <v>18</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44396</v>
+        <v>44403</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2360,20 +2360,20 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="N25" t="n">
-        <v>37000</v>
+        <v>28000</v>
       </c>
       <c r="O25" t="n">
-        <v>37000</v>
+        <v>28000</v>
       </c>
       <c r="P25" t="n">
-        <v>37000</v>
+        <v>28000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>2056</v>
+        <v>1556</v>
       </c>
       <c r="T25" t="n">
         <v>18</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44396</v>
+        <v>44326</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2440,20 +2440,20 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N26" t="n">
-        <v>34000</v>
+        <v>35000</v>
       </c>
       <c r="O26" t="n">
-        <v>34000</v>
+        <v>35000</v>
       </c>
       <c r="P26" t="n">
-        <v>34000</v>
+        <v>35000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1889</v>
+        <v>1944</v>
       </c>
       <c r="T26" t="n">
         <v>18</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44277</v>
+        <v>44326</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2524,7 +2524,7 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="N27" t="n">
         <v>30000</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44277</v>
+        <v>44326</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2604,7 +2604,7 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="N28" t="n">
         <v>28000</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44522</v>
+        <v>44452</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2684,16 +2684,16 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N29" t="n">
-        <v>60000</v>
+        <v>36000</v>
       </c>
       <c r="O29" t="n">
-        <v>60000</v>
+        <v>36000</v>
       </c>
       <c r="P29" t="n">
-        <v>60000</v>
+        <v>36000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2702,11 +2702,11 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S29" t="n">
-        <v>3333</v>
+        <v>2000</v>
       </c>
       <c r="T29" t="n">
         <v>18</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44522</v>
+        <v>44445</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2760,20 +2760,20 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N30" t="n">
-        <v>56000</v>
+        <v>32000</v>
       </c>
       <c r="O30" t="n">
-        <v>56000</v>
+        <v>32000</v>
       </c>
       <c r="P30" t="n">
-        <v>56000</v>
+        <v>32000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2782,11 +2782,11 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S30" t="n">
-        <v>3111</v>
+        <v>1778</v>
       </c>
       <c r="T30" t="n">
         <v>18</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44270</v>
+        <v>44389</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2840,20 +2840,20 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="N31" t="n">
-        <v>38000</v>
+        <v>29000</v>
       </c>
       <c r="O31" t="n">
-        <v>38000</v>
+        <v>29000</v>
       </c>
       <c r="P31" t="n">
-        <v>38000</v>
+        <v>29000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>2111</v>
+        <v>1611</v>
       </c>
       <c r="T31" t="n">
         <v>18</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44459</v>
+        <v>44389</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2920,20 +2920,20 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N32" t="n">
-        <v>38000</v>
+        <v>27000</v>
       </c>
       <c r="O32" t="n">
-        <v>38000</v>
+        <v>27000</v>
       </c>
       <c r="P32" t="n">
-        <v>38000</v>
+        <v>27000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>2111</v>
+        <v>1500</v>
       </c>
       <c r="T32" t="n">
         <v>18</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44424</v>
+        <v>44410</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3000,11 +3000,11 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N33" t="n">
         <v>32000</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44529</v>
+        <v>44410</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3080,20 +3080,20 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N34" t="n">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="O34" t="n">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="P34" t="n">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>3333</v>
+        <v>1667</v>
       </c>
       <c r="T34" t="n">
         <v>18</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44529</v>
+        <v>44410</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3160,20 +3160,20 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="N35" t="n">
-        <v>58000</v>
+        <v>28000</v>
       </c>
       <c r="O35" t="n">
-        <v>58000</v>
+        <v>28000</v>
       </c>
       <c r="P35" t="n">
-        <v>58000</v>
+        <v>28000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>3222</v>
+        <v>1556</v>
       </c>
       <c r="T35" t="n">
         <v>18</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44473</v>
+        <v>44312</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3400,20 +3400,20 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="N38" t="n">
-        <v>75000</v>
+        <v>26000</v>
       </c>
       <c r="O38" t="n">
-        <v>75000</v>
+        <v>26000</v>
       </c>
       <c r="P38" t="n">
-        <v>75000</v>
+        <v>26000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>4167</v>
+        <v>1444</v>
       </c>
       <c r="T38" t="n">
         <v>18</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44473</v>
+        <v>44270</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3480,20 +3480,20 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="N39" t="n">
-        <v>72000</v>
+        <v>38000</v>
       </c>
       <c r="O39" t="n">
-        <v>72000</v>
+        <v>38000</v>
       </c>
       <c r="P39" t="n">
-        <v>72000</v>
+        <v>38000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>4000</v>
+        <v>2111</v>
       </c>
       <c r="T39" t="n">
         <v>18</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44473</v>
+        <v>44431</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3560,20 +3560,20 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="N40" t="n">
-        <v>67000</v>
+        <v>32000</v>
       </c>
       <c r="O40" t="n">
-        <v>67000</v>
+        <v>32000</v>
       </c>
       <c r="P40" t="n">
-        <v>67000</v>
+        <v>32000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>3722</v>
+        <v>1778</v>
       </c>
       <c r="T40" t="n">
         <v>18</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44354</v>
+        <v>44435</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3644,16 +3644,16 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N41" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="O41" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="P41" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>2111</v>
+        <v>1778</v>
       </c>
       <c r="T41" t="n">
         <v>18</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44403</v>
+        <v>44473</v>
       </c>
       <c r="E42" t="n">
         <v>13</v>
@@ -3724,16 +3724,16 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="N42" t="n">
-        <v>33000</v>
+        <v>75000</v>
       </c>
       <c r="O42" t="n">
-        <v>33000</v>
+        <v>75000</v>
       </c>
       <c r="P42" t="n">
-        <v>33000</v>
+        <v>75000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>1833</v>
+        <v>4167</v>
       </c>
       <c r="T42" t="n">
         <v>18</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44403</v>
+        <v>44473</v>
       </c>
       <c r="E43" t="n">
         <v>13</v>
@@ -3804,16 +3804,16 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="N43" t="n">
-        <v>30000</v>
+        <v>72000</v>
       </c>
       <c r="O43" t="n">
-        <v>30000</v>
+        <v>72000</v>
       </c>
       <c r="P43" t="n">
-        <v>30000</v>
+        <v>72000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>1667</v>
+        <v>4000</v>
       </c>
       <c r="T43" t="n">
         <v>18</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44403</v>
+        <v>44473</v>
       </c>
       <c r="E44" t="n">
         <v>13</v>
@@ -3884,16 +3884,16 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="N44" t="n">
-        <v>28000</v>
+        <v>67000</v>
       </c>
       <c r="O44" t="n">
-        <v>28000</v>
+        <v>67000</v>
       </c>
       <c r="P44" t="n">
-        <v>28000</v>
+        <v>67000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>1556</v>
+        <v>3722</v>
       </c>
       <c r="T44" t="n">
         <v>18</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44284</v>
+        <v>44424</v>
       </c>
       <c r="E45" t="n">
         <v>13</v>
@@ -3964,16 +3964,16 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="N45" t="n">
-        <v>23000</v>
+        <v>32000</v>
       </c>
       <c r="O45" t="n">
-        <v>23000</v>
+        <v>32000</v>
       </c>
       <c r="P45" t="n">
-        <v>23000</v>
+        <v>32000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>1278</v>
+        <v>1778</v>
       </c>
       <c r="T45" t="n">
         <v>18</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44305</v>
+        <v>44438</v>
       </c>
       <c r="E46" t="n">
         <v>13</v>
@@ -4044,16 +4044,16 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N46" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="O46" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="P46" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>1667</v>
+        <v>1778</v>
       </c>
       <c r="T46" t="n">
         <v>18</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44291</v>
+        <v>44417</v>
       </c>
       <c r="E47" t="n">
         <v>13</v>
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N47" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="O47" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="P47" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>1389</v>
+        <v>1556</v>
       </c>
       <c r="T47" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Maracuyá.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Maracuyá.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44284</v>
+        <v>44459</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>120</v>
+        <v>25</v>
       </c>
       <c r="N2" t="n">
-        <v>23000</v>
+        <v>38000</v>
       </c>
       <c r="O2" t="n">
-        <v>23000</v>
+        <v>38000</v>
       </c>
       <c r="P2" t="n">
-        <v>23000</v>
+        <v>38000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1278</v>
+        <v>2111</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44340</v>
+        <v>44277</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>37000</v>
+        <v>30000</v>
       </c>
       <c r="O3" t="n">
-        <v>37000</v>
+        <v>30000</v>
       </c>
       <c r="P3" t="n">
-        <v>37000</v>
+        <v>30000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>2056</v>
+        <v>1667</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44340</v>
+        <v>44277</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="N4" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="O4" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="P4" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1944</v>
+        <v>1556</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44277</v>
+        <v>44319</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="N5" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="O5" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="P5" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1667</v>
+        <v>1500</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44277</v>
+        <v>44312</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="N6" t="n">
-        <v>28000</v>
+        <v>26000</v>
       </c>
       <c r="O6" t="n">
-        <v>28000</v>
+        <v>26000</v>
       </c>
       <c r="P6" t="n">
-        <v>28000</v>
+        <v>26000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1556</v>
+        <v>1444</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44382</v>
+        <v>44333</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N7" t="n">
-        <v>35000</v>
+        <v>38000</v>
       </c>
       <c r="O7" t="n">
-        <v>35000</v>
+        <v>38000</v>
       </c>
       <c r="P7" t="n">
-        <v>35000</v>
+        <v>38000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1944</v>
+        <v>2111</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44382</v>
+        <v>44333</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N8" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="O8" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="P8" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1778</v>
+        <v>1944</v>
       </c>
       <c r="T8" t="n">
         <v>18</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44382</v>
+        <v>44389</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="N9" t="n">
-        <v>30000</v>
+        <v>29000</v>
       </c>
       <c r="O9" t="n">
-        <v>30000</v>
+        <v>29000</v>
       </c>
       <c r="P9" t="n">
-        <v>30000</v>
+        <v>29000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1667</v>
+        <v>1611</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44319</v>
+        <v>44389</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1160,11 +1160,11 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="N10" t="n">
         <v>27000</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44529</v>
+        <v>44445</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1240,20 +1240,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N11" t="n">
-        <v>60000</v>
+        <v>32000</v>
       </c>
       <c r="O11" t="n">
-        <v>60000</v>
+        <v>32000</v>
       </c>
       <c r="P11" t="n">
-        <v>60000</v>
+        <v>32000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>3333</v>
+        <v>1778</v>
       </c>
       <c r="T11" t="n">
         <v>18</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44529</v>
+        <v>44284</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="N12" t="n">
-        <v>58000</v>
+        <v>23000</v>
       </c>
       <c r="O12" t="n">
-        <v>58000</v>
+        <v>23000</v>
       </c>
       <c r="P12" t="n">
-        <v>58000</v>
+        <v>23000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>3222</v>
+        <v>1278</v>
       </c>
       <c r="T12" t="n">
         <v>18</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44396</v>
+        <v>44438</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N13" t="n">
-        <v>37000</v>
+        <v>32000</v>
       </c>
       <c r="O13" t="n">
-        <v>37000</v>
+        <v>32000</v>
       </c>
       <c r="P13" t="n">
-        <v>37000</v>
+        <v>32000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>2056</v>
+        <v>1778</v>
       </c>
       <c r="T13" t="n">
         <v>18</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44396</v>
+        <v>44354</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="N14" t="n">
-        <v>34000</v>
+        <v>38000</v>
       </c>
       <c r="O14" t="n">
-        <v>34000</v>
+        <v>38000</v>
       </c>
       <c r="P14" t="n">
-        <v>34000</v>
+        <v>38000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1889</v>
+        <v>2111</v>
       </c>
       <c r="T14" t="n">
         <v>18</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44522</v>
+        <v>44473</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="N15" t="n">
-        <v>60000</v>
+        <v>75000</v>
       </c>
       <c r="O15" t="n">
-        <v>60000</v>
+        <v>75000</v>
       </c>
       <c r="P15" t="n">
-        <v>60000</v>
+        <v>75000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1582,11 +1582,11 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>3333</v>
+        <v>4167</v>
       </c>
       <c r="T15" t="n">
         <v>18</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44522</v>
+        <v>44473</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N16" t="n">
-        <v>56000</v>
+        <v>72000</v>
       </c>
       <c r="O16" t="n">
-        <v>56000</v>
+        <v>72000</v>
       </c>
       <c r="P16" t="n">
-        <v>56000</v>
+        <v>72000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1662,11 +1662,11 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>3111</v>
+        <v>4000</v>
       </c>
       <c r="T16" t="n">
         <v>18</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44291</v>
+        <v>44473</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="N17" t="n">
-        <v>25000</v>
+        <v>67000</v>
       </c>
       <c r="O17" t="n">
-        <v>25000</v>
+        <v>67000</v>
       </c>
       <c r="P17" t="n">
-        <v>25000</v>
+        <v>67000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1389</v>
+        <v>3722</v>
       </c>
       <c r="T17" t="n">
         <v>18</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44459</v>
+        <v>44466</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N18" t="n">
-        <v>38000</v>
+        <v>60000</v>
       </c>
       <c r="O18" t="n">
-        <v>38000</v>
+        <v>60000</v>
       </c>
       <c r="P18" t="n">
-        <v>38000</v>
+        <v>60000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>2111</v>
+        <v>3333</v>
       </c>
       <c r="T18" t="n">
         <v>18</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44354</v>
+        <v>44466</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="N19" t="n">
-        <v>38000</v>
+        <v>58000</v>
       </c>
       <c r="O19" t="n">
-        <v>38000</v>
+        <v>58000</v>
       </c>
       <c r="P19" t="n">
-        <v>38000</v>
+        <v>58000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>2111</v>
+        <v>3222</v>
       </c>
       <c r="T19" t="n">
         <v>18</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44305</v>
+        <v>44340</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="N20" t="n">
-        <v>30000</v>
+        <v>37000</v>
       </c>
       <c r="O20" t="n">
-        <v>30000</v>
+        <v>37000</v>
       </c>
       <c r="P20" t="n">
-        <v>30000</v>
+        <v>37000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1667</v>
+        <v>2056</v>
       </c>
       <c r="T20" t="n">
         <v>18</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44333</v>
+        <v>44340</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2040,20 +2040,20 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N21" t="n">
-        <v>38000</v>
+        <v>35000</v>
       </c>
       <c r="O21" t="n">
-        <v>38000</v>
+        <v>35000</v>
       </c>
       <c r="P21" t="n">
-        <v>38000</v>
+        <v>35000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>2111</v>
+        <v>1944</v>
       </c>
       <c r="T21" t="n">
         <v>18</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44333</v>
+        <v>44410</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2120,20 +2120,20 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N22" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="O22" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="P22" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1944</v>
+        <v>1778</v>
       </c>
       <c r="T22" t="n">
         <v>18</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44403</v>
+        <v>44410</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2200,20 +2200,20 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M23" t="n">
         <v>25</v>
       </c>
       <c r="N23" t="n">
-        <v>33000</v>
+        <v>30000</v>
       </c>
       <c r="O23" t="n">
-        <v>33000</v>
+        <v>30000</v>
       </c>
       <c r="P23" t="n">
-        <v>33000</v>
+        <v>30000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1833</v>
+        <v>1667</v>
       </c>
       <c r="T23" t="n">
         <v>18</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44403</v>
+        <v>44410</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2280,20 +2280,20 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="N24" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="O24" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="P24" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1667</v>
+        <v>1556</v>
       </c>
       <c r="T24" t="n">
         <v>18</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44403</v>
+        <v>44424</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2360,20 +2360,20 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N25" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="O25" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="P25" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1556</v>
+        <v>1778</v>
       </c>
       <c r="T25" t="n">
         <v>18</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44326</v>
+        <v>44522</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2440,20 +2440,20 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="N26" t="n">
-        <v>35000</v>
+        <v>60000</v>
       </c>
       <c r="O26" t="n">
-        <v>35000</v>
+        <v>60000</v>
       </c>
       <c r="P26" t="n">
-        <v>35000</v>
+        <v>60000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2462,11 +2462,11 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1944</v>
+        <v>3333</v>
       </c>
       <c r="T26" t="n">
         <v>18</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44326</v>
+        <v>44522</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2520,20 +2520,20 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N27" t="n">
-        <v>30000</v>
+        <v>56000</v>
       </c>
       <c r="O27" t="n">
-        <v>30000</v>
+        <v>56000</v>
       </c>
       <c r="P27" t="n">
-        <v>30000</v>
+        <v>56000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2542,11 +2542,11 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1667</v>
+        <v>3111</v>
       </c>
       <c r="T27" t="n">
         <v>18</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44326</v>
+        <v>44403</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2600,20 +2600,20 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N28" t="n">
-        <v>28000</v>
+        <v>33000</v>
       </c>
       <c r="O28" t="n">
-        <v>28000</v>
+        <v>33000</v>
       </c>
       <c r="P28" t="n">
-        <v>28000</v>
+        <v>33000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1556</v>
+        <v>1833</v>
       </c>
       <c r="T28" t="n">
         <v>18</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44452</v>
+        <v>44403</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2684,16 +2684,16 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="N29" t="n">
-        <v>36000</v>
+        <v>30000</v>
       </c>
       <c r="O29" t="n">
-        <v>36000</v>
+        <v>30000</v>
       </c>
       <c r="P29" t="n">
-        <v>36000</v>
+        <v>30000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>2000</v>
+        <v>1667</v>
       </c>
       <c r="T29" t="n">
         <v>18</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44445</v>
+        <v>44403</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2760,20 +2760,20 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N30" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="O30" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="P30" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1778</v>
+        <v>1556</v>
       </c>
       <c r="T30" t="n">
         <v>18</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44389</v>
+        <v>44452</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2844,16 +2844,16 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="N31" t="n">
-        <v>29000</v>
+        <v>36000</v>
       </c>
       <c r="O31" t="n">
-        <v>29000</v>
+        <v>36000</v>
       </c>
       <c r="P31" t="n">
-        <v>29000</v>
+        <v>36000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1611</v>
+        <v>2000</v>
       </c>
       <c r="T31" t="n">
         <v>18</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44389</v>
+        <v>44396</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2920,20 +2920,20 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="N32" t="n">
-        <v>27000</v>
+        <v>37000</v>
       </c>
       <c r="O32" t="n">
-        <v>27000</v>
+        <v>37000</v>
       </c>
       <c r="P32" t="n">
-        <v>27000</v>
+        <v>37000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1500</v>
+        <v>2056</v>
       </c>
       <c r="T32" t="n">
         <v>18</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44410</v>
+        <v>44396</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3000,20 +3000,20 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M33" t="n">
         <v>15</v>
       </c>
       <c r="N33" t="n">
-        <v>32000</v>
+        <v>34000</v>
       </c>
       <c r="O33" t="n">
-        <v>32000</v>
+        <v>34000</v>
       </c>
       <c r="P33" t="n">
-        <v>32000</v>
+        <v>34000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1778</v>
+        <v>1889</v>
       </c>
       <c r="T33" t="n">
         <v>18</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44410</v>
+        <v>44326</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3080,20 +3080,20 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="N34" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="O34" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="P34" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1667</v>
+        <v>1944</v>
       </c>
       <c r="T34" t="n">
         <v>18</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44410</v>
+        <v>44326</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3160,20 +3160,20 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="N35" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="O35" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="P35" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1556</v>
+        <v>1667</v>
       </c>
       <c r="T35" t="n">
         <v>18</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44466</v>
+        <v>44326</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3240,20 +3240,20 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N36" t="n">
-        <v>60000</v>
+        <v>28000</v>
       </c>
       <c r="O36" t="n">
-        <v>60000</v>
+        <v>28000</v>
       </c>
       <c r="P36" t="n">
-        <v>60000</v>
+        <v>28000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>3333</v>
+        <v>1556</v>
       </c>
       <c r="T36" t="n">
         <v>18</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44466</v>
+        <v>44529</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3320,20 +3320,20 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N37" t="n">
-        <v>58000</v>
+        <v>60000</v>
       </c>
       <c r="O37" t="n">
-        <v>58000</v>
+        <v>60000</v>
       </c>
       <c r="P37" t="n">
-        <v>58000</v>
+        <v>60000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>3222</v>
+        <v>3333</v>
       </c>
       <c r="T37" t="n">
         <v>18</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44312</v>
+        <v>44529</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3404,16 +3404,16 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="N38" t="n">
-        <v>26000</v>
+        <v>58000</v>
       </c>
       <c r="O38" t="n">
-        <v>26000</v>
+        <v>58000</v>
       </c>
       <c r="P38" t="n">
-        <v>26000</v>
+        <v>58000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>1444</v>
+        <v>3222</v>
       </c>
       <c r="T38" t="n">
         <v>18</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44270</v>
+        <v>44435</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3480,20 +3480,20 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="N39" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="O39" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="P39" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>2111</v>
+        <v>1778</v>
       </c>
       <c r="T39" t="n">
         <v>18</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44431</v>
+        <v>44291</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3567,13 +3567,13 @@
         <v>30</v>
       </c>
       <c r="N40" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="O40" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="P40" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>1778</v>
+        <v>1389</v>
       </c>
       <c r="T40" t="n">
         <v>18</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44435</v>
+        <v>44431</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44473</v>
+        <v>44382</v>
       </c>
       <c r="E42" t="n">
         <v>13</v>
@@ -3724,16 +3724,16 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N42" t="n">
-        <v>75000</v>
+        <v>35000</v>
       </c>
       <c r="O42" t="n">
-        <v>75000</v>
+        <v>35000</v>
       </c>
       <c r="P42" t="n">
-        <v>75000</v>
+        <v>35000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>4167</v>
+        <v>1944</v>
       </c>
       <c r="T42" t="n">
         <v>18</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44473</v>
+        <v>44382</v>
       </c>
       <c r="E43" t="n">
         <v>13</v>
@@ -3804,16 +3804,16 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N43" t="n">
-        <v>72000</v>
+        <v>32000</v>
       </c>
       <c r="O43" t="n">
-        <v>72000</v>
+        <v>32000</v>
       </c>
       <c r="P43" t="n">
-        <v>72000</v>
+        <v>32000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>4000</v>
+        <v>1778</v>
       </c>
       <c r="T43" t="n">
         <v>18</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44473</v>
+        <v>44382</v>
       </c>
       <c r="E44" t="n">
         <v>13</v>
@@ -3884,16 +3884,16 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="N44" t="n">
-        <v>67000</v>
+        <v>30000</v>
       </c>
       <c r="O44" t="n">
-        <v>67000</v>
+        <v>30000</v>
       </c>
       <c r="P44" t="n">
-        <v>67000</v>
+        <v>30000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>3722</v>
+        <v>1667</v>
       </c>
       <c r="T44" t="n">
         <v>18</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44424</v>
+        <v>44270</v>
       </c>
       <c r="E45" t="n">
         <v>13</v>
@@ -3960,20 +3960,20 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="N45" t="n">
-        <v>32000</v>
+        <v>38000</v>
       </c>
       <c r="O45" t="n">
-        <v>32000</v>
+        <v>38000</v>
       </c>
       <c r="P45" t="n">
-        <v>32000</v>
+        <v>38000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>1778</v>
+        <v>2111</v>
       </c>
       <c r="T45" t="n">
         <v>18</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44438</v>
+        <v>44305</v>
       </c>
       <c r="E46" t="n">
         <v>13</v>
@@ -4044,16 +4044,16 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N46" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="O46" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="P46" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>1778</v>
+        <v>1667</v>
       </c>
       <c r="T46" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Maracuyá.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Maracuyá.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44459</v>
+        <v>44284</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="N2" t="n">
-        <v>38000</v>
+        <v>23000</v>
       </c>
       <c r="O2" t="n">
-        <v>38000</v>
+        <v>23000</v>
       </c>
       <c r="P2" t="n">
-        <v>38000</v>
+        <v>23000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>2111</v>
+        <v>1278</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44277</v>
+        <v>44340</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="N3" t="n">
-        <v>30000</v>
+        <v>37000</v>
       </c>
       <c r="O3" t="n">
-        <v>30000</v>
+        <v>37000</v>
       </c>
       <c r="P3" t="n">
-        <v>30000</v>
+        <v>37000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1667</v>
+        <v>2056</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44277</v>
+        <v>44340</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="N4" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="O4" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="P4" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1556</v>
+        <v>1944</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44319</v>
+        <v>44277</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="N5" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="O5" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="P5" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1500</v>
+        <v>1667</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44312</v>
+        <v>44277</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="N6" t="n">
-        <v>26000</v>
+        <v>28000</v>
       </c>
       <c r="O6" t="n">
-        <v>26000</v>
+        <v>28000</v>
       </c>
       <c r="P6" t="n">
-        <v>26000</v>
+        <v>28000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1444</v>
+        <v>1556</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44333</v>
+        <v>44382</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N7" t="n">
-        <v>38000</v>
+        <v>35000</v>
       </c>
       <c r="O7" t="n">
-        <v>38000</v>
+        <v>35000</v>
       </c>
       <c r="P7" t="n">
-        <v>38000</v>
+        <v>35000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>2111</v>
+        <v>1944</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44333</v>
+        <v>44382</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N8" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="O8" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="P8" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1944</v>
+        <v>1778</v>
       </c>
       <c r="T8" t="n">
         <v>18</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44389</v>
+        <v>44382</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="N9" t="n">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="O9" t="n">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="P9" t="n">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1611</v>
+        <v>1667</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44389</v>
+        <v>44319</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1160,11 +1160,11 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="N10" t="n">
         <v>27000</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44445</v>
+        <v>44529</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1240,20 +1240,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N11" t="n">
-        <v>32000</v>
+        <v>60000</v>
       </c>
       <c r="O11" t="n">
-        <v>32000</v>
+        <v>60000</v>
       </c>
       <c r="P11" t="n">
-        <v>32000</v>
+        <v>60000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1778</v>
+        <v>3333</v>
       </c>
       <c r="T11" t="n">
         <v>18</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44284</v>
+        <v>44529</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="N12" t="n">
-        <v>23000</v>
+        <v>58000</v>
       </c>
       <c r="O12" t="n">
-        <v>23000</v>
+        <v>58000</v>
       </c>
       <c r="P12" t="n">
-        <v>23000</v>
+        <v>58000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1278</v>
+        <v>3222</v>
       </c>
       <c r="T12" t="n">
         <v>18</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44438</v>
+        <v>44396</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N13" t="n">
-        <v>32000</v>
+        <v>37000</v>
       </c>
       <c r="O13" t="n">
-        <v>32000</v>
+        <v>37000</v>
       </c>
       <c r="P13" t="n">
-        <v>32000</v>
+        <v>37000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1778</v>
+        <v>2056</v>
       </c>
       <c r="T13" t="n">
         <v>18</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44354</v>
+        <v>44396</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="N14" t="n">
-        <v>38000</v>
+        <v>34000</v>
       </c>
       <c r="O14" t="n">
-        <v>38000</v>
+        <v>34000</v>
       </c>
       <c r="P14" t="n">
-        <v>38000</v>
+        <v>34000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>2111</v>
+        <v>1889</v>
       </c>
       <c r="T14" t="n">
         <v>18</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44473</v>
+        <v>44522</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="N15" t="n">
-        <v>75000</v>
+        <v>60000</v>
       </c>
       <c r="O15" t="n">
-        <v>75000</v>
+        <v>60000</v>
       </c>
       <c r="P15" t="n">
-        <v>75000</v>
+        <v>60000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1582,11 +1582,11 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>4167</v>
+        <v>3333</v>
       </c>
       <c r="T15" t="n">
         <v>18</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44473</v>
+        <v>44522</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N16" t="n">
-        <v>72000</v>
+        <v>56000</v>
       </c>
       <c r="O16" t="n">
-        <v>72000</v>
+        <v>56000</v>
       </c>
       <c r="P16" t="n">
-        <v>72000</v>
+        <v>56000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1662,11 +1662,11 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>4000</v>
+        <v>3111</v>
       </c>
       <c r="T16" t="n">
         <v>18</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44473</v>
+        <v>44291</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="N17" t="n">
-        <v>67000</v>
+        <v>25000</v>
       </c>
       <c r="O17" t="n">
-        <v>67000</v>
+        <v>25000</v>
       </c>
       <c r="P17" t="n">
-        <v>67000</v>
+        <v>25000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>3722</v>
+        <v>1389</v>
       </c>
       <c r="T17" t="n">
         <v>18</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44466</v>
+        <v>44459</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N18" t="n">
-        <v>60000</v>
+        <v>38000</v>
       </c>
       <c r="O18" t="n">
-        <v>60000</v>
+        <v>38000</v>
       </c>
       <c r="P18" t="n">
-        <v>60000</v>
+        <v>38000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>3333</v>
+        <v>2111</v>
       </c>
       <c r="T18" t="n">
         <v>18</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44466</v>
+        <v>44354</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="N19" t="n">
-        <v>58000</v>
+        <v>38000</v>
       </c>
       <c r="O19" t="n">
-        <v>58000</v>
+        <v>38000</v>
       </c>
       <c r="P19" t="n">
-        <v>58000</v>
+        <v>38000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>3222</v>
+        <v>2111</v>
       </c>
       <c r="T19" t="n">
         <v>18</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44340</v>
+        <v>44305</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="N20" t="n">
-        <v>37000</v>
+        <v>30000</v>
       </c>
       <c r="O20" t="n">
-        <v>37000</v>
+        <v>30000</v>
       </c>
       <c r="P20" t="n">
-        <v>37000</v>
+        <v>30000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>2056</v>
+        <v>1667</v>
       </c>
       <c r="T20" t="n">
         <v>18</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44340</v>
+        <v>44333</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2040,20 +2040,20 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N21" t="n">
-        <v>35000</v>
+        <v>38000</v>
       </c>
       <c r="O21" t="n">
-        <v>35000</v>
+        <v>38000</v>
       </c>
       <c r="P21" t="n">
-        <v>35000</v>
+        <v>38000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1944</v>
+        <v>2111</v>
       </c>
       <c r="T21" t="n">
         <v>18</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44410</v>
+        <v>44333</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2120,20 +2120,20 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N22" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="O22" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="P22" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1778</v>
+        <v>1944</v>
       </c>
       <c r="T22" t="n">
         <v>18</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44410</v>
+        <v>44403</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2200,20 +2200,20 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M23" t="n">
         <v>25</v>
       </c>
       <c r="N23" t="n">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="O23" t="n">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="P23" t="n">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1667</v>
+        <v>1833</v>
       </c>
       <c r="T23" t="n">
         <v>18</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44410</v>
+        <v>44403</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2280,20 +2280,20 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="N24" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="O24" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="P24" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1556</v>
+        <v>1667</v>
       </c>
       <c r="T24" t="n">
         <v>18</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44424</v>
+        <v>44403</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2360,20 +2360,20 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N25" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="O25" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="P25" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1778</v>
+        <v>1556</v>
       </c>
       <c r="T25" t="n">
         <v>18</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44522</v>
+        <v>44326</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2440,20 +2440,20 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="N26" t="n">
-        <v>60000</v>
+        <v>35000</v>
       </c>
       <c r="O26" t="n">
-        <v>60000</v>
+        <v>35000</v>
       </c>
       <c r="P26" t="n">
-        <v>60000</v>
+        <v>35000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2462,11 +2462,11 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S26" t="n">
-        <v>3333</v>
+        <v>1944</v>
       </c>
       <c r="T26" t="n">
         <v>18</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44522</v>
+        <v>44326</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2520,20 +2520,20 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N27" t="n">
-        <v>56000</v>
+        <v>30000</v>
       </c>
       <c r="O27" t="n">
-        <v>56000</v>
+        <v>30000</v>
       </c>
       <c r="P27" t="n">
-        <v>56000</v>
+        <v>30000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2542,11 +2542,11 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S27" t="n">
-        <v>3111</v>
+        <v>1667</v>
       </c>
       <c r="T27" t="n">
         <v>18</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44403</v>
+        <v>44326</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2600,20 +2600,20 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N28" t="n">
-        <v>33000</v>
+        <v>28000</v>
       </c>
       <c r="O28" t="n">
-        <v>33000</v>
+        <v>28000</v>
       </c>
       <c r="P28" t="n">
-        <v>33000</v>
+        <v>28000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1833</v>
+        <v>1556</v>
       </c>
       <c r="T28" t="n">
         <v>18</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44403</v>
+        <v>44452</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2684,16 +2684,16 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="N29" t="n">
-        <v>30000</v>
+        <v>36000</v>
       </c>
       <c r="O29" t="n">
-        <v>30000</v>
+        <v>36000</v>
       </c>
       <c r="P29" t="n">
-        <v>30000</v>
+        <v>36000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1667</v>
+        <v>2000</v>
       </c>
       <c r="T29" t="n">
         <v>18</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44403</v>
+        <v>44445</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2760,20 +2760,20 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N30" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="O30" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="P30" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1556</v>
+        <v>1778</v>
       </c>
       <c r="T30" t="n">
         <v>18</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44452</v>
+        <v>44389</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2844,16 +2844,16 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="N31" t="n">
-        <v>36000</v>
+        <v>29000</v>
       </c>
       <c r="O31" t="n">
-        <v>36000</v>
+        <v>29000</v>
       </c>
       <c r="P31" t="n">
-        <v>36000</v>
+        <v>29000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>2000</v>
+        <v>1611</v>
       </c>
       <c r="T31" t="n">
         <v>18</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44396</v>
+        <v>44389</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2920,20 +2920,20 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="N32" t="n">
-        <v>37000</v>
+        <v>27000</v>
       </c>
       <c r="O32" t="n">
-        <v>37000</v>
+        <v>27000</v>
       </c>
       <c r="P32" t="n">
-        <v>37000</v>
+        <v>27000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>2056</v>
+        <v>1500</v>
       </c>
       <c r="T32" t="n">
         <v>18</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44396</v>
+        <v>44410</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3000,20 +3000,20 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M33" t="n">
         <v>15</v>
       </c>
       <c r="N33" t="n">
-        <v>34000</v>
+        <v>32000</v>
       </c>
       <c r="O33" t="n">
-        <v>34000</v>
+        <v>32000</v>
       </c>
       <c r="P33" t="n">
-        <v>34000</v>
+        <v>32000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1889</v>
+        <v>1778</v>
       </c>
       <c r="T33" t="n">
         <v>18</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44326</v>
+        <v>44410</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3080,20 +3080,20 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="N34" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="O34" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="P34" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1944</v>
+        <v>1667</v>
       </c>
       <c r="T34" t="n">
         <v>18</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44326</v>
+        <v>44410</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3160,20 +3160,20 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="N35" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="O35" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="P35" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1667</v>
+        <v>1556</v>
       </c>
       <c r="T35" t="n">
         <v>18</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44326</v>
+        <v>44466</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3240,20 +3240,20 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N36" t="n">
-        <v>28000</v>
+        <v>60000</v>
       </c>
       <c r="O36" t="n">
-        <v>28000</v>
+        <v>60000</v>
       </c>
       <c r="P36" t="n">
-        <v>28000</v>
+        <v>60000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1556</v>
+        <v>3333</v>
       </c>
       <c r="T36" t="n">
         <v>18</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44529</v>
+        <v>44466</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3320,20 +3320,20 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N37" t="n">
-        <v>60000</v>
+        <v>58000</v>
       </c>
       <c r="O37" t="n">
-        <v>60000</v>
+        <v>58000</v>
       </c>
       <c r="P37" t="n">
-        <v>60000</v>
+        <v>58000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>3333</v>
+        <v>3222</v>
       </c>
       <c r="T37" t="n">
         <v>18</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44529</v>
+        <v>44312</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3404,16 +3404,16 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="N38" t="n">
-        <v>58000</v>
+        <v>26000</v>
       </c>
       <c r="O38" t="n">
-        <v>58000</v>
+        <v>26000</v>
       </c>
       <c r="P38" t="n">
-        <v>58000</v>
+        <v>26000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>3222</v>
+        <v>1444</v>
       </c>
       <c r="T38" t="n">
         <v>18</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44435</v>
+        <v>44270</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3480,20 +3480,20 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="N39" t="n">
-        <v>32000</v>
+        <v>38000</v>
       </c>
       <c r="O39" t="n">
-        <v>32000</v>
+        <v>38000</v>
       </c>
       <c r="P39" t="n">
-        <v>32000</v>
+        <v>38000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1778</v>
+        <v>2111</v>
       </c>
       <c r="T39" t="n">
         <v>18</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44291</v>
+        <v>44431</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3567,13 +3567,13 @@
         <v>30</v>
       </c>
       <c r="N40" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="O40" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="P40" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>1389</v>
+        <v>1778</v>
       </c>
       <c r="T40" t="n">
         <v>18</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44431</v>
+        <v>44435</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44382</v>
+        <v>44473</v>
       </c>
       <c r="E42" t="n">
         <v>13</v>
@@ -3724,16 +3724,16 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N42" t="n">
-        <v>35000</v>
+        <v>75000</v>
       </c>
       <c r="O42" t="n">
-        <v>35000</v>
+        <v>75000</v>
       </c>
       <c r="P42" t="n">
-        <v>35000</v>
+        <v>75000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>1944</v>
+        <v>4167</v>
       </c>
       <c r="T42" t="n">
         <v>18</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44382</v>
+        <v>44473</v>
       </c>
       <c r="E43" t="n">
         <v>13</v>
@@ -3804,16 +3804,16 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N43" t="n">
-        <v>32000</v>
+        <v>72000</v>
       </c>
       <c r="O43" t="n">
-        <v>32000</v>
+        <v>72000</v>
       </c>
       <c r="P43" t="n">
-        <v>32000</v>
+        <v>72000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>1778</v>
+        <v>4000</v>
       </c>
       <c r="T43" t="n">
         <v>18</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44382</v>
+        <v>44473</v>
       </c>
       <c r="E44" t="n">
         <v>13</v>
@@ -3884,16 +3884,16 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="N44" t="n">
-        <v>30000</v>
+        <v>67000</v>
       </c>
       <c r="O44" t="n">
-        <v>30000</v>
+        <v>67000</v>
       </c>
       <c r="P44" t="n">
-        <v>30000</v>
+        <v>67000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>1667</v>
+        <v>3722</v>
       </c>
       <c r="T44" t="n">
         <v>18</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44270</v>
+        <v>44424</v>
       </c>
       <c r="E45" t="n">
         <v>13</v>
@@ -3960,20 +3960,20 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="N45" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="O45" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="P45" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>2111</v>
+        <v>1778</v>
       </c>
       <c r="T45" t="n">
         <v>18</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44305</v>
+        <v>44438</v>
       </c>
       <c r="E46" t="n">
         <v>13</v>
@@ -4044,16 +4044,16 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N46" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="O46" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="P46" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>1667</v>
+        <v>1778</v>
       </c>
       <c r="T46" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Maracuyá.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Maracuyá.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44459</v>
+        <v>44389</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="N2" t="n">
-        <v>38000</v>
+        <v>29000</v>
       </c>
       <c r="O2" t="n">
-        <v>38000</v>
+        <v>29000</v>
       </c>
       <c r="P2" t="n">
-        <v>38000</v>
+        <v>29000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>2111</v>
+        <v>1611</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44277</v>
+        <v>44389</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="N3" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="O3" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="P3" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1667</v>
+        <v>1500</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44277</v>
+        <v>44333</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="N4" t="n">
-        <v>28000</v>
+        <v>38000</v>
       </c>
       <c r="O4" t="n">
-        <v>28000</v>
+        <v>38000</v>
       </c>
       <c r="P4" t="n">
-        <v>28000</v>
+        <v>38000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1556</v>
+        <v>2111</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44319</v>
+        <v>44333</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>140</v>
+        <v>25</v>
       </c>
       <c r="N5" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="O5" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="P5" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1500</v>
+        <v>1944</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44312</v>
+        <v>44438</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>160</v>
+        <v>30</v>
       </c>
       <c r="N6" t="n">
-        <v>26000</v>
+        <v>32000</v>
       </c>
       <c r="O6" t="n">
-        <v>26000</v>
+        <v>32000</v>
       </c>
       <c r="P6" t="n">
-        <v>26000</v>
+        <v>32000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1444</v>
+        <v>1778</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44333</v>
+        <v>44445</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -927,13 +927,13 @@
         <v>30</v>
       </c>
       <c r="N7" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="O7" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="P7" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>2111</v>
+        <v>1778</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44333</v>
+        <v>44277</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="N8" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="O8" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="P8" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1944</v>
+        <v>1667</v>
       </c>
       <c r="T8" t="n">
         <v>18</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44389</v>
+        <v>44277</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="N9" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="O9" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="P9" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1611</v>
+        <v>1556</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44389</v>
+        <v>44529</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1160,20 +1160,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M10" t="n">
         <v>20</v>
       </c>
       <c r="N10" t="n">
-        <v>27000</v>
+        <v>60000</v>
       </c>
       <c r="O10" t="n">
-        <v>27000</v>
+        <v>60000</v>
       </c>
       <c r="P10" t="n">
-        <v>27000</v>
+        <v>60000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1500</v>
+        <v>3333</v>
       </c>
       <c r="T10" t="n">
         <v>18</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44445</v>
+        <v>44529</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N11" t="n">
-        <v>32000</v>
+        <v>58000</v>
       </c>
       <c r="O11" t="n">
-        <v>32000</v>
+        <v>58000</v>
       </c>
       <c r="P11" t="n">
-        <v>32000</v>
+        <v>58000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1778</v>
+        <v>3222</v>
       </c>
       <c r="T11" t="n">
         <v>18</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44284</v>
+        <v>44452</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="N12" t="n">
-        <v>23000</v>
+        <v>36000</v>
       </c>
       <c r="O12" t="n">
-        <v>23000</v>
+        <v>36000</v>
       </c>
       <c r="P12" t="n">
-        <v>23000</v>
+        <v>36000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1278</v>
+        <v>2000</v>
       </c>
       <c r="T12" t="n">
         <v>18</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44438</v>
+        <v>44354</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N13" t="n">
-        <v>32000</v>
+        <v>38000</v>
       </c>
       <c r="O13" t="n">
-        <v>32000</v>
+        <v>38000</v>
       </c>
       <c r="P13" t="n">
-        <v>32000</v>
+        <v>38000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1778</v>
+        <v>2111</v>
       </c>
       <c r="T13" t="n">
         <v>18</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44354</v>
+        <v>44396</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="N14" t="n">
-        <v>38000</v>
+        <v>37000</v>
       </c>
       <c r="O14" t="n">
-        <v>38000</v>
+        <v>37000</v>
       </c>
       <c r="P14" t="n">
-        <v>38000</v>
+        <v>37000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>2111</v>
+        <v>2056</v>
       </c>
       <c r="T14" t="n">
         <v>18</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44473</v>
+        <v>44396</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N15" t="n">
-        <v>75000</v>
+        <v>34000</v>
       </c>
       <c r="O15" t="n">
-        <v>75000</v>
+        <v>34000</v>
       </c>
       <c r="P15" t="n">
-        <v>75000</v>
+        <v>34000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>4167</v>
+        <v>1889</v>
       </c>
       <c r="T15" t="n">
         <v>18</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="N16" t="n">
-        <v>72000</v>
+        <v>75000</v>
       </c>
       <c r="O16" t="n">
-        <v>72000</v>
+        <v>75000</v>
       </c>
       <c r="P16" t="n">
-        <v>72000</v>
+        <v>75000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>4000</v>
+        <v>4167</v>
       </c>
       <c r="T16" t="n">
         <v>18</v>
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="N17" t="n">
-        <v>67000</v>
+        <v>72000</v>
       </c>
       <c r="O17" t="n">
-        <v>67000</v>
+        <v>72000</v>
       </c>
       <c r="P17" t="n">
-        <v>67000</v>
+        <v>72000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>3722</v>
+        <v>4000</v>
       </c>
       <c r="T17" t="n">
         <v>18</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44466</v>
+        <v>44473</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1800,20 +1800,20 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="N18" t="n">
-        <v>60000</v>
+        <v>67000</v>
       </c>
       <c r="O18" t="n">
-        <v>60000</v>
+        <v>67000</v>
       </c>
       <c r="P18" t="n">
-        <v>60000</v>
+        <v>67000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>3333</v>
+        <v>3722</v>
       </c>
       <c r="T18" t="n">
         <v>18</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44466</v>
+        <v>44312</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="N19" t="n">
-        <v>58000</v>
+        <v>26000</v>
       </c>
       <c r="O19" t="n">
-        <v>58000</v>
+        <v>26000</v>
       </c>
       <c r="P19" t="n">
-        <v>58000</v>
+        <v>26000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>3222</v>
+        <v>1444</v>
       </c>
       <c r="T19" t="n">
         <v>18</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44340</v>
+        <v>44270</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1960,20 +1960,20 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="N20" t="n">
-        <v>37000</v>
+        <v>38000</v>
       </c>
       <c r="O20" t="n">
-        <v>37000</v>
+        <v>38000</v>
       </c>
       <c r="P20" t="n">
-        <v>37000</v>
+        <v>38000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>2056</v>
+        <v>2111</v>
       </c>
       <c r="T20" t="n">
         <v>18</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44340</v>
+        <v>44435</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2040,20 +2040,20 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N21" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="O21" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="P21" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1944</v>
+        <v>1778</v>
       </c>
       <c r="T21" t="n">
         <v>18</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44410</v>
+        <v>44326</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N22" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="O22" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="P22" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1778</v>
+        <v>1944</v>
       </c>
       <c r="T22" t="n">
         <v>18</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44410</v>
+        <v>44326</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44410</v>
+        <v>44326</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2284,7 +2284,7 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N24" t="n">
         <v>28000</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44522</v>
+        <v>44305</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2447,13 +2447,13 @@
         <v>25</v>
       </c>
       <c r="N26" t="n">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="O26" t="n">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="P26" t="n">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2462,11 +2462,11 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S26" t="n">
-        <v>3333</v>
+        <v>1667</v>
       </c>
       <c r="T26" t="n">
         <v>18</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44522</v>
+        <v>44417</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2520,20 +2520,20 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N27" t="n">
-        <v>56000</v>
+        <v>28000</v>
       </c>
       <c r="O27" t="n">
-        <v>56000</v>
+        <v>28000</v>
       </c>
       <c r="P27" t="n">
-        <v>56000</v>
+        <v>28000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2542,11 +2542,11 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S27" t="n">
-        <v>3111</v>
+        <v>1556</v>
       </c>
       <c r="T27" t="n">
         <v>18</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44452</v>
+        <v>44382</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2840,20 +2840,20 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M31" t="n">
         <v>20</v>
       </c>
       <c r="N31" t="n">
-        <v>36000</v>
+        <v>35000</v>
       </c>
       <c r="O31" t="n">
-        <v>36000</v>
+        <v>35000</v>
       </c>
       <c r="P31" t="n">
-        <v>36000</v>
+        <v>35000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>2000</v>
+        <v>1944</v>
       </c>
       <c r="T31" t="n">
         <v>18</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44396</v>
+        <v>44382</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2924,16 +2924,16 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N32" t="n">
-        <v>37000</v>
+        <v>32000</v>
       </c>
       <c r="O32" t="n">
-        <v>37000</v>
+        <v>32000</v>
       </c>
       <c r="P32" t="n">
-        <v>37000</v>
+        <v>32000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>2056</v>
+        <v>1778</v>
       </c>
       <c r="T32" t="n">
         <v>18</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44396</v>
+        <v>44382</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3007,13 +3007,13 @@
         <v>15</v>
       </c>
       <c r="N33" t="n">
-        <v>34000</v>
+        <v>30000</v>
       </c>
       <c r="O33" t="n">
-        <v>34000</v>
+        <v>30000</v>
       </c>
       <c r="P33" t="n">
-        <v>34000</v>
+        <v>30000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1889</v>
+        <v>1667</v>
       </c>
       <c r="T33" t="n">
         <v>18</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44326</v>
+        <v>44522</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3080,20 +3080,20 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="N34" t="n">
-        <v>35000</v>
+        <v>60000</v>
       </c>
       <c r="O34" t="n">
-        <v>35000</v>
+        <v>60000</v>
       </c>
       <c r="P34" t="n">
-        <v>35000</v>
+        <v>60000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3102,11 +3102,11 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1944</v>
+        <v>3333</v>
       </c>
       <c r="T34" t="n">
         <v>18</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44326</v>
+        <v>44522</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3160,20 +3160,20 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N35" t="n">
-        <v>30000</v>
+        <v>56000</v>
       </c>
       <c r="O35" t="n">
-        <v>30000</v>
+        <v>56000</v>
       </c>
       <c r="P35" t="n">
-        <v>30000</v>
+        <v>56000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3182,11 +3182,11 @@
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1667</v>
+        <v>3111</v>
       </c>
       <c r="T35" t="n">
         <v>18</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44326</v>
+        <v>44466</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3240,20 +3240,20 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N36" t="n">
-        <v>28000</v>
+        <v>60000</v>
       </c>
       <c r="O36" t="n">
-        <v>28000</v>
+        <v>60000</v>
       </c>
       <c r="P36" t="n">
-        <v>28000</v>
+        <v>60000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1556</v>
+        <v>3333</v>
       </c>
       <c r="T36" t="n">
         <v>18</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44529</v>
+        <v>44466</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3320,20 +3320,20 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N37" t="n">
-        <v>60000</v>
+        <v>58000</v>
       </c>
       <c r="O37" t="n">
-        <v>60000</v>
+        <v>58000</v>
       </c>
       <c r="P37" t="n">
-        <v>60000</v>
+        <v>58000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>3333</v>
+        <v>3222</v>
       </c>
       <c r="T37" t="n">
         <v>18</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44529</v>
+        <v>44410</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3400,20 +3400,20 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="N38" t="n">
-        <v>58000</v>
+        <v>32000</v>
       </c>
       <c r="O38" t="n">
-        <v>58000</v>
+        <v>32000</v>
       </c>
       <c r="P38" t="n">
-        <v>58000</v>
+        <v>32000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>3222</v>
+        <v>1778</v>
       </c>
       <c r="T38" t="n">
         <v>18</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44435</v>
+        <v>44410</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3484,16 +3484,16 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N39" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="O39" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="P39" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1778</v>
+        <v>1667</v>
       </c>
       <c r="T39" t="n">
         <v>18</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44291</v>
+        <v>44410</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3560,20 +3560,20 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="N40" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="O40" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="P40" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>1389</v>
+        <v>1556</v>
       </c>
       <c r="T40" t="n">
         <v>18</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44382</v>
+        <v>44284</v>
       </c>
       <c r="E42" t="n">
         <v>13</v>
@@ -3720,20 +3720,20 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="N42" t="n">
-        <v>35000</v>
+        <v>23000</v>
       </c>
       <c r="O42" t="n">
-        <v>35000</v>
+        <v>23000</v>
       </c>
       <c r="P42" t="n">
-        <v>35000</v>
+        <v>23000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>1944</v>
+        <v>1278</v>
       </c>
       <c r="T42" t="n">
         <v>18</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44382</v>
+        <v>44340</v>
       </c>
       <c r="E43" t="n">
         <v>13</v>
@@ -3804,16 +3804,16 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N43" t="n">
-        <v>32000</v>
+        <v>37000</v>
       </c>
       <c r="O43" t="n">
-        <v>32000</v>
+        <v>37000</v>
       </c>
       <c r="P43" t="n">
-        <v>32000</v>
+        <v>37000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>1778</v>
+        <v>2056</v>
       </c>
       <c r="T43" t="n">
         <v>18</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44382</v>
+        <v>44340</v>
       </c>
       <c r="E44" t="n">
         <v>13</v>
@@ -3884,16 +3884,16 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N44" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="O44" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="P44" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>1667</v>
+        <v>1944</v>
       </c>
       <c r="T44" t="n">
         <v>18</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44270</v>
+        <v>44291</v>
       </c>
       <c r="E45" t="n">
         <v>13</v>
@@ -3960,20 +3960,20 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="N45" t="n">
-        <v>38000</v>
+        <v>25000</v>
       </c>
       <c r="O45" t="n">
-        <v>38000</v>
+        <v>25000</v>
       </c>
       <c r="P45" t="n">
-        <v>38000</v>
+        <v>25000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>2111</v>
+        <v>1389</v>
       </c>
       <c r="T45" t="n">
         <v>18</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44305</v>
+        <v>44319</v>
       </c>
       <c r="E46" t="n">
         <v>13</v>
@@ -4044,16 +4044,16 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>25</v>
+        <v>140</v>
       </c>
       <c r="N46" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="O46" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="P46" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>1667</v>
+        <v>1500</v>
       </c>
       <c r="T46" t="n">
         <v>18</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44417</v>
+        <v>44459</v>
       </c>
       <c r="E47" t="n">
         <v>13</v>
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N47" t="n">
-        <v>28000</v>
+        <v>38000</v>
       </c>
       <c r="O47" t="n">
-        <v>28000</v>
+        <v>38000</v>
       </c>
       <c r="P47" t="n">
-        <v>28000</v>
+        <v>38000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>1556</v>
+        <v>2111</v>
       </c>
       <c r="T47" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Maracuyá.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Maracuyá.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44389</v>
+        <v>44459</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="N2" t="n">
-        <v>29000</v>
+        <v>38000</v>
       </c>
       <c r="O2" t="n">
-        <v>29000</v>
+        <v>38000</v>
       </c>
       <c r="P2" t="n">
-        <v>29000</v>
+        <v>38000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1611</v>
+        <v>2111</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44389</v>
+        <v>44277</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="O3" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="P3" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1500</v>
+        <v>1667</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44333</v>
+        <v>44277</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="N4" t="n">
-        <v>38000</v>
+        <v>28000</v>
       </c>
       <c r="O4" t="n">
-        <v>38000</v>
+        <v>28000</v>
       </c>
       <c r="P4" t="n">
-        <v>38000</v>
+        <v>28000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>2111</v>
+        <v>1556</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44333</v>
+        <v>44319</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>25</v>
+        <v>140</v>
       </c>
       <c r="N5" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="O5" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="P5" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1944</v>
+        <v>1500</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44438</v>
+        <v>44312</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>30</v>
+        <v>160</v>
       </c>
       <c r="N6" t="n">
-        <v>32000</v>
+        <v>26000</v>
       </c>
       <c r="O6" t="n">
-        <v>32000</v>
+        <v>26000</v>
       </c>
       <c r="P6" t="n">
-        <v>32000</v>
+        <v>26000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1778</v>
+        <v>1444</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44445</v>
+        <v>44333</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -927,13 +927,13 @@
         <v>30</v>
       </c>
       <c r="N7" t="n">
-        <v>32000</v>
+        <v>38000</v>
       </c>
       <c r="O7" t="n">
-        <v>32000</v>
+        <v>38000</v>
       </c>
       <c r="P7" t="n">
-        <v>32000</v>
+        <v>38000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1778</v>
+        <v>2111</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44277</v>
+        <v>44333</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="N8" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="O8" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="P8" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1667</v>
+        <v>1944</v>
       </c>
       <c r="T8" t="n">
         <v>18</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44277</v>
+        <v>44389</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="N9" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="O9" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="P9" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1556</v>
+        <v>1611</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44529</v>
+        <v>44389</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1160,20 +1160,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M10" t="n">
         <v>20</v>
       </c>
       <c r="N10" t="n">
-        <v>60000</v>
+        <v>27000</v>
       </c>
       <c r="O10" t="n">
-        <v>60000</v>
+        <v>27000</v>
       </c>
       <c r="P10" t="n">
-        <v>60000</v>
+        <v>27000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>3333</v>
+        <v>1500</v>
       </c>
       <c r="T10" t="n">
         <v>18</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44529</v>
+        <v>44445</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N11" t="n">
-        <v>58000</v>
+        <v>32000</v>
       </c>
       <c r="O11" t="n">
-        <v>58000</v>
+        <v>32000</v>
       </c>
       <c r="P11" t="n">
-        <v>58000</v>
+        <v>32000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>3222</v>
+        <v>1778</v>
       </c>
       <c r="T11" t="n">
         <v>18</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44452</v>
+        <v>44284</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="N12" t="n">
-        <v>36000</v>
+        <v>23000</v>
       </c>
       <c r="O12" t="n">
-        <v>36000</v>
+        <v>23000</v>
       </c>
       <c r="P12" t="n">
-        <v>36000</v>
+        <v>23000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>2000</v>
+        <v>1278</v>
       </c>
       <c r="T12" t="n">
         <v>18</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44354</v>
+        <v>44438</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N13" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="O13" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="P13" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>2111</v>
+        <v>1778</v>
       </c>
       <c r="T13" t="n">
         <v>18</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44396</v>
+        <v>44354</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N14" t="n">
-        <v>37000</v>
+        <v>38000</v>
       </c>
       <c r="O14" t="n">
-        <v>37000</v>
+        <v>38000</v>
       </c>
       <c r="P14" t="n">
-        <v>37000</v>
+        <v>38000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>2056</v>
+        <v>2111</v>
       </c>
       <c r="T14" t="n">
         <v>18</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44396</v>
+        <v>44473</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N15" t="n">
-        <v>34000</v>
+        <v>75000</v>
       </c>
       <c r="O15" t="n">
-        <v>34000</v>
+        <v>75000</v>
       </c>
       <c r="P15" t="n">
-        <v>34000</v>
+        <v>75000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1889</v>
+        <v>4167</v>
       </c>
       <c r="T15" t="n">
         <v>18</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="N16" t="n">
-        <v>75000</v>
+        <v>72000</v>
       </c>
       <c r="O16" t="n">
-        <v>75000</v>
+        <v>72000</v>
       </c>
       <c r="P16" t="n">
-        <v>75000</v>
+        <v>72000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>4167</v>
+        <v>4000</v>
       </c>
       <c r="T16" t="n">
         <v>18</v>
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="N17" t="n">
-        <v>72000</v>
+        <v>67000</v>
       </c>
       <c r="O17" t="n">
-        <v>72000</v>
+        <v>67000</v>
       </c>
       <c r="P17" t="n">
-        <v>72000</v>
+        <v>67000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>4000</v>
+        <v>3722</v>
       </c>
       <c r="T17" t="n">
         <v>18</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44473</v>
+        <v>44466</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1800,20 +1800,20 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="N18" t="n">
-        <v>67000</v>
+        <v>60000</v>
       </c>
       <c r="O18" t="n">
-        <v>67000</v>
+        <v>60000</v>
       </c>
       <c r="P18" t="n">
-        <v>67000</v>
+        <v>60000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>3722</v>
+        <v>3333</v>
       </c>
       <c r="T18" t="n">
         <v>18</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44312</v>
+        <v>44466</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="N19" t="n">
-        <v>26000</v>
+        <v>58000</v>
       </c>
       <c r="O19" t="n">
-        <v>26000</v>
+        <v>58000</v>
       </c>
       <c r="P19" t="n">
-        <v>26000</v>
+        <v>58000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1444</v>
+        <v>3222</v>
       </c>
       <c r="T19" t="n">
         <v>18</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44270</v>
+        <v>44340</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1960,20 +1960,20 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="N20" t="n">
-        <v>38000</v>
+        <v>37000</v>
       </c>
       <c r="O20" t="n">
-        <v>38000</v>
+        <v>37000</v>
       </c>
       <c r="P20" t="n">
-        <v>38000</v>
+        <v>37000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>2111</v>
+        <v>2056</v>
       </c>
       <c r="T20" t="n">
         <v>18</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44435</v>
+        <v>44340</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2040,20 +2040,20 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N21" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="O21" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="P21" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1778</v>
+        <v>1944</v>
       </c>
       <c r="T21" t="n">
         <v>18</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44326</v>
+        <v>44410</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N22" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="O22" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="P22" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1944</v>
+        <v>1778</v>
       </c>
       <c r="T22" t="n">
         <v>18</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44326</v>
+        <v>44410</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44326</v>
+        <v>44410</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2284,7 +2284,7 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N24" t="n">
         <v>28000</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44305</v>
+        <v>44522</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2447,13 +2447,13 @@
         <v>25</v>
       </c>
       <c r="N26" t="n">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="O26" t="n">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="P26" t="n">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2462,11 +2462,11 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1667</v>
+        <v>3333</v>
       </c>
       <c r="T26" t="n">
         <v>18</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44417</v>
+        <v>44522</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2520,20 +2520,20 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N27" t="n">
-        <v>28000</v>
+        <v>56000</v>
       </c>
       <c r="O27" t="n">
-        <v>28000</v>
+        <v>56000</v>
       </c>
       <c r="P27" t="n">
-        <v>28000</v>
+        <v>56000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2542,11 +2542,11 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1556</v>
+        <v>3111</v>
       </c>
       <c r="T27" t="n">
         <v>18</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44382</v>
+        <v>44452</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2840,20 +2840,20 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M31" t="n">
         <v>20</v>
       </c>
       <c r="N31" t="n">
-        <v>35000</v>
+        <v>36000</v>
       </c>
       <c r="O31" t="n">
-        <v>35000</v>
+        <v>36000</v>
       </c>
       <c r="P31" t="n">
-        <v>35000</v>
+        <v>36000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1944</v>
+        <v>2000</v>
       </c>
       <c r="T31" t="n">
         <v>18</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44382</v>
+        <v>44396</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2924,16 +2924,16 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N32" t="n">
-        <v>32000</v>
+        <v>37000</v>
       </c>
       <c r="O32" t="n">
-        <v>32000</v>
+        <v>37000</v>
       </c>
       <c r="P32" t="n">
-        <v>32000</v>
+        <v>37000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1778</v>
+        <v>2056</v>
       </c>
       <c r="T32" t="n">
         <v>18</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44382</v>
+        <v>44396</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3007,13 +3007,13 @@
         <v>15</v>
       </c>
       <c r="N33" t="n">
-        <v>30000</v>
+        <v>34000</v>
       </c>
       <c r="O33" t="n">
-        <v>30000</v>
+        <v>34000</v>
       </c>
       <c r="P33" t="n">
-        <v>30000</v>
+        <v>34000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1667</v>
+        <v>1889</v>
       </c>
       <c r="T33" t="n">
         <v>18</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44522</v>
+        <v>44326</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3080,20 +3080,20 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="N34" t="n">
-        <v>60000</v>
+        <v>35000</v>
       </c>
       <c r="O34" t="n">
-        <v>60000</v>
+        <v>35000</v>
       </c>
       <c r="P34" t="n">
-        <v>60000</v>
+        <v>35000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3102,11 +3102,11 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S34" t="n">
-        <v>3333</v>
+        <v>1944</v>
       </c>
       <c r="T34" t="n">
         <v>18</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44522</v>
+        <v>44326</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3160,20 +3160,20 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N35" t="n">
-        <v>56000</v>
+        <v>30000</v>
       </c>
       <c r="O35" t="n">
-        <v>56000</v>
+        <v>30000</v>
       </c>
       <c r="P35" t="n">
-        <v>56000</v>
+        <v>30000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3182,11 +3182,11 @@
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S35" t="n">
-        <v>3111</v>
+        <v>1667</v>
       </c>
       <c r="T35" t="n">
         <v>18</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44466</v>
+        <v>44326</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3240,20 +3240,20 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N36" t="n">
-        <v>60000</v>
+        <v>28000</v>
       </c>
       <c r="O36" t="n">
-        <v>60000</v>
+        <v>28000</v>
       </c>
       <c r="P36" t="n">
-        <v>60000</v>
+        <v>28000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>3333</v>
+        <v>1556</v>
       </c>
       <c r="T36" t="n">
         <v>18</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44466</v>
+        <v>44529</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3320,20 +3320,20 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N37" t="n">
-        <v>58000</v>
+        <v>60000</v>
       </c>
       <c r="O37" t="n">
-        <v>58000</v>
+        <v>60000</v>
       </c>
       <c r="P37" t="n">
-        <v>58000</v>
+        <v>60000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>3222</v>
+        <v>3333</v>
       </c>
       <c r="T37" t="n">
         <v>18</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44410</v>
+        <v>44529</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3400,20 +3400,20 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="N38" t="n">
-        <v>32000</v>
+        <v>58000</v>
       </c>
       <c r="O38" t="n">
-        <v>32000</v>
+        <v>58000</v>
       </c>
       <c r="P38" t="n">
-        <v>32000</v>
+        <v>58000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>1778</v>
+        <v>3222</v>
       </c>
       <c r="T38" t="n">
         <v>18</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44410</v>
+        <v>44435</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3484,16 +3484,16 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N39" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="O39" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="P39" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1667</v>
+        <v>1778</v>
       </c>
       <c r="T39" t="n">
         <v>18</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44410</v>
+        <v>44291</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3560,20 +3560,20 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="N40" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="O40" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="P40" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>1556</v>
+        <v>1389</v>
       </c>
       <c r="T40" t="n">
         <v>18</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44284</v>
+        <v>44382</v>
       </c>
       <c r="E42" t="n">
         <v>13</v>
@@ -3720,20 +3720,20 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="N42" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="O42" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="P42" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>1278</v>
+        <v>1944</v>
       </c>
       <c r="T42" t="n">
         <v>18</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44340</v>
+        <v>44382</v>
       </c>
       <c r="E43" t="n">
         <v>13</v>
@@ -3804,16 +3804,16 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N43" t="n">
-        <v>37000</v>
+        <v>32000</v>
       </c>
       <c r="O43" t="n">
-        <v>37000</v>
+        <v>32000</v>
       </c>
       <c r="P43" t="n">
-        <v>37000</v>
+        <v>32000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>2056</v>
+        <v>1778</v>
       </c>
       <c r="T43" t="n">
         <v>18</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44340</v>
+        <v>44382</v>
       </c>
       <c r="E44" t="n">
         <v>13</v>
@@ -3884,16 +3884,16 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N44" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="O44" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="P44" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>1944</v>
+        <v>1667</v>
       </c>
       <c r="T44" t="n">
         <v>18</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44291</v>
+        <v>44270</v>
       </c>
       <c r="E45" t="n">
         <v>13</v>
@@ -3960,20 +3960,20 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="N45" t="n">
-        <v>25000</v>
+        <v>38000</v>
       </c>
       <c r="O45" t="n">
-        <v>25000</v>
+        <v>38000</v>
       </c>
       <c r="P45" t="n">
-        <v>25000</v>
+        <v>38000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>1389</v>
+        <v>2111</v>
       </c>
       <c r="T45" t="n">
         <v>18</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44319</v>
+        <v>44305</v>
       </c>
       <c r="E46" t="n">
         <v>13</v>
@@ -4044,16 +4044,16 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>140</v>
+        <v>25</v>
       </c>
       <c r="N46" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="O46" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="P46" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>1500</v>
+        <v>1667</v>
       </c>
       <c r="T46" t="n">
         <v>18</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44459</v>
+        <v>44417</v>
       </c>
       <c r="E47" t="n">
         <v>13</v>
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N47" t="n">
-        <v>38000</v>
+        <v>28000</v>
       </c>
       <c r="O47" t="n">
-        <v>38000</v>
+        <v>28000</v>
       </c>
       <c r="P47" t="n">
-        <v>38000</v>
+        <v>28000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>2111</v>
+        <v>1556</v>
       </c>
       <c r="T47" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Maracuyá.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Maracuyá.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44389</v>
+        <v>44270</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="N2" t="n">
-        <v>29000</v>
+        <v>38000</v>
       </c>
       <c r="O2" t="n">
-        <v>29000</v>
+        <v>38000</v>
       </c>
       <c r="P2" t="n">
-        <v>29000</v>
+        <v>38000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1611</v>
+        <v>2111</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44389</v>
+        <v>44396</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="N3" t="n">
-        <v>27000</v>
+        <v>37000</v>
       </c>
       <c r="O3" t="n">
-        <v>27000</v>
+        <v>37000</v>
       </c>
       <c r="P3" t="n">
-        <v>27000</v>
+        <v>37000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1500</v>
+        <v>2056</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44333</v>
+        <v>44396</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N4" t="n">
-        <v>38000</v>
+        <v>34000</v>
       </c>
       <c r="O4" t="n">
-        <v>38000</v>
+        <v>34000</v>
       </c>
       <c r="P4" t="n">
-        <v>38000</v>
+        <v>34000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>2111</v>
+        <v>1889</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44333</v>
+        <v>44452</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N5" t="n">
-        <v>35000</v>
+        <v>36000</v>
       </c>
       <c r="O5" t="n">
-        <v>35000</v>
+        <v>36000</v>
       </c>
       <c r="P5" t="n">
-        <v>35000</v>
+        <v>36000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1944</v>
+        <v>2000</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44438</v>
+        <v>44459</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N6" t="n">
-        <v>32000</v>
+        <v>38000</v>
       </c>
       <c r="O6" t="n">
-        <v>32000</v>
+        <v>38000</v>
       </c>
       <c r="P6" t="n">
-        <v>32000</v>
+        <v>38000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1778</v>
+        <v>2111</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44445</v>
+        <v>44438</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44277</v>
+        <v>44403</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="N8" t="n">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="O8" t="n">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="P8" t="n">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1667</v>
+        <v>1833</v>
       </c>
       <c r="T8" t="n">
         <v>18</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44277</v>
+        <v>44403</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="N9" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="O9" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="P9" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1556</v>
+        <v>1667</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44529</v>
+        <v>44403</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1160,20 +1160,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N10" t="n">
-        <v>60000</v>
+        <v>28000</v>
       </c>
       <c r="O10" t="n">
-        <v>60000</v>
+        <v>28000</v>
       </c>
       <c r="P10" t="n">
-        <v>60000</v>
+        <v>28000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>3333</v>
+        <v>1556</v>
       </c>
       <c r="T10" t="n">
         <v>18</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44529</v>
+        <v>44319</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="N11" t="n">
-        <v>58000</v>
+        <v>27000</v>
       </c>
       <c r="O11" t="n">
-        <v>58000</v>
+        <v>27000</v>
       </c>
       <c r="P11" t="n">
-        <v>58000</v>
+        <v>27000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>3222</v>
+        <v>1500</v>
       </c>
       <c r="T11" t="n">
         <v>18</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44452</v>
+        <v>44284</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="N12" t="n">
-        <v>36000</v>
+        <v>23000</v>
       </c>
       <c r="O12" t="n">
-        <v>36000</v>
+        <v>23000</v>
       </c>
       <c r="P12" t="n">
-        <v>36000</v>
+        <v>23000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>2000</v>
+        <v>1278</v>
       </c>
       <c r="T12" t="n">
         <v>18</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44354</v>
+        <v>44445</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N13" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="O13" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="P13" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>2111</v>
+        <v>1778</v>
       </c>
       <c r="T13" t="n">
         <v>18</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44396</v>
+        <v>44431</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N14" t="n">
-        <v>37000</v>
+        <v>32000</v>
       </c>
       <c r="O14" t="n">
-        <v>37000</v>
+        <v>32000</v>
       </c>
       <c r="P14" t="n">
-        <v>37000</v>
+        <v>32000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>2056</v>
+        <v>1778</v>
       </c>
       <c r="T14" t="n">
         <v>18</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44396</v>
+        <v>44305</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N15" t="n">
-        <v>34000</v>
+        <v>30000</v>
       </c>
       <c r="O15" t="n">
-        <v>34000</v>
+        <v>30000</v>
       </c>
       <c r="P15" t="n">
-        <v>34000</v>
+        <v>30000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1889</v>
+        <v>1667</v>
       </c>
       <c r="T15" t="n">
         <v>18</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44473</v>
+        <v>44389</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="N16" t="n">
-        <v>75000</v>
+        <v>29000</v>
       </c>
       <c r="O16" t="n">
-        <v>75000</v>
+        <v>29000</v>
       </c>
       <c r="P16" t="n">
-        <v>75000</v>
+        <v>29000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>4167</v>
+        <v>1611</v>
       </c>
       <c r="T16" t="n">
         <v>18</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44473</v>
+        <v>44389</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N17" t="n">
-        <v>72000</v>
+        <v>27000</v>
       </c>
       <c r="O17" t="n">
-        <v>72000</v>
+        <v>27000</v>
       </c>
       <c r="P17" t="n">
-        <v>72000</v>
+        <v>27000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="T17" t="n">
         <v>18</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44473</v>
+        <v>44417</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1800,20 +1800,20 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="N18" t="n">
-        <v>67000</v>
+        <v>28000</v>
       </c>
       <c r="O18" t="n">
-        <v>67000</v>
+        <v>28000</v>
       </c>
       <c r="P18" t="n">
-        <v>67000</v>
+        <v>28000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>3722</v>
+        <v>1556</v>
       </c>
       <c r="T18" t="n">
         <v>18</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44270</v>
+        <v>44424</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1960,20 +1960,20 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="N20" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="O20" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="P20" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>2111</v>
+        <v>1778</v>
       </c>
       <c r="T20" t="n">
         <v>18</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44435</v>
+        <v>44410</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2040,11 +2040,11 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N21" t="n">
         <v>32000</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44326</v>
+        <v>44410</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2120,20 +2120,20 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="N22" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="O22" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="P22" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1944</v>
+        <v>1667</v>
       </c>
       <c r="T22" t="n">
         <v>18</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44326</v>
+        <v>44410</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2200,20 +2200,20 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="N23" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="O23" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="P23" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1667</v>
+        <v>1556</v>
       </c>
       <c r="T23" t="n">
         <v>18</v>
@@ -2280,20 +2280,20 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N24" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="O24" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="P24" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1556</v>
+        <v>1944</v>
       </c>
       <c r="T24" t="n">
         <v>18</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44424</v>
+        <v>44326</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N25" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="O25" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="P25" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1778</v>
+        <v>1667</v>
       </c>
       <c r="T25" t="n">
         <v>18</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44305</v>
+        <v>44326</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2440,20 +2440,20 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N26" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="O26" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="P26" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1667</v>
+        <v>1556</v>
       </c>
       <c r="T26" t="n">
         <v>18</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44417</v>
+        <v>44291</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2524,16 +2524,16 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N27" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="O27" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="P27" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1556</v>
+        <v>1389</v>
       </c>
       <c r="T27" t="n">
         <v>18</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44403</v>
+        <v>44277</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2600,20 +2600,20 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="N28" t="n">
-        <v>33000</v>
+        <v>30000</v>
       </c>
       <c r="O28" t="n">
-        <v>33000</v>
+        <v>30000</v>
       </c>
       <c r="P28" t="n">
-        <v>33000</v>
+        <v>30000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1833</v>
+        <v>1667</v>
       </c>
       <c r="T28" t="n">
         <v>18</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44403</v>
+        <v>44277</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2680,20 +2680,20 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="N29" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="O29" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="P29" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1667</v>
+        <v>1556</v>
       </c>
       <c r="T29" t="n">
         <v>18</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44403</v>
+        <v>44435</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2760,20 +2760,20 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N30" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="O30" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="P30" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1556</v>
+        <v>1778</v>
       </c>
       <c r="T30" t="n">
         <v>18</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44382</v>
+        <v>44354</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2840,20 +2840,20 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="N31" t="n">
-        <v>35000</v>
+        <v>38000</v>
       </c>
       <c r="O31" t="n">
-        <v>35000</v>
+        <v>38000</v>
       </c>
       <c r="P31" t="n">
-        <v>35000</v>
+        <v>38000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1944</v>
+        <v>2111</v>
       </c>
       <c r="T31" t="n">
         <v>18</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44382</v>
+        <v>44473</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2920,20 +2920,20 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="N32" t="n">
-        <v>32000</v>
+        <v>75000</v>
       </c>
       <c r="O32" t="n">
-        <v>32000</v>
+        <v>75000</v>
       </c>
       <c r="P32" t="n">
-        <v>32000</v>
+        <v>75000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1778</v>
+        <v>4167</v>
       </c>
       <c r="T32" t="n">
         <v>18</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44382</v>
+        <v>44473</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3000,20 +3000,20 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N33" t="n">
-        <v>30000</v>
+        <v>72000</v>
       </c>
       <c r="O33" t="n">
-        <v>30000</v>
+        <v>72000</v>
       </c>
       <c r="P33" t="n">
-        <v>30000</v>
+        <v>72000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1667</v>
+        <v>4000</v>
       </c>
       <c r="T33" t="n">
         <v>18</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44522</v>
+        <v>44473</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3080,20 +3080,20 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="N34" t="n">
-        <v>60000</v>
+        <v>67000</v>
       </c>
       <c r="O34" t="n">
-        <v>60000</v>
+        <v>67000</v>
       </c>
       <c r="P34" t="n">
-        <v>60000</v>
+        <v>67000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3102,11 +3102,11 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S34" t="n">
-        <v>3333</v>
+        <v>3722</v>
       </c>
       <c r="T34" t="n">
         <v>18</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44522</v>
+        <v>44529</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3160,20 +3160,20 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M35" t="n">
         <v>20</v>
       </c>
       <c r="N35" t="n">
-        <v>56000</v>
+        <v>60000</v>
       </c>
       <c r="O35" t="n">
-        <v>56000</v>
+        <v>60000</v>
       </c>
       <c r="P35" t="n">
-        <v>56000</v>
+        <v>60000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3182,11 +3182,11 @@
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S35" t="n">
-        <v>3111</v>
+        <v>3333</v>
       </c>
       <c r="T35" t="n">
         <v>18</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44466</v>
+        <v>44529</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3244,16 +3244,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="N36" t="n">
-        <v>60000</v>
+        <v>58000</v>
       </c>
       <c r="O36" t="n">
-        <v>60000</v>
+        <v>58000</v>
       </c>
       <c r="P36" t="n">
-        <v>60000</v>
+        <v>58000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>3333</v>
+        <v>3222</v>
       </c>
       <c r="T36" t="n">
         <v>18</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44466</v>
+        <v>44333</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3320,20 +3320,20 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="N37" t="n">
-        <v>58000</v>
+        <v>38000</v>
       </c>
       <c r="O37" t="n">
-        <v>58000</v>
+        <v>38000</v>
       </c>
       <c r="P37" t="n">
-        <v>58000</v>
+        <v>38000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>3222</v>
+        <v>2111</v>
       </c>
       <c r="T37" t="n">
         <v>18</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44410</v>
+        <v>44333</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3400,20 +3400,20 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N38" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="O38" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="P38" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>1778</v>
+        <v>1944</v>
       </c>
       <c r="T38" t="n">
         <v>18</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44410</v>
+        <v>44522</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3487,13 +3487,13 @@
         <v>25</v>
       </c>
       <c r="N39" t="n">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="O39" t="n">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="P39" t="n">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3502,11 +3502,11 @@
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1667</v>
+        <v>3333</v>
       </c>
       <c r="T39" t="n">
         <v>18</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44410</v>
+        <v>44522</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3564,16 +3564,16 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N40" t="n">
-        <v>28000</v>
+        <v>56000</v>
       </c>
       <c r="O40" t="n">
-        <v>28000</v>
+        <v>56000</v>
       </c>
       <c r="P40" t="n">
-        <v>28000</v>
+        <v>56000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3582,11 +3582,11 @@
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="S40" t="n">
-        <v>1556</v>
+        <v>3111</v>
       </c>
       <c r="T40" t="n">
         <v>18</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44431</v>
+        <v>44340</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3644,16 +3644,16 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N41" t="n">
-        <v>32000</v>
+        <v>37000</v>
       </c>
       <c r="O41" t="n">
-        <v>32000</v>
+        <v>37000</v>
       </c>
       <c r="P41" t="n">
-        <v>32000</v>
+        <v>37000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>1778</v>
+        <v>2056</v>
       </c>
       <c r="T41" t="n">
         <v>18</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44284</v>
+        <v>44340</v>
       </c>
       <c r="E42" t="n">
         <v>13</v>
@@ -3720,20 +3720,20 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="N42" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="O42" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="P42" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>1278</v>
+        <v>1944</v>
       </c>
       <c r="T42" t="n">
         <v>18</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44340</v>
+        <v>44466</v>
       </c>
       <c r="E43" t="n">
         <v>13</v>
@@ -3804,16 +3804,16 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="N43" t="n">
-        <v>37000</v>
+        <v>60000</v>
       </c>
       <c r="O43" t="n">
-        <v>37000</v>
+        <v>60000</v>
       </c>
       <c r="P43" t="n">
-        <v>37000</v>
+        <v>60000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>2056</v>
+        <v>3333</v>
       </c>
       <c r="T43" t="n">
         <v>18</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44340</v>
+        <v>44466</v>
       </c>
       <c r="E44" t="n">
         <v>13</v>
@@ -3884,16 +3884,16 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N44" t="n">
-        <v>35000</v>
+        <v>58000</v>
       </c>
       <c r="O44" t="n">
-        <v>35000</v>
+        <v>58000</v>
       </c>
       <c r="P44" t="n">
-        <v>35000</v>
+        <v>58000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>1944</v>
+        <v>3222</v>
       </c>
       <c r="T44" t="n">
         <v>18</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44291</v>
+        <v>44382</v>
       </c>
       <c r="E45" t="n">
         <v>13</v>
@@ -3960,20 +3960,20 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N45" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="O45" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="P45" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>1389</v>
+        <v>1944</v>
       </c>
       <c r="T45" t="n">
         <v>18</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44319</v>
+        <v>44382</v>
       </c>
       <c r="E46" t="n">
         <v>13</v>
@@ -4044,16 +4044,16 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>140</v>
+        <v>30</v>
       </c>
       <c r="N46" t="n">
-        <v>27000</v>
+        <v>32000</v>
       </c>
       <c r="O46" t="n">
-        <v>27000</v>
+        <v>32000</v>
       </c>
       <c r="P46" t="n">
-        <v>27000</v>
+        <v>32000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>1500</v>
+        <v>1778</v>
       </c>
       <c r="T46" t="n">
         <v>18</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44459</v>
+        <v>44382</v>
       </c>
       <c r="E47" t="n">
         <v>13</v>
@@ -4120,20 +4120,20 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N47" t="n">
-        <v>38000</v>
+        <v>30000</v>
       </c>
       <c r="O47" t="n">
-        <v>38000</v>
+        <v>30000</v>
       </c>
       <c r="P47" t="n">
-        <v>38000</v>
+        <v>30000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>2111</v>
+        <v>1667</v>
       </c>
       <c r="T47" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Maracuyá.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Maracuyá.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44270</v>
+        <v>44452</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="N2" t="n">
-        <v>38000</v>
+        <v>36000</v>
       </c>
       <c r="O2" t="n">
-        <v>38000</v>
+        <v>36000</v>
       </c>
       <c r="P2" t="n">
-        <v>38000</v>
+        <v>36000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>2111</v>
+        <v>2000</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44396</v>
+        <v>44431</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N3" t="n">
-        <v>37000</v>
+        <v>32000</v>
       </c>
       <c r="O3" t="n">
-        <v>37000</v>
+        <v>32000</v>
       </c>
       <c r="P3" t="n">
-        <v>37000</v>
+        <v>32000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>2056</v>
+        <v>1778</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44396</v>
+        <v>44466</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
         <v>15</v>
       </c>
       <c r="N4" t="n">
-        <v>34000</v>
+        <v>60000</v>
       </c>
       <c r="O4" t="n">
-        <v>34000</v>
+        <v>60000</v>
       </c>
       <c r="P4" t="n">
-        <v>34000</v>
+        <v>60000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1889</v>
+        <v>3333</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44452</v>
+        <v>44466</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N5" t="n">
-        <v>36000</v>
+        <v>58000</v>
       </c>
       <c r="O5" t="n">
-        <v>36000</v>
+        <v>58000</v>
       </c>
       <c r="P5" t="n">
-        <v>36000</v>
+        <v>58000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>2000</v>
+        <v>3222</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44459</v>
+        <v>44284</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="N6" t="n">
-        <v>38000</v>
+        <v>23000</v>
       </c>
       <c r="O6" t="n">
-        <v>38000</v>
+        <v>23000</v>
       </c>
       <c r="P6" t="n">
-        <v>38000</v>
+        <v>23000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>2111</v>
+        <v>1278</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44438</v>
+        <v>44333</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -927,13 +927,13 @@
         <v>30</v>
       </c>
       <c r="N7" t="n">
-        <v>32000</v>
+        <v>38000</v>
       </c>
       <c r="O7" t="n">
-        <v>32000</v>
+        <v>38000</v>
       </c>
       <c r="P7" t="n">
-        <v>32000</v>
+        <v>38000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1778</v>
+        <v>2111</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44403</v>
+        <v>44333</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M8" t="n">
         <v>25</v>
       </c>
       <c r="N8" t="n">
-        <v>33000</v>
+        <v>35000</v>
       </c>
       <c r="O8" t="n">
-        <v>33000</v>
+        <v>35000</v>
       </c>
       <c r="P8" t="n">
-        <v>33000</v>
+        <v>35000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1833</v>
+        <v>1944</v>
       </c>
       <c r="T8" t="n">
         <v>18</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44403</v>
+        <v>44312</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>45</v>
+        <v>160</v>
       </c>
       <c r="N9" t="n">
-        <v>30000</v>
+        <v>26000</v>
       </c>
       <c r="O9" t="n">
-        <v>30000</v>
+        <v>26000</v>
       </c>
       <c r="P9" t="n">
-        <v>30000</v>
+        <v>26000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1667</v>
+        <v>1444</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44403</v>
+        <v>44319</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1160,20 +1160,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>15</v>
+        <v>140</v>
       </c>
       <c r="N10" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="O10" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="P10" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1556</v>
+        <v>1500</v>
       </c>
       <c r="T10" t="n">
         <v>18</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44319</v>
+        <v>44354</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="N11" t="n">
-        <v>27000</v>
+        <v>38000</v>
       </c>
       <c r="O11" t="n">
-        <v>27000</v>
+        <v>38000</v>
       </c>
       <c r="P11" t="n">
-        <v>27000</v>
+        <v>38000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1500</v>
+        <v>2111</v>
       </c>
       <c r="T11" t="n">
         <v>18</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44284</v>
+        <v>44326</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>120</v>
+        <v>16</v>
       </c>
       <c r="N12" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="O12" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="P12" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1278</v>
+        <v>1944</v>
       </c>
       <c r="T12" t="n">
         <v>18</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44445</v>
+        <v>44326</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N13" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="O13" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="P13" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1778</v>
+        <v>1667</v>
       </c>
       <c r="T13" t="n">
         <v>18</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44431</v>
+        <v>44326</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N14" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="O14" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="P14" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1778</v>
+        <v>1556</v>
       </c>
       <c r="T14" t="n">
         <v>18</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44389</v>
+        <v>44435</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N16" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="O16" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="P16" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1611</v>
+        <v>1778</v>
       </c>
       <c r="T16" t="n">
         <v>18</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44389</v>
+        <v>44522</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N17" t="n">
-        <v>27000</v>
+        <v>60000</v>
       </c>
       <c r="O17" t="n">
-        <v>27000</v>
+        <v>60000</v>
       </c>
       <c r="P17" t="n">
-        <v>27000</v>
+        <v>60000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1742,11 +1742,11 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1500</v>
+        <v>3333</v>
       </c>
       <c r="T17" t="n">
         <v>18</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44417</v>
+        <v>44522</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1800,20 +1800,20 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N18" t="n">
-        <v>28000</v>
+        <v>56000</v>
       </c>
       <c r="O18" t="n">
-        <v>28000</v>
+        <v>56000</v>
       </c>
       <c r="P18" t="n">
-        <v>28000</v>
+        <v>56000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1822,11 +1822,11 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1556</v>
+        <v>3111</v>
       </c>
       <c r="T18" t="n">
         <v>18</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44312</v>
+        <v>44417</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>160</v>
+        <v>15</v>
       </c>
       <c r="N19" t="n">
-        <v>26000</v>
+        <v>28000</v>
       </c>
       <c r="O19" t="n">
-        <v>26000</v>
+        <v>28000</v>
       </c>
       <c r="P19" t="n">
-        <v>26000</v>
+        <v>28000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1444</v>
+        <v>1556</v>
       </c>
       <c r="T19" t="n">
         <v>18</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44424</v>
+        <v>44403</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1960,20 +1960,20 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N20" t="n">
-        <v>32000</v>
+        <v>33000</v>
       </c>
       <c r="O20" t="n">
-        <v>32000</v>
+        <v>33000</v>
       </c>
       <c r="P20" t="n">
-        <v>32000</v>
+        <v>33000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1778</v>
+        <v>1833</v>
       </c>
       <c r="T20" t="n">
         <v>18</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44410</v>
+        <v>44403</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2040,20 +2040,20 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="N21" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="O21" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="P21" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1778</v>
+        <v>1667</v>
       </c>
       <c r="T21" t="n">
         <v>18</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44410</v>
+        <v>44403</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2120,20 +2120,20 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N22" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="O22" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="P22" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1667</v>
+        <v>1556</v>
       </c>
       <c r="T22" t="n">
         <v>18</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44410</v>
+        <v>44291</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2200,20 +2200,20 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="N23" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="O23" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="P23" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1556</v>
+        <v>1389</v>
       </c>
       <c r="T23" t="n">
         <v>18</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44326</v>
+        <v>44445</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2280,20 +2280,20 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="N24" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="O24" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="P24" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1944</v>
+        <v>1778</v>
       </c>
       <c r="T24" t="n">
         <v>18</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44326</v>
+        <v>44529</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2360,20 +2360,20 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N25" t="n">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="O25" t="n">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="P25" t="n">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1667</v>
+        <v>3333</v>
       </c>
       <c r="T25" t="n">
         <v>18</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44326</v>
+        <v>44529</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2440,20 +2440,20 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="N26" t="n">
-        <v>28000</v>
+        <v>58000</v>
       </c>
       <c r="O26" t="n">
-        <v>28000</v>
+        <v>58000</v>
       </c>
       <c r="P26" t="n">
-        <v>28000</v>
+        <v>58000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1556</v>
+        <v>3222</v>
       </c>
       <c r="T26" t="n">
         <v>18</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44291</v>
+        <v>44424</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2527,13 +2527,13 @@
         <v>30</v>
       </c>
       <c r="N27" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="O27" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="P27" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1389</v>
+        <v>1778</v>
       </c>
       <c r="T27" t="n">
         <v>18</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44277</v>
+        <v>44389</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2604,16 +2604,16 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="N28" t="n">
-        <v>30000</v>
+        <v>29000</v>
       </c>
       <c r="O28" t="n">
-        <v>30000</v>
+        <v>29000</v>
       </c>
       <c r="P28" t="n">
-        <v>30000</v>
+        <v>29000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1667</v>
+        <v>1611</v>
       </c>
       <c r="T28" t="n">
         <v>18</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44277</v>
+        <v>44389</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2684,16 +2684,16 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="N29" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="O29" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="P29" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1556</v>
+        <v>1500</v>
       </c>
       <c r="T29" t="n">
         <v>18</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44435</v>
+        <v>44410</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2760,11 +2760,11 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N30" t="n">
         <v>32000</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44354</v>
+        <v>44410</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2844,16 +2844,16 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="N31" t="n">
-        <v>38000</v>
+        <v>30000</v>
       </c>
       <c r="O31" t="n">
-        <v>38000</v>
+        <v>30000</v>
       </c>
       <c r="P31" t="n">
-        <v>38000</v>
+        <v>30000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>2111</v>
+        <v>1667</v>
       </c>
       <c r="T31" t="n">
         <v>18</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44473</v>
+        <v>44410</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2920,20 +2920,20 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M32" t="n">
         <v>10</v>
       </c>
       <c r="N32" t="n">
-        <v>75000</v>
+        <v>28000</v>
       </c>
       <c r="O32" t="n">
-        <v>75000</v>
+        <v>28000</v>
       </c>
       <c r="P32" t="n">
-        <v>75000</v>
+        <v>28000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>4167</v>
+        <v>1556</v>
       </c>
       <c r="T32" t="n">
         <v>18</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44473</v>
+        <v>44382</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3000,20 +3000,20 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N33" t="n">
-        <v>72000</v>
+        <v>35000</v>
       </c>
       <c r="O33" t="n">
-        <v>72000</v>
+        <v>35000</v>
       </c>
       <c r="P33" t="n">
-        <v>72000</v>
+        <v>35000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>4000</v>
+        <v>1944</v>
       </c>
       <c r="T33" t="n">
         <v>18</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44473</v>
+        <v>44382</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3080,20 +3080,20 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="N34" t="n">
-        <v>67000</v>
+        <v>32000</v>
       </c>
       <c r="O34" t="n">
-        <v>67000</v>
+        <v>32000</v>
       </c>
       <c r="P34" t="n">
-        <v>67000</v>
+        <v>32000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>3722</v>
+        <v>1778</v>
       </c>
       <c r="T34" t="n">
         <v>18</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44529</v>
+        <v>44382</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3160,20 +3160,20 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N35" t="n">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="O35" t="n">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="P35" t="n">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>3333</v>
+        <v>1667</v>
       </c>
       <c r="T35" t="n">
         <v>18</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44529</v>
+        <v>44277</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3244,16 +3244,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N36" t="n">
-        <v>58000</v>
+        <v>30000</v>
       </c>
       <c r="O36" t="n">
-        <v>58000</v>
+        <v>30000</v>
       </c>
       <c r="P36" t="n">
-        <v>58000</v>
+        <v>30000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>3222</v>
+        <v>1667</v>
       </c>
       <c r="T36" t="n">
         <v>18</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44333</v>
+        <v>44277</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3320,20 +3320,20 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="N37" t="n">
-        <v>38000</v>
+        <v>28000</v>
       </c>
       <c r="O37" t="n">
-        <v>38000</v>
+        <v>28000</v>
       </c>
       <c r="P37" t="n">
-        <v>38000</v>
+        <v>28000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>2111</v>
+        <v>1556</v>
       </c>
       <c r="T37" t="n">
         <v>18</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44333</v>
+        <v>44473</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3400,20 +3400,20 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="N38" t="n">
-        <v>35000</v>
+        <v>75000</v>
       </c>
       <c r="O38" t="n">
-        <v>35000</v>
+        <v>75000</v>
       </c>
       <c r="P38" t="n">
-        <v>35000</v>
+        <v>75000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>1944</v>
+        <v>4167</v>
       </c>
       <c r="T38" t="n">
         <v>18</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44522</v>
+        <v>44473</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3487,13 +3487,13 @@
         <v>25</v>
       </c>
       <c r="N39" t="n">
-        <v>60000</v>
+        <v>72000</v>
       </c>
       <c r="O39" t="n">
-        <v>60000</v>
+        <v>72000</v>
       </c>
       <c r="P39" t="n">
-        <v>60000</v>
+        <v>72000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3502,11 +3502,11 @@
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S39" t="n">
-        <v>3333</v>
+        <v>4000</v>
       </c>
       <c r="T39" t="n">
         <v>18</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44522</v>
+        <v>44473</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3564,16 +3564,16 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="N40" t="n">
-        <v>56000</v>
+        <v>67000</v>
       </c>
       <c r="O40" t="n">
-        <v>56000</v>
+        <v>67000</v>
       </c>
       <c r="P40" t="n">
-        <v>56000</v>
+        <v>67000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3582,11 +3582,11 @@
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S40" t="n">
-        <v>3111</v>
+        <v>3722</v>
       </c>
       <c r="T40" t="n">
         <v>18</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44340</v>
+        <v>44459</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3644,16 +3644,16 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="N41" t="n">
-        <v>37000</v>
+        <v>38000</v>
       </c>
       <c r="O41" t="n">
-        <v>37000</v>
+        <v>38000</v>
       </c>
       <c r="P41" t="n">
-        <v>37000</v>
+        <v>38000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>2056</v>
+        <v>2111</v>
       </c>
       <c r="T41" t="n">
         <v>18</v>
@@ -3720,20 +3720,20 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="N42" t="n">
-        <v>35000</v>
+        <v>37000</v>
       </c>
       <c r="O42" t="n">
-        <v>35000</v>
+        <v>37000</v>
       </c>
       <c r="P42" t="n">
-        <v>35000</v>
+        <v>37000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>1944</v>
+        <v>2056</v>
       </c>
       <c r="T42" t="n">
         <v>18</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44466</v>
+        <v>44340</v>
       </c>
       <c r="E43" t="n">
         <v>13</v>
@@ -3800,20 +3800,20 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N43" t="n">
-        <v>60000</v>
+        <v>35000</v>
       </c>
       <c r="O43" t="n">
-        <v>60000</v>
+        <v>35000</v>
       </c>
       <c r="P43" t="n">
-        <v>60000</v>
+        <v>35000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>3333</v>
+        <v>1944</v>
       </c>
       <c r="T43" t="n">
         <v>18</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44466</v>
+        <v>44396</v>
       </c>
       <c r="E44" t="n">
         <v>13</v>
@@ -3880,20 +3880,20 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="N44" t="n">
-        <v>58000</v>
+        <v>37000</v>
       </c>
       <c r="O44" t="n">
-        <v>58000</v>
+        <v>37000</v>
       </c>
       <c r="P44" t="n">
-        <v>58000</v>
+        <v>37000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>3222</v>
+        <v>2056</v>
       </c>
       <c r="T44" t="n">
         <v>18</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44382</v>
+        <v>44396</v>
       </c>
       <c r="E45" t="n">
         <v>13</v>
@@ -3960,20 +3960,20 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N45" t="n">
-        <v>35000</v>
+        <v>34000</v>
       </c>
       <c r="O45" t="n">
-        <v>35000</v>
+        <v>34000</v>
       </c>
       <c r="P45" t="n">
-        <v>35000</v>
+        <v>34000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>1944</v>
+        <v>1889</v>
       </c>
       <c r="T45" t="n">
         <v>18</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44382</v>
+        <v>44438</v>
       </c>
       <c r="E46" t="n">
         <v>13</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44382</v>
+        <v>44270</v>
       </c>
       <c r="E47" t="n">
         <v>13</v>
@@ -4120,20 +4120,20 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="N47" t="n">
-        <v>30000</v>
+        <v>38000</v>
       </c>
       <c r="O47" t="n">
-        <v>30000</v>
+        <v>38000</v>
       </c>
       <c r="P47" t="n">
-        <v>30000</v>
+        <v>38000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>1667</v>
+        <v>2111</v>
       </c>
       <c r="T47" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Maracuyá.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Maracuyá.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44452</v>
+        <v>44270</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="N2" t="n">
-        <v>36000</v>
+        <v>38000</v>
       </c>
       <c r="O2" t="n">
-        <v>36000</v>
+        <v>38000</v>
       </c>
       <c r="P2" t="n">
-        <v>36000</v>
+        <v>38000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>2000</v>
+        <v>2111</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44431</v>
+        <v>44410</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -600,11 +600,11 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N3" t="n">
         <v>32000</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44466</v>
+        <v>44410</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N4" t="n">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="O4" t="n">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="P4" t="n">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>3333</v>
+        <v>1667</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44466</v>
+        <v>44410</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -767,13 +767,13 @@
         <v>10</v>
       </c>
       <c r="N5" t="n">
-        <v>58000</v>
+        <v>28000</v>
       </c>
       <c r="O5" t="n">
-        <v>58000</v>
+        <v>28000</v>
       </c>
       <c r="P5" t="n">
-        <v>58000</v>
+        <v>28000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>3222</v>
+        <v>1556</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44284</v>
+        <v>44431</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="N6" t="n">
-        <v>23000</v>
+        <v>32000</v>
       </c>
       <c r="O6" t="n">
-        <v>23000</v>
+        <v>32000</v>
       </c>
       <c r="P6" t="n">
-        <v>23000</v>
+        <v>32000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1278</v>
+        <v>1778</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44333</v>
+        <v>44522</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N7" t="n">
-        <v>38000</v>
+        <v>60000</v>
       </c>
       <c r="O7" t="n">
-        <v>38000</v>
+        <v>60000</v>
       </c>
       <c r="P7" t="n">
-        <v>38000</v>
+        <v>60000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -942,11 +942,11 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>2111</v>
+        <v>3333</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44333</v>
+        <v>44522</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N8" t="n">
-        <v>35000</v>
+        <v>56000</v>
       </c>
       <c r="O8" t="n">
-        <v>35000</v>
+        <v>56000</v>
       </c>
       <c r="P8" t="n">
-        <v>35000</v>
+        <v>56000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1022,11 +1022,11 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1944</v>
+        <v>3111</v>
       </c>
       <c r="T8" t="n">
         <v>18</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44312</v>
+        <v>44466</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>160</v>
+        <v>15</v>
       </c>
       <c r="N9" t="n">
-        <v>26000</v>
+        <v>60000</v>
       </c>
       <c r="O9" t="n">
-        <v>26000</v>
+        <v>60000</v>
       </c>
       <c r="P9" t="n">
-        <v>26000</v>
+        <v>60000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1444</v>
+        <v>3333</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44319</v>
+        <v>44466</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1160,20 +1160,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="N10" t="n">
-        <v>27000</v>
+        <v>58000</v>
       </c>
       <c r="O10" t="n">
-        <v>27000</v>
+        <v>58000</v>
       </c>
       <c r="P10" t="n">
-        <v>27000</v>
+        <v>58000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1500</v>
+        <v>3222</v>
       </c>
       <c r="T10" t="n">
         <v>18</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44354</v>
+        <v>44312</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="N11" t="n">
-        <v>38000</v>
+        <v>26000</v>
       </c>
       <c r="O11" t="n">
-        <v>38000</v>
+        <v>26000</v>
       </c>
       <c r="P11" t="n">
-        <v>38000</v>
+        <v>26000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>2111</v>
+        <v>1444</v>
       </c>
       <c r="T11" t="n">
         <v>18</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44326</v>
+        <v>44291</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="N12" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="O12" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="P12" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1944</v>
+        <v>1389</v>
       </c>
       <c r="T12" t="n">
         <v>18</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44326</v>
+        <v>44473</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="N13" t="n">
-        <v>30000</v>
+        <v>75000</v>
       </c>
       <c r="O13" t="n">
-        <v>30000</v>
+        <v>75000</v>
       </c>
       <c r="P13" t="n">
-        <v>30000</v>
+        <v>75000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1667</v>
+        <v>4167</v>
       </c>
       <c r="T13" t="n">
         <v>18</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44326</v>
+        <v>44473</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N14" t="n">
-        <v>28000</v>
+        <v>72000</v>
       </c>
       <c r="O14" t="n">
-        <v>28000</v>
+        <v>72000</v>
       </c>
       <c r="P14" t="n">
-        <v>28000</v>
+        <v>72000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1556</v>
+        <v>4000</v>
       </c>
       <c r="T14" t="n">
         <v>18</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44305</v>
+        <v>44473</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="N15" t="n">
-        <v>30000</v>
+        <v>67000</v>
       </c>
       <c r="O15" t="n">
-        <v>30000</v>
+        <v>67000</v>
       </c>
       <c r="P15" t="n">
-        <v>30000</v>
+        <v>67000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1667</v>
+        <v>3722</v>
       </c>
       <c r="T15" t="n">
         <v>18</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44435</v>
+        <v>44326</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="N16" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="O16" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="P16" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1778</v>
+        <v>1944</v>
       </c>
       <c r="T16" t="n">
         <v>18</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44522</v>
+        <v>44326</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1727,13 +1727,13 @@
         <v>25</v>
       </c>
       <c r="N17" t="n">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="O17" t="n">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="P17" t="n">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1742,11 +1742,11 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S17" t="n">
-        <v>3333</v>
+        <v>1667</v>
       </c>
       <c r="T17" t="n">
         <v>18</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44522</v>
+        <v>44326</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1807,13 +1807,13 @@
         <v>20</v>
       </c>
       <c r="N18" t="n">
-        <v>56000</v>
+        <v>28000</v>
       </c>
       <c r="O18" t="n">
-        <v>56000</v>
+        <v>28000</v>
       </c>
       <c r="P18" t="n">
-        <v>56000</v>
+        <v>28000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1822,11 +1822,11 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S18" t="n">
-        <v>3111</v>
+        <v>1556</v>
       </c>
       <c r="T18" t="n">
         <v>18</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44417</v>
+        <v>44277</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="N19" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="O19" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="P19" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1556</v>
+        <v>1667</v>
       </c>
       <c r="T19" t="n">
         <v>18</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44403</v>
+        <v>44277</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1960,20 +1960,20 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="N20" t="n">
-        <v>33000</v>
+        <v>28000</v>
       </c>
       <c r="O20" t="n">
-        <v>33000</v>
+        <v>28000</v>
       </c>
       <c r="P20" t="n">
-        <v>33000</v>
+        <v>28000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1833</v>
+        <v>1556</v>
       </c>
       <c r="T20" t="n">
         <v>18</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44403</v>
+        <v>44284</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="N21" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="O21" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="P21" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1667</v>
+        <v>1278</v>
       </c>
       <c r="T21" t="n">
         <v>18</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44403</v>
+        <v>44417</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2120,7 +2120,7 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M22" t="n">
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44291</v>
+        <v>44424</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2207,13 +2207,13 @@
         <v>30</v>
       </c>
       <c r="N23" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="O23" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="P23" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1389</v>
+        <v>1778</v>
       </c>
       <c r="T23" t="n">
         <v>18</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44529</v>
+        <v>44340</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2360,20 +2360,20 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="N25" t="n">
-        <v>60000</v>
+        <v>37000</v>
       </c>
       <c r="O25" t="n">
-        <v>60000</v>
+        <v>37000</v>
       </c>
       <c r="P25" t="n">
-        <v>60000</v>
+        <v>37000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>3333</v>
+        <v>2056</v>
       </c>
       <c r="T25" t="n">
         <v>18</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44529</v>
+        <v>44340</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2440,20 +2440,20 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="N26" t="n">
-        <v>58000</v>
+        <v>35000</v>
       </c>
       <c r="O26" t="n">
-        <v>58000</v>
+        <v>35000</v>
       </c>
       <c r="P26" t="n">
-        <v>58000</v>
+        <v>35000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>3222</v>
+        <v>1944</v>
       </c>
       <c r="T26" t="n">
         <v>18</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44424</v>
+        <v>44319</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2524,16 +2524,16 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>30</v>
+        <v>140</v>
       </c>
       <c r="N27" t="n">
-        <v>32000</v>
+        <v>27000</v>
       </c>
       <c r="O27" t="n">
-        <v>32000</v>
+        <v>27000</v>
       </c>
       <c r="P27" t="n">
-        <v>32000</v>
+        <v>27000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1778</v>
+        <v>1500</v>
       </c>
       <c r="T27" t="n">
         <v>18</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44389</v>
+        <v>44305</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2604,16 +2604,16 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="N28" t="n">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="O28" t="n">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="P28" t="n">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1611</v>
+        <v>1667</v>
       </c>
       <c r="T28" t="n">
         <v>18</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44389</v>
+        <v>44333</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2680,20 +2680,20 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N29" t="n">
-        <v>27000</v>
+        <v>38000</v>
       </c>
       <c r="O29" t="n">
-        <v>27000</v>
+        <v>38000</v>
       </c>
       <c r="P29" t="n">
-        <v>27000</v>
+        <v>38000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1500</v>
+        <v>2111</v>
       </c>
       <c r="T29" t="n">
         <v>18</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44410</v>
+        <v>44333</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2760,20 +2760,20 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N30" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="O30" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="P30" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1778</v>
+        <v>1944</v>
       </c>
       <c r="T30" t="n">
         <v>18</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44410</v>
+        <v>44354</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2844,16 +2844,16 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="N31" t="n">
-        <v>30000</v>
+        <v>38000</v>
       </c>
       <c r="O31" t="n">
-        <v>30000</v>
+        <v>38000</v>
       </c>
       <c r="P31" t="n">
-        <v>30000</v>
+        <v>38000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1667</v>
+        <v>2111</v>
       </c>
       <c r="T31" t="n">
         <v>18</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44410</v>
+        <v>44389</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2920,20 +2920,20 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="N32" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="O32" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="P32" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1556</v>
+        <v>1611</v>
       </c>
       <c r="T32" t="n">
         <v>18</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44382</v>
+        <v>44389</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3000,20 +3000,20 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M33" t="n">
         <v>20</v>
       </c>
       <c r="N33" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="O33" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="P33" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1944</v>
+        <v>1500</v>
       </c>
       <c r="T33" t="n">
         <v>18</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44382</v>
+        <v>44459</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3084,16 +3084,16 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N34" t="n">
-        <v>32000</v>
+        <v>38000</v>
       </c>
       <c r="O34" t="n">
-        <v>32000</v>
+        <v>38000</v>
       </c>
       <c r="P34" t="n">
-        <v>32000</v>
+        <v>38000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1778</v>
+        <v>2111</v>
       </c>
       <c r="T34" t="n">
         <v>18</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44382</v>
+        <v>44438</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3160,20 +3160,20 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N35" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="O35" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="P35" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1667</v>
+        <v>1778</v>
       </c>
       <c r="T35" t="n">
         <v>18</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44277</v>
+        <v>44435</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3244,16 +3244,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="N36" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="O36" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="P36" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1667</v>
+        <v>1778</v>
       </c>
       <c r="T36" t="n">
         <v>18</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44277</v>
+        <v>44452</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3320,20 +3320,20 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="N37" t="n">
-        <v>28000</v>
+        <v>36000</v>
       </c>
       <c r="O37" t="n">
-        <v>28000</v>
+        <v>36000</v>
       </c>
       <c r="P37" t="n">
-        <v>28000</v>
+        <v>36000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1556</v>
+        <v>2000</v>
       </c>
       <c r="T37" t="n">
         <v>18</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44473</v>
+        <v>44529</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3404,16 +3404,16 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N38" t="n">
-        <v>75000</v>
+        <v>60000</v>
       </c>
       <c r="O38" t="n">
-        <v>75000</v>
+        <v>60000</v>
       </c>
       <c r="P38" t="n">
-        <v>75000</v>
+        <v>60000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>4167</v>
+        <v>3333</v>
       </c>
       <c r="T38" t="n">
         <v>18</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44473</v>
+        <v>44529</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3484,16 +3484,16 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N39" t="n">
-        <v>72000</v>
+        <v>58000</v>
       </c>
       <c r="O39" t="n">
-        <v>72000</v>
+        <v>58000</v>
       </c>
       <c r="P39" t="n">
-        <v>72000</v>
+        <v>58000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>4000</v>
+        <v>3222</v>
       </c>
       <c r="T39" t="n">
         <v>18</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44473</v>
+        <v>44396</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3560,20 +3560,20 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="N40" t="n">
-        <v>67000</v>
+        <v>37000</v>
       </c>
       <c r="O40" t="n">
-        <v>67000</v>
+        <v>37000</v>
       </c>
       <c r="P40" t="n">
-        <v>67000</v>
+        <v>37000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>3722</v>
+        <v>2056</v>
       </c>
       <c r="T40" t="n">
         <v>18</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44459</v>
+        <v>44396</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3640,20 +3640,20 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N41" t="n">
-        <v>38000</v>
+        <v>34000</v>
       </c>
       <c r="O41" t="n">
-        <v>38000</v>
+        <v>34000</v>
       </c>
       <c r="P41" t="n">
-        <v>38000</v>
+        <v>34000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>2111</v>
+        <v>1889</v>
       </c>
       <c r="T41" t="n">
         <v>18</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44340</v>
+        <v>44403</v>
       </c>
       <c r="E42" t="n">
         <v>13</v>
@@ -3720,20 +3720,20 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="N42" t="n">
-        <v>37000</v>
+        <v>33000</v>
       </c>
       <c r="O42" t="n">
-        <v>37000</v>
+        <v>33000</v>
       </c>
       <c r="P42" t="n">
-        <v>37000</v>
+        <v>33000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>2056</v>
+        <v>1833</v>
       </c>
       <c r="T42" t="n">
         <v>18</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44340</v>
+        <v>44403</v>
       </c>
       <c r="E43" t="n">
         <v>13</v>
@@ -3800,20 +3800,20 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="N43" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="O43" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="P43" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>1944</v>
+        <v>1667</v>
       </c>
       <c r="T43" t="n">
         <v>18</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44396</v>
+        <v>44403</v>
       </c>
       <c r="E44" t="n">
         <v>13</v>
@@ -3880,20 +3880,20 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="N44" t="n">
-        <v>37000</v>
+        <v>28000</v>
       </c>
       <c r="O44" t="n">
-        <v>37000</v>
+        <v>28000</v>
       </c>
       <c r="P44" t="n">
-        <v>37000</v>
+        <v>28000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>2056</v>
+        <v>1556</v>
       </c>
       <c r="T44" t="n">
         <v>18</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44396</v>
+        <v>44382</v>
       </c>
       <c r="E45" t="n">
         <v>13</v>
@@ -3960,20 +3960,20 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N45" t="n">
-        <v>34000</v>
+        <v>35000</v>
       </c>
       <c r="O45" t="n">
-        <v>34000</v>
+        <v>35000</v>
       </c>
       <c r="P45" t="n">
-        <v>34000</v>
+        <v>35000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>1889</v>
+        <v>1944</v>
       </c>
       <c r="T45" t="n">
         <v>18</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44438</v>
+        <v>44382</v>
       </c>
       <c r="E46" t="n">
         <v>13</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44270</v>
+        <v>44382</v>
       </c>
       <c r="E47" t="n">
         <v>13</v>
@@ -4120,20 +4120,20 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="N47" t="n">
-        <v>38000</v>
+        <v>30000</v>
       </c>
       <c r="O47" t="n">
-        <v>38000</v>
+        <v>30000</v>
       </c>
       <c r="P47" t="n">
-        <v>38000</v>
+        <v>30000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>2111</v>
+        <v>1667</v>
       </c>
       <c r="T47" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Maracuyá.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Maracuyá.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T47"/>
+  <dimension ref="A1:T48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44522</v>
+        <v>45222</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="N7" t="n">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="O7" t="n">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="P7" t="n">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -942,11 +942,11 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>3333</v>
+        <v>2778</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N8" t="n">
-        <v>56000</v>
+        <v>60000</v>
       </c>
       <c r="O8" t="n">
-        <v>56000</v>
+        <v>60000</v>
       </c>
       <c r="P8" t="n">
-        <v>56000</v>
+        <v>60000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>3111</v>
+        <v>3333</v>
       </c>
       <c r="T8" t="n">
         <v>18</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44466</v>
+        <v>44522</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N9" t="n">
-        <v>60000</v>
+        <v>56000</v>
       </c>
       <c r="O9" t="n">
-        <v>60000</v>
+        <v>56000</v>
       </c>
       <c r="P9" t="n">
-        <v>60000</v>
+        <v>56000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1102,11 +1102,11 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>3333</v>
+        <v>3111</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>
@@ -1160,20 +1160,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N10" t="n">
-        <v>58000</v>
+        <v>60000</v>
       </c>
       <c r="O10" t="n">
-        <v>58000</v>
+        <v>60000</v>
       </c>
       <c r="P10" t="n">
-        <v>58000</v>
+        <v>60000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>3222</v>
+        <v>3333</v>
       </c>
       <c r="T10" t="n">
         <v>18</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44312</v>
+        <v>44466</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1240,20 +1240,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="N11" t="n">
-        <v>26000</v>
+        <v>58000</v>
       </c>
       <c r="O11" t="n">
-        <v>26000</v>
+        <v>58000</v>
       </c>
       <c r="P11" t="n">
-        <v>26000</v>
+        <v>58000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1444</v>
+        <v>3222</v>
       </c>
       <c r="T11" t="n">
         <v>18</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44291</v>
+        <v>44312</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>30</v>
+        <v>160</v>
       </c>
       <c r="N12" t="n">
-        <v>25000</v>
+        <v>26000</v>
       </c>
       <c r="O12" t="n">
-        <v>25000</v>
+        <v>26000</v>
       </c>
       <c r="P12" t="n">
-        <v>25000</v>
+        <v>26000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1389</v>
+        <v>1444</v>
       </c>
       <c r="T12" t="n">
         <v>18</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44473</v>
+        <v>44291</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="N13" t="n">
-        <v>75000</v>
+        <v>25000</v>
       </c>
       <c r="O13" t="n">
-        <v>75000</v>
+        <v>25000</v>
       </c>
       <c r="P13" t="n">
-        <v>75000</v>
+        <v>25000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>4167</v>
+        <v>1389</v>
       </c>
       <c r="T13" t="n">
         <v>18</v>
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="N14" t="n">
-        <v>72000</v>
+        <v>75000</v>
       </c>
       <c r="O14" t="n">
-        <v>72000</v>
+        <v>75000</v>
       </c>
       <c r="P14" t="n">
-        <v>72000</v>
+        <v>75000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>4000</v>
+        <v>4167</v>
       </c>
       <c r="T14" t="n">
         <v>18</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="N15" t="n">
-        <v>67000</v>
+        <v>72000</v>
       </c>
       <c r="O15" t="n">
-        <v>67000</v>
+        <v>72000</v>
       </c>
       <c r="P15" t="n">
-        <v>67000</v>
+        <v>72000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>3722</v>
+        <v>4000</v>
       </c>
       <c r="T15" t="n">
         <v>18</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44326</v>
+        <v>44473</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="N16" t="n">
-        <v>35000</v>
+        <v>67000</v>
       </c>
       <c r="O16" t="n">
-        <v>35000</v>
+        <v>67000</v>
       </c>
       <c r="P16" t="n">
-        <v>35000</v>
+        <v>67000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1944</v>
+        <v>3722</v>
       </c>
       <c r="T16" t="n">
         <v>18</v>
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="N17" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="O17" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="P17" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1667</v>
+        <v>1944</v>
       </c>
       <c r="T17" t="n">
         <v>18</v>
@@ -1800,20 +1800,20 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N18" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="O18" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="P18" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1556</v>
+        <v>1667</v>
       </c>
       <c r="T18" t="n">
         <v>18</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44277</v>
+        <v>44326</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="N19" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="O19" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="P19" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1667</v>
+        <v>1556</v>
       </c>
       <c r="T19" t="n">
         <v>18</v>
@@ -1960,20 +1960,20 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N20" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="O20" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="P20" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1556</v>
+        <v>1667</v>
       </c>
       <c r="T20" t="n">
         <v>18</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44284</v>
+        <v>44277</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2040,20 +2040,20 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="N21" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="O21" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="P21" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1278</v>
+        <v>1556</v>
       </c>
       <c r="T21" t="n">
         <v>18</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44417</v>
+        <v>44284</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>15</v>
+        <v>120</v>
       </c>
       <c r="N22" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="O22" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="P22" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1556</v>
+        <v>1278</v>
       </c>
       <c r="T22" t="n">
         <v>18</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44424</v>
+        <v>44417</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2204,16 +2204,16 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N23" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="O23" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="P23" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1778</v>
+        <v>1556</v>
       </c>
       <c r="T23" t="n">
         <v>18</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44445</v>
+        <v>44424</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44340</v>
+        <v>44445</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N25" t="n">
-        <v>37000</v>
+        <v>32000</v>
       </c>
       <c r="O25" t="n">
-        <v>37000</v>
+        <v>32000</v>
       </c>
       <c r="P25" t="n">
-        <v>37000</v>
+        <v>32000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>2056</v>
+        <v>1778</v>
       </c>
       <c r="T25" t="n">
         <v>18</v>
@@ -2440,20 +2440,20 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="N26" t="n">
-        <v>35000</v>
+        <v>37000</v>
       </c>
       <c r="O26" t="n">
-        <v>35000</v>
+        <v>37000</v>
       </c>
       <c r="P26" t="n">
-        <v>35000</v>
+        <v>37000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1944</v>
+        <v>2056</v>
       </c>
       <c r="T26" t="n">
         <v>18</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44319</v>
+        <v>44340</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2520,20 +2520,20 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="N27" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="O27" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="P27" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1500</v>
+        <v>1944</v>
       </c>
       <c r="T27" t="n">
         <v>18</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44305</v>
+        <v>44319</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2604,16 +2604,16 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>25</v>
+        <v>140</v>
       </c>
       <c r="N28" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="O28" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="P28" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1667</v>
+        <v>1500</v>
       </c>
       <c r="T28" t="n">
         <v>18</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44333</v>
+        <v>44305</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2684,16 +2684,16 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N29" t="n">
-        <v>38000</v>
+        <v>30000</v>
       </c>
       <c r="O29" t="n">
-        <v>38000</v>
+        <v>30000</v>
       </c>
       <c r="P29" t="n">
-        <v>38000</v>
+        <v>30000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>2111</v>
+        <v>1667</v>
       </c>
       <c r="T29" t="n">
         <v>18</v>
@@ -2760,20 +2760,20 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N30" t="n">
-        <v>35000</v>
+        <v>38000</v>
       </c>
       <c r="O30" t="n">
-        <v>35000</v>
+        <v>38000</v>
       </c>
       <c r="P30" t="n">
-        <v>35000</v>
+        <v>38000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1944</v>
+        <v>2111</v>
       </c>
       <c r="T30" t="n">
         <v>18</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44354</v>
+        <v>44333</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2840,20 +2840,20 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="N31" t="n">
-        <v>38000</v>
+        <v>35000</v>
       </c>
       <c r="O31" t="n">
-        <v>38000</v>
+        <v>35000</v>
       </c>
       <c r="P31" t="n">
-        <v>38000</v>
+        <v>35000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>2111</v>
+        <v>1944</v>
       </c>
       <c r="T31" t="n">
         <v>18</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44389</v>
+        <v>44354</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2924,16 +2924,16 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N32" t="n">
-        <v>29000</v>
+        <v>38000</v>
       </c>
       <c r="O32" t="n">
-        <v>29000</v>
+        <v>38000</v>
       </c>
       <c r="P32" t="n">
-        <v>29000</v>
+        <v>38000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1611</v>
+        <v>2111</v>
       </c>
       <c r="T32" t="n">
         <v>18</v>
@@ -3000,20 +3000,20 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="N33" t="n">
-        <v>27000</v>
+        <v>29000</v>
       </c>
       <c r="O33" t="n">
-        <v>27000</v>
+        <v>29000</v>
       </c>
       <c r="P33" t="n">
-        <v>27000</v>
+        <v>29000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1500</v>
+        <v>1611</v>
       </c>
       <c r="T33" t="n">
         <v>18</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44459</v>
+        <v>44389</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3080,20 +3080,20 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N34" t="n">
-        <v>38000</v>
+        <v>27000</v>
       </c>
       <c r="O34" t="n">
-        <v>38000</v>
+        <v>27000</v>
       </c>
       <c r="P34" t="n">
-        <v>38000</v>
+        <v>27000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>2111</v>
+        <v>1500</v>
       </c>
       <c r="T34" t="n">
         <v>18</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44438</v>
+        <v>44459</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N35" t="n">
-        <v>32000</v>
+        <v>38000</v>
       </c>
       <c r="O35" t="n">
-        <v>32000</v>
+        <v>38000</v>
       </c>
       <c r="P35" t="n">
-        <v>32000</v>
+        <v>38000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1778</v>
+        <v>2111</v>
       </c>
       <c r="T35" t="n">
         <v>18</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44435</v>
+        <v>44438</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44452</v>
+        <v>44435</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3324,16 +3324,16 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N37" t="n">
-        <v>36000</v>
+        <v>32000</v>
       </c>
       <c r="O37" t="n">
-        <v>36000</v>
+        <v>32000</v>
       </c>
       <c r="P37" t="n">
-        <v>36000</v>
+        <v>32000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>2000</v>
+        <v>1778</v>
       </c>
       <c r="T37" t="n">
         <v>18</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44529</v>
+        <v>44452</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3400,20 +3400,20 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M38" t="n">
         <v>20</v>
       </c>
       <c r="N38" t="n">
-        <v>60000</v>
+        <v>36000</v>
       </c>
       <c r="O38" t="n">
-        <v>60000</v>
+        <v>36000</v>
       </c>
       <c r="P38" t="n">
-        <v>60000</v>
+        <v>36000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>3333</v>
+        <v>2000</v>
       </c>
       <c r="T38" t="n">
         <v>18</v>
@@ -3480,20 +3480,20 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="N39" t="n">
-        <v>58000</v>
+        <v>60000</v>
       </c>
       <c r="O39" t="n">
-        <v>58000</v>
+        <v>60000</v>
       </c>
       <c r="P39" t="n">
-        <v>58000</v>
+        <v>60000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>3222</v>
+        <v>3333</v>
       </c>
       <c r="T39" t="n">
         <v>18</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44396</v>
+        <v>44529</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3564,16 +3564,16 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="N40" t="n">
-        <v>37000</v>
+        <v>58000</v>
       </c>
       <c r="O40" t="n">
-        <v>37000</v>
+        <v>58000</v>
       </c>
       <c r="P40" t="n">
-        <v>37000</v>
+        <v>58000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>2056</v>
+        <v>3222</v>
       </c>
       <c r="T40" t="n">
         <v>18</v>
@@ -3640,20 +3640,20 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="N41" t="n">
-        <v>34000</v>
+        <v>37000</v>
       </c>
       <c r="O41" t="n">
-        <v>34000</v>
+        <v>37000</v>
       </c>
       <c r="P41" t="n">
-        <v>34000</v>
+        <v>37000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>1889</v>
+        <v>2056</v>
       </c>
       <c r="T41" t="n">
         <v>18</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44403</v>
+        <v>44396</v>
       </c>
       <c r="E42" t="n">
         <v>13</v>
@@ -3720,20 +3720,20 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N42" t="n">
-        <v>33000</v>
+        <v>34000</v>
       </c>
       <c r="O42" t="n">
-        <v>33000</v>
+        <v>34000</v>
       </c>
       <c r="P42" t="n">
-        <v>33000</v>
+        <v>34000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>1833</v>
+        <v>1889</v>
       </c>
       <c r="T42" t="n">
         <v>18</v>
@@ -3800,20 +3800,20 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="N43" t="n">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="O43" t="n">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="P43" t="n">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>1667</v>
+        <v>1833</v>
       </c>
       <c r="T43" t="n">
         <v>18</v>
@@ -3880,20 +3880,20 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="N44" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="O44" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="P44" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>1556</v>
+        <v>1667</v>
       </c>
       <c r="T44" t="n">
         <v>18</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44382</v>
+        <v>44403</v>
       </c>
       <c r="E45" t="n">
         <v>13</v>
@@ -3960,20 +3960,20 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N45" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="O45" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="P45" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>1944</v>
+        <v>1556</v>
       </c>
       <c r="T45" t="n">
         <v>18</v>
@@ -4040,20 +4040,20 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N46" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="O46" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="P46" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>1778</v>
+        <v>1944</v>
       </c>
       <c r="T46" t="n">
         <v>18</v>
@@ -4120,35 +4120,115 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
+        <v>30</v>
+      </c>
+      <c r="N47" t="n">
+        <v>32000</v>
+      </c>
+      <c r="O47" t="n">
+        <v>32000</v>
+      </c>
+      <c r="P47" t="n">
+        <v>32000</v>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="S47" t="n">
+        <v>1778</v>
+      </c>
+      <c r="T47" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>9</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="n">
+        <v>44382</v>
+      </c>
+      <c r="E48" t="n">
+        <v>13</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>100108003</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Maracuyá</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M47" t="n">
+      <c r="M48" t="n">
         <v>15</v>
       </c>
-      <c r="N47" t="n">
+      <c r="N48" t="n">
         <v>30000</v>
       </c>
-      <c r="O47" t="n">
+      <c r="O48" t="n">
         <v>30000</v>
       </c>
-      <c r="P47" t="n">
+      <c r="P48" t="n">
         <v>30000</v>
       </c>
-      <c r="Q47" t="inlineStr">
-        <is>
-          <t>$/caja 18 kilos</t>
-        </is>
-      </c>
-      <c r="R47" t="inlineStr">
-        <is>
-          <t>Perú</t>
-        </is>
-      </c>
-      <c r="S47" t="n">
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="S48" t="n">
         <v>1667</v>
       </c>
-      <c r="T47" t="n">
+      <c r="T48" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Maracuyá.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Maracuyá.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44270</v>
+        <v>44284</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="N2" t="n">
-        <v>38000</v>
+        <v>23000</v>
       </c>
       <c r="O2" t="n">
-        <v>38000</v>
+        <v>23000</v>
       </c>
       <c r="P2" t="n">
-        <v>38000</v>
+        <v>23000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>2111</v>
+        <v>1278</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44410</v>
+        <v>44417</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
         <v>15</v>
       </c>
       <c r="N3" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="O3" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="P3" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1778</v>
+        <v>1556</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44410</v>
+        <v>44438</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N4" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="O4" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="P4" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1667</v>
+        <v>1778</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44410</v>
+        <v>44333</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="N5" t="n">
-        <v>28000</v>
+        <v>38000</v>
       </c>
       <c r="O5" t="n">
-        <v>28000</v>
+        <v>38000</v>
       </c>
       <c r="P5" t="n">
-        <v>28000</v>
+        <v>38000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1556</v>
+        <v>2111</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44431</v>
+        <v>44333</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N6" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="O6" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="P6" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1778</v>
+        <v>1944</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45222</v>
+        <v>44424</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="N7" t="n">
-        <v>50000</v>
+        <v>32000</v>
       </c>
       <c r="O7" t="n">
-        <v>50000</v>
+        <v>32000</v>
       </c>
       <c r="P7" t="n">
-        <v>50000</v>
+        <v>32000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>2778</v>
+        <v>1778</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44522</v>
+        <v>44291</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N8" t="n">
-        <v>60000</v>
+        <v>25000</v>
       </c>
       <c r="O8" t="n">
-        <v>60000</v>
+        <v>25000</v>
       </c>
       <c r="P8" t="n">
-        <v>60000</v>
+        <v>25000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1022,11 +1022,11 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>3333</v>
+        <v>1389</v>
       </c>
       <c r="T8" t="n">
         <v>18</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44522</v>
+        <v>44435</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N9" t="n">
-        <v>56000</v>
+        <v>32000</v>
       </c>
       <c r="O9" t="n">
-        <v>56000</v>
+        <v>32000</v>
       </c>
       <c r="P9" t="n">
-        <v>56000</v>
+        <v>32000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1102,11 +1102,11 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>3111</v>
+        <v>1778</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44466</v>
+        <v>44270</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1160,20 +1160,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="N10" t="n">
-        <v>60000</v>
+        <v>38000</v>
       </c>
       <c r="O10" t="n">
-        <v>60000</v>
+        <v>38000</v>
       </c>
       <c r="P10" t="n">
-        <v>60000</v>
+        <v>38000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>3333</v>
+        <v>2111</v>
       </c>
       <c r="T10" t="n">
         <v>18</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44466</v>
+        <v>44389</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1240,20 +1240,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="N11" t="n">
-        <v>58000</v>
+        <v>29000</v>
       </c>
       <c r="O11" t="n">
-        <v>58000</v>
+        <v>29000</v>
       </c>
       <c r="P11" t="n">
-        <v>58000</v>
+        <v>29000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>3222</v>
+        <v>1611</v>
       </c>
       <c r="T11" t="n">
         <v>18</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="N12" t="n">
-        <v>26000</v>
+        <v>27000</v>
       </c>
       <c r="O12" t="n">
-        <v>26000</v>
+        <v>27000</v>
       </c>
       <c r="P12" t="n">
-        <v>26000</v>
+        <v>27000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1444</v>
+        <v>1500</v>
       </c>
       <c r="T12" t="n">
         <v>18</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44291</v>
+        <v>44403</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N13" t="n">
-        <v>25000</v>
+        <v>33000</v>
       </c>
       <c r="O13" t="n">
-        <v>25000</v>
+        <v>33000</v>
       </c>
       <c r="P13" t="n">
-        <v>25000</v>
+        <v>33000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1389</v>
+        <v>1833</v>
       </c>
       <c r="T13" t="n">
         <v>18</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44473</v>
+        <v>44403</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="N14" t="n">
-        <v>75000</v>
+        <v>30000</v>
       </c>
       <c r="O14" t="n">
-        <v>75000</v>
+        <v>30000</v>
       </c>
       <c r="P14" t="n">
-        <v>75000</v>
+        <v>30000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>4167</v>
+        <v>1667</v>
       </c>
       <c r="T14" t="n">
         <v>18</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44473</v>
+        <v>44403</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N15" t="n">
-        <v>72000</v>
+        <v>28000</v>
       </c>
       <c r="O15" t="n">
-        <v>72000</v>
+        <v>28000</v>
       </c>
       <c r="P15" t="n">
-        <v>72000</v>
+        <v>28000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>4000</v>
+        <v>1556</v>
       </c>
       <c r="T15" t="n">
         <v>18</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44473</v>
+        <v>44319</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>5</v>
+        <v>140</v>
       </c>
       <c r="N16" t="n">
-        <v>67000</v>
+        <v>27000</v>
       </c>
       <c r="O16" t="n">
-        <v>67000</v>
+        <v>27000</v>
       </c>
       <c r="P16" t="n">
-        <v>67000</v>
+        <v>27000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>3722</v>
+        <v>1500</v>
       </c>
       <c r="T16" t="n">
         <v>18</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44326</v>
+        <v>44522</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="N17" t="n">
-        <v>35000</v>
+        <v>60000</v>
       </c>
       <c r="O17" t="n">
-        <v>35000</v>
+        <v>60000</v>
       </c>
       <c r="P17" t="n">
-        <v>35000</v>
+        <v>60000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1742,11 +1742,11 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1944</v>
+        <v>3333</v>
       </c>
       <c r="T17" t="n">
         <v>18</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44326</v>
+        <v>44522</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1800,20 +1800,20 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N18" t="n">
-        <v>30000</v>
+        <v>56000</v>
       </c>
       <c r="O18" t="n">
-        <v>30000</v>
+        <v>56000</v>
       </c>
       <c r="P18" t="n">
-        <v>30000</v>
+        <v>56000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1822,11 +1822,11 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1667</v>
+        <v>3111</v>
       </c>
       <c r="T18" t="n">
         <v>18</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44326</v>
+        <v>44452</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M19" t="n">
         <v>20</v>
       </c>
       <c r="N19" t="n">
-        <v>28000</v>
+        <v>36000</v>
       </c>
       <c r="O19" t="n">
-        <v>28000</v>
+        <v>36000</v>
       </c>
       <c r="P19" t="n">
-        <v>28000</v>
+        <v>36000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1556</v>
+        <v>2000</v>
       </c>
       <c r="T19" t="n">
         <v>18</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44277</v>
+        <v>44340</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="N20" t="n">
-        <v>30000</v>
+        <v>37000</v>
       </c>
       <c r="O20" t="n">
-        <v>30000</v>
+        <v>37000</v>
       </c>
       <c r="P20" t="n">
-        <v>30000</v>
+        <v>37000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1667</v>
+        <v>2056</v>
       </c>
       <c r="T20" t="n">
         <v>18</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44277</v>
+        <v>44340</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="N21" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="O21" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="P21" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1556</v>
+        <v>1944</v>
       </c>
       <c r="T21" t="n">
         <v>18</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44284</v>
+        <v>44396</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>120</v>
+        <v>35</v>
       </c>
       <c r="N22" t="n">
-        <v>23000</v>
+        <v>37000</v>
       </c>
       <c r="O22" t="n">
-        <v>23000</v>
+        <v>37000</v>
       </c>
       <c r="P22" t="n">
-        <v>23000</v>
+        <v>37000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1278</v>
+        <v>2056</v>
       </c>
       <c r="T22" t="n">
         <v>18</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44417</v>
+        <v>44396</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2200,20 +2200,20 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M23" t="n">
         <v>15</v>
       </c>
       <c r="N23" t="n">
-        <v>28000</v>
+        <v>34000</v>
       </c>
       <c r="O23" t="n">
-        <v>28000</v>
+        <v>34000</v>
       </c>
       <c r="P23" t="n">
-        <v>28000</v>
+        <v>34000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1556</v>
+        <v>1889</v>
       </c>
       <c r="T23" t="n">
         <v>18</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44424</v>
+        <v>44326</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2280,20 +2280,20 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="N24" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="O24" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="P24" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1778</v>
+        <v>1944</v>
       </c>
       <c r="T24" t="n">
         <v>18</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44445</v>
+        <v>44326</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N25" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="O25" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="P25" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1778</v>
+        <v>1667</v>
       </c>
       <c r="T25" t="n">
         <v>18</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44340</v>
+        <v>44326</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2440,20 +2440,20 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="N26" t="n">
-        <v>37000</v>
+        <v>28000</v>
       </c>
       <c r="O26" t="n">
-        <v>37000</v>
+        <v>28000</v>
       </c>
       <c r="P26" t="n">
-        <v>37000</v>
+        <v>28000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>2056</v>
+        <v>1556</v>
       </c>
       <c r="T26" t="n">
         <v>18</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44340</v>
+        <v>44466</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2520,20 +2520,20 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N27" t="n">
-        <v>35000</v>
+        <v>60000</v>
       </c>
       <c r="O27" t="n">
-        <v>35000</v>
+        <v>60000</v>
       </c>
       <c r="P27" t="n">
-        <v>35000</v>
+        <v>60000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1944</v>
+        <v>3333</v>
       </c>
       <c r="T27" t="n">
         <v>18</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44319</v>
+        <v>44466</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2600,20 +2600,20 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="N28" t="n">
-        <v>27000</v>
+        <v>58000</v>
       </c>
       <c r="O28" t="n">
-        <v>27000</v>
+        <v>58000</v>
       </c>
       <c r="P28" t="n">
-        <v>27000</v>
+        <v>58000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1500</v>
+        <v>3222</v>
       </c>
       <c r="T28" t="n">
         <v>18</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44305</v>
+        <v>44382</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2680,20 +2680,20 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N29" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="O29" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="P29" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1667</v>
+        <v>1944</v>
       </c>
       <c r="T29" t="n">
         <v>18</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44333</v>
+        <v>44382</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2767,13 +2767,13 @@
         <v>30</v>
       </c>
       <c r="N30" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="O30" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="P30" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>2111</v>
+        <v>1778</v>
       </c>
       <c r="T30" t="n">
         <v>18</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44333</v>
+        <v>44382</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2844,16 +2844,16 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N31" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="O31" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="P31" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1944</v>
+        <v>1667</v>
       </c>
       <c r="T31" t="n">
         <v>18</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44354</v>
+        <v>44459</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2924,7 +2924,7 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="N32" t="n">
         <v>38000</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44389</v>
+        <v>44529</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3000,20 +3000,20 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="N33" t="n">
-        <v>29000</v>
+        <v>60000</v>
       </c>
       <c r="O33" t="n">
-        <v>29000</v>
+        <v>60000</v>
       </c>
       <c r="P33" t="n">
-        <v>29000</v>
+        <v>60000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>1611</v>
+        <v>3333</v>
       </c>
       <c r="T33" t="n">
         <v>18</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44389</v>
+        <v>44529</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3080,20 +3080,20 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="N34" t="n">
-        <v>27000</v>
+        <v>58000</v>
       </c>
       <c r="O34" t="n">
-        <v>27000</v>
+        <v>58000</v>
       </c>
       <c r="P34" t="n">
-        <v>27000</v>
+        <v>58000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>1500</v>
+        <v>3222</v>
       </c>
       <c r="T34" t="n">
         <v>18</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44459</v>
+        <v>44445</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N35" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="O35" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="P35" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>2111</v>
+        <v>1778</v>
       </c>
       <c r="T35" t="n">
         <v>18</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44438</v>
+        <v>45222</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3244,16 +3244,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="N36" t="n">
-        <v>32000</v>
+        <v>50000</v>
       </c>
       <c r="O36" t="n">
-        <v>32000</v>
+        <v>50000</v>
       </c>
       <c r="P36" t="n">
-        <v>32000</v>
+        <v>50000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>1778</v>
+        <v>2778</v>
       </c>
       <c r="T36" t="n">
         <v>18</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44435</v>
+        <v>44473</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3320,20 +3320,20 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="N37" t="n">
-        <v>32000</v>
+        <v>75000</v>
       </c>
       <c r="O37" t="n">
-        <v>32000</v>
+        <v>75000</v>
       </c>
       <c r="P37" t="n">
-        <v>32000</v>
+        <v>75000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1778</v>
+        <v>4167</v>
       </c>
       <c r="T37" t="n">
         <v>18</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44452</v>
+        <v>44473</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3404,16 +3404,16 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N38" t="n">
-        <v>36000</v>
+        <v>72000</v>
       </c>
       <c r="O38" t="n">
-        <v>36000</v>
+        <v>72000</v>
       </c>
       <c r="P38" t="n">
-        <v>36000</v>
+        <v>72000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="T38" t="n">
         <v>18</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44529</v>
+        <v>44473</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3480,20 +3480,20 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="N39" t="n">
-        <v>60000</v>
+        <v>67000</v>
       </c>
       <c r="O39" t="n">
-        <v>60000</v>
+        <v>67000</v>
       </c>
       <c r="P39" t="n">
-        <v>60000</v>
+        <v>67000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>3333</v>
+        <v>3722</v>
       </c>
       <c r="T39" t="n">
         <v>18</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44529</v>
+        <v>44312</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3564,16 +3564,16 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="N40" t="n">
-        <v>58000</v>
+        <v>26000</v>
       </c>
       <c r="O40" t="n">
-        <v>58000</v>
+        <v>26000</v>
       </c>
       <c r="P40" t="n">
-        <v>58000</v>
+        <v>26000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>3222</v>
+        <v>1444</v>
       </c>
       <c r="T40" t="n">
         <v>18</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44396</v>
+        <v>44305</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3644,16 +3644,16 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="N41" t="n">
-        <v>37000</v>
+        <v>30000</v>
       </c>
       <c r="O41" t="n">
-        <v>37000</v>
+        <v>30000</v>
       </c>
       <c r="P41" t="n">
-        <v>37000</v>
+        <v>30000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>2056</v>
+        <v>1667</v>
       </c>
       <c r="T41" t="n">
         <v>18</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44396</v>
+        <v>44277</v>
       </c>
       <c r="E42" t="n">
         <v>13</v>
@@ -3720,20 +3720,20 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="N42" t="n">
-        <v>34000</v>
+        <v>30000</v>
       </c>
       <c r="O42" t="n">
-        <v>34000</v>
+        <v>30000</v>
       </c>
       <c r="P42" t="n">
-        <v>34000</v>
+        <v>30000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>1889</v>
+        <v>1667</v>
       </c>
       <c r="T42" t="n">
         <v>18</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44403</v>
+        <v>44277</v>
       </c>
       <c r="E43" t="n">
         <v>13</v>
@@ -3800,20 +3800,20 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="N43" t="n">
-        <v>33000</v>
+        <v>28000</v>
       </c>
       <c r="O43" t="n">
-        <v>33000</v>
+        <v>28000</v>
       </c>
       <c r="P43" t="n">
-        <v>33000</v>
+        <v>28000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>1833</v>
+        <v>1556</v>
       </c>
       <c r="T43" t="n">
         <v>18</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44403</v>
+        <v>44410</v>
       </c>
       <c r="E44" t="n">
         <v>13</v>
@@ -3880,20 +3880,20 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="N44" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="O44" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="P44" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>1667</v>
+        <v>1778</v>
       </c>
       <c r="T44" t="n">
         <v>18</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44403</v>
+        <v>44410</v>
       </c>
       <c r="E45" t="n">
         <v>13</v>
@@ -3960,20 +3960,20 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N45" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="O45" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="P45" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>1556</v>
+        <v>1667</v>
       </c>
       <c r="T45" t="n">
         <v>18</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44382</v>
+        <v>44410</v>
       </c>
       <c r="E46" t="n">
         <v>13</v>
@@ -4040,20 +4040,20 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N46" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="O46" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="P46" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>1944</v>
+        <v>1556</v>
       </c>
       <c r="T46" t="n">
         <v>18</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44382</v>
+        <v>44431</v>
       </c>
       <c r="E47" t="n">
         <v>13</v>
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44382</v>
+        <v>44354</v>
       </c>
       <c r="E48" t="n">
         <v>13</v>
@@ -4200,20 +4200,20 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="N48" t="n">
-        <v>30000</v>
+        <v>38000</v>
       </c>
       <c r="O48" t="n">
-        <v>30000</v>
+        <v>38000</v>
       </c>
       <c r="P48" t="n">
-        <v>30000</v>
+        <v>38000</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         </is>
       </c>
       <c r="S48" t="n">
-        <v>1667</v>
+        <v>2111</v>
       </c>
       <c r="T48" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Maracuyá.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Maracuyá.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44284</v>
+        <v>44403</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>120</v>
+        <v>25</v>
       </c>
       <c r="N2" t="n">
-        <v>23000</v>
+        <v>33000</v>
       </c>
       <c r="O2" t="n">
-        <v>23000</v>
+        <v>33000</v>
       </c>
       <c r="P2" t="n">
-        <v>23000</v>
+        <v>33000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1278</v>
+        <v>1833</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44417</v>
+        <v>44403</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="N3" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="O3" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="P3" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1556</v>
+        <v>1667</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44438</v>
+        <v>44403</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N4" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="O4" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="P4" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1778</v>
+        <v>1556</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44333</v>
+        <v>44410</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N5" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="O5" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="P5" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>2111</v>
+        <v>1778</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44333</v>
+        <v>44410</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M6" t="n">
         <v>25</v>
       </c>
       <c r="N6" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="O6" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="P6" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1944</v>
+        <v>1667</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44424</v>
+        <v>44410</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="N7" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="O7" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="P7" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1778</v>
+        <v>1556</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="N8" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="O8" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="P8" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1389</v>
+        <v>1667</v>
       </c>
       <c r="T8" t="n">
         <v>18</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44435</v>
+        <v>44277</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="N9" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="O9" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="P9" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1778</v>
+        <v>1556</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44270</v>
+        <v>44291</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1160,20 +1160,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="N10" t="n">
-        <v>38000</v>
+        <v>25000</v>
       </c>
       <c r="O10" t="n">
-        <v>38000</v>
+        <v>25000</v>
       </c>
       <c r="P10" t="n">
-        <v>38000</v>
+        <v>25000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>2111</v>
+        <v>1389</v>
       </c>
       <c r="T10" t="n">
         <v>18</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44389</v>
+        <v>44424</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N11" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="O11" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="P11" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1611</v>
+        <v>1778</v>
       </c>
       <c r="T11" t="n">
         <v>18</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44389</v>
+        <v>45222</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="N12" t="n">
-        <v>27000</v>
+        <v>50000</v>
       </c>
       <c r="O12" t="n">
-        <v>27000</v>
+        <v>50000</v>
       </c>
       <c r="P12" t="n">
-        <v>27000</v>
+        <v>50000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1500</v>
+        <v>2778</v>
       </c>
       <c r="T12" t="n">
         <v>18</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44403</v>
+        <v>44473</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="N13" t="n">
-        <v>33000</v>
+        <v>75000</v>
       </c>
       <c r="O13" t="n">
-        <v>33000</v>
+        <v>75000</v>
       </c>
       <c r="P13" t="n">
-        <v>33000</v>
+        <v>75000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1833</v>
+        <v>4167</v>
       </c>
       <c r="T13" t="n">
         <v>18</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44403</v>
+        <v>44473</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="N14" t="n">
-        <v>30000</v>
+        <v>72000</v>
       </c>
       <c r="O14" t="n">
-        <v>30000</v>
+        <v>72000</v>
       </c>
       <c r="P14" t="n">
-        <v>30000</v>
+        <v>72000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1667</v>
+        <v>4000</v>
       </c>
       <c r="T14" t="n">
         <v>18</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44403</v>
+        <v>44473</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="N15" t="n">
-        <v>28000</v>
+        <v>67000</v>
       </c>
       <c r="O15" t="n">
-        <v>28000</v>
+        <v>67000</v>
       </c>
       <c r="P15" t="n">
-        <v>28000</v>
+        <v>67000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1556</v>
+        <v>3722</v>
       </c>
       <c r="T15" t="n">
         <v>18</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44319</v>
+        <v>44326</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>140</v>
+        <v>16</v>
       </c>
       <c r="N16" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="O16" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="P16" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1500</v>
+        <v>1944</v>
       </c>
       <c r="T16" t="n">
         <v>18</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44522</v>
+        <v>44326</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1727,13 +1727,13 @@
         <v>25</v>
       </c>
       <c r="N17" t="n">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="O17" t="n">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="P17" t="n">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1742,11 +1742,11 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S17" t="n">
-        <v>3333</v>
+        <v>1667</v>
       </c>
       <c r="T17" t="n">
         <v>18</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44522</v>
+        <v>44326</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1807,13 +1807,13 @@
         <v>20</v>
       </c>
       <c r="N18" t="n">
-        <v>56000</v>
+        <v>28000</v>
       </c>
       <c r="O18" t="n">
-        <v>56000</v>
+        <v>28000</v>
       </c>
       <c r="P18" t="n">
-        <v>56000</v>
+        <v>28000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1822,11 +1822,11 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S18" t="n">
-        <v>3111</v>
+        <v>1556</v>
       </c>
       <c r="T18" t="n">
         <v>18</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44452</v>
+        <v>44529</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M19" t="n">
         <v>20</v>
       </c>
       <c r="N19" t="n">
-        <v>36000</v>
+        <v>60000</v>
       </c>
       <c r="O19" t="n">
-        <v>36000</v>
+        <v>60000</v>
       </c>
       <c r="P19" t="n">
-        <v>36000</v>
+        <v>60000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>2000</v>
+        <v>3333</v>
       </c>
       <c r="T19" t="n">
         <v>18</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44340</v>
+        <v>44529</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="N20" t="n">
-        <v>37000</v>
+        <v>58000</v>
       </c>
       <c r="O20" t="n">
-        <v>37000</v>
+        <v>58000</v>
       </c>
       <c r="P20" t="n">
-        <v>37000</v>
+        <v>58000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>2056</v>
+        <v>3222</v>
       </c>
       <c r="T20" t="n">
         <v>18</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44340</v>
+        <v>44435</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -2040,20 +2040,20 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N21" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="O21" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="P21" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1944</v>
+        <v>1778</v>
       </c>
       <c r="T21" t="n">
         <v>18</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44396</v>
+        <v>44438</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N22" t="n">
-        <v>37000</v>
+        <v>32000</v>
       </c>
       <c r="O22" t="n">
-        <v>37000</v>
+        <v>32000</v>
       </c>
       <c r="P22" t="n">
-        <v>37000</v>
+        <v>32000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>2056</v>
+        <v>1778</v>
       </c>
       <c r="T22" t="n">
         <v>18</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44396</v>
+        <v>44340</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2200,20 +2200,20 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="N23" t="n">
-        <v>34000</v>
+        <v>37000</v>
       </c>
       <c r="O23" t="n">
-        <v>34000</v>
+        <v>37000</v>
       </c>
       <c r="P23" t="n">
-        <v>34000</v>
+        <v>37000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1889</v>
+        <v>2056</v>
       </c>
       <c r="T23" t="n">
         <v>18</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44326</v>
+        <v>44340</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2280,11 +2280,11 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N24" t="n">
         <v>35000</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44326</v>
+        <v>44319</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>25</v>
+        <v>140</v>
       </c>
       <c r="N25" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="O25" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="P25" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1667</v>
+        <v>1500</v>
       </c>
       <c r="T25" t="n">
         <v>18</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44326</v>
+        <v>44270</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2440,20 +2440,20 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="N26" t="n">
-        <v>28000</v>
+        <v>38000</v>
       </c>
       <c r="O26" t="n">
-        <v>28000</v>
+        <v>38000</v>
       </c>
       <c r="P26" t="n">
-        <v>28000</v>
+        <v>38000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>1556</v>
+        <v>2111</v>
       </c>
       <c r="T26" t="n">
         <v>18</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44466</v>
+        <v>44284</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2524,16 +2524,16 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>15</v>
+        <v>120</v>
       </c>
       <c r="N27" t="n">
-        <v>60000</v>
+        <v>23000</v>
       </c>
       <c r="O27" t="n">
-        <v>60000</v>
+        <v>23000</v>
       </c>
       <c r="P27" t="n">
-        <v>60000</v>
+        <v>23000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>3333</v>
+        <v>1278</v>
       </c>
       <c r="T27" t="n">
         <v>18</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44466</v>
+        <v>44382</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2600,20 +2600,20 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N28" t="n">
-        <v>58000</v>
+        <v>35000</v>
       </c>
       <c r="O28" t="n">
-        <v>58000</v>
+        <v>35000</v>
       </c>
       <c r="P28" t="n">
-        <v>58000</v>
+        <v>35000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>3222</v>
+        <v>1944</v>
       </c>
       <c r="T28" t="n">
         <v>18</v>
@@ -2680,20 +2680,20 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N29" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="O29" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="P29" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1944</v>
+        <v>1778</v>
       </c>
       <c r="T29" t="n">
         <v>18</v>
@@ -2760,20 +2760,20 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N30" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="O30" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="P30" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1778</v>
+        <v>1667</v>
       </c>
       <c r="T30" t="n">
         <v>18</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44382</v>
+        <v>44305</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2840,11 +2840,11 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N31" t="n">
         <v>30000</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44459</v>
+        <v>44452</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2924,16 +2924,16 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N32" t="n">
-        <v>38000</v>
+        <v>36000</v>
       </c>
       <c r="O32" t="n">
-        <v>38000</v>
+        <v>36000</v>
       </c>
       <c r="P32" t="n">
-        <v>38000</v>
+        <v>36000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>2111</v>
+        <v>2000</v>
       </c>
       <c r="T32" t="n">
         <v>18</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44529</v>
+        <v>44445</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -3000,20 +3000,20 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N33" t="n">
-        <v>60000</v>
+        <v>32000</v>
       </c>
       <c r="O33" t="n">
-        <v>60000</v>
+        <v>32000</v>
       </c>
       <c r="P33" t="n">
-        <v>60000</v>
+        <v>32000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>3333</v>
+        <v>1778</v>
       </c>
       <c r="T33" t="n">
         <v>18</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44529</v>
+        <v>44417</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -3084,16 +3084,16 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="N34" t="n">
-        <v>58000</v>
+        <v>28000</v>
       </c>
       <c r="O34" t="n">
-        <v>58000</v>
+        <v>28000</v>
       </c>
       <c r="P34" t="n">
-        <v>58000</v>
+        <v>28000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>3222</v>
+        <v>1556</v>
       </c>
       <c r="T34" t="n">
         <v>18</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44445</v>
+        <v>44354</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N35" t="n">
-        <v>32000</v>
+        <v>38000</v>
       </c>
       <c r="O35" t="n">
-        <v>32000</v>
+        <v>38000</v>
       </c>
       <c r="P35" t="n">
-        <v>32000</v>
+        <v>38000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1778</v>
+        <v>2111</v>
       </c>
       <c r="T35" t="n">
         <v>18</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>45222</v>
+        <v>44459</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -3244,16 +3244,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="N36" t="n">
-        <v>50000</v>
+        <v>38000</v>
       </c>
       <c r="O36" t="n">
-        <v>50000</v>
+        <v>38000</v>
       </c>
       <c r="P36" t="n">
-        <v>50000</v>
+        <v>38000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>2778</v>
+        <v>2111</v>
       </c>
       <c r="T36" t="n">
         <v>18</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44473</v>
+        <v>44466</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3320,20 +3320,20 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N37" t="n">
-        <v>75000</v>
+        <v>60000</v>
       </c>
       <c r="O37" t="n">
-        <v>75000</v>
+        <v>60000</v>
       </c>
       <c r="P37" t="n">
-        <v>75000</v>
+        <v>60000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>4167</v>
+        <v>3333</v>
       </c>
       <c r="T37" t="n">
         <v>18</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44473</v>
+        <v>44466</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3400,20 +3400,20 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="N38" t="n">
-        <v>72000</v>
+        <v>58000</v>
       </c>
       <c r="O38" t="n">
-        <v>72000</v>
+        <v>58000</v>
       </c>
       <c r="P38" t="n">
-        <v>72000</v>
+        <v>58000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>4000</v>
+        <v>3222</v>
       </c>
       <c r="T38" t="n">
         <v>18</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44473</v>
+        <v>44396</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3480,20 +3480,20 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="N39" t="n">
-        <v>67000</v>
+        <v>37000</v>
       </c>
       <c r="O39" t="n">
-        <v>67000</v>
+        <v>37000</v>
       </c>
       <c r="P39" t="n">
-        <v>67000</v>
+        <v>37000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>3722</v>
+        <v>2056</v>
       </c>
       <c r="T39" t="n">
         <v>18</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44312</v>
+        <v>44396</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3560,20 +3560,20 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>160</v>
+        <v>15</v>
       </c>
       <c r="N40" t="n">
-        <v>26000</v>
+        <v>34000</v>
       </c>
       <c r="O40" t="n">
-        <v>26000</v>
+        <v>34000</v>
       </c>
       <c r="P40" t="n">
-        <v>26000</v>
+        <v>34000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>1444</v>
+        <v>1889</v>
       </c>
       <c r="T40" t="n">
         <v>18</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44305</v>
+        <v>44389</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3644,16 +3644,16 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="N41" t="n">
-        <v>30000</v>
+        <v>29000</v>
       </c>
       <c r="O41" t="n">
-        <v>30000</v>
+        <v>29000</v>
       </c>
       <c r="P41" t="n">
-        <v>30000</v>
+        <v>29000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>1667</v>
+        <v>1611</v>
       </c>
       <c r="T41" t="n">
         <v>18</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44277</v>
+        <v>44389</v>
       </c>
       <c r="E42" t="n">
         <v>13</v>
@@ -3720,20 +3720,20 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="N42" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="O42" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="P42" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>1667</v>
+        <v>1500</v>
       </c>
       <c r="T42" t="n">
         <v>18</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44277</v>
+        <v>44522</v>
       </c>
       <c r="E43" t="n">
         <v>13</v>
@@ -3800,20 +3800,20 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="N43" t="n">
-        <v>28000</v>
+        <v>60000</v>
       </c>
       <c r="O43" t="n">
-        <v>28000</v>
+        <v>60000</v>
       </c>
       <c r="P43" t="n">
-        <v>28000</v>
+        <v>60000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3822,11 +3822,11 @@
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="S43" t="n">
-        <v>1556</v>
+        <v>3333</v>
       </c>
       <c r="T43" t="n">
         <v>18</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44410</v>
+        <v>44522</v>
       </c>
       <c r="E44" t="n">
         <v>13</v>
@@ -3880,20 +3880,20 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N44" t="n">
-        <v>32000</v>
+        <v>56000</v>
       </c>
       <c r="O44" t="n">
-        <v>32000</v>
+        <v>56000</v>
       </c>
       <c r="P44" t="n">
-        <v>32000</v>
+        <v>56000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3902,11 +3902,11 @@
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="S44" t="n">
-        <v>1778</v>
+        <v>3111</v>
       </c>
       <c r="T44" t="n">
         <v>18</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44410</v>
+        <v>44431</v>
       </c>
       <c r="E45" t="n">
         <v>13</v>
@@ -3964,16 +3964,16 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N45" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="O45" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="P45" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>1667</v>
+        <v>1778</v>
       </c>
       <c r="T45" t="n">
         <v>18</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44410</v>
+        <v>44312</v>
       </c>
       <c r="E46" t="n">
         <v>13</v>
@@ -4040,20 +4040,20 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="N46" t="n">
-        <v>28000</v>
+        <v>26000</v>
       </c>
       <c r="O46" t="n">
-        <v>28000</v>
+        <v>26000</v>
       </c>
       <c r="P46" t="n">
-        <v>28000</v>
+        <v>26000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>1556</v>
+        <v>1444</v>
       </c>
       <c r="T46" t="n">
         <v>18</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44431</v>
+        <v>44333</v>
       </c>
       <c r="E47" t="n">
         <v>13</v>
@@ -4127,13 +4127,13 @@
         <v>30</v>
       </c>
       <c r="N47" t="n">
-        <v>32000</v>
+        <v>38000</v>
       </c>
       <c r="O47" t="n">
-        <v>32000</v>
+        <v>38000</v>
       </c>
       <c r="P47" t="n">
-        <v>32000</v>
+        <v>38000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>1778</v>
+        <v>2111</v>
       </c>
       <c r="T47" t="n">
         <v>18</v>
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44354</v>
+        <v>44333</v>
       </c>
       <c r="E48" t="n">
         <v>13</v>
@@ -4200,20 +4200,20 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="N48" t="n">
-        <v>38000</v>
+        <v>35000</v>
       </c>
       <c r="O48" t="n">
-        <v>38000</v>
+        <v>35000</v>
       </c>
       <c r="P48" t="n">
-        <v>38000</v>
+        <v>35000</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         </is>
       </c>
       <c r="S48" t="n">
-        <v>2111</v>
+        <v>1944</v>
       </c>
       <c r="T48" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Maracuyá.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Maracuyá.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44403</v>
+        <v>44305</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
         <v>25</v>
       </c>
       <c r="N2" t="n">
-        <v>33000</v>
+        <v>30000</v>
       </c>
       <c r="O2" t="n">
-        <v>33000</v>
+        <v>30000</v>
       </c>
       <c r="P2" t="n">
-        <v>33000</v>
+        <v>30000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1833</v>
+        <v>1667</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44403</v>
+        <v>44529</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="N3" t="n">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="O3" t="n">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="P3" t="n">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1667</v>
+        <v>3333</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44403</v>
+        <v>44529</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="N4" t="n">
-        <v>28000</v>
+        <v>58000</v>
       </c>
       <c r="O4" t="n">
-        <v>28000</v>
+        <v>58000</v>
       </c>
       <c r="P4" t="n">
-        <v>28000</v>
+        <v>58000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1556</v>
+        <v>3222</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44410</v>
+        <v>44466</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
         <v>15</v>
       </c>
       <c r="N5" t="n">
-        <v>32000</v>
+        <v>60000</v>
       </c>
       <c r="O5" t="n">
-        <v>32000</v>
+        <v>60000</v>
       </c>
       <c r="P5" t="n">
-        <v>32000</v>
+        <v>60000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1778</v>
+        <v>3333</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44410</v>
+        <v>44466</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="N6" t="n">
-        <v>30000</v>
+        <v>58000</v>
       </c>
       <c r="O6" t="n">
-        <v>30000</v>
+        <v>58000</v>
       </c>
       <c r="P6" t="n">
-        <v>30000</v>
+        <v>58000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1667</v>
+        <v>3222</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44410</v>
+        <v>44382</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N7" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="O7" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="P7" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1556</v>
+        <v>1944</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44277</v>
+        <v>44382</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="N8" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="O8" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="P8" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1667</v>
+        <v>1778</v>
       </c>
       <c r="T8" t="n">
         <v>18</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44277</v>
+        <v>44382</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="N9" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="O9" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="P9" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1556</v>
+        <v>1667</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44291</v>
+        <v>44403</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1160,20 +1160,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N10" t="n">
-        <v>25000</v>
+        <v>33000</v>
       </c>
       <c r="O10" t="n">
-        <v>25000</v>
+        <v>33000</v>
       </c>
       <c r="P10" t="n">
-        <v>25000</v>
+        <v>33000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1389</v>
+        <v>1833</v>
       </c>
       <c r="T10" t="n">
         <v>18</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44424</v>
+        <v>44403</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N11" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="O11" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="P11" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1778</v>
+        <v>1667</v>
       </c>
       <c r="T11" t="n">
         <v>18</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45222</v>
+        <v>44403</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="N12" t="n">
-        <v>50000</v>
+        <v>28000</v>
       </c>
       <c r="O12" t="n">
-        <v>50000</v>
+        <v>28000</v>
       </c>
       <c r="P12" t="n">
-        <v>50000</v>
+        <v>28000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>2778</v>
+        <v>1556</v>
       </c>
       <c r="T12" t="n">
         <v>18</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44473</v>
+        <v>44445</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="N13" t="n">
-        <v>75000</v>
+        <v>32000</v>
       </c>
       <c r="O13" t="n">
-        <v>75000</v>
+        <v>32000</v>
       </c>
       <c r="P13" t="n">
-        <v>75000</v>
+        <v>32000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>4167</v>
+        <v>1778</v>
       </c>
       <c r="T13" t="n">
         <v>18</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44473</v>
+        <v>44389</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="N14" t="n">
-        <v>72000</v>
+        <v>29000</v>
       </c>
       <c r="O14" t="n">
-        <v>72000</v>
+        <v>29000</v>
       </c>
       <c r="P14" t="n">
-        <v>72000</v>
+        <v>29000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>4000</v>
+        <v>1611</v>
       </c>
       <c r="T14" t="n">
         <v>18</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44473</v>
+        <v>44389</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="N15" t="n">
-        <v>67000</v>
+        <v>27000</v>
       </c>
       <c r="O15" t="n">
-        <v>67000</v>
+        <v>27000</v>
       </c>
       <c r="P15" t="n">
-        <v>67000</v>
+        <v>27000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>3722</v>
+        <v>1500</v>
       </c>
       <c r="T15" t="n">
         <v>18</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44326</v>
+        <v>44473</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="N16" t="n">
-        <v>35000</v>
+        <v>75000</v>
       </c>
       <c r="O16" t="n">
-        <v>35000</v>
+        <v>75000</v>
       </c>
       <c r="P16" t="n">
-        <v>35000</v>
+        <v>75000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1944</v>
+        <v>4167</v>
       </c>
       <c r="T16" t="n">
         <v>18</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44326</v>
+        <v>44473</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1727,13 +1727,13 @@
         <v>25</v>
       </c>
       <c r="N17" t="n">
-        <v>30000</v>
+        <v>72000</v>
       </c>
       <c r="O17" t="n">
-        <v>30000</v>
+        <v>72000</v>
       </c>
       <c r="P17" t="n">
-        <v>30000</v>
+        <v>72000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1667</v>
+        <v>4000</v>
       </c>
       <c r="T17" t="n">
         <v>18</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44326</v>
+        <v>44473</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="N18" t="n">
-        <v>28000</v>
+        <v>67000</v>
       </c>
       <c r="O18" t="n">
-        <v>28000</v>
+        <v>67000</v>
       </c>
       <c r="P18" t="n">
-        <v>28000</v>
+        <v>67000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1556</v>
+        <v>3722</v>
       </c>
       <c r="T18" t="n">
         <v>18</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44529</v>
+        <v>44431</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N19" t="n">
-        <v>60000</v>
+        <v>32000</v>
       </c>
       <c r="O19" t="n">
-        <v>60000</v>
+        <v>32000</v>
       </c>
       <c r="P19" t="n">
-        <v>60000</v>
+        <v>32000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7